--- a/covid19 lockdown evaluation .xlsx
+++ b/covid19 lockdown evaluation .xlsx
@@ -15,9 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="41">
-  <si>
-    <t>Effects of the lockdown issued by governments </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="45">
+  <si>
+    <t>Effects of the lockdown issued by governments</t>
   </si>
   <si>
     <t>LEGENDA</t>
@@ -35,10 +35,22 @@
     <t>: 5 deaths per million people inhabitants</t>
   </si>
   <si>
-    <t>total deaths today</t>
-  </si>
-  <si>
-    <t>: total # of deaths in the Nation</t>
+    <t>total deaths</t>
+  </si>
+  <si>
+    <t>: total # of deaths in the Nation, as shown in worldometers site</t>
+  </si>
+  <si>
+    <t>Deaths per milllion</t>
+  </si>
+  <si>
+    <t>: total deaths in the nation per one million inhabitants</t>
+  </si>
+  <si>
+    <t>deaths today</t>
+  </si>
+  <si>
+    <t>: # of deaths in the day</t>
   </si>
   <si>
     <t>start of crisis</t>
@@ -83,9 +95,6 @@
     <t>Today</t>
   </si>
   <si>
-    <t>total deaths</t>
-  </si>
-  <si>
     <t>Deaths per</t>
   </si>
   <si>
@@ -105,6 +114,9 @@
   </si>
   <si>
     <t>million</t>
+  </si>
+  <si>
+    <t>Deaths today</t>
   </si>
   <si>
     <t>crisis</t>
@@ -243,7 +255,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -300,10 +312,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -321,17 +329,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:P51"/>
+  <dimension ref="A1:Q65"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D28" activeCellId="0" sqref="D28"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A26" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F66" activeCellId="0" sqref="F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="3" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="16" min="4" style="1" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="1" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="13.1938775510204"/>
+    <col collapsed="false" hidden="false" max="17" min="7" style="1" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -348,6 +358,7 @@
       <c r="N1" s="0"/>
       <c r="O1" s="0"/>
       <c r="P1" s="0"/>
+      <c r="Q1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="2" t="s">
@@ -366,6 +377,7 @@
       <c r="N2" s="0"/>
       <c r="O2" s="0"/>
       <c r="P2" s="0"/>
+      <c r="Q2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D3" s="0"/>
@@ -381,6 +393,7 @@
       <c r="N3" s="0"/>
       <c r="O3" s="0"/>
       <c r="P3" s="0"/>
+      <c r="Q3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="3" t="s">
@@ -399,6 +412,7 @@
       <c r="N4" s="0"/>
       <c r="O4" s="0"/>
       <c r="P4" s="0"/>
+      <c r="Q4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="4" t="s">
@@ -420,6 +434,7 @@
       <c r="N5" s="0"/>
       <c r="O5" s="0"/>
       <c r="P5" s="0"/>
+      <c r="Q5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="4" t="s">
@@ -441,6 +456,7 @@
       <c r="N6" s="0"/>
       <c r="O6" s="0"/>
       <c r="P6" s="0"/>
+      <c r="Q6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="4" t="s">
@@ -462,6 +478,7 @@
       <c r="N7" s="0"/>
       <c r="O7" s="0"/>
       <c r="P7" s="0"/>
+      <c r="Q7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="4" t="s">
@@ -483,6 +500,7 @@
       <c r="N8" s="0"/>
       <c r="O8" s="0"/>
       <c r="P8" s="0"/>
+      <c r="Q8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="4" t="s">
@@ -504,6 +522,7 @@
       <c r="N9" s="0"/>
       <c r="O9" s="0"/>
       <c r="P9" s="0"/>
+      <c r="Q9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="4" t="s">
@@ -525,6 +544,7 @@
       <c r="N10" s="0"/>
       <c r="O10" s="0"/>
       <c r="P10" s="0"/>
+      <c r="Q10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="4" t="s">
@@ -546,6 +566,7 @@
       <c r="N11" s="0"/>
       <c r="O11" s="0"/>
       <c r="P11" s="0"/>
+      <c r="Q11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="4" t="s">
@@ -567,9 +588,15 @@
       <c r="N12" s="0"/>
       <c r="O12" s="0"/>
       <c r="P12" s="0"/>
+      <c r="Q12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="4"/>
+      <c r="B13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>19</v>
+      </c>
       <c r="D13" s="0"/>
       <c r="E13" s="0"/>
       <c r="F13" s="0"/>
@@ -583,13 +610,14 @@
       <c r="N13" s="0"/>
       <c r="O13" s="0"/>
       <c r="P13" s="0"/>
+      <c r="Q13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D14" s="0"/>
       <c r="E14" s="0"/>
@@ -604,12 +632,10 @@
       <c r="N14" s="0"/>
       <c r="O14" s="0"/>
       <c r="P14" s="0"/>
+      <c r="Q14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="4"/>
-      <c r="C15" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="D15" s="0"/>
       <c r="E15" s="0"/>
       <c r="F15" s="0"/>
@@ -623,10 +649,15 @@
       <c r="N15" s="0"/>
       <c r="O15" s="0"/>
       <c r="P15" s="0"/>
+      <c r="Q15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
+      <c r="B16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>23</v>
+      </c>
       <c r="D16" s="0"/>
       <c r="E16" s="0"/>
       <c r="F16" s="0"/>
@@ -640,10 +671,13 @@
       <c r="N16" s="0"/>
       <c r="O16" s="0"/>
       <c r="P16" s="0"/>
+      <c r="Q16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
+      <c r="C17" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="D17" s="0"/>
       <c r="E17" s="0"/>
       <c r="F17" s="0"/>
@@ -657,11 +691,11 @@
       <c r="N17" s="0"/>
       <c r="O17" s="0"/>
       <c r="P17" s="0"/>
+      <c r="Q17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="6" t="s">
-        <v>21</v>
-      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="5"/>
       <c r="D18" s="0"/>
       <c r="E18" s="0"/>
       <c r="F18" s="0"/>
@@ -675,387 +709,413 @@
       <c r="N18" s="0"/>
       <c r="O18" s="0"/>
       <c r="P18" s="0"/>
+      <c r="Q18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="7" t="n">
-        <v>43918</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J19" s="8" t="s">
-        <v>27</v>
-      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="0"/>
+      <c r="E19" s="0"/>
+      <c r="F19" s="0"/>
+      <c r="G19" s="0"/>
+      <c r="H19" s="0"/>
+      <c r="I19" s="0"/>
+      <c r="J19" s="0"/>
       <c r="K19" s="0"/>
       <c r="L19" s="0"/>
       <c r="M19" s="0"/>
       <c r="N19" s="0"/>
       <c r="O19" s="0"/>
       <c r="P19" s="0"/>
+      <c r="Q19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="9"/>
-      <c r="C20" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="B20" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="0"/>
+      <c r="E20" s="0"/>
+      <c r="F20" s="0"/>
+      <c r="G20" s="0"/>
+      <c r="H20" s="0"/>
+      <c r="I20" s="0"/>
+      <c r="J20" s="0"/>
       <c r="K20" s="0"/>
       <c r="L20" s="0"/>
       <c r="M20" s="0"/>
       <c r="N20" s="0"/>
       <c r="O20" s="0"/>
       <c r="P20" s="0"/>
+      <c r="Q20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="12" t="n">
-        <v>300</v>
-      </c>
-      <c r="D21" s="1" t="n">
-        <v>10023</v>
-      </c>
-      <c r="E21" s="12" t="n">
-        <f aca="false">D21/60.48</f>
-        <v>165.724206349206</v>
-      </c>
-      <c r="F21" s="13" t="n">
-        <v>43900</v>
-      </c>
-      <c r="G21" s="14" t="n">
-        <f aca="false">_xlfn.DAYS($B$19,F21)</f>
-        <v>18</v>
-      </c>
-      <c r="H21" s="13" t="n">
-        <v>43902</v>
-      </c>
-      <c r="I21" s="14" t="n">
-        <f aca="false">_xlfn.DAYS(B$31,H21)</f>
-        <v>15</v>
-      </c>
-      <c r="J21" s="13" t="n">
-        <f aca="false">$B$19+1</f>
+      <c r="B21" s="7" t="n">
         <v>43919</v>
       </c>
-      <c r="K21" s="0"/>
+      <c r="D21" s="0"/>
+      <c r="E21" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="0"/>
+      <c r="G21" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="L21" s="0"/>
       <c r="M21" s="0"/>
       <c r="N21" s="0"/>
       <c r="O21" s="0"/>
       <c r="P21" s="0"/>
+      <c r="Q21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="9"/>
+      <c r="C22" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H22" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="12" t="n">
-        <v>230</v>
-      </c>
-      <c r="D22" s="1" t="n">
-        <v>5982</v>
-      </c>
-      <c r="E22" s="12" t="n">
-        <f aca="false">D22/46.75</f>
-        <v>127.957219251337</v>
-      </c>
-      <c r="F22" s="13" t="n">
-        <v>43907</v>
-      </c>
-      <c r="G22" s="14" t="n">
-        <f aca="false">_xlfn.DAYS($B$19,F22)</f>
-        <v>11</v>
-      </c>
-      <c r="H22" s="13" t="n">
-        <v>43913</v>
-      </c>
-      <c r="I22" s="14" t="n">
-        <f aca="false">_xlfn.DAYS(B$31,H22)</f>
-        <v>4</v>
-      </c>
-      <c r="J22" s="13" t="n">
-        <f aca="false">$B$19+1</f>
-        <v>43919</v>
-      </c>
-      <c r="K22" s="0"/>
+      <c r="I22" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>34</v>
+      </c>
       <c r="L22" s="0"/>
       <c r="M22" s="0"/>
       <c r="N22" s="0"/>
       <c r="O22" s="0"/>
       <c r="P22" s="0"/>
+      <c r="Q22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C23" s="12" t="n">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="D23" s="1" t="n">
-        <v>2314</v>
+        <v>10779</v>
       </c>
       <c r="E23" s="12" t="n">
-        <f aca="false">D23/65.27</f>
-        <v>35.4527347939329</v>
-      </c>
-      <c r="F23" s="13" t="n">
-        <v>43912</v>
-      </c>
-      <c r="G23" s="14" t="n">
-        <f aca="false">_xlfn.DAYS($B$19,F23)</f>
-        <v>6</v>
-      </c>
-      <c r="H23" s="13" t="n">
-        <v>43914</v>
-      </c>
-      <c r="I23" s="14" t="n">
-        <f aca="false">_xlfn.DAYS(B$31,H23)</f>
-        <v>3</v>
-      </c>
-      <c r="J23" s="13" t="n">
-        <f aca="false">$B$19+1</f>
-        <v>43919</v>
-      </c>
-      <c r="K23" s="0"/>
+        <f aca="false">D23/60.48</f>
+        <v>178.224206349206</v>
+      </c>
+      <c r="F23" s="12" t="n">
+        <v>756</v>
+      </c>
+      <c r="G23" s="13" t="n">
+        <v>43900</v>
+      </c>
+      <c r="H23" s="1" t="n">
+        <f aca="false">_xlfn.DAYS($B$21,G23)</f>
+        <v>19</v>
+      </c>
+      <c r="I23" s="13" t="n">
+        <v>43902</v>
+      </c>
+      <c r="J23" s="1" t="n">
+        <f aca="false">_xlfn.DAYS($B$21,I23)</f>
+        <v>17</v>
+      </c>
+      <c r="K23" s="13" t="n">
+        <f aca="false">$B$21+1</f>
+        <v>43920</v>
+      </c>
       <c r="L23" s="0"/>
       <c r="M23" s="0"/>
       <c r="N23" s="0"/>
       <c r="O23" s="0"/>
       <c r="P23" s="0"/>
+      <c r="Q23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C24" s="12" t="n">
-        <v>1660</v>
+        <v>230</v>
       </c>
       <c r="D24" s="1" t="n">
-        <v>2221</v>
+        <v>6803</v>
       </c>
       <c r="E24" s="12" t="n">
-        <f aca="false">D24/331</f>
-        <v>6.70996978851964</v>
-      </c>
-      <c r="F24" s="13" t="n">
-        <v>43917</v>
-      </c>
-      <c r="G24" s="14" t="n">
-        <f aca="false">_xlfn.DAYS($B$19,F24)</f>
-        <v>1</v>
-      </c>
-      <c r="H24" s="13" t="n">
-        <f aca="false">$B$19+1</f>
-        <v>43919</v>
-      </c>
-      <c r="I24" s="14" t="n">
-        <f aca="false">_xlfn.DAYS($B$19,H24)</f>
-        <v>-1</v>
-      </c>
-      <c r="J24" s="13" t="n">
-        <f aca="false">$B$19+1</f>
-        <v>43919</v>
-      </c>
-      <c r="K24" s="0"/>
+        <f aca="false">D24/46.75</f>
+        <v>145.51871657754</v>
+      </c>
+      <c r="F24" s="12" t="n">
+        <v>821</v>
+      </c>
+      <c r="G24" s="13" t="n">
+        <v>43907</v>
+      </c>
+      <c r="H24" s="1" t="n">
+        <f aca="false">_xlfn.DAYS($B$21,G24)</f>
+        <v>12</v>
+      </c>
+      <c r="I24" s="13" t="n">
+        <v>43913</v>
+      </c>
+      <c r="J24" s="1" t="n">
+        <f aca="false">_xlfn.DAYS($B$21,I24)</f>
+        <v>6</v>
+      </c>
+      <c r="K24" s="13" t="n">
+        <f aca="false">$B$21+1</f>
+        <v>43920</v>
+      </c>
       <c r="L24" s="0"/>
       <c r="M24" s="0"/>
       <c r="N24" s="0"/>
       <c r="O24" s="0"/>
       <c r="P24" s="0"/>
+      <c r="Q24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C25" s="12" t="n">
         <v>330</v>
       </c>
       <c r="D25" s="1" t="n">
-        <v>1019</v>
+        <v>2606</v>
       </c>
       <c r="E25" s="12" t="n">
-        <f aca="false">D25/67.79</f>
-        <v>15.0317155922702</v>
-      </c>
-      <c r="F25" s="13" t="n">
-        <v>43916</v>
-      </c>
-      <c r="G25" s="14" t="n">
-        <f aca="false">_xlfn.DAYS($B$19,F25)</f>
-        <v>2</v>
-      </c>
-      <c r="H25" s="13" t="n">
-        <f aca="false">$B$19+1</f>
-        <v>43919</v>
-      </c>
-      <c r="I25" s="14" t="n">
-        <f aca="false">_xlfn.DAYS($B$19,H25)</f>
-        <v>-1</v>
-      </c>
-      <c r="J25" s="13" t="n">
-        <f aca="false">$B$19+1</f>
-        <v>43919</v>
-      </c>
-      <c r="K25" s="0"/>
+        <f aca="false">D25/65.27</f>
+        <v>39.9264593228129</v>
+      </c>
+      <c r="F25" s="12" t="n">
+        <v>292</v>
+      </c>
+      <c r="G25" s="13" t="n">
+        <v>43912</v>
+      </c>
+      <c r="H25" s="1" t="n">
+        <f aca="false">_xlfn.DAYS($B$21,G25)</f>
+        <v>7</v>
+      </c>
+      <c r="I25" s="13" t="n">
+        <v>43914</v>
+      </c>
+      <c r="J25" s="1" t="n">
+        <f aca="false">_xlfn.DAYS($B$21,I25)</f>
+        <v>5</v>
+      </c>
+      <c r="K25" s="13" t="n">
+        <f aca="false">$B$21+1</f>
+        <v>43920</v>
+      </c>
       <c r="L25" s="0"/>
       <c r="M25" s="0"/>
       <c r="N25" s="0"/>
       <c r="O25" s="0"/>
       <c r="P25" s="0"/>
+      <c r="Q25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C26" s="12" t="n">
-        <v>414</v>
+        <v>1660</v>
       </c>
       <c r="D26" s="1" t="n">
-        <v>433</v>
+        <v>2583</v>
       </c>
       <c r="E26" s="12" t="n">
-        <f aca="false">D26/83.784</f>
-        <v>5.16805117922276</v>
-      </c>
-      <c r="F26" s="13" t="n">
-        <v>43918</v>
-      </c>
-      <c r="G26" s="14" t="n">
-        <f aca="false">_xlfn.DAYS($B$19,F26)</f>
-        <v>0</v>
-      </c>
-      <c r="H26" s="13" t="n">
-        <f aca="false">$B$19+1</f>
-        <v>43919</v>
-      </c>
-      <c r="I26" s="14" t="n">
-        <f aca="false">_xlfn.DAYS($B$19,H26)</f>
+        <f aca="false">D26/331</f>
+        <v>7.8036253776435</v>
+      </c>
+      <c r="F26" s="12" t="n">
+        <v>363</v>
+      </c>
+      <c r="G26" s="13" t="n">
+        <v>43917</v>
+      </c>
+      <c r="H26" s="1" t="n">
+        <f aca="false">_xlfn.DAYS($B$21,G26)</f>
+        <v>2</v>
+      </c>
+      <c r="I26" s="13" t="n">
+        <f aca="false">$B$21+1</f>
+        <v>43920</v>
+      </c>
+      <c r="J26" s="1" t="n">
+        <f aca="false">_xlfn.DAYS($B$21,I26)</f>
         <v>-1</v>
       </c>
-      <c r="J26" s="13" t="n">
-        <f aca="false">$B$19+1</f>
-        <v>43919</v>
-      </c>
-      <c r="K26" s="0"/>
+      <c r="K26" s="13" t="n">
+        <f aca="false">$B$21+1</f>
+        <v>43920</v>
+      </c>
       <c r="L26" s="0"/>
       <c r="M26" s="0"/>
       <c r="N26" s="0"/>
       <c r="O26" s="0"/>
       <c r="P26" s="0"/>
+      <c r="Q26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C27" s="12" t="n">
-        <v>50</v>
-      </c>
-      <c r="D27" s="12" t="n">
-        <v>105</v>
+        <v>330</v>
+      </c>
+      <c r="D27" s="1" t="n">
+        <v>1228</v>
       </c>
       <c r="E27" s="12" t="n">
-        <f aca="false">D27/10.36</f>
-        <v>10.1351351351351</v>
-      </c>
-      <c r="F27" s="13" t="n">
-        <f aca="false">$B$19+1</f>
-        <v>43919</v>
-      </c>
-      <c r="G27" s="14" t="n">
-        <f aca="false">_xlfn.DAYS($B$19,F27)</f>
+        <f aca="false">D27/67.79</f>
+        <v>18.1147661897035</v>
+      </c>
+      <c r="F27" s="12" t="n">
+        <v>209</v>
+      </c>
+      <c r="G27" s="13" t="n">
+        <v>43916</v>
+      </c>
+      <c r="H27" s="1" t="n">
+        <f aca="false">_xlfn.DAYS($B$21,G27)</f>
+        <v>3</v>
+      </c>
+      <c r="I27" s="13" t="n">
+        <f aca="false">$B$21+1</f>
+        <v>43920</v>
+      </c>
+      <c r="J27" s="1" t="n">
+        <f aca="false">_xlfn.DAYS($B$21,I27)</f>
         <v>-1</v>
       </c>
-      <c r="H27" s="13" t="n">
-        <f aca="false">$B$19+1</f>
-        <v>43919</v>
-      </c>
-      <c r="I27" s="14" t="n">
-        <f aca="false">_xlfn.DAYS($B$19,H27)</f>
-        <v>-1</v>
-      </c>
-      <c r="J27" s="13" t="n">
-        <f aca="false">$B$19+1</f>
-        <v>43919</v>
-      </c>
-      <c r="K27" s="0"/>
+      <c r="K27" s="13" t="n">
+        <f aca="false">$B$21+1</f>
+        <v>43920</v>
+      </c>
       <c r="L27" s="0"/>
       <c r="M27" s="0"/>
       <c r="N27" s="0"/>
       <c r="O27" s="0"/>
       <c r="P27" s="0"/>
+      <c r="Q27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="0"/>
+      <c r="B28" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="12" t="n">
+        <v>414</v>
+      </c>
+      <c r="D28" s="1" t="n">
+        <v>541</v>
+      </c>
+      <c r="E28" s="12" t="n">
+        <f aca="false">D28/83.784</f>
+        <v>6.457080110761</v>
+      </c>
+      <c r="F28" s="12" t="n">
+        <v>108</v>
+      </c>
+      <c r="G28" s="13" t="n">
+        <v>43918</v>
+      </c>
+      <c r="H28" s="1" t="n">
+        <f aca="false">_xlfn.DAYS($B$21,G28)</f>
+        <v>1</v>
+      </c>
+      <c r="I28" s="13" t="n">
+        <f aca="false">$B$21+1</f>
+        <v>43920</v>
+      </c>
+      <c r="J28" s="1" t="n">
+        <f aca="false">_xlfn.DAYS($B$21,I28)</f>
+        <v>-1</v>
+      </c>
+      <c r="K28" s="13" t="n">
+        <f aca="false">$B$21+1</f>
+        <v>43920</v>
+      </c>
       <c r="L28" s="0"/>
       <c r="M28" s="0"/>
       <c r="N28" s="0"/>
       <c r="O28" s="0"/>
       <c r="P28" s="0"/>
+      <c r="Q28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="4"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="0"/>
-      <c r="E29" s="0"/>
-      <c r="F29" s="0"/>
-      <c r="G29" s="0"/>
-      <c r="H29" s="0"/>
-      <c r="I29" s="0"/>
-      <c r="J29" s="0"/>
-      <c r="K29" s="0"/>
+      <c r="B29" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="12" t="n">
+        <v>50</v>
+      </c>
+      <c r="D29" s="12" t="n">
+        <v>110</v>
+      </c>
+      <c r="E29" s="12" t="n">
+        <f aca="false">D29/10.36</f>
+        <v>10.6177606177606</v>
+      </c>
+      <c r="F29" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="G29" s="13" t="n">
+        <v>43915</v>
+      </c>
+      <c r="H29" s="1" t="n">
+        <f aca="false">_xlfn.DAYS($B$21,G29)</f>
+        <v>4</v>
+      </c>
+      <c r="I29" s="13" t="n">
+        <f aca="false">$B$21+1</f>
+        <v>43920</v>
+      </c>
+      <c r="J29" s="1" t="n">
+        <f aca="false">_xlfn.DAYS($B$21,I29)</f>
+        <v>-1</v>
+      </c>
+      <c r="K29" s="13" t="n">
+        <f aca="false">$B$21+1</f>
+        <v>43920</v>
+      </c>
       <c r="L29" s="0"/>
       <c r="M29" s="0"/>
       <c r="N29" s="0"/>
       <c r="O29" s="0"/>
       <c r="P29" s="0"/>
+      <c r="Q29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="6" t="s">
-        <v>21</v>
-      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="5"/>
       <c r="D30" s="0"/>
       <c r="E30" s="0"/>
       <c r="F30" s="0"/>
@@ -1069,725 +1129,1247 @@
       <c r="N30" s="0"/>
       <c r="O30" s="0"/>
       <c r="P30" s="0"/>
-    </row>
-    <row r="31" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="7" t="n">
-        <v>43917</v>
-      </c>
-      <c r="C31" s="0"/>
-      <c r="D31" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G31" s="8" t="s">
+      <c r="Q30" s="0"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="4"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="0"/>
+      <c r="E31" s="0"/>
+      <c r="F31" s="0"/>
+      <c r="G31" s="0"/>
+      <c r="H31" s="0"/>
+      <c r="I31" s="0"/>
+      <c r="J31" s="0"/>
+      <c r="K31" s="0"/>
+      <c r="L31" s="0"/>
+      <c r="M31" s="0"/>
+      <c r="N31" s="0"/>
+      <c r="O31" s="0"/>
+      <c r="P31" s="0"/>
+      <c r="Q31" s="0"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H31" s="8" t="s">
+      <c r="D32" s="0"/>
+      <c r="E32" s="0"/>
+      <c r="F32" s="0"/>
+      <c r="G32" s="0"/>
+      <c r="H32" s="0"/>
+      <c r="I32" s="0"/>
+      <c r="J32" s="0"/>
+      <c r="K32" s="0"/>
+      <c r="L32" s="0"/>
+      <c r="M32" s="0"/>
+      <c r="N32" s="0"/>
+      <c r="O32" s="0"/>
+      <c r="P32" s="0"/>
+      <c r="Q32" s="0"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="7" t="n">
+        <v>43918</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="I31" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J31" s="8" t="s">
+      <c r="F33" s="8"/>
+      <c r="G33" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="K31" s="8"/>
-    </row>
-    <row r="32" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="9"/>
-      <c r="C32" s="10" t="s">
+      <c r="H33" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D32" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E32" s="10" t="s">
+      <c r="I33" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F32" s="11" t="s">
+      <c r="J33" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K33" s="8" t="s">
         <v>30</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H32" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="I32" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="J32" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="K32" s="8"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C33" s="12" t="n">
-        <v>300</v>
-      </c>
-      <c r="D33" s="1" t="n">
-        <v>9134</v>
-      </c>
-      <c r="E33" s="12" t="n">
-        <f aca="false">D33/60.48</f>
-        <v>151.025132275132</v>
-      </c>
-      <c r="F33" s="13" t="n">
-        <v>43900</v>
-      </c>
-      <c r="G33" s="14" t="n">
-        <f aca="false">_xlfn.DAYS($B$31,F33)</f>
-        <v>17</v>
-      </c>
-      <c r="H33" s="13" t="n">
-        <v>43902</v>
-      </c>
-      <c r="I33" s="14" t="n">
-        <f aca="false">_xlfn.DAYS(B$31,H33)</f>
-        <v>15</v>
-      </c>
-      <c r="J33" s="13" t="n">
-        <f aca="false">$B$31+1</f>
-        <v>43918</v>
       </c>
       <c r="L33" s="0"/>
       <c r="M33" s="0"/>
       <c r="N33" s="0"/>
       <c r="O33" s="0"/>
       <c r="P33" s="0"/>
+      <c r="Q33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="0" t="s">
+      <c r="B34" s="9"/>
+      <c r="C34" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H34" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="12" t="n">
-        <v>230</v>
-      </c>
-      <c r="D34" s="1" t="n">
-        <v>5138</v>
-      </c>
-      <c r="E34" s="12" t="n">
-        <f aca="false">D34/46.75</f>
-        <v>109.903743315508</v>
-      </c>
-      <c r="F34" s="13" t="n">
-        <v>43907</v>
-      </c>
-      <c r="G34" s="14" t="n">
-        <f aca="false">_xlfn.DAYS($B$31,F34)</f>
-        <v>10</v>
-      </c>
-      <c r="H34" s="13" t="n">
-        <v>43913</v>
-      </c>
-      <c r="I34" s="14" t="n">
-        <f aca="false">_xlfn.DAYS(B$31,H34)</f>
-        <v>4</v>
-      </c>
-      <c r="J34" s="13" t="n">
-        <f aca="false">$B$31+1</f>
-        <v>43918</v>
+      <c r="I34" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="J34" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="K34" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="L34" s="0"/>
       <c r="M34" s="0"/>
       <c r="N34" s="0"/>
       <c r="O34" s="0"/>
       <c r="P34" s="0"/>
+      <c r="Q34" s="0"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C35" s="12" t="n">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="D35" s="1" t="n">
-        <v>1995</v>
+        <v>10023</v>
       </c>
       <c r="E35" s="12" t="n">
-        <f aca="false">D35/65.27</f>
-        <v>30.5653439558756</v>
-      </c>
-      <c r="F35" s="13" t="n">
-        <v>43912</v>
-      </c>
-      <c r="G35" s="14" t="n">
-        <f aca="false">_xlfn.DAYS($B$31,F35)</f>
-        <v>5</v>
-      </c>
-      <c r="H35" s="13" t="n">
-        <v>43914</v>
-      </c>
-      <c r="I35" s="14" t="n">
-        <f aca="false">_xlfn.DAYS(B$31,H35)</f>
-        <v>3</v>
-      </c>
-      <c r="J35" s="13" t="n">
-        <f aca="false">$B$31+1</f>
-        <v>43918</v>
+        <f aca="false">D35/60.48</f>
+        <v>165.724206349206</v>
+      </c>
+      <c r="F35" s="12" t="n">
+        <v>889</v>
+      </c>
+      <c r="G35" s="13" t="n">
+        <v>43900</v>
+      </c>
+      <c r="H35" s="1" t="n">
+        <f aca="false">_xlfn.DAYS($B$33,G35)</f>
+        <v>18</v>
+      </c>
+      <c r="I35" s="13" t="n">
+        <v>43902</v>
+      </c>
+      <c r="J35" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$45,I35)</f>
+        <v>15</v>
+      </c>
+      <c r="K35" s="13" t="n">
+        <f aca="false">$B$33+1</f>
+        <v>43919</v>
       </c>
       <c r="L35" s="0"/>
       <c r="M35" s="0"/>
       <c r="N35" s="0"/>
       <c r="O35" s="0"/>
       <c r="P35" s="0"/>
+      <c r="Q35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C36" s="12" t="n">
-        <v>1660</v>
+        <v>230</v>
       </c>
       <c r="D36" s="1" t="n">
-        <v>1696</v>
+        <v>5982</v>
       </c>
       <c r="E36" s="12" t="n">
-        <f aca="false">D36/331</f>
-        <v>5.12386706948641</v>
-      </c>
-      <c r="F36" s="13" t="n">
-        <f aca="false">$B$31</f>
-        <v>43917</v>
-      </c>
-      <c r="G36" s="14" t="n">
-        <f aca="false">_xlfn.DAYS($B$31,F36)</f>
-        <v>0</v>
-      </c>
-      <c r="H36" s="13" t="n">
-        <f aca="false">$B$31+1</f>
-        <v>43918</v>
-      </c>
-      <c r="I36" s="14" t="n">
-        <f aca="false">_xlfn.DAYS(B$31,H36)</f>
-        <v>-1</v>
-      </c>
-      <c r="J36" s="13" t="n">
-        <f aca="false">$B$31+1</f>
-        <v>43918</v>
+        <f aca="false">D36/46.75</f>
+        <v>127.957219251337</v>
+      </c>
+      <c r="F36" s="12" t="n">
+        <v>844</v>
+      </c>
+      <c r="G36" s="13" t="n">
+        <v>43907</v>
+      </c>
+      <c r="H36" s="1" t="n">
+        <f aca="false">_xlfn.DAYS($B$33,G36)</f>
+        <v>11</v>
+      </c>
+      <c r="I36" s="13" t="n">
+        <v>43913</v>
+      </c>
+      <c r="J36" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$45,I36)</f>
+        <v>4</v>
+      </c>
+      <c r="K36" s="13" t="n">
+        <f aca="false">$B$33+1</f>
+        <v>43919</v>
       </c>
       <c r="L36" s="0"/>
       <c r="M36" s="0"/>
       <c r="N36" s="0"/>
       <c r="O36" s="0"/>
       <c r="P36" s="0"/>
+      <c r="Q36" s="0"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C37" s="12" t="n">
         <v>330</v>
       </c>
       <c r="D37" s="1" t="n">
-        <v>759</v>
+        <v>2314</v>
       </c>
       <c r="E37" s="12" t="n">
-        <f aca="false">D37/67.79</f>
-        <v>11.1963416433102</v>
-      </c>
-      <c r="F37" s="13" t="n">
-        <v>43916</v>
-      </c>
-      <c r="G37" s="14" t="n">
-        <f aca="false">_xlfn.DAYS($B$31,F37)</f>
-        <v>1</v>
-      </c>
-      <c r="H37" s="13" t="n">
-        <f aca="false">$B$31+1</f>
-        <v>43918</v>
-      </c>
-      <c r="I37" s="14" t="n">
-        <f aca="false">_xlfn.DAYS(B$31,H37)</f>
-        <v>-1</v>
-      </c>
-      <c r="J37" s="13" t="n">
-        <f aca="false">$B$31+1</f>
-        <v>43918</v>
+        <f aca="false">D37/65.27</f>
+        <v>35.4527347939329</v>
+      </c>
+      <c r="F37" s="12" t="n">
+        <v>319</v>
+      </c>
+      <c r="G37" s="13" t="n">
+        <v>43912</v>
+      </c>
+      <c r="H37" s="1" t="n">
+        <f aca="false">_xlfn.DAYS($B$33,G37)</f>
+        <v>6</v>
+      </c>
+      <c r="I37" s="13" t="n">
+        <v>43914</v>
+      </c>
+      <c r="J37" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$45,I37)</f>
+        <v>3</v>
+      </c>
+      <c r="K37" s="13" t="n">
+        <f aca="false">$B$33+1</f>
+        <v>43919</v>
       </c>
       <c r="L37" s="0"/>
       <c r="M37" s="0"/>
       <c r="N37" s="0"/>
       <c r="O37" s="0"/>
       <c r="P37" s="0"/>
+      <c r="Q37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C38" s="12" t="n">
-        <v>414</v>
+        <v>1660</v>
       </c>
       <c r="D38" s="1" t="n">
-        <v>351</v>
+        <v>2221</v>
       </c>
       <c r="E38" s="12" t="n">
-        <f aca="false">D38/83.784</f>
-        <v>4.18934402749928</v>
-      </c>
-      <c r="F38" s="13" t="n">
-        <f aca="false">$B$31+1</f>
-        <v>43918</v>
-      </c>
-      <c r="G38" s="14" t="n">
-        <f aca="false">_xlfn.DAYS($B$31,F38)</f>
+        <f aca="false">D38/331</f>
+        <v>6.70996978851964</v>
+      </c>
+      <c r="F38" s="12" t="n">
+        <v>525</v>
+      </c>
+      <c r="G38" s="13" t="n">
+        <v>43917</v>
+      </c>
+      <c r="H38" s="1" t="n">
+        <f aca="false">_xlfn.DAYS($B$33,G38)</f>
+        <v>1</v>
+      </c>
+      <c r="I38" s="13" t="n">
+        <f aca="false">$B$33+1</f>
+        <v>43919</v>
+      </c>
+      <c r="J38" s="1" t="n">
+        <f aca="false">_xlfn.DAYS($B$33,I38)</f>
         <v>-1</v>
       </c>
-      <c r="H38" s="13" t="n">
-        <f aca="false">$B$31+1</f>
-        <v>43918</v>
-      </c>
-      <c r="I38" s="14" t="n">
-        <f aca="false">_xlfn.DAYS(B$31,H38)</f>
-        <v>-1</v>
-      </c>
-      <c r="J38" s="13" t="n">
-        <f aca="false">$B$31+1</f>
-        <v>43918</v>
+      <c r="K38" s="13" t="n">
+        <f aca="false">$B$33+1</f>
+        <v>43919</v>
       </c>
       <c r="L38" s="0"/>
       <c r="M38" s="0"/>
       <c r="N38" s="0"/>
       <c r="O38" s="0"/>
       <c r="P38" s="0"/>
+      <c r="Q38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C39" s="12" t="n">
-        <v>50</v>
-      </c>
-      <c r="D39" s="12" t="n">
-        <v>105</v>
+        <v>330</v>
+      </c>
+      <c r="D39" s="1" t="n">
+        <v>1019</v>
       </c>
       <c r="E39" s="12" t="n">
-        <f aca="false">D39/10.36</f>
-        <v>10.1351351351351</v>
-      </c>
-      <c r="F39" s="13" t="n">
-        <f aca="false">$B$31+1</f>
-        <v>43918</v>
-      </c>
-      <c r="G39" s="14" t="n">
-        <f aca="false">_xlfn.DAYS($B$31,F39)</f>
+        <f aca="false">D39/67.79</f>
+        <v>15.0317155922702</v>
+      </c>
+      <c r="F39" s="12" t="n">
+        <v>260</v>
+      </c>
+      <c r="G39" s="13" t="n">
+        <v>43916</v>
+      </c>
+      <c r="H39" s="1" t="n">
+        <f aca="false">_xlfn.DAYS($B$33,G39)</f>
+        <v>2</v>
+      </c>
+      <c r="I39" s="13" t="n">
+        <f aca="false">$B$33+1</f>
+        <v>43919</v>
+      </c>
+      <c r="J39" s="1" t="n">
+        <f aca="false">_xlfn.DAYS($B$33,I39)</f>
         <v>-1</v>
       </c>
-      <c r="H39" s="13" t="n">
-        <f aca="false">$B$31+1</f>
-        <v>43918</v>
-      </c>
-      <c r="I39" s="14" t="n">
-        <f aca="false">_xlfn.DAYS(B$31,H39)</f>
-        <v>-1</v>
-      </c>
-      <c r="J39" s="13" t="n">
-        <f aca="false">$B$31+1</f>
-        <v>43918</v>
+      <c r="K39" s="13" t="n">
+        <f aca="false">$B$33+1</f>
+        <v>43919</v>
       </c>
       <c r="L39" s="0"/>
       <c r="M39" s="0"/>
       <c r="N39" s="0"/>
       <c r="O39" s="0"/>
       <c r="P39" s="0"/>
+      <c r="Q39" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D40" s="0"/>
-      <c r="E40" s="0"/>
-      <c r="F40" s="0"/>
-      <c r="G40" s="0"/>
-      <c r="H40" s="0"/>
-      <c r="I40" s="0"/>
-      <c r="J40" s="0"/>
-      <c r="K40" s="0"/>
+      <c r="B40" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40" s="12" t="n">
+        <v>414</v>
+      </c>
+      <c r="D40" s="1" t="n">
+        <v>433</v>
+      </c>
+      <c r="E40" s="12" t="n">
+        <f aca="false">D40/83.784</f>
+        <v>5.16805117922276</v>
+      </c>
+      <c r="F40" s="12" t="n">
+        <v>82</v>
+      </c>
+      <c r="G40" s="13" t="n">
+        <v>43918</v>
+      </c>
+      <c r="H40" s="1" t="n">
+        <f aca="false">_xlfn.DAYS($B$33,G40)</f>
+        <v>0</v>
+      </c>
+      <c r="I40" s="13" t="n">
+        <f aca="false">$B$33+1</f>
+        <v>43919</v>
+      </c>
+      <c r="J40" s="1" t="n">
+        <f aca="false">_xlfn.DAYS($B$33,I40)</f>
+        <v>-1</v>
+      </c>
+      <c r="K40" s="13" t="n">
+        <f aca="false">$B$33+1</f>
+        <v>43919</v>
+      </c>
       <c r="L40" s="0"/>
       <c r="M40" s="0"/>
       <c r="N40" s="0"/>
       <c r="O40" s="0"/>
       <c r="P40" s="0"/>
+      <c r="Q40" s="0"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D41" s="0"/>
-      <c r="E41" s="0"/>
-      <c r="F41" s="0"/>
-      <c r="G41" s="0"/>
-      <c r="H41" s="0"/>
-      <c r="I41" s="0"/>
-      <c r="J41" s="0"/>
-      <c r="K41" s="0"/>
+      <c r="B41" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" s="12" t="n">
+        <v>50</v>
+      </c>
+      <c r="D41" s="12" t="n">
+        <v>105</v>
+      </c>
+      <c r="E41" s="12" t="n">
+        <f aca="false">D41/10.36</f>
+        <v>10.1351351351351</v>
+      </c>
+      <c r="F41" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" s="13" t="n">
+        <v>43915</v>
+      </c>
+      <c r="H41" s="1" t="n">
+        <f aca="false">_xlfn.DAYS($B$33,G41)</f>
+        <v>3</v>
+      </c>
+      <c r="I41" s="13" t="n">
+        <f aca="false">$B$33+1</f>
+        <v>43919</v>
+      </c>
+      <c r="J41" s="1" t="n">
+        <f aca="false">_xlfn.DAYS($B$33,I41)</f>
+        <v>-1</v>
+      </c>
+      <c r="K41" s="13" t="n">
+        <f aca="false">$B$33+1</f>
+        <v>43919</v>
+      </c>
       <c r="L41" s="0"/>
       <c r="M41" s="0"/>
       <c r="N41" s="0"/>
       <c r="O41" s="0"/>
       <c r="P41" s="0"/>
+      <c r="Q41" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D42" s="0"/>
-      <c r="E42" s="0"/>
-      <c r="F42" s="0"/>
-      <c r="G42" s="0"/>
-      <c r="H42" s="0"/>
-      <c r="I42" s="0"/>
-      <c r="J42" s="0"/>
-      <c r="K42" s="0"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="13"/>
+      <c r="I42" s="13"/>
+      <c r="K42" s="13"/>
       <c r="L42" s="0"/>
       <c r="M42" s="0"/>
       <c r="N42" s="0"/>
       <c r="O42" s="0"/>
       <c r="P42" s="0"/>
+      <c r="Q42" s="0"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="7" t="n">
-        <v>43916</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G43" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H43" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I43" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J43" s="8" t="s">
-        <v>27</v>
-      </c>
+      <c r="B43" s="4"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="0"/>
+      <c r="E43" s="0"/>
+      <c r="F43" s="0"/>
+      <c r="G43" s="0"/>
+      <c r="H43" s="0"/>
+      <c r="I43" s="0"/>
+      <c r="J43" s="0"/>
       <c r="K43" s="0"/>
       <c r="L43" s="0"/>
       <c r="M43" s="0"/>
       <c r="N43" s="0"/>
       <c r="O43" s="0"/>
       <c r="P43" s="0"/>
+      <c r="Q43" s="0"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="9"/>
-      <c r="C44" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E44" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F44" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G44" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H44" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="I44" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="J44" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="B44" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D44" s="0"/>
+      <c r="E44" s="0"/>
+      <c r="F44" s="0"/>
+      <c r="G44" s="0"/>
+      <c r="H44" s="0"/>
+      <c r="I44" s="0"/>
+      <c r="J44" s="0"/>
       <c r="K44" s="0"/>
       <c r="L44" s="0"/>
       <c r="M44" s="0"/>
       <c r="N44" s="0"/>
       <c r="O44" s="0"/>
       <c r="P44" s="0"/>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="0" t="s">
+      <c r="Q44" s="0"/>
+    </row>
+    <row r="45" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="7" t="n">
+        <v>43917</v>
+      </c>
+      <c r="C45" s="0"/>
+      <c r="D45" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J45" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K45" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L45" s="8"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="3"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G46" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C45" s="12" t="n">
-        <v>300</v>
-      </c>
-      <c r="D45" s="1" t="n">
-        <v>8215</v>
-      </c>
-      <c r="E45" s="12" t="n">
-        <f aca="false">D45/60.48</f>
-        <v>135.830026455026</v>
-      </c>
-      <c r="F45" s="13" t="n">
-        <v>43900</v>
-      </c>
-      <c r="G45" s="14" t="n">
-        <f aca="false">_xlfn.DAYS(B$43,F45)</f>
-        <v>16</v>
-      </c>
-      <c r="H45" s="13" t="n">
-        <v>43902</v>
-      </c>
-      <c r="I45" s="14" t="n">
-        <f aca="false">_xlfn.DAYS(B$43,H45)</f>
-        <v>14</v>
-      </c>
-      <c r="J45" s="13" t="n">
-        <f aca="false">B$43+1</f>
-        <v>43917</v>
-      </c>
-      <c r="K45" s="0"/>
-      <c r="L45" s="0"/>
-      <c r="M45" s="0"/>
-      <c r="N45" s="0"/>
-      <c r="O45" s="0"/>
-      <c r="P45" s="0"/>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="0" t="s">
+      <c r="H46" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C46" s="12" t="n">
-        <v>230</v>
-      </c>
-      <c r="D46" s="1" t="n">
-        <v>4365</v>
-      </c>
-      <c r="E46" s="12" t="n">
-        <f aca="false">D46/46.75</f>
-        <v>93.3689839572193</v>
-      </c>
-      <c r="F46" s="13" t="n">
-        <v>43907</v>
-      </c>
-      <c r="G46" s="14" t="n">
-        <f aca="false">_xlfn.DAYS(B$43,F46)</f>
-        <v>9</v>
-      </c>
-      <c r="H46" s="13" t="n">
-        <v>43913</v>
-      </c>
-      <c r="I46" s="14" t="n">
-        <f aca="false">_xlfn.DAYS(B$43,H46)</f>
-        <v>3</v>
-      </c>
-      <c r="J46" s="13" t="n">
-        <f aca="false">B$43+1</f>
-        <v>43917</v>
-      </c>
-      <c r="K46" s="0"/>
-      <c r="L46" s="0"/>
+      <c r="I46" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="J46" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="K46" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="L46" s="8"/>
       <c r="M46" s="0"/>
       <c r="N46" s="0"/>
       <c r="O46" s="0"/>
       <c r="P46" s="0"/>
+      <c r="Q46" s="0"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C47" s="12" t="n">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="D47" s="1" t="n">
-        <v>1696</v>
+        <v>9134</v>
       </c>
       <c r="E47" s="12" t="n">
-        <f aca="false">D47/65.27</f>
-        <v>25.9843726060978</v>
-      </c>
-      <c r="F47" s="13" t="n">
-        <v>43912</v>
-      </c>
-      <c r="G47" s="14" t="n">
-        <f aca="false">_xlfn.DAYS(B$43,F47)</f>
-        <v>4</v>
-      </c>
-      <c r="H47" s="13" t="n">
-        <v>43914</v>
-      </c>
-      <c r="I47" s="14" t="n">
-        <f aca="false">_xlfn.DAYS(B$43,H47)</f>
-        <v>2</v>
-      </c>
-      <c r="J47" s="13" t="n">
-        <f aca="false">B$43+1</f>
-        <v>43917</v>
-      </c>
-      <c r="K47" s="0"/>
+        <f aca="false">D47/60.48</f>
+        <v>151.025132275132</v>
+      </c>
+      <c r="F47" s="12" t="n">
+        <v>919</v>
+      </c>
+      <c r="G47" s="13" t="n">
+        <v>43900</v>
+      </c>
+      <c r="H47" s="1" t="n">
+        <f aca="false">_xlfn.DAYS($B$45,G47)</f>
+        <v>17</v>
+      </c>
+      <c r="I47" s="13" t="n">
+        <v>43902</v>
+      </c>
+      <c r="J47" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$45,I47)</f>
+        <v>15</v>
+      </c>
+      <c r="K47" s="13" t="n">
+        <f aca="false">$B$45+1</f>
+        <v>43918</v>
+      </c>
       <c r="L47" s="0"/>
       <c r="M47" s="0"/>
       <c r="N47" s="0"/>
       <c r="O47" s="0"/>
       <c r="P47" s="0"/>
+      <c r="Q47" s="0"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C48" s="12" t="n">
-        <v>1660</v>
+        <v>230</v>
       </c>
       <c r="D48" s="1" t="n">
-        <v>1295</v>
+        <v>5138</v>
       </c>
       <c r="E48" s="12" t="n">
-        <f aca="false">D48/331</f>
-        <v>3.91238670694864</v>
-      </c>
-      <c r="F48" s="13" t="n">
-        <v>43917</v>
-      </c>
-      <c r="G48" s="14" t="n">
-        <f aca="false">_xlfn.DAYS(B$43,F48)</f>
-        <v>-1</v>
-      </c>
-      <c r="H48" s="13" t="n">
-        <f aca="false">B$43+1</f>
-        <v>43917</v>
-      </c>
-      <c r="I48" s="14" t="n">
-        <f aca="false">_xlfn.DAYS($B$43,H48)</f>
-        <v>-1</v>
-      </c>
-      <c r="J48" s="13" t="n">
-        <f aca="false">B$43+1</f>
-        <v>43917</v>
-      </c>
-      <c r="K48" s="0"/>
+        <f aca="false">D48/46.75</f>
+        <v>109.903743315508</v>
+      </c>
+      <c r="F48" s="12" t="n">
+        <v>773</v>
+      </c>
+      <c r="G48" s="13" t="n">
+        <v>43907</v>
+      </c>
+      <c r="H48" s="1" t="n">
+        <f aca="false">_xlfn.DAYS($B$45,G48)</f>
+        <v>10</v>
+      </c>
+      <c r="I48" s="13" t="n">
+        <v>43913</v>
+      </c>
+      <c r="J48" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$45,I48)</f>
+        <v>4</v>
+      </c>
+      <c r="K48" s="13" t="n">
+        <f aca="false">$B$45+1</f>
+        <v>43918</v>
+      </c>
       <c r="L48" s="0"/>
       <c r="M48" s="0"/>
       <c r="N48" s="0"/>
       <c r="O48" s="0"/>
       <c r="P48" s="0"/>
+      <c r="Q48" s="0"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C49" s="12" t="n">
         <v>330</v>
       </c>
       <c r="D49" s="1" t="n">
-        <v>578</v>
+        <v>1995</v>
       </c>
       <c r="E49" s="12" t="n">
-        <f aca="false">D49/67.79</f>
-        <v>8.52633131730344</v>
-      </c>
-      <c r="F49" s="13" t="n">
-        <v>43916</v>
-      </c>
-      <c r="G49" s="14" t="n">
-        <f aca="false">_xlfn.DAYS(B$43,F49)</f>
-        <v>0</v>
-      </c>
-      <c r="H49" s="13" t="n">
-        <f aca="false">B$43+1</f>
-        <v>43917</v>
-      </c>
-      <c r="I49" s="14" t="n">
-        <f aca="false">_xlfn.DAYS(B$43,H49)</f>
-        <v>-1</v>
-      </c>
-      <c r="J49" s="13" t="n">
-        <f aca="false">B$43+1</f>
-        <v>43917</v>
-      </c>
-      <c r="K49" s="0"/>
+        <f aca="false">D49/65.27</f>
+        <v>30.5653439558756</v>
+      </c>
+      <c r="F49" s="12" t="n">
+        <v>299</v>
+      </c>
+      <c r="G49" s="13" t="n">
+        <v>43912</v>
+      </c>
+      <c r="H49" s="1" t="n">
+        <f aca="false">_xlfn.DAYS($B$45,G49)</f>
+        <v>5</v>
+      </c>
+      <c r="I49" s="13" t="n">
+        <v>43914</v>
+      </c>
+      <c r="J49" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$45,I49)</f>
+        <v>3</v>
+      </c>
+      <c r="K49" s="13" t="n">
+        <f aca="false">$B$45+1</f>
+        <v>43918</v>
+      </c>
       <c r="L49" s="0"/>
       <c r="M49" s="0"/>
       <c r="N49" s="0"/>
       <c r="O49" s="0"/>
       <c r="P49" s="0"/>
+      <c r="Q49" s="0"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C50" s="12" t="n">
-        <v>414</v>
+        <v>1660</v>
       </c>
       <c r="D50" s="1" t="n">
-        <v>267</v>
+        <v>1696</v>
       </c>
       <c r="E50" s="12" t="n">
-        <f aca="false">D50/83.784</f>
-        <v>3.18676596963621</v>
-      </c>
-      <c r="F50" s="13" t="n">
+        <f aca="false">D50/331</f>
+        <v>5.12386706948641</v>
+      </c>
+      <c r="F50" s="12" t="n">
+        <v>400</v>
+      </c>
+      <c r="G50" s="13" t="n">
+        <f aca="false">$B$45</f>
         <v>43917</v>
       </c>
-      <c r="G50" s="14" t="n">
-        <f aca="false">_xlfn.DAYS(B$43,F50)</f>
+      <c r="H50" s="1" t="n">
+        <f aca="false">_xlfn.DAYS($B$45,G50)</f>
+        <v>0</v>
+      </c>
+      <c r="I50" s="13" t="n">
+        <f aca="false">$B$45+1</f>
+        <v>43918</v>
+      </c>
+      <c r="J50" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$45,I50)</f>
         <v>-1</v>
       </c>
-      <c r="H50" s="13" t="n">
-        <f aca="false">B$43+1</f>
-        <v>43917</v>
-      </c>
-      <c r="I50" s="14" t="n">
-        <f aca="false">_xlfn.DAYS(B$43,H50)</f>
-        <v>-1</v>
-      </c>
-      <c r="J50" s="13" t="n">
-        <f aca="false">B$43+1</f>
-        <v>43917</v>
-      </c>
-      <c r="K50" s="0"/>
+      <c r="K50" s="13" t="n">
+        <f aca="false">$B$45+1</f>
+        <v>43918</v>
+      </c>
       <c r="L50" s="0"/>
       <c r="M50" s="0"/>
       <c r="N50" s="0"/>
       <c r="O50" s="0"/>
       <c r="P50" s="0"/>
+      <c r="Q50" s="0"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C51" s="12" t="n">
-        <v>50</v>
-      </c>
-      <c r="D51" s="12" t="n">
-        <v>77</v>
+        <v>330</v>
+      </c>
+      <c r="D51" s="1" t="n">
+        <v>759</v>
       </c>
       <c r="E51" s="12" t="n">
-        <f aca="false">D51/10.36</f>
-        <v>7.43243243243243</v>
-      </c>
-      <c r="F51" s="13" t="n">
-        <v>43915</v>
-      </c>
-      <c r="G51" s="14" t="n">
-        <f aca="false">_xlfn.DAYS(B$43,F51)</f>
+        <f aca="false">D51/67.79</f>
+        <v>11.1963416433102</v>
+      </c>
+      <c r="F51" s="12" t="n">
+        <v>181</v>
+      </c>
+      <c r="G51" s="13" t="n">
+        <v>43916</v>
+      </c>
+      <c r="H51" s="1" t="n">
+        <f aca="false">_xlfn.DAYS($B$45,G51)</f>
         <v>1</v>
       </c>
-      <c r="H51" s="13" t="n">
-        <f aca="false">B$43+1</f>
-        <v>43917</v>
-      </c>
-      <c r="I51" s="14" t="n">
-        <f aca="false">_xlfn.DAYS(B$43,H51)</f>
+      <c r="I51" s="13" t="n">
+        <f aca="false">$B$45+1</f>
+        <v>43918</v>
+      </c>
+      <c r="J51" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$45,I51)</f>
         <v>-1</v>
       </c>
-      <c r="J51" s="13" t="n">
-        <f aca="false">B$43+1</f>
-        <v>43917</v>
-      </c>
-      <c r="K51" s="0"/>
+      <c r="K51" s="13" t="n">
+        <f aca="false">$B$45+1</f>
+        <v>43918</v>
+      </c>
       <c r="L51" s="0"/>
       <c r="M51" s="0"/>
       <c r="N51" s="0"/>
       <c r="O51" s="0"/>
       <c r="P51" s="0"/>
+      <c r="Q51" s="0"/>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C52" s="12" t="n">
+        <v>414</v>
+      </c>
+      <c r="D52" s="1" t="n">
+        <v>351</v>
+      </c>
+      <c r="E52" s="12" t="n">
+        <f aca="false">D52/83.784</f>
+        <v>4.18934402749928</v>
+      </c>
+      <c r="F52" s="12" t="n">
+        <v>84</v>
+      </c>
+      <c r="G52" s="13" t="n">
+        <f aca="false">$B$45+1</f>
+        <v>43918</v>
+      </c>
+      <c r="H52" s="1" t="n">
+        <f aca="false">_xlfn.DAYS($B$45,G52)</f>
+        <v>-1</v>
+      </c>
+      <c r="I52" s="13" t="n">
+        <f aca="false">$B$45+1</f>
+        <v>43918</v>
+      </c>
+      <c r="J52" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$45,I52)</f>
+        <v>-1</v>
+      </c>
+      <c r="K52" s="13" t="n">
+        <f aca="false">$B$45+1</f>
+        <v>43918</v>
+      </c>
+      <c r="L52" s="0"/>
+      <c r="M52" s="0"/>
+      <c r="N52" s="0"/>
+      <c r="O52" s="0"/>
+      <c r="P52" s="0"/>
+      <c r="Q52" s="0"/>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C53" s="12" t="n">
+        <v>50</v>
+      </c>
+      <c r="D53" s="12" t="n">
+        <v>105</v>
+      </c>
+      <c r="E53" s="12" t="n">
+        <f aca="false">D53/10.36</f>
+        <v>10.1351351351351</v>
+      </c>
+      <c r="F53" s="12" t="n">
+        <v>28</v>
+      </c>
+      <c r="G53" s="13" t="n">
+        <v>43915</v>
+      </c>
+      <c r="H53" s="1" t="n">
+        <f aca="false">_xlfn.DAYS($B$45,G53)</f>
+        <v>2</v>
+      </c>
+      <c r="I53" s="13" t="n">
+        <f aca="false">$B$45+1</f>
+        <v>43918</v>
+      </c>
+      <c r="J53" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$45,I53)</f>
+        <v>-1</v>
+      </c>
+      <c r="K53" s="13" t="n">
+        <f aca="false">$B$45+1</f>
+        <v>43918</v>
+      </c>
+      <c r="L53" s="0"/>
+      <c r="M53" s="0"/>
+      <c r="N53" s="0"/>
+      <c r="O53" s="0"/>
+      <c r="P53" s="0"/>
+      <c r="Q53" s="0"/>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D54" s="0"/>
+      <c r="E54" s="0"/>
+      <c r="F54" s="0"/>
+      <c r="G54" s="0"/>
+      <c r="H54" s="0"/>
+      <c r="I54" s="0"/>
+      <c r="J54" s="0"/>
+      <c r="K54" s="0"/>
+      <c r="L54" s="0"/>
+      <c r="M54" s="0"/>
+      <c r="N54" s="0"/>
+      <c r="O54" s="0"/>
+      <c r="P54" s="0"/>
+      <c r="Q54" s="0"/>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D55" s="0"/>
+      <c r="E55" s="0"/>
+      <c r="F55" s="0"/>
+      <c r="G55" s="0"/>
+      <c r="H55" s="0"/>
+      <c r="I55" s="0"/>
+      <c r="J55" s="0"/>
+      <c r="K55" s="0"/>
+      <c r="L55" s="0"/>
+      <c r="M55" s="0"/>
+      <c r="N55" s="0"/>
+      <c r="O55" s="0"/>
+      <c r="P55" s="0"/>
+      <c r="Q55" s="0"/>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D56" s="0"/>
+      <c r="E56" s="0"/>
+      <c r="F56" s="0"/>
+      <c r="G56" s="0"/>
+      <c r="H56" s="0"/>
+      <c r="I56" s="0"/>
+      <c r="J56" s="0"/>
+      <c r="K56" s="0"/>
+      <c r="L56" s="0"/>
+      <c r="M56" s="0"/>
+      <c r="N56" s="0"/>
+      <c r="O56" s="0"/>
+      <c r="P56" s="0"/>
+      <c r="Q56" s="0"/>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B57" s="7" t="n">
+        <v>43916</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H57" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I57" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J57" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K57" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L57" s="0"/>
+      <c r="M57" s="0"/>
+      <c r="N57" s="0"/>
+      <c r="O57" s="0"/>
+      <c r="P57" s="0"/>
+      <c r="Q57" s="0"/>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="9"/>
+      <c r="C58" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F58" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G58" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H58" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I58" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="J58" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="K58" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="L58" s="0"/>
+      <c r="M58" s="0"/>
+      <c r="N58" s="0"/>
+      <c r="O58" s="0"/>
+      <c r="P58" s="0"/>
+      <c r="Q58" s="0"/>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B59" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C59" s="12" t="n">
+        <v>300</v>
+      </c>
+      <c r="D59" s="1" t="n">
+        <v>8215</v>
+      </c>
+      <c r="E59" s="12" t="n">
+        <f aca="false">D59/60.48</f>
+        <v>135.830026455026</v>
+      </c>
+      <c r="F59" s="12" t="n">
+        <v>712</v>
+      </c>
+      <c r="G59" s="13" t="n">
+        <v>43900</v>
+      </c>
+      <c r="H59" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$57,G59)</f>
+        <v>16</v>
+      </c>
+      <c r="I59" s="13" t="n">
+        <v>43902</v>
+      </c>
+      <c r="J59" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$57,I59)</f>
+        <v>14</v>
+      </c>
+      <c r="K59" s="13" t="n">
+        <f aca="false">B$57+1</f>
+        <v>43917</v>
+      </c>
+      <c r="L59" s="0"/>
+      <c r="M59" s="0"/>
+      <c r="N59" s="0"/>
+      <c r="O59" s="0"/>
+      <c r="P59" s="0"/>
+      <c r="Q59" s="0"/>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C60" s="12" t="n">
+        <v>230</v>
+      </c>
+      <c r="D60" s="1" t="n">
+        <v>4365</v>
+      </c>
+      <c r="E60" s="12" t="n">
+        <f aca="false">D60/46.75</f>
+        <v>93.3689839572193</v>
+      </c>
+      <c r="F60" s="12" t="n">
+        <v>718</v>
+      </c>
+      <c r="G60" s="13" t="n">
+        <v>43907</v>
+      </c>
+      <c r="H60" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$57,G60)</f>
+        <v>9</v>
+      </c>
+      <c r="I60" s="13" t="n">
+        <v>43913</v>
+      </c>
+      <c r="J60" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$57,I60)</f>
+        <v>3</v>
+      </c>
+      <c r="K60" s="13" t="n">
+        <f aca="false">B$57+1</f>
+        <v>43917</v>
+      </c>
+      <c r="L60" s="0"/>
+      <c r="M60" s="0"/>
+      <c r="N60" s="0"/>
+      <c r="O60" s="0"/>
+      <c r="P60" s="0"/>
+      <c r="Q60" s="0"/>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B61" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C61" s="12" t="n">
+        <v>330</v>
+      </c>
+      <c r="D61" s="1" t="n">
+        <v>1696</v>
+      </c>
+      <c r="E61" s="12" t="n">
+        <f aca="false">D61/65.27</f>
+        <v>25.9843726060978</v>
+      </c>
+      <c r="F61" s="12" t="n">
+        <v>365</v>
+      </c>
+      <c r="G61" s="13" t="n">
+        <v>43912</v>
+      </c>
+      <c r="H61" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$57,G61)</f>
+        <v>4</v>
+      </c>
+      <c r="I61" s="13" t="n">
+        <v>43914</v>
+      </c>
+      <c r="J61" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$57,I61)</f>
+        <v>2</v>
+      </c>
+      <c r="K61" s="13" t="n">
+        <f aca="false">B$57+1</f>
+        <v>43917</v>
+      </c>
+      <c r="L61" s="0"/>
+      <c r="M61" s="0"/>
+      <c r="N61" s="0"/>
+      <c r="O61" s="0"/>
+      <c r="P61" s="0"/>
+      <c r="Q61" s="0"/>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B62" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C62" s="12" t="n">
+        <v>1660</v>
+      </c>
+      <c r="D62" s="1" t="n">
+        <v>1295</v>
+      </c>
+      <c r="E62" s="12" t="n">
+        <f aca="false">D62/331</f>
+        <v>3.91238670694864</v>
+      </c>
+      <c r="F62" s="12" t="n">
+        <v>268</v>
+      </c>
+      <c r="G62" s="13" t="n">
+        <v>43917</v>
+      </c>
+      <c r="H62" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$57,G62)</f>
+        <v>-1</v>
+      </c>
+      <c r="I62" s="13" t="n">
+        <f aca="false">B$57+1</f>
+        <v>43917</v>
+      </c>
+      <c r="J62" s="1" t="n">
+        <f aca="false">_xlfn.DAYS($B$57,I62)</f>
+        <v>-1</v>
+      </c>
+      <c r="K62" s="13" t="n">
+        <f aca="false">B$57+1</f>
+        <v>43917</v>
+      </c>
+      <c r="L62" s="0"/>
+      <c r="M62" s="0"/>
+      <c r="N62" s="0"/>
+      <c r="O62" s="0"/>
+      <c r="P62" s="0"/>
+      <c r="Q62" s="0"/>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C63" s="12" t="n">
+        <v>330</v>
+      </c>
+      <c r="D63" s="1" t="n">
+        <v>578</v>
+      </c>
+      <c r="E63" s="12" t="n">
+        <f aca="false">D63/67.79</f>
+        <v>8.52633131730344</v>
+      </c>
+      <c r="F63" s="12" t="n">
+        <v>115</v>
+      </c>
+      <c r="G63" s="13" t="n">
+        <v>43916</v>
+      </c>
+      <c r="H63" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$57,G63)</f>
+        <v>0</v>
+      </c>
+      <c r="I63" s="13" t="n">
+        <f aca="false">B$57+1</f>
+        <v>43917</v>
+      </c>
+      <c r="J63" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$57,I63)</f>
+        <v>-1</v>
+      </c>
+      <c r="K63" s="13" t="n">
+        <f aca="false">B$57+1</f>
+        <v>43917</v>
+      </c>
+      <c r="L63" s="0"/>
+      <c r="M63" s="0"/>
+      <c r="N63" s="0"/>
+      <c r="O63" s="0"/>
+      <c r="P63" s="0"/>
+      <c r="Q63" s="0"/>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C64" s="12" t="n">
+        <v>414</v>
+      </c>
+      <c r="D64" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="E64" s="12" t="n">
+        <f aca="false">D64/83.784</f>
+        <v>3.18676596963621</v>
+      </c>
+      <c r="F64" s="12" t="n">
+        <v>61</v>
+      </c>
+      <c r="G64" s="13" t="n">
+        <v>43917</v>
+      </c>
+      <c r="H64" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$57,G64)</f>
+        <v>-1</v>
+      </c>
+      <c r="I64" s="13" t="n">
+        <f aca="false">B$57+1</f>
+        <v>43917</v>
+      </c>
+      <c r="J64" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$57,I64)</f>
+        <v>-1</v>
+      </c>
+      <c r="K64" s="13" t="n">
+        <f aca="false">B$57+1</f>
+        <v>43917</v>
+      </c>
+      <c r="L64" s="0"/>
+      <c r="M64" s="0"/>
+      <c r="N64" s="0"/>
+      <c r="O64" s="0"/>
+      <c r="P64" s="0"/>
+      <c r="Q64" s="0"/>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B65" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C65" s="12" t="n">
+        <v>50</v>
+      </c>
+      <c r="D65" s="12" t="n">
+        <v>77</v>
+      </c>
+      <c r="E65" s="12" t="n">
+        <f aca="false">D65/10.36</f>
+        <v>7.43243243243243</v>
+      </c>
+      <c r="F65" s="12" t="n">
+        <v>15</v>
+      </c>
+      <c r="G65" s="13" t="n">
+        <v>43915</v>
+      </c>
+      <c r="H65" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$57,G65)</f>
+        <v>1</v>
+      </c>
+      <c r="I65" s="13" t="n">
+        <f aca="false">B$57+1</f>
+        <v>43917</v>
+      </c>
+      <c r="J65" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$57,I65)</f>
+        <v>-1</v>
+      </c>
+      <c r="K65" s="13" t="n">
+        <f aca="false">B$57+1</f>
+        <v>43917</v>
+      </c>
+      <c r="L65" s="0"/>
+      <c r="M65" s="0"/>
+      <c r="N65" s="0"/>
+      <c r="O65" s="0"/>
+      <c r="P65" s="0"/>
+      <c r="Q65" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/covid19 lockdown evaluation .xlsx
+++ b/covid19 lockdown evaluation .xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="45">
   <si>
     <t>Effects of the lockdown issued by governments</t>
   </si>
@@ -140,16 +140,16 @@
     <t>France</t>
   </si>
   <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
     <t>USA</t>
   </si>
   <si>
-    <t>UK</t>
-  </si>
-  <si>
     <t>Germany</t>
-  </si>
-  <si>
-    <t>Sweden</t>
   </si>
 </sst>
 </file>
@@ -329,10 +329,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q65"/>
+  <dimension ref="A1:Q77"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A26" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F66" activeCellId="0" sqref="F66"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A30" activeCellId="0" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -750,7 +750,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="7" t="n">
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="D21" s="0"/>
       <c r="E21" s="8" t="s">
@@ -823,31 +823,31 @@
         <v>300</v>
       </c>
       <c r="D23" s="1" t="n">
-        <v>10779</v>
+        <v>11591</v>
       </c>
       <c r="E23" s="12" t="n">
         <f aca="false">D23/60.48</f>
-        <v>178.224206349206</v>
+        <v>191.650132275132</v>
       </c>
       <c r="F23" s="12" t="n">
-        <v>756</v>
+        <v>812</v>
       </c>
       <c r="G23" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H23" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$21,G23)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I23" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J23" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$21,I23)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K23" s="13" t="n">
-        <f aca="false">$B$21+1</f>
+        <f aca="false">$B$33+1</f>
         <v>43920</v>
       </c>
       <c r="L23" s="0"/>
@@ -865,31 +865,31 @@
         <v>230</v>
       </c>
       <c r="D24" s="1" t="n">
-        <v>6803</v>
+        <v>7716</v>
       </c>
       <c r="E24" s="12" t="n">
         <f aca="false">D24/46.75</f>
-        <v>145.51871657754</v>
+        <v>165.048128342246</v>
       </c>
       <c r="F24" s="12" t="n">
-        <v>821</v>
+        <v>913</v>
       </c>
       <c r="G24" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H24" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$21,G24)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I24" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J24" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$21,I24)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K24" s="13" t="n">
-        <f aca="false">$B$21+1</f>
+        <f aca="false">$B$33+1</f>
         <v>43920</v>
       </c>
       <c r="L24" s="0"/>
@@ -907,31 +907,31 @@
         <v>330</v>
       </c>
       <c r="D25" s="1" t="n">
-        <v>2606</v>
+        <v>3024</v>
       </c>
       <c r="E25" s="12" t="n">
         <f aca="false">D25/65.27</f>
-        <v>39.9264593228129</v>
+        <v>46.3306266278535</v>
       </c>
       <c r="F25" s="12" t="n">
-        <v>292</v>
+        <v>418</v>
       </c>
       <c r="G25" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H25" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$21,G25)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I25" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J25" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$21,I25)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K25" s="13" t="n">
-        <f aca="false">$B$21+1</f>
+        <f aca="false">$B$33+1</f>
         <v>43920</v>
       </c>
       <c r="L25" s="0"/>
@@ -946,35 +946,35 @@
         <v>41</v>
       </c>
       <c r="C26" s="12" t="n">
-        <v>1660</v>
-      </c>
-      <c r="D26" s="1" t="n">
-        <v>2583</v>
+        <v>50</v>
+      </c>
+      <c r="D26" s="12" t="n">
+        <v>146</v>
       </c>
       <c r="E26" s="12" t="n">
-        <f aca="false">D26/331</f>
-        <v>7.8036253776435</v>
+        <f aca="false">D26/10.36</f>
+        <v>14.0926640926641</v>
       </c>
       <c r="F26" s="12" t="n">
-        <v>363</v>
+        <v>36</v>
       </c>
       <c r="G26" s="13" t="n">
-        <v>43917</v>
+        <v>43915</v>
       </c>
       <c r="H26" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$21,G26)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I26" s="13" t="n">
         <f aca="false">$B$21+1</f>
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="J26" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$21,I26)</f>
         <v>-1</v>
       </c>
       <c r="K26" s="13" t="n">
-        <f aca="false">$B$21+1</f>
+        <f aca="false">$B$33+1</f>
         <v>43920</v>
       </c>
       <c r="L26" s="0"/>
@@ -992,32 +992,32 @@
         <v>330</v>
       </c>
       <c r="D27" s="1" t="n">
-        <v>1228</v>
+        <v>1408</v>
       </c>
       <c r="E27" s="12" t="n">
         <f aca="false">D27/67.79</f>
-        <v>18.1147661897035</v>
+        <v>20.770025077445</v>
       </c>
       <c r="F27" s="12" t="n">
-        <v>209</v>
+        <v>180</v>
       </c>
       <c r="G27" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H27" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$21,G27)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I27" s="13" t="n">
         <f aca="false">$B$21+1</f>
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="J27" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$21,I27)</f>
         <v>-1</v>
       </c>
       <c r="K27" s="13" t="n">
-        <f aca="false">$B$21+1</f>
+        <f aca="false">$B$33+1</f>
         <v>43920</v>
       </c>
       <c r="L27" s="0"/>
@@ -1032,35 +1032,34 @@
         <v>43</v>
       </c>
       <c r="C28" s="12" t="n">
-        <v>414</v>
+        <v>1660</v>
       </c>
       <c r="D28" s="1" t="n">
-        <v>541</v>
+        <v>3156</v>
       </c>
       <c r="E28" s="12" t="n">
-        <f aca="false">D28/83.784</f>
-        <v>6.457080110761</v>
+        <f aca="false">D28/331</f>
+        <v>9.53474320241692</v>
       </c>
       <c r="F28" s="12" t="n">
-        <v>108</v>
+        <v>573</v>
       </c>
       <c r="G28" s="13" t="n">
-        <v>43918</v>
+        <v>43917</v>
       </c>
       <c r="H28" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$21,G28)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I28" s="13" t="n">
-        <f aca="false">$B$21+1</f>
         <v>43920</v>
       </c>
       <c r="J28" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$21,I28)</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K28" s="13" t="n">
-        <f aca="false">$B$21+1</f>
+        <f aca="false">$B$33+1</f>
         <v>43920</v>
       </c>
       <c r="L28" s="0"/>
@@ -1075,35 +1074,35 @@
         <v>44</v>
       </c>
       <c r="C29" s="12" t="n">
-        <v>50</v>
-      </c>
-      <c r="D29" s="12" t="n">
-        <v>110</v>
+        <v>414</v>
+      </c>
+      <c r="D29" s="1" t="n">
+        <v>645</v>
       </c>
       <c r="E29" s="12" t="n">
-        <f aca="false">D29/10.36</f>
-        <v>10.6177606177606</v>
+        <f aca="false">D29/83.784</f>
+        <v>7.69836723002005</v>
       </c>
       <c r="F29" s="12" t="n">
-        <v>5</v>
+        <v>104</v>
       </c>
       <c r="G29" s="13" t="n">
-        <v>43915</v>
+        <v>43918</v>
       </c>
       <c r="H29" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$21,G29)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I29" s="13" t="n">
         <f aca="false">$B$21+1</f>
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="J29" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$21,I29)</f>
         <v>-1</v>
       </c>
       <c r="K29" s="13" t="n">
-        <f aca="false">$B$21+1</f>
+        <f aca="false">$B$33+1</f>
         <v>43920</v>
       </c>
       <c r="L29" s="0"/>
@@ -1170,15 +1169,13 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="7" t="n">
-        <v>43918</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>6</v>
-      </c>
+        <v>43919</v>
+      </c>
+      <c r="D33" s="0"/>
       <c r="E33" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F33" s="8"/>
+      <c r="F33" s="0"/>
       <c r="G33" s="8" t="s">
         <v>27</v>
       </c>
@@ -1206,8 +1203,8 @@
       <c r="C34" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="10" t="s">
-        <v>2</v>
+      <c r="D34" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="E34" s="10" t="s">
         <v>32</v>
@@ -1245,32 +1242,32 @@
         <v>300</v>
       </c>
       <c r="D35" s="1" t="n">
-        <v>10023</v>
+        <v>10779</v>
       </c>
       <c r="E35" s="12" t="n">
         <f aca="false">D35/60.48</f>
-        <v>165.724206349206</v>
+        <v>178.224206349206</v>
       </c>
       <c r="F35" s="12" t="n">
-        <v>889</v>
+        <v>756</v>
       </c>
       <c r="G35" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H35" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$33,G35)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I35" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J35" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$45,I35)</f>
-        <v>15</v>
+        <f aca="false">_xlfn.DAYS($B$33,I35)</f>
+        <v>17</v>
       </c>
       <c r="K35" s="13" t="n">
         <f aca="false">$B$33+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="L35" s="0"/>
       <c r="M35" s="0"/>
@@ -1287,32 +1284,32 @@
         <v>230</v>
       </c>
       <c r="D36" s="1" t="n">
-        <v>5982</v>
+        <v>6803</v>
       </c>
       <c r="E36" s="12" t="n">
         <f aca="false">D36/46.75</f>
-        <v>127.957219251337</v>
+        <v>145.51871657754</v>
       </c>
       <c r="F36" s="12" t="n">
-        <v>844</v>
+        <v>821</v>
       </c>
       <c r="G36" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H36" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$33,G36)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I36" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J36" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$45,I36)</f>
-        <v>4</v>
+        <f aca="false">_xlfn.DAYS($B$33,I36)</f>
+        <v>6</v>
       </c>
       <c r="K36" s="13" t="n">
         <f aca="false">$B$33+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="L36" s="0"/>
       <c r="M36" s="0"/>
@@ -1329,32 +1326,32 @@
         <v>330</v>
       </c>
       <c r="D37" s="1" t="n">
-        <v>2314</v>
+        <v>2606</v>
       </c>
       <c r="E37" s="12" t="n">
         <f aca="false">D37/65.27</f>
-        <v>35.4527347939329</v>
+        <v>39.9264593228129</v>
       </c>
       <c r="F37" s="12" t="n">
-        <v>319</v>
+        <v>292</v>
       </c>
       <c r="G37" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H37" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$33,G37)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I37" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J37" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$45,I37)</f>
-        <v>3</v>
+        <f aca="false">_xlfn.DAYS($B$33,I37)</f>
+        <v>5</v>
       </c>
       <c r="K37" s="13" t="n">
         <f aca="false">$B$33+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="L37" s="0"/>
       <c r="M37" s="0"/>
@@ -1365,31 +1362,31 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C38" s="12" t="n">
         <v>1660</v>
       </c>
       <c r="D38" s="1" t="n">
-        <v>2221</v>
+        <v>2583</v>
       </c>
       <c r="E38" s="12" t="n">
         <f aca="false">D38/331</f>
-        <v>6.70996978851964</v>
+        <v>7.8036253776435</v>
       </c>
       <c r="F38" s="12" t="n">
-        <v>525</v>
+        <v>363</v>
       </c>
       <c r="G38" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H38" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$33,G38)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I38" s="13" t="n">
         <f aca="false">$B$33+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="J38" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$33,I38)</f>
@@ -1397,7 +1394,7 @@
       </c>
       <c r="K38" s="13" t="n">
         <f aca="false">$B$33+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="L38" s="0"/>
       <c r="M38" s="0"/>
@@ -1414,25 +1411,25 @@
         <v>330</v>
       </c>
       <c r="D39" s="1" t="n">
-        <v>1019</v>
+        <v>1228</v>
       </c>
       <c r="E39" s="12" t="n">
         <f aca="false">D39/67.79</f>
-        <v>15.0317155922702</v>
+        <v>18.1147661897035</v>
       </c>
       <c r="F39" s="12" t="n">
-        <v>260</v>
+        <v>209</v>
       </c>
       <c r="G39" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H39" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$33,G39)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I39" s="13" t="n">
         <f aca="false">$B$33+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="J39" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$33,I39)</f>
@@ -1440,7 +1437,7 @@
       </c>
       <c r="K39" s="13" t="n">
         <f aca="false">$B$33+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="L39" s="0"/>
       <c r="M39" s="0"/>
@@ -1451,31 +1448,31 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C40" s="12" t="n">
         <v>414</v>
       </c>
       <c r="D40" s="1" t="n">
-        <v>433</v>
+        <v>541</v>
       </c>
       <c r="E40" s="12" t="n">
         <f aca="false">D40/83.784</f>
-        <v>5.16805117922276</v>
+        <v>6.457080110761</v>
       </c>
       <c r="F40" s="12" t="n">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="G40" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H40" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$33,G40)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" s="13" t="n">
         <f aca="false">$B$33+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="J40" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$33,I40)</f>
@@ -1483,7 +1480,7 @@
       </c>
       <c r="K40" s="13" t="n">
         <f aca="false">$B$33+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="L40" s="0"/>
       <c r="M40" s="0"/>
@@ -1494,31 +1491,31 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="0" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C41" s="12" t="n">
         <v>50</v>
       </c>
       <c r="D41" s="12" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E41" s="12" t="n">
         <f aca="false">D41/10.36</f>
-        <v>10.1351351351351</v>
+        <v>10.6177606177606</v>
       </c>
       <c r="F41" s="12" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G41" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H41" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$33,G41)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I41" s="13" t="n">
         <f aca="false">$B$33+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="J41" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$33,I41)</f>
@@ -1526,7 +1523,7 @@
       </c>
       <c r="K41" s="13" t="n">
         <f aca="false">$B$33+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="L41" s="0"/>
       <c r="M41" s="0"/>
@@ -1536,13 +1533,16 @@
       <c r="Q41" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="13"/>
-      <c r="I42" s="13"/>
-      <c r="K42" s="13"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="0"/>
+      <c r="E42" s="0"/>
+      <c r="F42" s="0"/>
+      <c r="G42" s="0"/>
+      <c r="H42" s="0"/>
+      <c r="I42" s="0"/>
+      <c r="J42" s="0"/>
+      <c r="K42" s="0"/>
       <c r="L42" s="0"/>
       <c r="M42" s="0"/>
       <c r="N42" s="0"/>
@@ -1587,11 +1587,10 @@
       <c r="P44" s="0"/>
       <c r="Q44" s="0"/>
     </row>
-    <row r="45" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="7" t="n">
-        <v>43917</v>
-      </c>
-      <c r="C45" s="0"/>
+        <v>43918</v>
+      </c>
       <c r="D45" s="8" t="s">
         <v>6</v>
       </c>
@@ -1614,10 +1613,14 @@
       <c r="K45" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="L45" s="8"/>
+      <c r="L45" s="0"/>
+      <c r="M45" s="0"/>
+      <c r="N45" s="0"/>
+      <c r="O45" s="0"/>
+      <c r="P45" s="0"/>
+      <c r="Q45" s="0"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="3"/>
       <c r="B46" s="9"/>
       <c r="C46" s="10" t="s">
         <v>31</v>
@@ -1646,7 +1649,7 @@
       <c r="K46" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="L46" s="8"/>
+      <c r="L46" s="0"/>
       <c r="M46" s="0"/>
       <c r="N46" s="0"/>
       <c r="O46" s="0"/>
@@ -1661,32 +1664,32 @@
         <v>300</v>
       </c>
       <c r="D47" s="1" t="n">
-        <v>9134</v>
+        <v>10023</v>
       </c>
       <c r="E47" s="12" t="n">
         <f aca="false">D47/60.48</f>
-        <v>151.025132275132</v>
+        <v>165.724206349206</v>
       </c>
       <c r="F47" s="12" t="n">
-        <v>919</v>
+        <v>889</v>
       </c>
       <c r="G47" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H47" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$45,G47)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I47" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J47" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$45,I47)</f>
+        <f aca="false">_xlfn.DAYS(B$57,I47)</f>
         <v>15</v>
       </c>
       <c r="K47" s="13" t="n">
         <f aca="false">$B$45+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="L47" s="0"/>
       <c r="M47" s="0"/>
@@ -1703,32 +1706,32 @@
         <v>230</v>
       </c>
       <c r="D48" s="1" t="n">
-        <v>5138</v>
+        <v>5982</v>
       </c>
       <c r="E48" s="12" t="n">
         <f aca="false">D48/46.75</f>
-        <v>109.903743315508</v>
+        <v>127.957219251337</v>
       </c>
       <c r="F48" s="12" t="n">
-        <v>773</v>
+        <v>844</v>
       </c>
       <c r="G48" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H48" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$45,G48)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I48" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J48" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$45,I48)</f>
+        <f aca="false">_xlfn.DAYS(B$57,I48)</f>
         <v>4</v>
       </c>
       <c r="K48" s="13" t="n">
         <f aca="false">$B$45+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="L48" s="0"/>
       <c r="M48" s="0"/>
@@ -1745,32 +1748,32 @@
         <v>330</v>
       </c>
       <c r="D49" s="1" t="n">
-        <v>1995</v>
+        <v>2314</v>
       </c>
       <c r="E49" s="12" t="n">
         <f aca="false">D49/65.27</f>
-        <v>30.5653439558756</v>
+        <v>35.4527347939329</v>
       </c>
       <c r="F49" s="12" t="n">
-        <v>299</v>
+        <v>319</v>
       </c>
       <c r="G49" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H49" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$45,G49)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I49" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J49" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$45,I49)</f>
+        <f aca="false">_xlfn.DAYS(B$57,I49)</f>
         <v>3</v>
       </c>
       <c r="K49" s="13" t="n">
         <f aca="false">$B$45+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="L49" s="0"/>
       <c r="M49" s="0"/>
@@ -1781,40 +1784,39 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C50" s="12" t="n">
         <v>1660</v>
       </c>
       <c r="D50" s="1" t="n">
-        <v>1696</v>
+        <v>2221</v>
       </c>
       <c r="E50" s="12" t="n">
         <f aca="false">D50/331</f>
-        <v>5.12386706948641</v>
+        <v>6.70996978851964</v>
       </c>
       <c r="F50" s="12" t="n">
-        <v>400</v>
+        <v>525</v>
       </c>
       <c r="G50" s="13" t="n">
-        <f aca="false">$B$45</f>
         <v>43917</v>
       </c>
       <c r="H50" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$45,G50)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" s="13" t="n">
         <f aca="false">$B$45+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="J50" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$45,I50)</f>
+        <f aca="false">_xlfn.DAYS($B$45,I50)</f>
         <v>-1</v>
       </c>
       <c r="K50" s="13" t="n">
         <f aca="false">$B$45+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="L50" s="0"/>
       <c r="M50" s="0"/>
@@ -1831,33 +1833,33 @@
         <v>330</v>
       </c>
       <c r="D51" s="1" t="n">
-        <v>759</v>
+        <v>1019</v>
       </c>
       <c r="E51" s="12" t="n">
         <f aca="false">D51/67.79</f>
-        <v>11.1963416433102</v>
+        <v>15.0317155922702</v>
       </c>
       <c r="F51" s="12" t="n">
-        <v>181</v>
+        <v>260</v>
       </c>
       <c r="G51" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H51" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$45,G51)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I51" s="13" t="n">
         <f aca="false">$B$45+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="J51" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$45,I51)</f>
+        <f aca="false">_xlfn.DAYS($B$45,I51)</f>
         <v>-1</v>
       </c>
       <c r="K51" s="13" t="n">
         <f aca="false">$B$45+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="L51" s="0"/>
       <c r="M51" s="0"/>
@@ -1868,40 +1870,39 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C52" s="12" t="n">
         <v>414</v>
       </c>
       <c r="D52" s="1" t="n">
-        <v>351</v>
+        <v>433</v>
       </c>
       <c r="E52" s="12" t="n">
         <f aca="false">D52/83.784</f>
-        <v>4.18934402749928</v>
+        <v>5.16805117922276</v>
       </c>
       <c r="F52" s="12" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G52" s="13" t="n">
-        <f aca="false">$B$45+1</f>
         <v>43918</v>
       </c>
       <c r="H52" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$45,G52)</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I52" s="13" t="n">
         <f aca="false">$B$45+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="J52" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$45,I52)</f>
+        <f aca="false">_xlfn.DAYS($B$45,I52)</f>
         <v>-1</v>
       </c>
       <c r="K52" s="13" t="n">
         <f aca="false">$B$45+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="L52" s="0"/>
       <c r="M52" s="0"/>
@@ -1912,7 +1913,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="0" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C53" s="12" t="n">
         <v>50</v>
@@ -1925,26 +1926,26 @@
         <v>10.1351351351351</v>
       </c>
       <c r="F53" s="12" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="G53" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H53" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$45,G53)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I53" s="13" t="n">
         <f aca="false">$B$45+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="J53" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$45,I53)</f>
+        <f aca="false">_xlfn.DAYS($B$45,I53)</f>
         <v>-1</v>
       </c>
       <c r="K53" s="13" t="n">
         <f aca="false">$B$45+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="L53" s="0"/>
       <c r="M53" s="0"/>
@@ -1954,14 +1955,15 @@
       <c r="Q53" s="0"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D54" s="0"/>
-      <c r="E54" s="0"/>
-      <c r="F54" s="0"/>
-      <c r="G54" s="0"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="13"/>
       <c r="H54" s="0"/>
-      <c r="I54" s="0"/>
+      <c r="I54" s="13"/>
       <c r="J54" s="0"/>
-      <c r="K54" s="0"/>
+      <c r="K54" s="13"/>
       <c r="L54" s="0"/>
       <c r="M54" s="0"/>
       <c r="N54" s="0"/>
@@ -1970,6 +1972,8 @@
       <c r="Q54" s="0"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="4"/>
+      <c r="C55" s="5"/>
       <c r="D55" s="0"/>
       <c r="E55" s="0"/>
       <c r="F55" s="0"/>
@@ -2004,10 +2008,11 @@
       <c r="P56" s="0"/>
       <c r="Q56" s="0"/>
     </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="7" t="n">
-        <v>43916</v>
-      </c>
+        <v>43917</v>
+      </c>
+      <c r="C57" s="0"/>
       <c r="D57" s="8" t="s">
         <v>6</v>
       </c>
@@ -2030,17 +2035,13 @@
       <c r="K57" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="L57" s="0"/>
-      <c r="M57" s="0"/>
-      <c r="N57" s="0"/>
-      <c r="O57" s="0"/>
-      <c r="P57" s="0"/>
-      <c r="Q57" s="0"/>
+      <c r="L57" s="8"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="3"/>
       <c r="B58" s="9"/>
       <c r="C58" s="10" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="D58" s="10" t="s">
         <v>2</v>
@@ -2066,7 +2067,7 @@
       <c r="K58" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="L58" s="0"/>
+      <c r="L58" s="8"/>
       <c r="M58" s="0"/>
       <c r="N58" s="0"/>
       <c r="O58" s="0"/>
@@ -2081,32 +2082,32 @@
         <v>300</v>
       </c>
       <c r="D59" s="1" t="n">
-        <v>8215</v>
+        <v>9134</v>
       </c>
       <c r="E59" s="12" t="n">
         <f aca="false">D59/60.48</f>
-        <v>135.830026455026</v>
+        <v>151.025132275132</v>
       </c>
       <c r="F59" s="12" t="n">
-        <v>712</v>
+        <v>919</v>
       </c>
       <c r="G59" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H59" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$57,G59)</f>
-        <v>16</v>
+        <f aca="false">_xlfn.DAYS($B$57,G59)</f>
+        <v>17</v>
       </c>
       <c r="I59" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J59" s="1" t="n">
         <f aca="false">_xlfn.DAYS(B$57,I59)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K59" s="13" t="n">
-        <f aca="false">B$57+1</f>
-        <v>43917</v>
+        <f aca="false">$B$57+1</f>
+        <v>43918</v>
       </c>
       <c r="L59" s="0"/>
       <c r="M59" s="0"/>
@@ -2123,32 +2124,32 @@
         <v>230</v>
       </c>
       <c r="D60" s="1" t="n">
-        <v>4365</v>
+        <v>5138</v>
       </c>
       <c r="E60" s="12" t="n">
         <f aca="false">D60/46.75</f>
-        <v>93.3689839572193</v>
+        <v>109.903743315508</v>
       </c>
       <c r="F60" s="12" t="n">
-        <v>718</v>
+        <v>773</v>
       </c>
       <c r="G60" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H60" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$57,G60)</f>
-        <v>9</v>
+        <f aca="false">_xlfn.DAYS($B$57,G60)</f>
+        <v>10</v>
       </c>
       <c r="I60" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J60" s="1" t="n">
         <f aca="false">_xlfn.DAYS(B$57,I60)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K60" s="13" t="n">
-        <f aca="false">B$57+1</f>
-        <v>43917</v>
+        <f aca="false">$B$57+1</f>
+        <v>43918</v>
       </c>
       <c r="L60" s="0"/>
       <c r="M60" s="0"/>
@@ -2165,32 +2166,32 @@
         <v>330</v>
       </c>
       <c r="D61" s="1" t="n">
-        <v>1696</v>
+        <v>1995</v>
       </c>
       <c r="E61" s="12" t="n">
         <f aca="false">D61/65.27</f>
-        <v>25.9843726060978</v>
+        <v>30.5653439558756</v>
       </c>
       <c r="F61" s="12" t="n">
-        <v>365</v>
+        <v>299</v>
       </c>
       <c r="G61" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H61" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$57,G61)</f>
-        <v>4</v>
+        <f aca="false">_xlfn.DAYS($B$57,G61)</f>
+        <v>5</v>
       </c>
       <c r="I61" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J61" s="1" t="n">
         <f aca="false">_xlfn.DAYS(B$57,I61)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K61" s="13" t="n">
-        <f aca="false">B$57+1</f>
-        <v>43917</v>
+        <f aca="false">$B$57+1</f>
+        <v>43918</v>
       </c>
       <c r="L61" s="0"/>
       <c r="M61" s="0"/>
@@ -2201,39 +2202,40 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C62" s="12" t="n">
         <v>1660</v>
       </c>
       <c r="D62" s="1" t="n">
-        <v>1295</v>
+        <v>1696</v>
       </c>
       <c r="E62" s="12" t="n">
         <f aca="false">D62/331</f>
-        <v>3.91238670694864</v>
+        <v>5.12386706948641</v>
       </c>
       <c r="F62" s="12" t="n">
-        <v>268</v>
+        <v>400</v>
       </c>
       <c r="G62" s="13" t="n">
+        <f aca="false">$B$57</f>
         <v>43917</v>
       </c>
       <c r="H62" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$57,G62)</f>
+        <f aca="false">_xlfn.DAYS($B$57,G62)</f>
+        <v>0</v>
+      </c>
+      <c r="I62" s="13" t="n">
+        <f aca="false">$B$57+1</f>
+        <v>43918</v>
+      </c>
+      <c r="J62" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$57,I62)</f>
         <v>-1</v>
       </c>
-      <c r="I62" s="13" t="n">
-        <f aca="false">B$57+1</f>
-        <v>43917</v>
-      </c>
-      <c r="J62" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$57,I62)</f>
-        <v>-1</v>
-      </c>
       <c r="K62" s="13" t="n">
-        <f aca="false">B$57+1</f>
-        <v>43917</v>
+        <f aca="false">$B$57+1</f>
+        <v>43918</v>
       </c>
       <c r="L62" s="0"/>
       <c r="M62" s="0"/>
@@ -2250,33 +2252,33 @@
         <v>330</v>
       </c>
       <c r="D63" s="1" t="n">
-        <v>578</v>
+        <v>759</v>
       </c>
       <c r="E63" s="12" t="n">
         <f aca="false">D63/67.79</f>
-        <v>8.52633131730344</v>
+        <v>11.1963416433102</v>
       </c>
       <c r="F63" s="12" t="n">
-        <v>115</v>
+        <v>181</v>
       </c>
       <c r="G63" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H63" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$57,G63)</f>
-        <v>0</v>
+        <f aca="false">_xlfn.DAYS($B$57,G63)</f>
+        <v>1</v>
       </c>
       <c r="I63" s="13" t="n">
-        <f aca="false">B$57+1</f>
-        <v>43917</v>
+        <f aca="false">$B$57+1</f>
+        <v>43918</v>
       </c>
       <c r="J63" s="1" t="n">
         <f aca="false">_xlfn.DAYS(B$57,I63)</f>
         <v>-1</v>
       </c>
       <c r="K63" s="13" t="n">
-        <f aca="false">B$57+1</f>
-        <v>43917</v>
+        <f aca="false">$B$57+1</f>
+        <v>43918</v>
       </c>
       <c r="L63" s="0"/>
       <c r="M63" s="0"/>
@@ -2287,39 +2289,40 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C64" s="12" t="n">
         <v>414</v>
       </c>
       <c r="D64" s="1" t="n">
-        <v>267</v>
+        <v>351</v>
       </c>
       <c r="E64" s="12" t="n">
         <f aca="false">D64/83.784</f>
-        <v>3.18676596963621</v>
+        <v>4.18934402749928</v>
       </c>
       <c r="F64" s="12" t="n">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="G64" s="13" t="n">
-        <v>43917</v>
+        <f aca="false">$B$57+1</f>
+        <v>43918</v>
       </c>
       <c r="H64" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$57,G64)</f>
+        <f aca="false">_xlfn.DAYS($B$57,G64)</f>
         <v>-1</v>
       </c>
       <c r="I64" s="13" t="n">
-        <f aca="false">B$57+1</f>
-        <v>43917</v>
+        <f aca="false">$B$57+1</f>
+        <v>43918</v>
       </c>
       <c r="J64" s="1" t="n">
         <f aca="false">_xlfn.DAYS(B$57,I64)</f>
         <v>-1</v>
       </c>
       <c r="K64" s="13" t="n">
-        <f aca="false">B$57+1</f>
-        <v>43917</v>
+        <f aca="false">$B$57+1</f>
+        <v>43918</v>
       </c>
       <c r="L64" s="0"/>
       <c r="M64" s="0"/>
@@ -2330,39 +2333,39 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="0" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C65" s="12" t="n">
         <v>50</v>
       </c>
       <c r="D65" s="12" t="n">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="E65" s="12" t="n">
         <f aca="false">D65/10.36</f>
-        <v>7.43243243243243</v>
+        <v>10.1351351351351</v>
       </c>
       <c r="F65" s="12" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="G65" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H65" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$57,G65)</f>
-        <v>1</v>
+        <f aca="false">_xlfn.DAYS($B$57,G65)</f>
+        <v>2</v>
       </c>
       <c r="I65" s="13" t="n">
-        <f aca="false">B$57+1</f>
-        <v>43917</v>
+        <f aca="false">$B$57+1</f>
+        <v>43918</v>
       </c>
       <c r="J65" s="1" t="n">
         <f aca="false">_xlfn.DAYS(B$57,I65)</f>
         <v>-1</v>
       </c>
       <c r="K65" s="13" t="n">
-        <f aca="false">B$57+1</f>
-        <v>43917</v>
+        <f aca="false">$B$57+1</f>
+        <v>43918</v>
       </c>
       <c r="L65" s="0"/>
       <c r="M65" s="0"/>
@@ -2370,6 +2373,424 @@
       <c r="O65" s="0"/>
       <c r="P65" s="0"/>
       <c r="Q65" s="0"/>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D66" s="0"/>
+      <c r="E66" s="0"/>
+      <c r="F66" s="0"/>
+      <c r="G66" s="0"/>
+      <c r="H66" s="0"/>
+      <c r="I66" s="0"/>
+      <c r="J66" s="0"/>
+      <c r="K66" s="0"/>
+      <c r="L66" s="0"/>
+      <c r="M66" s="0"/>
+      <c r="N66" s="0"/>
+      <c r="O66" s="0"/>
+      <c r="P66" s="0"/>
+      <c r="Q66" s="0"/>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D67" s="0"/>
+      <c r="E67" s="0"/>
+      <c r="F67" s="0"/>
+      <c r="G67" s="0"/>
+      <c r="H67" s="0"/>
+      <c r="I67" s="0"/>
+      <c r="J67" s="0"/>
+      <c r="K67" s="0"/>
+      <c r="L67" s="0"/>
+      <c r="M67" s="0"/>
+      <c r="N67" s="0"/>
+      <c r="O67" s="0"/>
+      <c r="P67" s="0"/>
+      <c r="Q67" s="0"/>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B68" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D68" s="0"/>
+      <c r="E68" s="0"/>
+      <c r="F68" s="0"/>
+      <c r="G68" s="0"/>
+      <c r="H68" s="0"/>
+      <c r="I68" s="0"/>
+      <c r="J68" s="0"/>
+      <c r="K68" s="0"/>
+      <c r="L68" s="0"/>
+      <c r="M68" s="0"/>
+      <c r="N68" s="0"/>
+      <c r="O68" s="0"/>
+      <c r="P68" s="0"/>
+      <c r="Q68" s="0"/>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B69" s="7" t="n">
+        <v>43916</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H69" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I69" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J69" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K69" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L69" s="0"/>
+      <c r="M69" s="0"/>
+      <c r="N69" s="0"/>
+      <c r="O69" s="0"/>
+      <c r="P69" s="0"/>
+      <c r="Q69" s="0"/>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B70" s="9"/>
+      <c r="C70" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E70" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F70" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G70" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H70" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I70" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="J70" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="K70" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="L70" s="0"/>
+      <c r="M70" s="0"/>
+      <c r="N70" s="0"/>
+      <c r="O70" s="0"/>
+      <c r="P70" s="0"/>
+      <c r="Q70" s="0"/>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B71" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C71" s="12" t="n">
+        <v>300</v>
+      </c>
+      <c r="D71" s="1" t="n">
+        <v>8215</v>
+      </c>
+      <c r="E71" s="12" t="n">
+        <f aca="false">D71/60.48</f>
+        <v>135.830026455026</v>
+      </c>
+      <c r="F71" s="12" t="n">
+        <v>712</v>
+      </c>
+      <c r="G71" s="13" t="n">
+        <v>43900</v>
+      </c>
+      <c r="H71" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$69,G71)</f>
+        <v>16</v>
+      </c>
+      <c r="I71" s="13" t="n">
+        <v>43902</v>
+      </c>
+      <c r="J71" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$69,I71)</f>
+        <v>14</v>
+      </c>
+      <c r="K71" s="13" t="n">
+        <f aca="false">B$69+1</f>
+        <v>43917</v>
+      </c>
+      <c r="L71" s="0"/>
+      <c r="M71" s="0"/>
+      <c r="N71" s="0"/>
+      <c r="O71" s="0"/>
+      <c r="P71" s="0"/>
+      <c r="Q71" s="0"/>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B72" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C72" s="12" t="n">
+        <v>230</v>
+      </c>
+      <c r="D72" s="1" t="n">
+        <v>4365</v>
+      </c>
+      <c r="E72" s="12" t="n">
+        <f aca="false">D72/46.75</f>
+        <v>93.3689839572193</v>
+      </c>
+      <c r="F72" s="12" t="n">
+        <v>718</v>
+      </c>
+      <c r="G72" s="13" t="n">
+        <v>43907</v>
+      </c>
+      <c r="H72" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$69,G72)</f>
+        <v>9</v>
+      </c>
+      <c r="I72" s="13" t="n">
+        <v>43913</v>
+      </c>
+      <c r="J72" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$69,I72)</f>
+        <v>3</v>
+      </c>
+      <c r="K72" s="13" t="n">
+        <f aca="false">B$69+1</f>
+        <v>43917</v>
+      </c>
+      <c r="L72" s="0"/>
+      <c r="M72" s="0"/>
+      <c r="N72" s="0"/>
+      <c r="O72" s="0"/>
+      <c r="P72" s="0"/>
+      <c r="Q72" s="0"/>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B73" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C73" s="12" t="n">
+        <v>330</v>
+      </c>
+      <c r="D73" s="1" t="n">
+        <v>1696</v>
+      </c>
+      <c r="E73" s="12" t="n">
+        <f aca="false">D73/65.27</f>
+        <v>25.9843726060978</v>
+      </c>
+      <c r="F73" s="12" t="n">
+        <v>365</v>
+      </c>
+      <c r="G73" s="13" t="n">
+        <v>43912</v>
+      </c>
+      <c r="H73" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$69,G73)</f>
+        <v>4</v>
+      </c>
+      <c r="I73" s="13" t="n">
+        <v>43914</v>
+      </c>
+      <c r="J73" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$69,I73)</f>
+        <v>2</v>
+      </c>
+      <c r="K73" s="13" t="n">
+        <f aca="false">B$69+1</f>
+        <v>43917</v>
+      </c>
+      <c r="L73" s="0"/>
+      <c r="M73" s="0"/>
+      <c r="N73" s="0"/>
+      <c r="O73" s="0"/>
+      <c r="P73" s="0"/>
+      <c r="Q73" s="0"/>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B74" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C74" s="12" t="n">
+        <v>1660</v>
+      </c>
+      <c r="D74" s="1" t="n">
+        <v>1295</v>
+      </c>
+      <c r="E74" s="12" t="n">
+        <f aca="false">D74/331</f>
+        <v>3.91238670694864</v>
+      </c>
+      <c r="F74" s="12" t="n">
+        <v>268</v>
+      </c>
+      <c r="G74" s="13" t="n">
+        <v>43917</v>
+      </c>
+      <c r="H74" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$69,G74)</f>
+        <v>-1</v>
+      </c>
+      <c r="I74" s="13" t="n">
+        <f aca="false">B$69+1</f>
+        <v>43917</v>
+      </c>
+      <c r="J74" s="1" t="n">
+        <f aca="false">_xlfn.DAYS($B$69,I74)</f>
+        <v>-1</v>
+      </c>
+      <c r="K74" s="13" t="n">
+        <f aca="false">B$69+1</f>
+        <v>43917</v>
+      </c>
+      <c r="L74" s="0"/>
+      <c r="M74" s="0"/>
+      <c r="N74" s="0"/>
+      <c r="O74" s="0"/>
+      <c r="P74" s="0"/>
+      <c r="Q74" s="0"/>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B75" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C75" s="12" t="n">
+        <v>330</v>
+      </c>
+      <c r="D75" s="1" t="n">
+        <v>578</v>
+      </c>
+      <c r="E75" s="12" t="n">
+        <f aca="false">D75/67.79</f>
+        <v>8.52633131730344</v>
+      </c>
+      <c r="F75" s="12" t="n">
+        <v>115</v>
+      </c>
+      <c r="G75" s="13" t="n">
+        <v>43916</v>
+      </c>
+      <c r="H75" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$69,G75)</f>
+        <v>0</v>
+      </c>
+      <c r="I75" s="13" t="n">
+        <f aca="false">B$69+1</f>
+        <v>43917</v>
+      </c>
+      <c r="J75" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$69,I75)</f>
+        <v>-1</v>
+      </c>
+      <c r="K75" s="13" t="n">
+        <f aca="false">B$69+1</f>
+        <v>43917</v>
+      </c>
+      <c r="L75" s="0"/>
+      <c r="M75" s="0"/>
+      <c r="N75" s="0"/>
+      <c r="O75" s="0"/>
+      <c r="P75" s="0"/>
+      <c r="Q75" s="0"/>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B76" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C76" s="12" t="n">
+        <v>414</v>
+      </c>
+      <c r="D76" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="E76" s="12" t="n">
+        <f aca="false">D76/83.784</f>
+        <v>3.18676596963621</v>
+      </c>
+      <c r="F76" s="12" t="n">
+        <v>61</v>
+      </c>
+      <c r="G76" s="13" t="n">
+        <v>43917</v>
+      </c>
+      <c r="H76" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$69,G76)</f>
+        <v>-1</v>
+      </c>
+      <c r="I76" s="13" t="n">
+        <f aca="false">B$69+1</f>
+        <v>43917</v>
+      </c>
+      <c r="J76" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$69,I76)</f>
+        <v>-1</v>
+      </c>
+      <c r="K76" s="13" t="n">
+        <f aca="false">B$69+1</f>
+        <v>43917</v>
+      </c>
+      <c r="L76" s="0"/>
+      <c r="M76" s="0"/>
+      <c r="N76" s="0"/>
+      <c r="O76" s="0"/>
+      <c r="P76" s="0"/>
+      <c r="Q76" s="0"/>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B77" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C77" s="12" t="n">
+        <v>50</v>
+      </c>
+      <c r="D77" s="12" t="n">
+        <v>77</v>
+      </c>
+      <c r="E77" s="12" t="n">
+        <f aca="false">D77/10.36</f>
+        <v>7.43243243243243</v>
+      </c>
+      <c r="F77" s="12" t="n">
+        <v>15</v>
+      </c>
+      <c r="G77" s="13" t="n">
+        <v>43915</v>
+      </c>
+      <c r="H77" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$69,G77)</f>
+        <v>1</v>
+      </c>
+      <c r="I77" s="13" t="n">
+        <f aca="false">B$69+1</f>
+        <v>43917</v>
+      </c>
+      <c r="J77" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$69,I77)</f>
+        <v>-1</v>
+      </c>
+      <c r="K77" s="13" t="n">
+        <f aca="false">B$69+1</f>
+        <v>43917</v>
+      </c>
+      <c r="L77" s="0"/>
+      <c r="M77" s="0"/>
+      <c r="N77" s="0"/>
+      <c r="O77" s="0"/>
+      <c r="P77" s="0"/>
+      <c r="Q77" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/covid19 lockdown evaluation .xlsx
+++ b/covid19 lockdown evaluation .xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="49">
   <si>
     <t>Effects of the lockdown issued by governments</t>
   </si>
@@ -56,7 +56,7 @@
     <t>start of crisis</t>
   </si>
   <si>
-    <t>: init day, that is the day of more than 5 deaths per million peaople</t>
+    <t>: init day, that is the day of more than 5 deaths per million people inhabitants</t>
   </si>
   <si>
     <t>Days from start</t>
@@ -83,6 +83,12 @@
     <t>: days of maximum for daily deaths</t>
   </si>
   <si>
+    <t>Crisis duration</t>
+  </si>
+  <si>
+    <t>: # of days from init to end of crisis (eventually, crisi duration as of today)</t>
+  </si>
+  <si>
     <t>NOTE:</t>
   </si>
   <si>
@@ -110,6 +116,9 @@
     <t>End of</t>
   </si>
   <si>
+    <t>Crisis</t>
+  </si>
+  <si>
     <t>Start num</t>
   </si>
   <si>
@@ -129,6 +138,9 @@
   </si>
   <si>
     <t>lockdown</t>
+  </si>
+  <si>
+    <t>duration</t>
   </si>
   <si>
     <t>Italy</t>
@@ -329,15 +341,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q77"/>
+  <dimension ref="A1:Q90"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A30" activeCellId="0" sqref="A30"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D31" activeCellId="0" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="1.94387755102041"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="11.5204081632653"/>
     <col collapsed="false" hidden="false" max="5" min="4" style="1" width="11.5204081632653"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="13.1938775510204"/>
     <col collapsed="false" hidden="false" max="17" min="7" style="1" width="11.5204081632653"/>
@@ -635,7 +648,12 @@
       <c r="Q14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="4"/>
+      <c r="B15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>23</v>
+      </c>
       <c r="D15" s="0"/>
       <c r="E15" s="0"/>
       <c r="F15" s="0"/>
@@ -652,12 +670,7 @@
       <c r="Q15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>23</v>
-      </c>
+      <c r="B16" s="4"/>
       <c r="D16" s="0"/>
       <c r="E16" s="0"/>
       <c r="F16" s="0"/>
@@ -674,9 +687,11 @@
       <c r="Q16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="4"/>
-      <c r="C17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>24</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>25</v>
       </c>
       <c r="D17" s="0"/>
       <c r="E17" s="0"/>
@@ -695,7 +710,9 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
+      <c r="C18" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="D18" s="0"/>
       <c r="E18" s="0"/>
       <c r="F18" s="0"/>
@@ -730,9 +747,8 @@
       <c r="Q19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="5"/>
       <c r="D20" s="0"/>
       <c r="E20" s="0"/>
       <c r="F20" s="0"/>
@@ -749,29 +765,17 @@
       <c r="Q20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="7" t="n">
-        <v>43920</v>
+      <c r="B21" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="D21" s="0"/>
-      <c r="E21" s="8" t="s">
-        <v>26</v>
-      </c>
+      <c r="E21" s="0"/>
       <c r="F21" s="0"/>
-      <c r="G21" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="J21" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="K21" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="G21" s="0"/>
+      <c r="H21" s="0"/>
+      <c r="I21" s="0"/>
+      <c r="J21" s="0"/>
+      <c r="K21" s="0"/>
       <c r="L21" s="0"/>
       <c r="M21" s="0"/>
       <c r="N21" s="0"/>
@@ -780,35 +784,32 @@
       <c r="Q21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="9"/>
-      <c r="C22" s="10" t="s">
+      <c r="B22" s="7" t="n">
+        <v>43921</v>
+      </c>
+      <c r="D22" s="0"/>
+      <c r="E22" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="0"/>
+      <c r="G22" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I22" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="10" t="s">
+      <c r="J22" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K22" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="L22" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G22" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I22" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="J22" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="K22" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="L22" s="0"/>
       <c r="M22" s="0"/>
       <c r="N22" s="0"/>
       <c r="O22" s="0"/>
@@ -816,41 +817,37 @@
       <c r="Q22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="9"/>
+      <c r="C23" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H23" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="12" t="n">
-        <v>300</v>
-      </c>
-      <c r="D23" s="1" t="n">
-        <v>11591</v>
-      </c>
-      <c r="E23" s="12" t="n">
-        <f aca="false">D23/60.48</f>
-        <v>191.650132275132</v>
-      </c>
-      <c r="F23" s="12" t="n">
-        <v>812</v>
-      </c>
-      <c r="G23" s="13" t="n">
-        <v>43900</v>
-      </c>
-      <c r="H23" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$21,G23)</f>
-        <v>20</v>
-      </c>
-      <c r="I23" s="13" t="n">
-        <v>43902</v>
-      </c>
-      <c r="J23" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$21,I23)</f>
-        <v>18</v>
-      </c>
-      <c r="K23" s="13" t="n">
-        <f aca="false">$B$33+1</f>
-        <v>43920</v>
-      </c>
-      <c r="L23" s="0"/>
+      <c r="I23" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="M23" s="0"/>
       <c r="N23" s="0"/>
       <c r="O23" s="0"/>
@@ -859,40 +856,43 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C24" s="12" t="n">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="D24" s="1" t="n">
-        <v>7716</v>
+        <v>12428</v>
       </c>
       <c r="E24" s="12" t="n">
-        <f aca="false">D24/46.75</f>
-        <v>165.048128342246</v>
+        <f aca="false">D24/60.48</f>
+        <v>205.489417989418</v>
       </c>
       <c r="F24" s="12" t="n">
-        <v>913</v>
+        <v>837</v>
       </c>
       <c r="G24" s="13" t="n">
-        <v>43907</v>
+        <v>43900</v>
       </c>
       <c r="H24" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$21,G24)</f>
-        <v>13</v>
+        <f aca="false">_xlfn.DAYS($B$22,G24)</f>
+        <v>21</v>
       </c>
       <c r="I24" s="13" t="n">
-        <v>43913</v>
+        <v>43902</v>
       </c>
       <c r="J24" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$21,I24)</f>
-        <v>7</v>
+        <f aca="false">_xlfn.DAYS($B$22,I24)</f>
+        <v>19</v>
       </c>
       <c r="K24" s="13" t="n">
-        <f aca="false">$B$33+1</f>
-        <v>43920</v>
-      </c>
-      <c r="L24" s="0"/>
+        <f aca="false">$B$22+1</f>
+        <v>43922</v>
+      </c>
+      <c r="L24" s="0" t="n">
+        <f aca="false">_xlfn.DAYS(K24,G24)</f>
+        <v>22</v>
+      </c>
       <c r="M24" s="0"/>
       <c r="N24" s="0"/>
       <c r="O24" s="0"/>
@@ -901,40 +901,43 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C25" s="12" t="n">
-        <v>330</v>
+        <v>230</v>
       </c>
       <c r="D25" s="1" t="n">
-        <v>3024</v>
+        <v>8464</v>
       </c>
       <c r="E25" s="12" t="n">
-        <f aca="false">D25/65.27</f>
-        <v>46.3306266278535</v>
+        <f aca="false">D25/46.75</f>
+        <v>181.048128342246</v>
       </c>
       <c r="F25" s="12" t="n">
-        <v>418</v>
+        <v>748</v>
       </c>
       <c r="G25" s="13" t="n">
-        <v>43912</v>
+        <v>43907</v>
       </c>
       <c r="H25" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$21,G25)</f>
+        <f aca="false">_xlfn.DAYS($B$22,G25)</f>
+        <v>14</v>
+      </c>
+      <c r="I25" s="13" t="n">
+        <v>43913</v>
+      </c>
+      <c r="J25" s="1" t="n">
+        <f aca="false">_xlfn.DAYS($B$22,I25)</f>
         <v>8</v>
       </c>
-      <c r="I25" s="13" t="n">
-        <v>43914</v>
-      </c>
-      <c r="J25" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$21,I25)</f>
-        <v>6</v>
-      </c>
       <c r="K25" s="13" t="n">
-        <f aca="false">$B$33+1</f>
-        <v>43920</v>
-      </c>
-      <c r="L25" s="0"/>
+        <f aca="false">$B$22+1</f>
+        <v>43922</v>
+      </c>
+      <c r="L25" s="0" t="n">
+        <f aca="false">_xlfn.DAYS(K25,G25)</f>
+        <v>15</v>
+      </c>
       <c r="M25" s="0"/>
       <c r="N25" s="0"/>
       <c r="O25" s="0"/>
@@ -943,41 +946,43 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C26" s="12" t="n">
-        <v>50</v>
-      </c>
-      <c r="D26" s="12" t="n">
-        <v>146</v>
+        <v>330</v>
+      </c>
+      <c r="D26" s="1" t="n">
+        <v>3523</v>
       </c>
       <c r="E26" s="12" t="n">
-        <f aca="false">D26/10.36</f>
-        <v>14.0926640926641</v>
+        <f aca="false">D26/65.27</f>
+        <v>53.9757928604259</v>
       </c>
       <c r="F26" s="12" t="n">
-        <v>36</v>
+        <v>499</v>
       </c>
       <c r="G26" s="13" t="n">
-        <v>43915</v>
+        <v>43912</v>
       </c>
       <c r="H26" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$21,G26)</f>
-        <v>5</v>
+        <f aca="false">_xlfn.DAYS($B$22,G26)</f>
+        <v>9</v>
       </c>
       <c r="I26" s="13" t="n">
-        <f aca="false">$B$21+1</f>
-        <v>43921</v>
+        <v>43914</v>
       </c>
       <c r="J26" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$21,I26)</f>
-        <v>-1</v>
+        <f aca="false">_xlfn.DAYS($B$22,I26)</f>
+        <v>7</v>
       </c>
       <c r="K26" s="13" t="n">
-        <f aca="false">$B$33+1</f>
-        <v>43920</v>
-      </c>
-      <c r="L26" s="0"/>
+        <f aca="false">$B$22+1</f>
+        <v>43922</v>
+      </c>
+      <c r="L26" s="0" t="n">
+        <f aca="false">_xlfn.DAYS(K26,G26)</f>
+        <v>10</v>
+      </c>
       <c r="M26" s="0"/>
       <c r="N26" s="0"/>
       <c r="O26" s="0"/>
@@ -986,41 +991,44 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C27" s="12" t="n">
-        <v>330</v>
-      </c>
-      <c r="D27" s="1" t="n">
-        <v>1408</v>
+        <v>50</v>
+      </c>
+      <c r="D27" s="12" t="n">
+        <v>180</v>
       </c>
       <c r="E27" s="12" t="n">
-        <f aca="false">D27/67.79</f>
-        <v>20.770025077445</v>
+        <f aca="false">D27/10.36</f>
+        <v>17.3745173745174</v>
       </c>
       <c r="F27" s="12" t="n">
-        <v>180</v>
+        <v>34</v>
       </c>
       <c r="G27" s="13" t="n">
-        <v>43916</v>
+        <v>43915</v>
       </c>
       <c r="H27" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$21,G27)</f>
-        <v>4</v>
+        <f aca="false">_xlfn.DAYS($B$22,G27)</f>
+        <v>6</v>
       </c>
       <c r="I27" s="13" t="n">
-        <f aca="false">$B$21+1</f>
-        <v>43921</v>
+        <f aca="false">$B$22+1</f>
+        <v>43922</v>
       </c>
       <c r="J27" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$21,I27)</f>
+        <f aca="false">_xlfn.DAYS($B$22,I27)</f>
         <v>-1</v>
       </c>
       <c r="K27" s="13" t="n">
-        <f aca="false">$B$33+1</f>
-        <v>43920</v>
-      </c>
-      <c r="L27" s="0"/>
+        <f aca="false">$B$22+1</f>
+        <v>43922</v>
+      </c>
+      <c r="L27" s="0" t="n">
+        <f aca="false">_xlfn.DAYS(K27,G27)</f>
+        <v>7</v>
+      </c>
       <c r="M27" s="0"/>
       <c r="N27" s="0"/>
       <c r="O27" s="0"/>
@@ -1029,40 +1037,44 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C28" s="12" t="n">
-        <v>1660</v>
+        <v>330</v>
       </c>
       <c r="D28" s="1" t="n">
-        <v>3156</v>
+        <v>1789</v>
       </c>
       <c r="E28" s="12" t="n">
-        <f aca="false">D28/331</f>
-        <v>9.53474320241692</v>
+        <f aca="false">D28/67.79</f>
+        <v>26.390323056498</v>
       </c>
       <c r="F28" s="12" t="n">
-        <v>573</v>
+        <v>381</v>
       </c>
       <c r="G28" s="13" t="n">
-        <v>43917</v>
+        <v>43916</v>
       </c>
       <c r="H28" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$21,G28)</f>
-        <v>3</v>
+        <f aca="false">_xlfn.DAYS($B$22,G28)</f>
+        <v>5</v>
       </c>
       <c r="I28" s="13" t="n">
-        <v>43920</v>
+        <f aca="false">$B$22+1</f>
+        <v>43922</v>
       </c>
       <c r="J28" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$21,I28)</f>
-        <v>0</v>
+        <f aca="false">_xlfn.DAYS($B$22,I28)</f>
+        <v>-1</v>
       </c>
       <c r="K28" s="13" t="n">
-        <f aca="false">$B$33+1</f>
-        <v>43920</v>
-      </c>
-      <c r="L28" s="0"/>
+        <f aca="false">$B$22+1</f>
+        <v>43922</v>
+      </c>
+      <c r="L28" s="0" t="n">
+        <f aca="false">_xlfn.DAYS(K28,G28)</f>
+        <v>6</v>
+      </c>
       <c r="M28" s="0"/>
       <c r="N28" s="0"/>
       <c r="O28" s="0"/>
@@ -1071,41 +1083,44 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C29" s="12" t="n">
-        <v>414</v>
+        <v>1660</v>
       </c>
       <c r="D29" s="1" t="n">
-        <v>645</v>
+        <v>4053</v>
       </c>
       <c r="E29" s="12" t="n">
-        <f aca="false">D29/83.784</f>
-        <v>7.69836723002005</v>
+        <f aca="false">D29/331</f>
+        <v>12.2447129909366</v>
       </c>
       <c r="F29" s="12" t="n">
-        <v>104</v>
+        <v>912</v>
       </c>
       <c r="G29" s="13" t="n">
-        <v>43918</v>
+        <v>43917</v>
       </c>
       <c r="H29" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$21,G29)</f>
-        <v>2</v>
+        <f aca="false">_xlfn.DAYS($B$22,G29)</f>
+        <v>4</v>
       </c>
       <c r="I29" s="13" t="n">
-        <f aca="false">$B$21+1</f>
-        <v>43921</v>
+        <f aca="false">$B$22+1</f>
+        <v>43922</v>
       </c>
       <c r="J29" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$21,I29)</f>
+        <f aca="false">_xlfn.DAYS($B$22,I29)</f>
         <v>-1</v>
       </c>
       <c r="K29" s="13" t="n">
-        <f aca="false">$B$33+1</f>
-        <v>43920</v>
-      </c>
-      <c r="L29" s="0"/>
+        <f aca="false">$B$22+1</f>
+        <v>43922</v>
+      </c>
+      <c r="L29" s="0" t="n">
+        <f aca="false">_xlfn.DAYS(K29,G29)</f>
+        <v>5</v>
+      </c>
       <c r="M29" s="0"/>
       <c r="N29" s="0"/>
       <c r="O29" s="0"/>
@@ -1113,17 +1128,45 @@
       <c r="Q29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="4"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="0"/>
-      <c r="E30" s="0"/>
-      <c r="F30" s="0"/>
-      <c r="G30" s="0"/>
-      <c r="H30" s="0"/>
-      <c r="I30" s="0"/>
-      <c r="J30" s="0"/>
-      <c r="K30" s="0"/>
-      <c r="L30" s="0"/>
+      <c r="B30" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="12" t="n">
+        <v>414</v>
+      </c>
+      <c r="D30" s="1" t="n">
+        <v>775</v>
+      </c>
+      <c r="E30" s="12" t="n">
+        <f aca="false">D30/83.784</f>
+        <v>9.24997612909386</v>
+      </c>
+      <c r="F30" s="12" t="n">
+        <v>130</v>
+      </c>
+      <c r="G30" s="13" t="n">
+        <v>43918</v>
+      </c>
+      <c r="H30" s="1" t="n">
+        <f aca="false">_xlfn.DAYS($B$22,G30)</f>
+        <v>3</v>
+      </c>
+      <c r="I30" s="13" t="n">
+        <f aca="false">$B$22+1</f>
+        <v>43922</v>
+      </c>
+      <c r="J30" s="1" t="n">
+        <f aca="false">_xlfn.DAYS($B$22,I30)</f>
+        <v>-1</v>
+      </c>
+      <c r="K30" s="13" t="n">
+        <f aca="false">$B$22+1</f>
+        <v>43922</v>
+      </c>
+      <c r="L30" s="0" t="n">
+        <f aca="false">_xlfn.DAYS(K30,G30)</f>
+        <v>4</v>
+      </c>
       <c r="M30" s="0"/>
       <c r="N30" s="0"/>
       <c r="O30" s="0"/>
@@ -1131,16 +1174,15 @@
       <c r="Q30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="4"/>
-      <c r="C31" s="5"/>
+      <c r="C31" s="12"/>
       <c r="D31" s="0"/>
-      <c r="E31" s="0"/>
-      <c r="F31" s="0"/>
-      <c r="G31" s="0"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="13"/>
       <c r="H31" s="0"/>
-      <c r="I31" s="0"/>
+      <c r="I31" s="13"/>
       <c r="J31" s="0"/>
-      <c r="K31" s="0"/>
+      <c r="K31" s="13"/>
       <c r="L31" s="0"/>
       <c r="M31" s="0"/>
       <c r="N31" s="0"/>
@@ -1149,17 +1191,15 @@
       <c r="Q31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="C32" s="12"/>
       <c r="D32" s="0"/>
-      <c r="E32" s="0"/>
-      <c r="F32" s="0"/>
-      <c r="G32" s="0"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="13"/>
       <c r="H32" s="0"/>
-      <c r="I32" s="0"/>
+      <c r="I32" s="13"/>
       <c r="J32" s="0"/>
-      <c r="K32" s="0"/>
+      <c r="K32" s="13"/>
       <c r="L32" s="0"/>
       <c r="M32" s="0"/>
       <c r="N32" s="0"/>
@@ -1168,29 +1208,17 @@
       <c r="Q32" s="0"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="7" t="n">
-        <v>43919</v>
+      <c r="B33" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="D33" s="0"/>
-      <c r="E33" s="8" t="s">
-        <v>26</v>
-      </c>
+      <c r="E33" s="0"/>
       <c r="F33" s="0"/>
-      <c r="G33" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H33" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="I33" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="J33" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="K33" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="G33" s="0"/>
+      <c r="H33" s="0"/>
+      <c r="I33" s="0"/>
+      <c r="J33" s="0"/>
+      <c r="K33" s="0"/>
       <c r="L33" s="0"/>
       <c r="M33" s="0"/>
       <c r="N33" s="0"/>
@@ -1199,33 +1227,28 @@
       <c r="Q33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="9"/>
-      <c r="C34" s="10" t="s">
+      <c r="B34" s="7" t="n">
+        <v>43920</v>
+      </c>
+      <c r="D34" s="0"/>
+      <c r="E34" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F34" s="0"/>
+      <c r="G34" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I34" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E34" s="10" t="s">
+      <c r="J34" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K34" s="8" t="s">
         <v>32</v>
-      </c>
-      <c r="F34" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G34" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="H34" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I34" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="J34" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="K34" s="8" t="s">
-        <v>34</v>
       </c>
       <c r="L34" s="0"/>
       <c r="M34" s="0"/>
@@ -1235,39 +1258,33 @@
       <c r="Q34" s="0"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="0" t="s">
+      <c r="B35" s="9"/>
+      <c r="C35" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H35" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="12" t="n">
-        <v>300</v>
-      </c>
-      <c r="D35" s="1" t="n">
-        <v>10779</v>
-      </c>
-      <c r="E35" s="12" t="n">
-        <f aca="false">D35/60.48</f>
-        <v>178.224206349206</v>
-      </c>
-      <c r="F35" s="12" t="n">
-        <v>756</v>
-      </c>
-      <c r="G35" s="13" t="n">
-        <v>43900</v>
-      </c>
-      <c r="H35" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$33,G35)</f>
-        <v>19</v>
-      </c>
-      <c r="I35" s="13" t="n">
-        <v>43902</v>
-      </c>
-      <c r="J35" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$33,I35)</f>
-        <v>17</v>
-      </c>
-      <c r="K35" s="13" t="n">
-        <f aca="false">$B$33+1</f>
-        <v>43920</v>
+      <c r="I35" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="J35" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="K35" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="L35" s="0"/>
       <c r="M35" s="0"/>
@@ -1278,37 +1295,37 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C36" s="12" t="n">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="D36" s="1" t="n">
-        <v>6803</v>
+        <v>11591</v>
       </c>
       <c r="E36" s="12" t="n">
-        <f aca="false">D36/46.75</f>
-        <v>145.51871657754</v>
+        <f aca="false">D36/60.48</f>
+        <v>191.650132275132</v>
       </c>
       <c r="F36" s="12" t="n">
-        <v>821</v>
+        <v>812</v>
       </c>
       <c r="G36" s="13" t="n">
-        <v>43907</v>
+        <v>43900</v>
       </c>
       <c r="H36" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$33,G36)</f>
-        <v>12</v>
+        <f aca="false">_xlfn.DAYS($B$34,G36)</f>
+        <v>20</v>
       </c>
       <c r="I36" s="13" t="n">
-        <v>43913</v>
+        <v>43902</v>
       </c>
       <c r="J36" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$33,I36)</f>
-        <v>6</v>
+        <f aca="false">_xlfn.DAYS($B$34,I36)</f>
+        <v>18</v>
       </c>
       <c r="K36" s="13" t="n">
-        <f aca="false">$B$33+1</f>
+        <f aca="false">$B$46+1</f>
         <v>43920</v>
       </c>
       <c r="L36" s="0"/>
@@ -1320,37 +1337,37 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C37" s="12" t="n">
-        <v>330</v>
+        <v>230</v>
       </c>
       <c r="D37" s="1" t="n">
-        <v>2606</v>
+        <v>7716</v>
       </c>
       <c r="E37" s="12" t="n">
-        <f aca="false">D37/65.27</f>
-        <v>39.9264593228129</v>
+        <f aca="false">D37/46.75</f>
+        <v>165.048128342246</v>
       </c>
       <c r="F37" s="12" t="n">
-        <v>292</v>
+        <v>913</v>
       </c>
       <c r="G37" s="13" t="n">
-        <v>43912</v>
+        <v>43907</v>
       </c>
       <c r="H37" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$33,G37)</f>
+        <f aca="false">_xlfn.DAYS($B$34,G37)</f>
+        <v>13</v>
+      </c>
+      <c r="I37" s="13" t="n">
+        <v>43913</v>
+      </c>
+      <c r="J37" s="1" t="n">
+        <f aca="false">_xlfn.DAYS($B$34,I37)</f>
         <v>7</v>
       </c>
-      <c r="I37" s="13" t="n">
-        <v>43914</v>
-      </c>
-      <c r="J37" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$33,I37)</f>
-        <v>5</v>
-      </c>
       <c r="K37" s="13" t="n">
-        <f aca="false">$B$33+1</f>
+        <f aca="false">$B$46+1</f>
         <v>43920</v>
       </c>
       <c r="L37" s="0"/>
@@ -1362,38 +1379,37 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C38" s="12" t="n">
-        <v>1660</v>
+        <v>330</v>
       </c>
       <c r="D38" s="1" t="n">
-        <v>2583</v>
+        <v>3024</v>
       </c>
       <c r="E38" s="12" t="n">
-        <f aca="false">D38/331</f>
-        <v>7.8036253776435</v>
+        <f aca="false">D38/65.27</f>
+        <v>46.3306266278535</v>
       </c>
       <c r="F38" s="12" t="n">
-        <v>363</v>
+        <v>418</v>
       </c>
       <c r="G38" s="13" t="n">
-        <v>43917</v>
+        <v>43912</v>
       </c>
       <c r="H38" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$33,G38)</f>
-        <v>2</v>
+        <f aca="false">_xlfn.DAYS($B$34,G38)</f>
+        <v>8</v>
       </c>
       <c r="I38" s="13" t="n">
-        <f aca="false">$B$33+1</f>
-        <v>43920</v>
+        <v>43914</v>
       </c>
       <c r="J38" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$33,I38)</f>
-        <v>-1</v>
+        <f aca="false">_xlfn.DAYS($B$34,I38)</f>
+        <v>6</v>
       </c>
       <c r="K38" s="13" t="n">
-        <f aca="false">$B$33+1</f>
+        <f aca="false">$B$46+1</f>
         <v>43920</v>
       </c>
       <c r="L38" s="0"/>
@@ -1405,38 +1421,38 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C39" s="12" t="n">
-        <v>330</v>
-      </c>
-      <c r="D39" s="1" t="n">
-        <v>1228</v>
+        <v>50</v>
+      </c>
+      <c r="D39" s="12" t="n">
+        <v>146</v>
       </c>
       <c r="E39" s="12" t="n">
-        <f aca="false">D39/67.79</f>
-        <v>18.1147661897035</v>
+        <f aca="false">D39/10.36</f>
+        <v>14.0926640926641</v>
       </c>
       <c r="F39" s="12" t="n">
-        <v>209</v>
+        <v>36</v>
       </c>
       <c r="G39" s="13" t="n">
-        <v>43916</v>
+        <v>43915</v>
       </c>
       <c r="H39" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$33,G39)</f>
-        <v>3</v>
+        <f aca="false">_xlfn.DAYS($B$34,G39)</f>
+        <v>5</v>
       </c>
       <c r="I39" s="13" t="n">
-        <f aca="false">$B$33+1</f>
-        <v>43920</v>
+        <f aca="false">$B$34+1</f>
+        <v>43921</v>
       </c>
       <c r="J39" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$33,I39)</f>
+        <f aca="false">_xlfn.DAYS($B$34,I39)</f>
         <v>-1</v>
       </c>
       <c r="K39" s="13" t="n">
-        <f aca="false">$B$33+1</f>
+        <f aca="false">$B$46+1</f>
         <v>43920</v>
       </c>
       <c r="L39" s="0"/>
@@ -1448,38 +1464,38 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C40" s="12" t="n">
-        <v>414</v>
+        <v>330</v>
       </c>
       <c r="D40" s="1" t="n">
-        <v>541</v>
+        <v>1408</v>
       </c>
       <c r="E40" s="12" t="n">
-        <f aca="false">D40/83.784</f>
-        <v>6.457080110761</v>
+        <f aca="false">D40/67.79</f>
+        <v>20.770025077445</v>
       </c>
       <c r="F40" s="12" t="n">
-        <v>108</v>
+        <v>180</v>
       </c>
       <c r="G40" s="13" t="n">
-        <v>43918</v>
+        <v>43916</v>
       </c>
       <c r="H40" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$33,G40)</f>
-        <v>1</v>
+        <f aca="false">_xlfn.DAYS($B$34,G40)</f>
+        <v>4</v>
       </c>
       <c r="I40" s="13" t="n">
-        <f aca="false">$B$33+1</f>
-        <v>43920</v>
+        <f aca="false">$B$34+1</f>
+        <v>43921</v>
       </c>
       <c r="J40" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$33,I40)</f>
+        <f aca="false">_xlfn.DAYS($B$34,I40)</f>
         <v>-1</v>
       </c>
       <c r="K40" s="13" t="n">
-        <f aca="false">$B$33+1</f>
+        <f aca="false">$B$46+1</f>
         <v>43920</v>
       </c>
       <c r="L40" s="0"/>
@@ -1491,38 +1507,37 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="0" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C41" s="12" t="n">
-        <v>50</v>
-      </c>
-      <c r="D41" s="12" t="n">
-        <v>110</v>
+        <v>1660</v>
+      </c>
+      <c r="D41" s="1" t="n">
+        <v>3141</v>
       </c>
       <c r="E41" s="12" t="n">
-        <f aca="false">D41/10.36</f>
-        <v>10.6177606177606</v>
+        <f aca="false">D41/331</f>
+        <v>9.48942598187311</v>
       </c>
       <c r="F41" s="12" t="n">
-        <v>5</v>
+        <v>573</v>
       </c>
       <c r="G41" s="13" t="n">
-        <v>43915</v>
+        <v>43917</v>
       </c>
       <c r="H41" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$33,G41)</f>
-        <v>4</v>
+        <f aca="false">_xlfn.DAYS($B$34,G41)</f>
+        <v>3</v>
       </c>
       <c r="I41" s="13" t="n">
-        <f aca="false">$B$33+1</f>
         <v>43920</v>
       </c>
       <c r="J41" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$33,I41)</f>
-        <v>-1</v>
+        <f aca="false">_xlfn.DAYS($B$34,I41)</f>
+        <v>0</v>
       </c>
       <c r="K41" s="13" t="n">
-        <f aca="false">$B$33+1</f>
+        <f aca="false">$B$46+1</f>
         <v>43920</v>
       </c>
       <c r="L41" s="0"/>
@@ -1533,16 +1548,41 @@
       <c r="Q41" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="4"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="0"/>
-      <c r="E42" s="0"/>
-      <c r="F42" s="0"/>
-      <c r="G42" s="0"/>
-      <c r="H42" s="0"/>
-      <c r="I42" s="0"/>
-      <c r="J42" s="0"/>
-      <c r="K42" s="0"/>
+      <c r="B42" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" s="12" t="n">
+        <v>414</v>
+      </c>
+      <c r="D42" s="1" t="n">
+        <v>645</v>
+      </c>
+      <c r="E42" s="12" t="n">
+        <f aca="false">D42/83.784</f>
+        <v>7.69836723002005</v>
+      </c>
+      <c r="F42" s="12" t="n">
+        <v>104</v>
+      </c>
+      <c r="G42" s="13" t="n">
+        <v>43918</v>
+      </c>
+      <c r="H42" s="1" t="n">
+        <f aca="false">_xlfn.DAYS($B$34,G42)</f>
+        <v>2</v>
+      </c>
+      <c r="I42" s="13" t="n">
+        <f aca="false">$B$34+1</f>
+        <v>43921</v>
+      </c>
+      <c r="J42" s="1" t="n">
+        <f aca="false">_xlfn.DAYS($B$34,I42)</f>
+        <v>-1</v>
+      </c>
+      <c r="K42" s="13" t="n">
+        <f aca="false">$B$46+1</f>
+        <v>43920</v>
+      </c>
       <c r="L42" s="0"/>
       <c r="M42" s="0"/>
       <c r="N42" s="0"/>
@@ -1569,9 +1609,8 @@
       <c r="Q43" s="0"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="B44" s="4"/>
+      <c r="C44" s="5"/>
       <c r="D44" s="0"/>
       <c r="E44" s="0"/>
       <c r="F44" s="0"/>
@@ -1588,31 +1627,17 @@
       <c r="Q44" s="0"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="7" t="n">
-        <v>43918</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8" t="s">
+      <c r="B45" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H45" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="I45" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="J45" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="K45" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="D45" s="0"/>
+      <c r="E45" s="0"/>
+      <c r="F45" s="0"/>
+      <c r="G45" s="0"/>
+      <c r="H45" s="0"/>
+      <c r="I45" s="0"/>
+      <c r="J45" s="0"/>
+      <c r="K45" s="0"/>
       <c r="L45" s="0"/>
       <c r="M45" s="0"/>
       <c r="N45" s="0"/>
@@ -1621,33 +1646,28 @@
       <c r="Q45" s="0"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="9"/>
-      <c r="C46" s="10" t="s">
+      <c r="B46" s="7" t="n">
+        <v>43919</v>
+      </c>
+      <c r="D46" s="0"/>
+      <c r="E46" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F46" s="0"/>
+      <c r="G46" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I46" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D46" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E46" s="10" t="s">
+      <c r="J46" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K46" s="8" t="s">
         <v>32</v>
-      </c>
-      <c r="F46" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G46" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="H46" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I46" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="J46" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="K46" s="8" t="s">
-        <v>34</v>
       </c>
       <c r="L46" s="0"/>
       <c r="M46" s="0"/>
@@ -1657,39 +1677,33 @@
       <c r="Q46" s="0"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="0" t="s">
+      <c r="B47" s="9"/>
+      <c r="C47" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G47" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H47" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C47" s="12" t="n">
-        <v>300</v>
-      </c>
-      <c r="D47" s="1" t="n">
-        <v>10023</v>
-      </c>
-      <c r="E47" s="12" t="n">
-        <f aca="false">D47/60.48</f>
-        <v>165.724206349206</v>
-      </c>
-      <c r="F47" s="12" t="n">
-        <v>889</v>
-      </c>
-      <c r="G47" s="13" t="n">
-        <v>43900</v>
-      </c>
-      <c r="H47" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$45,G47)</f>
-        <v>18</v>
-      </c>
-      <c r="I47" s="13" t="n">
-        <v>43902</v>
-      </c>
-      <c r="J47" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$57,I47)</f>
-        <v>15</v>
-      </c>
-      <c r="K47" s="13" t="n">
-        <f aca="false">$B$45+1</f>
-        <v>43919</v>
+      <c r="I47" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="J47" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="K47" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="L47" s="0"/>
       <c r="M47" s="0"/>
@@ -1700,38 +1714,38 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C48" s="12" t="n">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="D48" s="1" t="n">
-        <v>5982</v>
+        <v>10779</v>
       </c>
       <c r="E48" s="12" t="n">
-        <f aca="false">D48/46.75</f>
-        <v>127.957219251337</v>
+        <f aca="false">D48/60.48</f>
+        <v>178.224206349206</v>
       </c>
       <c r="F48" s="12" t="n">
-        <v>844</v>
+        <v>756</v>
       </c>
       <c r="G48" s="13" t="n">
-        <v>43907</v>
+        <v>43900</v>
       </c>
       <c r="H48" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$45,G48)</f>
-        <v>11</v>
+        <f aca="false">_xlfn.DAYS($B$46,G48)</f>
+        <v>19</v>
       </c>
       <c r="I48" s="13" t="n">
-        <v>43913</v>
+        <v>43902</v>
       </c>
       <c r="J48" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$57,I48)</f>
-        <v>4</v>
+        <f aca="false">_xlfn.DAYS($B$46,I48)</f>
+        <v>17</v>
       </c>
       <c r="K48" s="13" t="n">
-        <f aca="false">$B$45+1</f>
-        <v>43919</v>
+        <f aca="false">$B$46+1</f>
+        <v>43920</v>
       </c>
       <c r="L48" s="0"/>
       <c r="M48" s="0"/>
@@ -1742,38 +1756,38 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C49" s="12" t="n">
-        <v>330</v>
+        <v>230</v>
       </c>
       <c r="D49" s="1" t="n">
-        <v>2314</v>
+        <v>6803</v>
       </c>
       <c r="E49" s="12" t="n">
-        <f aca="false">D49/65.27</f>
-        <v>35.4527347939329</v>
+        <f aca="false">D49/46.75</f>
+        <v>145.51871657754</v>
       </c>
       <c r="F49" s="12" t="n">
-        <v>319</v>
+        <v>821</v>
       </c>
       <c r="G49" s="13" t="n">
-        <v>43912</v>
+        <v>43907</v>
       </c>
       <c r="H49" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$45,G49)</f>
+        <f aca="false">_xlfn.DAYS($B$46,G49)</f>
+        <v>12</v>
+      </c>
+      <c r="I49" s="13" t="n">
+        <v>43913</v>
+      </c>
+      <c r="J49" s="1" t="n">
+        <f aca="false">_xlfn.DAYS($B$46,I49)</f>
         <v>6</v>
       </c>
-      <c r="I49" s="13" t="n">
-        <v>43914</v>
-      </c>
-      <c r="J49" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$57,I49)</f>
-        <v>3</v>
-      </c>
       <c r="K49" s="13" t="n">
-        <f aca="false">$B$45+1</f>
-        <v>43919</v>
+        <f aca="false">$B$46+1</f>
+        <v>43920</v>
       </c>
       <c r="L49" s="0"/>
       <c r="M49" s="0"/>
@@ -1784,39 +1798,38 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C50" s="12" t="n">
-        <v>1660</v>
+        <v>330</v>
       </c>
       <c r="D50" s="1" t="n">
-        <v>2221</v>
+        <v>2606</v>
       </c>
       <c r="E50" s="12" t="n">
-        <f aca="false">D50/331</f>
-        <v>6.70996978851964</v>
+        <f aca="false">D50/65.27</f>
+        <v>39.9264593228129</v>
       </c>
       <c r="F50" s="12" t="n">
-        <v>525</v>
+        <v>292</v>
       </c>
       <c r="G50" s="13" t="n">
-        <v>43917</v>
+        <v>43912</v>
       </c>
       <c r="H50" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$45,G50)</f>
-        <v>1</v>
+        <f aca="false">_xlfn.DAYS($B$46,G50)</f>
+        <v>7</v>
       </c>
       <c r="I50" s="13" t="n">
-        <f aca="false">$B$45+1</f>
-        <v>43919</v>
+        <v>43914</v>
       </c>
       <c r="J50" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$45,I50)</f>
-        <v>-1</v>
+        <f aca="false">_xlfn.DAYS($B$46,I50)</f>
+        <v>5</v>
       </c>
       <c r="K50" s="13" t="n">
-        <f aca="false">$B$45+1</f>
-        <v>43919</v>
+        <f aca="false">$B$46+1</f>
+        <v>43920</v>
       </c>
       <c r="L50" s="0"/>
       <c r="M50" s="0"/>
@@ -1827,39 +1840,39 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="0" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C51" s="12" t="n">
-        <v>330</v>
+        <v>1660</v>
       </c>
       <c r="D51" s="1" t="n">
-        <v>1019</v>
+        <v>2583</v>
       </c>
       <c r="E51" s="12" t="n">
-        <f aca="false">D51/67.79</f>
-        <v>15.0317155922702</v>
+        <f aca="false">D51/331</f>
+        <v>7.8036253776435</v>
       </c>
       <c r="F51" s="12" t="n">
-        <v>260</v>
+        <v>363</v>
       </c>
       <c r="G51" s="13" t="n">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="H51" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$45,G51)</f>
+        <f aca="false">_xlfn.DAYS($B$46,G51)</f>
         <v>2</v>
       </c>
       <c r="I51" s="13" t="n">
-        <f aca="false">$B$45+1</f>
-        <v>43919</v>
+        <f aca="false">$B$46+1</f>
+        <v>43920</v>
       </c>
       <c r="J51" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$45,I51)</f>
+        <f aca="false">_xlfn.DAYS($B$46,I51)</f>
         <v>-1</v>
       </c>
       <c r="K51" s="13" t="n">
-        <f aca="false">$B$45+1</f>
-        <v>43919</v>
+        <f aca="false">$B$46+1</f>
+        <v>43920</v>
       </c>
       <c r="L51" s="0"/>
       <c r="M51" s="0"/>
@@ -1870,39 +1883,39 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C52" s="12" t="n">
-        <v>414</v>
+        <v>330</v>
       </c>
       <c r="D52" s="1" t="n">
-        <v>433</v>
+        <v>1228</v>
       </c>
       <c r="E52" s="12" t="n">
-        <f aca="false">D52/83.784</f>
-        <v>5.16805117922276</v>
+        <f aca="false">D52/67.79</f>
+        <v>18.1147661897035</v>
       </c>
       <c r="F52" s="12" t="n">
-        <v>82</v>
+        <v>209</v>
       </c>
       <c r="G52" s="13" t="n">
-        <v>43918</v>
+        <v>43916</v>
       </c>
       <c r="H52" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$45,G52)</f>
-        <v>0</v>
+        <f aca="false">_xlfn.DAYS($B$46,G52)</f>
+        <v>3</v>
       </c>
       <c r="I52" s="13" t="n">
-        <f aca="false">$B$45+1</f>
-        <v>43919</v>
+        <f aca="false">$B$46+1</f>
+        <v>43920</v>
       </c>
       <c r="J52" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$45,I52)</f>
+        <f aca="false">_xlfn.DAYS($B$46,I52)</f>
         <v>-1</v>
       </c>
       <c r="K52" s="13" t="n">
-        <f aca="false">$B$45+1</f>
-        <v>43919</v>
+        <f aca="false">$B$46+1</f>
+        <v>43920</v>
       </c>
       <c r="L52" s="0"/>
       <c r="M52" s="0"/>
@@ -1913,39 +1926,39 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="0" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C53" s="12" t="n">
-        <v>50</v>
-      </c>
-      <c r="D53" s="12" t="n">
-        <v>105</v>
+        <v>414</v>
+      </c>
+      <c r="D53" s="1" t="n">
+        <v>541</v>
       </c>
       <c r="E53" s="12" t="n">
-        <f aca="false">D53/10.36</f>
-        <v>10.1351351351351</v>
+        <f aca="false">D53/83.784</f>
+        <v>6.457080110761</v>
       </c>
       <c r="F53" s="12" t="n">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="G53" s="13" t="n">
-        <v>43915</v>
+        <v>43918</v>
       </c>
       <c r="H53" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$45,G53)</f>
-        <v>3</v>
+        <f aca="false">_xlfn.DAYS($B$46,G53)</f>
+        <v>1</v>
       </c>
       <c r="I53" s="13" t="n">
-        <f aca="false">$B$45+1</f>
-        <v>43919</v>
+        <f aca="false">$B$46+1</f>
+        <v>43920</v>
       </c>
       <c r="J53" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$45,I53)</f>
+        <f aca="false">_xlfn.DAYS($B$46,I53)</f>
         <v>-1</v>
       </c>
       <c r="K53" s="13" t="n">
-        <f aca="false">$B$45+1</f>
-        <v>43919</v>
+        <f aca="false">$B$46+1</f>
+        <v>43920</v>
       </c>
       <c r="L53" s="0"/>
       <c r="M53" s="0"/>
@@ -1955,15 +1968,41 @@
       <c r="Q53" s="0"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C54" s="12"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
-      <c r="G54" s="13"/>
-      <c r="H54" s="0"/>
-      <c r="I54" s="13"/>
-      <c r="J54" s="0"/>
-      <c r="K54" s="13"/>
+      <c r="B54" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C54" s="12" t="n">
+        <v>50</v>
+      </c>
+      <c r="D54" s="12" t="n">
+        <v>110</v>
+      </c>
+      <c r="E54" s="12" t="n">
+        <f aca="false">D54/10.36</f>
+        <v>10.6177606177606</v>
+      </c>
+      <c r="F54" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="G54" s="13" t="n">
+        <v>43915</v>
+      </c>
+      <c r="H54" s="1" t="n">
+        <f aca="false">_xlfn.DAYS($B$46,G54)</f>
+        <v>4</v>
+      </c>
+      <c r="I54" s="13" t="n">
+        <f aca="false">$B$46+1</f>
+        <v>43920</v>
+      </c>
+      <c r="J54" s="1" t="n">
+        <f aca="false">_xlfn.DAYS($B$46,I54)</f>
+        <v>-1</v>
+      </c>
+      <c r="K54" s="13" t="n">
+        <f aca="false">$B$46+1</f>
+        <v>43920</v>
+      </c>
       <c r="L54" s="0"/>
       <c r="M54" s="0"/>
       <c r="N54" s="0"/>
@@ -1990,9 +2029,8 @@
       <c r="Q55" s="0"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="B56" s="4"/>
+      <c r="C56" s="5"/>
       <c r="D56" s="0"/>
       <c r="E56" s="0"/>
       <c r="F56" s="0"/>
@@ -2008,66 +2046,52 @@
       <c r="P56" s="0"/>
       <c r="Q56" s="0"/>
     </row>
-    <row r="57" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="7" t="n">
-        <v>43917</v>
-      </c>
-      <c r="C57" s="0"/>
-      <c r="D57" s="8" t="s">
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B57" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D57" s="0"/>
+      <c r="E57" s="0"/>
+      <c r="F57" s="0"/>
+      <c r="G57" s="0"/>
+      <c r="H57" s="0"/>
+      <c r="I57" s="0"/>
+      <c r="J57" s="0"/>
+      <c r="K57" s="0"/>
+      <c r="L57" s="0"/>
+      <c r="M57" s="0"/>
+      <c r="N57" s="0"/>
+      <c r="O57" s="0"/>
+      <c r="P57" s="0"/>
+      <c r="Q57" s="0"/>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="7" t="n">
+        <v>43918</v>
+      </c>
+      <c r="D58" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E57" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H57" s="8" t="s">
+      <c r="E58" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="I57" s="8" t="s">
+      <c r="F58" s="8"/>
+      <c r="G58" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="J57" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="K57" s="8" t="s">
+      <c r="H58" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="L57" s="8"/>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="3"/>
-      <c r="B58" s="9"/>
-      <c r="C58" s="10" t="s">
+      <c r="I58" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D58" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E58" s="10" t="s">
+      <c r="J58" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K58" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F58" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G58" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="H58" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I58" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="J58" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="K58" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="L58" s="8"/>
+      <c r="L58" s="0"/>
       <c r="M58" s="0"/>
       <c r="N58" s="0"/>
       <c r="O58" s="0"/>
@@ -2075,39 +2099,33 @@
       <c r="Q58" s="0"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="0" t="s">
+      <c r="B59" s="9"/>
+      <c r="C59" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F59" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G59" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H59" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C59" s="12" t="n">
-        <v>300</v>
-      </c>
-      <c r="D59" s="1" t="n">
-        <v>9134</v>
-      </c>
-      <c r="E59" s="12" t="n">
-        <f aca="false">D59/60.48</f>
-        <v>151.025132275132</v>
-      </c>
-      <c r="F59" s="12" t="n">
-        <v>919</v>
-      </c>
-      <c r="G59" s="13" t="n">
-        <v>43900</v>
-      </c>
-      <c r="H59" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$57,G59)</f>
-        <v>17</v>
-      </c>
-      <c r="I59" s="13" t="n">
-        <v>43902</v>
-      </c>
-      <c r="J59" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$57,I59)</f>
-        <v>15</v>
-      </c>
-      <c r="K59" s="13" t="n">
-        <f aca="false">$B$57+1</f>
-        <v>43918</v>
+      <c r="I59" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="J59" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="K59" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="L59" s="0"/>
       <c r="M59" s="0"/>
@@ -2118,38 +2136,38 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C60" s="12" t="n">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="D60" s="1" t="n">
-        <v>5138</v>
+        <v>10023</v>
       </c>
       <c r="E60" s="12" t="n">
-        <f aca="false">D60/46.75</f>
-        <v>109.903743315508</v>
+        <f aca="false">D60/60.48</f>
+        <v>165.724206349206</v>
       </c>
       <c r="F60" s="12" t="n">
-        <v>773</v>
+        <v>889</v>
       </c>
       <c r="G60" s="13" t="n">
-        <v>43907</v>
+        <v>43900</v>
       </c>
       <c r="H60" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$57,G60)</f>
-        <v>10</v>
+        <f aca="false">_xlfn.DAYS($B$58,G60)</f>
+        <v>18</v>
       </c>
       <c r="I60" s="13" t="n">
-        <v>43913</v>
+        <v>43902</v>
       </c>
       <c r="J60" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$57,I60)</f>
-        <v>4</v>
+        <f aca="false">_xlfn.DAYS(B$70,I60)</f>
+        <v>15</v>
       </c>
       <c r="K60" s="13" t="n">
-        <f aca="false">$B$57+1</f>
-        <v>43918</v>
+        <f aca="false">$B$58+1</f>
+        <v>43919</v>
       </c>
       <c r="L60" s="0"/>
       <c r="M60" s="0"/>
@@ -2160,38 +2178,38 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C61" s="12" t="n">
-        <v>330</v>
+        <v>230</v>
       </c>
       <c r="D61" s="1" t="n">
-        <v>1995</v>
+        <v>5982</v>
       </c>
       <c r="E61" s="12" t="n">
-        <f aca="false">D61/65.27</f>
-        <v>30.5653439558756</v>
+        <f aca="false">D61/46.75</f>
+        <v>127.957219251337</v>
       </c>
       <c r="F61" s="12" t="n">
-        <v>299</v>
+        <v>844</v>
       </c>
       <c r="G61" s="13" t="n">
-        <v>43912</v>
+        <v>43907</v>
       </c>
       <c r="H61" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$57,G61)</f>
-        <v>5</v>
+        <f aca="false">_xlfn.DAYS($B$58,G61)</f>
+        <v>11</v>
       </c>
       <c r="I61" s="13" t="n">
-        <v>43914</v>
+        <v>43913</v>
       </c>
       <c r="J61" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$57,I61)</f>
-        <v>3</v>
+        <f aca="false">_xlfn.DAYS(B$70,I61)</f>
+        <v>4</v>
       </c>
       <c r="K61" s="13" t="n">
-        <f aca="false">$B$57+1</f>
-        <v>43918</v>
+        <f aca="false">$B$58+1</f>
+        <v>43919</v>
       </c>
       <c r="L61" s="0"/>
       <c r="M61" s="0"/>
@@ -2202,40 +2220,38 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C62" s="12" t="n">
-        <v>1660</v>
+        <v>330</v>
       </c>
       <c r="D62" s="1" t="n">
-        <v>1696</v>
+        <v>2314</v>
       </c>
       <c r="E62" s="12" t="n">
-        <f aca="false">D62/331</f>
-        <v>5.12386706948641</v>
+        <f aca="false">D62/65.27</f>
+        <v>35.4527347939329</v>
       </c>
       <c r="F62" s="12" t="n">
-        <v>400</v>
+        <v>319</v>
       </c>
       <c r="G62" s="13" t="n">
-        <f aca="false">$B$57</f>
-        <v>43917</v>
+        <v>43912</v>
       </c>
       <c r="H62" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$57,G62)</f>
-        <v>0</v>
+        <f aca="false">_xlfn.DAYS($B$58,G62)</f>
+        <v>6</v>
       </c>
       <c r="I62" s="13" t="n">
-        <f aca="false">$B$57+1</f>
-        <v>43918</v>
+        <v>43914</v>
       </c>
       <c r="J62" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$57,I62)</f>
-        <v>-1</v>
+        <f aca="false">_xlfn.DAYS(B$70,I62)</f>
+        <v>3</v>
       </c>
       <c r="K62" s="13" t="n">
-        <f aca="false">$B$57+1</f>
-        <v>43918</v>
+        <f aca="false">$B$58+1</f>
+        <v>43919</v>
       </c>
       <c r="L62" s="0"/>
       <c r="M62" s="0"/>
@@ -2246,39 +2262,39 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="0" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C63" s="12" t="n">
-        <v>330</v>
+        <v>1660</v>
       </c>
       <c r="D63" s="1" t="n">
-        <v>759</v>
+        <v>2221</v>
       </c>
       <c r="E63" s="12" t="n">
-        <f aca="false">D63/67.79</f>
-        <v>11.1963416433102</v>
+        <f aca="false">D63/331</f>
+        <v>6.70996978851964</v>
       </c>
       <c r="F63" s="12" t="n">
-        <v>181</v>
+        <v>525</v>
       </c>
       <c r="G63" s="13" t="n">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="H63" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$57,G63)</f>
+        <f aca="false">_xlfn.DAYS($B$58,G63)</f>
         <v>1</v>
       </c>
       <c r="I63" s="13" t="n">
-        <f aca="false">$B$57+1</f>
-        <v>43918</v>
+        <f aca="false">$B$58+1</f>
+        <v>43919</v>
       </c>
       <c r="J63" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$57,I63)</f>
+        <f aca="false">_xlfn.DAYS($B$58,I63)</f>
         <v>-1</v>
       </c>
       <c r="K63" s="13" t="n">
-        <f aca="false">$B$57+1</f>
-        <v>43918</v>
+        <f aca="false">$B$58+1</f>
+        <v>43919</v>
       </c>
       <c r="L63" s="0"/>
       <c r="M63" s="0"/>
@@ -2289,40 +2305,39 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C64" s="12" t="n">
-        <v>414</v>
+        <v>330</v>
       </c>
       <c r="D64" s="1" t="n">
-        <v>351</v>
+        <v>1019</v>
       </c>
       <c r="E64" s="12" t="n">
-        <f aca="false">D64/83.784</f>
-        <v>4.18934402749928</v>
+        <f aca="false">D64/67.79</f>
+        <v>15.0317155922702</v>
       </c>
       <c r="F64" s="12" t="n">
-        <v>84</v>
+        <v>260</v>
       </c>
       <c r="G64" s="13" t="n">
-        <f aca="false">$B$57+1</f>
-        <v>43918</v>
+        <v>43916</v>
       </c>
       <c r="H64" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$57,G64)</f>
+        <f aca="false">_xlfn.DAYS($B$58,G64)</f>
+        <v>2</v>
+      </c>
+      <c r="I64" s="13" t="n">
+        <f aca="false">$B$58+1</f>
+        <v>43919</v>
+      </c>
+      <c r="J64" s="1" t="n">
+        <f aca="false">_xlfn.DAYS($B$58,I64)</f>
         <v>-1</v>
       </c>
-      <c r="I64" s="13" t="n">
-        <f aca="false">$B$57+1</f>
-        <v>43918</v>
-      </c>
-      <c r="J64" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$57,I64)</f>
-        <v>-1</v>
-      </c>
       <c r="K64" s="13" t="n">
-        <f aca="false">$B$57+1</f>
-        <v>43918</v>
+        <f aca="false">$B$58+1</f>
+        <v>43919</v>
       </c>
       <c r="L64" s="0"/>
       <c r="M64" s="0"/>
@@ -2333,39 +2348,39 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="0" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C65" s="12" t="n">
-        <v>50</v>
-      </c>
-      <c r="D65" s="12" t="n">
-        <v>105</v>
+        <v>414</v>
+      </c>
+      <c r="D65" s="1" t="n">
+        <v>433</v>
       </c>
       <c r="E65" s="12" t="n">
-        <f aca="false">D65/10.36</f>
-        <v>10.1351351351351</v>
+        <f aca="false">D65/83.784</f>
+        <v>5.16805117922276</v>
       </c>
       <c r="F65" s="12" t="n">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="G65" s="13" t="n">
-        <v>43915</v>
+        <v>43918</v>
       </c>
       <c r="H65" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$57,G65)</f>
-        <v>2</v>
+        <f aca="false">_xlfn.DAYS($B$58,G65)</f>
+        <v>0</v>
       </c>
       <c r="I65" s="13" t="n">
-        <f aca="false">$B$57+1</f>
-        <v>43918</v>
+        <f aca="false">$B$58+1</f>
+        <v>43919</v>
       </c>
       <c r="J65" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$57,I65)</f>
+        <f aca="false">_xlfn.DAYS($B$58,I65)</f>
         <v>-1</v>
       </c>
       <c r="K65" s="13" t="n">
-        <f aca="false">$B$57+1</f>
-        <v>43918</v>
+        <f aca="false">$B$58+1</f>
+        <v>43919</v>
       </c>
       <c r="L65" s="0"/>
       <c r="M65" s="0"/>
@@ -2375,14 +2390,41 @@
       <c r="Q65" s="0"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D66" s="0"/>
-      <c r="E66" s="0"/>
-      <c r="F66" s="0"/>
-      <c r="G66" s="0"/>
-      <c r="H66" s="0"/>
-      <c r="I66" s="0"/>
-      <c r="J66" s="0"/>
-      <c r="K66" s="0"/>
+      <c r="B66" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C66" s="12" t="n">
+        <v>50</v>
+      </c>
+      <c r="D66" s="12" t="n">
+        <v>105</v>
+      </c>
+      <c r="E66" s="12" t="n">
+        <f aca="false">D66/10.36</f>
+        <v>10.1351351351351</v>
+      </c>
+      <c r="F66" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" s="13" t="n">
+        <v>43915</v>
+      </c>
+      <c r="H66" s="1" t="n">
+        <f aca="false">_xlfn.DAYS($B$58,G66)</f>
+        <v>3</v>
+      </c>
+      <c r="I66" s="13" t="n">
+        <f aca="false">$B$58+1</f>
+        <v>43919</v>
+      </c>
+      <c r="J66" s="1" t="n">
+        <f aca="false">_xlfn.DAYS($B$58,I66)</f>
+        <v>-1</v>
+      </c>
+      <c r="K66" s="13" t="n">
+        <f aca="false">$B$58+1</f>
+        <v>43919</v>
+      </c>
       <c r="L66" s="0"/>
       <c r="M66" s="0"/>
       <c r="N66" s="0"/>
@@ -2391,14 +2433,15 @@
       <c r="Q66" s="0"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D67" s="0"/>
-      <c r="E67" s="0"/>
-      <c r="F67" s="0"/>
-      <c r="G67" s="0"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="13"/>
       <c r="H67" s="0"/>
-      <c r="I67" s="0"/>
+      <c r="I67" s="13"/>
       <c r="J67" s="0"/>
-      <c r="K67" s="0"/>
+      <c r="K67" s="13"/>
       <c r="L67" s="0"/>
       <c r="M67" s="0"/>
       <c r="N67" s="0"/>
@@ -2407,9 +2450,8 @@
       <c r="Q67" s="0"/>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B68" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="B68" s="4"/>
+      <c r="C68" s="5"/>
       <c r="D68" s="0"/>
       <c r="E68" s="0"/>
       <c r="F68" s="0"/>
@@ -2426,31 +2468,17 @@
       <c r="Q68" s="0"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B69" s="7" t="n">
-        <v>43916</v>
-      </c>
-      <c r="D69" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E69" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F69" s="8"/>
-      <c r="G69" s="8" t="s">
+      <c r="B69" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H69" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="I69" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="J69" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="K69" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="D69" s="0"/>
+      <c r="E69" s="0"/>
+      <c r="F69" s="0"/>
+      <c r="G69" s="0"/>
+      <c r="H69" s="0"/>
+      <c r="I69" s="0"/>
+      <c r="J69" s="0"/>
+      <c r="K69" s="0"/>
       <c r="L69" s="0"/>
       <c r="M69" s="0"/>
       <c r="N69" s="0"/>
@@ -2458,78 +2486,66 @@
       <c r="P69" s="0"/>
       <c r="Q69" s="0"/>
     </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B70" s="9"/>
-      <c r="C70" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D70" s="10" t="s">
+    <row r="70" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B70" s="7" t="n">
+        <v>43917</v>
+      </c>
+      <c r="C70" s="0"/>
+      <c r="D70" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H70" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I70" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J70" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K70" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L70" s="8"/>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="3"/>
+      <c r="B71" s="9"/>
+      <c r="C71" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D71" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E70" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F70" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G70" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="H70" s="8" t="s">
+      <c r="E71" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="I70" s="11" t="s">
+      <c r="F71" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="J70" s="8" t="s">
+      <c r="G71" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K70" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="L70" s="0"/>
-      <c r="M70" s="0"/>
-      <c r="N70" s="0"/>
-      <c r="O70" s="0"/>
-      <c r="P70" s="0"/>
-      <c r="Q70" s="0"/>
-    </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B71" s="0" t="s">
+      <c r="H71" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C71" s="12" t="n">
-        <v>300</v>
-      </c>
-      <c r="D71" s="1" t="n">
-        <v>8215</v>
-      </c>
-      <c r="E71" s="12" t="n">
-        <f aca="false">D71/60.48</f>
-        <v>135.830026455026</v>
-      </c>
-      <c r="F71" s="12" t="n">
-        <v>712</v>
-      </c>
-      <c r="G71" s="13" t="n">
-        <v>43900</v>
-      </c>
-      <c r="H71" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$69,G71)</f>
-        <v>16</v>
-      </c>
-      <c r="I71" s="13" t="n">
-        <v>43902</v>
-      </c>
-      <c r="J71" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$69,I71)</f>
-        <v>14</v>
-      </c>
-      <c r="K71" s="13" t="n">
-        <f aca="false">B$69+1</f>
-        <v>43917</v>
-      </c>
-      <c r="L71" s="0"/>
+      <c r="I71" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="J71" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="K71" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L71" s="8"/>
       <c r="M71" s="0"/>
       <c r="N71" s="0"/>
       <c r="O71" s="0"/>
@@ -2538,38 +2554,38 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C72" s="12" t="n">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="D72" s="1" t="n">
-        <v>4365</v>
+        <v>9134</v>
       </c>
       <c r="E72" s="12" t="n">
-        <f aca="false">D72/46.75</f>
-        <v>93.3689839572193</v>
+        <f aca="false">D72/60.48</f>
+        <v>151.025132275132</v>
       </c>
       <c r="F72" s="12" t="n">
-        <v>718</v>
+        <v>919</v>
       </c>
       <c r="G72" s="13" t="n">
-        <v>43907</v>
+        <v>43900</v>
       </c>
       <c r="H72" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$69,G72)</f>
-        <v>9</v>
+        <f aca="false">_xlfn.DAYS($B$70,G72)</f>
+        <v>17</v>
       </c>
       <c r="I72" s="13" t="n">
-        <v>43913</v>
+        <v>43902</v>
       </c>
       <c r="J72" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$69,I72)</f>
-        <v>3</v>
+        <f aca="false">_xlfn.DAYS(B$70,I72)</f>
+        <v>15</v>
       </c>
       <c r="K72" s="13" t="n">
-        <f aca="false">B$69+1</f>
-        <v>43917</v>
+        <f aca="false">$B$70+1</f>
+        <v>43918</v>
       </c>
       <c r="L72" s="0"/>
       <c r="M72" s="0"/>
@@ -2580,38 +2596,38 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C73" s="12" t="n">
-        <v>330</v>
+        <v>230</v>
       </c>
       <c r="D73" s="1" t="n">
-        <v>1696</v>
+        <v>5138</v>
       </c>
       <c r="E73" s="12" t="n">
-        <f aca="false">D73/65.27</f>
-        <v>25.9843726060978</v>
+        <f aca="false">D73/46.75</f>
+        <v>109.903743315508</v>
       </c>
       <c r="F73" s="12" t="n">
-        <v>365</v>
+        <v>773</v>
       </c>
       <c r="G73" s="13" t="n">
-        <v>43912</v>
+        <v>43907</v>
       </c>
       <c r="H73" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$69,G73)</f>
+        <f aca="false">_xlfn.DAYS($B$70,G73)</f>
+        <v>10</v>
+      </c>
+      <c r="I73" s="13" t="n">
+        <v>43913</v>
+      </c>
+      <c r="J73" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$70,I73)</f>
         <v>4</v>
       </c>
-      <c r="I73" s="13" t="n">
-        <v>43914</v>
-      </c>
-      <c r="J73" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$69,I73)</f>
-        <v>2</v>
-      </c>
       <c r="K73" s="13" t="n">
-        <f aca="false">B$69+1</f>
-        <v>43917</v>
+        <f aca="false">$B$70+1</f>
+        <v>43918</v>
       </c>
       <c r="L73" s="0"/>
       <c r="M73" s="0"/>
@@ -2622,39 +2638,38 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C74" s="12" t="n">
-        <v>1660</v>
+        <v>330</v>
       </c>
       <c r="D74" s="1" t="n">
-        <v>1295</v>
+        <v>1995</v>
       </c>
       <c r="E74" s="12" t="n">
-        <f aca="false">D74/331</f>
-        <v>3.91238670694864</v>
+        <f aca="false">D74/65.27</f>
+        <v>30.5653439558756</v>
       </c>
       <c r="F74" s="12" t="n">
-        <v>268</v>
+        <v>299</v>
       </c>
       <c r="G74" s="13" t="n">
-        <v>43917</v>
+        <v>43912</v>
       </c>
       <c r="H74" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$69,G74)</f>
-        <v>-1</v>
+        <f aca="false">_xlfn.DAYS($B$70,G74)</f>
+        <v>5</v>
       </c>
       <c r="I74" s="13" t="n">
-        <f aca="false">B$69+1</f>
-        <v>43917</v>
+        <v>43914</v>
       </c>
       <c r="J74" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$69,I74)</f>
-        <v>-1</v>
+        <f aca="false">_xlfn.DAYS(B$70,I74)</f>
+        <v>3</v>
       </c>
       <c r="K74" s="13" t="n">
-        <f aca="false">B$69+1</f>
-        <v>43917</v>
+        <f aca="false">$B$70+1</f>
+        <v>43918</v>
       </c>
       <c r="L74" s="0"/>
       <c r="M74" s="0"/>
@@ -2665,39 +2680,40 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="0" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C75" s="12" t="n">
-        <v>330</v>
+        <v>1660</v>
       </c>
       <c r="D75" s="1" t="n">
-        <v>578</v>
+        <v>1696</v>
       </c>
       <c r="E75" s="12" t="n">
-        <f aca="false">D75/67.79</f>
-        <v>8.52633131730344</v>
+        <f aca="false">D75/331</f>
+        <v>5.12386706948641</v>
       </c>
       <c r="F75" s="12" t="n">
-        <v>115</v>
+        <v>400</v>
       </c>
       <c r="G75" s="13" t="n">
-        <v>43916</v>
+        <f aca="false">$B$70</f>
+        <v>43917</v>
       </c>
       <c r="H75" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$69,G75)</f>
+        <f aca="false">_xlfn.DAYS($B$70,G75)</f>
         <v>0</v>
       </c>
       <c r="I75" s="13" t="n">
-        <f aca="false">B$69+1</f>
-        <v>43917</v>
+        <f aca="false">$B$70+1</f>
+        <v>43918</v>
       </c>
       <c r="J75" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$69,I75)</f>
+        <f aca="false">_xlfn.DAYS(B$70,I75)</f>
         <v>-1</v>
       </c>
       <c r="K75" s="13" t="n">
-        <f aca="false">B$69+1</f>
-        <v>43917</v>
+        <f aca="false">$B$70+1</f>
+        <v>43918</v>
       </c>
       <c r="L75" s="0"/>
       <c r="M75" s="0"/>
@@ -2708,39 +2724,39 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C76" s="12" t="n">
-        <v>414</v>
+        <v>330</v>
       </c>
       <c r="D76" s="1" t="n">
-        <v>267</v>
+        <v>759</v>
       </c>
       <c r="E76" s="12" t="n">
-        <f aca="false">D76/83.784</f>
-        <v>3.18676596963621</v>
+        <f aca="false">D76/67.79</f>
+        <v>11.1963416433102</v>
       </c>
       <c r="F76" s="12" t="n">
-        <v>61</v>
+        <v>181</v>
       </c>
       <c r="G76" s="13" t="n">
-        <v>43917</v>
+        <v>43916</v>
       </c>
       <c r="H76" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$69,G76)</f>
+        <f aca="false">_xlfn.DAYS($B$70,G76)</f>
+        <v>1</v>
+      </c>
+      <c r="I76" s="13" t="n">
+        <f aca="false">$B$70+1</f>
+        <v>43918</v>
+      </c>
+      <c r="J76" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$70,I76)</f>
         <v>-1</v>
       </c>
-      <c r="I76" s="13" t="n">
-        <f aca="false">B$69+1</f>
-        <v>43917</v>
-      </c>
-      <c r="J76" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$69,I76)</f>
-        <v>-1</v>
-      </c>
       <c r="K76" s="13" t="n">
-        <f aca="false">B$69+1</f>
-        <v>43917</v>
+        <f aca="false">$B$70+1</f>
+        <v>43918</v>
       </c>
       <c r="L76" s="0"/>
       <c r="M76" s="0"/>
@@ -2751,39 +2767,40 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="0" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C77" s="12" t="n">
-        <v>50</v>
-      </c>
-      <c r="D77" s="12" t="n">
-        <v>77</v>
+        <v>414</v>
+      </c>
+      <c r="D77" s="1" t="n">
+        <v>351</v>
       </c>
       <c r="E77" s="12" t="n">
-        <f aca="false">D77/10.36</f>
-        <v>7.43243243243243</v>
+        <f aca="false">D77/83.784</f>
+        <v>4.18934402749928</v>
       </c>
       <c r="F77" s="12" t="n">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="G77" s="13" t="n">
-        <v>43915</v>
+        <f aca="false">$B$70+1</f>
+        <v>43918</v>
       </c>
       <c r="H77" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$69,G77)</f>
-        <v>1</v>
+        <f aca="false">_xlfn.DAYS($B$70,G77)</f>
+        <v>-1</v>
       </c>
       <c r="I77" s="13" t="n">
-        <f aca="false">B$69+1</f>
-        <v>43917</v>
+        <f aca="false">$B$70+1</f>
+        <v>43918</v>
       </c>
       <c r="J77" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$69,I77)</f>
+        <f aca="false">_xlfn.DAYS(B$70,I77)</f>
         <v>-1</v>
       </c>
       <c r="K77" s="13" t="n">
-        <f aca="false">B$69+1</f>
-        <v>43917</v>
+        <f aca="false">$B$70+1</f>
+        <v>43918</v>
       </c>
       <c r="L77" s="0"/>
       <c r="M77" s="0"/>
@@ -2791,6 +2808,467 @@
       <c r="O77" s="0"/>
       <c r="P77" s="0"/>
       <c r="Q77" s="0"/>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B78" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C78" s="12" t="n">
+        <v>50</v>
+      </c>
+      <c r="D78" s="12" t="n">
+        <v>105</v>
+      </c>
+      <c r="E78" s="12" t="n">
+        <f aca="false">D78/10.36</f>
+        <v>10.1351351351351</v>
+      </c>
+      <c r="F78" s="12" t="n">
+        <v>28</v>
+      </c>
+      <c r="G78" s="13" t="n">
+        <v>43915</v>
+      </c>
+      <c r="H78" s="1" t="n">
+        <f aca="false">_xlfn.DAYS($B$70,G78)</f>
+        <v>2</v>
+      </c>
+      <c r="I78" s="13" t="n">
+        <f aca="false">$B$70+1</f>
+        <v>43918</v>
+      </c>
+      <c r="J78" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$70,I78)</f>
+        <v>-1</v>
+      </c>
+      <c r="K78" s="13" t="n">
+        <f aca="false">$B$70+1</f>
+        <v>43918</v>
+      </c>
+      <c r="L78" s="0"/>
+      <c r="M78" s="0"/>
+      <c r="N78" s="0"/>
+      <c r="O78" s="0"/>
+      <c r="P78" s="0"/>
+      <c r="Q78" s="0"/>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D79" s="0"/>
+      <c r="E79" s="0"/>
+      <c r="F79" s="0"/>
+      <c r="G79" s="0"/>
+      <c r="H79" s="0"/>
+      <c r="I79" s="0"/>
+      <c r="J79" s="0"/>
+      <c r="K79" s="0"/>
+      <c r="L79" s="0"/>
+      <c r="M79" s="0"/>
+      <c r="N79" s="0"/>
+      <c r="O79" s="0"/>
+      <c r="P79" s="0"/>
+      <c r="Q79" s="0"/>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D80" s="0"/>
+      <c r="E80" s="0"/>
+      <c r="F80" s="0"/>
+      <c r="G80" s="0"/>
+      <c r="H80" s="0"/>
+      <c r="I80" s="0"/>
+      <c r="J80" s="0"/>
+      <c r="K80" s="0"/>
+      <c r="L80" s="0"/>
+      <c r="M80" s="0"/>
+      <c r="N80" s="0"/>
+      <c r="O80" s="0"/>
+      <c r="P80" s="0"/>
+      <c r="Q80" s="0"/>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B81" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D81" s="0"/>
+      <c r="E81" s="0"/>
+      <c r="F81" s="0"/>
+      <c r="G81" s="0"/>
+      <c r="H81" s="0"/>
+      <c r="I81" s="0"/>
+      <c r="J81" s="0"/>
+      <c r="K81" s="0"/>
+      <c r="L81" s="0"/>
+      <c r="M81" s="0"/>
+      <c r="N81" s="0"/>
+      <c r="O81" s="0"/>
+      <c r="P81" s="0"/>
+      <c r="Q81" s="0"/>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B82" s="7" t="n">
+        <v>43916</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E82" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H82" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I82" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J82" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K82" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L82" s="0"/>
+      <c r="M82" s="0"/>
+      <c r="N82" s="0"/>
+      <c r="O82" s="0"/>
+      <c r="P82" s="0"/>
+      <c r="Q82" s="0"/>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B83" s="9"/>
+      <c r="C83" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D83" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E83" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F83" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G83" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H83" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I83" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="J83" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="K83" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L83" s="0"/>
+      <c r="M83" s="0"/>
+      <c r="N83" s="0"/>
+      <c r="O83" s="0"/>
+      <c r="P83" s="0"/>
+      <c r="Q83" s="0"/>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B84" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C84" s="12" t="n">
+        <v>300</v>
+      </c>
+      <c r="D84" s="1" t="n">
+        <v>8215</v>
+      </c>
+      <c r="E84" s="12" t="n">
+        <f aca="false">D84/60.48</f>
+        <v>135.830026455026</v>
+      </c>
+      <c r="F84" s="12" t="n">
+        <v>712</v>
+      </c>
+      <c r="G84" s="13" t="n">
+        <v>43900</v>
+      </c>
+      <c r="H84" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$82,G84)</f>
+        <v>16</v>
+      </c>
+      <c r="I84" s="13" t="n">
+        <v>43902</v>
+      </c>
+      <c r="J84" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$82,I84)</f>
+        <v>14</v>
+      </c>
+      <c r="K84" s="13" t="n">
+        <f aca="false">B$82+1</f>
+        <v>43917</v>
+      </c>
+      <c r="L84" s="0"/>
+      <c r="M84" s="0"/>
+      <c r="N84" s="0"/>
+      <c r="O84" s="0"/>
+      <c r="P84" s="0"/>
+      <c r="Q84" s="0"/>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B85" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C85" s="12" t="n">
+        <v>230</v>
+      </c>
+      <c r="D85" s="1" t="n">
+        <v>4365</v>
+      </c>
+      <c r="E85" s="12" t="n">
+        <f aca="false">D85/46.75</f>
+        <v>93.3689839572193</v>
+      </c>
+      <c r="F85" s="12" t="n">
+        <v>718</v>
+      </c>
+      <c r="G85" s="13" t="n">
+        <v>43907</v>
+      </c>
+      <c r="H85" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$82,G85)</f>
+        <v>9</v>
+      </c>
+      <c r="I85" s="13" t="n">
+        <v>43913</v>
+      </c>
+      <c r="J85" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$82,I85)</f>
+        <v>3</v>
+      </c>
+      <c r="K85" s="13" t="n">
+        <f aca="false">B$82+1</f>
+        <v>43917</v>
+      </c>
+      <c r="L85" s="0"/>
+      <c r="M85" s="0"/>
+      <c r="N85" s="0"/>
+      <c r="O85" s="0"/>
+      <c r="P85" s="0"/>
+      <c r="Q85" s="0"/>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B86" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C86" s="12" t="n">
+        <v>330</v>
+      </c>
+      <c r="D86" s="1" t="n">
+        <v>1696</v>
+      </c>
+      <c r="E86" s="12" t="n">
+        <f aca="false">D86/65.27</f>
+        <v>25.9843726060978</v>
+      </c>
+      <c r="F86" s="12" t="n">
+        <v>365</v>
+      </c>
+      <c r="G86" s="13" t="n">
+        <v>43912</v>
+      </c>
+      <c r="H86" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$82,G86)</f>
+        <v>4</v>
+      </c>
+      <c r="I86" s="13" t="n">
+        <v>43914</v>
+      </c>
+      <c r="J86" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$82,I86)</f>
+        <v>2</v>
+      </c>
+      <c r="K86" s="13" t="n">
+        <f aca="false">B$82+1</f>
+        <v>43917</v>
+      </c>
+      <c r="L86" s="0"/>
+      <c r="M86" s="0"/>
+      <c r="N86" s="0"/>
+      <c r="O86" s="0"/>
+      <c r="P86" s="0"/>
+      <c r="Q86" s="0"/>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B87" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C87" s="12" t="n">
+        <v>1660</v>
+      </c>
+      <c r="D87" s="1" t="n">
+        <v>1295</v>
+      </c>
+      <c r="E87" s="12" t="n">
+        <f aca="false">D87/331</f>
+        <v>3.91238670694864</v>
+      </c>
+      <c r="F87" s="12" t="n">
+        <v>268</v>
+      </c>
+      <c r="G87" s="13" t="n">
+        <v>43917</v>
+      </c>
+      <c r="H87" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$82,G87)</f>
+        <v>-1</v>
+      </c>
+      <c r="I87" s="13" t="n">
+        <f aca="false">B$82+1</f>
+        <v>43917</v>
+      </c>
+      <c r="J87" s="1" t="n">
+        <f aca="false">_xlfn.DAYS($B$82,I87)</f>
+        <v>-1</v>
+      </c>
+      <c r="K87" s="13" t="n">
+        <f aca="false">B$82+1</f>
+        <v>43917</v>
+      </c>
+      <c r="L87" s="0"/>
+      <c r="M87" s="0"/>
+      <c r="N87" s="0"/>
+      <c r="O87" s="0"/>
+      <c r="P87" s="0"/>
+      <c r="Q87" s="0"/>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B88" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C88" s="12" t="n">
+        <v>330</v>
+      </c>
+      <c r="D88" s="1" t="n">
+        <v>578</v>
+      </c>
+      <c r="E88" s="12" t="n">
+        <f aca="false">D88/67.79</f>
+        <v>8.52633131730344</v>
+      </c>
+      <c r="F88" s="12" t="n">
+        <v>115</v>
+      </c>
+      <c r="G88" s="13" t="n">
+        <v>43916</v>
+      </c>
+      <c r="H88" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$82,G88)</f>
+        <v>0</v>
+      </c>
+      <c r="I88" s="13" t="n">
+        <f aca="false">B$82+1</f>
+        <v>43917</v>
+      </c>
+      <c r="J88" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$82,I88)</f>
+        <v>-1</v>
+      </c>
+      <c r="K88" s="13" t="n">
+        <f aca="false">B$82+1</f>
+        <v>43917</v>
+      </c>
+      <c r="L88" s="0"/>
+      <c r="M88" s="0"/>
+      <c r="N88" s="0"/>
+      <c r="O88" s="0"/>
+      <c r="P88" s="0"/>
+      <c r="Q88" s="0"/>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B89" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C89" s="12" t="n">
+        <v>414</v>
+      </c>
+      <c r="D89" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="E89" s="12" t="n">
+        <f aca="false">D89/83.784</f>
+        <v>3.18676596963621</v>
+      </c>
+      <c r="F89" s="12" t="n">
+        <v>61</v>
+      </c>
+      <c r="G89" s="13" t="n">
+        <v>43917</v>
+      </c>
+      <c r="H89" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$82,G89)</f>
+        <v>-1</v>
+      </c>
+      <c r="I89" s="13" t="n">
+        <f aca="false">B$82+1</f>
+        <v>43917</v>
+      </c>
+      <c r="J89" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$82,I89)</f>
+        <v>-1</v>
+      </c>
+      <c r="K89" s="13" t="n">
+        <f aca="false">B$82+1</f>
+        <v>43917</v>
+      </c>
+      <c r="L89" s="0"/>
+      <c r="M89" s="0"/>
+      <c r="N89" s="0"/>
+      <c r="O89" s="0"/>
+      <c r="P89" s="0"/>
+      <c r="Q89" s="0"/>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B90" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C90" s="12" t="n">
+        <v>50</v>
+      </c>
+      <c r="D90" s="12" t="n">
+        <v>77</v>
+      </c>
+      <c r="E90" s="12" t="n">
+        <f aca="false">D90/10.36</f>
+        <v>7.43243243243243</v>
+      </c>
+      <c r="F90" s="12" t="n">
+        <v>15</v>
+      </c>
+      <c r="G90" s="13" t="n">
+        <v>43915</v>
+      </c>
+      <c r="H90" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$82,G90)</f>
+        <v>1</v>
+      </c>
+      <c r="I90" s="13" t="n">
+        <f aca="false">B$82+1</f>
+        <v>43917</v>
+      </c>
+      <c r="J90" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$82,I90)</f>
+        <v>-1</v>
+      </c>
+      <c r="K90" s="13" t="n">
+        <f aca="false">B$82+1</f>
+        <v>43917</v>
+      </c>
+      <c r="L90" s="0"/>
+      <c r="M90" s="0"/>
+      <c r="N90" s="0"/>
+      <c r="O90" s="0"/>
+      <c r="P90" s="0"/>
+      <c r="Q90" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/covid19 lockdown evaluation .xlsx
+++ b/covid19 lockdown evaluation .xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="241" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="257" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="49">
   <si>
     <t>Effects of the lockdown issued by governments</t>
   </si>
@@ -341,10 +341,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q90"/>
+  <dimension ref="A1:Q102"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D31" activeCellId="0" sqref="D31"/>
+      <selection pane="topLeft" activeCell="N31" activeCellId="0" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -785,7 +785,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="7" t="n">
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="D22" s="0"/>
       <c r="E22" s="8" t="s">
@@ -876,22 +876,22 @@
       </c>
       <c r="H24" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,G24)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I24" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J24" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,I24)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K24" s="13" t="n">
         <f aca="false">$B$22+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="L24" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K24,G24)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M24" s="0"/>
       <c r="N24" s="0"/>
@@ -921,22 +921,22 @@
       </c>
       <c r="H25" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,G25)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I25" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J25" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,I25)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K25" s="13" t="n">
         <f aca="false">$B$22+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="L25" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K25,G25)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M25" s="0"/>
       <c r="N25" s="0"/>
@@ -966,22 +966,22 @@
       </c>
       <c r="H26" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,G26)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I26" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J26" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,I26)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K26" s="13" t="n">
         <f aca="false">$B$22+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="L26" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K26,G26)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M26" s="0"/>
       <c r="N26" s="0"/>
@@ -1011,11 +1011,11 @@
       </c>
       <c r="H27" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,G27)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I27" s="13" t="n">
         <f aca="false">$B$22+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="J27" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,I27)</f>
@@ -1023,11 +1023,11 @@
       </c>
       <c r="K27" s="13" t="n">
         <f aca="false">$B$22+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="L27" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K27,G27)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M27" s="0"/>
       <c r="N27" s="0"/>
@@ -1057,11 +1057,11 @@
       </c>
       <c r="H28" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,G28)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I28" s="13" t="n">
         <f aca="false">$B$22+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="J28" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,I28)</f>
@@ -1069,11 +1069,11 @@
       </c>
       <c r="K28" s="13" t="n">
         <f aca="false">$B$22+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="L28" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K28,G28)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M28" s="0"/>
       <c r="N28" s="0"/>
@@ -1103,11 +1103,11 @@
       </c>
       <c r="H29" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,G29)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I29" s="13" t="n">
         <f aca="false">$B$22+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="J29" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,I29)</f>
@@ -1115,11 +1115,11 @@
       </c>
       <c r="K29" s="13" t="n">
         <f aca="false">$B$22+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="L29" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K29,G29)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M29" s="0"/>
       <c r="N29" s="0"/>
@@ -1149,11 +1149,11 @@
       </c>
       <c r="H30" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,G30)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I30" s="13" t="n">
         <f aca="false">$B$22+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="J30" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,I30)</f>
@@ -1161,11 +1161,11 @@
       </c>
       <c r="K30" s="13" t="n">
         <f aca="false">$B$22+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="L30" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K30,G30)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M30" s="0"/>
       <c r="N30" s="0"/>
@@ -1174,15 +1174,16 @@
       <c r="Q30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="12"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="5"/>
       <c r="D31" s="0"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="13"/>
+      <c r="E31" s="0"/>
+      <c r="F31" s="0"/>
+      <c r="G31" s="0"/>
       <c r="H31" s="0"/>
-      <c r="I31" s="13"/>
+      <c r="I31" s="0"/>
       <c r="J31" s="0"/>
-      <c r="K31" s="13"/>
+      <c r="K31" s="0"/>
       <c r="L31" s="0"/>
       <c r="M31" s="0"/>
       <c r="N31" s="0"/>
@@ -1191,15 +1192,16 @@
       <c r="Q31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="12"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="5"/>
       <c r="D32" s="0"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="13"/>
+      <c r="E32" s="0"/>
+      <c r="F32" s="0"/>
+      <c r="G32" s="0"/>
       <c r="H32" s="0"/>
-      <c r="I32" s="13"/>
+      <c r="I32" s="0"/>
       <c r="J32" s="0"/>
-      <c r="K32" s="13"/>
+      <c r="K32" s="0"/>
       <c r="L32" s="0"/>
       <c r="M32" s="0"/>
       <c r="N32" s="0"/>
@@ -1228,7 +1230,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="7" t="n">
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="D34" s="0"/>
       <c r="E34" s="8" t="s">
@@ -1250,7 +1252,9 @@
       <c r="K34" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="L34" s="0"/>
+      <c r="L34" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="M34" s="0"/>
       <c r="N34" s="0"/>
       <c r="O34" s="0"/>
@@ -1286,7 +1290,9 @@
       <c r="K35" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="L35" s="0"/>
+      <c r="L35" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="M35" s="0"/>
       <c r="N35" s="0"/>
       <c r="O35" s="0"/>
@@ -1301,34 +1307,37 @@
         <v>300</v>
       </c>
       <c r="D36" s="1" t="n">
-        <v>11591</v>
+        <v>12428</v>
       </c>
       <c r="E36" s="12" t="n">
         <f aca="false">D36/60.48</f>
-        <v>191.650132275132</v>
+        <v>205.489417989418</v>
       </c>
       <c r="F36" s="12" t="n">
-        <v>812</v>
+        <v>837</v>
       </c>
       <c r="G36" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H36" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,G36)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I36" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J36" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,I36)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K36" s="13" t="n">
-        <f aca="false">$B$46+1</f>
-        <v>43920</v>
-      </c>
-      <c r="L36" s="0"/>
+        <f aca="false">$B$34+1</f>
+        <v>43922</v>
+      </c>
+      <c r="L36" s="0" t="n">
+        <f aca="false">_xlfn.DAYS(K36,G36)</f>
+        <v>22</v>
+      </c>
       <c r="M36" s="0"/>
       <c r="N36" s="0"/>
       <c r="O36" s="0"/>
@@ -1343,34 +1352,37 @@
         <v>230</v>
       </c>
       <c r="D37" s="1" t="n">
-        <v>7716</v>
+        <v>8464</v>
       </c>
       <c r="E37" s="12" t="n">
         <f aca="false">D37/46.75</f>
-        <v>165.048128342246</v>
+        <v>181.048128342246</v>
       </c>
       <c r="F37" s="12" t="n">
-        <v>913</v>
+        <v>748</v>
       </c>
       <c r="G37" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H37" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,G37)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I37" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J37" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,I37)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K37" s="13" t="n">
-        <f aca="false">$B$46+1</f>
-        <v>43920</v>
-      </c>
-      <c r="L37" s="0"/>
+        <f aca="false">$B$34+1</f>
+        <v>43922</v>
+      </c>
+      <c r="L37" s="0" t="n">
+        <f aca="false">_xlfn.DAYS(K37,G37)</f>
+        <v>15</v>
+      </c>
       <c r="M37" s="0"/>
       <c r="N37" s="0"/>
       <c r="O37" s="0"/>
@@ -1385,34 +1397,37 @@
         <v>330</v>
       </c>
       <c r="D38" s="1" t="n">
-        <v>3024</v>
+        <v>3523</v>
       </c>
       <c r="E38" s="12" t="n">
         <f aca="false">D38/65.27</f>
-        <v>46.3306266278535</v>
+        <v>53.9757928604259</v>
       </c>
       <c r="F38" s="12" t="n">
-        <v>418</v>
+        <v>499</v>
       </c>
       <c r="G38" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H38" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,G38)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I38" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J38" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,I38)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K38" s="13" t="n">
-        <f aca="false">$B$46+1</f>
-        <v>43920</v>
-      </c>
-      <c r="L38" s="0"/>
+        <f aca="false">$B$34+1</f>
+        <v>43922</v>
+      </c>
+      <c r="L38" s="0" t="n">
+        <f aca="false">_xlfn.DAYS(K38,G38)</f>
+        <v>10</v>
+      </c>
       <c r="M38" s="0"/>
       <c r="N38" s="0"/>
       <c r="O38" s="0"/>
@@ -1427,35 +1442,38 @@
         <v>50</v>
       </c>
       <c r="D39" s="12" t="n">
-        <v>146</v>
+        <v>180</v>
       </c>
       <c r="E39" s="12" t="n">
         <f aca="false">D39/10.36</f>
-        <v>14.0926640926641</v>
+        <v>17.3745173745174</v>
       </c>
       <c r="F39" s="12" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G39" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H39" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,G39)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I39" s="13" t="n">
         <f aca="false">$B$34+1</f>
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="J39" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,I39)</f>
         <v>-1</v>
       </c>
       <c r="K39" s="13" t="n">
-        <f aca="false">$B$46+1</f>
-        <v>43920</v>
-      </c>
-      <c r="L39" s="0"/>
+        <f aca="false">$B$34+1</f>
+        <v>43922</v>
+      </c>
+      <c r="L39" s="0" t="n">
+        <f aca="false">_xlfn.DAYS(K39,G39)</f>
+        <v>7</v>
+      </c>
       <c r="M39" s="0"/>
       <c r="N39" s="0"/>
       <c r="O39" s="0"/>
@@ -1470,35 +1488,38 @@
         <v>330</v>
       </c>
       <c r="D40" s="1" t="n">
-        <v>1408</v>
+        <v>1789</v>
       </c>
       <c r="E40" s="12" t="n">
         <f aca="false">D40/67.79</f>
-        <v>20.770025077445</v>
+        <v>26.390323056498</v>
       </c>
       <c r="F40" s="12" t="n">
-        <v>180</v>
+        <v>381</v>
       </c>
       <c r="G40" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H40" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,G40)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I40" s="13" t="n">
         <f aca="false">$B$34+1</f>
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="J40" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,I40)</f>
         <v>-1</v>
       </c>
       <c r="K40" s="13" t="n">
-        <f aca="false">$B$46+1</f>
-        <v>43920</v>
-      </c>
-      <c r="L40" s="0"/>
+        <f aca="false">$B$34+1</f>
+        <v>43922</v>
+      </c>
+      <c r="L40" s="0" t="n">
+        <f aca="false">_xlfn.DAYS(K40,G40)</f>
+        <v>6</v>
+      </c>
       <c r="M40" s="0"/>
       <c r="N40" s="0"/>
       <c r="O40" s="0"/>
@@ -1513,34 +1534,38 @@
         <v>1660</v>
       </c>
       <c r="D41" s="1" t="n">
-        <v>3141</v>
+        <v>4053</v>
       </c>
       <c r="E41" s="12" t="n">
         <f aca="false">D41/331</f>
-        <v>9.48942598187311</v>
+        <v>12.2447129909366</v>
       </c>
       <c r="F41" s="12" t="n">
-        <v>573</v>
+        <v>912</v>
       </c>
       <c r="G41" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H41" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,G41)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I41" s="13" t="n">
-        <v>43920</v>
+        <f aca="false">$B$34+1</f>
+        <v>43922</v>
       </c>
       <c r="J41" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,I41)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K41" s="13" t="n">
-        <f aca="false">$B$46+1</f>
-        <v>43920</v>
-      </c>
-      <c r="L41" s="0"/>
+        <f aca="false">$B$34+1</f>
+        <v>43922</v>
+      </c>
+      <c r="L41" s="0" t="n">
+        <f aca="false">_xlfn.DAYS(K41,G41)</f>
+        <v>5</v>
+      </c>
       <c r="M41" s="0"/>
       <c r="N41" s="0"/>
       <c r="O41" s="0"/>
@@ -1555,35 +1580,38 @@
         <v>414</v>
       </c>
       <c r="D42" s="1" t="n">
-        <v>645</v>
+        <v>775</v>
       </c>
       <c r="E42" s="12" t="n">
         <f aca="false">D42/83.784</f>
-        <v>7.69836723002005</v>
+        <v>9.24997612909386</v>
       </c>
       <c r="F42" s="12" t="n">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="G42" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H42" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,G42)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I42" s="13" t="n">
         <f aca="false">$B$34+1</f>
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="J42" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,I42)</f>
         <v>-1</v>
       </c>
       <c r="K42" s="13" t="n">
-        <f aca="false">$B$46+1</f>
-        <v>43920</v>
-      </c>
-      <c r="L42" s="0"/>
+        <f aca="false">$B$34+1</f>
+        <v>43922</v>
+      </c>
+      <c r="L42" s="0" t="n">
+        <f aca="false">_xlfn.DAYS(K42,G42)</f>
+        <v>4</v>
+      </c>
       <c r="M42" s="0"/>
       <c r="N42" s="0"/>
       <c r="O42" s="0"/>
@@ -1591,16 +1619,15 @@
       <c r="Q42" s="0"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="4"/>
-      <c r="C43" s="5"/>
+      <c r="C43" s="12"/>
       <c r="D43" s="0"/>
-      <c r="E43" s="0"/>
-      <c r="F43" s="0"/>
-      <c r="G43" s="0"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="13"/>
       <c r="H43" s="0"/>
-      <c r="I43" s="0"/>
+      <c r="I43" s="13"/>
       <c r="J43" s="0"/>
-      <c r="K43" s="0"/>
+      <c r="K43" s="13"/>
       <c r="L43" s="0"/>
       <c r="M43" s="0"/>
       <c r="N43" s="0"/>
@@ -1609,16 +1636,15 @@
       <c r="Q43" s="0"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="4"/>
-      <c r="C44" s="5"/>
+      <c r="C44" s="12"/>
       <c r="D44" s="0"/>
-      <c r="E44" s="0"/>
-      <c r="F44" s="0"/>
-      <c r="G44" s="0"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="13"/>
       <c r="H44" s="0"/>
-      <c r="I44" s="0"/>
+      <c r="I44" s="13"/>
       <c r="J44" s="0"/>
-      <c r="K44" s="0"/>
+      <c r="K44" s="13"/>
       <c r="L44" s="0"/>
       <c r="M44" s="0"/>
       <c r="N44" s="0"/>
@@ -1647,7 +1673,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="7" t="n">
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="D46" s="0"/>
       <c r="E46" s="8" t="s">
@@ -1720,31 +1746,31 @@
         <v>300</v>
       </c>
       <c r="D48" s="1" t="n">
-        <v>10779</v>
+        <v>11591</v>
       </c>
       <c r="E48" s="12" t="n">
         <f aca="false">D48/60.48</f>
-        <v>178.224206349206</v>
+        <v>191.650132275132</v>
       </c>
       <c r="F48" s="12" t="n">
-        <v>756</v>
+        <v>812</v>
       </c>
       <c r="G48" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H48" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,G48)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I48" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J48" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,I48)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K48" s="13" t="n">
-        <f aca="false">$B$46+1</f>
+        <f aca="false">$B$58+1</f>
         <v>43920</v>
       </c>
       <c r="L48" s="0"/>
@@ -1762,31 +1788,31 @@
         <v>230</v>
       </c>
       <c r="D49" s="1" t="n">
-        <v>6803</v>
+        <v>7716</v>
       </c>
       <c r="E49" s="12" t="n">
         <f aca="false">D49/46.75</f>
-        <v>145.51871657754</v>
+        <v>165.048128342246</v>
       </c>
       <c r="F49" s="12" t="n">
-        <v>821</v>
+        <v>913</v>
       </c>
       <c r="G49" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H49" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,G49)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I49" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J49" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,I49)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K49" s="13" t="n">
-        <f aca="false">$B$46+1</f>
+        <f aca="false">$B$58+1</f>
         <v>43920</v>
       </c>
       <c r="L49" s="0"/>
@@ -1804,31 +1830,31 @@
         <v>330</v>
       </c>
       <c r="D50" s="1" t="n">
-        <v>2606</v>
+        <v>3024</v>
       </c>
       <c r="E50" s="12" t="n">
         <f aca="false">D50/65.27</f>
-        <v>39.9264593228129</v>
+        <v>46.3306266278535</v>
       </c>
       <c r="F50" s="12" t="n">
-        <v>292</v>
+        <v>418</v>
       </c>
       <c r="G50" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H50" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,G50)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I50" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J50" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,I50)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K50" s="13" t="n">
-        <f aca="false">$B$46+1</f>
+        <f aca="false">$B$58+1</f>
         <v>43920</v>
       </c>
       <c r="L50" s="0"/>
@@ -1840,38 +1866,38 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C51" s="12" t="n">
-        <v>1660</v>
-      </c>
-      <c r="D51" s="1" t="n">
-        <v>2583</v>
+        <v>50</v>
+      </c>
+      <c r="D51" s="12" t="n">
+        <v>146</v>
       </c>
       <c r="E51" s="12" t="n">
-        <f aca="false">D51/331</f>
-        <v>7.8036253776435</v>
+        <f aca="false">D51/10.36</f>
+        <v>14.0926640926641</v>
       </c>
       <c r="F51" s="12" t="n">
-        <v>363</v>
+        <v>36</v>
       </c>
       <c r="G51" s="13" t="n">
-        <v>43917</v>
+        <v>43915</v>
       </c>
       <c r="H51" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,G51)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I51" s="13" t="n">
         <f aca="false">$B$46+1</f>
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="J51" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,I51)</f>
         <v>-1</v>
       </c>
       <c r="K51" s="13" t="n">
-        <f aca="false">$B$46+1</f>
+        <f aca="false">$B$58+1</f>
         <v>43920</v>
       </c>
       <c r="L51" s="0"/>
@@ -1889,32 +1915,32 @@
         <v>330</v>
       </c>
       <c r="D52" s="1" t="n">
-        <v>1228</v>
+        <v>1408</v>
       </c>
       <c r="E52" s="12" t="n">
         <f aca="false">D52/67.79</f>
-        <v>18.1147661897035</v>
+        <v>20.770025077445</v>
       </c>
       <c r="F52" s="12" t="n">
-        <v>209</v>
+        <v>180</v>
       </c>
       <c r="G52" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H52" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,G52)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I52" s="13" t="n">
         <f aca="false">$B$46+1</f>
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="J52" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,I52)</f>
         <v>-1</v>
       </c>
       <c r="K52" s="13" t="n">
-        <f aca="false">$B$46+1</f>
+        <f aca="false">$B$58+1</f>
         <v>43920</v>
       </c>
       <c r="L52" s="0"/>
@@ -1926,38 +1952,37 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C53" s="12" t="n">
-        <v>414</v>
+        <v>1660</v>
       </c>
       <c r="D53" s="1" t="n">
-        <v>541</v>
+        <v>3141</v>
       </c>
       <c r="E53" s="12" t="n">
-        <f aca="false">D53/83.784</f>
-        <v>6.457080110761</v>
+        <f aca="false">D53/331</f>
+        <v>9.48942598187311</v>
       </c>
       <c r="F53" s="12" t="n">
-        <v>108</v>
+        <v>573</v>
       </c>
       <c r="G53" s="13" t="n">
-        <v>43918</v>
+        <v>43917</v>
       </c>
       <c r="H53" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,G53)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I53" s="13" t="n">
-        <f aca="false">$B$46+1</f>
         <v>43920</v>
       </c>
       <c r="J53" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,I53)</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K53" s="13" t="n">
-        <f aca="false">$B$46+1</f>
+        <f aca="false">$B$58+1</f>
         <v>43920</v>
       </c>
       <c r="L53" s="0"/>
@@ -1969,38 +1994,38 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C54" s="12" t="n">
-        <v>50</v>
-      </c>
-      <c r="D54" s="12" t="n">
-        <v>110</v>
+        <v>414</v>
+      </c>
+      <c r="D54" s="1" t="n">
+        <v>645</v>
       </c>
       <c r="E54" s="12" t="n">
-        <f aca="false">D54/10.36</f>
-        <v>10.6177606177606</v>
+        <f aca="false">D54/83.784</f>
+        <v>7.69836723002005</v>
       </c>
       <c r="F54" s="12" t="n">
-        <v>5</v>
+        <v>104</v>
       </c>
       <c r="G54" s="13" t="n">
-        <v>43915</v>
+        <v>43918</v>
       </c>
       <c r="H54" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,G54)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I54" s="13" t="n">
         <f aca="false">$B$46+1</f>
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="J54" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,I54)</f>
         <v>-1</v>
       </c>
       <c r="K54" s="13" t="n">
-        <f aca="false">$B$46+1</f>
+        <f aca="false">$B$58+1</f>
         <v>43920</v>
       </c>
       <c r="L54" s="0"/>
@@ -2067,15 +2092,13 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="7" t="n">
-        <v>43918</v>
-      </c>
-      <c r="D58" s="8" t="s">
-        <v>6</v>
-      </c>
+        <v>43919</v>
+      </c>
+      <c r="D58" s="0"/>
       <c r="E58" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F58" s="8"/>
+      <c r="F58" s="0"/>
       <c r="G58" s="8" t="s">
         <v>29</v>
       </c>
@@ -2103,8 +2126,8 @@
       <c r="C59" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D59" s="10" t="s">
-        <v>2</v>
+      <c r="D59" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="E59" s="10" t="s">
         <v>35</v>
@@ -2142,32 +2165,32 @@
         <v>300</v>
       </c>
       <c r="D60" s="1" t="n">
-        <v>10023</v>
+        <v>10779</v>
       </c>
       <c r="E60" s="12" t="n">
         <f aca="false">D60/60.48</f>
-        <v>165.724206349206</v>
+        <v>178.224206349206</v>
       </c>
       <c r="F60" s="12" t="n">
-        <v>889</v>
+        <v>756</v>
       </c>
       <c r="G60" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H60" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,G60)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I60" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J60" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$70,I60)</f>
-        <v>15</v>
+        <f aca="false">_xlfn.DAYS($B$58,I60)</f>
+        <v>17</v>
       </c>
       <c r="K60" s="13" t="n">
         <f aca="false">$B$58+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="L60" s="0"/>
       <c r="M60" s="0"/>
@@ -2184,32 +2207,32 @@
         <v>230</v>
       </c>
       <c r="D61" s="1" t="n">
-        <v>5982</v>
+        <v>6803</v>
       </c>
       <c r="E61" s="12" t="n">
         <f aca="false">D61/46.75</f>
-        <v>127.957219251337</v>
+        <v>145.51871657754</v>
       </c>
       <c r="F61" s="12" t="n">
-        <v>844</v>
+        <v>821</v>
       </c>
       <c r="G61" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H61" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,G61)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I61" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J61" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$70,I61)</f>
-        <v>4</v>
+        <f aca="false">_xlfn.DAYS($B$58,I61)</f>
+        <v>6</v>
       </c>
       <c r="K61" s="13" t="n">
         <f aca="false">$B$58+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="L61" s="0"/>
       <c r="M61" s="0"/>
@@ -2226,32 +2249,32 @@
         <v>330</v>
       </c>
       <c r="D62" s="1" t="n">
-        <v>2314</v>
+        <v>2606</v>
       </c>
       <c r="E62" s="12" t="n">
         <f aca="false">D62/65.27</f>
-        <v>35.4527347939329</v>
+        <v>39.9264593228129</v>
       </c>
       <c r="F62" s="12" t="n">
-        <v>319</v>
+        <v>292</v>
       </c>
       <c r="G62" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H62" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,G62)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I62" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J62" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$70,I62)</f>
-        <v>3</v>
+        <f aca="false">_xlfn.DAYS($B$58,I62)</f>
+        <v>5</v>
       </c>
       <c r="K62" s="13" t="n">
         <f aca="false">$B$58+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="L62" s="0"/>
       <c r="M62" s="0"/>
@@ -2268,25 +2291,25 @@
         <v>1660</v>
       </c>
       <c r="D63" s="1" t="n">
-        <v>2221</v>
+        <v>2583</v>
       </c>
       <c r="E63" s="12" t="n">
         <f aca="false">D63/331</f>
-        <v>6.70996978851964</v>
+        <v>7.8036253776435</v>
       </c>
       <c r="F63" s="12" t="n">
-        <v>525</v>
+        <v>363</v>
       </c>
       <c r="G63" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H63" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,G63)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I63" s="13" t="n">
         <f aca="false">$B$58+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="J63" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,I63)</f>
@@ -2294,7 +2317,7 @@
       </c>
       <c r="K63" s="13" t="n">
         <f aca="false">$B$58+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="L63" s="0"/>
       <c r="M63" s="0"/>
@@ -2311,25 +2334,25 @@
         <v>330</v>
       </c>
       <c r="D64" s="1" t="n">
-        <v>1019</v>
+        <v>1228</v>
       </c>
       <c r="E64" s="12" t="n">
         <f aca="false">D64/67.79</f>
-        <v>15.0317155922702</v>
+        <v>18.1147661897035</v>
       </c>
       <c r="F64" s="12" t="n">
-        <v>260</v>
+        <v>209</v>
       </c>
       <c r="G64" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H64" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,G64)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I64" s="13" t="n">
         <f aca="false">$B$58+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="J64" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,I64)</f>
@@ -2337,7 +2360,7 @@
       </c>
       <c r="K64" s="13" t="n">
         <f aca="false">$B$58+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="L64" s="0"/>
       <c r="M64" s="0"/>
@@ -2354,25 +2377,25 @@
         <v>414</v>
       </c>
       <c r="D65" s="1" t="n">
-        <v>433</v>
+        <v>541</v>
       </c>
       <c r="E65" s="12" t="n">
         <f aca="false">D65/83.784</f>
-        <v>5.16805117922276</v>
+        <v>6.457080110761</v>
       </c>
       <c r="F65" s="12" t="n">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="G65" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H65" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,G65)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" s="13" t="n">
         <f aca="false">$B$58+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="J65" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,I65)</f>
@@ -2380,7 +2403,7 @@
       </c>
       <c r="K65" s="13" t="n">
         <f aca="false">$B$58+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="L65" s="0"/>
       <c r="M65" s="0"/>
@@ -2397,25 +2420,25 @@
         <v>50</v>
       </c>
       <c r="D66" s="12" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E66" s="12" t="n">
         <f aca="false">D66/10.36</f>
-        <v>10.1351351351351</v>
+        <v>10.6177606177606</v>
       </c>
       <c r="F66" s="12" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G66" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H66" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,G66)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I66" s="13" t="n">
         <f aca="false">$B$58+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="J66" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,I66)</f>
@@ -2423,7 +2446,7 @@
       </c>
       <c r="K66" s="13" t="n">
         <f aca="false">$B$58+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="L66" s="0"/>
       <c r="M66" s="0"/>
@@ -2433,15 +2456,16 @@
       <c r="Q66" s="0"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C67" s="12"/>
-      <c r="D67" s="12"/>
-      <c r="E67" s="12"/>
-      <c r="F67" s="12"/>
-      <c r="G67" s="13"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="0"/>
+      <c r="E67" s="0"/>
+      <c r="F67" s="0"/>
+      <c r="G67" s="0"/>
       <c r="H67" s="0"/>
-      <c r="I67" s="13"/>
+      <c r="I67" s="0"/>
       <c r="J67" s="0"/>
-      <c r="K67" s="13"/>
+      <c r="K67" s="0"/>
       <c r="L67" s="0"/>
       <c r="M67" s="0"/>
       <c r="N67" s="0"/>
@@ -2486,11 +2510,10 @@
       <c r="P69" s="0"/>
       <c r="Q69" s="0"/>
     </row>
-    <row r="70" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="7" t="n">
-        <v>43917</v>
-      </c>
-      <c r="C70" s="0"/>
+        <v>43918</v>
+      </c>
       <c r="D70" s="8" t="s">
         <v>6</v>
       </c>
@@ -2513,10 +2536,14 @@
       <c r="K70" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="L70" s="8"/>
+      <c r="L70" s="0"/>
+      <c r="M70" s="0"/>
+      <c r="N70" s="0"/>
+      <c r="O70" s="0"/>
+      <c r="P70" s="0"/>
+      <c r="Q70" s="0"/>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="3"/>
       <c r="B71" s="9"/>
       <c r="C71" s="10" t="s">
         <v>34</v>
@@ -2545,7 +2572,7 @@
       <c r="K71" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="L71" s="8"/>
+      <c r="L71" s="0"/>
       <c r="M71" s="0"/>
       <c r="N71" s="0"/>
       <c r="O71" s="0"/>
@@ -2560,32 +2587,32 @@
         <v>300</v>
       </c>
       <c r="D72" s="1" t="n">
-        <v>9134</v>
+        <v>10023</v>
       </c>
       <c r="E72" s="12" t="n">
         <f aca="false">D72/60.48</f>
-        <v>151.025132275132</v>
+        <v>165.724206349206</v>
       </c>
       <c r="F72" s="12" t="n">
-        <v>919</v>
+        <v>889</v>
       </c>
       <c r="G72" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H72" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,G72)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I72" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J72" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$70,I72)</f>
+        <f aca="false">_xlfn.DAYS(B$82,I72)</f>
         <v>15</v>
       </c>
       <c r="K72" s="13" t="n">
         <f aca="false">$B$70+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="L72" s="0"/>
       <c r="M72" s="0"/>
@@ -2602,32 +2629,32 @@
         <v>230</v>
       </c>
       <c r="D73" s="1" t="n">
-        <v>5138</v>
+        <v>5982</v>
       </c>
       <c r="E73" s="12" t="n">
         <f aca="false">D73/46.75</f>
-        <v>109.903743315508</v>
+        <v>127.957219251337</v>
       </c>
       <c r="F73" s="12" t="n">
-        <v>773</v>
+        <v>844</v>
       </c>
       <c r="G73" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H73" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,G73)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I73" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J73" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$70,I73)</f>
+        <f aca="false">_xlfn.DAYS(B$82,I73)</f>
         <v>4</v>
       </c>
       <c r="K73" s="13" t="n">
         <f aca="false">$B$70+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="L73" s="0"/>
       <c r="M73" s="0"/>
@@ -2644,32 +2671,32 @@
         <v>330</v>
       </c>
       <c r="D74" s="1" t="n">
-        <v>1995</v>
+        <v>2314</v>
       </c>
       <c r="E74" s="12" t="n">
         <f aca="false">D74/65.27</f>
-        <v>30.5653439558756</v>
+        <v>35.4527347939329</v>
       </c>
       <c r="F74" s="12" t="n">
-        <v>299</v>
+        <v>319</v>
       </c>
       <c r="G74" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H74" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,G74)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I74" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J74" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$70,I74)</f>
+        <f aca="false">_xlfn.DAYS(B$82,I74)</f>
         <v>3</v>
       </c>
       <c r="K74" s="13" t="n">
         <f aca="false">$B$70+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="L74" s="0"/>
       <c r="M74" s="0"/>
@@ -2686,34 +2713,33 @@
         <v>1660</v>
       </c>
       <c r="D75" s="1" t="n">
-        <v>1696</v>
+        <v>2221</v>
       </c>
       <c r="E75" s="12" t="n">
         <f aca="false">D75/331</f>
-        <v>5.12386706948641</v>
+        <v>6.70996978851964</v>
       </c>
       <c r="F75" s="12" t="n">
-        <v>400</v>
+        <v>525</v>
       </c>
       <c r="G75" s="13" t="n">
-        <f aca="false">$B$70</f>
         <v>43917</v>
       </c>
       <c r="H75" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,G75)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" s="13" t="n">
         <f aca="false">$B$70+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="J75" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$70,I75)</f>
+        <f aca="false">_xlfn.DAYS($B$70,I75)</f>
         <v>-1</v>
       </c>
       <c r="K75" s="13" t="n">
         <f aca="false">$B$70+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="L75" s="0"/>
       <c r="M75" s="0"/>
@@ -2730,33 +2756,33 @@
         <v>330</v>
       </c>
       <c r="D76" s="1" t="n">
-        <v>759</v>
+        <v>1019</v>
       </c>
       <c r="E76" s="12" t="n">
         <f aca="false">D76/67.79</f>
-        <v>11.1963416433102</v>
+        <v>15.0317155922702</v>
       </c>
       <c r="F76" s="12" t="n">
-        <v>181</v>
+        <v>260</v>
       </c>
       <c r="G76" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H76" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,G76)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I76" s="13" t="n">
         <f aca="false">$B$70+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="J76" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$70,I76)</f>
+        <f aca="false">_xlfn.DAYS($B$70,I76)</f>
         <v>-1</v>
       </c>
       <c r="K76" s="13" t="n">
         <f aca="false">$B$70+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="L76" s="0"/>
       <c r="M76" s="0"/>
@@ -2773,34 +2799,33 @@
         <v>414</v>
       </c>
       <c r="D77" s="1" t="n">
-        <v>351</v>
+        <v>433</v>
       </c>
       <c r="E77" s="12" t="n">
         <f aca="false">D77/83.784</f>
-        <v>4.18934402749928</v>
+        <v>5.16805117922276</v>
       </c>
       <c r="F77" s="12" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G77" s="13" t="n">
-        <f aca="false">$B$70+1</f>
         <v>43918</v>
       </c>
       <c r="H77" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,G77)</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I77" s="13" t="n">
         <f aca="false">$B$70+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="J77" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$70,I77)</f>
+        <f aca="false">_xlfn.DAYS($B$70,I77)</f>
         <v>-1</v>
       </c>
       <c r="K77" s="13" t="n">
         <f aca="false">$B$70+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="L77" s="0"/>
       <c r="M77" s="0"/>
@@ -2824,26 +2849,26 @@
         <v>10.1351351351351</v>
       </c>
       <c r="F78" s="12" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="G78" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H78" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,G78)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I78" s="13" t="n">
         <f aca="false">$B$70+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="J78" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$70,I78)</f>
+        <f aca="false">_xlfn.DAYS($B$70,I78)</f>
         <v>-1</v>
       </c>
       <c r="K78" s="13" t="n">
         <f aca="false">$B$70+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="L78" s="0"/>
       <c r="M78" s="0"/>
@@ -2853,14 +2878,15 @@
       <c r="Q78" s="0"/>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D79" s="0"/>
-      <c r="E79" s="0"/>
-      <c r="F79" s="0"/>
-      <c r="G79" s="0"/>
+      <c r="C79" s="12"/>
+      <c r="D79" s="12"/>
+      <c r="E79" s="12"/>
+      <c r="F79" s="12"/>
+      <c r="G79" s="13"/>
       <c r="H79" s="0"/>
-      <c r="I79" s="0"/>
+      <c r="I79" s="13"/>
       <c r="J79" s="0"/>
-      <c r="K79" s="0"/>
+      <c r="K79" s="13"/>
       <c r="L79" s="0"/>
       <c r="M79" s="0"/>
       <c r="N79" s="0"/>
@@ -2869,6 +2895,8 @@
       <c r="Q79" s="0"/>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B80" s="4"/>
+      <c r="C80" s="5"/>
       <c r="D80" s="0"/>
       <c r="E80" s="0"/>
       <c r="F80" s="0"/>
@@ -2903,10 +2931,11 @@
       <c r="P81" s="0"/>
       <c r="Q81" s="0"/>
     </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="7" t="n">
-        <v>43916</v>
-      </c>
+        <v>43917</v>
+      </c>
+      <c r="C82" s="0"/>
       <c r="D82" s="8" t="s">
         <v>6</v>
       </c>
@@ -2929,17 +2958,13 @@
       <c r="K82" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="L82" s="0"/>
-      <c r="M82" s="0"/>
-      <c r="N82" s="0"/>
-      <c r="O82" s="0"/>
-      <c r="P82" s="0"/>
-      <c r="Q82" s="0"/>
+      <c r="L82" s="8"/>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="3"/>
       <c r="B83" s="9"/>
       <c r="C83" s="10" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="D83" s="10" t="s">
         <v>2</v>
@@ -2965,7 +2990,7 @@
       <c r="K83" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="L83" s="0"/>
+      <c r="L83" s="8"/>
       <c r="M83" s="0"/>
       <c r="N83" s="0"/>
       <c r="O83" s="0"/>
@@ -2980,32 +3005,32 @@
         <v>300</v>
       </c>
       <c r="D84" s="1" t="n">
-        <v>8215</v>
+        <v>9134</v>
       </c>
       <c r="E84" s="12" t="n">
         <f aca="false">D84/60.48</f>
-        <v>135.830026455026</v>
+        <v>151.025132275132</v>
       </c>
       <c r="F84" s="12" t="n">
-        <v>712</v>
+        <v>919</v>
       </c>
       <c r="G84" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H84" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$82,G84)</f>
-        <v>16</v>
+        <f aca="false">_xlfn.DAYS($B$82,G84)</f>
+        <v>17</v>
       </c>
       <c r="I84" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J84" s="1" t="n">
         <f aca="false">_xlfn.DAYS(B$82,I84)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K84" s="13" t="n">
-        <f aca="false">B$82+1</f>
-        <v>43917</v>
+        <f aca="false">$B$82+1</f>
+        <v>43918</v>
       </c>
       <c r="L84" s="0"/>
       <c r="M84" s="0"/>
@@ -3022,32 +3047,32 @@
         <v>230</v>
       </c>
       <c r="D85" s="1" t="n">
-        <v>4365</v>
+        <v>5138</v>
       </c>
       <c r="E85" s="12" t="n">
         <f aca="false">D85/46.75</f>
-        <v>93.3689839572193</v>
+        <v>109.903743315508</v>
       </c>
       <c r="F85" s="12" t="n">
-        <v>718</v>
+        <v>773</v>
       </c>
       <c r="G85" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H85" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$82,G85)</f>
-        <v>9</v>
+        <f aca="false">_xlfn.DAYS($B$82,G85)</f>
+        <v>10</v>
       </c>
       <c r="I85" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J85" s="1" t="n">
         <f aca="false">_xlfn.DAYS(B$82,I85)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K85" s="13" t="n">
-        <f aca="false">B$82+1</f>
-        <v>43917</v>
+        <f aca="false">$B$82+1</f>
+        <v>43918</v>
       </c>
       <c r="L85" s="0"/>
       <c r="M85" s="0"/>
@@ -3064,32 +3089,32 @@
         <v>330</v>
       </c>
       <c r="D86" s="1" t="n">
-        <v>1696</v>
+        <v>1995</v>
       </c>
       <c r="E86" s="12" t="n">
         <f aca="false">D86/65.27</f>
-        <v>25.9843726060978</v>
+        <v>30.5653439558756</v>
       </c>
       <c r="F86" s="12" t="n">
-        <v>365</v>
+        <v>299</v>
       </c>
       <c r="G86" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H86" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$82,G86)</f>
-        <v>4</v>
+        <f aca="false">_xlfn.DAYS($B$82,G86)</f>
+        <v>5</v>
       </c>
       <c r="I86" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J86" s="1" t="n">
         <f aca="false">_xlfn.DAYS(B$82,I86)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K86" s="13" t="n">
-        <f aca="false">B$82+1</f>
-        <v>43917</v>
+        <f aca="false">$B$82+1</f>
+        <v>43918</v>
       </c>
       <c r="L86" s="0"/>
       <c r="M86" s="0"/>
@@ -3106,33 +3131,34 @@
         <v>1660</v>
       </c>
       <c r="D87" s="1" t="n">
-        <v>1295</v>
+        <v>1696</v>
       </c>
       <c r="E87" s="12" t="n">
         <f aca="false">D87/331</f>
-        <v>3.91238670694864</v>
+        <v>5.12386706948641</v>
       </c>
       <c r="F87" s="12" t="n">
-        <v>268</v>
+        <v>400</v>
       </c>
       <c r="G87" s="13" t="n">
+        <f aca="false">$B$82</f>
         <v>43917</v>
       </c>
       <c r="H87" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$82,G87)</f>
+        <f aca="false">_xlfn.DAYS($B$82,G87)</f>
+        <v>0</v>
+      </c>
+      <c r="I87" s="13" t="n">
+        <f aca="false">$B$82+1</f>
+        <v>43918</v>
+      </c>
+      <c r="J87" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$82,I87)</f>
         <v>-1</v>
       </c>
-      <c r="I87" s="13" t="n">
-        <f aca="false">B$82+1</f>
-        <v>43917</v>
-      </c>
-      <c r="J87" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$82,I87)</f>
-        <v>-1</v>
-      </c>
       <c r="K87" s="13" t="n">
-        <f aca="false">B$82+1</f>
-        <v>43917</v>
+        <f aca="false">$B$82+1</f>
+        <v>43918</v>
       </c>
       <c r="L87" s="0"/>
       <c r="M87" s="0"/>
@@ -3149,33 +3175,33 @@
         <v>330</v>
       </c>
       <c r="D88" s="1" t="n">
-        <v>578</v>
+        <v>759</v>
       </c>
       <c r="E88" s="12" t="n">
         <f aca="false">D88/67.79</f>
-        <v>8.52633131730344</v>
+        <v>11.1963416433102</v>
       </c>
       <c r="F88" s="12" t="n">
-        <v>115</v>
+        <v>181</v>
       </c>
       <c r="G88" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H88" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$82,G88)</f>
-        <v>0</v>
+        <f aca="false">_xlfn.DAYS($B$82,G88)</f>
+        <v>1</v>
       </c>
       <c r="I88" s="13" t="n">
-        <f aca="false">B$82+1</f>
-        <v>43917</v>
+        <f aca="false">$B$82+1</f>
+        <v>43918</v>
       </c>
       <c r="J88" s="1" t="n">
         <f aca="false">_xlfn.DAYS(B$82,I88)</f>
         <v>-1</v>
       </c>
       <c r="K88" s="13" t="n">
-        <f aca="false">B$82+1</f>
-        <v>43917</v>
+        <f aca="false">$B$82+1</f>
+        <v>43918</v>
       </c>
       <c r="L88" s="0"/>
       <c r="M88" s="0"/>
@@ -3192,33 +3218,34 @@
         <v>414</v>
       </c>
       <c r="D89" s="1" t="n">
-        <v>267</v>
+        <v>351</v>
       </c>
       <c r="E89" s="12" t="n">
         <f aca="false">D89/83.784</f>
-        <v>3.18676596963621</v>
+        <v>4.18934402749928</v>
       </c>
       <c r="F89" s="12" t="n">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="G89" s="13" t="n">
-        <v>43917</v>
+        <f aca="false">$B$82+1</f>
+        <v>43918</v>
       </c>
       <c r="H89" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$82,G89)</f>
+        <f aca="false">_xlfn.DAYS($B$82,G89)</f>
         <v>-1</v>
       </c>
       <c r="I89" s="13" t="n">
-        <f aca="false">B$82+1</f>
-        <v>43917</v>
+        <f aca="false">$B$82+1</f>
+        <v>43918</v>
       </c>
       <c r="J89" s="1" t="n">
         <f aca="false">_xlfn.DAYS(B$82,I89)</f>
         <v>-1</v>
       </c>
       <c r="K89" s="13" t="n">
-        <f aca="false">B$82+1</f>
-        <v>43917</v>
+        <f aca="false">$B$82+1</f>
+        <v>43918</v>
       </c>
       <c r="L89" s="0"/>
       <c r="M89" s="0"/>
@@ -3235,33 +3262,33 @@
         <v>50</v>
       </c>
       <c r="D90" s="12" t="n">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="E90" s="12" t="n">
         <f aca="false">D90/10.36</f>
-        <v>7.43243243243243</v>
+        <v>10.1351351351351</v>
       </c>
       <c r="F90" s="12" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="G90" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H90" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$82,G90)</f>
-        <v>1</v>
+        <f aca="false">_xlfn.DAYS($B$82,G90)</f>
+        <v>2</v>
       </c>
       <c r="I90" s="13" t="n">
-        <f aca="false">B$82+1</f>
-        <v>43917</v>
+        <f aca="false">$B$82+1</f>
+        <v>43918</v>
       </c>
       <c r="J90" s="1" t="n">
         <f aca="false">_xlfn.DAYS(B$82,I90)</f>
         <v>-1</v>
       </c>
       <c r="K90" s="13" t="n">
-        <f aca="false">B$82+1</f>
-        <v>43917</v>
+        <f aca="false">$B$82+1</f>
+        <v>43918</v>
       </c>
       <c r="L90" s="0"/>
       <c r="M90" s="0"/>
@@ -3269,6 +3296,424 @@
       <c r="O90" s="0"/>
       <c r="P90" s="0"/>
       <c r="Q90" s="0"/>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D91" s="0"/>
+      <c r="E91" s="0"/>
+      <c r="F91" s="0"/>
+      <c r="G91" s="0"/>
+      <c r="H91" s="0"/>
+      <c r="I91" s="0"/>
+      <c r="J91" s="0"/>
+      <c r="K91" s="0"/>
+      <c r="L91" s="0"/>
+      <c r="M91" s="0"/>
+      <c r="N91" s="0"/>
+      <c r="O91" s="0"/>
+      <c r="P91" s="0"/>
+      <c r="Q91" s="0"/>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D92" s="0"/>
+      <c r="E92" s="0"/>
+      <c r="F92" s="0"/>
+      <c r="G92" s="0"/>
+      <c r="H92" s="0"/>
+      <c r="I92" s="0"/>
+      <c r="J92" s="0"/>
+      <c r="K92" s="0"/>
+      <c r="L92" s="0"/>
+      <c r="M92" s="0"/>
+      <c r="N92" s="0"/>
+      <c r="O92" s="0"/>
+      <c r="P92" s="0"/>
+      <c r="Q92" s="0"/>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B93" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D93" s="0"/>
+      <c r="E93" s="0"/>
+      <c r="F93" s="0"/>
+      <c r="G93" s="0"/>
+      <c r="H93" s="0"/>
+      <c r="I93" s="0"/>
+      <c r="J93" s="0"/>
+      <c r="K93" s="0"/>
+      <c r="L93" s="0"/>
+      <c r="M93" s="0"/>
+      <c r="N93" s="0"/>
+      <c r="O93" s="0"/>
+      <c r="P93" s="0"/>
+      <c r="Q93" s="0"/>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B94" s="7" t="n">
+        <v>43916</v>
+      </c>
+      <c r="D94" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E94" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H94" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I94" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J94" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K94" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L94" s="0"/>
+      <c r="M94" s="0"/>
+      <c r="N94" s="0"/>
+      <c r="O94" s="0"/>
+      <c r="P94" s="0"/>
+      <c r="Q94" s="0"/>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B95" s="9"/>
+      <c r="C95" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D95" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E95" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F95" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G95" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H95" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I95" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="J95" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="K95" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L95" s="0"/>
+      <c r="M95" s="0"/>
+      <c r="N95" s="0"/>
+      <c r="O95" s="0"/>
+      <c r="P95" s="0"/>
+      <c r="Q95" s="0"/>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B96" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C96" s="12" t="n">
+        <v>300</v>
+      </c>
+      <c r="D96" s="1" t="n">
+        <v>8215</v>
+      </c>
+      <c r="E96" s="12" t="n">
+        <f aca="false">D96/60.48</f>
+        <v>135.830026455026</v>
+      </c>
+      <c r="F96" s="12" t="n">
+        <v>712</v>
+      </c>
+      <c r="G96" s="13" t="n">
+        <v>43900</v>
+      </c>
+      <c r="H96" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$94,G96)</f>
+        <v>16</v>
+      </c>
+      <c r="I96" s="13" t="n">
+        <v>43902</v>
+      </c>
+      <c r="J96" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$94,I96)</f>
+        <v>14</v>
+      </c>
+      <c r="K96" s="13" t="n">
+        <f aca="false">B$94+1</f>
+        <v>43917</v>
+      </c>
+      <c r="L96" s="0"/>
+      <c r="M96" s="0"/>
+      <c r="N96" s="0"/>
+      <c r="O96" s="0"/>
+      <c r="P96" s="0"/>
+      <c r="Q96" s="0"/>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B97" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C97" s="12" t="n">
+        <v>230</v>
+      </c>
+      <c r="D97" s="1" t="n">
+        <v>4365</v>
+      </c>
+      <c r="E97" s="12" t="n">
+        <f aca="false">D97/46.75</f>
+        <v>93.3689839572193</v>
+      </c>
+      <c r="F97" s="12" t="n">
+        <v>718</v>
+      </c>
+      <c r="G97" s="13" t="n">
+        <v>43907</v>
+      </c>
+      <c r="H97" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$94,G97)</f>
+        <v>9</v>
+      </c>
+      <c r="I97" s="13" t="n">
+        <v>43913</v>
+      </c>
+      <c r="J97" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$94,I97)</f>
+        <v>3</v>
+      </c>
+      <c r="K97" s="13" t="n">
+        <f aca="false">B$94+1</f>
+        <v>43917</v>
+      </c>
+      <c r="L97" s="0"/>
+      <c r="M97" s="0"/>
+      <c r="N97" s="0"/>
+      <c r="O97" s="0"/>
+      <c r="P97" s="0"/>
+      <c r="Q97" s="0"/>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B98" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C98" s="12" t="n">
+        <v>330</v>
+      </c>
+      <c r="D98" s="1" t="n">
+        <v>1696</v>
+      </c>
+      <c r="E98" s="12" t="n">
+        <f aca="false">D98/65.27</f>
+        <v>25.9843726060978</v>
+      </c>
+      <c r="F98" s="12" t="n">
+        <v>365</v>
+      </c>
+      <c r="G98" s="13" t="n">
+        <v>43912</v>
+      </c>
+      <c r="H98" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$94,G98)</f>
+        <v>4</v>
+      </c>
+      <c r="I98" s="13" t="n">
+        <v>43914</v>
+      </c>
+      <c r="J98" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$94,I98)</f>
+        <v>2</v>
+      </c>
+      <c r="K98" s="13" t="n">
+        <f aca="false">B$94+1</f>
+        <v>43917</v>
+      </c>
+      <c r="L98" s="0"/>
+      <c r="M98" s="0"/>
+      <c r="N98" s="0"/>
+      <c r="O98" s="0"/>
+      <c r="P98" s="0"/>
+      <c r="Q98" s="0"/>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B99" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C99" s="12" t="n">
+        <v>1660</v>
+      </c>
+      <c r="D99" s="1" t="n">
+        <v>1295</v>
+      </c>
+      <c r="E99" s="12" t="n">
+        <f aca="false">D99/331</f>
+        <v>3.91238670694864</v>
+      </c>
+      <c r="F99" s="12" t="n">
+        <v>268</v>
+      </c>
+      <c r="G99" s="13" t="n">
+        <v>43917</v>
+      </c>
+      <c r="H99" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$94,G99)</f>
+        <v>-1</v>
+      </c>
+      <c r="I99" s="13" t="n">
+        <f aca="false">B$94+1</f>
+        <v>43917</v>
+      </c>
+      <c r="J99" s="1" t="n">
+        <f aca="false">_xlfn.DAYS($B$94,I99)</f>
+        <v>-1</v>
+      </c>
+      <c r="K99" s="13" t="n">
+        <f aca="false">B$94+1</f>
+        <v>43917</v>
+      </c>
+      <c r="L99" s="0"/>
+      <c r="M99" s="0"/>
+      <c r="N99" s="0"/>
+      <c r="O99" s="0"/>
+      <c r="P99" s="0"/>
+      <c r="Q99" s="0"/>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B100" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C100" s="12" t="n">
+        <v>330</v>
+      </c>
+      <c r="D100" s="1" t="n">
+        <v>578</v>
+      </c>
+      <c r="E100" s="12" t="n">
+        <f aca="false">D100/67.79</f>
+        <v>8.52633131730344</v>
+      </c>
+      <c r="F100" s="12" t="n">
+        <v>115</v>
+      </c>
+      <c r="G100" s="13" t="n">
+        <v>43916</v>
+      </c>
+      <c r="H100" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$94,G100)</f>
+        <v>0</v>
+      </c>
+      <c r="I100" s="13" t="n">
+        <f aca="false">B$94+1</f>
+        <v>43917</v>
+      </c>
+      <c r="J100" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$94,I100)</f>
+        <v>-1</v>
+      </c>
+      <c r="K100" s="13" t="n">
+        <f aca="false">B$94+1</f>
+        <v>43917</v>
+      </c>
+      <c r="L100" s="0"/>
+      <c r="M100" s="0"/>
+      <c r="N100" s="0"/>
+      <c r="O100" s="0"/>
+      <c r="P100" s="0"/>
+      <c r="Q100" s="0"/>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B101" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C101" s="12" t="n">
+        <v>414</v>
+      </c>
+      <c r="D101" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="E101" s="12" t="n">
+        <f aca="false">D101/83.784</f>
+        <v>3.18676596963621</v>
+      </c>
+      <c r="F101" s="12" t="n">
+        <v>61</v>
+      </c>
+      <c r="G101" s="13" t="n">
+        <v>43917</v>
+      </c>
+      <c r="H101" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$94,G101)</f>
+        <v>-1</v>
+      </c>
+      <c r="I101" s="13" t="n">
+        <f aca="false">B$94+1</f>
+        <v>43917</v>
+      </c>
+      <c r="J101" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$94,I101)</f>
+        <v>-1</v>
+      </c>
+      <c r="K101" s="13" t="n">
+        <f aca="false">B$94+1</f>
+        <v>43917</v>
+      </c>
+      <c r="L101" s="0"/>
+      <c r="M101" s="0"/>
+      <c r="N101" s="0"/>
+      <c r="O101" s="0"/>
+      <c r="P101" s="0"/>
+      <c r="Q101" s="0"/>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B102" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C102" s="12" t="n">
+        <v>50</v>
+      </c>
+      <c r="D102" s="12" t="n">
+        <v>77</v>
+      </c>
+      <c r="E102" s="12" t="n">
+        <f aca="false">D102/10.36</f>
+        <v>7.43243243243243</v>
+      </c>
+      <c r="F102" s="12" t="n">
+        <v>15</v>
+      </c>
+      <c r="G102" s="13" t="n">
+        <v>43915</v>
+      </c>
+      <c r="H102" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$94,G102)</f>
+        <v>1</v>
+      </c>
+      <c r="I102" s="13" t="n">
+        <f aca="false">B$94+1</f>
+        <v>43917</v>
+      </c>
+      <c r="J102" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$94,I102)</f>
+        <v>-1</v>
+      </c>
+      <c r="K102" s="13" t="n">
+        <f aca="false">B$94+1</f>
+        <v>43917</v>
+      </c>
+      <c r="L102" s="0"/>
+      <c r="M102" s="0"/>
+      <c r="N102" s="0"/>
+      <c r="O102" s="0"/>
+      <c r="P102" s="0"/>
+      <c r="Q102" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/covid19 lockdown evaluation .xlsx
+++ b/covid19 lockdown evaluation .xlsx
@@ -344,7 +344,7 @@
   <dimension ref="A1:Q102"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N31" activeCellId="0" sqref="N31"/>
+      <selection pane="topLeft" activeCell="F31" activeCellId="0" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -862,14 +862,14 @@
         <v>300</v>
       </c>
       <c r="D24" s="1" t="n">
-        <v>12428</v>
+        <v>13155</v>
       </c>
       <c r="E24" s="12" t="n">
         <f aca="false">D24/60.48</f>
-        <v>205.489417989418</v>
+        <v>217.509920634921</v>
       </c>
       <c r="F24" s="12" t="n">
-        <v>837</v>
+        <v>727</v>
       </c>
       <c r="G24" s="13" t="n">
         <v>43900</v>
@@ -907,14 +907,14 @@
         <v>230</v>
       </c>
       <c r="D25" s="1" t="n">
-        <v>8464</v>
+        <v>9387</v>
       </c>
       <c r="E25" s="12" t="n">
         <f aca="false">D25/46.75</f>
-        <v>181.048128342246</v>
+        <v>200.791443850267</v>
       </c>
       <c r="F25" s="12" t="n">
-        <v>748</v>
+        <v>923</v>
       </c>
       <c r="G25" s="13" t="n">
         <v>43907</v>
@@ -952,14 +952,14 @@
         <v>330</v>
       </c>
       <c r="D26" s="1" t="n">
-        <v>3523</v>
+        <v>4032</v>
       </c>
       <c r="E26" s="12" t="n">
         <f aca="false">D26/65.27</f>
-        <v>53.9757928604259</v>
+        <v>61.7741688371381</v>
       </c>
       <c r="F26" s="12" t="n">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="G26" s="13" t="n">
         <v>43912</v>
@@ -997,14 +997,14 @@
         <v>50</v>
       </c>
       <c r="D27" s="12" t="n">
-        <v>180</v>
+        <v>239</v>
       </c>
       <c r="E27" s="12" t="n">
         <f aca="false">D27/10.36</f>
-        <v>17.3745173745174</v>
+        <v>23.0694980694981</v>
       </c>
       <c r="F27" s="12" t="n">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="G27" s="13" t="n">
         <v>43915</v>
@@ -1043,14 +1043,14 @@
         <v>330</v>
       </c>
       <c r="D28" s="1" t="n">
-        <v>1789</v>
+        <v>2352</v>
       </c>
       <c r="E28" s="12" t="n">
         <f aca="false">D28/67.79</f>
-        <v>26.390323056498</v>
+        <v>34.695382799823</v>
       </c>
       <c r="F28" s="12" t="n">
-        <v>381</v>
+        <v>563</v>
       </c>
       <c r="G28" s="13" t="n">
         <v>43916</v>
@@ -1089,14 +1089,14 @@
         <v>1660</v>
       </c>
       <c r="D29" s="1" t="n">
-        <v>4053</v>
+        <v>5102</v>
       </c>
       <c r="E29" s="12" t="n">
         <f aca="false">D29/331</f>
-        <v>12.2447129909366</v>
+        <v>15.4138972809668</v>
       </c>
       <c r="F29" s="12" t="n">
-        <v>912</v>
+        <v>1049</v>
       </c>
       <c r="G29" s="13" t="n">
         <v>43917</v>
@@ -1135,14 +1135,14 @@
         <v>414</v>
       </c>
       <c r="D30" s="1" t="n">
-        <v>775</v>
+        <v>931</v>
       </c>
       <c r="E30" s="12" t="n">
         <f aca="false">D30/83.784</f>
-        <v>9.24997612909386</v>
+        <v>11.1119068079824</v>
       </c>
       <c r="F30" s="12" t="n">
-        <v>130</v>
+        <v>156</v>
       </c>
       <c r="G30" s="13" t="n">
         <v>43918</v>

--- a/covid19 lockdown evaluation .xlsx
+++ b/covid19 lockdown evaluation .xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="49">
   <si>
     <t>Effects of the lockdown issued by governments</t>
   </si>
@@ -341,9 +341,9 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q102"/>
+  <dimension ref="A1:Q114"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F31" activeCellId="0" sqref="F31"/>
     </sheetView>
   </sheetViews>
@@ -785,7 +785,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="7" t="n">
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="D22" s="0"/>
       <c r="E22" s="8" t="s">
@@ -862,36 +862,36 @@
         <v>300</v>
       </c>
       <c r="D24" s="1" t="n">
-        <v>13155</v>
+        <v>13915</v>
       </c>
       <c r="E24" s="12" t="n">
         <f aca="false">D24/60.48</f>
-        <v>217.509920634921</v>
+        <v>230.076058201058</v>
       </c>
       <c r="F24" s="12" t="n">
-        <v>727</v>
+        <v>760</v>
       </c>
       <c r="G24" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H24" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,G24)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I24" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J24" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,I24)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K24" s="13" t="n">
         <f aca="false">$B$22+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="L24" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K24,G24)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M24" s="0"/>
       <c r="N24" s="0"/>
@@ -907,36 +907,36 @@
         <v>230</v>
       </c>
       <c r="D25" s="1" t="n">
-        <v>9387</v>
+        <v>10348</v>
       </c>
       <c r="E25" s="12" t="n">
         <f aca="false">D25/46.75</f>
-        <v>200.791443850267</v>
+        <v>221.347593582888</v>
       </c>
       <c r="F25" s="12" t="n">
-        <v>923</v>
+        <v>961</v>
       </c>
       <c r="G25" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H25" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,G25)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I25" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J25" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,I25)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K25" s="13" t="n">
         <f aca="false">$B$22+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="L25" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K25,G25)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M25" s="0"/>
       <c r="N25" s="0"/>
@@ -952,36 +952,36 @@
         <v>330</v>
       </c>
       <c r="D26" s="1" t="n">
-        <v>4032</v>
+        <v>5387</v>
       </c>
       <c r="E26" s="12" t="n">
         <f aca="false">D26/65.27</f>
-        <v>61.7741688371381</v>
+        <v>82.5340891680711</v>
       </c>
       <c r="F26" s="12" t="n">
-        <v>509</v>
+        <v>1355</v>
       </c>
       <c r="G26" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H26" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,G26)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I26" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J26" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,I26)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K26" s="13" t="n">
         <f aca="false">$B$22+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="L26" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K26,G26)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M26" s="0"/>
       <c r="N26" s="0"/>
@@ -997,25 +997,25 @@
         <v>50</v>
       </c>
       <c r="D27" s="12" t="n">
-        <v>239</v>
+        <v>308</v>
       </c>
       <c r="E27" s="12" t="n">
         <f aca="false">D27/10.36</f>
-        <v>23.0694980694981</v>
+        <v>29.7297297297297</v>
       </c>
       <c r="F27" s="12" t="n">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="G27" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H27" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,G27)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I27" s="13" t="n">
         <f aca="false">$B$22+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="J27" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,I27)</f>
@@ -1023,11 +1023,11 @@
       </c>
       <c r="K27" s="13" t="n">
         <f aca="false">$B$22+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="L27" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K27,G27)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M27" s="0"/>
       <c r="N27" s="0"/>
@@ -1043,25 +1043,25 @@
         <v>330</v>
       </c>
       <c r="D28" s="1" t="n">
-        <v>2352</v>
+        <v>2921</v>
       </c>
       <c r="E28" s="12" t="n">
         <f aca="false">D28/67.79</f>
-        <v>34.695382799823</v>
+        <v>43.0889511727393</v>
       </c>
       <c r="F28" s="12" t="n">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="G28" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H28" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,G28)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I28" s="13" t="n">
         <f aca="false">$B$22+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="J28" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,I28)</f>
@@ -1069,11 +1069,11 @@
       </c>
       <c r="K28" s="13" t="n">
         <f aca="false">$B$22+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="L28" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K28,G28)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M28" s="0"/>
       <c r="N28" s="0"/>
@@ -1089,25 +1089,25 @@
         <v>1660</v>
       </c>
       <c r="D29" s="1" t="n">
-        <v>5102</v>
+        <v>6070</v>
       </c>
       <c r="E29" s="12" t="n">
         <f aca="false">D29/331</f>
-        <v>15.4138972809668</v>
+        <v>18.3383685800604</v>
       </c>
       <c r="F29" s="12" t="n">
-        <v>1049</v>
+        <v>968</v>
       </c>
       <c r="G29" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H29" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,G29)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I29" s="13" t="n">
         <f aca="false">$B$22+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="J29" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,I29)</f>
@@ -1115,11 +1115,11 @@
       </c>
       <c r="K29" s="13" t="n">
         <f aca="false">$B$22+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="L29" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K29,G29)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M29" s="0"/>
       <c r="N29" s="0"/>
@@ -1135,25 +1135,25 @@
         <v>414</v>
       </c>
       <c r="D30" s="1" t="n">
-        <v>931</v>
+        <v>1107</v>
       </c>
       <c r="E30" s="12" t="n">
         <f aca="false">D30/83.784</f>
-        <v>11.1119068079824</v>
+        <v>13.212546548267</v>
       </c>
       <c r="F30" s="12" t="n">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="G30" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H30" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,G30)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I30" s="13" t="n">
         <f aca="false">$B$22+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="J30" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,I30)</f>
@@ -1161,11 +1161,11 @@
       </c>
       <c r="K30" s="13" t="n">
         <f aca="false">$B$22+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="L30" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K30,G30)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M30" s="0"/>
       <c r="N30" s="0"/>
@@ -1230,7 +1230,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="7" t="n">
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="D34" s="0"/>
       <c r="E34" s="8" t="s">
@@ -1307,36 +1307,36 @@
         <v>300</v>
       </c>
       <c r="D36" s="1" t="n">
-        <v>12428</v>
+        <v>13155</v>
       </c>
       <c r="E36" s="12" t="n">
         <f aca="false">D36/60.48</f>
-        <v>205.489417989418</v>
+        <v>217.509920634921</v>
       </c>
       <c r="F36" s="12" t="n">
-        <v>837</v>
+        <v>727</v>
       </c>
       <c r="G36" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H36" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,G36)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I36" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J36" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,I36)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K36" s="13" t="n">
         <f aca="false">$B$34+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="L36" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K36,G36)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M36" s="0"/>
       <c r="N36" s="0"/>
@@ -1352,36 +1352,36 @@
         <v>230</v>
       </c>
       <c r="D37" s="1" t="n">
-        <v>8464</v>
+        <v>9387</v>
       </c>
       <c r="E37" s="12" t="n">
         <f aca="false">D37/46.75</f>
-        <v>181.048128342246</v>
+        <v>200.791443850267</v>
       </c>
       <c r="F37" s="12" t="n">
-        <v>748</v>
+        <v>923</v>
       </c>
       <c r="G37" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H37" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,G37)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I37" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J37" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,I37)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K37" s="13" t="n">
         <f aca="false">$B$34+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="L37" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K37,G37)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M37" s="0"/>
       <c r="N37" s="0"/>
@@ -1397,36 +1397,36 @@
         <v>330</v>
       </c>
       <c r="D38" s="1" t="n">
-        <v>3523</v>
+        <v>4032</v>
       </c>
       <c r="E38" s="12" t="n">
         <f aca="false">D38/65.27</f>
-        <v>53.9757928604259</v>
+        <v>61.7741688371381</v>
       </c>
       <c r="F38" s="12" t="n">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="G38" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H38" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,G38)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I38" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J38" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,I38)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K38" s="13" t="n">
         <f aca="false">$B$34+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="L38" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K38,G38)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M38" s="0"/>
       <c r="N38" s="0"/>
@@ -1442,25 +1442,25 @@
         <v>50</v>
       </c>
       <c r="D39" s="12" t="n">
-        <v>180</v>
+        <v>239</v>
       </c>
       <c r="E39" s="12" t="n">
         <f aca="false">D39/10.36</f>
-        <v>17.3745173745174</v>
+        <v>23.0694980694981</v>
       </c>
       <c r="F39" s="12" t="n">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="G39" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H39" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,G39)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I39" s="13" t="n">
         <f aca="false">$B$34+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="J39" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,I39)</f>
@@ -1468,11 +1468,11 @@
       </c>
       <c r="K39" s="13" t="n">
         <f aca="false">$B$34+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="L39" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K39,G39)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M39" s="0"/>
       <c r="N39" s="0"/>
@@ -1488,25 +1488,25 @@
         <v>330</v>
       </c>
       <c r="D40" s="1" t="n">
-        <v>1789</v>
+        <v>2352</v>
       </c>
       <c r="E40" s="12" t="n">
         <f aca="false">D40/67.79</f>
-        <v>26.390323056498</v>
+        <v>34.695382799823</v>
       </c>
       <c r="F40" s="12" t="n">
-        <v>381</v>
+        <v>563</v>
       </c>
       <c r="G40" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H40" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,G40)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I40" s="13" t="n">
         <f aca="false">$B$34+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="J40" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,I40)</f>
@@ -1514,11 +1514,11 @@
       </c>
       <c r="K40" s="13" t="n">
         <f aca="false">$B$34+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="L40" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K40,G40)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M40" s="0"/>
       <c r="N40" s="0"/>
@@ -1534,25 +1534,25 @@
         <v>1660</v>
       </c>
       <c r="D41" s="1" t="n">
-        <v>4053</v>
+        <v>5102</v>
       </c>
       <c r="E41" s="12" t="n">
         <f aca="false">D41/331</f>
-        <v>12.2447129909366</v>
+        <v>15.4138972809668</v>
       </c>
       <c r="F41" s="12" t="n">
-        <v>912</v>
+        <v>1049</v>
       </c>
       <c r="G41" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H41" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,G41)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I41" s="13" t="n">
         <f aca="false">$B$34+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="J41" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,I41)</f>
@@ -1560,11 +1560,11 @@
       </c>
       <c r="K41" s="13" t="n">
         <f aca="false">$B$34+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="L41" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K41,G41)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M41" s="0"/>
       <c r="N41" s="0"/>
@@ -1580,25 +1580,25 @@
         <v>414</v>
       </c>
       <c r="D42" s="1" t="n">
-        <v>775</v>
+        <v>931</v>
       </c>
       <c r="E42" s="12" t="n">
         <f aca="false">D42/83.784</f>
-        <v>9.24997612909386</v>
+        <v>11.1119068079824</v>
       </c>
       <c r="F42" s="12" t="n">
-        <v>130</v>
+        <v>156</v>
       </c>
       <c r="G42" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H42" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,G42)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I42" s="13" t="n">
         <f aca="false">$B$34+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="J42" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,I42)</f>
@@ -1606,11 +1606,11 @@
       </c>
       <c r="K42" s="13" t="n">
         <f aca="false">$B$34+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="L42" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K42,G42)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M42" s="0"/>
       <c r="N42" s="0"/>
@@ -1619,15 +1619,16 @@
       <c r="Q42" s="0"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C43" s="12"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="5"/>
       <c r="D43" s="0"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="13"/>
+      <c r="E43" s="0"/>
+      <c r="F43" s="0"/>
+      <c r="G43" s="0"/>
       <c r="H43" s="0"/>
-      <c r="I43" s="13"/>
+      <c r="I43" s="0"/>
       <c r="J43" s="0"/>
-      <c r="K43" s="13"/>
+      <c r="K43" s="0"/>
       <c r="L43" s="0"/>
       <c r="M43" s="0"/>
       <c r="N43" s="0"/>
@@ -1636,15 +1637,16 @@
       <c r="Q43" s="0"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C44" s="12"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="5"/>
       <c r="D44" s="0"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="13"/>
+      <c r="E44" s="0"/>
+      <c r="F44" s="0"/>
+      <c r="G44" s="0"/>
       <c r="H44" s="0"/>
-      <c r="I44" s="13"/>
+      <c r="I44" s="0"/>
       <c r="J44" s="0"/>
-      <c r="K44" s="13"/>
+      <c r="K44" s="0"/>
       <c r="L44" s="0"/>
       <c r="M44" s="0"/>
       <c r="N44" s="0"/>
@@ -1673,7 +1675,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="7" t="n">
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="D46" s="0"/>
       <c r="E46" s="8" t="s">
@@ -1695,7 +1697,9 @@
       <c r="K46" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="L46" s="0"/>
+      <c r="L46" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="M46" s="0"/>
       <c r="N46" s="0"/>
       <c r="O46" s="0"/>
@@ -1731,7 +1735,9 @@
       <c r="K47" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="L47" s="0"/>
+      <c r="L47" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="M47" s="0"/>
       <c r="N47" s="0"/>
       <c r="O47" s="0"/>
@@ -1746,34 +1752,37 @@
         <v>300</v>
       </c>
       <c r="D48" s="1" t="n">
-        <v>11591</v>
+        <v>12428</v>
       </c>
       <c r="E48" s="12" t="n">
         <f aca="false">D48/60.48</f>
-        <v>191.650132275132</v>
+        <v>205.489417989418</v>
       </c>
       <c r="F48" s="12" t="n">
-        <v>812</v>
+        <v>837</v>
       </c>
       <c r="G48" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H48" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,G48)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I48" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J48" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,I48)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K48" s="13" t="n">
-        <f aca="false">$B$58+1</f>
-        <v>43920</v>
-      </c>
-      <c r="L48" s="0"/>
+        <f aca="false">$B$46+1</f>
+        <v>43922</v>
+      </c>
+      <c r="L48" s="0" t="n">
+        <f aca="false">_xlfn.DAYS(K48,G48)</f>
+        <v>22</v>
+      </c>
       <c r="M48" s="0"/>
       <c r="N48" s="0"/>
       <c r="O48" s="0"/>
@@ -1788,34 +1797,37 @@
         <v>230</v>
       </c>
       <c r="D49" s="1" t="n">
-        <v>7716</v>
+        <v>8464</v>
       </c>
       <c r="E49" s="12" t="n">
         <f aca="false">D49/46.75</f>
-        <v>165.048128342246</v>
+        <v>181.048128342246</v>
       </c>
       <c r="F49" s="12" t="n">
-        <v>913</v>
+        <v>748</v>
       </c>
       <c r="G49" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H49" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,G49)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I49" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J49" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,I49)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K49" s="13" t="n">
-        <f aca="false">$B$58+1</f>
-        <v>43920</v>
-      </c>
-      <c r="L49" s="0"/>
+        <f aca="false">$B$46+1</f>
+        <v>43922</v>
+      </c>
+      <c r="L49" s="0" t="n">
+        <f aca="false">_xlfn.DAYS(K49,G49)</f>
+        <v>15</v>
+      </c>
       <c r="M49" s="0"/>
       <c r="N49" s="0"/>
       <c r="O49" s="0"/>
@@ -1830,34 +1842,37 @@
         <v>330</v>
       </c>
       <c r="D50" s="1" t="n">
-        <v>3024</v>
+        <v>3523</v>
       </c>
       <c r="E50" s="12" t="n">
         <f aca="false">D50/65.27</f>
-        <v>46.3306266278535</v>
+        <v>53.9757928604259</v>
       </c>
       <c r="F50" s="12" t="n">
-        <v>418</v>
+        <v>499</v>
       </c>
       <c r="G50" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H50" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,G50)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I50" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J50" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,I50)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K50" s="13" t="n">
-        <f aca="false">$B$58+1</f>
-        <v>43920</v>
-      </c>
-      <c r="L50" s="0"/>
+        <f aca="false">$B$46+1</f>
+        <v>43922</v>
+      </c>
+      <c r="L50" s="0" t="n">
+        <f aca="false">_xlfn.DAYS(K50,G50)</f>
+        <v>10</v>
+      </c>
       <c r="M50" s="0"/>
       <c r="N50" s="0"/>
       <c r="O50" s="0"/>
@@ -1872,35 +1887,38 @@
         <v>50</v>
       </c>
       <c r="D51" s="12" t="n">
-        <v>146</v>
+        <v>180</v>
       </c>
       <c r="E51" s="12" t="n">
         <f aca="false">D51/10.36</f>
-        <v>14.0926640926641</v>
+        <v>17.3745173745174</v>
       </c>
       <c r="F51" s="12" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G51" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H51" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,G51)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I51" s="13" t="n">
         <f aca="false">$B$46+1</f>
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="J51" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,I51)</f>
         <v>-1</v>
       </c>
       <c r="K51" s="13" t="n">
-        <f aca="false">$B$58+1</f>
-        <v>43920</v>
-      </c>
-      <c r="L51" s="0"/>
+        <f aca="false">$B$46+1</f>
+        <v>43922</v>
+      </c>
+      <c r="L51" s="0" t="n">
+        <f aca="false">_xlfn.DAYS(K51,G51)</f>
+        <v>7</v>
+      </c>
       <c r="M51" s="0"/>
       <c r="N51" s="0"/>
       <c r="O51" s="0"/>
@@ -1915,35 +1933,38 @@
         <v>330</v>
       </c>
       <c r="D52" s="1" t="n">
-        <v>1408</v>
+        <v>1789</v>
       </c>
       <c r="E52" s="12" t="n">
         <f aca="false">D52/67.79</f>
-        <v>20.770025077445</v>
+        <v>26.390323056498</v>
       </c>
       <c r="F52" s="12" t="n">
-        <v>180</v>
+        <v>381</v>
       </c>
       <c r="G52" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H52" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,G52)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I52" s="13" t="n">
         <f aca="false">$B$46+1</f>
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="J52" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,I52)</f>
         <v>-1</v>
       </c>
       <c r="K52" s="13" t="n">
-        <f aca="false">$B$58+1</f>
-        <v>43920</v>
-      </c>
-      <c r="L52" s="0"/>
+        <f aca="false">$B$46+1</f>
+        <v>43922</v>
+      </c>
+      <c r="L52" s="0" t="n">
+        <f aca="false">_xlfn.DAYS(K52,G52)</f>
+        <v>6</v>
+      </c>
       <c r="M52" s="0"/>
       <c r="N52" s="0"/>
       <c r="O52" s="0"/>
@@ -1958,34 +1979,38 @@
         <v>1660</v>
       </c>
       <c r="D53" s="1" t="n">
-        <v>3141</v>
+        <v>4053</v>
       </c>
       <c r="E53" s="12" t="n">
         <f aca="false">D53/331</f>
-        <v>9.48942598187311</v>
+        <v>12.2447129909366</v>
       </c>
       <c r="F53" s="12" t="n">
-        <v>573</v>
+        <v>912</v>
       </c>
       <c r="G53" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H53" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,G53)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I53" s="13" t="n">
-        <v>43920</v>
+        <f aca="false">$B$46+1</f>
+        <v>43922</v>
       </c>
       <c r="J53" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,I53)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K53" s="13" t="n">
-        <f aca="false">$B$58+1</f>
-        <v>43920</v>
-      </c>
-      <c r="L53" s="0"/>
+        <f aca="false">$B$46+1</f>
+        <v>43922</v>
+      </c>
+      <c r="L53" s="0" t="n">
+        <f aca="false">_xlfn.DAYS(K53,G53)</f>
+        <v>5</v>
+      </c>
       <c r="M53" s="0"/>
       <c r="N53" s="0"/>
       <c r="O53" s="0"/>
@@ -2000,35 +2025,38 @@
         <v>414</v>
       </c>
       <c r="D54" s="1" t="n">
-        <v>645</v>
+        <v>775</v>
       </c>
       <c r="E54" s="12" t="n">
         <f aca="false">D54/83.784</f>
-        <v>7.69836723002005</v>
+        <v>9.24997612909386</v>
       </c>
       <c r="F54" s="12" t="n">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="G54" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H54" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,G54)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I54" s="13" t="n">
         <f aca="false">$B$46+1</f>
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="J54" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,I54)</f>
         <v>-1</v>
       </c>
       <c r="K54" s="13" t="n">
-        <f aca="false">$B$58+1</f>
-        <v>43920</v>
-      </c>
-      <c r="L54" s="0"/>
+        <f aca="false">$B$46+1</f>
+        <v>43922</v>
+      </c>
+      <c r="L54" s="0" t="n">
+        <f aca="false">_xlfn.DAYS(K54,G54)</f>
+        <v>4</v>
+      </c>
       <c r="M54" s="0"/>
       <c r="N54" s="0"/>
       <c r="O54" s="0"/>
@@ -2036,16 +2064,15 @@
       <c r="Q54" s="0"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="4"/>
-      <c r="C55" s="5"/>
+      <c r="C55" s="12"/>
       <c r="D55" s="0"/>
-      <c r="E55" s="0"/>
-      <c r="F55" s="0"/>
-      <c r="G55" s="0"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="13"/>
       <c r="H55" s="0"/>
-      <c r="I55" s="0"/>
+      <c r="I55" s="13"/>
       <c r="J55" s="0"/>
-      <c r="K55" s="0"/>
+      <c r="K55" s="13"/>
       <c r="L55" s="0"/>
       <c r="M55" s="0"/>
       <c r="N55" s="0"/>
@@ -2054,16 +2081,15 @@
       <c r="Q55" s="0"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="4"/>
-      <c r="C56" s="5"/>
+      <c r="C56" s="12"/>
       <c r="D56" s="0"/>
-      <c r="E56" s="0"/>
-      <c r="F56" s="0"/>
-      <c r="G56" s="0"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="13"/>
       <c r="H56" s="0"/>
-      <c r="I56" s="0"/>
+      <c r="I56" s="13"/>
       <c r="J56" s="0"/>
-      <c r="K56" s="0"/>
+      <c r="K56" s="13"/>
       <c r="L56" s="0"/>
       <c r="M56" s="0"/>
       <c r="N56" s="0"/>
@@ -2092,7 +2118,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="7" t="n">
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="D58" s="0"/>
       <c r="E58" s="8" t="s">
@@ -2165,31 +2191,31 @@
         <v>300</v>
       </c>
       <c r="D60" s="1" t="n">
-        <v>10779</v>
+        <v>11591</v>
       </c>
       <c r="E60" s="12" t="n">
         <f aca="false">D60/60.48</f>
-        <v>178.224206349206</v>
+        <v>191.650132275132</v>
       </c>
       <c r="F60" s="12" t="n">
-        <v>756</v>
+        <v>812</v>
       </c>
       <c r="G60" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H60" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,G60)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I60" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J60" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,I60)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K60" s="13" t="n">
-        <f aca="false">$B$58+1</f>
+        <f aca="false">$B$70+1</f>
         <v>43920</v>
       </c>
       <c r="L60" s="0"/>
@@ -2207,31 +2233,31 @@
         <v>230</v>
       </c>
       <c r="D61" s="1" t="n">
-        <v>6803</v>
+        <v>7716</v>
       </c>
       <c r="E61" s="12" t="n">
         <f aca="false">D61/46.75</f>
-        <v>145.51871657754</v>
+        <v>165.048128342246</v>
       </c>
       <c r="F61" s="12" t="n">
-        <v>821</v>
+        <v>913</v>
       </c>
       <c r="G61" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H61" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,G61)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I61" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J61" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,I61)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K61" s="13" t="n">
-        <f aca="false">$B$58+1</f>
+        <f aca="false">$B$70+1</f>
         <v>43920</v>
       </c>
       <c r="L61" s="0"/>
@@ -2249,31 +2275,31 @@
         <v>330</v>
       </c>
       <c r="D62" s="1" t="n">
-        <v>2606</v>
+        <v>3024</v>
       </c>
       <c r="E62" s="12" t="n">
         <f aca="false">D62/65.27</f>
-        <v>39.9264593228129</v>
+        <v>46.3306266278535</v>
       </c>
       <c r="F62" s="12" t="n">
-        <v>292</v>
+        <v>418</v>
       </c>
       <c r="G62" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H62" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,G62)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I62" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J62" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,I62)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K62" s="13" t="n">
-        <f aca="false">$B$58+1</f>
+        <f aca="false">$B$70+1</f>
         <v>43920</v>
       </c>
       <c r="L62" s="0"/>
@@ -2285,38 +2311,38 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C63" s="12" t="n">
-        <v>1660</v>
-      </c>
-      <c r="D63" s="1" t="n">
-        <v>2583</v>
+        <v>50</v>
+      </c>
+      <c r="D63" s="12" t="n">
+        <v>146</v>
       </c>
       <c r="E63" s="12" t="n">
-        <f aca="false">D63/331</f>
-        <v>7.8036253776435</v>
+        <f aca="false">D63/10.36</f>
+        <v>14.0926640926641</v>
       </c>
       <c r="F63" s="12" t="n">
-        <v>363</v>
+        <v>36</v>
       </c>
       <c r="G63" s="13" t="n">
-        <v>43917</v>
+        <v>43915</v>
       </c>
       <c r="H63" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,G63)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I63" s="13" t="n">
         <f aca="false">$B$58+1</f>
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="J63" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,I63)</f>
         <v>-1</v>
       </c>
       <c r="K63" s="13" t="n">
-        <f aca="false">$B$58+1</f>
+        <f aca="false">$B$70+1</f>
         <v>43920</v>
       </c>
       <c r="L63" s="0"/>
@@ -2334,32 +2360,32 @@
         <v>330</v>
       </c>
       <c r="D64" s="1" t="n">
-        <v>1228</v>
+        <v>1408</v>
       </c>
       <c r="E64" s="12" t="n">
         <f aca="false">D64/67.79</f>
-        <v>18.1147661897035</v>
+        <v>20.770025077445</v>
       </c>
       <c r="F64" s="12" t="n">
-        <v>209</v>
+        <v>180</v>
       </c>
       <c r="G64" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H64" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,G64)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I64" s="13" t="n">
         <f aca="false">$B$58+1</f>
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="J64" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,I64)</f>
         <v>-1</v>
       </c>
       <c r="K64" s="13" t="n">
-        <f aca="false">$B$58+1</f>
+        <f aca="false">$B$70+1</f>
         <v>43920</v>
       </c>
       <c r="L64" s="0"/>
@@ -2371,38 +2397,37 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C65" s="12" t="n">
-        <v>414</v>
+        <v>1660</v>
       </c>
       <c r="D65" s="1" t="n">
-        <v>541</v>
+        <v>3141</v>
       </c>
       <c r="E65" s="12" t="n">
-        <f aca="false">D65/83.784</f>
-        <v>6.457080110761</v>
+        <f aca="false">D65/331</f>
+        <v>9.48942598187311</v>
       </c>
       <c r="F65" s="12" t="n">
-        <v>108</v>
+        <v>573</v>
       </c>
       <c r="G65" s="13" t="n">
-        <v>43918</v>
+        <v>43917</v>
       </c>
       <c r="H65" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,G65)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I65" s="13" t="n">
-        <f aca="false">$B$58+1</f>
         <v>43920</v>
       </c>
       <c r="J65" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,I65)</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K65" s="13" t="n">
-        <f aca="false">$B$58+1</f>
+        <f aca="false">$B$70+1</f>
         <v>43920</v>
       </c>
       <c r="L65" s="0"/>
@@ -2414,38 +2439,38 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C66" s="12" t="n">
-        <v>50</v>
-      </c>
-      <c r="D66" s="12" t="n">
-        <v>110</v>
+        <v>414</v>
+      </c>
+      <c r="D66" s="1" t="n">
+        <v>645</v>
       </c>
       <c r="E66" s="12" t="n">
-        <f aca="false">D66/10.36</f>
-        <v>10.6177606177606</v>
+        <f aca="false">D66/83.784</f>
+        <v>7.69836723002005</v>
       </c>
       <c r="F66" s="12" t="n">
-        <v>5</v>
+        <v>104</v>
       </c>
       <c r="G66" s="13" t="n">
-        <v>43915</v>
+        <v>43918</v>
       </c>
       <c r="H66" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,G66)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I66" s="13" t="n">
         <f aca="false">$B$58+1</f>
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="J66" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,I66)</f>
         <v>-1</v>
       </c>
       <c r="K66" s="13" t="n">
-        <f aca="false">$B$58+1</f>
+        <f aca="false">$B$70+1</f>
         <v>43920</v>
       </c>
       <c r="L66" s="0"/>
@@ -2512,15 +2537,13 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="7" t="n">
-        <v>43918</v>
-      </c>
-      <c r="D70" s="8" t="s">
-        <v>6</v>
-      </c>
+        <v>43919</v>
+      </c>
+      <c r="D70" s="0"/>
       <c r="E70" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F70" s="8"/>
+      <c r="F70" s="0"/>
       <c r="G70" s="8" t="s">
         <v>29</v>
       </c>
@@ -2548,8 +2571,8 @@
       <c r="C71" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D71" s="10" t="s">
-        <v>2</v>
+      <c r="D71" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="E71" s="10" t="s">
         <v>35</v>
@@ -2587,32 +2610,32 @@
         <v>300</v>
       </c>
       <c r="D72" s="1" t="n">
-        <v>10023</v>
+        <v>10779</v>
       </c>
       <c r="E72" s="12" t="n">
         <f aca="false">D72/60.48</f>
-        <v>165.724206349206</v>
+        <v>178.224206349206</v>
       </c>
       <c r="F72" s="12" t="n">
-        <v>889</v>
+        <v>756</v>
       </c>
       <c r="G72" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H72" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,G72)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I72" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J72" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$82,I72)</f>
-        <v>15</v>
+        <f aca="false">_xlfn.DAYS($B$70,I72)</f>
+        <v>17</v>
       </c>
       <c r="K72" s="13" t="n">
         <f aca="false">$B$70+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="L72" s="0"/>
       <c r="M72" s="0"/>
@@ -2629,32 +2652,32 @@
         <v>230</v>
       </c>
       <c r="D73" s="1" t="n">
-        <v>5982</v>
+        <v>6803</v>
       </c>
       <c r="E73" s="12" t="n">
         <f aca="false">D73/46.75</f>
-        <v>127.957219251337</v>
+        <v>145.51871657754</v>
       </c>
       <c r="F73" s="12" t="n">
-        <v>844</v>
+        <v>821</v>
       </c>
       <c r="G73" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H73" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,G73)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I73" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J73" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$82,I73)</f>
-        <v>4</v>
+        <f aca="false">_xlfn.DAYS($B$70,I73)</f>
+        <v>6</v>
       </c>
       <c r="K73" s="13" t="n">
         <f aca="false">$B$70+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="L73" s="0"/>
       <c r="M73" s="0"/>
@@ -2671,32 +2694,32 @@
         <v>330</v>
       </c>
       <c r="D74" s="1" t="n">
-        <v>2314</v>
+        <v>2606</v>
       </c>
       <c r="E74" s="12" t="n">
         <f aca="false">D74/65.27</f>
-        <v>35.4527347939329</v>
+        <v>39.9264593228129</v>
       </c>
       <c r="F74" s="12" t="n">
-        <v>319</v>
+        <v>292</v>
       </c>
       <c r="G74" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H74" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,G74)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I74" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J74" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$82,I74)</f>
-        <v>3</v>
+        <f aca="false">_xlfn.DAYS($B$70,I74)</f>
+        <v>5</v>
       </c>
       <c r="K74" s="13" t="n">
         <f aca="false">$B$70+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="L74" s="0"/>
       <c r="M74" s="0"/>
@@ -2713,25 +2736,25 @@
         <v>1660</v>
       </c>
       <c r="D75" s="1" t="n">
-        <v>2221</v>
+        <v>2583</v>
       </c>
       <c r="E75" s="12" t="n">
         <f aca="false">D75/331</f>
-        <v>6.70996978851964</v>
+        <v>7.8036253776435</v>
       </c>
       <c r="F75" s="12" t="n">
-        <v>525</v>
+        <v>363</v>
       </c>
       <c r="G75" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H75" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,G75)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I75" s="13" t="n">
         <f aca="false">$B$70+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="J75" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,I75)</f>
@@ -2739,7 +2762,7 @@
       </c>
       <c r="K75" s="13" t="n">
         <f aca="false">$B$70+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="L75" s="0"/>
       <c r="M75" s="0"/>
@@ -2756,25 +2779,25 @@
         <v>330</v>
       </c>
       <c r="D76" s="1" t="n">
-        <v>1019</v>
+        <v>1228</v>
       </c>
       <c r="E76" s="12" t="n">
         <f aca="false">D76/67.79</f>
-        <v>15.0317155922702</v>
+        <v>18.1147661897035</v>
       </c>
       <c r="F76" s="12" t="n">
-        <v>260</v>
+        <v>209</v>
       </c>
       <c r="G76" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H76" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,G76)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I76" s="13" t="n">
         <f aca="false">$B$70+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="J76" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,I76)</f>
@@ -2782,7 +2805,7 @@
       </c>
       <c r="K76" s="13" t="n">
         <f aca="false">$B$70+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="L76" s="0"/>
       <c r="M76" s="0"/>
@@ -2799,25 +2822,25 @@
         <v>414</v>
       </c>
       <c r="D77" s="1" t="n">
-        <v>433</v>
+        <v>541</v>
       </c>
       <c r="E77" s="12" t="n">
         <f aca="false">D77/83.784</f>
-        <v>5.16805117922276</v>
+        <v>6.457080110761</v>
       </c>
       <c r="F77" s="12" t="n">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="G77" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H77" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,G77)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" s="13" t="n">
         <f aca="false">$B$70+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="J77" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,I77)</f>
@@ -2825,7 +2848,7 @@
       </c>
       <c r="K77" s="13" t="n">
         <f aca="false">$B$70+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="L77" s="0"/>
       <c r="M77" s="0"/>
@@ -2842,25 +2865,25 @@
         <v>50</v>
       </c>
       <c r="D78" s="12" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E78" s="12" t="n">
         <f aca="false">D78/10.36</f>
-        <v>10.1351351351351</v>
+        <v>10.6177606177606</v>
       </c>
       <c r="F78" s="12" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G78" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H78" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,G78)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I78" s="13" t="n">
         <f aca="false">$B$70+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="J78" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,I78)</f>
@@ -2868,7 +2891,7 @@
       </c>
       <c r="K78" s="13" t="n">
         <f aca="false">$B$70+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="L78" s="0"/>
       <c r="M78" s="0"/>
@@ -2878,15 +2901,16 @@
       <c r="Q78" s="0"/>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C79" s="12"/>
-      <c r="D79" s="12"/>
-      <c r="E79" s="12"/>
-      <c r="F79" s="12"/>
-      <c r="G79" s="13"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="0"/>
+      <c r="E79" s="0"/>
+      <c r="F79" s="0"/>
+      <c r="G79" s="0"/>
       <c r="H79" s="0"/>
-      <c r="I79" s="13"/>
+      <c r="I79" s="0"/>
       <c r="J79" s="0"/>
-      <c r="K79" s="13"/>
+      <c r="K79" s="0"/>
       <c r="L79" s="0"/>
       <c r="M79" s="0"/>
       <c r="N79" s="0"/>
@@ -2931,11 +2955,10 @@
       <c r="P81" s="0"/>
       <c r="Q81" s="0"/>
     </row>
-    <row r="82" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="7" t="n">
-        <v>43917</v>
-      </c>
-      <c r="C82" s="0"/>
+        <v>43918</v>
+      </c>
       <c r="D82" s="8" t="s">
         <v>6</v>
       </c>
@@ -2958,10 +2981,14 @@
       <c r="K82" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="L82" s="8"/>
+      <c r="L82" s="0"/>
+      <c r="M82" s="0"/>
+      <c r="N82" s="0"/>
+      <c r="O82" s="0"/>
+      <c r="P82" s="0"/>
+      <c r="Q82" s="0"/>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="3"/>
       <c r="B83" s="9"/>
       <c r="C83" s="10" t="s">
         <v>34</v>
@@ -2990,7 +3017,7 @@
       <c r="K83" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="L83" s="8"/>
+      <c r="L83" s="0"/>
       <c r="M83" s="0"/>
       <c r="N83" s="0"/>
       <c r="O83" s="0"/>
@@ -3005,32 +3032,32 @@
         <v>300</v>
       </c>
       <c r="D84" s="1" t="n">
-        <v>9134</v>
+        <v>10023</v>
       </c>
       <c r="E84" s="12" t="n">
         <f aca="false">D84/60.48</f>
-        <v>151.025132275132</v>
+        <v>165.724206349206</v>
       </c>
       <c r="F84" s="12" t="n">
-        <v>919</v>
+        <v>889</v>
       </c>
       <c r="G84" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H84" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,G84)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I84" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J84" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$82,I84)</f>
+        <f aca="false">_xlfn.DAYS(B$94,I84)</f>
         <v>15</v>
       </c>
       <c r="K84" s="13" t="n">
         <f aca="false">$B$82+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="L84" s="0"/>
       <c r="M84" s="0"/>
@@ -3047,32 +3074,32 @@
         <v>230</v>
       </c>
       <c r="D85" s="1" t="n">
-        <v>5138</v>
+        <v>5982</v>
       </c>
       <c r="E85" s="12" t="n">
         <f aca="false">D85/46.75</f>
-        <v>109.903743315508</v>
+        <v>127.957219251337</v>
       </c>
       <c r="F85" s="12" t="n">
-        <v>773</v>
+        <v>844</v>
       </c>
       <c r="G85" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H85" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,G85)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I85" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J85" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$82,I85)</f>
+        <f aca="false">_xlfn.DAYS(B$94,I85)</f>
         <v>4</v>
       </c>
       <c r="K85" s="13" t="n">
         <f aca="false">$B$82+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="L85" s="0"/>
       <c r="M85" s="0"/>
@@ -3089,32 +3116,32 @@
         <v>330</v>
       </c>
       <c r="D86" s="1" t="n">
-        <v>1995</v>
+        <v>2314</v>
       </c>
       <c r="E86" s="12" t="n">
         <f aca="false">D86/65.27</f>
-        <v>30.5653439558756</v>
+        <v>35.4527347939329</v>
       </c>
       <c r="F86" s="12" t="n">
-        <v>299</v>
+        <v>319</v>
       </c>
       <c r="G86" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H86" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,G86)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I86" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J86" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$82,I86)</f>
+        <f aca="false">_xlfn.DAYS(B$94,I86)</f>
         <v>3</v>
       </c>
       <c r="K86" s="13" t="n">
         <f aca="false">$B$82+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="L86" s="0"/>
       <c r="M86" s="0"/>
@@ -3131,34 +3158,33 @@
         <v>1660</v>
       </c>
       <c r="D87" s="1" t="n">
-        <v>1696</v>
+        <v>2221</v>
       </c>
       <c r="E87" s="12" t="n">
         <f aca="false">D87/331</f>
-        <v>5.12386706948641</v>
+        <v>6.70996978851964</v>
       </c>
       <c r="F87" s="12" t="n">
-        <v>400</v>
+        <v>525</v>
       </c>
       <c r="G87" s="13" t="n">
-        <f aca="false">$B$82</f>
         <v>43917</v>
       </c>
       <c r="H87" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,G87)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87" s="13" t="n">
         <f aca="false">$B$82+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="J87" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$82,I87)</f>
+        <f aca="false">_xlfn.DAYS($B$82,I87)</f>
         <v>-1</v>
       </c>
       <c r="K87" s="13" t="n">
         <f aca="false">$B$82+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="L87" s="0"/>
       <c r="M87" s="0"/>
@@ -3175,33 +3201,33 @@
         <v>330</v>
       </c>
       <c r="D88" s="1" t="n">
-        <v>759</v>
+        <v>1019</v>
       </c>
       <c r="E88" s="12" t="n">
         <f aca="false">D88/67.79</f>
-        <v>11.1963416433102</v>
+        <v>15.0317155922702</v>
       </c>
       <c r="F88" s="12" t="n">
-        <v>181</v>
+        <v>260</v>
       </c>
       <c r="G88" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H88" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,G88)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I88" s="13" t="n">
         <f aca="false">$B$82+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="J88" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$82,I88)</f>
+        <f aca="false">_xlfn.DAYS($B$82,I88)</f>
         <v>-1</v>
       </c>
       <c r="K88" s="13" t="n">
         <f aca="false">$B$82+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="L88" s="0"/>
       <c r="M88" s="0"/>
@@ -3218,34 +3244,33 @@
         <v>414</v>
       </c>
       <c r="D89" s="1" t="n">
-        <v>351</v>
+        <v>433</v>
       </c>
       <c r="E89" s="12" t="n">
         <f aca="false">D89/83.784</f>
-        <v>4.18934402749928</v>
+        <v>5.16805117922276</v>
       </c>
       <c r="F89" s="12" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G89" s="13" t="n">
-        <f aca="false">$B$82+1</f>
         <v>43918</v>
       </c>
       <c r="H89" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,G89)</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I89" s="13" t="n">
         <f aca="false">$B$82+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="J89" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$82,I89)</f>
+        <f aca="false">_xlfn.DAYS($B$82,I89)</f>
         <v>-1</v>
       </c>
       <c r="K89" s="13" t="n">
         <f aca="false">$B$82+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="L89" s="0"/>
       <c r="M89" s="0"/>
@@ -3269,26 +3294,26 @@
         <v>10.1351351351351</v>
       </c>
       <c r="F90" s="12" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="G90" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H90" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,G90)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I90" s="13" t="n">
         <f aca="false">$B$82+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="J90" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$82,I90)</f>
+        <f aca="false">_xlfn.DAYS($B$82,I90)</f>
         <v>-1</v>
       </c>
       <c r="K90" s="13" t="n">
         <f aca="false">$B$82+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="L90" s="0"/>
       <c r="M90" s="0"/>
@@ -3298,14 +3323,15 @@
       <c r="Q90" s="0"/>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D91" s="0"/>
-      <c r="E91" s="0"/>
-      <c r="F91" s="0"/>
-      <c r="G91" s="0"/>
+      <c r="C91" s="12"/>
+      <c r="D91" s="12"/>
+      <c r="E91" s="12"/>
+      <c r="F91" s="12"/>
+      <c r="G91" s="13"/>
       <c r="H91" s="0"/>
-      <c r="I91" s="0"/>
+      <c r="I91" s="13"/>
       <c r="J91" s="0"/>
-      <c r="K91" s="0"/>
+      <c r="K91" s="13"/>
       <c r="L91" s="0"/>
       <c r="M91" s="0"/>
       <c r="N91" s="0"/>
@@ -3314,6 +3340,8 @@
       <c r="Q91" s="0"/>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B92" s="4"/>
+      <c r="C92" s="5"/>
       <c r="D92" s="0"/>
       <c r="E92" s="0"/>
       <c r="F92" s="0"/>
@@ -3348,10 +3376,11 @@
       <c r="P93" s="0"/>
       <c r="Q93" s="0"/>
     </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="7" t="n">
-        <v>43916</v>
-      </c>
+        <v>43917</v>
+      </c>
+      <c r="C94" s="0"/>
       <c r="D94" s="8" t="s">
         <v>6</v>
       </c>
@@ -3374,17 +3403,13 @@
       <c r="K94" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="L94" s="0"/>
-      <c r="M94" s="0"/>
-      <c r="N94" s="0"/>
-      <c r="O94" s="0"/>
-      <c r="P94" s="0"/>
-      <c r="Q94" s="0"/>
+      <c r="L94" s="8"/>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="3"/>
       <c r="B95" s="9"/>
       <c r="C95" s="10" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="D95" s="10" t="s">
         <v>2</v>
@@ -3410,7 +3435,7 @@
       <c r="K95" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="L95" s="0"/>
+      <c r="L95" s="8"/>
       <c r="M95" s="0"/>
       <c r="N95" s="0"/>
       <c r="O95" s="0"/>
@@ -3425,32 +3450,32 @@
         <v>300</v>
       </c>
       <c r="D96" s="1" t="n">
-        <v>8215</v>
+        <v>9134</v>
       </c>
       <c r="E96" s="12" t="n">
         <f aca="false">D96/60.48</f>
-        <v>135.830026455026</v>
+        <v>151.025132275132</v>
       </c>
       <c r="F96" s="12" t="n">
-        <v>712</v>
+        <v>919</v>
       </c>
       <c r="G96" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H96" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$94,G96)</f>
-        <v>16</v>
+        <f aca="false">_xlfn.DAYS($B$94,G96)</f>
+        <v>17</v>
       </c>
       <c r="I96" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J96" s="1" t="n">
         <f aca="false">_xlfn.DAYS(B$94,I96)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K96" s="13" t="n">
-        <f aca="false">B$94+1</f>
-        <v>43917</v>
+        <f aca="false">$B$94+1</f>
+        <v>43918</v>
       </c>
       <c r="L96" s="0"/>
       <c r="M96" s="0"/>
@@ -3467,32 +3492,32 @@
         <v>230</v>
       </c>
       <c r="D97" s="1" t="n">
-        <v>4365</v>
+        <v>5138</v>
       </c>
       <c r="E97" s="12" t="n">
         <f aca="false">D97/46.75</f>
-        <v>93.3689839572193</v>
+        <v>109.903743315508</v>
       </c>
       <c r="F97" s="12" t="n">
-        <v>718</v>
+        <v>773</v>
       </c>
       <c r="G97" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H97" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$94,G97)</f>
-        <v>9</v>
+        <f aca="false">_xlfn.DAYS($B$94,G97)</f>
+        <v>10</v>
       </c>
       <c r="I97" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J97" s="1" t="n">
         <f aca="false">_xlfn.DAYS(B$94,I97)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K97" s="13" t="n">
-        <f aca="false">B$94+1</f>
-        <v>43917</v>
+        <f aca="false">$B$94+1</f>
+        <v>43918</v>
       </c>
       <c r="L97" s="0"/>
       <c r="M97" s="0"/>
@@ -3509,32 +3534,32 @@
         <v>330</v>
       </c>
       <c r="D98" s="1" t="n">
-        <v>1696</v>
+        <v>1995</v>
       </c>
       <c r="E98" s="12" t="n">
         <f aca="false">D98/65.27</f>
-        <v>25.9843726060978</v>
+        <v>30.5653439558756</v>
       </c>
       <c r="F98" s="12" t="n">
-        <v>365</v>
+        <v>299</v>
       </c>
       <c r="G98" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H98" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$94,G98)</f>
-        <v>4</v>
+        <f aca="false">_xlfn.DAYS($B$94,G98)</f>
+        <v>5</v>
       </c>
       <c r="I98" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J98" s="1" t="n">
         <f aca="false">_xlfn.DAYS(B$94,I98)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K98" s="13" t="n">
-        <f aca="false">B$94+1</f>
-        <v>43917</v>
+        <f aca="false">$B$94+1</f>
+        <v>43918</v>
       </c>
       <c r="L98" s="0"/>
       <c r="M98" s="0"/>
@@ -3551,33 +3576,34 @@
         <v>1660</v>
       </c>
       <c r="D99" s="1" t="n">
-        <v>1295</v>
+        <v>1696</v>
       </c>
       <c r="E99" s="12" t="n">
         <f aca="false">D99/331</f>
-        <v>3.91238670694864</v>
+        <v>5.12386706948641</v>
       </c>
       <c r="F99" s="12" t="n">
-        <v>268</v>
+        <v>400</v>
       </c>
       <c r="G99" s="13" t="n">
+        <f aca="false">$B$94</f>
         <v>43917</v>
       </c>
       <c r="H99" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$94,G99)</f>
+        <f aca="false">_xlfn.DAYS($B$94,G99)</f>
+        <v>0</v>
+      </c>
+      <c r="I99" s="13" t="n">
+        <f aca="false">$B$94+1</f>
+        <v>43918</v>
+      </c>
+      <c r="J99" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$94,I99)</f>
         <v>-1</v>
       </c>
-      <c r="I99" s="13" t="n">
-        <f aca="false">B$94+1</f>
-        <v>43917</v>
-      </c>
-      <c r="J99" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$94,I99)</f>
-        <v>-1</v>
-      </c>
       <c r="K99" s="13" t="n">
-        <f aca="false">B$94+1</f>
-        <v>43917</v>
+        <f aca="false">$B$94+1</f>
+        <v>43918</v>
       </c>
       <c r="L99" s="0"/>
       <c r="M99" s="0"/>
@@ -3594,33 +3620,33 @@
         <v>330</v>
       </c>
       <c r="D100" s="1" t="n">
-        <v>578</v>
+        <v>759</v>
       </c>
       <c r="E100" s="12" t="n">
         <f aca="false">D100/67.79</f>
-        <v>8.52633131730344</v>
+        <v>11.1963416433102</v>
       </c>
       <c r="F100" s="12" t="n">
-        <v>115</v>
+        <v>181</v>
       </c>
       <c r="G100" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H100" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$94,G100)</f>
-        <v>0</v>
+        <f aca="false">_xlfn.DAYS($B$94,G100)</f>
+        <v>1</v>
       </c>
       <c r="I100" s="13" t="n">
-        <f aca="false">B$94+1</f>
-        <v>43917</v>
+        <f aca="false">$B$94+1</f>
+        <v>43918</v>
       </c>
       <c r="J100" s="1" t="n">
         <f aca="false">_xlfn.DAYS(B$94,I100)</f>
         <v>-1</v>
       </c>
       <c r="K100" s="13" t="n">
-        <f aca="false">B$94+1</f>
-        <v>43917</v>
+        <f aca="false">$B$94+1</f>
+        <v>43918</v>
       </c>
       <c r="L100" s="0"/>
       <c r="M100" s="0"/>
@@ -3637,33 +3663,34 @@
         <v>414</v>
       </c>
       <c r="D101" s="1" t="n">
-        <v>267</v>
+        <v>351</v>
       </c>
       <c r="E101" s="12" t="n">
         <f aca="false">D101/83.784</f>
-        <v>3.18676596963621</v>
+        <v>4.18934402749928</v>
       </c>
       <c r="F101" s="12" t="n">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="G101" s="13" t="n">
-        <v>43917</v>
+        <f aca="false">$B$94+1</f>
+        <v>43918</v>
       </c>
       <c r="H101" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$94,G101)</f>
+        <f aca="false">_xlfn.DAYS($B$94,G101)</f>
         <v>-1</v>
       </c>
       <c r="I101" s="13" t="n">
-        <f aca="false">B$94+1</f>
-        <v>43917</v>
+        <f aca="false">$B$94+1</f>
+        <v>43918</v>
       </c>
       <c r="J101" s="1" t="n">
         <f aca="false">_xlfn.DAYS(B$94,I101)</f>
         <v>-1</v>
       </c>
       <c r="K101" s="13" t="n">
-        <f aca="false">B$94+1</f>
-        <v>43917</v>
+        <f aca="false">$B$94+1</f>
+        <v>43918</v>
       </c>
       <c r="L101" s="0"/>
       <c r="M101" s="0"/>
@@ -3680,33 +3707,33 @@
         <v>50</v>
       </c>
       <c r="D102" s="12" t="n">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="E102" s="12" t="n">
         <f aca="false">D102/10.36</f>
-        <v>7.43243243243243</v>
+        <v>10.1351351351351</v>
       </c>
       <c r="F102" s="12" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="G102" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H102" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$94,G102)</f>
-        <v>1</v>
+        <f aca="false">_xlfn.DAYS($B$94,G102)</f>
+        <v>2</v>
       </c>
       <c r="I102" s="13" t="n">
-        <f aca="false">B$94+1</f>
-        <v>43917</v>
+        <f aca="false">$B$94+1</f>
+        <v>43918</v>
       </c>
       <c r="J102" s="1" t="n">
         <f aca="false">_xlfn.DAYS(B$94,I102)</f>
         <v>-1</v>
       </c>
       <c r="K102" s="13" t="n">
-        <f aca="false">B$94+1</f>
-        <v>43917</v>
+        <f aca="false">$B$94+1</f>
+        <v>43918</v>
       </c>
       <c r="L102" s="0"/>
       <c r="M102" s="0"/>
@@ -3714,6 +3741,424 @@
       <c r="O102" s="0"/>
       <c r="P102" s="0"/>
       <c r="Q102" s="0"/>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D103" s="0"/>
+      <c r="E103" s="0"/>
+      <c r="F103" s="0"/>
+      <c r="G103" s="0"/>
+      <c r="H103" s="0"/>
+      <c r="I103" s="0"/>
+      <c r="J103" s="0"/>
+      <c r="K103" s="0"/>
+      <c r="L103" s="0"/>
+      <c r="M103" s="0"/>
+      <c r="N103" s="0"/>
+      <c r="O103" s="0"/>
+      <c r="P103" s="0"/>
+      <c r="Q103" s="0"/>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D104" s="0"/>
+      <c r="E104" s="0"/>
+      <c r="F104" s="0"/>
+      <c r="G104" s="0"/>
+      <c r="H104" s="0"/>
+      <c r="I104" s="0"/>
+      <c r="J104" s="0"/>
+      <c r="K104" s="0"/>
+      <c r="L104" s="0"/>
+      <c r="M104" s="0"/>
+      <c r="N104" s="0"/>
+      <c r="O104" s="0"/>
+      <c r="P104" s="0"/>
+      <c r="Q104" s="0"/>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B105" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D105" s="0"/>
+      <c r="E105" s="0"/>
+      <c r="F105" s="0"/>
+      <c r="G105" s="0"/>
+      <c r="H105" s="0"/>
+      <c r="I105" s="0"/>
+      <c r="J105" s="0"/>
+      <c r="K105" s="0"/>
+      <c r="L105" s="0"/>
+      <c r="M105" s="0"/>
+      <c r="N105" s="0"/>
+      <c r="O105" s="0"/>
+      <c r="P105" s="0"/>
+      <c r="Q105" s="0"/>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B106" s="7" t="n">
+        <v>43916</v>
+      </c>
+      <c r="D106" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E106" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H106" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I106" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J106" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K106" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L106" s="0"/>
+      <c r="M106" s="0"/>
+      <c r="N106" s="0"/>
+      <c r="O106" s="0"/>
+      <c r="P106" s="0"/>
+      <c r="Q106" s="0"/>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B107" s="9"/>
+      <c r="C107" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D107" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E107" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F107" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G107" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H107" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I107" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="J107" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="K107" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L107" s="0"/>
+      <c r="M107" s="0"/>
+      <c r="N107" s="0"/>
+      <c r="O107" s="0"/>
+      <c r="P107" s="0"/>
+      <c r="Q107" s="0"/>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B108" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C108" s="12" t="n">
+        <v>300</v>
+      </c>
+      <c r="D108" s="1" t="n">
+        <v>8215</v>
+      </c>
+      <c r="E108" s="12" t="n">
+        <f aca="false">D108/60.48</f>
+        <v>135.830026455026</v>
+      </c>
+      <c r="F108" s="12" t="n">
+        <v>712</v>
+      </c>
+      <c r="G108" s="13" t="n">
+        <v>43900</v>
+      </c>
+      <c r="H108" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$106,G108)</f>
+        <v>16</v>
+      </c>
+      <c r="I108" s="13" t="n">
+        <v>43902</v>
+      </c>
+      <c r="J108" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$106,I108)</f>
+        <v>14</v>
+      </c>
+      <c r="K108" s="13" t="n">
+        <f aca="false">B$106+1</f>
+        <v>43917</v>
+      </c>
+      <c r="L108" s="0"/>
+      <c r="M108" s="0"/>
+      <c r="N108" s="0"/>
+      <c r="O108" s="0"/>
+      <c r="P108" s="0"/>
+      <c r="Q108" s="0"/>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B109" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C109" s="12" t="n">
+        <v>230</v>
+      </c>
+      <c r="D109" s="1" t="n">
+        <v>4365</v>
+      </c>
+      <c r="E109" s="12" t="n">
+        <f aca="false">D109/46.75</f>
+        <v>93.3689839572193</v>
+      </c>
+      <c r="F109" s="12" t="n">
+        <v>718</v>
+      </c>
+      <c r="G109" s="13" t="n">
+        <v>43907</v>
+      </c>
+      <c r="H109" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$106,G109)</f>
+        <v>9</v>
+      </c>
+      <c r="I109" s="13" t="n">
+        <v>43913</v>
+      </c>
+      <c r="J109" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$106,I109)</f>
+        <v>3</v>
+      </c>
+      <c r="K109" s="13" t="n">
+        <f aca="false">B$106+1</f>
+        <v>43917</v>
+      </c>
+      <c r="L109" s="0"/>
+      <c r="M109" s="0"/>
+      <c r="N109" s="0"/>
+      <c r="O109" s="0"/>
+      <c r="P109" s="0"/>
+      <c r="Q109" s="0"/>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B110" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C110" s="12" t="n">
+        <v>330</v>
+      </c>
+      <c r="D110" s="1" t="n">
+        <v>1696</v>
+      </c>
+      <c r="E110" s="12" t="n">
+        <f aca="false">D110/65.27</f>
+        <v>25.9843726060978</v>
+      </c>
+      <c r="F110" s="12" t="n">
+        <v>365</v>
+      </c>
+      <c r="G110" s="13" t="n">
+        <v>43912</v>
+      </c>
+      <c r="H110" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$106,G110)</f>
+        <v>4</v>
+      </c>
+      <c r="I110" s="13" t="n">
+        <v>43914</v>
+      </c>
+      <c r="J110" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$106,I110)</f>
+        <v>2</v>
+      </c>
+      <c r="K110" s="13" t="n">
+        <f aca="false">B$106+1</f>
+        <v>43917</v>
+      </c>
+      <c r="L110" s="0"/>
+      <c r="M110" s="0"/>
+      <c r="N110" s="0"/>
+      <c r="O110" s="0"/>
+      <c r="P110" s="0"/>
+      <c r="Q110" s="0"/>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B111" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C111" s="12" t="n">
+        <v>1660</v>
+      </c>
+      <c r="D111" s="1" t="n">
+        <v>1295</v>
+      </c>
+      <c r="E111" s="12" t="n">
+        <f aca="false">D111/331</f>
+        <v>3.91238670694864</v>
+      </c>
+      <c r="F111" s="12" t="n">
+        <v>268</v>
+      </c>
+      <c r="G111" s="13" t="n">
+        <v>43917</v>
+      </c>
+      <c r="H111" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$106,G111)</f>
+        <v>-1</v>
+      </c>
+      <c r="I111" s="13" t="n">
+        <f aca="false">B$106+1</f>
+        <v>43917</v>
+      </c>
+      <c r="J111" s="1" t="n">
+        <f aca="false">_xlfn.DAYS($B$106,I111)</f>
+        <v>-1</v>
+      </c>
+      <c r="K111" s="13" t="n">
+        <f aca="false">B$106+1</f>
+        <v>43917</v>
+      </c>
+      <c r="L111" s="0"/>
+      <c r="M111" s="0"/>
+      <c r="N111" s="0"/>
+      <c r="O111" s="0"/>
+      <c r="P111" s="0"/>
+      <c r="Q111" s="0"/>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B112" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C112" s="12" t="n">
+        <v>330</v>
+      </c>
+      <c r="D112" s="1" t="n">
+        <v>578</v>
+      </c>
+      <c r="E112" s="12" t="n">
+        <f aca="false">D112/67.79</f>
+        <v>8.52633131730344</v>
+      </c>
+      <c r="F112" s="12" t="n">
+        <v>115</v>
+      </c>
+      <c r="G112" s="13" t="n">
+        <v>43916</v>
+      </c>
+      <c r="H112" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$106,G112)</f>
+        <v>0</v>
+      </c>
+      <c r="I112" s="13" t="n">
+        <f aca="false">B$106+1</f>
+        <v>43917</v>
+      </c>
+      <c r="J112" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$106,I112)</f>
+        <v>-1</v>
+      </c>
+      <c r="K112" s="13" t="n">
+        <f aca="false">B$106+1</f>
+        <v>43917</v>
+      </c>
+      <c r="L112" s="0"/>
+      <c r="M112" s="0"/>
+      <c r="N112" s="0"/>
+      <c r="O112" s="0"/>
+      <c r="P112" s="0"/>
+      <c r="Q112" s="0"/>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B113" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C113" s="12" t="n">
+        <v>414</v>
+      </c>
+      <c r="D113" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="E113" s="12" t="n">
+        <f aca="false">D113/83.784</f>
+        <v>3.18676596963621</v>
+      </c>
+      <c r="F113" s="12" t="n">
+        <v>61</v>
+      </c>
+      <c r="G113" s="13" t="n">
+        <v>43917</v>
+      </c>
+      <c r="H113" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$106,G113)</f>
+        <v>-1</v>
+      </c>
+      <c r="I113" s="13" t="n">
+        <f aca="false">B$106+1</f>
+        <v>43917</v>
+      </c>
+      <c r="J113" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$106,I113)</f>
+        <v>-1</v>
+      </c>
+      <c r="K113" s="13" t="n">
+        <f aca="false">B$106+1</f>
+        <v>43917</v>
+      </c>
+      <c r="L113" s="0"/>
+      <c r="M113" s="0"/>
+      <c r="N113" s="0"/>
+      <c r="O113" s="0"/>
+      <c r="P113" s="0"/>
+      <c r="Q113" s="0"/>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B114" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C114" s="12" t="n">
+        <v>50</v>
+      </c>
+      <c r="D114" s="12" t="n">
+        <v>77</v>
+      </c>
+      <c r="E114" s="12" t="n">
+        <f aca="false">D114/10.36</f>
+        <v>7.43243243243243</v>
+      </c>
+      <c r="F114" s="12" t="n">
+        <v>15</v>
+      </c>
+      <c r="G114" s="13" t="n">
+        <v>43915</v>
+      </c>
+      <c r="H114" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$106,G114)</f>
+        <v>1</v>
+      </c>
+      <c r="I114" s="13" t="n">
+        <f aca="false">B$106+1</f>
+        <v>43917</v>
+      </c>
+      <c r="J114" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$106,I114)</f>
+        <v>-1</v>
+      </c>
+      <c r="K114" s="13" t="n">
+        <f aca="false">B$106+1</f>
+        <v>43917</v>
+      </c>
+      <c r="L114" s="0"/>
+      <c r="M114" s="0"/>
+      <c r="N114" s="0"/>
+      <c r="O114" s="0"/>
+      <c r="P114" s="0"/>
+      <c r="Q114" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/covid19 lockdown evaluation .xlsx
+++ b/covid19 lockdown evaluation .xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="257" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="279" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="49">
   <si>
     <t>Effects of the lockdown issued by governments</t>
   </si>
@@ -341,7 +341,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q114"/>
+  <dimension ref="A1:Q126"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F31" activeCellId="0" sqref="F31"/>
@@ -785,7 +785,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="7" t="n">
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="D22" s="0"/>
       <c r="E22" s="8" t="s">
@@ -862,36 +862,36 @@
         <v>300</v>
       </c>
       <c r="D24" s="1" t="n">
-        <v>13915</v>
+        <v>14681</v>
       </c>
       <c r="E24" s="12" t="n">
         <f aca="false">D24/60.48</f>
-        <v>230.076058201058</v>
+        <v>242.741402116402</v>
       </c>
       <c r="F24" s="12" t="n">
-        <v>760</v>
+        <v>766</v>
       </c>
       <c r="G24" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H24" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,G24)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I24" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J24" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,I24)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K24" s="13" t="n">
         <f aca="false">$B$22+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="L24" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K24,G24)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M24" s="0"/>
       <c r="N24" s="0"/>
@@ -907,20 +907,20 @@
         <v>230</v>
       </c>
       <c r="D25" s="1" t="n">
-        <v>10348</v>
+        <v>11198</v>
       </c>
       <c r="E25" s="12" t="n">
         <f aca="false">D25/46.75</f>
-        <v>221.347593582888</v>
+        <v>239.529411764706</v>
       </c>
       <c r="F25" s="12" t="n">
-        <v>961</v>
+        <v>850</v>
       </c>
       <c r="G25" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H25" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$22,G25)</f>
+        <f aca="false">_xlfn.DAYS($B$34,G25)</f>
         <v>16</v>
       </c>
       <c r="I25" s="13" t="n">
@@ -928,15 +928,15 @@
       </c>
       <c r="J25" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,I25)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K25" s="13" t="n">
         <f aca="false">$B$22+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="L25" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K25,G25)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M25" s="0"/>
       <c r="N25" s="0"/>
@@ -952,20 +952,20 @@
         <v>330</v>
       </c>
       <c r="D26" s="1" t="n">
-        <v>5387</v>
+        <v>6507</v>
       </c>
       <c r="E26" s="12" t="n">
         <f aca="false">D26/65.27</f>
-        <v>82.5340891680711</v>
+        <v>99.6935805117206</v>
       </c>
       <c r="F26" s="12" t="n">
-        <v>1355</v>
+        <v>1120</v>
       </c>
       <c r="G26" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H26" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$22,G26)</f>
+        <f aca="false">_xlfn.DAYS($B$34,G26)</f>
         <v>11</v>
       </c>
       <c r="I26" s="13" t="n">
@@ -973,15 +973,15 @@
       </c>
       <c r="J26" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,I26)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K26" s="13" t="n">
         <f aca="false">$B$22+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="L26" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K26,G26)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M26" s="0"/>
       <c r="N26" s="0"/>
@@ -997,25 +997,25 @@
         <v>50</v>
       </c>
       <c r="D27" s="12" t="n">
-        <v>308</v>
+        <v>358</v>
       </c>
       <c r="E27" s="12" t="n">
         <f aca="false">D27/10.36</f>
-        <v>29.7297297297297</v>
+        <v>34.5559845559846</v>
       </c>
       <c r="F27" s="12" t="n">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="G27" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H27" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$22,G27)</f>
+        <f aca="false">_xlfn.DAYS($B$34,G27)</f>
         <v>8</v>
       </c>
       <c r="I27" s="13" t="n">
         <f aca="false">$B$22+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="J27" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,I27)</f>
@@ -1023,11 +1023,11 @@
       </c>
       <c r="K27" s="13" t="n">
         <f aca="false">$B$22+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="L27" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K27,G27)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M27" s="0"/>
       <c r="N27" s="0"/>
@@ -1043,25 +1043,25 @@
         <v>330</v>
       </c>
       <c r="D28" s="1" t="n">
-        <v>2921</v>
+        <v>3605</v>
       </c>
       <c r="E28" s="12" t="n">
         <f aca="false">D28/67.79</f>
-        <v>43.0889511727393</v>
+        <v>53.1789349461573</v>
       </c>
       <c r="F28" s="12" t="n">
-        <v>569</v>
+        <v>684</v>
       </c>
       <c r="G28" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H28" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$22,G28)</f>
+        <f aca="false">_xlfn.DAYS($B$34,G28)</f>
         <v>7</v>
       </c>
       <c r="I28" s="13" t="n">
         <f aca="false">$B$22+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="J28" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,I28)</f>
@@ -1069,11 +1069,11 @@
       </c>
       <c r="K28" s="13" t="n">
         <f aca="false">$B$22+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="L28" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K28,G28)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M28" s="0"/>
       <c r="N28" s="0"/>
@@ -1089,25 +1089,25 @@
         <v>1660</v>
       </c>
       <c r="D29" s="1" t="n">
-        <v>6070</v>
+        <v>7392</v>
       </c>
       <c r="E29" s="12" t="n">
         <f aca="false">D29/331</f>
-        <v>18.3383685800604</v>
+        <v>22.3323262839879</v>
       </c>
       <c r="F29" s="12" t="n">
-        <v>968</v>
+        <v>1321</v>
       </c>
       <c r="G29" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H29" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$22,G29)</f>
+        <f aca="false">_xlfn.DAYS($B$34,G29)</f>
         <v>6</v>
       </c>
       <c r="I29" s="13" t="n">
         <f aca="false">$B$22+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="J29" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,I29)</f>
@@ -1115,11 +1115,11 @@
       </c>
       <c r="K29" s="13" t="n">
         <f aca="false">$B$22+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="L29" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K29,G29)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M29" s="0"/>
       <c r="N29" s="0"/>
@@ -1135,25 +1135,25 @@
         <v>414</v>
       </c>
       <c r="D30" s="1" t="n">
-        <v>1107</v>
+        <v>1275</v>
       </c>
       <c r="E30" s="12" t="n">
         <f aca="false">D30/83.784</f>
-        <v>13.212546548267</v>
+        <v>15.2177026639931</v>
       </c>
       <c r="F30" s="12" t="n">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="G30" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H30" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$22,G30)</f>
+        <f aca="false">_xlfn.DAYS($B$34,G30)</f>
         <v>5</v>
       </c>
       <c r="I30" s="13" t="n">
         <f aca="false">$B$22+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="J30" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,I30)</f>
@@ -1161,11 +1161,11 @@
       </c>
       <c r="K30" s="13" t="n">
         <f aca="false">$B$22+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="L30" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K30,G30)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M30" s="0"/>
       <c r="N30" s="0"/>
@@ -1230,7 +1230,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="7" t="n">
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="D34" s="0"/>
       <c r="E34" s="8" t="s">
@@ -1307,36 +1307,36 @@
         <v>300</v>
       </c>
       <c r="D36" s="1" t="n">
-        <v>13155</v>
+        <v>13915</v>
       </c>
       <c r="E36" s="12" t="n">
         <f aca="false">D36/60.48</f>
-        <v>217.509920634921</v>
+        <v>230.076058201058</v>
       </c>
       <c r="F36" s="12" t="n">
-        <v>727</v>
+        <v>760</v>
       </c>
       <c r="G36" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H36" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,G36)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I36" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J36" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,I36)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K36" s="13" t="n">
         <f aca="false">$B$34+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="L36" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K36,G36)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M36" s="0"/>
       <c r="N36" s="0"/>
@@ -1352,36 +1352,36 @@
         <v>230</v>
       </c>
       <c r="D37" s="1" t="n">
-        <v>9387</v>
+        <v>10348</v>
       </c>
       <c r="E37" s="12" t="n">
         <f aca="false">D37/46.75</f>
-        <v>200.791443850267</v>
+        <v>221.347593582888</v>
       </c>
       <c r="F37" s="12" t="n">
-        <v>923</v>
+        <v>961</v>
       </c>
       <c r="G37" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H37" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,G37)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I37" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J37" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,I37)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K37" s="13" t="n">
         <f aca="false">$B$34+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="L37" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K37,G37)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M37" s="0"/>
       <c r="N37" s="0"/>
@@ -1397,36 +1397,36 @@
         <v>330</v>
       </c>
       <c r="D38" s="1" t="n">
-        <v>4032</v>
+        <v>5387</v>
       </c>
       <c r="E38" s="12" t="n">
         <f aca="false">D38/65.27</f>
-        <v>61.7741688371381</v>
+        <v>82.5340891680711</v>
       </c>
       <c r="F38" s="12" t="n">
-        <v>509</v>
+        <v>1355</v>
       </c>
       <c r="G38" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H38" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,G38)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I38" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J38" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,I38)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K38" s="13" t="n">
         <f aca="false">$B$34+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="L38" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K38,G38)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M38" s="0"/>
       <c r="N38" s="0"/>
@@ -1442,25 +1442,25 @@
         <v>50</v>
       </c>
       <c r="D39" s="12" t="n">
-        <v>239</v>
+        <v>308</v>
       </c>
       <c r="E39" s="12" t="n">
         <f aca="false">D39/10.36</f>
-        <v>23.0694980694981</v>
+        <v>29.7297297297297</v>
       </c>
       <c r="F39" s="12" t="n">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="G39" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H39" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,G39)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I39" s="13" t="n">
         <f aca="false">$B$34+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="J39" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,I39)</f>
@@ -1468,11 +1468,11 @@
       </c>
       <c r="K39" s="13" t="n">
         <f aca="false">$B$34+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="L39" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K39,G39)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M39" s="0"/>
       <c r="N39" s="0"/>
@@ -1488,25 +1488,25 @@
         <v>330</v>
       </c>
       <c r="D40" s="1" t="n">
-        <v>2352</v>
+        <v>2921</v>
       </c>
       <c r="E40" s="12" t="n">
         <f aca="false">D40/67.79</f>
-        <v>34.695382799823</v>
+        <v>43.0889511727393</v>
       </c>
       <c r="F40" s="12" t="n">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="G40" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H40" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,G40)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I40" s="13" t="n">
         <f aca="false">$B$34+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="J40" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,I40)</f>
@@ -1514,11 +1514,11 @@
       </c>
       <c r="K40" s="13" t="n">
         <f aca="false">$B$34+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="L40" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K40,G40)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M40" s="0"/>
       <c r="N40" s="0"/>
@@ -1534,25 +1534,25 @@
         <v>1660</v>
       </c>
       <c r="D41" s="1" t="n">
-        <v>5102</v>
+        <v>6071</v>
       </c>
       <c r="E41" s="12" t="n">
         <f aca="false">D41/331</f>
-        <v>15.4138972809668</v>
+        <v>18.3413897280967</v>
       </c>
       <c r="F41" s="12" t="n">
-        <v>1049</v>
+        <v>969</v>
       </c>
       <c r="G41" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H41" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,G41)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I41" s="13" t="n">
         <f aca="false">$B$34+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="J41" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,I41)</f>
@@ -1560,11 +1560,11 @@
       </c>
       <c r="K41" s="13" t="n">
         <f aca="false">$B$34+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="L41" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K41,G41)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M41" s="0"/>
       <c r="N41" s="0"/>
@@ -1580,25 +1580,25 @@
         <v>414</v>
       </c>
       <c r="D42" s="1" t="n">
-        <v>931</v>
+        <v>1107</v>
       </c>
       <c r="E42" s="12" t="n">
         <f aca="false">D42/83.784</f>
-        <v>11.1119068079824</v>
+        <v>13.212546548267</v>
       </c>
       <c r="F42" s="12" t="n">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="G42" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H42" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,G42)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I42" s="13" t="n">
         <f aca="false">$B$34+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="J42" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,I42)</f>
@@ -1606,11 +1606,11 @@
       </c>
       <c r="K42" s="13" t="n">
         <f aca="false">$B$34+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="L42" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K42,G42)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M42" s="0"/>
       <c r="N42" s="0"/>
@@ -1675,7 +1675,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="7" t="n">
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="D46" s="0"/>
       <c r="E46" s="8" t="s">
@@ -1752,36 +1752,36 @@
         <v>300</v>
       </c>
       <c r="D48" s="1" t="n">
-        <v>12428</v>
+        <v>13155</v>
       </c>
       <c r="E48" s="12" t="n">
         <f aca="false">D48/60.48</f>
-        <v>205.489417989418</v>
+        <v>217.509920634921</v>
       </c>
       <c r="F48" s="12" t="n">
-        <v>837</v>
+        <v>727</v>
       </c>
       <c r="G48" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H48" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,G48)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I48" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J48" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,I48)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K48" s="13" t="n">
         <f aca="false">$B$46+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="L48" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K48,G48)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M48" s="0"/>
       <c r="N48" s="0"/>
@@ -1797,36 +1797,36 @@
         <v>230</v>
       </c>
       <c r="D49" s="1" t="n">
-        <v>8464</v>
+        <v>9387</v>
       </c>
       <c r="E49" s="12" t="n">
         <f aca="false">D49/46.75</f>
-        <v>181.048128342246</v>
+        <v>200.791443850267</v>
       </c>
       <c r="F49" s="12" t="n">
-        <v>748</v>
+        <v>923</v>
       </c>
       <c r="G49" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H49" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,G49)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I49" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J49" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,I49)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K49" s="13" t="n">
         <f aca="false">$B$46+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="L49" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K49,G49)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M49" s="0"/>
       <c r="N49" s="0"/>
@@ -1842,36 +1842,36 @@
         <v>330</v>
       </c>
       <c r="D50" s="1" t="n">
-        <v>3523</v>
+        <v>4032</v>
       </c>
       <c r="E50" s="12" t="n">
         <f aca="false">D50/65.27</f>
-        <v>53.9757928604259</v>
+        <v>61.7741688371381</v>
       </c>
       <c r="F50" s="12" t="n">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="G50" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H50" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,G50)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I50" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J50" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,I50)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K50" s="13" t="n">
         <f aca="false">$B$46+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="L50" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K50,G50)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M50" s="0"/>
       <c r="N50" s="0"/>
@@ -1887,25 +1887,25 @@
         <v>50</v>
       </c>
       <c r="D51" s="12" t="n">
-        <v>180</v>
+        <v>239</v>
       </c>
       <c r="E51" s="12" t="n">
         <f aca="false">D51/10.36</f>
-        <v>17.3745173745174</v>
+        <v>23.0694980694981</v>
       </c>
       <c r="F51" s="12" t="n">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="G51" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H51" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,G51)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I51" s="13" t="n">
         <f aca="false">$B$46+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="J51" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,I51)</f>
@@ -1913,11 +1913,11 @@
       </c>
       <c r="K51" s="13" t="n">
         <f aca="false">$B$46+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="L51" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K51,G51)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M51" s="0"/>
       <c r="N51" s="0"/>
@@ -1933,25 +1933,25 @@
         <v>330</v>
       </c>
       <c r="D52" s="1" t="n">
-        <v>1789</v>
+        <v>2352</v>
       </c>
       <c r="E52" s="12" t="n">
         <f aca="false">D52/67.79</f>
-        <v>26.390323056498</v>
+        <v>34.695382799823</v>
       </c>
       <c r="F52" s="12" t="n">
-        <v>381</v>
+        <v>563</v>
       </c>
       <c r="G52" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H52" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,G52)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I52" s="13" t="n">
         <f aca="false">$B$46+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="J52" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,I52)</f>
@@ -1959,11 +1959,11 @@
       </c>
       <c r="K52" s="13" t="n">
         <f aca="false">$B$46+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="L52" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K52,G52)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M52" s="0"/>
       <c r="N52" s="0"/>
@@ -1979,25 +1979,25 @@
         <v>1660</v>
       </c>
       <c r="D53" s="1" t="n">
-        <v>4053</v>
+        <v>5102</v>
       </c>
       <c r="E53" s="12" t="n">
         <f aca="false">D53/331</f>
-        <v>12.2447129909366</v>
+        <v>15.4138972809668</v>
       </c>
       <c r="F53" s="12" t="n">
-        <v>912</v>
+        <v>1049</v>
       </c>
       <c r="G53" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H53" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,G53)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I53" s="13" t="n">
         <f aca="false">$B$46+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="J53" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,I53)</f>
@@ -2005,11 +2005,11 @@
       </c>
       <c r="K53" s="13" t="n">
         <f aca="false">$B$46+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="L53" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K53,G53)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M53" s="0"/>
       <c r="N53" s="0"/>
@@ -2025,25 +2025,25 @@
         <v>414</v>
       </c>
       <c r="D54" s="1" t="n">
-        <v>775</v>
+        <v>931</v>
       </c>
       <c r="E54" s="12" t="n">
         <f aca="false">D54/83.784</f>
-        <v>9.24997612909386</v>
+        <v>11.1119068079824</v>
       </c>
       <c r="F54" s="12" t="n">
-        <v>130</v>
+        <v>156</v>
       </c>
       <c r="G54" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H54" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,G54)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I54" s="13" t="n">
         <f aca="false">$B$46+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="J54" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,I54)</f>
@@ -2051,11 +2051,11 @@
       </c>
       <c r="K54" s="13" t="n">
         <f aca="false">$B$46+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="L54" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K54,G54)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M54" s="0"/>
       <c r="N54" s="0"/>
@@ -2064,15 +2064,16 @@
       <c r="Q54" s="0"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C55" s="12"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="5"/>
       <c r="D55" s="0"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12"/>
-      <c r="G55" s="13"/>
+      <c r="E55" s="0"/>
+      <c r="F55" s="0"/>
+      <c r="G55" s="0"/>
       <c r="H55" s="0"/>
-      <c r="I55" s="13"/>
+      <c r="I55" s="0"/>
       <c r="J55" s="0"/>
-      <c r="K55" s="13"/>
+      <c r="K55" s="0"/>
       <c r="L55" s="0"/>
       <c r="M55" s="0"/>
       <c r="N55" s="0"/>
@@ -2081,15 +2082,16 @@
       <c r="Q55" s="0"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C56" s="12"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="5"/>
       <c r="D56" s="0"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="13"/>
+      <c r="E56" s="0"/>
+      <c r="F56" s="0"/>
+      <c r="G56" s="0"/>
       <c r="H56" s="0"/>
-      <c r="I56" s="13"/>
+      <c r="I56" s="0"/>
       <c r="J56" s="0"/>
-      <c r="K56" s="13"/>
+      <c r="K56" s="0"/>
       <c r="L56" s="0"/>
       <c r="M56" s="0"/>
       <c r="N56" s="0"/>
@@ -2118,7 +2120,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="7" t="n">
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="D58" s="0"/>
       <c r="E58" s="8" t="s">
@@ -2140,7 +2142,9 @@
       <c r="K58" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="L58" s="0"/>
+      <c r="L58" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="M58" s="0"/>
       <c r="N58" s="0"/>
       <c r="O58" s="0"/>
@@ -2176,7 +2180,9 @@
       <c r="K59" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="L59" s="0"/>
+      <c r="L59" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="M59" s="0"/>
       <c r="N59" s="0"/>
       <c r="O59" s="0"/>
@@ -2191,34 +2197,37 @@
         <v>300</v>
       </c>
       <c r="D60" s="1" t="n">
-        <v>11591</v>
+        <v>12428</v>
       </c>
       <c r="E60" s="12" t="n">
         <f aca="false">D60/60.48</f>
-        <v>191.650132275132</v>
+        <v>205.489417989418</v>
       </c>
       <c r="F60" s="12" t="n">
-        <v>812</v>
+        <v>837</v>
       </c>
       <c r="G60" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H60" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,G60)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I60" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J60" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,I60)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K60" s="13" t="n">
-        <f aca="false">$B$70+1</f>
-        <v>43920</v>
-      </c>
-      <c r="L60" s="0"/>
+        <f aca="false">$B$58+1</f>
+        <v>43922</v>
+      </c>
+      <c r="L60" s="0" t="n">
+        <f aca="false">_xlfn.DAYS(K60,G60)</f>
+        <v>22</v>
+      </c>
       <c r="M60" s="0"/>
       <c r="N60" s="0"/>
       <c r="O60" s="0"/>
@@ -2233,34 +2242,37 @@
         <v>230</v>
       </c>
       <c r="D61" s="1" t="n">
-        <v>7716</v>
+        <v>8464</v>
       </c>
       <c r="E61" s="12" t="n">
         <f aca="false">D61/46.75</f>
-        <v>165.048128342246</v>
+        <v>181.048128342246</v>
       </c>
       <c r="F61" s="12" t="n">
-        <v>913</v>
+        <v>748</v>
       </c>
       <c r="G61" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H61" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,G61)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I61" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J61" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,I61)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K61" s="13" t="n">
-        <f aca="false">$B$70+1</f>
-        <v>43920</v>
-      </c>
-      <c r="L61" s="0"/>
+        <f aca="false">$B$58+1</f>
+        <v>43922</v>
+      </c>
+      <c r="L61" s="0" t="n">
+        <f aca="false">_xlfn.DAYS(K61,G61)</f>
+        <v>15</v>
+      </c>
       <c r="M61" s="0"/>
       <c r="N61" s="0"/>
       <c r="O61" s="0"/>
@@ -2275,34 +2287,37 @@
         <v>330</v>
       </c>
       <c r="D62" s="1" t="n">
-        <v>3024</v>
+        <v>3523</v>
       </c>
       <c r="E62" s="12" t="n">
         <f aca="false">D62/65.27</f>
-        <v>46.3306266278535</v>
+        <v>53.9757928604259</v>
       </c>
       <c r="F62" s="12" t="n">
-        <v>418</v>
+        <v>499</v>
       </c>
       <c r="G62" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H62" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,G62)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I62" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J62" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,I62)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K62" s="13" t="n">
-        <f aca="false">$B$70+1</f>
-        <v>43920</v>
-      </c>
-      <c r="L62" s="0"/>
+        <f aca="false">$B$58+1</f>
+        <v>43922</v>
+      </c>
+      <c r="L62" s="0" t="n">
+        <f aca="false">_xlfn.DAYS(K62,G62)</f>
+        <v>10</v>
+      </c>
       <c r="M62" s="0"/>
       <c r="N62" s="0"/>
       <c r="O62" s="0"/>
@@ -2317,35 +2332,38 @@
         <v>50</v>
       </c>
       <c r="D63" s="12" t="n">
-        <v>146</v>
+        <v>180</v>
       </c>
       <c r="E63" s="12" t="n">
         <f aca="false">D63/10.36</f>
-        <v>14.0926640926641</v>
+        <v>17.3745173745174</v>
       </c>
       <c r="F63" s="12" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G63" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H63" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,G63)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I63" s="13" t="n">
         <f aca="false">$B$58+1</f>
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="J63" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,I63)</f>
         <v>-1</v>
       </c>
       <c r="K63" s="13" t="n">
-        <f aca="false">$B$70+1</f>
-        <v>43920</v>
-      </c>
-      <c r="L63" s="0"/>
+        <f aca="false">$B$58+1</f>
+        <v>43922</v>
+      </c>
+      <c r="L63" s="0" t="n">
+        <f aca="false">_xlfn.DAYS(K63,G63)</f>
+        <v>7</v>
+      </c>
       <c r="M63" s="0"/>
       <c r="N63" s="0"/>
       <c r="O63" s="0"/>
@@ -2360,35 +2378,38 @@
         <v>330</v>
       </c>
       <c r="D64" s="1" t="n">
-        <v>1408</v>
+        <v>1789</v>
       </c>
       <c r="E64" s="12" t="n">
         <f aca="false">D64/67.79</f>
-        <v>20.770025077445</v>
+        <v>26.390323056498</v>
       </c>
       <c r="F64" s="12" t="n">
-        <v>180</v>
+        <v>381</v>
       </c>
       <c r="G64" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H64" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,G64)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I64" s="13" t="n">
         <f aca="false">$B$58+1</f>
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="J64" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,I64)</f>
         <v>-1</v>
       </c>
       <c r="K64" s="13" t="n">
-        <f aca="false">$B$70+1</f>
-        <v>43920</v>
-      </c>
-      <c r="L64" s="0"/>
+        <f aca="false">$B$58+1</f>
+        <v>43922</v>
+      </c>
+      <c r="L64" s="0" t="n">
+        <f aca="false">_xlfn.DAYS(K64,G64)</f>
+        <v>6</v>
+      </c>
       <c r="M64" s="0"/>
       <c r="N64" s="0"/>
       <c r="O64" s="0"/>
@@ -2403,34 +2424,38 @@
         <v>1660</v>
       </c>
       <c r="D65" s="1" t="n">
-        <v>3141</v>
+        <v>4053</v>
       </c>
       <c r="E65" s="12" t="n">
         <f aca="false">D65/331</f>
-        <v>9.48942598187311</v>
+        <v>12.2447129909366</v>
       </c>
       <c r="F65" s="12" t="n">
-        <v>573</v>
+        <v>912</v>
       </c>
       <c r="G65" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H65" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,G65)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I65" s="13" t="n">
-        <v>43920</v>
+        <f aca="false">$B$58+1</f>
+        <v>43922</v>
       </c>
       <c r="J65" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,I65)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K65" s="13" t="n">
-        <f aca="false">$B$70+1</f>
-        <v>43920</v>
-      </c>
-      <c r="L65" s="0"/>
+        <f aca="false">$B$58+1</f>
+        <v>43922</v>
+      </c>
+      <c r="L65" s="0" t="n">
+        <f aca="false">_xlfn.DAYS(K65,G65)</f>
+        <v>5</v>
+      </c>
       <c r="M65" s="0"/>
       <c r="N65" s="0"/>
       <c r="O65" s="0"/>
@@ -2445,35 +2470,38 @@
         <v>414</v>
       </c>
       <c r="D66" s="1" t="n">
-        <v>645</v>
+        <v>775</v>
       </c>
       <c r="E66" s="12" t="n">
         <f aca="false">D66/83.784</f>
-        <v>7.69836723002005</v>
+        <v>9.24997612909386</v>
       </c>
       <c r="F66" s="12" t="n">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="G66" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H66" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,G66)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I66" s="13" t="n">
         <f aca="false">$B$58+1</f>
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="J66" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,I66)</f>
         <v>-1</v>
       </c>
       <c r="K66" s="13" t="n">
-        <f aca="false">$B$70+1</f>
-        <v>43920</v>
-      </c>
-      <c r="L66" s="0"/>
+        <f aca="false">$B$58+1</f>
+        <v>43922</v>
+      </c>
+      <c r="L66" s="0" t="n">
+        <f aca="false">_xlfn.DAYS(K66,G66)</f>
+        <v>4</v>
+      </c>
       <c r="M66" s="0"/>
       <c r="N66" s="0"/>
       <c r="O66" s="0"/>
@@ -2481,16 +2509,15 @@
       <c r="Q66" s="0"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="4"/>
-      <c r="C67" s="5"/>
+      <c r="C67" s="12"/>
       <c r="D67" s="0"/>
-      <c r="E67" s="0"/>
-      <c r="F67" s="0"/>
-      <c r="G67" s="0"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="13"/>
       <c r="H67" s="0"/>
-      <c r="I67" s="0"/>
+      <c r="I67" s="13"/>
       <c r="J67" s="0"/>
-      <c r="K67" s="0"/>
+      <c r="K67" s="13"/>
       <c r="L67" s="0"/>
       <c r="M67" s="0"/>
       <c r="N67" s="0"/>
@@ -2499,16 +2526,15 @@
       <c r="Q67" s="0"/>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B68" s="4"/>
-      <c r="C68" s="5"/>
+      <c r="C68" s="12"/>
       <c r="D68" s="0"/>
-      <c r="E68" s="0"/>
-      <c r="F68" s="0"/>
-      <c r="G68" s="0"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="13"/>
       <c r="H68" s="0"/>
-      <c r="I68" s="0"/>
+      <c r="I68" s="13"/>
       <c r="J68" s="0"/>
-      <c r="K68" s="0"/>
+      <c r="K68" s="13"/>
       <c r="L68" s="0"/>
       <c r="M68" s="0"/>
       <c r="N68" s="0"/>
@@ -2537,7 +2563,7 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="7" t="n">
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="D70" s="0"/>
       <c r="E70" s="8" t="s">
@@ -2610,31 +2636,31 @@
         <v>300</v>
       </c>
       <c r="D72" s="1" t="n">
-        <v>10779</v>
+        <v>11591</v>
       </c>
       <c r="E72" s="12" t="n">
         <f aca="false">D72/60.48</f>
-        <v>178.224206349206</v>
+        <v>191.650132275132</v>
       </c>
       <c r="F72" s="12" t="n">
-        <v>756</v>
+        <v>812</v>
       </c>
       <c r="G72" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H72" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,G72)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I72" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J72" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,I72)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K72" s="13" t="n">
-        <f aca="false">$B$70+1</f>
+        <f aca="false">$B$82+1</f>
         <v>43920</v>
       </c>
       <c r="L72" s="0"/>
@@ -2652,31 +2678,31 @@
         <v>230</v>
       </c>
       <c r="D73" s="1" t="n">
-        <v>6803</v>
+        <v>7716</v>
       </c>
       <c r="E73" s="12" t="n">
         <f aca="false">D73/46.75</f>
-        <v>145.51871657754</v>
+        <v>165.048128342246</v>
       </c>
       <c r="F73" s="12" t="n">
-        <v>821</v>
+        <v>913</v>
       </c>
       <c r="G73" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H73" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,G73)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I73" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J73" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,I73)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K73" s="13" t="n">
-        <f aca="false">$B$70+1</f>
+        <f aca="false">$B$82+1</f>
         <v>43920</v>
       </c>
       <c r="L73" s="0"/>
@@ -2694,31 +2720,31 @@
         <v>330</v>
       </c>
       <c r="D74" s="1" t="n">
-        <v>2606</v>
+        <v>3024</v>
       </c>
       <c r="E74" s="12" t="n">
         <f aca="false">D74/65.27</f>
-        <v>39.9264593228129</v>
+        <v>46.3306266278535</v>
       </c>
       <c r="F74" s="12" t="n">
-        <v>292</v>
+        <v>418</v>
       </c>
       <c r="G74" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H74" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,G74)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I74" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J74" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,I74)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K74" s="13" t="n">
-        <f aca="false">$B$70+1</f>
+        <f aca="false">$B$82+1</f>
         <v>43920</v>
       </c>
       <c r="L74" s="0"/>
@@ -2730,38 +2756,38 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C75" s="12" t="n">
-        <v>1660</v>
-      </c>
-      <c r="D75" s="1" t="n">
-        <v>2583</v>
+        <v>50</v>
+      </c>
+      <c r="D75" s="12" t="n">
+        <v>146</v>
       </c>
       <c r="E75" s="12" t="n">
-        <f aca="false">D75/331</f>
-        <v>7.8036253776435</v>
+        <f aca="false">D75/10.36</f>
+        <v>14.0926640926641</v>
       </c>
       <c r="F75" s="12" t="n">
-        <v>363</v>
+        <v>36</v>
       </c>
       <c r="G75" s="13" t="n">
-        <v>43917</v>
+        <v>43915</v>
       </c>
       <c r="H75" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,G75)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I75" s="13" t="n">
         <f aca="false">$B$70+1</f>
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="J75" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,I75)</f>
         <v>-1</v>
       </c>
       <c r="K75" s="13" t="n">
-        <f aca="false">$B$70+1</f>
+        <f aca="false">$B$82+1</f>
         <v>43920</v>
       </c>
       <c r="L75" s="0"/>
@@ -2779,32 +2805,32 @@
         <v>330</v>
       </c>
       <c r="D76" s="1" t="n">
-        <v>1228</v>
+        <v>1408</v>
       </c>
       <c r="E76" s="12" t="n">
         <f aca="false">D76/67.79</f>
-        <v>18.1147661897035</v>
+        <v>20.770025077445</v>
       </c>
       <c r="F76" s="12" t="n">
-        <v>209</v>
+        <v>180</v>
       </c>
       <c r="G76" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H76" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,G76)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I76" s="13" t="n">
         <f aca="false">$B$70+1</f>
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="J76" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,I76)</f>
         <v>-1</v>
       </c>
       <c r="K76" s="13" t="n">
-        <f aca="false">$B$70+1</f>
+        <f aca="false">$B$82+1</f>
         <v>43920</v>
       </c>
       <c r="L76" s="0"/>
@@ -2816,38 +2842,37 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C77" s="12" t="n">
-        <v>414</v>
+        <v>1660</v>
       </c>
       <c r="D77" s="1" t="n">
-        <v>541</v>
+        <v>3141</v>
       </c>
       <c r="E77" s="12" t="n">
-        <f aca="false">D77/83.784</f>
-        <v>6.457080110761</v>
+        <f aca="false">D77/331</f>
+        <v>9.48942598187311</v>
       </c>
       <c r="F77" s="12" t="n">
-        <v>108</v>
+        <v>573</v>
       </c>
       <c r="G77" s="13" t="n">
-        <v>43918</v>
+        <v>43917</v>
       </c>
       <c r="H77" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,G77)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I77" s="13" t="n">
-        <f aca="false">$B$70+1</f>
         <v>43920</v>
       </c>
       <c r="J77" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,I77)</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K77" s="13" t="n">
-        <f aca="false">$B$70+1</f>
+        <f aca="false">$B$82+1</f>
         <v>43920</v>
       </c>
       <c r="L77" s="0"/>
@@ -2859,38 +2884,38 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C78" s="12" t="n">
-        <v>50</v>
-      </c>
-      <c r="D78" s="12" t="n">
-        <v>110</v>
+        <v>414</v>
+      </c>
+      <c r="D78" s="1" t="n">
+        <v>645</v>
       </c>
       <c r="E78" s="12" t="n">
-        <f aca="false">D78/10.36</f>
-        <v>10.6177606177606</v>
+        <f aca="false">D78/83.784</f>
+        <v>7.69836723002005</v>
       </c>
       <c r="F78" s="12" t="n">
-        <v>5</v>
+        <v>104</v>
       </c>
       <c r="G78" s="13" t="n">
-        <v>43915</v>
+        <v>43918</v>
       </c>
       <c r="H78" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,G78)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I78" s="13" t="n">
         <f aca="false">$B$70+1</f>
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="J78" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,I78)</f>
         <v>-1</v>
       </c>
       <c r="K78" s="13" t="n">
-        <f aca="false">$B$70+1</f>
+        <f aca="false">$B$82+1</f>
         <v>43920</v>
       </c>
       <c r="L78" s="0"/>
@@ -2957,15 +2982,13 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="7" t="n">
-        <v>43918</v>
-      </c>
-      <c r="D82" s="8" t="s">
-        <v>6</v>
-      </c>
+        <v>43919</v>
+      </c>
+      <c r="D82" s="0"/>
       <c r="E82" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F82" s="8"/>
+      <c r="F82" s="0"/>
       <c r="G82" s="8" t="s">
         <v>29</v>
       </c>
@@ -2993,8 +3016,8 @@
       <c r="C83" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D83" s="10" t="s">
-        <v>2</v>
+      <c r="D83" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="E83" s="10" t="s">
         <v>35</v>
@@ -3032,32 +3055,32 @@
         <v>300</v>
       </c>
       <c r="D84" s="1" t="n">
-        <v>10023</v>
+        <v>10779</v>
       </c>
       <c r="E84" s="12" t="n">
         <f aca="false">D84/60.48</f>
-        <v>165.724206349206</v>
+        <v>178.224206349206</v>
       </c>
       <c r="F84" s="12" t="n">
-        <v>889</v>
+        <v>756</v>
       </c>
       <c r="G84" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H84" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,G84)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I84" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J84" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$94,I84)</f>
-        <v>15</v>
+        <f aca="false">_xlfn.DAYS($B$82,I84)</f>
+        <v>17</v>
       </c>
       <c r="K84" s="13" t="n">
         <f aca="false">$B$82+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="L84" s="0"/>
       <c r="M84" s="0"/>
@@ -3074,32 +3097,32 @@
         <v>230</v>
       </c>
       <c r="D85" s="1" t="n">
-        <v>5982</v>
+        <v>6803</v>
       </c>
       <c r="E85" s="12" t="n">
         <f aca="false">D85/46.75</f>
-        <v>127.957219251337</v>
+        <v>145.51871657754</v>
       </c>
       <c r="F85" s="12" t="n">
-        <v>844</v>
+        <v>821</v>
       </c>
       <c r="G85" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H85" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,G85)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I85" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J85" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$94,I85)</f>
-        <v>4</v>
+        <f aca="false">_xlfn.DAYS($B$82,I85)</f>
+        <v>6</v>
       </c>
       <c r="K85" s="13" t="n">
         <f aca="false">$B$82+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="L85" s="0"/>
       <c r="M85" s="0"/>
@@ -3116,32 +3139,32 @@
         <v>330</v>
       </c>
       <c r="D86" s="1" t="n">
-        <v>2314</v>
+        <v>2606</v>
       </c>
       <c r="E86" s="12" t="n">
         <f aca="false">D86/65.27</f>
-        <v>35.4527347939329</v>
+        <v>39.9264593228129</v>
       </c>
       <c r="F86" s="12" t="n">
-        <v>319</v>
+        <v>292</v>
       </c>
       <c r="G86" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H86" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,G86)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I86" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J86" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$94,I86)</f>
-        <v>3</v>
+        <f aca="false">_xlfn.DAYS($B$82,I86)</f>
+        <v>5</v>
       </c>
       <c r="K86" s="13" t="n">
         <f aca="false">$B$82+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="L86" s="0"/>
       <c r="M86" s="0"/>
@@ -3158,25 +3181,25 @@
         <v>1660</v>
       </c>
       <c r="D87" s="1" t="n">
-        <v>2221</v>
+        <v>2583</v>
       </c>
       <c r="E87" s="12" t="n">
         <f aca="false">D87/331</f>
-        <v>6.70996978851964</v>
+        <v>7.8036253776435</v>
       </c>
       <c r="F87" s="12" t="n">
-        <v>525</v>
+        <v>363</v>
       </c>
       <c r="G87" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H87" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,G87)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I87" s="13" t="n">
         <f aca="false">$B$82+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="J87" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,I87)</f>
@@ -3184,7 +3207,7 @@
       </c>
       <c r="K87" s="13" t="n">
         <f aca="false">$B$82+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="L87" s="0"/>
       <c r="M87" s="0"/>
@@ -3201,25 +3224,25 @@
         <v>330</v>
       </c>
       <c r="D88" s="1" t="n">
-        <v>1019</v>
+        <v>1228</v>
       </c>
       <c r="E88" s="12" t="n">
         <f aca="false">D88/67.79</f>
-        <v>15.0317155922702</v>
+        <v>18.1147661897035</v>
       </c>
       <c r="F88" s="12" t="n">
-        <v>260</v>
+        <v>209</v>
       </c>
       <c r="G88" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H88" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,G88)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I88" s="13" t="n">
         <f aca="false">$B$82+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="J88" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,I88)</f>
@@ -3227,7 +3250,7 @@
       </c>
       <c r="K88" s="13" t="n">
         <f aca="false">$B$82+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="L88" s="0"/>
       <c r="M88" s="0"/>
@@ -3244,25 +3267,25 @@
         <v>414</v>
       </c>
       <c r="D89" s="1" t="n">
-        <v>433</v>
+        <v>541</v>
       </c>
       <c r="E89" s="12" t="n">
         <f aca="false">D89/83.784</f>
-        <v>5.16805117922276</v>
+        <v>6.457080110761</v>
       </c>
       <c r="F89" s="12" t="n">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="G89" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H89" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,G89)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" s="13" t="n">
         <f aca="false">$B$82+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="J89" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,I89)</f>
@@ -3270,7 +3293,7 @@
       </c>
       <c r="K89" s="13" t="n">
         <f aca="false">$B$82+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="L89" s="0"/>
       <c r="M89" s="0"/>
@@ -3287,25 +3310,25 @@
         <v>50</v>
       </c>
       <c r="D90" s="12" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E90" s="12" t="n">
         <f aca="false">D90/10.36</f>
-        <v>10.1351351351351</v>
+        <v>10.6177606177606</v>
       </c>
       <c r="F90" s="12" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G90" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H90" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,G90)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I90" s="13" t="n">
         <f aca="false">$B$82+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="J90" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,I90)</f>
@@ -3313,7 +3336,7 @@
       </c>
       <c r="K90" s="13" t="n">
         <f aca="false">$B$82+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="L90" s="0"/>
       <c r="M90" s="0"/>
@@ -3323,15 +3346,16 @@
       <c r="Q90" s="0"/>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C91" s="12"/>
-      <c r="D91" s="12"/>
-      <c r="E91" s="12"/>
-      <c r="F91" s="12"/>
-      <c r="G91" s="13"/>
+      <c r="B91" s="4"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="0"/>
+      <c r="E91" s="0"/>
+      <c r="F91" s="0"/>
+      <c r="G91" s="0"/>
       <c r="H91" s="0"/>
-      <c r="I91" s="13"/>
+      <c r="I91" s="0"/>
       <c r="J91" s="0"/>
-      <c r="K91" s="13"/>
+      <c r="K91" s="0"/>
       <c r="L91" s="0"/>
       <c r="M91" s="0"/>
       <c r="N91" s="0"/>
@@ -3376,11 +3400,10 @@
       <c r="P93" s="0"/>
       <c r="Q93" s="0"/>
     </row>
-    <row r="94" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="7" t="n">
-        <v>43917</v>
-      </c>
-      <c r="C94" s="0"/>
+        <v>43918</v>
+      </c>
       <c r="D94" s="8" t="s">
         <v>6</v>
       </c>
@@ -3403,10 +3426,14 @@
       <c r="K94" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="L94" s="8"/>
+      <c r="L94" s="0"/>
+      <c r="M94" s="0"/>
+      <c r="N94" s="0"/>
+      <c r="O94" s="0"/>
+      <c r="P94" s="0"/>
+      <c r="Q94" s="0"/>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="3"/>
       <c r="B95" s="9"/>
       <c r="C95" s="10" t="s">
         <v>34</v>
@@ -3435,7 +3462,7 @@
       <c r="K95" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="L95" s="8"/>
+      <c r="L95" s="0"/>
       <c r="M95" s="0"/>
       <c r="N95" s="0"/>
       <c r="O95" s="0"/>
@@ -3450,32 +3477,32 @@
         <v>300</v>
       </c>
       <c r="D96" s="1" t="n">
-        <v>9134</v>
+        <v>10023</v>
       </c>
       <c r="E96" s="12" t="n">
         <f aca="false">D96/60.48</f>
-        <v>151.025132275132</v>
+        <v>165.724206349206</v>
       </c>
       <c r="F96" s="12" t="n">
-        <v>919</v>
+        <v>889</v>
       </c>
       <c r="G96" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H96" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,G96)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I96" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J96" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$94,I96)</f>
+        <f aca="false">_xlfn.DAYS(B$106,I96)</f>
         <v>15</v>
       </c>
       <c r="K96" s="13" t="n">
         <f aca="false">$B$94+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="L96" s="0"/>
       <c r="M96" s="0"/>
@@ -3492,32 +3519,32 @@
         <v>230</v>
       </c>
       <c r="D97" s="1" t="n">
-        <v>5138</v>
+        <v>5982</v>
       </c>
       <c r="E97" s="12" t="n">
         <f aca="false">D97/46.75</f>
-        <v>109.903743315508</v>
+        <v>127.957219251337</v>
       </c>
       <c r="F97" s="12" t="n">
-        <v>773</v>
+        <v>844</v>
       </c>
       <c r="G97" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H97" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,G97)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I97" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J97" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$94,I97)</f>
+        <f aca="false">_xlfn.DAYS(B$106,I97)</f>
         <v>4</v>
       </c>
       <c r="K97" s="13" t="n">
         <f aca="false">$B$94+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="L97" s="0"/>
       <c r="M97" s="0"/>
@@ -3534,32 +3561,32 @@
         <v>330</v>
       </c>
       <c r="D98" s="1" t="n">
-        <v>1995</v>
+        <v>2314</v>
       </c>
       <c r="E98" s="12" t="n">
         <f aca="false">D98/65.27</f>
-        <v>30.5653439558756</v>
+        <v>35.4527347939329</v>
       </c>
       <c r="F98" s="12" t="n">
-        <v>299</v>
+        <v>319</v>
       </c>
       <c r="G98" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H98" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,G98)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I98" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J98" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$94,I98)</f>
+        <f aca="false">_xlfn.DAYS(B$106,I98)</f>
         <v>3</v>
       </c>
       <c r="K98" s="13" t="n">
         <f aca="false">$B$94+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="L98" s="0"/>
       <c r="M98" s="0"/>
@@ -3576,34 +3603,33 @@
         <v>1660</v>
       </c>
       <c r="D99" s="1" t="n">
-        <v>1696</v>
+        <v>2221</v>
       </c>
       <c r="E99" s="12" t="n">
         <f aca="false">D99/331</f>
-        <v>5.12386706948641</v>
+        <v>6.70996978851964</v>
       </c>
       <c r="F99" s="12" t="n">
-        <v>400</v>
+        <v>525</v>
       </c>
       <c r="G99" s="13" t="n">
-        <f aca="false">$B$94</f>
         <v>43917</v>
       </c>
       <c r="H99" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,G99)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99" s="13" t="n">
         <f aca="false">$B$94+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="J99" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$94,I99)</f>
+        <f aca="false">_xlfn.DAYS($B$94,I99)</f>
         <v>-1</v>
       </c>
       <c r="K99" s="13" t="n">
         <f aca="false">$B$94+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="L99" s="0"/>
       <c r="M99" s="0"/>
@@ -3620,33 +3646,33 @@
         <v>330</v>
       </c>
       <c r="D100" s="1" t="n">
-        <v>759</v>
+        <v>1019</v>
       </c>
       <c r="E100" s="12" t="n">
         <f aca="false">D100/67.79</f>
-        <v>11.1963416433102</v>
+        <v>15.0317155922702</v>
       </c>
       <c r="F100" s="12" t="n">
-        <v>181</v>
+        <v>260</v>
       </c>
       <c r="G100" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H100" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,G100)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I100" s="13" t="n">
         <f aca="false">$B$94+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="J100" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$94,I100)</f>
+        <f aca="false">_xlfn.DAYS($B$94,I100)</f>
         <v>-1</v>
       </c>
       <c r="K100" s="13" t="n">
         <f aca="false">$B$94+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="L100" s="0"/>
       <c r="M100" s="0"/>
@@ -3663,34 +3689,33 @@
         <v>414</v>
       </c>
       <c r="D101" s="1" t="n">
-        <v>351</v>
+        <v>433</v>
       </c>
       <c r="E101" s="12" t="n">
         <f aca="false">D101/83.784</f>
-        <v>4.18934402749928</v>
+        <v>5.16805117922276</v>
       </c>
       <c r="F101" s="12" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G101" s="13" t="n">
-        <f aca="false">$B$94+1</f>
         <v>43918</v>
       </c>
       <c r="H101" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,G101)</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I101" s="13" t="n">
         <f aca="false">$B$94+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="J101" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$94,I101)</f>
+        <f aca="false">_xlfn.DAYS($B$94,I101)</f>
         <v>-1</v>
       </c>
       <c r="K101" s="13" t="n">
         <f aca="false">$B$94+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="L101" s="0"/>
       <c r="M101" s="0"/>
@@ -3714,26 +3739,26 @@
         <v>10.1351351351351</v>
       </c>
       <c r="F102" s="12" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="G102" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H102" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,G102)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I102" s="13" t="n">
         <f aca="false">$B$94+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="J102" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$94,I102)</f>
+        <f aca="false">_xlfn.DAYS($B$94,I102)</f>
         <v>-1</v>
       </c>
       <c r="K102" s="13" t="n">
         <f aca="false">$B$94+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="L102" s="0"/>
       <c r="M102" s="0"/>
@@ -3743,14 +3768,15 @@
       <c r="Q102" s="0"/>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D103" s="0"/>
-      <c r="E103" s="0"/>
-      <c r="F103" s="0"/>
-      <c r="G103" s="0"/>
+      <c r="C103" s="12"/>
+      <c r="D103" s="12"/>
+      <c r="E103" s="12"/>
+      <c r="F103" s="12"/>
+      <c r="G103" s="13"/>
       <c r="H103" s="0"/>
-      <c r="I103" s="0"/>
+      <c r="I103" s="13"/>
       <c r="J103" s="0"/>
-      <c r="K103" s="0"/>
+      <c r="K103" s="13"/>
       <c r="L103" s="0"/>
       <c r="M103" s="0"/>
       <c r="N103" s="0"/>
@@ -3759,6 +3785,8 @@
       <c r="Q103" s="0"/>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B104" s="4"/>
+      <c r="C104" s="5"/>
       <c r="D104" s="0"/>
       <c r="E104" s="0"/>
       <c r="F104" s="0"/>
@@ -3793,10 +3821,11 @@
       <c r="P105" s="0"/>
       <c r="Q105" s="0"/>
     </row>
-    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="7" t="n">
-        <v>43916</v>
-      </c>
+        <v>43917</v>
+      </c>
+      <c r="C106" s="0"/>
       <c r="D106" s="8" t="s">
         <v>6</v>
       </c>
@@ -3819,17 +3848,13 @@
       <c r="K106" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="L106" s="0"/>
-      <c r="M106" s="0"/>
-      <c r="N106" s="0"/>
-      <c r="O106" s="0"/>
-      <c r="P106" s="0"/>
-      <c r="Q106" s="0"/>
+      <c r="L106" s="8"/>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="3"/>
       <c r="B107" s="9"/>
       <c r="C107" s="10" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="D107" s="10" t="s">
         <v>2</v>
@@ -3855,7 +3880,7 @@
       <c r="K107" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="L107" s="0"/>
+      <c r="L107" s="8"/>
       <c r="M107" s="0"/>
       <c r="N107" s="0"/>
       <c r="O107" s="0"/>
@@ -3870,32 +3895,32 @@
         <v>300</v>
       </c>
       <c r="D108" s="1" t="n">
-        <v>8215</v>
+        <v>9134</v>
       </c>
       <c r="E108" s="12" t="n">
         <f aca="false">D108/60.48</f>
-        <v>135.830026455026</v>
+        <v>151.025132275132</v>
       </c>
       <c r="F108" s="12" t="n">
-        <v>712</v>
+        <v>919</v>
       </c>
       <c r="G108" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H108" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$106,G108)</f>
-        <v>16</v>
+        <f aca="false">_xlfn.DAYS($B$106,G108)</f>
+        <v>17</v>
       </c>
       <c r="I108" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J108" s="1" t="n">
         <f aca="false">_xlfn.DAYS(B$106,I108)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K108" s="13" t="n">
-        <f aca="false">B$106+1</f>
-        <v>43917</v>
+        <f aca="false">$B$106+1</f>
+        <v>43918</v>
       </c>
       <c r="L108" s="0"/>
       <c r="M108" s="0"/>
@@ -3912,32 +3937,32 @@
         <v>230</v>
       </c>
       <c r="D109" s="1" t="n">
-        <v>4365</v>
+        <v>5138</v>
       </c>
       <c r="E109" s="12" t="n">
         <f aca="false">D109/46.75</f>
-        <v>93.3689839572193</v>
+        <v>109.903743315508</v>
       </c>
       <c r="F109" s="12" t="n">
-        <v>718</v>
+        <v>773</v>
       </c>
       <c r="G109" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H109" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$106,G109)</f>
-        <v>9</v>
+        <f aca="false">_xlfn.DAYS($B$106,G109)</f>
+        <v>10</v>
       </c>
       <c r="I109" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J109" s="1" t="n">
         <f aca="false">_xlfn.DAYS(B$106,I109)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K109" s="13" t="n">
-        <f aca="false">B$106+1</f>
-        <v>43917</v>
+        <f aca="false">$B$106+1</f>
+        <v>43918</v>
       </c>
       <c r="L109" s="0"/>
       <c r="M109" s="0"/>
@@ -3954,32 +3979,32 @@
         <v>330</v>
       </c>
       <c r="D110" s="1" t="n">
-        <v>1696</v>
+        <v>1995</v>
       </c>
       <c r="E110" s="12" t="n">
         <f aca="false">D110/65.27</f>
-        <v>25.9843726060978</v>
+        <v>30.5653439558756</v>
       </c>
       <c r="F110" s="12" t="n">
-        <v>365</v>
+        <v>299</v>
       </c>
       <c r="G110" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H110" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$106,G110)</f>
-        <v>4</v>
+        <f aca="false">_xlfn.DAYS($B$106,G110)</f>
+        <v>5</v>
       </c>
       <c r="I110" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J110" s="1" t="n">
         <f aca="false">_xlfn.DAYS(B$106,I110)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K110" s="13" t="n">
-        <f aca="false">B$106+1</f>
-        <v>43917</v>
+        <f aca="false">$B$106+1</f>
+        <v>43918</v>
       </c>
       <c r="L110" s="0"/>
       <c r="M110" s="0"/>
@@ -3996,33 +4021,34 @@
         <v>1660</v>
       </c>
       <c r="D111" s="1" t="n">
-        <v>1295</v>
+        <v>1696</v>
       </c>
       <c r="E111" s="12" t="n">
         <f aca="false">D111/331</f>
-        <v>3.91238670694864</v>
+        <v>5.12386706948641</v>
       </c>
       <c r="F111" s="12" t="n">
-        <v>268</v>
+        <v>400</v>
       </c>
       <c r="G111" s="13" t="n">
+        <f aca="false">$B$106</f>
         <v>43917</v>
       </c>
       <c r="H111" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$106,G111)</f>
+        <f aca="false">_xlfn.DAYS($B$106,G111)</f>
+        <v>0</v>
+      </c>
+      <c r="I111" s="13" t="n">
+        <f aca="false">$B$106+1</f>
+        <v>43918</v>
+      </c>
+      <c r="J111" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$106,I111)</f>
         <v>-1</v>
       </c>
-      <c r="I111" s="13" t="n">
-        <f aca="false">B$106+1</f>
-        <v>43917</v>
-      </c>
-      <c r="J111" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$106,I111)</f>
-        <v>-1</v>
-      </c>
       <c r="K111" s="13" t="n">
-        <f aca="false">B$106+1</f>
-        <v>43917</v>
+        <f aca="false">$B$106+1</f>
+        <v>43918</v>
       </c>
       <c r="L111" s="0"/>
       <c r="M111" s="0"/>
@@ -4039,33 +4065,33 @@
         <v>330</v>
       </c>
       <c r="D112" s="1" t="n">
-        <v>578</v>
+        <v>759</v>
       </c>
       <c r="E112" s="12" t="n">
         <f aca="false">D112/67.79</f>
-        <v>8.52633131730344</v>
+        <v>11.1963416433102</v>
       </c>
       <c r="F112" s="12" t="n">
-        <v>115</v>
+        <v>181</v>
       </c>
       <c r="G112" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H112" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$106,G112)</f>
-        <v>0</v>
+        <f aca="false">_xlfn.DAYS($B$106,G112)</f>
+        <v>1</v>
       </c>
       <c r="I112" s="13" t="n">
-        <f aca="false">B$106+1</f>
-        <v>43917</v>
+        <f aca="false">$B$106+1</f>
+        <v>43918</v>
       </c>
       <c r="J112" s="1" t="n">
         <f aca="false">_xlfn.DAYS(B$106,I112)</f>
         <v>-1</v>
       </c>
       <c r="K112" s="13" t="n">
-        <f aca="false">B$106+1</f>
-        <v>43917</v>
+        <f aca="false">$B$106+1</f>
+        <v>43918</v>
       </c>
       <c r="L112" s="0"/>
       <c r="M112" s="0"/>
@@ -4082,33 +4108,34 @@
         <v>414</v>
       </c>
       <c r="D113" s="1" t="n">
-        <v>267</v>
+        <v>351</v>
       </c>
       <c r="E113" s="12" t="n">
         <f aca="false">D113/83.784</f>
-        <v>3.18676596963621</v>
+        <v>4.18934402749928</v>
       </c>
       <c r="F113" s="12" t="n">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="G113" s="13" t="n">
-        <v>43917</v>
+        <f aca="false">$B$106+1</f>
+        <v>43918</v>
       </c>
       <c r="H113" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$106,G113)</f>
+        <f aca="false">_xlfn.DAYS($B$106,G113)</f>
         <v>-1</v>
       </c>
       <c r="I113" s="13" t="n">
-        <f aca="false">B$106+1</f>
-        <v>43917</v>
+        <f aca="false">$B$106+1</f>
+        <v>43918</v>
       </c>
       <c r="J113" s="1" t="n">
         <f aca="false">_xlfn.DAYS(B$106,I113)</f>
         <v>-1</v>
       </c>
       <c r="K113" s="13" t="n">
-        <f aca="false">B$106+1</f>
-        <v>43917</v>
+        <f aca="false">$B$106+1</f>
+        <v>43918</v>
       </c>
       <c r="L113" s="0"/>
       <c r="M113" s="0"/>
@@ -4125,33 +4152,33 @@
         <v>50</v>
       </c>
       <c r="D114" s="12" t="n">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="E114" s="12" t="n">
         <f aca="false">D114/10.36</f>
-        <v>7.43243243243243</v>
+        <v>10.1351351351351</v>
       </c>
       <c r="F114" s="12" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="G114" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H114" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$106,G114)</f>
-        <v>1</v>
+        <f aca="false">_xlfn.DAYS($B$106,G114)</f>
+        <v>2</v>
       </c>
       <c r="I114" s="13" t="n">
-        <f aca="false">B$106+1</f>
-        <v>43917</v>
+        <f aca="false">$B$106+1</f>
+        <v>43918</v>
       </c>
       <c r="J114" s="1" t="n">
         <f aca="false">_xlfn.DAYS(B$106,I114)</f>
         <v>-1</v>
       </c>
       <c r="K114" s="13" t="n">
-        <f aca="false">B$106+1</f>
-        <v>43917</v>
+        <f aca="false">$B$106+1</f>
+        <v>43918</v>
       </c>
       <c r="L114" s="0"/>
       <c r="M114" s="0"/>
@@ -4159,6 +4186,424 @@
       <c r="O114" s="0"/>
       <c r="P114" s="0"/>
       <c r="Q114" s="0"/>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D115" s="0"/>
+      <c r="E115" s="0"/>
+      <c r="F115" s="0"/>
+      <c r="G115" s="0"/>
+      <c r="H115" s="0"/>
+      <c r="I115" s="0"/>
+      <c r="J115" s="0"/>
+      <c r="K115" s="0"/>
+      <c r="L115" s="0"/>
+      <c r="M115" s="0"/>
+      <c r="N115" s="0"/>
+      <c r="O115" s="0"/>
+      <c r="P115" s="0"/>
+      <c r="Q115" s="0"/>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D116" s="0"/>
+      <c r="E116" s="0"/>
+      <c r="F116" s="0"/>
+      <c r="G116" s="0"/>
+      <c r="H116" s="0"/>
+      <c r="I116" s="0"/>
+      <c r="J116" s="0"/>
+      <c r="K116" s="0"/>
+      <c r="L116" s="0"/>
+      <c r="M116" s="0"/>
+      <c r="N116" s="0"/>
+      <c r="O116" s="0"/>
+      <c r="P116" s="0"/>
+      <c r="Q116" s="0"/>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B117" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D117" s="0"/>
+      <c r="E117" s="0"/>
+      <c r="F117" s="0"/>
+      <c r="G117" s="0"/>
+      <c r="H117" s="0"/>
+      <c r="I117" s="0"/>
+      <c r="J117" s="0"/>
+      <c r="K117" s="0"/>
+      <c r="L117" s="0"/>
+      <c r="M117" s="0"/>
+      <c r="N117" s="0"/>
+      <c r="O117" s="0"/>
+      <c r="P117" s="0"/>
+      <c r="Q117" s="0"/>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B118" s="7" t="n">
+        <v>43916</v>
+      </c>
+      <c r="D118" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E118" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H118" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I118" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J118" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K118" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L118" s="0"/>
+      <c r="M118" s="0"/>
+      <c r="N118" s="0"/>
+      <c r="O118" s="0"/>
+      <c r="P118" s="0"/>
+      <c r="Q118" s="0"/>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B119" s="9"/>
+      <c r="C119" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D119" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E119" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F119" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G119" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H119" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I119" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="J119" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="K119" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L119" s="0"/>
+      <c r="M119" s="0"/>
+      <c r="N119" s="0"/>
+      <c r="O119" s="0"/>
+      <c r="P119" s="0"/>
+      <c r="Q119" s="0"/>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B120" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C120" s="12" t="n">
+        <v>300</v>
+      </c>
+      <c r="D120" s="1" t="n">
+        <v>8215</v>
+      </c>
+      <c r="E120" s="12" t="n">
+        <f aca="false">D120/60.48</f>
+        <v>135.830026455026</v>
+      </c>
+      <c r="F120" s="12" t="n">
+        <v>712</v>
+      </c>
+      <c r="G120" s="13" t="n">
+        <v>43900</v>
+      </c>
+      <c r="H120" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$118,G120)</f>
+        <v>16</v>
+      </c>
+      <c r="I120" s="13" t="n">
+        <v>43902</v>
+      </c>
+      <c r="J120" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$118,I120)</f>
+        <v>14</v>
+      </c>
+      <c r="K120" s="13" t="n">
+        <f aca="false">B$118+1</f>
+        <v>43917</v>
+      </c>
+      <c r="L120" s="0"/>
+      <c r="M120" s="0"/>
+      <c r="N120" s="0"/>
+      <c r="O120" s="0"/>
+      <c r="P120" s="0"/>
+      <c r="Q120" s="0"/>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B121" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C121" s="12" t="n">
+        <v>230</v>
+      </c>
+      <c r="D121" s="1" t="n">
+        <v>4365</v>
+      </c>
+      <c r="E121" s="12" t="n">
+        <f aca="false">D121/46.75</f>
+        <v>93.3689839572193</v>
+      </c>
+      <c r="F121" s="12" t="n">
+        <v>718</v>
+      </c>
+      <c r="G121" s="13" t="n">
+        <v>43907</v>
+      </c>
+      <c r="H121" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$118,G121)</f>
+        <v>9</v>
+      </c>
+      <c r="I121" s="13" t="n">
+        <v>43913</v>
+      </c>
+      <c r="J121" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$118,I121)</f>
+        <v>3</v>
+      </c>
+      <c r="K121" s="13" t="n">
+        <f aca="false">B$118+1</f>
+        <v>43917</v>
+      </c>
+      <c r="L121" s="0"/>
+      <c r="M121" s="0"/>
+      <c r="N121" s="0"/>
+      <c r="O121" s="0"/>
+      <c r="P121" s="0"/>
+      <c r="Q121" s="0"/>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B122" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C122" s="12" t="n">
+        <v>330</v>
+      </c>
+      <c r="D122" s="1" t="n">
+        <v>1696</v>
+      </c>
+      <c r="E122" s="12" t="n">
+        <f aca="false">D122/65.27</f>
+        <v>25.9843726060978</v>
+      </c>
+      <c r="F122" s="12" t="n">
+        <v>365</v>
+      </c>
+      <c r="G122" s="13" t="n">
+        <v>43912</v>
+      </c>
+      <c r="H122" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$118,G122)</f>
+        <v>4</v>
+      </c>
+      <c r="I122" s="13" t="n">
+        <v>43914</v>
+      </c>
+      <c r="J122" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$118,I122)</f>
+        <v>2</v>
+      </c>
+      <c r="K122" s="13" t="n">
+        <f aca="false">B$118+1</f>
+        <v>43917</v>
+      </c>
+      <c r="L122" s="0"/>
+      <c r="M122" s="0"/>
+      <c r="N122" s="0"/>
+      <c r="O122" s="0"/>
+      <c r="P122" s="0"/>
+      <c r="Q122" s="0"/>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B123" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C123" s="12" t="n">
+        <v>1660</v>
+      </c>
+      <c r="D123" s="1" t="n">
+        <v>1295</v>
+      </c>
+      <c r="E123" s="12" t="n">
+        <f aca="false">D123/331</f>
+        <v>3.91238670694864</v>
+      </c>
+      <c r="F123" s="12" t="n">
+        <v>268</v>
+      </c>
+      <c r="G123" s="13" t="n">
+        <v>43917</v>
+      </c>
+      <c r="H123" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$118,G123)</f>
+        <v>-1</v>
+      </c>
+      <c r="I123" s="13" t="n">
+        <f aca="false">B$118+1</f>
+        <v>43917</v>
+      </c>
+      <c r="J123" s="1" t="n">
+        <f aca="false">_xlfn.DAYS($B$118,I123)</f>
+        <v>-1</v>
+      </c>
+      <c r="K123" s="13" t="n">
+        <f aca="false">B$118+1</f>
+        <v>43917</v>
+      </c>
+      <c r="L123" s="0"/>
+      <c r="M123" s="0"/>
+      <c r="N123" s="0"/>
+      <c r="O123" s="0"/>
+      <c r="P123" s="0"/>
+      <c r="Q123" s="0"/>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B124" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C124" s="12" t="n">
+        <v>330</v>
+      </c>
+      <c r="D124" s="1" t="n">
+        <v>578</v>
+      </c>
+      <c r="E124" s="12" t="n">
+        <f aca="false">D124/67.79</f>
+        <v>8.52633131730344</v>
+      </c>
+      <c r="F124" s="12" t="n">
+        <v>115</v>
+      </c>
+      <c r="G124" s="13" t="n">
+        <v>43916</v>
+      </c>
+      <c r="H124" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$118,G124)</f>
+        <v>0</v>
+      </c>
+      <c r="I124" s="13" t="n">
+        <f aca="false">B$118+1</f>
+        <v>43917</v>
+      </c>
+      <c r="J124" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$118,I124)</f>
+        <v>-1</v>
+      </c>
+      <c r="K124" s="13" t="n">
+        <f aca="false">B$118+1</f>
+        <v>43917</v>
+      </c>
+      <c r="L124" s="0"/>
+      <c r="M124" s="0"/>
+      <c r="N124" s="0"/>
+      <c r="O124" s="0"/>
+      <c r="P124" s="0"/>
+      <c r="Q124" s="0"/>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B125" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C125" s="12" t="n">
+        <v>414</v>
+      </c>
+      <c r="D125" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="E125" s="12" t="n">
+        <f aca="false">D125/83.784</f>
+        <v>3.18676596963621</v>
+      </c>
+      <c r="F125" s="12" t="n">
+        <v>61</v>
+      </c>
+      <c r="G125" s="13" t="n">
+        <v>43917</v>
+      </c>
+      <c r="H125" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$118,G125)</f>
+        <v>-1</v>
+      </c>
+      <c r="I125" s="13" t="n">
+        <f aca="false">B$118+1</f>
+        <v>43917</v>
+      </c>
+      <c r="J125" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$118,I125)</f>
+        <v>-1</v>
+      </c>
+      <c r="K125" s="13" t="n">
+        <f aca="false">B$118+1</f>
+        <v>43917</v>
+      </c>
+      <c r="L125" s="0"/>
+      <c r="M125" s="0"/>
+      <c r="N125" s="0"/>
+      <c r="O125" s="0"/>
+      <c r="P125" s="0"/>
+      <c r="Q125" s="0"/>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B126" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C126" s="12" t="n">
+        <v>50</v>
+      </c>
+      <c r="D126" s="12" t="n">
+        <v>77</v>
+      </c>
+      <c r="E126" s="12" t="n">
+        <f aca="false">D126/10.36</f>
+        <v>7.43243243243243</v>
+      </c>
+      <c r="F126" s="12" t="n">
+        <v>15</v>
+      </c>
+      <c r="G126" s="13" t="n">
+        <v>43915</v>
+      </c>
+      <c r="H126" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$118,G126)</f>
+        <v>1</v>
+      </c>
+      <c r="I126" s="13" t="n">
+        <f aca="false">B$118+1</f>
+        <v>43917</v>
+      </c>
+      <c r="J126" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$118,I126)</f>
+        <v>-1</v>
+      </c>
+      <c r="K126" s="13" t="n">
+        <f aca="false">B$118+1</f>
+        <v>43917</v>
+      </c>
+      <c r="L126" s="0"/>
+      <c r="M126" s="0"/>
+      <c r="N126" s="0"/>
+      <c r="O126" s="0"/>
+      <c r="P126" s="0"/>
+      <c r="Q126" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/covid19 lockdown evaluation .xlsx
+++ b/covid19 lockdown evaluation .xlsx
@@ -15,12 +15,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="53">
   <si>
     <t>Effects of the lockdown issued by governments</t>
   </si>
   <si>
+    <t>notes:</t>
+  </si>
+  <si>
+    <t>0n Apr, 5th, data for USA changed: malues for 2, 3 was:  6071, 7232 – they becomes:  6076, 7121</t>
+  </si>
+  <si>
+    <t>6071, </t>
+  </si>
+  <si>
     <t>LEGENDA</t>
+  </si>
+  <si>
+    <t>- - - -&gt;  death todays was 969, 1321 - now: 974, 1045</t>
   </si>
   <si>
     <t>today</t>
@@ -267,7 +279,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -324,6 +336,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -341,9 +357,9 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q126"/>
+  <dimension ref="A1:Q138"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F31" activeCellId="0" sqref="F31"/>
     </sheetView>
   </sheetViews>
@@ -398,19 +414,25 @@
       <c r="F3" s="0"/>
       <c r="G3" s="0"/>
       <c r="H3" s="0"/>
-      <c r="I3" s="0"/>
-      <c r="J3" s="0"/>
+      <c r="I3" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>2</v>
+      </c>
       <c r="K3" s="0"/>
       <c r="L3" s="0"/>
       <c r="M3" s="0"/>
-      <c r="N3" s="0"/>
+      <c r="N3" s="0" t="s">
+        <v>3</v>
+      </c>
       <c r="O3" s="0"/>
       <c r="P3" s="0"/>
       <c r="Q3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="3" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D4" s="0"/>
       <c r="E4" s="0"/>
@@ -418,7 +440,9 @@
       <c r="G4" s="0"/>
       <c r="H4" s="0"/>
       <c r="I4" s="0"/>
-      <c r="J4" s="0"/>
+      <c r="J4" s="0" t="s">
+        <v>5</v>
+      </c>
       <c r="K4" s="0"/>
       <c r="L4" s="0"/>
       <c r="M4" s="0"/>
@@ -429,10 +453,10 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="4" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D5" s="0"/>
       <c r="E5" s="0"/>
@@ -451,10 +475,10 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D6" s="0"/>
       <c r="E6" s="0"/>
@@ -473,10 +497,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D7" s="0"/>
       <c r="E7" s="0"/>
@@ -495,10 +519,10 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D8" s="0"/>
       <c r="E8" s="0"/>
@@ -517,10 +541,10 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D9" s="0"/>
       <c r="E9" s="0"/>
@@ -539,10 +563,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D10" s="0"/>
       <c r="E10" s="0"/>
@@ -561,10 +585,10 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D11" s="0"/>
       <c r="E11" s="0"/>
@@ -583,10 +607,10 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D12" s="0"/>
       <c r="E12" s="0"/>
@@ -605,10 +629,10 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D13" s="0"/>
       <c r="E13" s="0"/>
@@ -627,10 +651,10 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D14" s="0"/>
       <c r="E14" s="0"/>
@@ -649,10 +673,10 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D15" s="0"/>
       <c r="E15" s="0"/>
@@ -688,10 +712,10 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D17" s="0"/>
       <c r="E17" s="0"/>
@@ -711,7 +735,7 @@
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="4"/>
       <c r="C18" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D18" s="0"/>
       <c r="E18" s="0"/>
@@ -766,7 +790,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="6" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D21" s="0"/>
       <c r="E21" s="0"/>
@@ -785,30 +809,30 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="7" t="n">
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="D22" s="0"/>
       <c r="E22" s="8" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F22" s="0"/>
       <c r="G22" s="8" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M22" s="0"/>
       <c r="N22" s="0"/>
@@ -819,34 +843,34 @@
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="9"/>
       <c r="C23" s="10" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M23" s="0"/>
       <c r="N23" s="0"/>
@@ -856,42 +880,42 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C24" s="12" t="n">
         <v>300</v>
       </c>
       <c r="D24" s="1" t="n">
-        <v>14681</v>
+        <v>15362</v>
       </c>
       <c r="E24" s="12" t="n">
         <f aca="false">D24/60.48</f>
-        <v>242.741402116402</v>
+        <v>254.001322751323</v>
       </c>
       <c r="F24" s="12" t="n">
-        <v>766</v>
+        <v>681</v>
       </c>
       <c r="G24" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H24" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,G24)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I24" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J24" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,I24)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K24" s="13" t="n">
         <f aca="false">$B$22+1</f>
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="L24" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K24,G24)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M24" s="0"/>
       <c r="N24" s="0"/>
@@ -901,42 +925,42 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C25" s="12" t="n">
         <v>230</v>
       </c>
       <c r="D25" s="1" t="n">
-        <v>11198</v>
+        <v>11947</v>
       </c>
       <c r="E25" s="12" t="n">
         <f aca="false">D25/46.75</f>
-        <v>239.529411764706</v>
+        <v>255.550802139037</v>
       </c>
       <c r="F25" s="12" t="n">
-        <v>850</v>
+        <v>749</v>
       </c>
       <c r="G25" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H25" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$34,G25)</f>
-        <v>16</v>
+        <f aca="false">_xlfn.DAYS($B$22,G25)</f>
+        <v>18</v>
       </c>
       <c r="I25" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J25" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,I25)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K25" s="13" t="n">
         <f aca="false">$B$22+1</f>
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="L25" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K25,G25)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M25" s="0"/>
       <c r="N25" s="0"/>
@@ -946,42 +970,42 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C26" s="12" t="n">
         <v>330</v>
       </c>
       <c r="D26" s="1" t="n">
-        <v>6507</v>
+        <v>7560</v>
       </c>
       <c r="E26" s="12" t="n">
         <f aca="false">D26/65.27</f>
-        <v>99.6935805117206</v>
+        <v>115.826566569634</v>
       </c>
       <c r="F26" s="12" t="n">
-        <v>1120</v>
+        <v>1053</v>
       </c>
       <c r="G26" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H26" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$34,G26)</f>
-        <v>11</v>
+        <f aca="false">_xlfn.DAYS($B$22,G26)</f>
+        <v>13</v>
       </c>
       <c r="I26" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J26" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,I26)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K26" s="13" t="n">
         <f aca="false">$B$22+1</f>
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="L26" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K26,G26)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M26" s="0"/>
       <c r="N26" s="0"/>
@@ -991,43 +1015,43 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C27" s="12" t="n">
         <v>50</v>
       </c>
       <c r="D27" s="12" t="n">
-        <v>358</v>
+        <v>373</v>
       </c>
       <c r="E27" s="12" t="n">
         <f aca="false">D27/10.36</f>
-        <v>34.5559845559846</v>
+        <v>36.003861003861</v>
       </c>
       <c r="F27" s="12" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="G27" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H27" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$34,G27)</f>
-        <v>8</v>
+        <f aca="false">_xlfn.DAYS($B$22,G27)</f>
+        <v>10</v>
       </c>
       <c r="I27" s="13" t="n">
         <f aca="false">$B$22+1</f>
-        <v>43925</v>
-      </c>
-      <c r="J27" s="1" t="n">
+        <v>43926</v>
+      </c>
+      <c r="J27" s="14" t="n">
         <f aca="false">_xlfn.DAYS($B$22,I27)</f>
         <v>-1</v>
       </c>
       <c r="K27" s="13" t="n">
         <f aca="false">$B$22+1</f>
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="L27" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K27,G27)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M27" s="0"/>
       <c r="N27" s="0"/>
@@ -1037,43 +1061,43 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C28" s="12" t="n">
         <v>330</v>
       </c>
       <c r="D28" s="1" t="n">
-        <v>3605</v>
+        <v>4313</v>
       </c>
       <c r="E28" s="12" t="n">
         <f aca="false">D28/67.79</f>
-        <v>53.1789349461573</v>
+        <v>63.6229532379407</v>
       </c>
       <c r="F28" s="12" t="n">
-        <v>684</v>
+        <v>708</v>
       </c>
       <c r="G28" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H28" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$34,G28)</f>
-        <v>7</v>
+        <f aca="false">_xlfn.DAYS($B$22,G28)</f>
+        <v>9</v>
       </c>
       <c r="I28" s="13" t="n">
         <f aca="false">$B$22+1</f>
-        <v>43925</v>
-      </c>
-      <c r="J28" s="1" t="n">
+        <v>43926</v>
+      </c>
+      <c r="J28" s="14" t="n">
         <f aca="false">_xlfn.DAYS($B$22,I28)</f>
         <v>-1</v>
       </c>
       <c r="K28" s="13" t="n">
         <f aca="false">$B$22+1</f>
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="L28" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K28,G28)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M28" s="0"/>
       <c r="N28" s="0"/>
@@ -1083,43 +1107,43 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C29" s="12" t="n">
         <v>1660</v>
       </c>
       <c r="D29" s="1" t="n">
-        <v>7392</v>
+        <v>8452</v>
       </c>
       <c r="E29" s="12" t="n">
         <f aca="false">D29/331</f>
-        <v>22.3323262839879</v>
+        <v>25.5347432024169</v>
       </c>
       <c r="F29" s="12" t="n">
-        <v>1321</v>
+        <v>1331</v>
       </c>
       <c r="G29" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H29" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$34,G29)</f>
-        <v>6</v>
+        <f aca="false">_xlfn.DAYS($B$22,G29)</f>
+        <v>8</v>
       </c>
       <c r="I29" s="13" t="n">
         <f aca="false">$B$22+1</f>
-        <v>43925</v>
-      </c>
-      <c r="J29" s="1" t="n">
+        <v>43926</v>
+      </c>
+      <c r="J29" s="14" t="n">
         <f aca="false">_xlfn.DAYS($B$22,I29)</f>
         <v>-1</v>
       </c>
       <c r="K29" s="13" t="n">
         <f aca="false">$B$22+1</f>
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="L29" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K29,G29)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M29" s="0"/>
       <c r="N29" s="0"/>
@@ -1129,43 +1153,43 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C30" s="12" t="n">
         <v>414</v>
       </c>
       <c r="D30" s="1" t="n">
-        <v>1275</v>
+        <v>1444</v>
       </c>
       <c r="E30" s="12" t="n">
         <f aca="false">D30/83.784</f>
-        <v>15.2177026639931</v>
+        <v>17.2347942327891</v>
       </c>
       <c r="F30" s="12" t="n">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G30" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H30" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$34,G30)</f>
-        <v>5</v>
+        <f aca="false">_xlfn.DAYS($B$22,G30)</f>
+        <v>7</v>
       </c>
       <c r="I30" s="13" t="n">
         <f aca="false">$B$22+1</f>
-        <v>43925</v>
-      </c>
-      <c r="J30" s="1" t="n">
+        <v>43926</v>
+      </c>
+      <c r="J30" s="14" t="n">
         <f aca="false">_xlfn.DAYS($B$22,I30)</f>
         <v>-1</v>
       </c>
       <c r="K30" s="13" t="n">
         <f aca="false">$B$22+1</f>
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="L30" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K30,G30)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M30" s="0"/>
       <c r="N30" s="0"/>
@@ -1211,7 +1235,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="6" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D33" s="0"/>
       <c r="E33" s="0"/>
@@ -1230,30 +1254,30 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="7" t="n">
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="D34" s="0"/>
       <c r="E34" s="8" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F34" s="0"/>
       <c r="G34" s="8" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J34" s="8" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K34" s="8" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="L34" s="8" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M34" s="0"/>
       <c r="N34" s="0"/>
@@ -1264,34 +1288,34 @@
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="9"/>
       <c r="C35" s="10" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I35" s="11" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J35" s="8" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K35" s="8" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="L35" s="8" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M35" s="0"/>
       <c r="N35" s="0"/>
@@ -1301,42 +1325,42 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C36" s="12" t="n">
         <v>300</v>
       </c>
       <c r="D36" s="1" t="n">
-        <v>13915</v>
+        <v>14681</v>
       </c>
       <c r="E36" s="12" t="n">
         <f aca="false">D36/60.48</f>
-        <v>230.076058201058</v>
+        <v>242.741402116402</v>
       </c>
       <c r="F36" s="12" t="n">
-        <v>760</v>
+        <v>766</v>
       </c>
       <c r="G36" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H36" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,G36)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I36" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J36" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,I36)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K36" s="13" t="n">
         <f aca="false">$B$34+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="L36" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K36,G36)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M36" s="0"/>
       <c r="N36" s="0"/>
@@ -1346,26 +1370,26 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C37" s="12" t="n">
         <v>230</v>
       </c>
       <c r="D37" s="1" t="n">
-        <v>10348</v>
+        <v>11198</v>
       </c>
       <c r="E37" s="12" t="n">
         <f aca="false">D37/46.75</f>
-        <v>221.347593582888</v>
+        <v>239.529411764706</v>
       </c>
       <c r="F37" s="12" t="n">
-        <v>961</v>
+        <v>850</v>
       </c>
       <c r="G37" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H37" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$34,G37)</f>
+        <f aca="false">_xlfn.DAYS($B$46,G37)</f>
         <v>16</v>
       </c>
       <c r="I37" s="13" t="n">
@@ -1373,15 +1397,15 @@
       </c>
       <c r="J37" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,I37)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K37" s="13" t="n">
         <f aca="false">$B$34+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="L37" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K37,G37)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M37" s="0"/>
       <c r="N37" s="0"/>
@@ -1391,26 +1415,26 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C38" s="12" t="n">
         <v>330</v>
       </c>
       <c r="D38" s="1" t="n">
-        <v>5387</v>
+        <v>6507</v>
       </c>
       <c r="E38" s="12" t="n">
         <f aca="false">D38/65.27</f>
-        <v>82.5340891680711</v>
+        <v>99.6935805117206</v>
       </c>
       <c r="F38" s="12" t="n">
-        <v>1355</v>
+        <v>1120</v>
       </c>
       <c r="G38" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H38" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$34,G38)</f>
+        <f aca="false">_xlfn.DAYS($B$46,G38)</f>
         <v>11</v>
       </c>
       <c r="I38" s="13" t="n">
@@ -1418,15 +1442,15 @@
       </c>
       <c r="J38" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,I38)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K38" s="13" t="n">
         <f aca="false">$B$34+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="L38" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K38,G38)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M38" s="0"/>
       <c r="N38" s="0"/>
@@ -1436,31 +1460,31 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C39" s="12" t="n">
         <v>50</v>
       </c>
       <c r="D39" s="12" t="n">
-        <v>308</v>
+        <v>358</v>
       </c>
       <c r="E39" s="12" t="n">
         <f aca="false">D39/10.36</f>
-        <v>29.7297297297297</v>
+        <v>34.5559845559846</v>
       </c>
       <c r="F39" s="12" t="n">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="G39" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H39" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$34,G39)</f>
+        <f aca="false">_xlfn.DAYS($B$46,G39)</f>
         <v>8</v>
       </c>
       <c r="I39" s="13" t="n">
         <f aca="false">$B$34+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="J39" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,I39)</f>
@@ -1468,11 +1492,11 @@
       </c>
       <c r="K39" s="13" t="n">
         <f aca="false">$B$34+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="L39" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K39,G39)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M39" s="0"/>
       <c r="N39" s="0"/>
@@ -1482,31 +1506,31 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C40" s="12" t="n">
         <v>330</v>
       </c>
       <c r="D40" s="1" t="n">
-        <v>2921</v>
+        <v>3605</v>
       </c>
       <c r="E40" s="12" t="n">
         <f aca="false">D40/67.79</f>
-        <v>43.0889511727393</v>
+        <v>53.1789349461573</v>
       </c>
       <c r="F40" s="12" t="n">
-        <v>569</v>
+        <v>684</v>
       </c>
       <c r="G40" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H40" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$34,G40)</f>
+        <f aca="false">_xlfn.DAYS($B$46,G40)</f>
         <v>7</v>
       </c>
       <c r="I40" s="13" t="n">
         <f aca="false">$B$34+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="J40" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,I40)</f>
@@ -1514,11 +1538,11 @@
       </c>
       <c r="K40" s="13" t="n">
         <f aca="false">$B$34+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="L40" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K40,G40)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M40" s="0"/>
       <c r="N40" s="0"/>
@@ -1528,31 +1552,31 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C41" s="12" t="n">
         <v>1660</v>
       </c>
       <c r="D41" s="1" t="n">
-        <v>6071</v>
+        <v>7121</v>
       </c>
       <c r="E41" s="12" t="n">
         <f aca="false">D41/331</f>
-        <v>18.3413897280967</v>
+        <v>21.5135951661631</v>
       </c>
       <c r="F41" s="12" t="n">
-        <v>969</v>
+        <v>1045</v>
       </c>
       <c r="G41" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H41" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$34,G41)</f>
+        <f aca="false">_xlfn.DAYS($B$46,G41)</f>
         <v>6</v>
       </c>
       <c r="I41" s="13" t="n">
         <f aca="false">$B$34+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="J41" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,I41)</f>
@@ -1560,11 +1584,11 @@
       </c>
       <c r="K41" s="13" t="n">
         <f aca="false">$B$34+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="L41" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K41,G41)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M41" s="0"/>
       <c r="N41" s="0"/>
@@ -1574,31 +1598,31 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C42" s="12" t="n">
         <v>414</v>
       </c>
       <c r="D42" s="1" t="n">
-        <v>1107</v>
+        <v>1275</v>
       </c>
       <c r="E42" s="12" t="n">
         <f aca="false">D42/83.784</f>
-        <v>13.212546548267</v>
+        <v>15.2177026639931</v>
       </c>
       <c r="F42" s="12" t="n">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="G42" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H42" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$34,G42)</f>
+        <f aca="false">_xlfn.DAYS($B$46,G42)</f>
         <v>5</v>
       </c>
       <c r="I42" s="13" t="n">
         <f aca="false">$B$34+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="J42" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,I42)</f>
@@ -1606,11 +1630,11 @@
       </c>
       <c r="K42" s="13" t="n">
         <f aca="false">$B$34+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="L42" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K42,G42)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M42" s="0"/>
       <c r="N42" s="0"/>
@@ -1656,7 +1680,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="6" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D45" s="0"/>
       <c r="E45" s="0"/>
@@ -1675,30 +1699,30 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="7" t="n">
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="D46" s="0"/>
       <c r="E46" s="8" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F46" s="0"/>
       <c r="G46" s="8" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H46" s="8" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J46" s="8" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K46" s="8" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="L46" s="8" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M46" s="0"/>
       <c r="N46" s="0"/>
@@ -1709,34 +1733,34 @@
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="9"/>
       <c r="C47" s="10" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I47" s="11" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J47" s="8" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K47" s="8" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="L47" s="8" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M47" s="0"/>
       <c r="N47" s="0"/>
@@ -1746,42 +1770,42 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C48" s="12" t="n">
         <v>300</v>
       </c>
       <c r="D48" s="1" t="n">
-        <v>13155</v>
+        <v>13915</v>
       </c>
       <c r="E48" s="12" t="n">
         <f aca="false">D48/60.48</f>
-        <v>217.509920634921</v>
+        <v>230.076058201058</v>
       </c>
       <c r="F48" s="12" t="n">
-        <v>727</v>
+        <v>760</v>
       </c>
       <c r="G48" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H48" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,G48)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I48" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J48" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,I48)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K48" s="13" t="n">
         <f aca="false">$B$46+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="L48" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K48,G48)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M48" s="0"/>
       <c r="N48" s="0"/>
@@ -1791,42 +1815,42 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C49" s="12" t="n">
         <v>230</v>
       </c>
       <c r="D49" s="1" t="n">
-        <v>9387</v>
+        <v>10348</v>
       </c>
       <c r="E49" s="12" t="n">
         <f aca="false">D49/46.75</f>
-        <v>200.791443850267</v>
+        <v>221.347593582888</v>
       </c>
       <c r="F49" s="12" t="n">
-        <v>923</v>
+        <v>961</v>
       </c>
       <c r="G49" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H49" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,G49)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I49" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J49" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,I49)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K49" s="13" t="n">
         <f aca="false">$B$46+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="L49" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K49,G49)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M49" s="0"/>
       <c r="N49" s="0"/>
@@ -1836,42 +1860,42 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C50" s="12" t="n">
         <v>330</v>
       </c>
       <c r="D50" s="1" t="n">
-        <v>4032</v>
+        <v>5387</v>
       </c>
       <c r="E50" s="12" t="n">
         <f aca="false">D50/65.27</f>
-        <v>61.7741688371381</v>
+        <v>82.5340891680711</v>
       </c>
       <c r="F50" s="12" t="n">
-        <v>509</v>
+        <v>1355</v>
       </c>
       <c r="G50" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H50" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,G50)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I50" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J50" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,I50)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K50" s="13" t="n">
         <f aca="false">$B$46+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="L50" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K50,G50)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M50" s="0"/>
       <c r="N50" s="0"/>
@@ -1881,31 +1905,31 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C51" s="12" t="n">
         <v>50</v>
       </c>
       <c r="D51" s="12" t="n">
-        <v>239</v>
+        <v>308</v>
       </c>
       <c r="E51" s="12" t="n">
         <f aca="false">D51/10.36</f>
-        <v>23.0694980694981</v>
+        <v>29.7297297297297</v>
       </c>
       <c r="F51" s="12" t="n">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="G51" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H51" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,G51)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I51" s="13" t="n">
         <f aca="false">$B$46+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="J51" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,I51)</f>
@@ -1913,11 +1937,11 @@
       </c>
       <c r="K51" s="13" t="n">
         <f aca="false">$B$46+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="L51" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K51,G51)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M51" s="0"/>
       <c r="N51" s="0"/>
@@ -1927,31 +1951,31 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C52" s="12" t="n">
         <v>330</v>
       </c>
       <c r="D52" s="1" t="n">
-        <v>2352</v>
+        <v>2921</v>
       </c>
       <c r="E52" s="12" t="n">
         <f aca="false">D52/67.79</f>
-        <v>34.695382799823</v>
+        <v>43.0889511727393</v>
       </c>
       <c r="F52" s="12" t="n">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="G52" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H52" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,G52)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I52" s="13" t="n">
         <f aca="false">$B$46+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="J52" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,I52)</f>
@@ -1959,11 +1983,11 @@
       </c>
       <c r="K52" s="13" t="n">
         <f aca="false">$B$46+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="L52" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K52,G52)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M52" s="0"/>
       <c r="N52" s="0"/>
@@ -1973,31 +1997,31 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C53" s="12" t="n">
         <v>1660</v>
       </c>
       <c r="D53" s="1" t="n">
-        <v>5102</v>
+        <v>6076</v>
       </c>
       <c r="E53" s="12" t="n">
         <f aca="false">D53/331</f>
-        <v>15.4138972809668</v>
+        <v>18.3564954682779</v>
       </c>
       <c r="F53" s="12" t="n">
-        <v>1049</v>
+        <v>969</v>
       </c>
       <c r="G53" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H53" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,G53)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I53" s="13" t="n">
         <f aca="false">$B$46+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="J53" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,I53)</f>
@@ -2005,11 +2029,11 @@
       </c>
       <c r="K53" s="13" t="n">
         <f aca="false">$B$46+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="L53" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K53,G53)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M53" s="0"/>
       <c r="N53" s="0"/>
@@ -2019,31 +2043,31 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C54" s="12" t="n">
         <v>414</v>
       </c>
       <c r="D54" s="1" t="n">
-        <v>931</v>
+        <v>1107</v>
       </c>
       <c r="E54" s="12" t="n">
         <f aca="false">D54/83.784</f>
-        <v>11.1119068079824</v>
+        <v>13.212546548267</v>
       </c>
       <c r="F54" s="12" t="n">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="G54" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H54" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,G54)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I54" s="13" t="n">
         <f aca="false">$B$46+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="J54" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,I54)</f>
@@ -2051,11 +2075,11 @@
       </c>
       <c r="K54" s="13" t="n">
         <f aca="false">$B$46+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="L54" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K54,G54)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M54" s="0"/>
       <c r="N54" s="0"/>
@@ -2101,7 +2125,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="6" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D57" s="0"/>
       <c r="E57" s="0"/>
@@ -2120,30 +2144,30 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="7" t="n">
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="D58" s="0"/>
       <c r="E58" s="8" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F58" s="0"/>
       <c r="G58" s="8" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H58" s="8" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I58" s="8" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J58" s="8" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K58" s="8" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="L58" s="8" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M58" s="0"/>
       <c r="N58" s="0"/>
@@ -2154,34 +2178,34 @@
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="9"/>
       <c r="C59" s="10" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G59" s="11" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H59" s="8" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I59" s="11" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J59" s="8" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K59" s="8" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="L59" s="8" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M59" s="0"/>
       <c r="N59" s="0"/>
@@ -2191,42 +2215,42 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C60" s="12" t="n">
         <v>300</v>
       </c>
       <c r="D60" s="1" t="n">
-        <v>12428</v>
+        <v>13155</v>
       </c>
       <c r="E60" s="12" t="n">
         <f aca="false">D60/60.48</f>
-        <v>205.489417989418</v>
+        <v>217.509920634921</v>
       </c>
       <c r="F60" s="12" t="n">
-        <v>837</v>
+        <v>727</v>
       </c>
       <c r="G60" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H60" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,G60)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I60" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J60" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,I60)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K60" s="13" t="n">
         <f aca="false">$B$58+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="L60" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K60,G60)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M60" s="0"/>
       <c r="N60" s="0"/>
@@ -2236,42 +2260,42 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C61" s="12" t="n">
         <v>230</v>
       </c>
       <c r="D61" s="1" t="n">
-        <v>8464</v>
+        <v>9387</v>
       </c>
       <c r="E61" s="12" t="n">
         <f aca="false">D61/46.75</f>
-        <v>181.048128342246</v>
+        <v>200.791443850267</v>
       </c>
       <c r="F61" s="12" t="n">
-        <v>748</v>
+        <v>923</v>
       </c>
       <c r="G61" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H61" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,G61)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I61" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J61" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,I61)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K61" s="13" t="n">
         <f aca="false">$B$58+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="L61" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K61,G61)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M61" s="0"/>
       <c r="N61" s="0"/>
@@ -2281,42 +2305,42 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C62" s="12" t="n">
         <v>330</v>
       </c>
       <c r="D62" s="1" t="n">
-        <v>3523</v>
+        <v>4032</v>
       </c>
       <c r="E62" s="12" t="n">
         <f aca="false">D62/65.27</f>
-        <v>53.9757928604259</v>
+        <v>61.7741688371381</v>
       </c>
       <c r="F62" s="12" t="n">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="G62" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H62" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,G62)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I62" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J62" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,I62)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K62" s="13" t="n">
         <f aca="false">$B$58+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="L62" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K62,G62)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M62" s="0"/>
       <c r="N62" s="0"/>
@@ -2326,31 +2350,31 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C63" s="12" t="n">
         <v>50</v>
       </c>
       <c r="D63" s="12" t="n">
-        <v>180</v>
+        <v>239</v>
       </c>
       <c r="E63" s="12" t="n">
         <f aca="false">D63/10.36</f>
-        <v>17.3745173745174</v>
+        <v>23.0694980694981</v>
       </c>
       <c r="F63" s="12" t="n">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="G63" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H63" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,G63)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I63" s="13" t="n">
         <f aca="false">$B$58+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="J63" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,I63)</f>
@@ -2358,11 +2382,11 @@
       </c>
       <c r="K63" s="13" t="n">
         <f aca="false">$B$58+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="L63" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K63,G63)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M63" s="0"/>
       <c r="N63" s="0"/>
@@ -2372,31 +2396,31 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C64" s="12" t="n">
         <v>330</v>
       </c>
       <c r="D64" s="1" t="n">
-        <v>1789</v>
+        <v>2352</v>
       </c>
       <c r="E64" s="12" t="n">
         <f aca="false">D64/67.79</f>
-        <v>26.390323056498</v>
+        <v>34.695382799823</v>
       </c>
       <c r="F64" s="12" t="n">
-        <v>381</v>
+        <v>563</v>
       </c>
       <c r="G64" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H64" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,G64)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I64" s="13" t="n">
         <f aca="false">$B$58+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="J64" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,I64)</f>
@@ -2404,11 +2428,11 @@
       </c>
       <c r="K64" s="13" t="n">
         <f aca="false">$B$58+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="L64" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K64,G64)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M64" s="0"/>
       <c r="N64" s="0"/>
@@ -2418,31 +2442,31 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C65" s="12" t="n">
         <v>1660</v>
       </c>
       <c r="D65" s="1" t="n">
-        <v>4053</v>
+        <v>5102</v>
       </c>
       <c r="E65" s="12" t="n">
         <f aca="false">D65/331</f>
-        <v>12.2447129909366</v>
+        <v>15.4138972809668</v>
       </c>
       <c r="F65" s="12" t="n">
-        <v>912</v>
+        <v>1049</v>
       </c>
       <c r="G65" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H65" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,G65)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I65" s="13" t="n">
         <f aca="false">$B$58+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="J65" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,I65)</f>
@@ -2450,11 +2474,11 @@
       </c>
       <c r="K65" s="13" t="n">
         <f aca="false">$B$58+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="L65" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K65,G65)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M65" s="0"/>
       <c r="N65" s="0"/>
@@ -2464,31 +2488,31 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C66" s="12" t="n">
         <v>414</v>
       </c>
       <c r="D66" s="1" t="n">
-        <v>775</v>
+        <v>931</v>
       </c>
       <c r="E66" s="12" t="n">
         <f aca="false">D66/83.784</f>
-        <v>9.24997612909386</v>
+        <v>11.1119068079824</v>
       </c>
       <c r="F66" s="12" t="n">
-        <v>130</v>
+        <v>156</v>
       </c>
       <c r="G66" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H66" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,G66)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I66" s="13" t="n">
         <f aca="false">$B$58+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="J66" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,I66)</f>
@@ -2496,11 +2520,11 @@
       </c>
       <c r="K66" s="13" t="n">
         <f aca="false">$B$58+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="L66" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K66,G66)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M66" s="0"/>
       <c r="N66" s="0"/>
@@ -2509,15 +2533,16 @@
       <c r="Q66" s="0"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C67" s="12"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="5"/>
       <c r="D67" s="0"/>
-      <c r="E67" s="12"/>
-      <c r="F67" s="12"/>
-      <c r="G67" s="13"/>
+      <c r="E67" s="0"/>
+      <c r="F67" s="0"/>
+      <c r="G67" s="0"/>
       <c r="H67" s="0"/>
-      <c r="I67" s="13"/>
+      <c r="I67" s="0"/>
       <c r="J67" s="0"/>
-      <c r="K67" s="13"/>
+      <c r="K67" s="0"/>
       <c r="L67" s="0"/>
       <c r="M67" s="0"/>
       <c r="N67" s="0"/>
@@ -2526,15 +2551,16 @@
       <c r="Q67" s="0"/>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C68" s="12"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="5"/>
       <c r="D68" s="0"/>
-      <c r="E68" s="12"/>
-      <c r="F68" s="12"/>
-      <c r="G68" s="13"/>
+      <c r="E68" s="0"/>
+      <c r="F68" s="0"/>
+      <c r="G68" s="0"/>
       <c r="H68" s="0"/>
-      <c r="I68" s="13"/>
+      <c r="I68" s="0"/>
       <c r="J68" s="0"/>
-      <c r="K68" s="13"/>
+      <c r="K68" s="0"/>
       <c r="L68" s="0"/>
       <c r="M68" s="0"/>
       <c r="N68" s="0"/>
@@ -2544,7 +2570,7 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="6" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D69" s="0"/>
       <c r="E69" s="0"/>
@@ -2563,29 +2589,31 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="7" t="n">
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="D70" s="0"/>
       <c r="E70" s="8" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F70" s="0"/>
       <c r="G70" s="8" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H70" s="8" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I70" s="8" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J70" s="8" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K70" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="L70" s="0"/>
+        <v>36</v>
+      </c>
+      <c r="L70" s="8" t="s">
+        <v>37</v>
+      </c>
       <c r="M70" s="0"/>
       <c r="N70" s="0"/>
       <c r="O70" s="0"/>
@@ -2595,33 +2623,35 @@
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="9"/>
       <c r="C71" s="10" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F71" s="10" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G71" s="11" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H71" s="8" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I71" s="11" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J71" s="8" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K71" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="L71" s="0"/>
+        <v>41</v>
+      </c>
+      <c r="L71" s="8" t="s">
+        <v>45</v>
+      </c>
       <c r="M71" s="0"/>
       <c r="N71" s="0"/>
       <c r="O71" s="0"/>
@@ -2630,40 +2660,43 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C72" s="12" t="n">
         <v>300</v>
       </c>
       <c r="D72" s="1" t="n">
-        <v>11591</v>
+        <v>12428</v>
       </c>
       <c r="E72" s="12" t="n">
         <f aca="false">D72/60.48</f>
-        <v>191.650132275132</v>
+        <v>205.489417989418</v>
       </c>
       <c r="F72" s="12" t="n">
-        <v>812</v>
+        <v>837</v>
       </c>
       <c r="G72" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H72" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,G72)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I72" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J72" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,I72)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K72" s="13" t="n">
-        <f aca="false">$B$82+1</f>
-        <v>43920</v>
-      </c>
-      <c r="L72" s="0"/>
+        <f aca="false">$B$70+1</f>
+        <v>43922</v>
+      </c>
+      <c r="L72" s="0" t="n">
+        <f aca="false">_xlfn.DAYS(K72,G72)</f>
+        <v>22</v>
+      </c>
       <c r="M72" s="0"/>
       <c r="N72" s="0"/>
       <c r="O72" s="0"/>
@@ -2672,40 +2705,43 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C73" s="12" t="n">
         <v>230</v>
       </c>
       <c r="D73" s="1" t="n">
-        <v>7716</v>
+        <v>8464</v>
       </c>
       <c r="E73" s="12" t="n">
         <f aca="false">D73/46.75</f>
-        <v>165.048128342246</v>
+        <v>181.048128342246</v>
       </c>
       <c r="F73" s="12" t="n">
-        <v>913</v>
+        <v>748</v>
       </c>
       <c r="G73" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H73" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,G73)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I73" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J73" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,I73)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K73" s="13" t="n">
-        <f aca="false">$B$82+1</f>
-        <v>43920</v>
-      </c>
-      <c r="L73" s="0"/>
+        <f aca="false">$B$70+1</f>
+        <v>43922</v>
+      </c>
+      <c r="L73" s="0" t="n">
+        <f aca="false">_xlfn.DAYS(K73,G73)</f>
+        <v>15</v>
+      </c>
       <c r="M73" s="0"/>
       <c r="N73" s="0"/>
       <c r="O73" s="0"/>
@@ -2714,40 +2750,43 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C74" s="12" t="n">
         <v>330</v>
       </c>
       <c r="D74" s="1" t="n">
-        <v>3024</v>
+        <v>3523</v>
       </c>
       <c r="E74" s="12" t="n">
         <f aca="false">D74/65.27</f>
-        <v>46.3306266278535</v>
+        <v>53.9757928604259</v>
       </c>
       <c r="F74" s="12" t="n">
-        <v>418</v>
+        <v>499</v>
       </c>
       <c r="G74" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H74" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,G74)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I74" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J74" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,I74)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K74" s="13" t="n">
-        <f aca="false">$B$82+1</f>
-        <v>43920</v>
-      </c>
-      <c r="L74" s="0"/>
+        <f aca="false">$B$70+1</f>
+        <v>43922</v>
+      </c>
+      <c r="L74" s="0" t="n">
+        <f aca="false">_xlfn.DAYS(K74,G74)</f>
+        <v>10</v>
+      </c>
       <c r="M74" s="0"/>
       <c r="N74" s="0"/>
       <c r="O74" s="0"/>
@@ -2756,41 +2795,44 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C75" s="12" t="n">
         <v>50</v>
       </c>
       <c r="D75" s="12" t="n">
-        <v>146</v>
+        <v>180</v>
       </c>
       <c r="E75" s="12" t="n">
         <f aca="false">D75/10.36</f>
-        <v>14.0926640926641</v>
+        <v>17.3745173745174</v>
       </c>
       <c r="F75" s="12" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G75" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H75" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,G75)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I75" s="13" t="n">
         <f aca="false">$B$70+1</f>
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="J75" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,I75)</f>
         <v>-1</v>
       </c>
       <c r="K75" s="13" t="n">
-        <f aca="false">$B$82+1</f>
-        <v>43920</v>
-      </c>
-      <c r="L75" s="0"/>
+        <f aca="false">$B$70+1</f>
+        <v>43922</v>
+      </c>
+      <c r="L75" s="0" t="n">
+        <f aca="false">_xlfn.DAYS(K75,G75)</f>
+        <v>7</v>
+      </c>
       <c r="M75" s="0"/>
       <c r="N75" s="0"/>
       <c r="O75" s="0"/>
@@ -2799,41 +2841,44 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C76" s="12" t="n">
         <v>330</v>
       </c>
       <c r="D76" s="1" t="n">
-        <v>1408</v>
+        <v>1789</v>
       </c>
       <c r="E76" s="12" t="n">
         <f aca="false">D76/67.79</f>
-        <v>20.770025077445</v>
+        <v>26.390323056498</v>
       </c>
       <c r="F76" s="12" t="n">
-        <v>180</v>
+        <v>381</v>
       </c>
       <c r="G76" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H76" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,G76)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I76" s="13" t="n">
         <f aca="false">$B$70+1</f>
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="J76" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,I76)</f>
         <v>-1</v>
       </c>
       <c r="K76" s="13" t="n">
-        <f aca="false">$B$82+1</f>
-        <v>43920</v>
-      </c>
-      <c r="L76" s="0"/>
+        <f aca="false">$B$70+1</f>
+        <v>43922</v>
+      </c>
+      <c r="L76" s="0" t="n">
+        <f aca="false">_xlfn.DAYS(K76,G76)</f>
+        <v>6</v>
+      </c>
       <c r="M76" s="0"/>
       <c r="N76" s="0"/>
       <c r="O76" s="0"/>
@@ -2842,40 +2887,44 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C77" s="12" t="n">
         <v>1660</v>
       </c>
       <c r="D77" s="1" t="n">
-        <v>3141</v>
+        <v>4053</v>
       </c>
       <c r="E77" s="12" t="n">
         <f aca="false">D77/331</f>
-        <v>9.48942598187311</v>
+        <v>12.2447129909366</v>
       </c>
       <c r="F77" s="12" t="n">
-        <v>573</v>
+        <v>912</v>
       </c>
       <c r="G77" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H77" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,G77)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I77" s="13" t="n">
-        <v>43920</v>
+        <f aca="false">$B$70+1</f>
+        <v>43922</v>
       </c>
       <c r="J77" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,I77)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K77" s="13" t="n">
-        <f aca="false">$B$82+1</f>
-        <v>43920</v>
-      </c>
-      <c r="L77" s="0"/>
+        <f aca="false">$B$70+1</f>
+        <v>43922</v>
+      </c>
+      <c r="L77" s="0" t="n">
+        <f aca="false">_xlfn.DAYS(K77,G77)</f>
+        <v>5</v>
+      </c>
       <c r="M77" s="0"/>
       <c r="N77" s="0"/>
       <c r="O77" s="0"/>
@@ -2884,41 +2933,44 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C78" s="12" t="n">
         <v>414</v>
       </c>
       <c r="D78" s="1" t="n">
-        <v>645</v>
+        <v>775</v>
       </c>
       <c r="E78" s="12" t="n">
         <f aca="false">D78/83.784</f>
-        <v>7.69836723002005</v>
+        <v>9.24997612909386</v>
       </c>
       <c r="F78" s="12" t="n">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="G78" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H78" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,G78)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I78" s="13" t="n">
         <f aca="false">$B$70+1</f>
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="J78" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,I78)</f>
         <v>-1</v>
       </c>
       <c r="K78" s="13" t="n">
-        <f aca="false">$B$82+1</f>
-        <v>43920</v>
-      </c>
-      <c r="L78" s="0"/>
+        <f aca="false">$B$70+1</f>
+        <v>43922</v>
+      </c>
+      <c r="L78" s="0" t="n">
+        <f aca="false">_xlfn.DAYS(K78,G78)</f>
+        <v>4</v>
+      </c>
       <c r="M78" s="0"/>
       <c r="N78" s="0"/>
       <c r="O78" s="0"/>
@@ -2926,16 +2978,15 @@
       <c r="Q78" s="0"/>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B79" s="4"/>
-      <c r="C79" s="5"/>
+      <c r="C79" s="12"/>
       <c r="D79" s="0"/>
-      <c r="E79" s="0"/>
-      <c r="F79" s="0"/>
-      <c r="G79" s="0"/>
+      <c r="E79" s="12"/>
+      <c r="F79" s="12"/>
+      <c r="G79" s="13"/>
       <c r="H79" s="0"/>
-      <c r="I79" s="0"/>
+      <c r="I79" s="13"/>
       <c r="J79" s="0"/>
-      <c r="K79" s="0"/>
+      <c r="K79" s="13"/>
       <c r="L79" s="0"/>
       <c r="M79" s="0"/>
       <c r="N79" s="0"/>
@@ -2944,16 +2995,15 @@
       <c r="Q79" s="0"/>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B80" s="4"/>
-      <c r="C80" s="5"/>
+      <c r="C80" s="12"/>
       <c r="D80" s="0"/>
-      <c r="E80" s="0"/>
-      <c r="F80" s="0"/>
-      <c r="G80" s="0"/>
+      <c r="E80" s="12"/>
+      <c r="F80" s="12"/>
+      <c r="G80" s="13"/>
       <c r="H80" s="0"/>
-      <c r="I80" s="0"/>
+      <c r="I80" s="13"/>
       <c r="J80" s="0"/>
-      <c r="K80" s="0"/>
+      <c r="K80" s="13"/>
       <c r="L80" s="0"/>
       <c r="M80" s="0"/>
       <c r="N80" s="0"/>
@@ -2963,7 +3013,7 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="6" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D81" s="0"/>
       <c r="E81" s="0"/>
@@ -2982,27 +3032,27 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="7" t="n">
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="D82" s="0"/>
       <c r="E82" s="8" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F82" s="0"/>
       <c r="G82" s="8" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H82" s="8" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I82" s="8" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J82" s="8" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K82" s="8" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="L82" s="0"/>
       <c r="M82" s="0"/>
@@ -3014,31 +3064,31 @@
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="9"/>
       <c r="C83" s="10" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E83" s="10" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F83" s="10" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G83" s="11" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H83" s="8" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I83" s="11" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J83" s="8" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K83" s="8" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="L83" s="0"/>
       <c r="M83" s="0"/>
@@ -3049,37 +3099,37 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C84" s="12" t="n">
         <v>300</v>
       </c>
       <c r="D84" s="1" t="n">
-        <v>10779</v>
+        <v>11591</v>
       </c>
       <c r="E84" s="12" t="n">
         <f aca="false">D84/60.48</f>
-        <v>178.224206349206</v>
+        <v>191.650132275132</v>
       </c>
       <c r="F84" s="12" t="n">
-        <v>756</v>
+        <v>812</v>
       </c>
       <c r="G84" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H84" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,G84)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I84" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J84" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,I84)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K84" s="13" t="n">
-        <f aca="false">$B$82+1</f>
+        <f aca="false">$B$94+1</f>
         <v>43920</v>
       </c>
       <c r="L84" s="0"/>
@@ -3091,37 +3141,37 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C85" s="12" t="n">
         <v>230</v>
       </c>
       <c r="D85" s="1" t="n">
-        <v>6803</v>
+        <v>7716</v>
       </c>
       <c r="E85" s="12" t="n">
         <f aca="false">D85/46.75</f>
-        <v>145.51871657754</v>
+        <v>165.048128342246</v>
       </c>
       <c r="F85" s="12" t="n">
-        <v>821</v>
+        <v>913</v>
       </c>
       <c r="G85" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H85" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,G85)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I85" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J85" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,I85)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K85" s="13" t="n">
-        <f aca="false">$B$82+1</f>
+        <f aca="false">$B$94+1</f>
         <v>43920</v>
       </c>
       <c r="L85" s="0"/>
@@ -3133,37 +3183,37 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C86" s="12" t="n">
         <v>330</v>
       </c>
       <c r="D86" s="1" t="n">
-        <v>2606</v>
+        <v>3024</v>
       </c>
       <c r="E86" s="12" t="n">
         <f aca="false">D86/65.27</f>
-        <v>39.9264593228129</v>
+        <v>46.3306266278535</v>
       </c>
       <c r="F86" s="12" t="n">
-        <v>292</v>
+        <v>418</v>
       </c>
       <c r="G86" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H86" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,G86)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I86" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J86" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,I86)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K86" s="13" t="n">
-        <f aca="false">$B$82+1</f>
+        <f aca="false">$B$94+1</f>
         <v>43920</v>
       </c>
       <c r="L86" s="0"/>
@@ -3175,38 +3225,38 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C87" s="12" t="n">
-        <v>1660</v>
-      </c>
-      <c r="D87" s="1" t="n">
-        <v>2583</v>
+        <v>50</v>
+      </c>
+      <c r="D87" s="12" t="n">
+        <v>146</v>
       </c>
       <c r="E87" s="12" t="n">
-        <f aca="false">D87/331</f>
-        <v>7.8036253776435</v>
+        <f aca="false">D87/10.36</f>
+        <v>14.0926640926641</v>
       </c>
       <c r="F87" s="12" t="n">
-        <v>363</v>
+        <v>36</v>
       </c>
       <c r="G87" s="13" t="n">
-        <v>43917</v>
+        <v>43915</v>
       </c>
       <c r="H87" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,G87)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I87" s="13" t="n">
         <f aca="false">$B$82+1</f>
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="J87" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,I87)</f>
         <v>-1</v>
       </c>
       <c r="K87" s="13" t="n">
-        <f aca="false">$B$82+1</f>
+        <f aca="false">$B$94+1</f>
         <v>43920</v>
       </c>
       <c r="L87" s="0"/>
@@ -3218,38 +3268,38 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C88" s="12" t="n">
         <v>330</v>
       </c>
       <c r="D88" s="1" t="n">
-        <v>1228</v>
+        <v>1408</v>
       </c>
       <c r="E88" s="12" t="n">
         <f aca="false">D88/67.79</f>
-        <v>18.1147661897035</v>
+        <v>20.770025077445</v>
       </c>
       <c r="F88" s="12" t="n">
-        <v>209</v>
+        <v>180</v>
       </c>
       <c r="G88" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H88" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,G88)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I88" s="13" t="n">
         <f aca="false">$B$82+1</f>
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="J88" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,I88)</f>
         <v>-1</v>
       </c>
       <c r="K88" s="13" t="n">
-        <f aca="false">$B$82+1</f>
+        <f aca="false">$B$94+1</f>
         <v>43920</v>
       </c>
       <c r="L88" s="0"/>
@@ -3261,38 +3311,37 @@
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C89" s="12" t="n">
-        <v>414</v>
+        <v>1660</v>
       </c>
       <c r="D89" s="1" t="n">
-        <v>541</v>
+        <v>3141</v>
       </c>
       <c r="E89" s="12" t="n">
-        <f aca="false">D89/83.784</f>
-        <v>6.457080110761</v>
+        <f aca="false">D89/331</f>
+        <v>9.48942598187311</v>
       </c>
       <c r="F89" s="12" t="n">
-        <v>108</v>
+        <v>573</v>
       </c>
       <c r="G89" s="13" t="n">
-        <v>43918</v>
+        <v>43917</v>
       </c>
       <c r="H89" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,G89)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I89" s="13" t="n">
-        <f aca="false">$B$82+1</f>
         <v>43920</v>
       </c>
       <c r="J89" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,I89)</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K89" s="13" t="n">
-        <f aca="false">$B$82+1</f>
+        <f aca="false">$B$94+1</f>
         <v>43920</v>
       </c>
       <c r="L89" s="0"/>
@@ -3304,38 +3353,38 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="0" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C90" s="12" t="n">
-        <v>50</v>
-      </c>
-      <c r="D90" s="12" t="n">
-        <v>110</v>
+        <v>414</v>
+      </c>
+      <c r="D90" s="1" t="n">
+        <v>645</v>
       </c>
       <c r="E90" s="12" t="n">
-        <f aca="false">D90/10.36</f>
-        <v>10.6177606177606</v>
+        <f aca="false">D90/83.784</f>
+        <v>7.69836723002005</v>
       </c>
       <c r="F90" s="12" t="n">
-        <v>5</v>
+        <v>104</v>
       </c>
       <c r="G90" s="13" t="n">
-        <v>43915</v>
+        <v>43918</v>
       </c>
       <c r="H90" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,G90)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I90" s="13" t="n">
         <f aca="false">$B$82+1</f>
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="J90" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,I90)</f>
         <v>-1</v>
       </c>
       <c r="K90" s="13" t="n">
-        <f aca="false">$B$82+1</f>
+        <f aca="false">$B$94+1</f>
         <v>43920</v>
       </c>
       <c r="L90" s="0"/>
@@ -3383,7 +3432,7 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="6" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D93" s="0"/>
       <c r="E93" s="0"/>
@@ -3402,29 +3451,27 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="7" t="n">
-        <v>43918</v>
-      </c>
-      <c r="D94" s="8" t="s">
-        <v>6</v>
-      </c>
+        <v>43919</v>
+      </c>
+      <c r="D94" s="0"/>
       <c r="E94" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F94" s="8"/>
+        <v>32</v>
+      </c>
+      <c r="F94" s="0"/>
       <c r="G94" s="8" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H94" s="8" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I94" s="8" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J94" s="8" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K94" s="8" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="L94" s="0"/>
       <c r="M94" s="0"/>
@@ -3436,31 +3483,31 @@
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="9"/>
       <c r="C95" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D95" s="10" t="s">
-        <v>2</v>
+        <v>38</v>
+      </c>
+      <c r="D95" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="E95" s="10" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F95" s="10" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G95" s="11" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H95" s="8" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I95" s="11" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J95" s="8" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K95" s="8" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="L95" s="0"/>
       <c r="M95" s="0"/>
@@ -3471,38 +3518,38 @@
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C96" s="12" t="n">
         <v>300</v>
       </c>
       <c r="D96" s="1" t="n">
-        <v>10023</v>
+        <v>10779</v>
       </c>
       <c r="E96" s="12" t="n">
         <f aca="false">D96/60.48</f>
-        <v>165.724206349206</v>
+        <v>178.224206349206</v>
       </c>
       <c r="F96" s="12" t="n">
-        <v>889</v>
+        <v>756</v>
       </c>
       <c r="G96" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H96" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,G96)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I96" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J96" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$106,I96)</f>
-        <v>15</v>
+        <f aca="false">_xlfn.DAYS($B$94,I96)</f>
+        <v>17</v>
       </c>
       <c r="K96" s="13" t="n">
         <f aca="false">$B$94+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="L96" s="0"/>
       <c r="M96" s="0"/>
@@ -3513,38 +3560,38 @@
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C97" s="12" t="n">
         <v>230</v>
       </c>
       <c r="D97" s="1" t="n">
-        <v>5982</v>
+        <v>6803</v>
       </c>
       <c r="E97" s="12" t="n">
         <f aca="false">D97/46.75</f>
-        <v>127.957219251337</v>
+        <v>145.51871657754</v>
       </c>
       <c r="F97" s="12" t="n">
-        <v>844</v>
+        <v>821</v>
       </c>
       <c r="G97" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H97" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,G97)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I97" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J97" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$106,I97)</f>
-        <v>4</v>
+        <f aca="false">_xlfn.DAYS($B$94,I97)</f>
+        <v>6</v>
       </c>
       <c r="K97" s="13" t="n">
         <f aca="false">$B$94+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="L97" s="0"/>
       <c r="M97" s="0"/>
@@ -3555,38 +3602,38 @@
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C98" s="12" t="n">
         <v>330</v>
       </c>
       <c r="D98" s="1" t="n">
-        <v>2314</v>
+        <v>2606</v>
       </c>
       <c r="E98" s="12" t="n">
         <f aca="false">D98/65.27</f>
-        <v>35.4527347939329</v>
+        <v>39.9264593228129</v>
       </c>
       <c r="F98" s="12" t="n">
-        <v>319</v>
+        <v>292</v>
       </c>
       <c r="G98" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H98" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,G98)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I98" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J98" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$106,I98)</f>
-        <v>3</v>
+        <f aca="false">_xlfn.DAYS($B$94,I98)</f>
+        <v>5</v>
       </c>
       <c r="K98" s="13" t="n">
         <f aca="false">$B$94+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="L98" s="0"/>
       <c r="M98" s="0"/>
@@ -3597,31 +3644,31 @@
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C99" s="12" t="n">
         <v>1660</v>
       </c>
       <c r="D99" s="1" t="n">
-        <v>2221</v>
+        <v>2583</v>
       </c>
       <c r="E99" s="12" t="n">
         <f aca="false">D99/331</f>
-        <v>6.70996978851964</v>
+        <v>7.8036253776435</v>
       </c>
       <c r="F99" s="12" t="n">
-        <v>525</v>
+        <v>363</v>
       </c>
       <c r="G99" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H99" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,G99)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I99" s="13" t="n">
         <f aca="false">$B$94+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="J99" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,I99)</f>
@@ -3629,7 +3676,7 @@
       </c>
       <c r="K99" s="13" t="n">
         <f aca="false">$B$94+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="L99" s="0"/>
       <c r="M99" s="0"/>
@@ -3640,31 +3687,31 @@
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C100" s="12" t="n">
         <v>330</v>
       </c>
       <c r="D100" s="1" t="n">
-        <v>1019</v>
+        <v>1228</v>
       </c>
       <c r="E100" s="12" t="n">
         <f aca="false">D100/67.79</f>
-        <v>15.0317155922702</v>
+        <v>18.1147661897035</v>
       </c>
       <c r="F100" s="12" t="n">
-        <v>260</v>
+        <v>209</v>
       </c>
       <c r="G100" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H100" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,G100)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I100" s="13" t="n">
         <f aca="false">$B$94+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="J100" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,I100)</f>
@@ -3672,7 +3719,7 @@
       </c>
       <c r="K100" s="13" t="n">
         <f aca="false">$B$94+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="L100" s="0"/>
       <c r="M100" s="0"/>
@@ -3683,31 +3730,31 @@
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B101" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C101" s="12" t="n">
         <v>414</v>
       </c>
       <c r="D101" s="1" t="n">
-        <v>433</v>
+        <v>541</v>
       </c>
       <c r="E101" s="12" t="n">
         <f aca="false">D101/83.784</f>
-        <v>5.16805117922276</v>
+        <v>6.457080110761</v>
       </c>
       <c r="F101" s="12" t="n">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="G101" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H101" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,G101)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101" s="13" t="n">
         <f aca="false">$B$94+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="J101" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,I101)</f>
@@ -3715,7 +3762,7 @@
       </c>
       <c r="K101" s="13" t="n">
         <f aca="false">$B$94+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="L101" s="0"/>
       <c r="M101" s="0"/>
@@ -3726,31 +3773,31 @@
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C102" s="12" t="n">
         <v>50</v>
       </c>
       <c r="D102" s="12" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E102" s="12" t="n">
         <f aca="false">D102/10.36</f>
-        <v>10.1351351351351</v>
+        <v>10.6177606177606</v>
       </c>
       <c r="F102" s="12" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G102" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H102" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,G102)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I102" s="13" t="n">
         <f aca="false">$B$94+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="J102" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,I102)</f>
@@ -3758,7 +3805,7 @@
       </c>
       <c r="K102" s="13" t="n">
         <f aca="false">$B$94+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="L102" s="0"/>
       <c r="M102" s="0"/>
@@ -3768,15 +3815,16 @@
       <c r="Q102" s="0"/>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C103" s="12"/>
-      <c r="D103" s="12"/>
-      <c r="E103" s="12"/>
-      <c r="F103" s="12"/>
-      <c r="G103" s="13"/>
+      <c r="B103" s="4"/>
+      <c r="C103" s="5"/>
+      <c r="D103" s="0"/>
+      <c r="E103" s="0"/>
+      <c r="F103" s="0"/>
+      <c r="G103" s="0"/>
       <c r="H103" s="0"/>
-      <c r="I103" s="13"/>
+      <c r="I103" s="0"/>
       <c r="J103" s="0"/>
-      <c r="K103" s="13"/>
+      <c r="K103" s="0"/>
       <c r="L103" s="0"/>
       <c r="M103" s="0"/>
       <c r="N103" s="0"/>
@@ -3804,7 +3852,7 @@
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B105" s="6" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D105" s="0"/>
       <c r="E105" s="0"/>
@@ -3821,66 +3869,69 @@
       <c r="P105" s="0"/>
       <c r="Q105" s="0"/>
     </row>
-    <row r="106" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="7" t="n">
-        <v>43917</v>
-      </c>
-      <c r="C106" s="0"/>
+        <v>43918</v>
+      </c>
       <c r="D106" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E106" s="8" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F106" s="8"/>
       <c r="G106" s="8" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H106" s="8" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I106" s="8" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J106" s="8" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K106" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="L106" s="8"/>
+        <v>36</v>
+      </c>
+      <c r="L106" s="0"/>
+      <c r="M106" s="0"/>
+      <c r="N106" s="0"/>
+      <c r="O106" s="0"/>
+      <c r="P106" s="0"/>
+      <c r="Q106" s="0"/>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="3"/>
       <c r="B107" s="9"/>
       <c r="C107" s="10" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D107" s="10" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E107" s="10" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F107" s="10" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G107" s="11" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H107" s="8" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I107" s="11" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J107" s="8" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K107" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="L107" s="8"/>
+        <v>41</v>
+      </c>
+      <c r="L107" s="0"/>
       <c r="M107" s="0"/>
       <c r="N107" s="0"/>
       <c r="O107" s="0"/>
@@ -3889,38 +3940,38 @@
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C108" s="12" t="n">
         <v>300</v>
       </c>
       <c r="D108" s="1" t="n">
-        <v>9134</v>
+        <v>10023</v>
       </c>
       <c r="E108" s="12" t="n">
         <f aca="false">D108/60.48</f>
-        <v>151.025132275132</v>
+        <v>165.724206349206</v>
       </c>
       <c r="F108" s="12" t="n">
-        <v>919</v>
+        <v>889</v>
       </c>
       <c r="G108" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H108" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,G108)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I108" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J108" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$106,I108)</f>
+        <f aca="false">_xlfn.DAYS(B$118,I108)</f>
         <v>15</v>
       </c>
       <c r="K108" s="13" t="n">
         <f aca="false">$B$106+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="L108" s="0"/>
       <c r="M108" s="0"/>
@@ -3931,38 +3982,38 @@
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B109" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C109" s="12" t="n">
         <v>230</v>
       </c>
       <c r="D109" s="1" t="n">
-        <v>5138</v>
+        <v>5982</v>
       </c>
       <c r="E109" s="12" t="n">
         <f aca="false">D109/46.75</f>
-        <v>109.903743315508</v>
+        <v>127.957219251337</v>
       </c>
       <c r="F109" s="12" t="n">
-        <v>773</v>
+        <v>844</v>
       </c>
       <c r="G109" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H109" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,G109)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I109" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J109" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$106,I109)</f>
+        <f aca="false">_xlfn.DAYS(B$118,I109)</f>
         <v>4</v>
       </c>
       <c r="K109" s="13" t="n">
         <f aca="false">$B$106+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="L109" s="0"/>
       <c r="M109" s="0"/>
@@ -3973,38 +4024,38 @@
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B110" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C110" s="12" t="n">
         <v>330</v>
       </c>
       <c r="D110" s="1" t="n">
-        <v>1995</v>
+        <v>2314</v>
       </c>
       <c r="E110" s="12" t="n">
         <f aca="false">D110/65.27</f>
-        <v>30.5653439558756</v>
+        <v>35.4527347939329</v>
       </c>
       <c r="F110" s="12" t="n">
-        <v>299</v>
+        <v>319</v>
       </c>
       <c r="G110" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H110" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,G110)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I110" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J110" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$106,I110)</f>
+        <f aca="false">_xlfn.DAYS(B$118,I110)</f>
         <v>3</v>
       </c>
       <c r="K110" s="13" t="n">
         <f aca="false">$B$106+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="L110" s="0"/>
       <c r="M110" s="0"/>
@@ -4015,40 +4066,39 @@
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B111" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C111" s="12" t="n">
         <v>1660</v>
       </c>
       <c r="D111" s="1" t="n">
-        <v>1696</v>
+        <v>2221</v>
       </c>
       <c r="E111" s="12" t="n">
         <f aca="false">D111/331</f>
-        <v>5.12386706948641</v>
+        <v>6.70996978851964</v>
       </c>
       <c r="F111" s="12" t="n">
-        <v>400</v>
+        <v>525</v>
       </c>
       <c r="G111" s="13" t="n">
-        <f aca="false">$B$106</f>
         <v>43917</v>
       </c>
       <c r="H111" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,G111)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I111" s="13" t="n">
         <f aca="false">$B$106+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="J111" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$106,I111)</f>
+        <f aca="false">_xlfn.DAYS($B$106,I111)</f>
         <v>-1</v>
       </c>
       <c r="K111" s="13" t="n">
         <f aca="false">$B$106+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="L111" s="0"/>
       <c r="M111" s="0"/>
@@ -4059,39 +4109,39 @@
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B112" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C112" s="12" t="n">
         <v>330</v>
       </c>
       <c r="D112" s="1" t="n">
-        <v>759</v>
+        <v>1019</v>
       </c>
       <c r="E112" s="12" t="n">
         <f aca="false">D112/67.79</f>
-        <v>11.1963416433102</v>
+        <v>15.0317155922702</v>
       </c>
       <c r="F112" s="12" t="n">
-        <v>181</v>
+        <v>260</v>
       </c>
       <c r="G112" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H112" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,G112)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I112" s="13" t="n">
         <f aca="false">$B$106+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="J112" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$106,I112)</f>
+        <f aca="false">_xlfn.DAYS($B$106,I112)</f>
         <v>-1</v>
       </c>
       <c r="K112" s="13" t="n">
         <f aca="false">$B$106+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="L112" s="0"/>
       <c r="M112" s="0"/>
@@ -4102,40 +4152,39 @@
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B113" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C113" s="12" t="n">
         <v>414</v>
       </c>
       <c r="D113" s="1" t="n">
-        <v>351</v>
+        <v>433</v>
       </c>
       <c r="E113" s="12" t="n">
         <f aca="false">D113/83.784</f>
-        <v>4.18934402749928</v>
+        <v>5.16805117922276</v>
       </c>
       <c r="F113" s="12" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G113" s="13" t="n">
-        <f aca="false">$B$106+1</f>
         <v>43918</v>
       </c>
       <c r="H113" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,G113)</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I113" s="13" t="n">
         <f aca="false">$B$106+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="J113" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$106,I113)</f>
+        <f aca="false">_xlfn.DAYS($B$106,I113)</f>
         <v>-1</v>
       </c>
       <c r="K113" s="13" t="n">
         <f aca="false">$B$106+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="L113" s="0"/>
       <c r="M113" s="0"/>
@@ -4146,7 +4195,7 @@
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B114" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C114" s="12" t="n">
         <v>50</v>
@@ -4159,26 +4208,26 @@
         <v>10.1351351351351</v>
       </c>
       <c r="F114" s="12" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="G114" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H114" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,G114)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I114" s="13" t="n">
         <f aca="false">$B$106+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="J114" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$106,I114)</f>
+        <f aca="false">_xlfn.DAYS($B$106,I114)</f>
         <v>-1</v>
       </c>
       <c r="K114" s="13" t="n">
         <f aca="false">$B$106+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="L114" s="0"/>
       <c r="M114" s="0"/>
@@ -4188,14 +4237,15 @@
       <c r="Q114" s="0"/>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D115" s="0"/>
-      <c r="E115" s="0"/>
-      <c r="F115" s="0"/>
-      <c r="G115" s="0"/>
+      <c r="C115" s="12"/>
+      <c r="D115" s="12"/>
+      <c r="E115" s="12"/>
+      <c r="F115" s="12"/>
+      <c r="G115" s="13"/>
       <c r="H115" s="0"/>
-      <c r="I115" s="0"/>
+      <c r="I115" s="13"/>
       <c r="J115" s="0"/>
-      <c r="K115" s="0"/>
+      <c r="K115" s="13"/>
       <c r="L115" s="0"/>
       <c r="M115" s="0"/>
       <c r="N115" s="0"/>
@@ -4204,6 +4254,8 @@
       <c r="Q115" s="0"/>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B116" s="4"/>
+      <c r="C116" s="5"/>
       <c r="D116" s="0"/>
       <c r="E116" s="0"/>
       <c r="F116" s="0"/>
@@ -4221,7 +4273,7 @@
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B117" s="6" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D117" s="0"/>
       <c r="E117" s="0"/>
@@ -4238,69 +4290,66 @@
       <c r="P117" s="0"/>
       <c r="Q117" s="0"/>
     </row>
-    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B118" s="7" t="n">
-        <v>43916</v>
-      </c>
+        <v>43917</v>
+      </c>
+      <c r="C118" s="0"/>
       <c r="D118" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E118" s="8" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F118" s="8"/>
       <c r="G118" s="8" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H118" s="8" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I118" s="8" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J118" s="8" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K118" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="L118" s="0"/>
-      <c r="M118" s="0"/>
-      <c r="N118" s="0"/>
-      <c r="O118" s="0"/>
-      <c r="P118" s="0"/>
-      <c r="Q118" s="0"/>
+        <v>36</v>
+      </c>
+      <c r="L118" s="8"/>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="3"/>
       <c r="B119" s="9"/>
       <c r="C119" s="10" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="D119" s="10" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E119" s="10" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F119" s="10" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G119" s="11" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H119" s="8" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I119" s="11" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J119" s="8" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K119" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="L119" s="0"/>
+        <v>41</v>
+      </c>
+      <c r="L119" s="8"/>
       <c r="M119" s="0"/>
       <c r="N119" s="0"/>
       <c r="O119" s="0"/>
@@ -4309,38 +4358,38 @@
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B120" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C120" s="12" t="n">
         <v>300</v>
       </c>
       <c r="D120" s="1" t="n">
-        <v>8215</v>
+        <v>9134</v>
       </c>
       <c r="E120" s="12" t="n">
         <f aca="false">D120/60.48</f>
-        <v>135.830026455026</v>
+        <v>151.025132275132</v>
       </c>
       <c r="F120" s="12" t="n">
-        <v>712</v>
+        <v>919</v>
       </c>
       <c r="G120" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H120" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$118,G120)</f>
-        <v>16</v>
+        <f aca="false">_xlfn.DAYS($B$118,G120)</f>
+        <v>17</v>
       </c>
       <c r="I120" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J120" s="1" t="n">
         <f aca="false">_xlfn.DAYS(B$118,I120)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K120" s="13" t="n">
-        <f aca="false">B$118+1</f>
-        <v>43917</v>
+        <f aca="false">$B$118+1</f>
+        <v>43918</v>
       </c>
       <c r="L120" s="0"/>
       <c r="M120" s="0"/>
@@ -4351,38 +4400,38 @@
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B121" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C121" s="12" t="n">
         <v>230</v>
       </c>
       <c r="D121" s="1" t="n">
-        <v>4365</v>
+        <v>5138</v>
       </c>
       <c r="E121" s="12" t="n">
         <f aca="false">D121/46.75</f>
-        <v>93.3689839572193</v>
+        <v>109.903743315508</v>
       </c>
       <c r="F121" s="12" t="n">
-        <v>718</v>
+        <v>773</v>
       </c>
       <c r="G121" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H121" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$118,G121)</f>
-        <v>9</v>
+        <f aca="false">_xlfn.DAYS($B$118,G121)</f>
+        <v>10</v>
       </c>
       <c r="I121" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J121" s="1" t="n">
         <f aca="false">_xlfn.DAYS(B$118,I121)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K121" s="13" t="n">
-        <f aca="false">B$118+1</f>
-        <v>43917</v>
+        <f aca="false">$B$118+1</f>
+        <v>43918</v>
       </c>
       <c r="L121" s="0"/>
       <c r="M121" s="0"/>
@@ -4393,38 +4442,38 @@
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B122" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C122" s="12" t="n">
         <v>330</v>
       </c>
       <c r="D122" s="1" t="n">
-        <v>1696</v>
+        <v>1995</v>
       </c>
       <c r="E122" s="12" t="n">
         <f aca="false">D122/65.27</f>
-        <v>25.9843726060978</v>
+        <v>30.5653439558756</v>
       </c>
       <c r="F122" s="12" t="n">
-        <v>365</v>
+        <v>299</v>
       </c>
       <c r="G122" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H122" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$118,G122)</f>
-        <v>4</v>
+        <f aca="false">_xlfn.DAYS($B$118,G122)</f>
+        <v>5</v>
       </c>
       <c r="I122" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J122" s="1" t="n">
         <f aca="false">_xlfn.DAYS(B$118,I122)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K122" s="13" t="n">
-        <f aca="false">B$118+1</f>
-        <v>43917</v>
+        <f aca="false">$B$118+1</f>
+        <v>43918</v>
       </c>
       <c r="L122" s="0"/>
       <c r="M122" s="0"/>
@@ -4435,39 +4484,40 @@
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B123" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C123" s="12" t="n">
         <v>1660</v>
       </c>
       <c r="D123" s="1" t="n">
-        <v>1295</v>
+        <v>1696</v>
       </c>
       <c r="E123" s="12" t="n">
         <f aca="false">D123/331</f>
-        <v>3.91238670694864</v>
+        <v>5.12386706948641</v>
       </c>
       <c r="F123" s="12" t="n">
-        <v>268</v>
+        <v>400</v>
       </c>
       <c r="G123" s="13" t="n">
+        <f aca="false">$B$118</f>
         <v>43917</v>
       </c>
       <c r="H123" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$118,G123)</f>
+        <f aca="false">_xlfn.DAYS($B$118,G123)</f>
+        <v>0</v>
+      </c>
+      <c r="I123" s="13" t="n">
+        <f aca="false">$B$118+1</f>
+        <v>43918</v>
+      </c>
+      <c r="J123" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$118,I123)</f>
         <v>-1</v>
       </c>
-      <c r="I123" s="13" t="n">
-        <f aca="false">B$118+1</f>
-        <v>43917</v>
-      </c>
-      <c r="J123" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$118,I123)</f>
-        <v>-1</v>
-      </c>
       <c r="K123" s="13" t="n">
-        <f aca="false">B$118+1</f>
-        <v>43917</v>
+        <f aca="false">$B$118+1</f>
+        <v>43918</v>
       </c>
       <c r="L123" s="0"/>
       <c r="M123" s="0"/>
@@ -4478,39 +4528,39 @@
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B124" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C124" s="12" t="n">
         <v>330</v>
       </c>
       <c r="D124" s="1" t="n">
-        <v>578</v>
+        <v>759</v>
       </c>
       <c r="E124" s="12" t="n">
         <f aca="false">D124/67.79</f>
-        <v>8.52633131730344</v>
+        <v>11.1963416433102</v>
       </c>
       <c r="F124" s="12" t="n">
-        <v>115</v>
+        <v>181</v>
       </c>
       <c r="G124" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H124" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$118,G124)</f>
-        <v>0</v>
+        <f aca="false">_xlfn.DAYS($B$118,G124)</f>
+        <v>1</v>
       </c>
       <c r="I124" s="13" t="n">
-        <f aca="false">B$118+1</f>
-        <v>43917</v>
+        <f aca="false">$B$118+1</f>
+        <v>43918</v>
       </c>
       <c r="J124" s="1" t="n">
         <f aca="false">_xlfn.DAYS(B$118,I124)</f>
         <v>-1</v>
       </c>
       <c r="K124" s="13" t="n">
-        <f aca="false">B$118+1</f>
-        <v>43917</v>
+        <f aca="false">$B$118+1</f>
+        <v>43918</v>
       </c>
       <c r="L124" s="0"/>
       <c r="M124" s="0"/>
@@ -4521,39 +4571,40 @@
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B125" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C125" s="12" t="n">
         <v>414</v>
       </c>
       <c r="D125" s="1" t="n">
-        <v>267</v>
+        <v>351</v>
       </c>
       <c r="E125" s="12" t="n">
         <f aca="false">D125/83.784</f>
-        <v>3.18676596963621</v>
+        <v>4.18934402749928</v>
       </c>
       <c r="F125" s="12" t="n">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="G125" s="13" t="n">
-        <v>43917</v>
+        <f aca="false">$B$118+1</f>
+        <v>43918</v>
       </c>
       <c r="H125" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$118,G125)</f>
+        <f aca="false">_xlfn.DAYS($B$118,G125)</f>
         <v>-1</v>
       </c>
       <c r="I125" s="13" t="n">
-        <f aca="false">B$118+1</f>
-        <v>43917</v>
+        <f aca="false">$B$118+1</f>
+        <v>43918</v>
       </c>
       <c r="J125" s="1" t="n">
         <f aca="false">_xlfn.DAYS(B$118,I125)</f>
         <v>-1</v>
       </c>
       <c r="K125" s="13" t="n">
-        <f aca="false">B$118+1</f>
-        <v>43917</v>
+        <f aca="false">$B$118+1</f>
+        <v>43918</v>
       </c>
       <c r="L125" s="0"/>
       <c r="M125" s="0"/>
@@ -4564,39 +4615,39 @@
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B126" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C126" s="12" t="n">
         <v>50</v>
       </c>
       <c r="D126" s="12" t="n">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="E126" s="12" t="n">
         <f aca="false">D126/10.36</f>
-        <v>7.43243243243243</v>
+        <v>10.1351351351351</v>
       </c>
       <c r="F126" s="12" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="G126" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H126" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$118,G126)</f>
-        <v>1</v>
+        <f aca="false">_xlfn.DAYS($B$118,G126)</f>
+        <v>2</v>
       </c>
       <c r="I126" s="13" t="n">
-        <f aca="false">B$118+1</f>
-        <v>43917</v>
+        <f aca="false">$B$118+1</f>
+        <v>43918</v>
       </c>
       <c r="J126" s="1" t="n">
         <f aca="false">_xlfn.DAYS(B$118,I126)</f>
         <v>-1</v>
       </c>
       <c r="K126" s="13" t="n">
-        <f aca="false">B$118+1</f>
-        <v>43917</v>
+        <f aca="false">$B$118+1</f>
+        <v>43918</v>
       </c>
       <c r="L126" s="0"/>
       <c r="M126" s="0"/>
@@ -4604,6 +4655,424 @@
       <c r="O126" s="0"/>
       <c r="P126" s="0"/>
       <c r="Q126" s="0"/>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D127" s="0"/>
+      <c r="E127" s="0"/>
+      <c r="F127" s="0"/>
+      <c r="G127" s="0"/>
+      <c r="H127" s="0"/>
+      <c r="I127" s="0"/>
+      <c r="J127" s="0"/>
+      <c r="K127" s="0"/>
+      <c r="L127" s="0"/>
+      <c r="M127" s="0"/>
+      <c r="N127" s="0"/>
+      <c r="O127" s="0"/>
+      <c r="P127" s="0"/>
+      <c r="Q127" s="0"/>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D128" s="0"/>
+      <c r="E128" s="0"/>
+      <c r="F128" s="0"/>
+      <c r="G128" s="0"/>
+      <c r="H128" s="0"/>
+      <c r="I128" s="0"/>
+      <c r="J128" s="0"/>
+      <c r="K128" s="0"/>
+      <c r="L128" s="0"/>
+      <c r="M128" s="0"/>
+      <c r="N128" s="0"/>
+      <c r="O128" s="0"/>
+      <c r="P128" s="0"/>
+      <c r="Q128" s="0"/>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B129" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D129" s="0"/>
+      <c r="E129" s="0"/>
+      <c r="F129" s="0"/>
+      <c r="G129" s="0"/>
+      <c r="H129" s="0"/>
+      <c r="I129" s="0"/>
+      <c r="J129" s="0"/>
+      <c r="K129" s="0"/>
+      <c r="L129" s="0"/>
+      <c r="M129" s="0"/>
+      <c r="N129" s="0"/>
+      <c r="O129" s="0"/>
+      <c r="P129" s="0"/>
+      <c r="Q129" s="0"/>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B130" s="7" t="n">
+        <v>43916</v>
+      </c>
+      <c r="D130" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E130" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H130" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I130" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J130" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K130" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="L130" s="0"/>
+      <c r="M130" s="0"/>
+      <c r="N130" s="0"/>
+      <c r="O130" s="0"/>
+      <c r="P130" s="0"/>
+      <c r="Q130" s="0"/>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B131" s="9"/>
+      <c r="C131" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D131" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E131" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F131" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G131" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H131" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I131" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="J131" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="K131" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="L131" s="0"/>
+      <c r="M131" s="0"/>
+      <c r="N131" s="0"/>
+      <c r="O131" s="0"/>
+      <c r="P131" s="0"/>
+      <c r="Q131" s="0"/>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B132" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C132" s="12" t="n">
+        <v>300</v>
+      </c>
+      <c r="D132" s="1" t="n">
+        <v>8215</v>
+      </c>
+      <c r="E132" s="12" t="n">
+        <f aca="false">D132/60.48</f>
+        <v>135.830026455026</v>
+      </c>
+      <c r="F132" s="12" t="n">
+        <v>712</v>
+      </c>
+      <c r="G132" s="13" t="n">
+        <v>43900</v>
+      </c>
+      <c r="H132" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$130,G132)</f>
+        <v>16</v>
+      </c>
+      <c r="I132" s="13" t="n">
+        <v>43902</v>
+      </c>
+      <c r="J132" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$130,I132)</f>
+        <v>14</v>
+      </c>
+      <c r="K132" s="13" t="n">
+        <f aca="false">B$130+1</f>
+        <v>43917</v>
+      </c>
+      <c r="L132" s="0"/>
+      <c r="M132" s="0"/>
+      <c r="N132" s="0"/>
+      <c r="O132" s="0"/>
+      <c r="P132" s="0"/>
+      <c r="Q132" s="0"/>
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B133" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C133" s="12" t="n">
+        <v>230</v>
+      </c>
+      <c r="D133" s="1" t="n">
+        <v>4365</v>
+      </c>
+      <c r="E133" s="12" t="n">
+        <f aca="false">D133/46.75</f>
+        <v>93.3689839572193</v>
+      </c>
+      <c r="F133" s="12" t="n">
+        <v>718</v>
+      </c>
+      <c r="G133" s="13" t="n">
+        <v>43907</v>
+      </c>
+      <c r="H133" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$130,G133)</f>
+        <v>9</v>
+      </c>
+      <c r="I133" s="13" t="n">
+        <v>43913</v>
+      </c>
+      <c r="J133" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$130,I133)</f>
+        <v>3</v>
+      </c>
+      <c r="K133" s="13" t="n">
+        <f aca="false">B$130+1</f>
+        <v>43917</v>
+      </c>
+      <c r="L133" s="0"/>
+      <c r="M133" s="0"/>
+      <c r="N133" s="0"/>
+      <c r="O133" s="0"/>
+      <c r="P133" s="0"/>
+      <c r="Q133" s="0"/>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B134" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C134" s="12" t="n">
+        <v>330</v>
+      </c>
+      <c r="D134" s="1" t="n">
+        <v>1696</v>
+      </c>
+      <c r="E134" s="12" t="n">
+        <f aca="false">D134/65.27</f>
+        <v>25.9843726060978</v>
+      </c>
+      <c r="F134" s="12" t="n">
+        <v>365</v>
+      </c>
+      <c r="G134" s="13" t="n">
+        <v>43912</v>
+      </c>
+      <c r="H134" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$130,G134)</f>
+        <v>4</v>
+      </c>
+      <c r="I134" s="13" t="n">
+        <v>43914</v>
+      </c>
+      <c r="J134" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$130,I134)</f>
+        <v>2</v>
+      </c>
+      <c r="K134" s="13" t="n">
+        <f aca="false">B$130+1</f>
+        <v>43917</v>
+      </c>
+      <c r="L134" s="0"/>
+      <c r="M134" s="0"/>
+      <c r="N134" s="0"/>
+      <c r="O134" s="0"/>
+      <c r="P134" s="0"/>
+      <c r="Q134" s="0"/>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B135" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C135" s="12" t="n">
+        <v>1660</v>
+      </c>
+      <c r="D135" s="1" t="n">
+        <v>1295</v>
+      </c>
+      <c r="E135" s="12" t="n">
+        <f aca="false">D135/331</f>
+        <v>3.91238670694864</v>
+      </c>
+      <c r="F135" s="12" t="n">
+        <v>268</v>
+      </c>
+      <c r="G135" s="13" t="n">
+        <v>43917</v>
+      </c>
+      <c r="H135" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$130,G135)</f>
+        <v>-1</v>
+      </c>
+      <c r="I135" s="13" t="n">
+        <f aca="false">B$130+1</f>
+        <v>43917</v>
+      </c>
+      <c r="J135" s="1" t="n">
+        <f aca="false">_xlfn.DAYS($B$130,I135)</f>
+        <v>-1</v>
+      </c>
+      <c r="K135" s="13" t="n">
+        <f aca="false">B$130+1</f>
+        <v>43917</v>
+      </c>
+      <c r="L135" s="0"/>
+      <c r="M135" s="0"/>
+      <c r="N135" s="0"/>
+      <c r="O135" s="0"/>
+      <c r="P135" s="0"/>
+      <c r="Q135" s="0"/>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B136" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C136" s="12" t="n">
+        <v>330</v>
+      </c>
+      <c r="D136" s="1" t="n">
+        <v>578</v>
+      </c>
+      <c r="E136" s="12" t="n">
+        <f aca="false">D136/67.79</f>
+        <v>8.52633131730344</v>
+      </c>
+      <c r="F136" s="12" t="n">
+        <v>115</v>
+      </c>
+      <c r="G136" s="13" t="n">
+        <v>43916</v>
+      </c>
+      <c r="H136" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$130,G136)</f>
+        <v>0</v>
+      </c>
+      <c r="I136" s="13" t="n">
+        <f aca="false">B$130+1</f>
+        <v>43917</v>
+      </c>
+      <c r="J136" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$130,I136)</f>
+        <v>-1</v>
+      </c>
+      <c r="K136" s="13" t="n">
+        <f aca="false">B$130+1</f>
+        <v>43917</v>
+      </c>
+      <c r="L136" s="0"/>
+      <c r="M136" s="0"/>
+      <c r="N136" s="0"/>
+      <c r="O136" s="0"/>
+      <c r="P136" s="0"/>
+      <c r="Q136" s="0"/>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B137" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C137" s="12" t="n">
+        <v>414</v>
+      </c>
+      <c r="D137" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="E137" s="12" t="n">
+        <f aca="false">D137/83.784</f>
+        <v>3.18676596963621</v>
+      </c>
+      <c r="F137" s="12" t="n">
+        <v>61</v>
+      </c>
+      <c r="G137" s="13" t="n">
+        <v>43917</v>
+      </c>
+      <c r="H137" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$130,G137)</f>
+        <v>-1</v>
+      </c>
+      <c r="I137" s="13" t="n">
+        <f aca="false">B$130+1</f>
+        <v>43917</v>
+      </c>
+      <c r="J137" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$130,I137)</f>
+        <v>-1</v>
+      </c>
+      <c r="K137" s="13" t="n">
+        <f aca="false">B$130+1</f>
+        <v>43917</v>
+      </c>
+      <c r="L137" s="0"/>
+      <c r="M137" s="0"/>
+      <c r="N137" s="0"/>
+      <c r="O137" s="0"/>
+      <c r="P137" s="0"/>
+      <c r="Q137" s="0"/>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B138" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C138" s="12" t="n">
+        <v>50</v>
+      </c>
+      <c r="D138" s="12" t="n">
+        <v>77</v>
+      </c>
+      <c r="E138" s="12" t="n">
+        <f aca="false">D138/10.36</f>
+        <v>7.43243243243243</v>
+      </c>
+      <c r="F138" s="12" t="n">
+        <v>15</v>
+      </c>
+      <c r="G138" s="13" t="n">
+        <v>43915</v>
+      </c>
+      <c r="H138" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$130,G138)</f>
+        <v>1</v>
+      </c>
+      <c r="I138" s="13" t="n">
+        <f aca="false">B$130+1</f>
+        <v>43917</v>
+      </c>
+      <c r="J138" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$130,I138)</f>
+        <v>-1</v>
+      </c>
+      <c r="K138" s="13" t="n">
+        <f aca="false">B$130+1</f>
+        <v>43917</v>
+      </c>
+      <c r="L138" s="0"/>
+      <c r="M138" s="0"/>
+      <c r="N138" s="0"/>
+      <c r="O138" s="0"/>
+      <c r="P138" s="0"/>
+      <c r="Q138" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/covid19 lockdown evaluation .xlsx
+++ b/covid19 lockdown evaluation .xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="53">
   <si>
     <t>Effects of the lockdown issued by governments</t>
   </si>
@@ -26,7 +26,7 @@
     <t>0n Apr, 5th, data for USA changed: malues for 2, 3 was:  6071, 7232 – they becomes:  6076, 7121</t>
   </si>
   <si>
-    <t>6071, </t>
+    <t>6071,</t>
   </si>
   <si>
     <t>LEGENDA</t>
@@ -279,7 +279,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -336,10 +336,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -357,9 +353,9 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q138"/>
+  <dimension ref="A1:Q150"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F31" activeCellId="0" sqref="F31"/>
     </sheetView>
   </sheetViews>
@@ -809,7 +805,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="7" t="n">
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="D22" s="0"/>
       <c r="E22" s="8" t="s">
@@ -886,31 +882,31 @@
         <v>300</v>
       </c>
       <c r="D24" s="1" t="n">
-        <v>15362</v>
+        <v>15887</v>
       </c>
       <c r="E24" s="12" t="n">
         <f aca="false">D24/60.48</f>
-        <v>254.001322751323</v>
+        <v>262.681878306878</v>
       </c>
       <c r="F24" s="12" t="n">
-        <v>681</v>
+        <v>525</v>
       </c>
       <c r="G24" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H24" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,G24)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I24" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J24" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,I24)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K24" s="13" t="n">
-        <f aca="false">$B$22+1</f>
+        <f aca="false">$B$34+1</f>
         <v>43926</v>
       </c>
       <c r="L24" s="0" t="n">
@@ -931,31 +927,31 @@
         <v>230</v>
       </c>
       <c r="D25" s="1" t="n">
-        <v>11947</v>
+        <v>12641</v>
       </c>
       <c r="E25" s="12" t="n">
         <f aca="false">D25/46.75</f>
-        <v>255.550802139037</v>
+        <v>270.395721925134</v>
       </c>
       <c r="F25" s="12" t="n">
-        <v>749</v>
+        <v>694</v>
       </c>
       <c r="G25" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H25" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,G25)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I25" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J25" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,I25)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K25" s="13" t="n">
-        <f aca="false">$B$22+1</f>
+        <f aca="false">$B$34+1</f>
         <v>43926</v>
       </c>
       <c r="L25" s="0" t="n">
@@ -976,31 +972,31 @@
         <v>330</v>
       </c>
       <c r="D26" s="1" t="n">
-        <v>7560</v>
+        <v>8078</v>
       </c>
       <c r="E26" s="12" t="n">
         <f aca="false">D26/65.27</f>
-        <v>115.826566569634</v>
+        <v>123.762831316072</v>
       </c>
       <c r="F26" s="12" t="n">
-        <v>1053</v>
+        <v>518</v>
       </c>
       <c r="G26" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H26" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,G26)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I26" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J26" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,I26)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K26" s="13" t="n">
-        <f aca="false">$B$22+1</f>
+        <f aca="false">$B$34+1</f>
         <v>43926</v>
       </c>
       <c r="L26" s="0" t="n">
@@ -1021,32 +1017,32 @@
         <v>50</v>
       </c>
       <c r="D27" s="12" t="n">
-        <v>373</v>
+        <v>401</v>
       </c>
       <c r="E27" s="12" t="n">
         <f aca="false">D27/10.36</f>
-        <v>36.003861003861</v>
+        <v>38.7065637065637</v>
       </c>
       <c r="F27" s="12" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="G27" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H27" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,G27)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I27" s="13" t="n">
         <f aca="false">$B$22+1</f>
-        <v>43926</v>
-      </c>
-      <c r="J27" s="14" t="n">
+        <v>43927</v>
+      </c>
+      <c r="J27" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,I27)</f>
         <v>-1</v>
       </c>
       <c r="K27" s="13" t="n">
-        <f aca="false">$B$22+1</f>
+        <f aca="false">$B$34+1</f>
         <v>43926</v>
       </c>
       <c r="L27" s="0" t="n">
@@ -1067,32 +1063,32 @@
         <v>330</v>
       </c>
       <c r="D28" s="1" t="n">
-        <v>4313</v>
+        <v>4934</v>
       </c>
       <c r="E28" s="12" t="n">
         <f aca="false">D28/67.79</f>
-        <v>63.6229532379407</v>
+        <v>72.7835964006491</v>
       </c>
       <c r="F28" s="12" t="n">
-        <v>708</v>
+        <v>621</v>
       </c>
       <c r="G28" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H28" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,G28)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I28" s="13" t="n">
         <f aca="false">$B$22+1</f>
-        <v>43926</v>
-      </c>
-      <c r="J28" s="14" t="n">
+        <v>43927</v>
+      </c>
+      <c r="J28" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,I28)</f>
         <v>-1</v>
       </c>
       <c r="K28" s="13" t="n">
-        <f aca="false">$B$22+1</f>
+        <f aca="false">$B$34+1</f>
         <v>43926</v>
       </c>
       <c r="L28" s="0" t="n">
@@ -1113,32 +1109,32 @@
         <v>1660</v>
       </c>
       <c r="D29" s="1" t="n">
-        <v>8452</v>
+        <v>9616</v>
       </c>
       <c r="E29" s="12" t="n">
         <f aca="false">D29/331</f>
-        <v>25.5347432024169</v>
+        <v>29.0513595166163</v>
       </c>
       <c r="F29" s="12" t="n">
-        <v>1331</v>
+        <v>1165</v>
       </c>
       <c r="G29" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H29" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,G29)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I29" s="13" t="n">
         <f aca="false">$B$22+1</f>
-        <v>43926</v>
-      </c>
-      <c r="J29" s="14" t="n">
+        <v>43927</v>
+      </c>
+      <c r="J29" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,I29)</f>
         <v>-1</v>
       </c>
       <c r="K29" s="13" t="n">
-        <f aca="false">$B$22+1</f>
+        <f aca="false">$B$34+1</f>
         <v>43926</v>
       </c>
       <c r="L29" s="0" t="n">
@@ -1159,32 +1155,32 @@
         <v>414</v>
       </c>
       <c r="D30" s="1" t="n">
-        <v>1444</v>
+        <v>1584</v>
       </c>
       <c r="E30" s="12" t="n">
         <f aca="false">D30/83.784</f>
-        <v>17.2347942327891</v>
+        <v>18.9057576625609</v>
       </c>
       <c r="F30" s="12" t="n">
-        <v>169</v>
+        <v>140</v>
       </c>
       <c r="G30" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H30" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,G30)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I30" s="13" t="n">
         <f aca="false">$B$22+1</f>
-        <v>43926</v>
-      </c>
-      <c r="J30" s="14" t="n">
+        <v>43927</v>
+      </c>
+      <c r="J30" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,I30)</f>
         <v>-1</v>
       </c>
       <c r="K30" s="13" t="n">
-        <f aca="false">$B$22+1</f>
+        <f aca="false">$B$34+1</f>
         <v>43926</v>
       </c>
       <c r="L30" s="0" t="n">
@@ -1254,7 +1250,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="7" t="n">
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="D34" s="0"/>
       <c r="E34" s="8" t="s">
@@ -1331,36 +1327,36 @@
         <v>300</v>
       </c>
       <c r="D36" s="1" t="n">
-        <v>14681</v>
+        <v>15362</v>
       </c>
       <c r="E36" s="12" t="n">
         <f aca="false">D36/60.48</f>
-        <v>242.741402116402</v>
+        <v>254.001322751323</v>
       </c>
       <c r="F36" s="12" t="n">
-        <v>766</v>
+        <v>681</v>
       </c>
       <c r="G36" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H36" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,G36)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I36" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J36" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,I36)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K36" s="13" t="n">
         <f aca="false">$B$34+1</f>
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="L36" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K36,G36)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M36" s="0"/>
       <c r="N36" s="0"/>
@@ -1376,36 +1372,36 @@
         <v>230</v>
       </c>
       <c r="D37" s="1" t="n">
-        <v>11198</v>
+        <v>11947</v>
       </c>
       <c r="E37" s="12" t="n">
         <f aca="false">D37/46.75</f>
-        <v>239.529411764706</v>
+        <v>255.550802139037</v>
       </c>
       <c r="F37" s="12" t="n">
-        <v>850</v>
+        <v>749</v>
       </c>
       <c r="G37" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H37" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$46,G37)</f>
-        <v>16</v>
+        <f aca="false">_xlfn.DAYS($B$34,G37)</f>
+        <v>18</v>
       </c>
       <c r="I37" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J37" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,I37)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K37" s="13" t="n">
         <f aca="false">$B$34+1</f>
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="L37" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K37,G37)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M37" s="0"/>
       <c r="N37" s="0"/>
@@ -1421,36 +1417,36 @@
         <v>330</v>
       </c>
       <c r="D38" s="1" t="n">
-        <v>6507</v>
+        <v>7560</v>
       </c>
       <c r="E38" s="12" t="n">
         <f aca="false">D38/65.27</f>
-        <v>99.6935805117206</v>
+        <v>115.826566569634</v>
       </c>
       <c r="F38" s="12" t="n">
-        <v>1120</v>
+        <v>1053</v>
       </c>
       <c r="G38" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H38" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$46,G38)</f>
-        <v>11</v>
+        <f aca="false">_xlfn.DAYS($B$34,G38)</f>
+        <v>13</v>
       </c>
       <c r="I38" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J38" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,I38)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K38" s="13" t="n">
         <f aca="false">$B$34+1</f>
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="L38" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K38,G38)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M38" s="0"/>
       <c r="N38" s="0"/>
@@ -1466,25 +1462,25 @@
         <v>50</v>
       </c>
       <c r="D39" s="12" t="n">
-        <v>358</v>
+        <v>373</v>
       </c>
       <c r="E39" s="12" t="n">
         <f aca="false">D39/10.36</f>
-        <v>34.5559845559846</v>
+        <v>36.003861003861</v>
       </c>
       <c r="F39" s="12" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="G39" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H39" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$46,G39)</f>
-        <v>8</v>
+        <f aca="false">_xlfn.DAYS($B$34,G39)</f>
+        <v>10</v>
       </c>
       <c r="I39" s="13" t="n">
         <f aca="false">$B$34+1</f>
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="J39" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,I39)</f>
@@ -1492,11 +1488,11 @@
       </c>
       <c r="K39" s="13" t="n">
         <f aca="false">$B$34+1</f>
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="L39" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K39,G39)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M39" s="0"/>
       <c r="N39" s="0"/>
@@ -1512,25 +1508,25 @@
         <v>330</v>
       </c>
       <c r="D40" s="1" t="n">
-        <v>3605</v>
+        <v>4313</v>
       </c>
       <c r="E40" s="12" t="n">
         <f aca="false">D40/67.79</f>
-        <v>53.1789349461573</v>
+        <v>63.6229532379407</v>
       </c>
       <c r="F40" s="12" t="n">
-        <v>684</v>
+        <v>708</v>
       </c>
       <c r="G40" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H40" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$46,G40)</f>
-        <v>7</v>
+        <f aca="false">_xlfn.DAYS($B$34,G40)</f>
+        <v>9</v>
       </c>
       <c r="I40" s="13" t="n">
         <f aca="false">$B$34+1</f>
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="J40" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,I40)</f>
@@ -1538,11 +1534,11 @@
       </c>
       <c r="K40" s="13" t="n">
         <f aca="false">$B$34+1</f>
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="L40" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K40,G40)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M40" s="0"/>
       <c r="N40" s="0"/>
@@ -1558,25 +1554,25 @@
         <v>1660</v>
       </c>
       <c r="D41" s="1" t="n">
-        <v>7121</v>
+        <v>8451</v>
       </c>
       <c r="E41" s="12" t="n">
         <f aca="false">D41/331</f>
-        <v>21.5135951661631</v>
+        <v>25.5317220543807</v>
       </c>
       <c r="F41" s="12" t="n">
-        <v>1045</v>
+        <v>1330</v>
       </c>
       <c r="G41" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H41" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$46,G41)</f>
-        <v>6</v>
+        <f aca="false">_xlfn.DAYS($B$34,G41)</f>
+        <v>8</v>
       </c>
       <c r="I41" s="13" t="n">
         <f aca="false">$B$34+1</f>
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="J41" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,I41)</f>
@@ -1584,11 +1580,11 @@
       </c>
       <c r="K41" s="13" t="n">
         <f aca="false">$B$34+1</f>
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="L41" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K41,G41)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M41" s="0"/>
       <c r="N41" s="0"/>
@@ -1604,25 +1600,25 @@
         <v>414</v>
       </c>
       <c r="D42" s="1" t="n">
-        <v>1275</v>
+        <v>1444</v>
       </c>
       <c r="E42" s="12" t="n">
         <f aca="false">D42/83.784</f>
-        <v>15.2177026639931</v>
+        <v>17.2347942327891</v>
       </c>
       <c r="F42" s="12" t="n">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G42" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H42" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$46,G42)</f>
-        <v>5</v>
+        <f aca="false">_xlfn.DAYS($B$34,G42)</f>
+        <v>7</v>
       </c>
       <c r="I42" s="13" t="n">
         <f aca="false">$B$34+1</f>
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="J42" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,I42)</f>
@@ -1630,11 +1626,11 @@
       </c>
       <c r="K42" s="13" t="n">
         <f aca="false">$B$34+1</f>
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="L42" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K42,G42)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M42" s="0"/>
       <c r="N42" s="0"/>
@@ -1699,7 +1695,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="7" t="n">
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="D46" s="0"/>
       <c r="E46" s="8" t="s">
@@ -1776,36 +1772,36 @@
         <v>300</v>
       </c>
       <c r="D48" s="1" t="n">
-        <v>13915</v>
+        <v>14681</v>
       </c>
       <c r="E48" s="12" t="n">
         <f aca="false">D48/60.48</f>
-        <v>230.076058201058</v>
+        <v>242.741402116402</v>
       </c>
       <c r="F48" s="12" t="n">
-        <v>760</v>
+        <v>766</v>
       </c>
       <c r="G48" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H48" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,G48)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I48" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J48" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,I48)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K48" s="13" t="n">
         <f aca="false">$B$46+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="L48" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K48,G48)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M48" s="0"/>
       <c r="N48" s="0"/>
@@ -1821,20 +1817,20 @@
         <v>230</v>
       </c>
       <c r="D49" s="1" t="n">
-        <v>10348</v>
+        <v>11198</v>
       </c>
       <c r="E49" s="12" t="n">
         <f aca="false">D49/46.75</f>
-        <v>221.347593582888</v>
+        <v>239.529411764706</v>
       </c>
       <c r="F49" s="12" t="n">
-        <v>961</v>
+        <v>850</v>
       </c>
       <c r="G49" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H49" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$46,G49)</f>
+        <f aca="false">_xlfn.DAYS($B$58,G49)</f>
         <v>16</v>
       </c>
       <c r="I49" s="13" t="n">
@@ -1842,15 +1838,15 @@
       </c>
       <c r="J49" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,I49)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K49" s="13" t="n">
         <f aca="false">$B$46+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="L49" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K49,G49)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M49" s="0"/>
       <c r="N49" s="0"/>
@@ -1866,20 +1862,20 @@
         <v>330</v>
       </c>
       <c r="D50" s="1" t="n">
-        <v>5387</v>
+        <v>6507</v>
       </c>
       <c r="E50" s="12" t="n">
         <f aca="false">D50/65.27</f>
-        <v>82.5340891680711</v>
+        <v>99.6935805117206</v>
       </c>
       <c r="F50" s="12" t="n">
-        <v>1355</v>
+        <v>1120</v>
       </c>
       <c r="G50" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H50" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$46,G50)</f>
+        <f aca="false">_xlfn.DAYS($B$58,G50)</f>
         <v>11</v>
       </c>
       <c r="I50" s="13" t="n">
@@ -1887,15 +1883,15 @@
       </c>
       <c r="J50" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,I50)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K50" s="13" t="n">
         <f aca="false">$B$46+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="L50" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K50,G50)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M50" s="0"/>
       <c r="N50" s="0"/>
@@ -1911,25 +1907,25 @@
         <v>50</v>
       </c>
       <c r="D51" s="12" t="n">
-        <v>308</v>
+        <v>358</v>
       </c>
       <c r="E51" s="12" t="n">
         <f aca="false">D51/10.36</f>
-        <v>29.7297297297297</v>
+        <v>34.5559845559846</v>
       </c>
       <c r="F51" s="12" t="n">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="G51" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H51" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$46,G51)</f>
+        <f aca="false">_xlfn.DAYS($B$58,G51)</f>
         <v>8</v>
       </c>
       <c r="I51" s="13" t="n">
         <f aca="false">$B$46+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="J51" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,I51)</f>
@@ -1937,11 +1933,11 @@
       </c>
       <c r="K51" s="13" t="n">
         <f aca="false">$B$46+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="L51" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K51,G51)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M51" s="0"/>
       <c r="N51" s="0"/>
@@ -1957,25 +1953,25 @@
         <v>330</v>
       </c>
       <c r="D52" s="1" t="n">
-        <v>2921</v>
+        <v>3605</v>
       </c>
       <c r="E52" s="12" t="n">
         <f aca="false">D52/67.79</f>
-        <v>43.0889511727393</v>
+        <v>53.1789349461573</v>
       </c>
       <c r="F52" s="12" t="n">
-        <v>569</v>
+        <v>684</v>
       </c>
       <c r="G52" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H52" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$46,G52)</f>
+        <f aca="false">_xlfn.DAYS($B$58,G52)</f>
         <v>7</v>
       </c>
       <c r="I52" s="13" t="n">
         <f aca="false">$B$46+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="J52" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,I52)</f>
@@ -1983,11 +1979,11 @@
       </c>
       <c r="K52" s="13" t="n">
         <f aca="false">$B$46+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="L52" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K52,G52)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M52" s="0"/>
       <c r="N52" s="0"/>
@@ -2003,25 +1999,25 @@
         <v>1660</v>
       </c>
       <c r="D53" s="1" t="n">
-        <v>6076</v>
+        <v>7121</v>
       </c>
       <c r="E53" s="12" t="n">
         <f aca="false">D53/331</f>
-        <v>18.3564954682779</v>
+        <v>21.5135951661631</v>
       </c>
       <c r="F53" s="12" t="n">
-        <v>969</v>
+        <v>1045</v>
       </c>
       <c r="G53" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H53" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$46,G53)</f>
+        <f aca="false">_xlfn.DAYS($B$58,G53)</f>
         <v>6</v>
       </c>
       <c r="I53" s="13" t="n">
         <f aca="false">$B$46+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="J53" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,I53)</f>
@@ -2029,11 +2025,11 @@
       </c>
       <c r="K53" s="13" t="n">
         <f aca="false">$B$46+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="L53" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K53,G53)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M53" s="0"/>
       <c r="N53" s="0"/>
@@ -2049,25 +2045,25 @@
         <v>414</v>
       </c>
       <c r="D54" s="1" t="n">
-        <v>1107</v>
+        <v>1275</v>
       </c>
       <c r="E54" s="12" t="n">
         <f aca="false">D54/83.784</f>
-        <v>13.212546548267</v>
+        <v>15.2177026639931</v>
       </c>
       <c r="F54" s="12" t="n">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="G54" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H54" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$46,G54)</f>
+        <f aca="false">_xlfn.DAYS($B$58,G54)</f>
         <v>5</v>
       </c>
       <c r="I54" s="13" t="n">
         <f aca="false">$B$46+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="J54" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,I54)</f>
@@ -2075,11 +2071,11 @@
       </c>
       <c r="K54" s="13" t="n">
         <f aca="false">$B$46+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="L54" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K54,G54)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M54" s="0"/>
       <c r="N54" s="0"/>
@@ -2144,7 +2140,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="7" t="n">
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="D58" s="0"/>
       <c r="E58" s="8" t="s">
@@ -2221,36 +2217,36 @@
         <v>300</v>
       </c>
       <c r="D60" s="1" t="n">
-        <v>13155</v>
+        <v>13915</v>
       </c>
       <c r="E60" s="12" t="n">
         <f aca="false">D60/60.48</f>
-        <v>217.509920634921</v>
+        <v>230.076058201058</v>
       </c>
       <c r="F60" s="12" t="n">
-        <v>727</v>
+        <v>760</v>
       </c>
       <c r="G60" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H60" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,G60)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I60" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J60" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,I60)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K60" s="13" t="n">
         <f aca="false">$B$58+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="L60" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K60,G60)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M60" s="0"/>
       <c r="N60" s="0"/>
@@ -2266,36 +2262,36 @@
         <v>230</v>
       </c>
       <c r="D61" s="1" t="n">
-        <v>9387</v>
+        <v>10348</v>
       </c>
       <c r="E61" s="12" t="n">
         <f aca="false">D61/46.75</f>
-        <v>200.791443850267</v>
+        <v>221.347593582888</v>
       </c>
       <c r="F61" s="12" t="n">
-        <v>923</v>
+        <v>961</v>
       </c>
       <c r="G61" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H61" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,G61)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I61" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J61" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,I61)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K61" s="13" t="n">
         <f aca="false">$B$58+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="L61" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K61,G61)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M61" s="0"/>
       <c r="N61" s="0"/>
@@ -2311,36 +2307,36 @@
         <v>330</v>
       </c>
       <c r="D62" s="1" t="n">
-        <v>4032</v>
+        <v>5387</v>
       </c>
       <c r="E62" s="12" t="n">
         <f aca="false">D62/65.27</f>
-        <v>61.7741688371381</v>
+        <v>82.5340891680711</v>
       </c>
       <c r="F62" s="12" t="n">
-        <v>509</v>
+        <v>1355</v>
       </c>
       <c r="G62" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H62" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,G62)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I62" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J62" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,I62)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K62" s="13" t="n">
         <f aca="false">$B$58+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="L62" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K62,G62)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M62" s="0"/>
       <c r="N62" s="0"/>
@@ -2356,25 +2352,25 @@
         <v>50</v>
       </c>
       <c r="D63" s="12" t="n">
-        <v>239</v>
+        <v>308</v>
       </c>
       <c r="E63" s="12" t="n">
         <f aca="false">D63/10.36</f>
-        <v>23.0694980694981</v>
+        <v>29.7297297297297</v>
       </c>
       <c r="F63" s="12" t="n">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="G63" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H63" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,G63)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I63" s="13" t="n">
         <f aca="false">$B$58+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="J63" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,I63)</f>
@@ -2382,11 +2378,11 @@
       </c>
       <c r="K63" s="13" t="n">
         <f aca="false">$B$58+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="L63" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K63,G63)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M63" s="0"/>
       <c r="N63" s="0"/>
@@ -2402,25 +2398,25 @@
         <v>330</v>
       </c>
       <c r="D64" s="1" t="n">
-        <v>2352</v>
+        <v>2921</v>
       </c>
       <c r="E64" s="12" t="n">
         <f aca="false">D64/67.79</f>
-        <v>34.695382799823</v>
+        <v>43.0889511727393</v>
       </c>
       <c r="F64" s="12" t="n">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="G64" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H64" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,G64)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I64" s="13" t="n">
         <f aca="false">$B$58+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="J64" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,I64)</f>
@@ -2428,11 +2424,11 @@
       </c>
       <c r="K64" s="13" t="n">
         <f aca="false">$B$58+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="L64" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K64,G64)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M64" s="0"/>
       <c r="N64" s="0"/>
@@ -2448,25 +2444,25 @@
         <v>1660</v>
       </c>
       <c r="D65" s="1" t="n">
-        <v>5102</v>
+        <v>6076</v>
       </c>
       <c r="E65" s="12" t="n">
         <f aca="false">D65/331</f>
-        <v>15.4138972809668</v>
+        <v>18.3564954682779</v>
       </c>
       <c r="F65" s="12" t="n">
-        <v>1049</v>
+        <v>969</v>
       </c>
       <c r="G65" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H65" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,G65)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I65" s="13" t="n">
         <f aca="false">$B$58+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="J65" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,I65)</f>
@@ -2474,11 +2470,11 @@
       </c>
       <c r="K65" s="13" t="n">
         <f aca="false">$B$58+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="L65" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K65,G65)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M65" s="0"/>
       <c r="N65" s="0"/>
@@ -2494,25 +2490,25 @@
         <v>414</v>
       </c>
       <c r="D66" s="1" t="n">
-        <v>931</v>
+        <v>1107</v>
       </c>
       <c r="E66" s="12" t="n">
         <f aca="false">D66/83.784</f>
-        <v>11.1119068079824</v>
+        <v>13.212546548267</v>
       </c>
       <c r="F66" s="12" t="n">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="G66" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H66" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,G66)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I66" s="13" t="n">
         <f aca="false">$B$58+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="J66" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,I66)</f>
@@ -2520,11 +2516,11 @@
       </c>
       <c r="K66" s="13" t="n">
         <f aca="false">$B$58+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="L66" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K66,G66)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M66" s="0"/>
       <c r="N66" s="0"/>
@@ -2589,7 +2585,7 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="7" t="n">
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="D70" s="0"/>
       <c r="E70" s="8" t="s">
@@ -2666,36 +2662,36 @@
         <v>300</v>
       </c>
       <c r="D72" s="1" t="n">
-        <v>12428</v>
+        <v>13155</v>
       </c>
       <c r="E72" s="12" t="n">
         <f aca="false">D72/60.48</f>
-        <v>205.489417989418</v>
+        <v>217.509920634921</v>
       </c>
       <c r="F72" s="12" t="n">
-        <v>837</v>
+        <v>727</v>
       </c>
       <c r="G72" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H72" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,G72)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I72" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J72" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,I72)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K72" s="13" t="n">
         <f aca="false">$B$70+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="L72" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K72,G72)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M72" s="0"/>
       <c r="N72" s="0"/>
@@ -2711,36 +2707,36 @@
         <v>230</v>
       </c>
       <c r="D73" s="1" t="n">
-        <v>8464</v>
+        <v>9387</v>
       </c>
       <c r="E73" s="12" t="n">
         <f aca="false">D73/46.75</f>
-        <v>181.048128342246</v>
+        <v>200.791443850267</v>
       </c>
       <c r="F73" s="12" t="n">
-        <v>748</v>
+        <v>923</v>
       </c>
       <c r="G73" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H73" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,G73)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I73" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J73" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,I73)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K73" s="13" t="n">
         <f aca="false">$B$70+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="L73" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K73,G73)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M73" s="0"/>
       <c r="N73" s="0"/>
@@ -2756,36 +2752,36 @@
         <v>330</v>
       </c>
       <c r="D74" s="1" t="n">
-        <v>3523</v>
+        <v>4032</v>
       </c>
       <c r="E74" s="12" t="n">
         <f aca="false">D74/65.27</f>
-        <v>53.9757928604259</v>
+        <v>61.7741688371381</v>
       </c>
       <c r="F74" s="12" t="n">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="G74" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H74" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,G74)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I74" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J74" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,I74)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K74" s="13" t="n">
         <f aca="false">$B$70+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="L74" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K74,G74)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M74" s="0"/>
       <c r="N74" s="0"/>
@@ -2801,25 +2797,25 @@
         <v>50</v>
       </c>
       <c r="D75" s="12" t="n">
-        <v>180</v>
+        <v>239</v>
       </c>
       <c r="E75" s="12" t="n">
         <f aca="false">D75/10.36</f>
-        <v>17.3745173745174</v>
+        <v>23.0694980694981</v>
       </c>
       <c r="F75" s="12" t="n">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="G75" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H75" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,G75)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I75" s="13" t="n">
         <f aca="false">$B$70+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="J75" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,I75)</f>
@@ -2827,11 +2823,11 @@
       </c>
       <c r="K75" s="13" t="n">
         <f aca="false">$B$70+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="L75" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K75,G75)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M75" s="0"/>
       <c r="N75" s="0"/>
@@ -2847,25 +2843,25 @@
         <v>330</v>
       </c>
       <c r="D76" s="1" t="n">
-        <v>1789</v>
+        <v>2352</v>
       </c>
       <c r="E76" s="12" t="n">
         <f aca="false">D76/67.79</f>
-        <v>26.390323056498</v>
+        <v>34.695382799823</v>
       </c>
       <c r="F76" s="12" t="n">
-        <v>381</v>
+        <v>563</v>
       </c>
       <c r="G76" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H76" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,G76)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I76" s="13" t="n">
         <f aca="false">$B$70+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="J76" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,I76)</f>
@@ -2873,11 +2869,11 @@
       </c>
       <c r="K76" s="13" t="n">
         <f aca="false">$B$70+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="L76" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K76,G76)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M76" s="0"/>
       <c r="N76" s="0"/>
@@ -2893,25 +2889,25 @@
         <v>1660</v>
       </c>
       <c r="D77" s="1" t="n">
-        <v>4053</v>
+        <v>5102</v>
       </c>
       <c r="E77" s="12" t="n">
         <f aca="false">D77/331</f>
-        <v>12.2447129909366</v>
+        <v>15.4138972809668</v>
       </c>
       <c r="F77" s="12" t="n">
-        <v>912</v>
+        <v>1049</v>
       </c>
       <c r="G77" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H77" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,G77)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I77" s="13" t="n">
         <f aca="false">$B$70+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="J77" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,I77)</f>
@@ -2919,11 +2915,11 @@
       </c>
       <c r="K77" s="13" t="n">
         <f aca="false">$B$70+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="L77" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K77,G77)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M77" s="0"/>
       <c r="N77" s="0"/>
@@ -2939,25 +2935,25 @@
         <v>414</v>
       </c>
       <c r="D78" s="1" t="n">
-        <v>775</v>
+        <v>931</v>
       </c>
       <c r="E78" s="12" t="n">
         <f aca="false">D78/83.784</f>
-        <v>9.24997612909386</v>
+        <v>11.1119068079824</v>
       </c>
       <c r="F78" s="12" t="n">
-        <v>130</v>
+        <v>156</v>
       </c>
       <c r="G78" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H78" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,G78)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I78" s="13" t="n">
         <f aca="false">$B$70+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="J78" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,I78)</f>
@@ -2965,11 +2961,11 @@
       </c>
       <c r="K78" s="13" t="n">
         <f aca="false">$B$70+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="L78" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K78,G78)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M78" s="0"/>
       <c r="N78" s="0"/>
@@ -2978,15 +2974,16 @@
       <c r="Q78" s="0"/>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C79" s="12"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="5"/>
       <c r="D79" s="0"/>
-      <c r="E79" s="12"/>
-      <c r="F79" s="12"/>
-      <c r="G79" s="13"/>
+      <c r="E79" s="0"/>
+      <c r="F79" s="0"/>
+      <c r="G79" s="0"/>
       <c r="H79" s="0"/>
-      <c r="I79" s="13"/>
+      <c r="I79" s="0"/>
       <c r="J79" s="0"/>
-      <c r="K79" s="13"/>
+      <c r="K79" s="0"/>
       <c r="L79" s="0"/>
       <c r="M79" s="0"/>
       <c r="N79" s="0"/>
@@ -2995,15 +2992,16 @@
       <c r="Q79" s="0"/>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C80" s="12"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="5"/>
       <c r="D80" s="0"/>
-      <c r="E80" s="12"/>
-      <c r="F80" s="12"/>
-      <c r="G80" s="13"/>
+      <c r="E80" s="0"/>
+      <c r="F80" s="0"/>
+      <c r="G80" s="0"/>
       <c r="H80" s="0"/>
-      <c r="I80" s="13"/>
+      <c r="I80" s="0"/>
       <c r="J80" s="0"/>
-      <c r="K80" s="13"/>
+      <c r="K80" s="0"/>
       <c r="L80" s="0"/>
       <c r="M80" s="0"/>
       <c r="N80" s="0"/>
@@ -3032,7 +3030,7 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="7" t="n">
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="D82" s="0"/>
       <c r="E82" s="8" t="s">
@@ -3054,7 +3052,9 @@
       <c r="K82" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="L82" s="0"/>
+      <c r="L82" s="8" t="s">
+        <v>37</v>
+      </c>
       <c r="M82" s="0"/>
       <c r="N82" s="0"/>
       <c r="O82" s="0"/>
@@ -3090,7 +3090,9 @@
       <c r="K83" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="L83" s="0"/>
+      <c r="L83" s="8" t="s">
+        <v>45</v>
+      </c>
       <c r="M83" s="0"/>
       <c r="N83" s="0"/>
       <c r="O83" s="0"/>
@@ -3105,34 +3107,37 @@
         <v>300</v>
       </c>
       <c r="D84" s="1" t="n">
-        <v>11591</v>
+        <v>12428</v>
       </c>
       <c r="E84" s="12" t="n">
         <f aca="false">D84/60.48</f>
-        <v>191.650132275132</v>
+        <v>205.489417989418</v>
       </c>
       <c r="F84" s="12" t="n">
-        <v>812</v>
+        <v>837</v>
       </c>
       <c r="G84" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H84" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,G84)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I84" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J84" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,I84)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K84" s="13" t="n">
-        <f aca="false">$B$94+1</f>
-        <v>43920</v>
-      </c>
-      <c r="L84" s="0"/>
+        <f aca="false">$B$82+1</f>
+        <v>43922</v>
+      </c>
+      <c r="L84" s="0" t="n">
+        <f aca="false">_xlfn.DAYS(K84,G84)</f>
+        <v>22</v>
+      </c>
       <c r="M84" s="0"/>
       <c r="N84" s="0"/>
       <c r="O84" s="0"/>
@@ -3147,34 +3152,37 @@
         <v>230</v>
       </c>
       <c r="D85" s="1" t="n">
-        <v>7716</v>
+        <v>8464</v>
       </c>
       <c r="E85" s="12" t="n">
         <f aca="false">D85/46.75</f>
-        <v>165.048128342246</v>
+        <v>181.048128342246</v>
       </c>
       <c r="F85" s="12" t="n">
-        <v>913</v>
+        <v>748</v>
       </c>
       <c r="G85" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H85" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,G85)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I85" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J85" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,I85)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K85" s="13" t="n">
-        <f aca="false">$B$94+1</f>
-        <v>43920</v>
-      </c>
-      <c r="L85" s="0"/>
+        <f aca="false">$B$82+1</f>
+        <v>43922</v>
+      </c>
+      <c r="L85" s="0" t="n">
+        <f aca="false">_xlfn.DAYS(K85,G85)</f>
+        <v>15</v>
+      </c>
       <c r="M85" s="0"/>
       <c r="N85" s="0"/>
       <c r="O85" s="0"/>
@@ -3189,34 +3197,37 @@
         <v>330</v>
       </c>
       <c r="D86" s="1" t="n">
-        <v>3024</v>
+        <v>3523</v>
       </c>
       <c r="E86" s="12" t="n">
         <f aca="false">D86/65.27</f>
-        <v>46.3306266278535</v>
+        <v>53.9757928604259</v>
       </c>
       <c r="F86" s="12" t="n">
-        <v>418</v>
+        <v>499</v>
       </c>
       <c r="G86" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H86" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,G86)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I86" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J86" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,I86)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K86" s="13" t="n">
-        <f aca="false">$B$94+1</f>
-        <v>43920</v>
-      </c>
-      <c r="L86" s="0"/>
+        <f aca="false">$B$82+1</f>
+        <v>43922</v>
+      </c>
+      <c r="L86" s="0" t="n">
+        <f aca="false">_xlfn.DAYS(K86,G86)</f>
+        <v>10</v>
+      </c>
       <c r="M86" s="0"/>
       <c r="N86" s="0"/>
       <c r="O86" s="0"/>
@@ -3231,35 +3242,38 @@
         <v>50</v>
       </c>
       <c r="D87" s="12" t="n">
-        <v>146</v>
+        <v>180</v>
       </c>
       <c r="E87" s="12" t="n">
         <f aca="false">D87/10.36</f>
-        <v>14.0926640926641</v>
+        <v>17.3745173745174</v>
       </c>
       <c r="F87" s="12" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G87" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H87" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,G87)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I87" s="13" t="n">
         <f aca="false">$B$82+1</f>
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="J87" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,I87)</f>
         <v>-1</v>
       </c>
       <c r="K87" s="13" t="n">
-        <f aca="false">$B$94+1</f>
-        <v>43920</v>
-      </c>
-      <c r="L87" s="0"/>
+        <f aca="false">$B$82+1</f>
+        <v>43922</v>
+      </c>
+      <c r="L87" s="0" t="n">
+        <f aca="false">_xlfn.DAYS(K87,G87)</f>
+        <v>7</v>
+      </c>
       <c r="M87" s="0"/>
       <c r="N87" s="0"/>
       <c r="O87" s="0"/>
@@ -3274,35 +3288,38 @@
         <v>330</v>
       </c>
       <c r="D88" s="1" t="n">
-        <v>1408</v>
+        <v>1789</v>
       </c>
       <c r="E88" s="12" t="n">
         <f aca="false">D88/67.79</f>
-        <v>20.770025077445</v>
+        <v>26.390323056498</v>
       </c>
       <c r="F88" s="12" t="n">
-        <v>180</v>
+        <v>381</v>
       </c>
       <c r="G88" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H88" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,G88)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I88" s="13" t="n">
         <f aca="false">$B$82+1</f>
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="J88" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,I88)</f>
         <v>-1</v>
       </c>
       <c r="K88" s="13" t="n">
-        <f aca="false">$B$94+1</f>
-        <v>43920</v>
-      </c>
-      <c r="L88" s="0"/>
+        <f aca="false">$B$82+1</f>
+        <v>43922</v>
+      </c>
+      <c r="L88" s="0" t="n">
+        <f aca="false">_xlfn.DAYS(K88,G88)</f>
+        <v>6</v>
+      </c>
       <c r="M88" s="0"/>
       <c r="N88" s="0"/>
       <c r="O88" s="0"/>
@@ -3317,34 +3334,38 @@
         <v>1660</v>
       </c>
       <c r="D89" s="1" t="n">
-        <v>3141</v>
+        <v>4053</v>
       </c>
       <c r="E89" s="12" t="n">
         <f aca="false">D89/331</f>
-        <v>9.48942598187311</v>
+        <v>12.2447129909366</v>
       </c>
       <c r="F89" s="12" t="n">
-        <v>573</v>
+        <v>912</v>
       </c>
       <c r="G89" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H89" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,G89)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I89" s="13" t="n">
-        <v>43920</v>
+        <f aca="false">$B$82+1</f>
+        <v>43922</v>
       </c>
       <c r="J89" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,I89)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K89" s="13" t="n">
-        <f aca="false">$B$94+1</f>
-        <v>43920</v>
-      </c>
-      <c r="L89" s="0"/>
+        <f aca="false">$B$82+1</f>
+        <v>43922</v>
+      </c>
+      <c r="L89" s="0" t="n">
+        <f aca="false">_xlfn.DAYS(K89,G89)</f>
+        <v>5</v>
+      </c>
       <c r="M89" s="0"/>
       <c r="N89" s="0"/>
       <c r="O89" s="0"/>
@@ -3359,35 +3380,38 @@
         <v>414</v>
       </c>
       <c r="D90" s="1" t="n">
-        <v>645</v>
+        <v>775</v>
       </c>
       <c r="E90" s="12" t="n">
         <f aca="false">D90/83.784</f>
-        <v>7.69836723002005</v>
+        <v>9.24997612909386</v>
       </c>
       <c r="F90" s="12" t="n">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="G90" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H90" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,G90)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I90" s="13" t="n">
         <f aca="false">$B$82+1</f>
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="J90" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,I90)</f>
         <v>-1</v>
       </c>
       <c r="K90" s="13" t="n">
-        <f aca="false">$B$94+1</f>
-        <v>43920</v>
-      </c>
-      <c r="L90" s="0"/>
+        <f aca="false">$B$82+1</f>
+        <v>43922</v>
+      </c>
+      <c r="L90" s="0" t="n">
+        <f aca="false">_xlfn.DAYS(K90,G90)</f>
+        <v>4</v>
+      </c>
       <c r="M90" s="0"/>
       <c r="N90" s="0"/>
       <c r="O90" s="0"/>
@@ -3395,16 +3419,15 @@
       <c r="Q90" s="0"/>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B91" s="4"/>
-      <c r="C91" s="5"/>
+      <c r="C91" s="12"/>
       <c r="D91" s="0"/>
-      <c r="E91" s="0"/>
-      <c r="F91" s="0"/>
-      <c r="G91" s="0"/>
+      <c r="E91" s="12"/>
+      <c r="F91" s="12"/>
+      <c r="G91" s="13"/>
       <c r="H91" s="0"/>
-      <c r="I91" s="0"/>
+      <c r="I91" s="13"/>
       <c r="J91" s="0"/>
-      <c r="K91" s="0"/>
+      <c r="K91" s="13"/>
       <c r="L91" s="0"/>
       <c r="M91" s="0"/>
       <c r="N91" s="0"/>
@@ -3413,16 +3436,15 @@
       <c r="Q91" s="0"/>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B92" s="4"/>
-      <c r="C92" s="5"/>
+      <c r="C92" s="12"/>
       <c r="D92" s="0"/>
-      <c r="E92" s="0"/>
-      <c r="F92" s="0"/>
-      <c r="G92" s="0"/>
+      <c r="E92" s="12"/>
+      <c r="F92" s="12"/>
+      <c r="G92" s="13"/>
       <c r="H92" s="0"/>
-      <c r="I92" s="0"/>
+      <c r="I92" s="13"/>
       <c r="J92" s="0"/>
-      <c r="K92" s="0"/>
+      <c r="K92" s="13"/>
       <c r="L92" s="0"/>
       <c r="M92" s="0"/>
       <c r="N92" s="0"/>
@@ -3451,7 +3473,7 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="7" t="n">
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="D94" s="0"/>
       <c r="E94" s="8" t="s">
@@ -3524,31 +3546,31 @@
         <v>300</v>
       </c>
       <c r="D96" s="1" t="n">
-        <v>10779</v>
+        <v>11591</v>
       </c>
       <c r="E96" s="12" t="n">
         <f aca="false">D96/60.48</f>
-        <v>178.224206349206</v>
+        <v>191.650132275132</v>
       </c>
       <c r="F96" s="12" t="n">
-        <v>756</v>
+        <v>812</v>
       </c>
       <c r="G96" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H96" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,G96)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I96" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J96" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,I96)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K96" s="13" t="n">
-        <f aca="false">$B$94+1</f>
+        <f aca="false">$B$106+1</f>
         <v>43920</v>
       </c>
       <c r="L96" s="0"/>
@@ -3566,31 +3588,31 @@
         <v>230</v>
       </c>
       <c r="D97" s="1" t="n">
-        <v>6803</v>
+        <v>7716</v>
       </c>
       <c r="E97" s="12" t="n">
         <f aca="false">D97/46.75</f>
-        <v>145.51871657754</v>
+        <v>165.048128342246</v>
       </c>
       <c r="F97" s="12" t="n">
-        <v>821</v>
+        <v>913</v>
       </c>
       <c r="G97" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H97" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,G97)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I97" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J97" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,I97)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K97" s="13" t="n">
-        <f aca="false">$B$94+1</f>
+        <f aca="false">$B$106+1</f>
         <v>43920</v>
       </c>
       <c r="L97" s="0"/>
@@ -3608,31 +3630,31 @@
         <v>330</v>
       </c>
       <c r="D98" s="1" t="n">
-        <v>2606</v>
+        <v>3024</v>
       </c>
       <c r="E98" s="12" t="n">
         <f aca="false">D98/65.27</f>
-        <v>39.9264593228129</v>
+        <v>46.3306266278535</v>
       </c>
       <c r="F98" s="12" t="n">
-        <v>292</v>
+        <v>418</v>
       </c>
       <c r="G98" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H98" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,G98)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I98" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J98" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,I98)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K98" s="13" t="n">
-        <f aca="false">$B$94+1</f>
+        <f aca="false">$B$106+1</f>
         <v>43920</v>
       </c>
       <c r="L98" s="0"/>
@@ -3644,38 +3666,38 @@
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="0" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C99" s="12" t="n">
-        <v>1660</v>
-      </c>
-      <c r="D99" s="1" t="n">
-        <v>2583</v>
+        <v>50</v>
+      </c>
+      <c r="D99" s="12" t="n">
+        <v>146</v>
       </c>
       <c r="E99" s="12" t="n">
-        <f aca="false">D99/331</f>
-        <v>7.8036253776435</v>
+        <f aca="false">D99/10.36</f>
+        <v>14.0926640926641</v>
       </c>
       <c r="F99" s="12" t="n">
-        <v>363</v>
+        <v>36</v>
       </c>
       <c r="G99" s="13" t="n">
-        <v>43917</v>
+        <v>43915</v>
       </c>
       <c r="H99" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,G99)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I99" s="13" t="n">
         <f aca="false">$B$94+1</f>
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="J99" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,I99)</f>
         <v>-1</v>
       </c>
       <c r="K99" s="13" t="n">
-        <f aca="false">$B$94+1</f>
+        <f aca="false">$B$106+1</f>
         <v>43920</v>
       </c>
       <c r="L99" s="0"/>
@@ -3693,32 +3715,32 @@
         <v>330</v>
       </c>
       <c r="D100" s="1" t="n">
-        <v>1228</v>
+        <v>1408</v>
       </c>
       <c r="E100" s="12" t="n">
         <f aca="false">D100/67.79</f>
-        <v>18.1147661897035</v>
+        <v>20.770025077445</v>
       </c>
       <c r="F100" s="12" t="n">
-        <v>209</v>
+        <v>180</v>
       </c>
       <c r="G100" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H100" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,G100)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I100" s="13" t="n">
         <f aca="false">$B$94+1</f>
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="J100" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,I100)</f>
         <v>-1</v>
       </c>
       <c r="K100" s="13" t="n">
-        <f aca="false">$B$94+1</f>
+        <f aca="false">$B$106+1</f>
         <v>43920</v>
       </c>
       <c r="L100" s="0"/>
@@ -3730,38 +3752,37 @@
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B101" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C101" s="12" t="n">
-        <v>414</v>
+        <v>1660</v>
       </c>
       <c r="D101" s="1" t="n">
-        <v>541</v>
+        <v>3141</v>
       </c>
       <c r="E101" s="12" t="n">
-        <f aca="false">D101/83.784</f>
-        <v>6.457080110761</v>
+        <f aca="false">D101/331</f>
+        <v>9.48942598187311</v>
       </c>
       <c r="F101" s="12" t="n">
-        <v>108</v>
+        <v>573</v>
       </c>
       <c r="G101" s="13" t="n">
-        <v>43918</v>
+        <v>43917</v>
       </c>
       <c r="H101" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,G101)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I101" s="13" t="n">
-        <f aca="false">$B$94+1</f>
         <v>43920</v>
       </c>
       <c r="J101" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,I101)</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K101" s="13" t="n">
-        <f aca="false">$B$94+1</f>
+        <f aca="false">$B$106+1</f>
         <v>43920</v>
       </c>
       <c r="L101" s="0"/>
@@ -3773,38 +3794,38 @@
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C102" s="12" t="n">
-        <v>50</v>
-      </c>
-      <c r="D102" s="12" t="n">
-        <v>110</v>
+        <v>414</v>
+      </c>
+      <c r="D102" s="1" t="n">
+        <v>645</v>
       </c>
       <c r="E102" s="12" t="n">
-        <f aca="false">D102/10.36</f>
-        <v>10.6177606177606</v>
+        <f aca="false">D102/83.784</f>
+        <v>7.69836723002005</v>
       </c>
       <c r="F102" s="12" t="n">
-        <v>5</v>
+        <v>104</v>
       </c>
       <c r="G102" s="13" t="n">
-        <v>43915</v>
+        <v>43918</v>
       </c>
       <c r="H102" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,G102)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I102" s="13" t="n">
         <f aca="false">$B$94+1</f>
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="J102" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,I102)</f>
         <v>-1</v>
       </c>
       <c r="K102" s="13" t="n">
-        <f aca="false">$B$94+1</f>
+        <f aca="false">$B$106+1</f>
         <v>43920</v>
       </c>
       <c r="L102" s="0"/>
@@ -3871,15 +3892,13 @@
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="7" t="n">
-        <v>43918</v>
-      </c>
-      <c r="D106" s="8" t="s">
-        <v>10</v>
-      </c>
+        <v>43919</v>
+      </c>
+      <c r="D106" s="0"/>
       <c r="E106" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F106" s="8"/>
+      <c r="F106" s="0"/>
       <c r="G106" s="8" t="s">
         <v>33</v>
       </c>
@@ -3907,8 +3926,8 @@
       <c r="C107" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D107" s="10" t="s">
-        <v>6</v>
+      <c r="D107" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="E107" s="10" t="s">
         <v>39</v>
@@ -3946,32 +3965,32 @@
         <v>300</v>
       </c>
       <c r="D108" s="1" t="n">
-        <v>10023</v>
+        <v>10779</v>
       </c>
       <c r="E108" s="12" t="n">
         <f aca="false">D108/60.48</f>
-        <v>165.724206349206</v>
+        <v>178.224206349206</v>
       </c>
       <c r="F108" s="12" t="n">
-        <v>889</v>
+        <v>756</v>
       </c>
       <c r="G108" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H108" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,G108)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I108" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J108" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$118,I108)</f>
-        <v>15</v>
+        <f aca="false">_xlfn.DAYS($B$106,I108)</f>
+        <v>17</v>
       </c>
       <c r="K108" s="13" t="n">
         <f aca="false">$B$106+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="L108" s="0"/>
       <c r="M108" s="0"/>
@@ -3988,32 +4007,32 @@
         <v>230</v>
       </c>
       <c r="D109" s="1" t="n">
-        <v>5982</v>
+        <v>6803</v>
       </c>
       <c r="E109" s="12" t="n">
         <f aca="false">D109/46.75</f>
-        <v>127.957219251337</v>
+        <v>145.51871657754</v>
       </c>
       <c r="F109" s="12" t="n">
-        <v>844</v>
+        <v>821</v>
       </c>
       <c r="G109" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H109" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,G109)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I109" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J109" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$118,I109)</f>
-        <v>4</v>
+        <f aca="false">_xlfn.DAYS($B$106,I109)</f>
+        <v>6</v>
       </c>
       <c r="K109" s="13" t="n">
         <f aca="false">$B$106+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="L109" s="0"/>
       <c r="M109" s="0"/>
@@ -4030,32 +4049,32 @@
         <v>330</v>
       </c>
       <c r="D110" s="1" t="n">
-        <v>2314</v>
+        <v>2606</v>
       </c>
       <c r="E110" s="12" t="n">
         <f aca="false">D110/65.27</f>
-        <v>35.4527347939329</v>
+        <v>39.9264593228129</v>
       </c>
       <c r="F110" s="12" t="n">
-        <v>319</v>
+        <v>292</v>
       </c>
       <c r="G110" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H110" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,G110)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I110" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J110" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$118,I110)</f>
-        <v>3</v>
+        <f aca="false">_xlfn.DAYS($B$106,I110)</f>
+        <v>5</v>
       </c>
       <c r="K110" s="13" t="n">
         <f aca="false">$B$106+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="L110" s="0"/>
       <c r="M110" s="0"/>
@@ -4072,25 +4091,25 @@
         <v>1660</v>
       </c>
       <c r="D111" s="1" t="n">
-        <v>2221</v>
+        <v>2583</v>
       </c>
       <c r="E111" s="12" t="n">
         <f aca="false">D111/331</f>
-        <v>6.70996978851964</v>
+        <v>7.8036253776435</v>
       </c>
       <c r="F111" s="12" t="n">
-        <v>525</v>
+        <v>363</v>
       </c>
       <c r="G111" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H111" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,G111)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I111" s="13" t="n">
         <f aca="false">$B$106+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="J111" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,I111)</f>
@@ -4098,7 +4117,7 @@
       </c>
       <c r="K111" s="13" t="n">
         <f aca="false">$B$106+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="L111" s="0"/>
       <c r="M111" s="0"/>
@@ -4115,25 +4134,25 @@
         <v>330</v>
       </c>
       <c r="D112" s="1" t="n">
-        <v>1019</v>
+        <v>1228</v>
       </c>
       <c r="E112" s="12" t="n">
         <f aca="false">D112/67.79</f>
-        <v>15.0317155922702</v>
+        <v>18.1147661897035</v>
       </c>
       <c r="F112" s="12" t="n">
-        <v>260</v>
+        <v>209</v>
       </c>
       <c r="G112" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H112" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,G112)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I112" s="13" t="n">
         <f aca="false">$B$106+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="J112" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,I112)</f>
@@ -4141,7 +4160,7 @@
       </c>
       <c r="K112" s="13" t="n">
         <f aca="false">$B$106+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="L112" s="0"/>
       <c r="M112" s="0"/>
@@ -4158,25 +4177,25 @@
         <v>414</v>
       </c>
       <c r="D113" s="1" t="n">
-        <v>433</v>
+        <v>541</v>
       </c>
       <c r="E113" s="12" t="n">
         <f aca="false">D113/83.784</f>
-        <v>5.16805117922276</v>
+        <v>6.457080110761</v>
       </c>
       <c r="F113" s="12" t="n">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="G113" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H113" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,G113)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I113" s="13" t="n">
         <f aca="false">$B$106+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="J113" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,I113)</f>
@@ -4184,7 +4203,7 @@
       </c>
       <c r="K113" s="13" t="n">
         <f aca="false">$B$106+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="L113" s="0"/>
       <c r="M113" s="0"/>
@@ -4201,25 +4220,25 @@
         <v>50</v>
       </c>
       <c r="D114" s="12" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E114" s="12" t="n">
         <f aca="false">D114/10.36</f>
-        <v>10.1351351351351</v>
+        <v>10.6177606177606</v>
       </c>
       <c r="F114" s="12" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G114" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H114" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,G114)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I114" s="13" t="n">
         <f aca="false">$B$106+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="J114" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,I114)</f>
@@ -4227,7 +4246,7 @@
       </c>
       <c r="K114" s="13" t="n">
         <f aca="false">$B$106+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="L114" s="0"/>
       <c r="M114" s="0"/>
@@ -4237,15 +4256,16 @@
       <c r="Q114" s="0"/>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C115" s="12"/>
-      <c r="D115" s="12"/>
-      <c r="E115" s="12"/>
-      <c r="F115" s="12"/>
-      <c r="G115" s="13"/>
+      <c r="B115" s="4"/>
+      <c r="C115" s="5"/>
+      <c r="D115" s="0"/>
+      <c r="E115" s="0"/>
+      <c r="F115" s="0"/>
+      <c r="G115" s="0"/>
       <c r="H115" s="0"/>
-      <c r="I115" s="13"/>
+      <c r="I115" s="0"/>
       <c r="J115" s="0"/>
-      <c r="K115" s="13"/>
+      <c r="K115" s="0"/>
       <c r="L115" s="0"/>
       <c r="M115" s="0"/>
       <c r="N115" s="0"/>
@@ -4290,11 +4310,10 @@
       <c r="P117" s="0"/>
       <c r="Q117" s="0"/>
     </row>
-    <row r="118" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B118" s="7" t="n">
-        <v>43917</v>
-      </c>
-      <c r="C118" s="0"/>
+        <v>43918</v>
+      </c>
       <c r="D118" s="8" t="s">
         <v>10</v>
       </c>
@@ -4317,10 +4336,14 @@
       <c r="K118" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="L118" s="8"/>
+      <c r="L118" s="0"/>
+      <c r="M118" s="0"/>
+      <c r="N118" s="0"/>
+      <c r="O118" s="0"/>
+      <c r="P118" s="0"/>
+      <c r="Q118" s="0"/>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="3"/>
       <c r="B119" s="9"/>
       <c r="C119" s="10" t="s">
         <v>38</v>
@@ -4349,7 +4372,7 @@
       <c r="K119" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="L119" s="8"/>
+      <c r="L119" s="0"/>
       <c r="M119" s="0"/>
       <c r="N119" s="0"/>
       <c r="O119" s="0"/>
@@ -4364,32 +4387,32 @@
         <v>300</v>
       </c>
       <c r="D120" s="1" t="n">
-        <v>9134</v>
+        <v>10023</v>
       </c>
       <c r="E120" s="12" t="n">
         <f aca="false">D120/60.48</f>
-        <v>151.025132275132</v>
+        <v>165.724206349206</v>
       </c>
       <c r="F120" s="12" t="n">
-        <v>919</v>
+        <v>889</v>
       </c>
       <c r="G120" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H120" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$118,G120)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I120" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J120" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$118,I120)</f>
+        <f aca="false">_xlfn.DAYS(B$130,I120)</f>
         <v>15</v>
       </c>
       <c r="K120" s="13" t="n">
         <f aca="false">$B$118+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="L120" s="0"/>
       <c r="M120" s="0"/>
@@ -4406,32 +4429,32 @@
         <v>230</v>
       </c>
       <c r="D121" s="1" t="n">
-        <v>5138</v>
+        <v>5982</v>
       </c>
       <c r="E121" s="12" t="n">
         <f aca="false">D121/46.75</f>
-        <v>109.903743315508</v>
+        <v>127.957219251337</v>
       </c>
       <c r="F121" s="12" t="n">
-        <v>773</v>
+        <v>844</v>
       </c>
       <c r="G121" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H121" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$118,G121)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I121" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J121" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$118,I121)</f>
+        <f aca="false">_xlfn.DAYS(B$130,I121)</f>
         <v>4</v>
       </c>
       <c r="K121" s="13" t="n">
         <f aca="false">$B$118+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="L121" s="0"/>
       <c r="M121" s="0"/>
@@ -4448,32 +4471,32 @@
         <v>330</v>
       </c>
       <c r="D122" s="1" t="n">
-        <v>1995</v>
+        <v>2314</v>
       </c>
       <c r="E122" s="12" t="n">
         <f aca="false">D122/65.27</f>
-        <v>30.5653439558756</v>
+        <v>35.4527347939329</v>
       </c>
       <c r="F122" s="12" t="n">
-        <v>299</v>
+        <v>319</v>
       </c>
       <c r="G122" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H122" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$118,G122)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I122" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J122" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$118,I122)</f>
+        <f aca="false">_xlfn.DAYS(B$130,I122)</f>
         <v>3</v>
       </c>
       <c r="K122" s="13" t="n">
         <f aca="false">$B$118+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="L122" s="0"/>
       <c r="M122" s="0"/>
@@ -4490,34 +4513,33 @@
         <v>1660</v>
       </c>
       <c r="D123" s="1" t="n">
-        <v>1696</v>
+        <v>2221</v>
       </c>
       <c r="E123" s="12" t="n">
         <f aca="false">D123/331</f>
-        <v>5.12386706948641</v>
+        <v>6.70996978851964</v>
       </c>
       <c r="F123" s="12" t="n">
-        <v>400</v>
+        <v>525</v>
       </c>
       <c r="G123" s="13" t="n">
-        <f aca="false">$B$118</f>
         <v>43917</v>
       </c>
       <c r="H123" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$118,G123)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I123" s="13" t="n">
         <f aca="false">$B$118+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="J123" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$118,I123)</f>
+        <f aca="false">_xlfn.DAYS($B$118,I123)</f>
         <v>-1</v>
       </c>
       <c r="K123" s="13" t="n">
         <f aca="false">$B$118+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="L123" s="0"/>
       <c r="M123" s="0"/>
@@ -4534,33 +4556,33 @@
         <v>330</v>
       </c>
       <c r="D124" s="1" t="n">
-        <v>759</v>
+        <v>1019</v>
       </c>
       <c r="E124" s="12" t="n">
         <f aca="false">D124/67.79</f>
-        <v>11.1963416433102</v>
+        <v>15.0317155922702</v>
       </c>
       <c r="F124" s="12" t="n">
-        <v>181</v>
+        <v>260</v>
       </c>
       <c r="G124" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H124" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$118,G124)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I124" s="13" t="n">
         <f aca="false">$B$118+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="J124" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$118,I124)</f>
+        <f aca="false">_xlfn.DAYS($B$118,I124)</f>
         <v>-1</v>
       </c>
       <c r="K124" s="13" t="n">
         <f aca="false">$B$118+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="L124" s="0"/>
       <c r="M124" s="0"/>
@@ -4577,34 +4599,33 @@
         <v>414</v>
       </c>
       <c r="D125" s="1" t="n">
-        <v>351</v>
+        <v>433</v>
       </c>
       <c r="E125" s="12" t="n">
         <f aca="false">D125/83.784</f>
-        <v>4.18934402749928</v>
+        <v>5.16805117922276</v>
       </c>
       <c r="F125" s="12" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G125" s="13" t="n">
-        <f aca="false">$B$118+1</f>
         <v>43918</v>
       </c>
       <c r="H125" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$118,G125)</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I125" s="13" t="n">
         <f aca="false">$B$118+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="J125" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$118,I125)</f>
+        <f aca="false">_xlfn.DAYS($B$118,I125)</f>
         <v>-1</v>
       </c>
       <c r="K125" s="13" t="n">
         <f aca="false">$B$118+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="L125" s="0"/>
       <c r="M125" s="0"/>
@@ -4628,26 +4649,26 @@
         <v>10.1351351351351</v>
       </c>
       <c r="F126" s="12" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="G126" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H126" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$118,G126)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I126" s="13" t="n">
         <f aca="false">$B$118+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="J126" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$118,I126)</f>
+        <f aca="false">_xlfn.DAYS($B$118,I126)</f>
         <v>-1</v>
       </c>
       <c r="K126" s="13" t="n">
         <f aca="false">$B$118+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="L126" s="0"/>
       <c r="M126" s="0"/>
@@ -4657,14 +4678,15 @@
       <c r="Q126" s="0"/>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D127" s="0"/>
-      <c r="E127" s="0"/>
-      <c r="F127" s="0"/>
-      <c r="G127" s="0"/>
+      <c r="C127" s="12"/>
+      <c r="D127" s="12"/>
+      <c r="E127" s="12"/>
+      <c r="F127" s="12"/>
+      <c r="G127" s="13"/>
       <c r="H127" s="0"/>
-      <c r="I127" s="0"/>
+      <c r="I127" s="13"/>
       <c r="J127" s="0"/>
-      <c r="K127" s="0"/>
+      <c r="K127" s="13"/>
       <c r="L127" s="0"/>
       <c r="M127" s="0"/>
       <c r="N127" s="0"/>
@@ -4673,6 +4695,8 @@
       <c r="Q127" s="0"/>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B128" s="4"/>
+      <c r="C128" s="5"/>
       <c r="D128" s="0"/>
       <c r="E128" s="0"/>
       <c r="F128" s="0"/>
@@ -4707,10 +4731,11 @@
       <c r="P129" s="0"/>
       <c r="Q129" s="0"/>
     </row>
-    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B130" s="7" t="n">
-        <v>43916</v>
-      </c>
+        <v>43917</v>
+      </c>
+      <c r="C130" s="0"/>
       <c r="D130" s="8" t="s">
         <v>10</v>
       </c>
@@ -4733,17 +4758,13 @@
       <c r="K130" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="L130" s="0"/>
-      <c r="M130" s="0"/>
-      <c r="N130" s="0"/>
-      <c r="O130" s="0"/>
-      <c r="P130" s="0"/>
-      <c r="Q130" s="0"/>
+      <c r="L130" s="8"/>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="3"/>
       <c r="B131" s="9"/>
       <c r="C131" s="10" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="D131" s="10" t="s">
         <v>6</v>
@@ -4769,7 +4790,7 @@
       <c r="K131" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="L131" s="0"/>
+      <c r="L131" s="8"/>
       <c r="M131" s="0"/>
       <c r="N131" s="0"/>
       <c r="O131" s="0"/>
@@ -4784,32 +4805,32 @@
         <v>300</v>
       </c>
       <c r="D132" s="1" t="n">
-        <v>8215</v>
+        <v>9134</v>
       </c>
       <c r="E132" s="12" t="n">
         <f aca="false">D132/60.48</f>
-        <v>135.830026455026</v>
+        <v>151.025132275132</v>
       </c>
       <c r="F132" s="12" t="n">
-        <v>712</v>
+        <v>919</v>
       </c>
       <c r="G132" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H132" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$130,G132)</f>
-        <v>16</v>
+        <f aca="false">_xlfn.DAYS($B$130,G132)</f>
+        <v>17</v>
       </c>
       <c r="I132" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J132" s="1" t="n">
         <f aca="false">_xlfn.DAYS(B$130,I132)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K132" s="13" t="n">
-        <f aca="false">B$130+1</f>
-        <v>43917</v>
+        <f aca="false">$B$130+1</f>
+        <v>43918</v>
       </c>
       <c r="L132" s="0"/>
       <c r="M132" s="0"/>
@@ -4826,32 +4847,32 @@
         <v>230</v>
       </c>
       <c r="D133" s="1" t="n">
-        <v>4365</v>
+        <v>5138</v>
       </c>
       <c r="E133" s="12" t="n">
         <f aca="false">D133/46.75</f>
-        <v>93.3689839572193</v>
+        <v>109.903743315508</v>
       </c>
       <c r="F133" s="12" t="n">
-        <v>718</v>
+        <v>773</v>
       </c>
       <c r="G133" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H133" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$130,G133)</f>
-        <v>9</v>
+        <f aca="false">_xlfn.DAYS($B$130,G133)</f>
+        <v>10</v>
       </c>
       <c r="I133" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J133" s="1" t="n">
         <f aca="false">_xlfn.DAYS(B$130,I133)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K133" s="13" t="n">
-        <f aca="false">B$130+1</f>
-        <v>43917</v>
+        <f aca="false">$B$130+1</f>
+        <v>43918</v>
       </c>
       <c r="L133" s="0"/>
       <c r="M133" s="0"/>
@@ -4868,32 +4889,32 @@
         <v>330</v>
       </c>
       <c r="D134" s="1" t="n">
-        <v>1696</v>
+        <v>1995</v>
       </c>
       <c r="E134" s="12" t="n">
         <f aca="false">D134/65.27</f>
-        <v>25.9843726060978</v>
+        <v>30.5653439558756</v>
       </c>
       <c r="F134" s="12" t="n">
-        <v>365</v>
+        <v>299</v>
       </c>
       <c r="G134" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H134" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$130,G134)</f>
-        <v>4</v>
+        <f aca="false">_xlfn.DAYS($B$130,G134)</f>
+        <v>5</v>
       </c>
       <c r="I134" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J134" s="1" t="n">
         <f aca="false">_xlfn.DAYS(B$130,I134)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K134" s="13" t="n">
-        <f aca="false">B$130+1</f>
-        <v>43917</v>
+        <f aca="false">$B$130+1</f>
+        <v>43918</v>
       </c>
       <c r="L134" s="0"/>
       <c r="M134" s="0"/>
@@ -4910,33 +4931,34 @@
         <v>1660</v>
       </c>
       <c r="D135" s="1" t="n">
-        <v>1295</v>
+        <v>1696</v>
       </c>
       <c r="E135" s="12" t="n">
         <f aca="false">D135/331</f>
-        <v>3.91238670694864</v>
+        <v>5.12386706948641</v>
       </c>
       <c r="F135" s="12" t="n">
-        <v>268</v>
+        <v>400</v>
       </c>
       <c r="G135" s="13" t="n">
+        <f aca="false">$B$130</f>
         <v>43917</v>
       </c>
       <c r="H135" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$130,G135)</f>
+        <f aca="false">_xlfn.DAYS($B$130,G135)</f>
+        <v>0</v>
+      </c>
+      <c r="I135" s="13" t="n">
+        <f aca="false">$B$130+1</f>
+        <v>43918</v>
+      </c>
+      <c r="J135" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$130,I135)</f>
         <v>-1</v>
       </c>
-      <c r="I135" s="13" t="n">
-        <f aca="false">B$130+1</f>
-        <v>43917</v>
-      </c>
-      <c r="J135" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$130,I135)</f>
-        <v>-1</v>
-      </c>
       <c r="K135" s="13" t="n">
-        <f aca="false">B$130+1</f>
-        <v>43917</v>
+        <f aca="false">$B$130+1</f>
+        <v>43918</v>
       </c>
       <c r="L135" s="0"/>
       <c r="M135" s="0"/>
@@ -4953,33 +4975,33 @@
         <v>330</v>
       </c>
       <c r="D136" s="1" t="n">
-        <v>578</v>
+        <v>759</v>
       </c>
       <c r="E136" s="12" t="n">
         <f aca="false">D136/67.79</f>
-        <v>8.52633131730344</v>
+        <v>11.1963416433102</v>
       </c>
       <c r="F136" s="12" t="n">
-        <v>115</v>
+        <v>181</v>
       </c>
       <c r="G136" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H136" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$130,G136)</f>
-        <v>0</v>
+        <f aca="false">_xlfn.DAYS($B$130,G136)</f>
+        <v>1</v>
       </c>
       <c r="I136" s="13" t="n">
-        <f aca="false">B$130+1</f>
-        <v>43917</v>
+        <f aca="false">$B$130+1</f>
+        <v>43918</v>
       </c>
       <c r="J136" s="1" t="n">
         <f aca="false">_xlfn.DAYS(B$130,I136)</f>
         <v>-1</v>
       </c>
       <c r="K136" s="13" t="n">
-        <f aca="false">B$130+1</f>
-        <v>43917</v>
+        <f aca="false">$B$130+1</f>
+        <v>43918</v>
       </c>
       <c r="L136" s="0"/>
       <c r="M136" s="0"/>
@@ -4996,33 +5018,34 @@
         <v>414</v>
       </c>
       <c r="D137" s="1" t="n">
-        <v>267</v>
+        <v>351</v>
       </c>
       <c r="E137" s="12" t="n">
         <f aca="false">D137/83.784</f>
-        <v>3.18676596963621</v>
+        <v>4.18934402749928</v>
       </c>
       <c r="F137" s="12" t="n">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="G137" s="13" t="n">
-        <v>43917</v>
+        <f aca="false">$B$130+1</f>
+        <v>43918</v>
       </c>
       <c r="H137" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$130,G137)</f>
+        <f aca="false">_xlfn.DAYS($B$130,G137)</f>
         <v>-1</v>
       </c>
       <c r="I137" s="13" t="n">
-        <f aca="false">B$130+1</f>
-        <v>43917</v>
+        <f aca="false">$B$130+1</f>
+        <v>43918</v>
       </c>
       <c r="J137" s="1" t="n">
         <f aca="false">_xlfn.DAYS(B$130,I137)</f>
         <v>-1</v>
       </c>
       <c r="K137" s="13" t="n">
-        <f aca="false">B$130+1</f>
-        <v>43917</v>
+        <f aca="false">$B$130+1</f>
+        <v>43918</v>
       </c>
       <c r="L137" s="0"/>
       <c r="M137" s="0"/>
@@ -5039,33 +5062,33 @@
         <v>50</v>
       </c>
       <c r="D138" s="12" t="n">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="E138" s="12" t="n">
         <f aca="false">D138/10.36</f>
-        <v>7.43243243243243</v>
+        <v>10.1351351351351</v>
       </c>
       <c r="F138" s="12" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="G138" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H138" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$130,G138)</f>
-        <v>1</v>
+        <f aca="false">_xlfn.DAYS($B$130,G138)</f>
+        <v>2</v>
       </c>
       <c r="I138" s="13" t="n">
-        <f aca="false">B$130+1</f>
-        <v>43917</v>
+        <f aca="false">$B$130+1</f>
+        <v>43918</v>
       </c>
       <c r="J138" s="1" t="n">
         <f aca="false">_xlfn.DAYS(B$130,I138)</f>
         <v>-1</v>
       </c>
       <c r="K138" s="13" t="n">
-        <f aca="false">B$130+1</f>
-        <v>43917</v>
+        <f aca="false">$B$130+1</f>
+        <v>43918</v>
       </c>
       <c r="L138" s="0"/>
       <c r="M138" s="0"/>
@@ -5073,6 +5096,424 @@
       <c r="O138" s="0"/>
       <c r="P138" s="0"/>
       <c r="Q138" s="0"/>
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D139" s="0"/>
+      <c r="E139" s="0"/>
+      <c r="F139" s="0"/>
+      <c r="G139" s="0"/>
+      <c r="H139" s="0"/>
+      <c r="I139" s="0"/>
+      <c r="J139" s="0"/>
+      <c r="K139" s="0"/>
+      <c r="L139" s="0"/>
+      <c r="M139" s="0"/>
+      <c r="N139" s="0"/>
+      <c r="O139" s="0"/>
+      <c r="P139" s="0"/>
+      <c r="Q139" s="0"/>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D140" s="0"/>
+      <c r="E140" s="0"/>
+      <c r="F140" s="0"/>
+      <c r="G140" s="0"/>
+      <c r="H140" s="0"/>
+      <c r="I140" s="0"/>
+      <c r="J140" s="0"/>
+      <c r="K140" s="0"/>
+      <c r="L140" s="0"/>
+      <c r="M140" s="0"/>
+      <c r="N140" s="0"/>
+      <c r="O140" s="0"/>
+      <c r="P140" s="0"/>
+      <c r="Q140" s="0"/>
+    </row>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B141" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D141" s="0"/>
+      <c r="E141" s="0"/>
+      <c r="F141" s="0"/>
+      <c r="G141" s="0"/>
+      <c r="H141" s="0"/>
+      <c r="I141" s="0"/>
+      <c r="J141" s="0"/>
+      <c r="K141" s="0"/>
+      <c r="L141" s="0"/>
+      <c r="M141" s="0"/>
+      <c r="N141" s="0"/>
+      <c r="O141" s="0"/>
+      <c r="P141" s="0"/>
+      <c r="Q141" s="0"/>
+    </row>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B142" s="7" t="n">
+        <v>43916</v>
+      </c>
+      <c r="D142" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E142" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F142" s="8"/>
+      <c r="G142" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H142" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I142" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J142" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K142" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="L142" s="0"/>
+      <c r="M142" s="0"/>
+      <c r="N142" s="0"/>
+      <c r="O142" s="0"/>
+      <c r="P142" s="0"/>
+      <c r="Q142" s="0"/>
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B143" s="9"/>
+      <c r="C143" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D143" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E143" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F143" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G143" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H143" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I143" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="J143" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="K143" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="L143" s="0"/>
+      <c r="M143" s="0"/>
+      <c r="N143" s="0"/>
+      <c r="O143" s="0"/>
+      <c r="P143" s="0"/>
+      <c r="Q143" s="0"/>
+    </row>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B144" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C144" s="12" t="n">
+        <v>300</v>
+      </c>
+      <c r="D144" s="1" t="n">
+        <v>8215</v>
+      </c>
+      <c r="E144" s="12" t="n">
+        <f aca="false">D144/60.48</f>
+        <v>135.830026455026</v>
+      </c>
+      <c r="F144" s="12" t="n">
+        <v>712</v>
+      </c>
+      <c r="G144" s="13" t="n">
+        <v>43900</v>
+      </c>
+      <c r="H144" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$142,G144)</f>
+        <v>16</v>
+      </c>
+      <c r="I144" s="13" t="n">
+        <v>43902</v>
+      </c>
+      <c r="J144" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$142,I144)</f>
+        <v>14</v>
+      </c>
+      <c r="K144" s="13" t="n">
+        <f aca="false">B$142+1</f>
+        <v>43917</v>
+      </c>
+      <c r="L144" s="0"/>
+      <c r="M144" s="0"/>
+      <c r="N144" s="0"/>
+      <c r="O144" s="0"/>
+      <c r="P144" s="0"/>
+      <c r="Q144" s="0"/>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B145" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C145" s="12" t="n">
+        <v>230</v>
+      </c>
+      <c r="D145" s="1" t="n">
+        <v>4365</v>
+      </c>
+      <c r="E145" s="12" t="n">
+        <f aca="false">D145/46.75</f>
+        <v>93.3689839572193</v>
+      </c>
+      <c r="F145" s="12" t="n">
+        <v>718</v>
+      </c>
+      <c r="G145" s="13" t="n">
+        <v>43907</v>
+      </c>
+      <c r="H145" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$142,G145)</f>
+        <v>9</v>
+      </c>
+      <c r="I145" s="13" t="n">
+        <v>43913</v>
+      </c>
+      <c r="J145" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$142,I145)</f>
+        <v>3</v>
+      </c>
+      <c r="K145" s="13" t="n">
+        <f aca="false">B$142+1</f>
+        <v>43917</v>
+      </c>
+      <c r="L145" s="0"/>
+      <c r="M145" s="0"/>
+      <c r="N145" s="0"/>
+      <c r="O145" s="0"/>
+      <c r="P145" s="0"/>
+      <c r="Q145" s="0"/>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B146" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C146" s="12" t="n">
+        <v>330</v>
+      </c>
+      <c r="D146" s="1" t="n">
+        <v>1696</v>
+      </c>
+      <c r="E146" s="12" t="n">
+        <f aca="false">D146/65.27</f>
+        <v>25.9843726060978</v>
+      </c>
+      <c r="F146" s="12" t="n">
+        <v>365</v>
+      </c>
+      <c r="G146" s="13" t="n">
+        <v>43912</v>
+      </c>
+      <c r="H146" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$142,G146)</f>
+        <v>4</v>
+      </c>
+      <c r="I146" s="13" t="n">
+        <v>43914</v>
+      </c>
+      <c r="J146" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$142,I146)</f>
+        <v>2</v>
+      </c>
+      <c r="K146" s="13" t="n">
+        <f aca="false">B$142+1</f>
+        <v>43917</v>
+      </c>
+      <c r="L146" s="0"/>
+      <c r="M146" s="0"/>
+      <c r="N146" s="0"/>
+      <c r="O146" s="0"/>
+      <c r="P146" s="0"/>
+      <c r="Q146" s="0"/>
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B147" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C147" s="12" t="n">
+        <v>1660</v>
+      </c>
+      <c r="D147" s="1" t="n">
+        <v>1295</v>
+      </c>
+      <c r="E147" s="12" t="n">
+        <f aca="false">D147/331</f>
+        <v>3.91238670694864</v>
+      </c>
+      <c r="F147" s="12" t="n">
+        <v>268</v>
+      </c>
+      <c r="G147" s="13" t="n">
+        <v>43917</v>
+      </c>
+      <c r="H147" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$142,G147)</f>
+        <v>-1</v>
+      </c>
+      <c r="I147" s="13" t="n">
+        <f aca="false">B$142+1</f>
+        <v>43917</v>
+      </c>
+      <c r="J147" s="1" t="n">
+        <f aca="false">_xlfn.DAYS($B$142,I147)</f>
+        <v>-1</v>
+      </c>
+      <c r="K147" s="13" t="n">
+        <f aca="false">B$142+1</f>
+        <v>43917</v>
+      </c>
+      <c r="L147" s="0"/>
+      <c r="M147" s="0"/>
+      <c r="N147" s="0"/>
+      <c r="O147" s="0"/>
+      <c r="P147" s="0"/>
+      <c r="Q147" s="0"/>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B148" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C148" s="12" t="n">
+        <v>330</v>
+      </c>
+      <c r="D148" s="1" t="n">
+        <v>578</v>
+      </c>
+      <c r="E148" s="12" t="n">
+        <f aca="false">D148/67.79</f>
+        <v>8.52633131730344</v>
+      </c>
+      <c r="F148" s="12" t="n">
+        <v>115</v>
+      </c>
+      <c r="G148" s="13" t="n">
+        <v>43916</v>
+      </c>
+      <c r="H148" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$142,G148)</f>
+        <v>0</v>
+      </c>
+      <c r="I148" s="13" t="n">
+        <f aca="false">B$142+1</f>
+        <v>43917</v>
+      </c>
+      <c r="J148" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$142,I148)</f>
+        <v>-1</v>
+      </c>
+      <c r="K148" s="13" t="n">
+        <f aca="false">B$142+1</f>
+        <v>43917</v>
+      </c>
+      <c r="L148" s="0"/>
+      <c r="M148" s="0"/>
+      <c r="N148" s="0"/>
+      <c r="O148" s="0"/>
+      <c r="P148" s="0"/>
+      <c r="Q148" s="0"/>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B149" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C149" s="12" t="n">
+        <v>414</v>
+      </c>
+      <c r="D149" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="E149" s="12" t="n">
+        <f aca="false">D149/83.784</f>
+        <v>3.18676596963621</v>
+      </c>
+      <c r="F149" s="12" t="n">
+        <v>61</v>
+      </c>
+      <c r="G149" s="13" t="n">
+        <v>43917</v>
+      </c>
+      <c r="H149" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$142,G149)</f>
+        <v>-1</v>
+      </c>
+      <c r="I149" s="13" t="n">
+        <f aca="false">B$142+1</f>
+        <v>43917</v>
+      </c>
+      <c r="J149" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$142,I149)</f>
+        <v>-1</v>
+      </c>
+      <c r="K149" s="13" t="n">
+        <f aca="false">B$142+1</f>
+        <v>43917</v>
+      </c>
+      <c r="L149" s="0"/>
+      <c r="M149" s="0"/>
+      <c r="N149" s="0"/>
+      <c r="O149" s="0"/>
+      <c r="P149" s="0"/>
+      <c r="Q149" s="0"/>
+    </row>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B150" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C150" s="12" t="n">
+        <v>50</v>
+      </c>
+      <c r="D150" s="12" t="n">
+        <v>77</v>
+      </c>
+      <c r="E150" s="12" t="n">
+        <f aca="false">D150/10.36</f>
+        <v>7.43243243243243</v>
+      </c>
+      <c r="F150" s="12" t="n">
+        <v>15</v>
+      </c>
+      <c r="G150" s="13" t="n">
+        <v>43915</v>
+      </c>
+      <c r="H150" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$142,G150)</f>
+        <v>1</v>
+      </c>
+      <c r="I150" s="13" t="n">
+        <f aca="false">B$142+1</f>
+        <v>43917</v>
+      </c>
+      <c r="J150" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$142,I150)</f>
+        <v>-1</v>
+      </c>
+      <c r="K150" s="13" t="n">
+        <f aca="false">B$142+1</f>
+        <v>43917</v>
+      </c>
+      <c r="L150" s="0"/>
+      <c r="M150" s="0"/>
+      <c r="N150" s="0"/>
+      <c r="O150" s="0"/>
+      <c r="P150" s="0"/>
+      <c r="Q150" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/covid19 lockdown evaluation .xlsx
+++ b/covid19 lockdown evaluation .xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="53">
   <si>
     <t>Effects of the lockdown issued by governments</t>
   </si>
@@ -353,7 +353,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q150"/>
+  <dimension ref="A1:Q162"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F31" activeCellId="0" sqref="F31"/>
@@ -805,7 +805,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="7" t="n">
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="D22" s="0"/>
       <c r="E22" s="8" t="s">
@@ -882,36 +882,36 @@
         <v>300</v>
       </c>
       <c r="D24" s="1" t="n">
-        <v>15887</v>
+        <v>16523</v>
       </c>
       <c r="E24" s="12" t="n">
         <f aca="false">D24/60.48</f>
-        <v>262.681878306878</v>
+        <v>273.197751322751</v>
       </c>
       <c r="F24" s="12" t="n">
-        <v>525</v>
+        <v>636</v>
       </c>
       <c r="G24" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H24" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,G24)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I24" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J24" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,I24)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K24" s="13" t="n">
-        <f aca="false">$B$34+1</f>
-        <v>43926</v>
+        <f aca="false">$B$22+1</f>
+        <v>43928</v>
       </c>
       <c r="L24" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K24,G24)</f>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M24" s="0"/>
       <c r="N24" s="0"/>
@@ -927,36 +927,36 @@
         <v>230</v>
       </c>
       <c r="D25" s="1" t="n">
-        <v>12641</v>
+        <v>13341</v>
       </c>
       <c r="E25" s="12" t="n">
         <f aca="false">D25/46.75</f>
-        <v>270.395721925134</v>
+        <v>285.368983957219</v>
       </c>
       <c r="F25" s="12" t="n">
-        <v>694</v>
+        <v>700</v>
       </c>
       <c r="G25" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H25" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,G25)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I25" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J25" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,I25)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K25" s="13" t="n">
-        <f aca="false">$B$34+1</f>
-        <v>43926</v>
+        <f aca="false">$B$22+1</f>
+        <v>43928</v>
       </c>
       <c r="L25" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K25,G25)</f>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M25" s="0"/>
       <c r="N25" s="0"/>
@@ -972,36 +972,36 @@
         <v>330</v>
       </c>
       <c r="D26" s="1" t="n">
-        <v>8078</v>
+        <v>8911</v>
       </c>
       <c r="E26" s="12" t="n">
         <f aca="false">D26/65.27</f>
-        <v>123.762831316072</v>
+        <v>136.525203002911</v>
       </c>
       <c r="F26" s="12" t="n">
-        <v>518</v>
+        <v>833</v>
       </c>
       <c r="G26" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H26" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,G26)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I26" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J26" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,I26)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K26" s="13" t="n">
-        <f aca="false">$B$34+1</f>
-        <v>43926</v>
+        <f aca="false">$B$22+1</f>
+        <v>43928</v>
       </c>
       <c r="L26" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K26,G26)</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M26" s="0"/>
       <c r="N26" s="0"/>
@@ -1017,37 +1017,37 @@
         <v>50</v>
       </c>
       <c r="D27" s="12" t="n">
-        <v>401</v>
+        <v>477</v>
       </c>
       <c r="E27" s="12" t="n">
         <f aca="false">D27/10.36</f>
-        <v>38.7065637065637</v>
+        <v>46.042471042471</v>
       </c>
       <c r="F27" s="12" t="n">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="G27" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H27" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,G27)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I27" s="13" t="n">
         <f aca="false">$B$22+1</f>
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="J27" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,I27)</f>
         <v>-1</v>
       </c>
       <c r="K27" s="13" t="n">
-        <f aca="false">$B$34+1</f>
-        <v>43926</v>
+        <f aca="false">$B$22+1</f>
+        <v>43928</v>
       </c>
       <c r="L27" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K27,G27)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M27" s="0"/>
       <c r="N27" s="0"/>
@@ -1063,37 +1063,37 @@
         <v>330</v>
       </c>
       <c r="D28" s="1" t="n">
-        <v>4934</v>
+        <v>5373</v>
       </c>
       <c r="E28" s="12" t="n">
         <f aca="false">D28/67.79</f>
-        <v>72.7835964006491</v>
+        <v>79.2594777990854</v>
       </c>
       <c r="F28" s="12" t="n">
-        <v>621</v>
+        <v>439</v>
       </c>
       <c r="G28" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H28" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,G28)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I28" s="13" t="n">
         <f aca="false">$B$22+1</f>
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="J28" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,I28)</f>
         <v>-1</v>
       </c>
       <c r="K28" s="13" t="n">
-        <f aca="false">$B$34+1</f>
-        <v>43926</v>
+        <f aca="false">$B$22+1</f>
+        <v>43928</v>
       </c>
       <c r="L28" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K28,G28)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M28" s="0"/>
       <c r="N28" s="0"/>
@@ -1109,37 +1109,37 @@
         <v>1660</v>
       </c>
       <c r="D29" s="1" t="n">
-        <v>9616</v>
+        <v>10871</v>
       </c>
       <c r="E29" s="12" t="n">
         <f aca="false">D29/331</f>
-        <v>29.0513595166163</v>
+        <v>32.8429003021148</v>
       </c>
       <c r="F29" s="12" t="n">
-        <v>1165</v>
+        <v>1255</v>
       </c>
       <c r="G29" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H29" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,G29)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I29" s="13" t="n">
         <f aca="false">$B$22+1</f>
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="J29" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,I29)</f>
         <v>-1</v>
       </c>
       <c r="K29" s="13" t="n">
-        <f aca="false">$B$34+1</f>
-        <v>43926</v>
+        <f aca="false">$B$22+1</f>
+        <v>43928</v>
       </c>
       <c r="L29" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K29,G29)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M29" s="0"/>
       <c r="N29" s="0"/>
@@ -1155,37 +1155,37 @@
         <v>414</v>
       </c>
       <c r="D30" s="1" t="n">
-        <v>1584</v>
+        <v>1810</v>
       </c>
       <c r="E30" s="12" t="n">
         <f aca="false">D30/83.784</f>
-        <v>18.9057576625609</v>
+        <v>21.6031700563353</v>
       </c>
       <c r="F30" s="12" t="n">
-        <v>140</v>
+        <v>226</v>
       </c>
       <c r="G30" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H30" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,G30)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I30" s="13" t="n">
         <f aca="false">$B$22+1</f>
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="J30" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,I30)</f>
         <v>-1</v>
       </c>
       <c r="K30" s="13" t="n">
-        <f aca="false">$B$34+1</f>
-        <v>43926</v>
+        <f aca="false">$B$22+1</f>
+        <v>43928</v>
       </c>
       <c r="L30" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K30,G30)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M30" s="0"/>
       <c r="N30" s="0"/>
@@ -1250,7 +1250,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="7" t="n">
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="D34" s="0"/>
       <c r="E34" s="8" t="s">
@@ -1327,36 +1327,36 @@
         <v>300</v>
       </c>
       <c r="D36" s="1" t="n">
-        <v>15362</v>
+        <v>15887</v>
       </c>
       <c r="E36" s="12" t="n">
         <f aca="false">D36/60.48</f>
-        <v>254.001322751323</v>
+        <v>262.681878306878</v>
       </c>
       <c r="F36" s="12" t="n">
-        <v>681</v>
+        <v>525</v>
       </c>
       <c r="G36" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H36" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,G36)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I36" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J36" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,I36)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K36" s="13" t="n">
         <f aca="false">$B$34+1</f>
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="L36" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K36,G36)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M36" s="0"/>
       <c r="N36" s="0"/>
@@ -1372,36 +1372,36 @@
         <v>230</v>
       </c>
       <c r="D37" s="1" t="n">
-        <v>11947</v>
+        <v>12641</v>
       </c>
       <c r="E37" s="12" t="n">
         <f aca="false">D37/46.75</f>
-        <v>255.550802139037</v>
+        <v>270.395721925134</v>
       </c>
       <c r="F37" s="12" t="n">
-        <v>749</v>
+        <v>694</v>
       </c>
       <c r="G37" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H37" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,G37)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I37" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J37" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,I37)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K37" s="13" t="n">
         <f aca="false">$B$34+1</f>
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="L37" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K37,G37)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M37" s="0"/>
       <c r="N37" s="0"/>
@@ -1417,36 +1417,36 @@
         <v>330</v>
       </c>
       <c r="D38" s="1" t="n">
-        <v>7560</v>
+        <v>8078</v>
       </c>
       <c r="E38" s="12" t="n">
         <f aca="false">D38/65.27</f>
-        <v>115.826566569634</v>
+        <v>123.762831316072</v>
       </c>
       <c r="F38" s="12" t="n">
-        <v>1053</v>
+        <v>518</v>
       </c>
       <c r="G38" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H38" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,G38)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I38" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J38" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,I38)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K38" s="13" t="n">
         <f aca="false">$B$34+1</f>
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="L38" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K38,G38)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M38" s="0"/>
       <c r="N38" s="0"/>
@@ -1462,25 +1462,25 @@
         <v>50</v>
       </c>
       <c r="D39" s="12" t="n">
-        <v>373</v>
+        <v>401</v>
       </c>
       <c r="E39" s="12" t="n">
         <f aca="false">D39/10.36</f>
-        <v>36.003861003861</v>
+        <v>38.7065637065637</v>
       </c>
       <c r="F39" s="12" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="G39" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H39" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,G39)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I39" s="13" t="n">
         <f aca="false">$B$34+1</f>
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="J39" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,I39)</f>
@@ -1488,11 +1488,11 @@
       </c>
       <c r="K39" s="13" t="n">
         <f aca="false">$B$34+1</f>
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="L39" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K39,G39)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M39" s="0"/>
       <c r="N39" s="0"/>
@@ -1508,25 +1508,25 @@
         <v>330</v>
       </c>
       <c r="D40" s="1" t="n">
-        <v>4313</v>
+        <v>4934</v>
       </c>
       <c r="E40" s="12" t="n">
         <f aca="false">D40/67.79</f>
-        <v>63.6229532379407</v>
+        <v>72.7835964006491</v>
       </c>
       <c r="F40" s="12" t="n">
-        <v>708</v>
+        <v>621</v>
       </c>
       <c r="G40" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H40" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,G40)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I40" s="13" t="n">
         <f aca="false">$B$34+1</f>
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="J40" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,I40)</f>
@@ -1534,11 +1534,11 @@
       </c>
       <c r="K40" s="13" t="n">
         <f aca="false">$B$34+1</f>
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="L40" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K40,G40)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M40" s="0"/>
       <c r="N40" s="0"/>
@@ -1554,25 +1554,25 @@
         <v>1660</v>
       </c>
       <c r="D41" s="1" t="n">
-        <v>8451</v>
+        <v>9616</v>
       </c>
       <c r="E41" s="12" t="n">
         <f aca="false">D41/331</f>
-        <v>25.5317220543807</v>
+        <v>29.0513595166163</v>
       </c>
       <c r="F41" s="12" t="n">
-        <v>1330</v>
+        <v>1165</v>
       </c>
       <c r="G41" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H41" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,G41)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I41" s="13" t="n">
         <f aca="false">$B$34+1</f>
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="J41" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,I41)</f>
@@ -1580,11 +1580,11 @@
       </c>
       <c r="K41" s="13" t="n">
         <f aca="false">$B$34+1</f>
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="L41" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K41,G41)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M41" s="0"/>
       <c r="N41" s="0"/>
@@ -1600,25 +1600,25 @@
         <v>414</v>
       </c>
       <c r="D42" s="1" t="n">
-        <v>1444</v>
+        <v>1584</v>
       </c>
       <c r="E42" s="12" t="n">
         <f aca="false">D42/83.784</f>
-        <v>17.2347942327891</v>
+        <v>18.9057576625609</v>
       </c>
       <c r="F42" s="12" t="n">
-        <v>169</v>
+        <v>140</v>
       </c>
       <c r="G42" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H42" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,G42)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I42" s="13" t="n">
         <f aca="false">$B$34+1</f>
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="J42" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,I42)</f>
@@ -1626,11 +1626,11 @@
       </c>
       <c r="K42" s="13" t="n">
         <f aca="false">$B$34+1</f>
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="L42" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K42,G42)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M42" s="0"/>
       <c r="N42" s="0"/>
@@ -1695,7 +1695,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="7" t="n">
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="D46" s="0"/>
       <c r="E46" s="8" t="s">
@@ -1772,36 +1772,36 @@
         <v>300</v>
       </c>
       <c r="D48" s="1" t="n">
-        <v>14681</v>
+        <v>15362</v>
       </c>
       <c r="E48" s="12" t="n">
         <f aca="false">D48/60.48</f>
-        <v>242.741402116402</v>
+        <v>254.001322751323</v>
       </c>
       <c r="F48" s="12" t="n">
-        <v>766</v>
+        <v>681</v>
       </c>
       <c r="G48" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H48" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,G48)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I48" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J48" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,I48)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K48" s="13" t="n">
         <f aca="false">$B$46+1</f>
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="L48" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K48,G48)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M48" s="0"/>
       <c r="N48" s="0"/>
@@ -1817,36 +1817,36 @@
         <v>230</v>
       </c>
       <c r="D49" s="1" t="n">
-        <v>11198</v>
+        <v>11947</v>
       </c>
       <c r="E49" s="12" t="n">
         <f aca="false">D49/46.75</f>
-        <v>239.529411764706</v>
+        <v>255.550802139037</v>
       </c>
       <c r="F49" s="12" t="n">
-        <v>850</v>
+        <v>749</v>
       </c>
       <c r="G49" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H49" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$58,G49)</f>
-        <v>16</v>
+        <f aca="false">_xlfn.DAYS($B$46,G49)</f>
+        <v>18</v>
       </c>
       <c r="I49" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J49" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,I49)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K49" s="13" t="n">
         <f aca="false">$B$46+1</f>
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="L49" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K49,G49)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M49" s="0"/>
       <c r="N49" s="0"/>
@@ -1862,36 +1862,36 @@
         <v>330</v>
       </c>
       <c r="D50" s="1" t="n">
-        <v>6507</v>
+        <v>7560</v>
       </c>
       <c r="E50" s="12" t="n">
         <f aca="false">D50/65.27</f>
-        <v>99.6935805117206</v>
+        <v>115.826566569634</v>
       </c>
       <c r="F50" s="12" t="n">
-        <v>1120</v>
+        <v>1053</v>
       </c>
       <c r="G50" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H50" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$58,G50)</f>
-        <v>11</v>
+        <f aca="false">_xlfn.DAYS($B$46,G50)</f>
+        <v>13</v>
       </c>
       <c r="I50" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J50" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,I50)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K50" s="13" t="n">
         <f aca="false">$B$46+1</f>
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="L50" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K50,G50)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M50" s="0"/>
       <c r="N50" s="0"/>
@@ -1907,25 +1907,25 @@
         <v>50</v>
       </c>
       <c r="D51" s="12" t="n">
-        <v>358</v>
+        <v>373</v>
       </c>
       <c r="E51" s="12" t="n">
         <f aca="false">D51/10.36</f>
-        <v>34.5559845559846</v>
+        <v>36.003861003861</v>
       </c>
       <c r="F51" s="12" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="G51" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H51" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$58,G51)</f>
-        <v>8</v>
+        <f aca="false">_xlfn.DAYS($B$46,G51)</f>
+        <v>10</v>
       </c>
       <c r="I51" s="13" t="n">
         <f aca="false">$B$46+1</f>
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="J51" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,I51)</f>
@@ -1933,11 +1933,11 @@
       </c>
       <c r="K51" s="13" t="n">
         <f aca="false">$B$46+1</f>
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="L51" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K51,G51)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M51" s="0"/>
       <c r="N51" s="0"/>
@@ -1953,25 +1953,25 @@
         <v>330</v>
       </c>
       <c r="D52" s="1" t="n">
-        <v>3605</v>
+        <v>4313</v>
       </c>
       <c r="E52" s="12" t="n">
         <f aca="false">D52/67.79</f>
-        <v>53.1789349461573</v>
+        <v>63.6229532379407</v>
       </c>
       <c r="F52" s="12" t="n">
-        <v>684</v>
+        <v>708</v>
       </c>
       <c r="G52" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H52" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$58,G52)</f>
-        <v>7</v>
+        <f aca="false">_xlfn.DAYS($B$46,G52)</f>
+        <v>9</v>
       </c>
       <c r="I52" s="13" t="n">
         <f aca="false">$B$46+1</f>
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="J52" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,I52)</f>
@@ -1979,11 +1979,11 @@
       </c>
       <c r="K52" s="13" t="n">
         <f aca="false">$B$46+1</f>
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="L52" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K52,G52)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M52" s="0"/>
       <c r="N52" s="0"/>
@@ -1999,25 +1999,25 @@
         <v>1660</v>
       </c>
       <c r="D53" s="1" t="n">
-        <v>7121</v>
+        <v>8451</v>
       </c>
       <c r="E53" s="12" t="n">
         <f aca="false">D53/331</f>
-        <v>21.5135951661631</v>
+        <v>25.5317220543807</v>
       </c>
       <c r="F53" s="12" t="n">
-        <v>1045</v>
+        <v>1330</v>
       </c>
       <c r="G53" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H53" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$58,G53)</f>
-        <v>6</v>
+        <f aca="false">_xlfn.DAYS($B$46,G53)</f>
+        <v>8</v>
       </c>
       <c r="I53" s="13" t="n">
         <f aca="false">$B$46+1</f>
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="J53" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,I53)</f>
@@ -2025,11 +2025,11 @@
       </c>
       <c r="K53" s="13" t="n">
         <f aca="false">$B$46+1</f>
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="L53" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K53,G53)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M53" s="0"/>
       <c r="N53" s="0"/>
@@ -2045,25 +2045,25 @@
         <v>414</v>
       </c>
       <c r="D54" s="1" t="n">
-        <v>1275</v>
+        <v>1444</v>
       </c>
       <c r="E54" s="12" t="n">
         <f aca="false">D54/83.784</f>
-        <v>15.2177026639931</v>
+        <v>17.2347942327891</v>
       </c>
       <c r="F54" s="12" t="n">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G54" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H54" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$58,G54)</f>
-        <v>5</v>
+        <f aca="false">_xlfn.DAYS($B$46,G54)</f>
+        <v>7</v>
       </c>
       <c r="I54" s="13" t="n">
         <f aca="false">$B$46+1</f>
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="J54" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,I54)</f>
@@ -2071,11 +2071,11 @@
       </c>
       <c r="K54" s="13" t="n">
         <f aca="false">$B$46+1</f>
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="L54" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K54,G54)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M54" s="0"/>
       <c r="N54" s="0"/>
@@ -2140,7 +2140,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="7" t="n">
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="D58" s="0"/>
       <c r="E58" s="8" t="s">
@@ -2217,36 +2217,36 @@
         <v>300</v>
       </c>
       <c r="D60" s="1" t="n">
-        <v>13915</v>
+        <v>14681</v>
       </c>
       <c r="E60" s="12" t="n">
         <f aca="false">D60/60.48</f>
-        <v>230.076058201058</v>
+        <v>242.741402116402</v>
       </c>
       <c r="F60" s="12" t="n">
-        <v>760</v>
+        <v>766</v>
       </c>
       <c r="G60" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H60" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,G60)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I60" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J60" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,I60)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K60" s="13" t="n">
         <f aca="false">$B$58+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="L60" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K60,G60)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M60" s="0"/>
       <c r="N60" s="0"/>
@@ -2262,20 +2262,20 @@
         <v>230</v>
       </c>
       <c r="D61" s="1" t="n">
-        <v>10348</v>
+        <v>11198</v>
       </c>
       <c r="E61" s="12" t="n">
         <f aca="false">D61/46.75</f>
-        <v>221.347593582888</v>
+        <v>239.529411764706</v>
       </c>
       <c r="F61" s="12" t="n">
-        <v>961</v>
+        <v>850</v>
       </c>
       <c r="G61" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H61" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$58,G61)</f>
+        <f aca="false">_xlfn.DAYS($B$70,G61)</f>
         <v>16</v>
       </c>
       <c r="I61" s="13" t="n">
@@ -2283,15 +2283,15 @@
       </c>
       <c r="J61" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,I61)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K61" s="13" t="n">
         <f aca="false">$B$58+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="L61" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K61,G61)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M61" s="0"/>
       <c r="N61" s="0"/>
@@ -2307,20 +2307,20 @@
         <v>330</v>
       </c>
       <c r="D62" s="1" t="n">
-        <v>5387</v>
+        <v>6507</v>
       </c>
       <c r="E62" s="12" t="n">
         <f aca="false">D62/65.27</f>
-        <v>82.5340891680711</v>
+        <v>99.6935805117206</v>
       </c>
       <c r="F62" s="12" t="n">
-        <v>1355</v>
+        <v>1120</v>
       </c>
       <c r="G62" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H62" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$58,G62)</f>
+        <f aca="false">_xlfn.DAYS($B$70,G62)</f>
         <v>11</v>
       </c>
       <c r="I62" s="13" t="n">
@@ -2328,15 +2328,15 @@
       </c>
       <c r="J62" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,I62)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K62" s="13" t="n">
         <f aca="false">$B$58+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="L62" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K62,G62)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M62" s="0"/>
       <c r="N62" s="0"/>
@@ -2352,25 +2352,25 @@
         <v>50</v>
       </c>
       <c r="D63" s="12" t="n">
-        <v>308</v>
+        <v>358</v>
       </c>
       <c r="E63" s="12" t="n">
         <f aca="false">D63/10.36</f>
-        <v>29.7297297297297</v>
+        <v>34.5559845559846</v>
       </c>
       <c r="F63" s="12" t="n">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="G63" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H63" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$58,G63)</f>
+        <f aca="false">_xlfn.DAYS($B$70,G63)</f>
         <v>8</v>
       </c>
       <c r="I63" s="13" t="n">
         <f aca="false">$B$58+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="J63" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,I63)</f>
@@ -2378,11 +2378,11 @@
       </c>
       <c r="K63" s="13" t="n">
         <f aca="false">$B$58+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="L63" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K63,G63)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M63" s="0"/>
       <c r="N63" s="0"/>
@@ -2398,25 +2398,25 @@
         <v>330</v>
       </c>
       <c r="D64" s="1" t="n">
-        <v>2921</v>
+        <v>3605</v>
       </c>
       <c r="E64" s="12" t="n">
         <f aca="false">D64/67.79</f>
-        <v>43.0889511727393</v>
+        <v>53.1789349461573</v>
       </c>
       <c r="F64" s="12" t="n">
-        <v>569</v>
+        <v>684</v>
       </c>
       <c r="G64" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H64" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$58,G64)</f>
+        <f aca="false">_xlfn.DAYS($B$70,G64)</f>
         <v>7</v>
       </c>
       <c r="I64" s="13" t="n">
         <f aca="false">$B$58+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="J64" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,I64)</f>
@@ -2424,11 +2424,11 @@
       </c>
       <c r="K64" s="13" t="n">
         <f aca="false">$B$58+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="L64" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K64,G64)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M64" s="0"/>
       <c r="N64" s="0"/>
@@ -2444,25 +2444,25 @@
         <v>1660</v>
       </c>
       <c r="D65" s="1" t="n">
-        <v>6076</v>
+        <v>7121</v>
       </c>
       <c r="E65" s="12" t="n">
         <f aca="false">D65/331</f>
-        <v>18.3564954682779</v>
+        <v>21.5135951661631</v>
       </c>
       <c r="F65" s="12" t="n">
-        <v>969</v>
+        <v>1045</v>
       </c>
       <c r="G65" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H65" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$58,G65)</f>
+        <f aca="false">_xlfn.DAYS($B$70,G65)</f>
         <v>6</v>
       </c>
       <c r="I65" s="13" t="n">
         <f aca="false">$B$58+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="J65" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,I65)</f>
@@ -2470,11 +2470,11 @@
       </c>
       <c r="K65" s="13" t="n">
         <f aca="false">$B$58+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="L65" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K65,G65)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M65" s="0"/>
       <c r="N65" s="0"/>
@@ -2490,25 +2490,25 @@
         <v>414</v>
       </c>
       <c r="D66" s="1" t="n">
-        <v>1107</v>
+        <v>1275</v>
       </c>
       <c r="E66" s="12" t="n">
         <f aca="false">D66/83.784</f>
-        <v>13.212546548267</v>
+        <v>15.2177026639931</v>
       </c>
       <c r="F66" s="12" t="n">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="G66" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H66" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$58,G66)</f>
+        <f aca="false">_xlfn.DAYS($B$70,G66)</f>
         <v>5</v>
       </c>
       <c r="I66" s="13" t="n">
         <f aca="false">$B$58+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="J66" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,I66)</f>
@@ -2516,11 +2516,11 @@
       </c>
       <c r="K66" s="13" t="n">
         <f aca="false">$B$58+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="L66" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K66,G66)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M66" s="0"/>
       <c r="N66" s="0"/>
@@ -2585,7 +2585,7 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="7" t="n">
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="D70" s="0"/>
       <c r="E70" s="8" t="s">
@@ -2662,36 +2662,36 @@
         <v>300</v>
       </c>
       <c r="D72" s="1" t="n">
-        <v>13155</v>
+        <v>13915</v>
       </c>
       <c r="E72" s="12" t="n">
         <f aca="false">D72/60.48</f>
-        <v>217.509920634921</v>
+        <v>230.076058201058</v>
       </c>
       <c r="F72" s="12" t="n">
-        <v>727</v>
+        <v>760</v>
       </c>
       <c r="G72" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H72" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,G72)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I72" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J72" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,I72)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K72" s="13" t="n">
         <f aca="false">$B$70+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="L72" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K72,G72)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M72" s="0"/>
       <c r="N72" s="0"/>
@@ -2707,36 +2707,36 @@
         <v>230</v>
       </c>
       <c r="D73" s="1" t="n">
-        <v>9387</v>
+        <v>10348</v>
       </c>
       <c r="E73" s="12" t="n">
         <f aca="false">D73/46.75</f>
-        <v>200.791443850267</v>
+        <v>221.347593582888</v>
       </c>
       <c r="F73" s="12" t="n">
-        <v>923</v>
+        <v>961</v>
       </c>
       <c r="G73" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H73" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,G73)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I73" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J73" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,I73)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K73" s="13" t="n">
         <f aca="false">$B$70+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="L73" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K73,G73)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M73" s="0"/>
       <c r="N73" s="0"/>
@@ -2752,36 +2752,36 @@
         <v>330</v>
       </c>
       <c r="D74" s="1" t="n">
-        <v>4032</v>
+        <v>5387</v>
       </c>
       <c r="E74" s="12" t="n">
         <f aca="false">D74/65.27</f>
-        <v>61.7741688371381</v>
+        <v>82.5340891680711</v>
       </c>
       <c r="F74" s="12" t="n">
-        <v>509</v>
+        <v>1355</v>
       </c>
       <c r="G74" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H74" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,G74)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I74" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J74" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,I74)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K74" s="13" t="n">
         <f aca="false">$B$70+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="L74" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K74,G74)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M74" s="0"/>
       <c r="N74" s="0"/>
@@ -2797,25 +2797,25 @@
         <v>50</v>
       </c>
       <c r="D75" s="12" t="n">
-        <v>239</v>
+        <v>308</v>
       </c>
       <c r="E75" s="12" t="n">
         <f aca="false">D75/10.36</f>
-        <v>23.0694980694981</v>
+        <v>29.7297297297297</v>
       </c>
       <c r="F75" s="12" t="n">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="G75" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H75" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,G75)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I75" s="13" t="n">
         <f aca="false">$B$70+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="J75" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,I75)</f>
@@ -2823,11 +2823,11 @@
       </c>
       <c r="K75" s="13" t="n">
         <f aca="false">$B$70+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="L75" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K75,G75)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M75" s="0"/>
       <c r="N75" s="0"/>
@@ -2843,25 +2843,25 @@
         <v>330</v>
       </c>
       <c r="D76" s="1" t="n">
-        <v>2352</v>
+        <v>2921</v>
       </c>
       <c r="E76" s="12" t="n">
         <f aca="false">D76/67.79</f>
-        <v>34.695382799823</v>
+        <v>43.0889511727393</v>
       </c>
       <c r="F76" s="12" t="n">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="G76" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H76" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,G76)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I76" s="13" t="n">
         <f aca="false">$B$70+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="J76" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,I76)</f>
@@ -2869,11 +2869,11 @@
       </c>
       <c r="K76" s="13" t="n">
         <f aca="false">$B$70+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="L76" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K76,G76)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M76" s="0"/>
       <c r="N76" s="0"/>
@@ -2889,25 +2889,25 @@
         <v>1660</v>
       </c>
       <c r="D77" s="1" t="n">
-        <v>5102</v>
+        <v>6076</v>
       </c>
       <c r="E77" s="12" t="n">
         <f aca="false">D77/331</f>
-        <v>15.4138972809668</v>
+        <v>18.3564954682779</v>
       </c>
       <c r="F77" s="12" t="n">
-        <v>1049</v>
+        <v>969</v>
       </c>
       <c r="G77" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H77" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,G77)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I77" s="13" t="n">
         <f aca="false">$B$70+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="J77" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,I77)</f>
@@ -2915,11 +2915,11 @@
       </c>
       <c r="K77" s="13" t="n">
         <f aca="false">$B$70+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="L77" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K77,G77)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M77" s="0"/>
       <c r="N77" s="0"/>
@@ -2935,25 +2935,25 @@
         <v>414</v>
       </c>
       <c r="D78" s="1" t="n">
-        <v>931</v>
+        <v>1107</v>
       </c>
       <c r="E78" s="12" t="n">
         <f aca="false">D78/83.784</f>
-        <v>11.1119068079824</v>
+        <v>13.212546548267</v>
       </c>
       <c r="F78" s="12" t="n">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="G78" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H78" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,G78)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I78" s="13" t="n">
         <f aca="false">$B$70+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="J78" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,I78)</f>
@@ -2961,11 +2961,11 @@
       </c>
       <c r="K78" s="13" t="n">
         <f aca="false">$B$70+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="L78" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K78,G78)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M78" s="0"/>
       <c r="N78" s="0"/>
@@ -3030,7 +3030,7 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="7" t="n">
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="D82" s="0"/>
       <c r="E82" s="8" t="s">
@@ -3107,36 +3107,36 @@
         <v>300</v>
       </c>
       <c r="D84" s="1" t="n">
-        <v>12428</v>
+        <v>13155</v>
       </c>
       <c r="E84" s="12" t="n">
         <f aca="false">D84/60.48</f>
-        <v>205.489417989418</v>
+        <v>217.509920634921</v>
       </c>
       <c r="F84" s="12" t="n">
-        <v>837</v>
+        <v>727</v>
       </c>
       <c r="G84" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H84" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,G84)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I84" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J84" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,I84)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K84" s="13" t="n">
         <f aca="false">$B$82+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="L84" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K84,G84)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M84" s="0"/>
       <c r="N84" s="0"/>
@@ -3152,36 +3152,36 @@
         <v>230</v>
       </c>
       <c r="D85" s="1" t="n">
-        <v>8464</v>
+        <v>9387</v>
       </c>
       <c r="E85" s="12" t="n">
         <f aca="false">D85/46.75</f>
-        <v>181.048128342246</v>
+        <v>200.791443850267</v>
       </c>
       <c r="F85" s="12" t="n">
-        <v>748</v>
+        <v>923</v>
       </c>
       <c r="G85" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H85" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,G85)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I85" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J85" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,I85)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K85" s="13" t="n">
         <f aca="false">$B$82+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="L85" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K85,G85)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M85" s="0"/>
       <c r="N85" s="0"/>
@@ -3197,36 +3197,36 @@
         <v>330</v>
       </c>
       <c r="D86" s="1" t="n">
-        <v>3523</v>
+        <v>4032</v>
       </c>
       <c r="E86" s="12" t="n">
         <f aca="false">D86/65.27</f>
-        <v>53.9757928604259</v>
+        <v>61.7741688371381</v>
       </c>
       <c r="F86" s="12" t="n">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="G86" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H86" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,G86)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I86" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J86" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,I86)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K86" s="13" t="n">
         <f aca="false">$B$82+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="L86" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K86,G86)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M86" s="0"/>
       <c r="N86" s="0"/>
@@ -3242,25 +3242,25 @@
         <v>50</v>
       </c>
       <c r="D87" s="12" t="n">
-        <v>180</v>
+        <v>239</v>
       </c>
       <c r="E87" s="12" t="n">
         <f aca="false">D87/10.36</f>
-        <v>17.3745173745174</v>
+        <v>23.0694980694981</v>
       </c>
       <c r="F87" s="12" t="n">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="G87" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H87" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,G87)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I87" s="13" t="n">
         <f aca="false">$B$82+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="J87" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,I87)</f>
@@ -3268,11 +3268,11 @@
       </c>
       <c r="K87" s="13" t="n">
         <f aca="false">$B$82+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="L87" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K87,G87)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M87" s="0"/>
       <c r="N87" s="0"/>
@@ -3288,25 +3288,25 @@
         <v>330</v>
       </c>
       <c r="D88" s="1" t="n">
-        <v>1789</v>
+        <v>2352</v>
       </c>
       <c r="E88" s="12" t="n">
         <f aca="false">D88/67.79</f>
-        <v>26.390323056498</v>
+        <v>34.695382799823</v>
       </c>
       <c r="F88" s="12" t="n">
-        <v>381</v>
+        <v>563</v>
       </c>
       <c r="G88" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H88" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,G88)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I88" s="13" t="n">
         <f aca="false">$B$82+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="J88" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,I88)</f>
@@ -3314,11 +3314,11 @@
       </c>
       <c r="K88" s="13" t="n">
         <f aca="false">$B$82+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="L88" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K88,G88)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M88" s="0"/>
       <c r="N88" s="0"/>
@@ -3334,25 +3334,25 @@
         <v>1660</v>
       </c>
       <c r="D89" s="1" t="n">
-        <v>4053</v>
+        <v>5102</v>
       </c>
       <c r="E89" s="12" t="n">
         <f aca="false">D89/331</f>
-        <v>12.2447129909366</v>
+        <v>15.4138972809668</v>
       </c>
       <c r="F89" s="12" t="n">
-        <v>912</v>
+        <v>1049</v>
       </c>
       <c r="G89" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H89" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,G89)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I89" s="13" t="n">
         <f aca="false">$B$82+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="J89" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,I89)</f>
@@ -3360,11 +3360,11 @@
       </c>
       <c r="K89" s="13" t="n">
         <f aca="false">$B$82+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="L89" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K89,G89)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M89" s="0"/>
       <c r="N89" s="0"/>
@@ -3380,25 +3380,25 @@
         <v>414</v>
       </c>
       <c r="D90" s="1" t="n">
-        <v>775</v>
+        <v>931</v>
       </c>
       <c r="E90" s="12" t="n">
         <f aca="false">D90/83.784</f>
-        <v>9.24997612909386</v>
+        <v>11.1119068079824</v>
       </c>
       <c r="F90" s="12" t="n">
-        <v>130</v>
+        <v>156</v>
       </c>
       <c r="G90" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H90" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,G90)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I90" s="13" t="n">
         <f aca="false">$B$82+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="J90" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,I90)</f>
@@ -3406,11 +3406,11 @@
       </c>
       <c r="K90" s="13" t="n">
         <f aca="false">$B$82+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="L90" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K90,G90)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M90" s="0"/>
       <c r="N90" s="0"/>
@@ -3419,15 +3419,16 @@
       <c r="Q90" s="0"/>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C91" s="12"/>
+      <c r="B91" s="4"/>
+      <c r="C91" s="5"/>
       <c r="D91" s="0"/>
-      <c r="E91" s="12"/>
-      <c r="F91" s="12"/>
-      <c r="G91" s="13"/>
+      <c r="E91" s="0"/>
+      <c r="F91" s="0"/>
+      <c r="G91" s="0"/>
       <c r="H91" s="0"/>
-      <c r="I91" s="13"/>
+      <c r="I91" s="0"/>
       <c r="J91" s="0"/>
-      <c r="K91" s="13"/>
+      <c r="K91" s="0"/>
       <c r="L91" s="0"/>
       <c r="M91" s="0"/>
       <c r="N91" s="0"/>
@@ -3436,15 +3437,16 @@
       <c r="Q91" s="0"/>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C92" s="12"/>
+      <c r="B92" s="4"/>
+      <c r="C92" s="5"/>
       <c r="D92" s="0"/>
-      <c r="E92" s="12"/>
-      <c r="F92" s="12"/>
-      <c r="G92" s="13"/>
+      <c r="E92" s="0"/>
+      <c r="F92" s="0"/>
+      <c r="G92" s="0"/>
       <c r="H92" s="0"/>
-      <c r="I92" s="13"/>
+      <c r="I92" s="0"/>
       <c r="J92" s="0"/>
-      <c r="K92" s="13"/>
+      <c r="K92" s="0"/>
       <c r="L92" s="0"/>
       <c r="M92" s="0"/>
       <c r="N92" s="0"/>
@@ -3473,7 +3475,7 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="7" t="n">
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="D94" s="0"/>
       <c r="E94" s="8" t="s">
@@ -3495,7 +3497,9 @@
       <c r="K94" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="L94" s="0"/>
+      <c r="L94" s="8" t="s">
+        <v>37</v>
+      </c>
       <c r="M94" s="0"/>
       <c r="N94" s="0"/>
       <c r="O94" s="0"/>
@@ -3531,7 +3535,9 @@
       <c r="K95" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="L95" s="0"/>
+      <c r="L95" s="8" t="s">
+        <v>45</v>
+      </c>
       <c r="M95" s="0"/>
       <c r="N95" s="0"/>
       <c r="O95" s="0"/>
@@ -3546,34 +3552,37 @@
         <v>300</v>
       </c>
       <c r="D96" s="1" t="n">
-        <v>11591</v>
+        <v>12428</v>
       </c>
       <c r="E96" s="12" t="n">
         <f aca="false">D96/60.48</f>
-        <v>191.650132275132</v>
+        <v>205.489417989418</v>
       </c>
       <c r="F96" s="12" t="n">
-        <v>812</v>
+        <v>837</v>
       </c>
       <c r="G96" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H96" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,G96)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I96" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J96" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,I96)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K96" s="13" t="n">
-        <f aca="false">$B$106+1</f>
-        <v>43920</v>
-      </c>
-      <c r="L96" s="0"/>
+        <f aca="false">$B$94+1</f>
+        <v>43922</v>
+      </c>
+      <c r="L96" s="0" t="n">
+        <f aca="false">_xlfn.DAYS(K96,G96)</f>
+        <v>22</v>
+      </c>
       <c r="M96" s="0"/>
       <c r="N96" s="0"/>
       <c r="O96" s="0"/>
@@ -3588,34 +3597,37 @@
         <v>230</v>
       </c>
       <c r="D97" s="1" t="n">
-        <v>7716</v>
+        <v>8464</v>
       </c>
       <c r="E97" s="12" t="n">
         <f aca="false">D97/46.75</f>
-        <v>165.048128342246</v>
+        <v>181.048128342246</v>
       </c>
       <c r="F97" s="12" t="n">
-        <v>913</v>
+        <v>748</v>
       </c>
       <c r="G97" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H97" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,G97)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I97" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J97" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,I97)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K97" s="13" t="n">
-        <f aca="false">$B$106+1</f>
-        <v>43920</v>
-      </c>
-      <c r="L97" s="0"/>
+        <f aca="false">$B$94+1</f>
+        <v>43922</v>
+      </c>
+      <c r="L97" s="0" t="n">
+        <f aca="false">_xlfn.DAYS(K97,G97)</f>
+        <v>15</v>
+      </c>
       <c r="M97" s="0"/>
       <c r="N97" s="0"/>
       <c r="O97" s="0"/>
@@ -3630,34 +3642,37 @@
         <v>330</v>
       </c>
       <c r="D98" s="1" t="n">
-        <v>3024</v>
+        <v>3523</v>
       </c>
       <c r="E98" s="12" t="n">
         <f aca="false">D98/65.27</f>
-        <v>46.3306266278535</v>
+        <v>53.9757928604259</v>
       </c>
       <c r="F98" s="12" t="n">
-        <v>418</v>
+        <v>499</v>
       </c>
       <c r="G98" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H98" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,G98)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I98" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J98" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,I98)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K98" s="13" t="n">
-        <f aca="false">$B$106+1</f>
-        <v>43920</v>
-      </c>
-      <c r="L98" s="0"/>
+        <f aca="false">$B$94+1</f>
+        <v>43922</v>
+      </c>
+      <c r="L98" s="0" t="n">
+        <f aca="false">_xlfn.DAYS(K98,G98)</f>
+        <v>10</v>
+      </c>
       <c r="M98" s="0"/>
       <c r="N98" s="0"/>
       <c r="O98" s="0"/>
@@ -3672,35 +3687,38 @@
         <v>50</v>
       </c>
       <c r="D99" s="12" t="n">
-        <v>146</v>
+        <v>180</v>
       </c>
       <c r="E99" s="12" t="n">
         <f aca="false">D99/10.36</f>
-        <v>14.0926640926641</v>
+        <v>17.3745173745174</v>
       </c>
       <c r="F99" s="12" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G99" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H99" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,G99)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I99" s="13" t="n">
         <f aca="false">$B$94+1</f>
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="J99" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,I99)</f>
         <v>-1</v>
       </c>
       <c r="K99" s="13" t="n">
-        <f aca="false">$B$106+1</f>
-        <v>43920</v>
-      </c>
-      <c r="L99" s="0"/>
+        <f aca="false">$B$94+1</f>
+        <v>43922</v>
+      </c>
+      <c r="L99" s="0" t="n">
+        <f aca="false">_xlfn.DAYS(K99,G99)</f>
+        <v>7</v>
+      </c>
       <c r="M99" s="0"/>
       <c r="N99" s="0"/>
       <c r="O99" s="0"/>
@@ -3715,35 +3733,38 @@
         <v>330</v>
       </c>
       <c r="D100" s="1" t="n">
-        <v>1408</v>
+        <v>1789</v>
       </c>
       <c r="E100" s="12" t="n">
         <f aca="false">D100/67.79</f>
-        <v>20.770025077445</v>
+        <v>26.390323056498</v>
       </c>
       <c r="F100" s="12" t="n">
-        <v>180</v>
+        <v>381</v>
       </c>
       <c r="G100" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H100" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,G100)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I100" s="13" t="n">
         <f aca="false">$B$94+1</f>
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="J100" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,I100)</f>
         <v>-1</v>
       </c>
       <c r="K100" s="13" t="n">
-        <f aca="false">$B$106+1</f>
-        <v>43920</v>
-      </c>
-      <c r="L100" s="0"/>
+        <f aca="false">$B$94+1</f>
+        <v>43922</v>
+      </c>
+      <c r="L100" s="0" t="n">
+        <f aca="false">_xlfn.DAYS(K100,G100)</f>
+        <v>6</v>
+      </c>
       <c r="M100" s="0"/>
       <c r="N100" s="0"/>
       <c r="O100" s="0"/>
@@ -3758,34 +3779,38 @@
         <v>1660</v>
       </c>
       <c r="D101" s="1" t="n">
-        <v>3141</v>
+        <v>4053</v>
       </c>
       <c r="E101" s="12" t="n">
         <f aca="false">D101/331</f>
-        <v>9.48942598187311</v>
+        <v>12.2447129909366</v>
       </c>
       <c r="F101" s="12" t="n">
-        <v>573</v>
+        <v>912</v>
       </c>
       <c r="G101" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H101" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,G101)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I101" s="13" t="n">
-        <v>43920</v>
+        <f aca="false">$B$94+1</f>
+        <v>43922</v>
       </c>
       <c r="J101" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,I101)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K101" s="13" t="n">
-        <f aca="false">$B$106+1</f>
-        <v>43920</v>
-      </c>
-      <c r="L101" s="0"/>
+        <f aca="false">$B$94+1</f>
+        <v>43922</v>
+      </c>
+      <c r="L101" s="0" t="n">
+        <f aca="false">_xlfn.DAYS(K101,G101)</f>
+        <v>5</v>
+      </c>
       <c r="M101" s="0"/>
       <c r="N101" s="0"/>
       <c r="O101" s="0"/>
@@ -3800,35 +3825,38 @@
         <v>414</v>
       </c>
       <c r="D102" s="1" t="n">
-        <v>645</v>
+        <v>775</v>
       </c>
       <c r="E102" s="12" t="n">
         <f aca="false">D102/83.784</f>
-        <v>7.69836723002005</v>
+        <v>9.24997612909386</v>
       </c>
       <c r="F102" s="12" t="n">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="G102" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H102" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,G102)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I102" s="13" t="n">
         <f aca="false">$B$94+1</f>
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="J102" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,I102)</f>
         <v>-1</v>
       </c>
       <c r="K102" s="13" t="n">
-        <f aca="false">$B$106+1</f>
-        <v>43920</v>
-      </c>
-      <c r="L102" s="0"/>
+        <f aca="false">$B$94+1</f>
+        <v>43922</v>
+      </c>
+      <c r="L102" s="0" t="n">
+        <f aca="false">_xlfn.DAYS(K102,G102)</f>
+        <v>4</v>
+      </c>
       <c r="M102" s="0"/>
       <c r="N102" s="0"/>
       <c r="O102" s="0"/>
@@ -3836,16 +3864,15 @@
       <c r="Q102" s="0"/>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B103" s="4"/>
-      <c r="C103" s="5"/>
+      <c r="C103" s="12"/>
       <c r="D103" s="0"/>
-      <c r="E103" s="0"/>
-      <c r="F103" s="0"/>
-      <c r="G103" s="0"/>
+      <c r="E103" s="12"/>
+      <c r="F103" s="12"/>
+      <c r="G103" s="13"/>
       <c r="H103" s="0"/>
-      <c r="I103" s="0"/>
+      <c r="I103" s="13"/>
       <c r="J103" s="0"/>
-      <c r="K103" s="0"/>
+      <c r="K103" s="13"/>
       <c r="L103" s="0"/>
       <c r="M103" s="0"/>
       <c r="N103" s="0"/>
@@ -3854,16 +3881,15 @@
       <c r="Q103" s="0"/>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B104" s="4"/>
-      <c r="C104" s="5"/>
+      <c r="C104" s="12"/>
       <c r="D104" s="0"/>
-      <c r="E104" s="0"/>
-      <c r="F104" s="0"/>
-      <c r="G104" s="0"/>
+      <c r="E104" s="12"/>
+      <c r="F104" s="12"/>
+      <c r="G104" s="13"/>
       <c r="H104" s="0"/>
-      <c r="I104" s="0"/>
+      <c r="I104" s="13"/>
       <c r="J104" s="0"/>
-      <c r="K104" s="0"/>
+      <c r="K104" s="13"/>
       <c r="L104" s="0"/>
       <c r="M104" s="0"/>
       <c r="N104" s="0"/>
@@ -3892,7 +3918,7 @@
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="7" t="n">
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="D106" s="0"/>
       <c r="E106" s="8" t="s">
@@ -3965,31 +3991,31 @@
         <v>300</v>
       </c>
       <c r="D108" s="1" t="n">
-        <v>10779</v>
+        <v>11591</v>
       </c>
       <c r="E108" s="12" t="n">
         <f aca="false">D108/60.48</f>
-        <v>178.224206349206</v>
+        <v>191.650132275132</v>
       </c>
       <c r="F108" s="12" t="n">
-        <v>756</v>
+        <v>812</v>
       </c>
       <c r="G108" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H108" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,G108)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I108" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J108" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,I108)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K108" s="13" t="n">
-        <f aca="false">$B$106+1</f>
+        <f aca="false">$B$118+1</f>
         <v>43920</v>
       </c>
       <c r="L108" s="0"/>
@@ -4007,31 +4033,31 @@
         <v>230</v>
       </c>
       <c r="D109" s="1" t="n">
-        <v>6803</v>
+        <v>7716</v>
       </c>
       <c r="E109" s="12" t="n">
         <f aca="false">D109/46.75</f>
-        <v>145.51871657754</v>
+        <v>165.048128342246</v>
       </c>
       <c r="F109" s="12" t="n">
-        <v>821</v>
+        <v>913</v>
       </c>
       <c r="G109" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H109" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,G109)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I109" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J109" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,I109)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K109" s="13" t="n">
-        <f aca="false">$B$106+1</f>
+        <f aca="false">$B$118+1</f>
         <v>43920</v>
       </c>
       <c r="L109" s="0"/>
@@ -4049,31 +4075,31 @@
         <v>330</v>
       </c>
       <c r="D110" s="1" t="n">
-        <v>2606</v>
+        <v>3024</v>
       </c>
       <c r="E110" s="12" t="n">
         <f aca="false">D110/65.27</f>
-        <v>39.9264593228129</v>
+        <v>46.3306266278535</v>
       </c>
       <c r="F110" s="12" t="n">
-        <v>292</v>
+        <v>418</v>
       </c>
       <c r="G110" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H110" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,G110)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I110" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J110" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,I110)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K110" s="13" t="n">
-        <f aca="false">$B$106+1</f>
+        <f aca="false">$B$118+1</f>
         <v>43920</v>
       </c>
       <c r="L110" s="0"/>
@@ -4085,38 +4111,38 @@
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B111" s="0" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C111" s="12" t="n">
-        <v>1660</v>
-      </c>
-      <c r="D111" s="1" t="n">
-        <v>2583</v>
+        <v>50</v>
+      </c>
+      <c r="D111" s="12" t="n">
+        <v>146</v>
       </c>
       <c r="E111" s="12" t="n">
-        <f aca="false">D111/331</f>
-        <v>7.8036253776435</v>
+        <f aca="false">D111/10.36</f>
+        <v>14.0926640926641</v>
       </c>
       <c r="F111" s="12" t="n">
-        <v>363</v>
+        <v>36</v>
       </c>
       <c r="G111" s="13" t="n">
-        <v>43917</v>
+        <v>43915</v>
       </c>
       <c r="H111" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,G111)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I111" s="13" t="n">
         <f aca="false">$B$106+1</f>
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="J111" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,I111)</f>
         <v>-1</v>
       </c>
       <c r="K111" s="13" t="n">
-        <f aca="false">$B$106+1</f>
+        <f aca="false">$B$118+1</f>
         <v>43920</v>
       </c>
       <c r="L111" s="0"/>
@@ -4134,32 +4160,32 @@
         <v>330</v>
       </c>
       <c r="D112" s="1" t="n">
-        <v>1228</v>
+        <v>1408</v>
       </c>
       <c r="E112" s="12" t="n">
         <f aca="false">D112/67.79</f>
-        <v>18.1147661897035</v>
+        <v>20.770025077445</v>
       </c>
       <c r="F112" s="12" t="n">
-        <v>209</v>
+        <v>180</v>
       </c>
       <c r="G112" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H112" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,G112)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I112" s="13" t="n">
         <f aca="false">$B$106+1</f>
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="J112" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,I112)</f>
         <v>-1</v>
       </c>
       <c r="K112" s="13" t="n">
-        <f aca="false">$B$106+1</f>
+        <f aca="false">$B$118+1</f>
         <v>43920</v>
       </c>
       <c r="L112" s="0"/>
@@ -4171,38 +4197,37 @@
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B113" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C113" s="12" t="n">
-        <v>414</v>
+        <v>1660</v>
       </c>
       <c r="D113" s="1" t="n">
-        <v>541</v>
+        <v>3141</v>
       </c>
       <c r="E113" s="12" t="n">
-        <f aca="false">D113/83.784</f>
-        <v>6.457080110761</v>
+        <f aca="false">D113/331</f>
+        <v>9.48942598187311</v>
       </c>
       <c r="F113" s="12" t="n">
-        <v>108</v>
+        <v>573</v>
       </c>
       <c r="G113" s="13" t="n">
-        <v>43918</v>
+        <v>43917</v>
       </c>
       <c r="H113" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,G113)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I113" s="13" t="n">
-        <f aca="false">$B$106+1</f>
         <v>43920</v>
       </c>
       <c r="J113" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,I113)</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K113" s="13" t="n">
-        <f aca="false">$B$106+1</f>
+        <f aca="false">$B$118+1</f>
         <v>43920</v>
       </c>
       <c r="L113" s="0"/>
@@ -4214,38 +4239,38 @@
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B114" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C114" s="12" t="n">
-        <v>50</v>
-      </c>
-      <c r="D114" s="12" t="n">
-        <v>110</v>
+        <v>414</v>
+      </c>
+      <c r="D114" s="1" t="n">
+        <v>645</v>
       </c>
       <c r="E114" s="12" t="n">
-        <f aca="false">D114/10.36</f>
-        <v>10.6177606177606</v>
+        <f aca="false">D114/83.784</f>
+        <v>7.69836723002005</v>
       </c>
       <c r="F114" s="12" t="n">
-        <v>5</v>
+        <v>104</v>
       </c>
       <c r="G114" s="13" t="n">
-        <v>43915</v>
+        <v>43918</v>
       </c>
       <c r="H114" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,G114)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I114" s="13" t="n">
         <f aca="false">$B$106+1</f>
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="J114" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,I114)</f>
         <v>-1</v>
       </c>
       <c r="K114" s="13" t="n">
-        <f aca="false">$B$106+1</f>
+        <f aca="false">$B$118+1</f>
         <v>43920</v>
       </c>
       <c r="L114" s="0"/>
@@ -4312,15 +4337,13 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B118" s="7" t="n">
-        <v>43918</v>
-      </c>
-      <c r="D118" s="8" t="s">
-        <v>10</v>
-      </c>
+        <v>43919</v>
+      </c>
+      <c r="D118" s="0"/>
       <c r="E118" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F118" s="8"/>
+      <c r="F118" s="0"/>
       <c r="G118" s="8" t="s">
         <v>33</v>
       </c>
@@ -4348,8 +4371,8 @@
       <c r="C119" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D119" s="10" t="s">
-        <v>6</v>
+      <c r="D119" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="E119" s="10" t="s">
         <v>39</v>
@@ -4387,32 +4410,32 @@
         <v>300</v>
       </c>
       <c r="D120" s="1" t="n">
-        <v>10023</v>
+        <v>10779</v>
       </c>
       <c r="E120" s="12" t="n">
         <f aca="false">D120/60.48</f>
-        <v>165.724206349206</v>
+        <v>178.224206349206</v>
       </c>
       <c r="F120" s="12" t="n">
-        <v>889</v>
+        <v>756</v>
       </c>
       <c r="G120" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H120" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$118,G120)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I120" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J120" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$130,I120)</f>
-        <v>15</v>
+        <f aca="false">_xlfn.DAYS($B$118,I120)</f>
+        <v>17</v>
       </c>
       <c r="K120" s="13" t="n">
         <f aca="false">$B$118+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="L120" s="0"/>
       <c r="M120" s="0"/>
@@ -4429,32 +4452,32 @@
         <v>230</v>
       </c>
       <c r="D121" s="1" t="n">
-        <v>5982</v>
+        <v>6803</v>
       </c>
       <c r="E121" s="12" t="n">
         <f aca="false">D121/46.75</f>
-        <v>127.957219251337</v>
+        <v>145.51871657754</v>
       </c>
       <c r="F121" s="12" t="n">
-        <v>844</v>
+        <v>821</v>
       </c>
       <c r="G121" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H121" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$118,G121)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I121" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J121" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$130,I121)</f>
-        <v>4</v>
+        <f aca="false">_xlfn.DAYS($B$118,I121)</f>
+        <v>6</v>
       </c>
       <c r="K121" s="13" t="n">
         <f aca="false">$B$118+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="L121" s="0"/>
       <c r="M121" s="0"/>
@@ -4471,32 +4494,32 @@
         <v>330</v>
       </c>
       <c r="D122" s="1" t="n">
-        <v>2314</v>
+        <v>2606</v>
       </c>
       <c r="E122" s="12" t="n">
         <f aca="false">D122/65.27</f>
-        <v>35.4527347939329</v>
+        <v>39.9264593228129</v>
       </c>
       <c r="F122" s="12" t="n">
-        <v>319</v>
+        <v>292</v>
       </c>
       <c r="G122" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H122" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$118,G122)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I122" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J122" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$130,I122)</f>
-        <v>3</v>
+        <f aca="false">_xlfn.DAYS($B$118,I122)</f>
+        <v>5</v>
       </c>
       <c r="K122" s="13" t="n">
         <f aca="false">$B$118+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="L122" s="0"/>
       <c r="M122" s="0"/>
@@ -4513,25 +4536,25 @@
         <v>1660</v>
       </c>
       <c r="D123" s="1" t="n">
-        <v>2221</v>
+        <v>2583</v>
       </c>
       <c r="E123" s="12" t="n">
         <f aca="false">D123/331</f>
-        <v>6.70996978851964</v>
+        <v>7.8036253776435</v>
       </c>
       <c r="F123" s="12" t="n">
-        <v>525</v>
+        <v>363</v>
       </c>
       <c r="G123" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H123" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$118,G123)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I123" s="13" t="n">
         <f aca="false">$B$118+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="J123" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$118,I123)</f>
@@ -4539,7 +4562,7 @@
       </c>
       <c r="K123" s="13" t="n">
         <f aca="false">$B$118+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="L123" s="0"/>
       <c r="M123" s="0"/>
@@ -4556,25 +4579,25 @@
         <v>330</v>
       </c>
       <c r="D124" s="1" t="n">
-        <v>1019</v>
+        <v>1228</v>
       </c>
       <c r="E124" s="12" t="n">
         <f aca="false">D124/67.79</f>
-        <v>15.0317155922702</v>
+        <v>18.1147661897035</v>
       </c>
       <c r="F124" s="12" t="n">
-        <v>260</v>
+        <v>209</v>
       </c>
       <c r="G124" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H124" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$118,G124)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I124" s="13" t="n">
         <f aca="false">$B$118+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="J124" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$118,I124)</f>
@@ -4582,7 +4605,7 @@
       </c>
       <c r="K124" s="13" t="n">
         <f aca="false">$B$118+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="L124" s="0"/>
       <c r="M124" s="0"/>
@@ -4599,25 +4622,25 @@
         <v>414</v>
       </c>
       <c r="D125" s="1" t="n">
-        <v>433</v>
+        <v>541</v>
       </c>
       <c r="E125" s="12" t="n">
         <f aca="false">D125/83.784</f>
-        <v>5.16805117922276</v>
+        <v>6.457080110761</v>
       </c>
       <c r="F125" s="12" t="n">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="G125" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H125" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$118,G125)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I125" s="13" t="n">
         <f aca="false">$B$118+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="J125" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$118,I125)</f>
@@ -4625,7 +4648,7 @@
       </c>
       <c r="K125" s="13" t="n">
         <f aca="false">$B$118+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="L125" s="0"/>
       <c r="M125" s="0"/>
@@ -4642,25 +4665,25 @@
         <v>50</v>
       </c>
       <c r="D126" s="12" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E126" s="12" t="n">
         <f aca="false">D126/10.36</f>
-        <v>10.1351351351351</v>
+        <v>10.6177606177606</v>
       </c>
       <c r="F126" s="12" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G126" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H126" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$118,G126)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I126" s="13" t="n">
         <f aca="false">$B$118+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="J126" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$118,I126)</f>
@@ -4668,7 +4691,7 @@
       </c>
       <c r="K126" s="13" t="n">
         <f aca="false">$B$118+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="L126" s="0"/>
       <c r="M126" s="0"/>
@@ -4678,15 +4701,16 @@
       <c r="Q126" s="0"/>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C127" s="12"/>
-      <c r="D127" s="12"/>
-      <c r="E127" s="12"/>
-      <c r="F127" s="12"/>
-      <c r="G127" s="13"/>
+      <c r="B127" s="4"/>
+      <c r="C127" s="5"/>
+      <c r="D127" s="0"/>
+      <c r="E127" s="0"/>
+      <c r="F127" s="0"/>
+      <c r="G127" s="0"/>
       <c r="H127" s="0"/>
-      <c r="I127" s="13"/>
+      <c r="I127" s="0"/>
       <c r="J127" s="0"/>
-      <c r="K127" s="13"/>
+      <c r="K127" s="0"/>
       <c r="L127" s="0"/>
       <c r="M127" s="0"/>
       <c r="N127" s="0"/>
@@ -4731,11 +4755,10 @@
       <c r="P129" s="0"/>
       <c r="Q129" s="0"/>
     </row>
-    <row r="130" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B130" s="7" t="n">
-        <v>43917</v>
-      </c>
-      <c r="C130" s="0"/>
+        <v>43918</v>
+      </c>
       <c r="D130" s="8" t="s">
         <v>10</v>
       </c>
@@ -4758,10 +4781,14 @@
       <c r="K130" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="L130" s="8"/>
+      <c r="L130" s="0"/>
+      <c r="M130" s="0"/>
+      <c r="N130" s="0"/>
+      <c r="O130" s="0"/>
+      <c r="P130" s="0"/>
+      <c r="Q130" s="0"/>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="3"/>
       <c r="B131" s="9"/>
       <c r="C131" s="10" t="s">
         <v>38</v>
@@ -4790,7 +4817,7 @@
       <c r="K131" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="L131" s="8"/>
+      <c r="L131" s="0"/>
       <c r="M131" s="0"/>
       <c r="N131" s="0"/>
       <c r="O131" s="0"/>
@@ -4805,32 +4832,32 @@
         <v>300</v>
       </c>
       <c r="D132" s="1" t="n">
-        <v>9134</v>
+        <v>10023</v>
       </c>
       <c r="E132" s="12" t="n">
         <f aca="false">D132/60.48</f>
-        <v>151.025132275132</v>
+        <v>165.724206349206</v>
       </c>
       <c r="F132" s="12" t="n">
-        <v>919</v>
+        <v>889</v>
       </c>
       <c r="G132" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H132" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$130,G132)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I132" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J132" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$130,I132)</f>
+        <f aca="false">_xlfn.DAYS(B$142,I132)</f>
         <v>15</v>
       </c>
       <c r="K132" s="13" t="n">
         <f aca="false">$B$130+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="L132" s="0"/>
       <c r="M132" s="0"/>
@@ -4847,32 +4874,32 @@
         <v>230</v>
       </c>
       <c r="D133" s="1" t="n">
-        <v>5138</v>
+        <v>5982</v>
       </c>
       <c r="E133" s="12" t="n">
         <f aca="false">D133/46.75</f>
-        <v>109.903743315508</v>
+        <v>127.957219251337</v>
       </c>
       <c r="F133" s="12" t="n">
-        <v>773</v>
+        <v>844</v>
       </c>
       <c r="G133" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H133" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$130,G133)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I133" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J133" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$130,I133)</f>
+        <f aca="false">_xlfn.DAYS(B$142,I133)</f>
         <v>4</v>
       </c>
       <c r="K133" s="13" t="n">
         <f aca="false">$B$130+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="L133" s="0"/>
       <c r="M133" s="0"/>
@@ -4889,32 +4916,32 @@
         <v>330</v>
       </c>
       <c r="D134" s="1" t="n">
-        <v>1995</v>
+        <v>2314</v>
       </c>
       <c r="E134" s="12" t="n">
         <f aca="false">D134/65.27</f>
-        <v>30.5653439558756</v>
+        <v>35.4527347939329</v>
       </c>
       <c r="F134" s="12" t="n">
-        <v>299</v>
+        <v>319</v>
       </c>
       <c r="G134" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H134" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$130,G134)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I134" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J134" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$130,I134)</f>
+        <f aca="false">_xlfn.DAYS(B$142,I134)</f>
         <v>3</v>
       </c>
       <c r="K134" s="13" t="n">
         <f aca="false">$B$130+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="L134" s="0"/>
       <c r="M134" s="0"/>
@@ -4931,34 +4958,33 @@
         <v>1660</v>
       </c>
       <c r="D135" s="1" t="n">
-        <v>1696</v>
+        <v>2221</v>
       </c>
       <c r="E135" s="12" t="n">
         <f aca="false">D135/331</f>
-        <v>5.12386706948641</v>
+        <v>6.70996978851964</v>
       </c>
       <c r="F135" s="12" t="n">
-        <v>400</v>
+        <v>525</v>
       </c>
       <c r="G135" s="13" t="n">
-        <f aca="false">$B$130</f>
         <v>43917</v>
       </c>
       <c r="H135" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$130,G135)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I135" s="13" t="n">
         <f aca="false">$B$130+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="J135" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$130,I135)</f>
+        <f aca="false">_xlfn.DAYS($B$130,I135)</f>
         <v>-1</v>
       </c>
       <c r="K135" s="13" t="n">
         <f aca="false">$B$130+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="L135" s="0"/>
       <c r="M135" s="0"/>
@@ -4975,33 +5001,33 @@
         <v>330</v>
       </c>
       <c r="D136" s="1" t="n">
-        <v>759</v>
+        <v>1019</v>
       </c>
       <c r="E136" s="12" t="n">
         <f aca="false">D136/67.79</f>
-        <v>11.1963416433102</v>
+        <v>15.0317155922702</v>
       </c>
       <c r="F136" s="12" t="n">
-        <v>181</v>
+        <v>260</v>
       </c>
       <c r="G136" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H136" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$130,G136)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I136" s="13" t="n">
         <f aca="false">$B$130+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="J136" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$130,I136)</f>
+        <f aca="false">_xlfn.DAYS($B$130,I136)</f>
         <v>-1</v>
       </c>
       <c r="K136" s="13" t="n">
         <f aca="false">$B$130+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="L136" s="0"/>
       <c r="M136" s="0"/>
@@ -5018,34 +5044,33 @@
         <v>414</v>
       </c>
       <c r="D137" s="1" t="n">
-        <v>351</v>
+        <v>433</v>
       </c>
       <c r="E137" s="12" t="n">
         <f aca="false">D137/83.784</f>
-        <v>4.18934402749928</v>
+        <v>5.16805117922276</v>
       </c>
       <c r="F137" s="12" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G137" s="13" t="n">
-        <f aca="false">$B$130+1</f>
         <v>43918</v>
       </c>
       <c r="H137" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$130,G137)</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I137" s="13" t="n">
         <f aca="false">$B$130+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="J137" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$130,I137)</f>
+        <f aca="false">_xlfn.DAYS($B$130,I137)</f>
         <v>-1</v>
       </c>
       <c r="K137" s="13" t="n">
         <f aca="false">$B$130+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="L137" s="0"/>
       <c r="M137" s="0"/>
@@ -5069,26 +5094,26 @@
         <v>10.1351351351351</v>
       </c>
       <c r="F138" s="12" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="G138" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H138" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$130,G138)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I138" s="13" t="n">
         <f aca="false">$B$130+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="J138" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$130,I138)</f>
+        <f aca="false">_xlfn.DAYS($B$130,I138)</f>
         <v>-1</v>
       </c>
       <c r="K138" s="13" t="n">
         <f aca="false">$B$130+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="L138" s="0"/>
       <c r="M138" s="0"/>
@@ -5098,14 +5123,15 @@
       <c r="Q138" s="0"/>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D139" s="0"/>
-      <c r="E139" s="0"/>
-      <c r="F139" s="0"/>
-      <c r="G139" s="0"/>
+      <c r="C139" s="12"/>
+      <c r="D139" s="12"/>
+      <c r="E139" s="12"/>
+      <c r="F139" s="12"/>
+      <c r="G139" s="13"/>
       <c r="H139" s="0"/>
-      <c r="I139" s="0"/>
+      <c r="I139" s="13"/>
       <c r="J139" s="0"/>
-      <c r="K139" s="0"/>
+      <c r="K139" s="13"/>
       <c r="L139" s="0"/>
       <c r="M139" s="0"/>
       <c r="N139" s="0"/>
@@ -5114,6 +5140,8 @@
       <c r="Q139" s="0"/>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B140" s="4"/>
+      <c r="C140" s="5"/>
       <c r="D140" s="0"/>
       <c r="E140" s="0"/>
       <c r="F140" s="0"/>
@@ -5148,10 +5176,11 @@
       <c r="P141" s="0"/>
       <c r="Q141" s="0"/>
     </row>
-    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B142" s="7" t="n">
-        <v>43916</v>
-      </c>
+        <v>43917</v>
+      </c>
+      <c r="C142" s="0"/>
       <c r="D142" s="8" t="s">
         <v>10</v>
       </c>
@@ -5174,17 +5203,13 @@
       <c r="K142" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="L142" s="0"/>
-      <c r="M142" s="0"/>
-      <c r="N142" s="0"/>
-      <c r="O142" s="0"/>
-      <c r="P142" s="0"/>
-      <c r="Q142" s="0"/>
+      <c r="L142" s="8"/>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="3"/>
       <c r="B143" s="9"/>
       <c r="C143" s="10" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="D143" s="10" t="s">
         <v>6</v>
@@ -5210,7 +5235,7 @@
       <c r="K143" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="L143" s="0"/>
+      <c r="L143" s="8"/>
       <c r="M143" s="0"/>
       <c r="N143" s="0"/>
       <c r="O143" s="0"/>
@@ -5225,32 +5250,32 @@
         <v>300</v>
       </c>
       <c r="D144" s="1" t="n">
-        <v>8215</v>
+        <v>9134</v>
       </c>
       <c r="E144" s="12" t="n">
         <f aca="false">D144/60.48</f>
-        <v>135.830026455026</v>
+        <v>151.025132275132</v>
       </c>
       <c r="F144" s="12" t="n">
-        <v>712</v>
+        <v>919</v>
       </c>
       <c r="G144" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H144" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$142,G144)</f>
-        <v>16</v>
+        <f aca="false">_xlfn.DAYS($B$142,G144)</f>
+        <v>17</v>
       </c>
       <c r="I144" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J144" s="1" t="n">
         <f aca="false">_xlfn.DAYS(B$142,I144)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K144" s="13" t="n">
-        <f aca="false">B$142+1</f>
-        <v>43917</v>
+        <f aca="false">$B$142+1</f>
+        <v>43918</v>
       </c>
       <c r="L144" s="0"/>
       <c r="M144" s="0"/>
@@ -5267,32 +5292,32 @@
         <v>230</v>
       </c>
       <c r="D145" s="1" t="n">
-        <v>4365</v>
+        <v>5138</v>
       </c>
       <c r="E145" s="12" t="n">
         <f aca="false">D145/46.75</f>
-        <v>93.3689839572193</v>
+        <v>109.903743315508</v>
       </c>
       <c r="F145" s="12" t="n">
-        <v>718</v>
+        <v>773</v>
       </c>
       <c r="G145" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H145" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$142,G145)</f>
-        <v>9</v>
+        <f aca="false">_xlfn.DAYS($B$142,G145)</f>
+        <v>10</v>
       </c>
       <c r="I145" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J145" s="1" t="n">
         <f aca="false">_xlfn.DAYS(B$142,I145)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K145" s="13" t="n">
-        <f aca="false">B$142+1</f>
-        <v>43917</v>
+        <f aca="false">$B$142+1</f>
+        <v>43918</v>
       </c>
       <c r="L145" s="0"/>
       <c r="M145" s="0"/>
@@ -5309,32 +5334,32 @@
         <v>330</v>
       </c>
       <c r="D146" s="1" t="n">
-        <v>1696</v>
+        <v>1995</v>
       </c>
       <c r="E146" s="12" t="n">
         <f aca="false">D146/65.27</f>
-        <v>25.9843726060978</v>
+        <v>30.5653439558756</v>
       </c>
       <c r="F146" s="12" t="n">
-        <v>365</v>
+        <v>299</v>
       </c>
       <c r="G146" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H146" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$142,G146)</f>
-        <v>4</v>
+        <f aca="false">_xlfn.DAYS($B$142,G146)</f>
+        <v>5</v>
       </c>
       <c r="I146" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J146" s="1" t="n">
         <f aca="false">_xlfn.DAYS(B$142,I146)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K146" s="13" t="n">
-        <f aca="false">B$142+1</f>
-        <v>43917</v>
+        <f aca="false">$B$142+1</f>
+        <v>43918</v>
       </c>
       <c r="L146" s="0"/>
       <c r="M146" s="0"/>
@@ -5351,33 +5376,34 @@
         <v>1660</v>
       </c>
       <c r="D147" s="1" t="n">
-        <v>1295</v>
+        <v>1696</v>
       </c>
       <c r="E147" s="12" t="n">
         <f aca="false">D147/331</f>
-        <v>3.91238670694864</v>
+        <v>5.12386706948641</v>
       </c>
       <c r="F147" s="12" t="n">
-        <v>268</v>
+        <v>400</v>
       </c>
       <c r="G147" s="13" t="n">
+        <f aca="false">$B$142</f>
         <v>43917</v>
       </c>
       <c r="H147" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$142,G147)</f>
+        <f aca="false">_xlfn.DAYS($B$142,G147)</f>
+        <v>0</v>
+      </c>
+      <c r="I147" s="13" t="n">
+        <f aca="false">$B$142+1</f>
+        <v>43918</v>
+      </c>
+      <c r="J147" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$142,I147)</f>
         <v>-1</v>
       </c>
-      <c r="I147" s="13" t="n">
-        <f aca="false">B$142+1</f>
-        <v>43917</v>
-      </c>
-      <c r="J147" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$142,I147)</f>
-        <v>-1</v>
-      </c>
       <c r="K147" s="13" t="n">
-        <f aca="false">B$142+1</f>
-        <v>43917</v>
+        <f aca="false">$B$142+1</f>
+        <v>43918</v>
       </c>
       <c r="L147" s="0"/>
       <c r="M147" s="0"/>
@@ -5394,33 +5420,33 @@
         <v>330</v>
       </c>
       <c r="D148" s="1" t="n">
-        <v>578</v>
+        <v>759</v>
       </c>
       <c r="E148" s="12" t="n">
         <f aca="false">D148/67.79</f>
-        <v>8.52633131730344</v>
+        <v>11.1963416433102</v>
       </c>
       <c r="F148" s="12" t="n">
-        <v>115</v>
+        <v>181</v>
       </c>
       <c r="G148" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H148" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$142,G148)</f>
-        <v>0</v>
+        <f aca="false">_xlfn.DAYS($B$142,G148)</f>
+        <v>1</v>
       </c>
       <c r="I148" s="13" t="n">
-        <f aca="false">B$142+1</f>
-        <v>43917</v>
+        <f aca="false">$B$142+1</f>
+        <v>43918</v>
       </c>
       <c r="J148" s="1" t="n">
         <f aca="false">_xlfn.DAYS(B$142,I148)</f>
         <v>-1</v>
       </c>
       <c r="K148" s="13" t="n">
-        <f aca="false">B$142+1</f>
-        <v>43917</v>
+        <f aca="false">$B$142+1</f>
+        <v>43918</v>
       </c>
       <c r="L148" s="0"/>
       <c r="M148" s="0"/>
@@ -5437,33 +5463,34 @@
         <v>414</v>
       </c>
       <c r="D149" s="1" t="n">
-        <v>267</v>
+        <v>351</v>
       </c>
       <c r="E149" s="12" t="n">
         <f aca="false">D149/83.784</f>
-        <v>3.18676596963621</v>
+        <v>4.18934402749928</v>
       </c>
       <c r="F149" s="12" t="n">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="G149" s="13" t="n">
-        <v>43917</v>
+        <f aca="false">$B$142+1</f>
+        <v>43918</v>
       </c>
       <c r="H149" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$142,G149)</f>
+        <f aca="false">_xlfn.DAYS($B$142,G149)</f>
         <v>-1</v>
       </c>
       <c r="I149" s="13" t="n">
-        <f aca="false">B$142+1</f>
-        <v>43917</v>
+        <f aca="false">$B$142+1</f>
+        <v>43918</v>
       </c>
       <c r="J149" s="1" t="n">
         <f aca="false">_xlfn.DAYS(B$142,I149)</f>
         <v>-1</v>
       </c>
       <c r="K149" s="13" t="n">
-        <f aca="false">B$142+1</f>
-        <v>43917</v>
+        <f aca="false">$B$142+1</f>
+        <v>43918</v>
       </c>
       <c r="L149" s="0"/>
       <c r="M149" s="0"/>
@@ -5480,33 +5507,33 @@
         <v>50</v>
       </c>
       <c r="D150" s="12" t="n">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="E150" s="12" t="n">
         <f aca="false">D150/10.36</f>
-        <v>7.43243243243243</v>
+        <v>10.1351351351351</v>
       </c>
       <c r="F150" s="12" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="G150" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H150" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$142,G150)</f>
-        <v>1</v>
+        <f aca="false">_xlfn.DAYS($B$142,G150)</f>
+        <v>2</v>
       </c>
       <c r="I150" s="13" t="n">
-        <f aca="false">B$142+1</f>
-        <v>43917</v>
+        <f aca="false">$B$142+1</f>
+        <v>43918</v>
       </c>
       <c r="J150" s="1" t="n">
         <f aca="false">_xlfn.DAYS(B$142,I150)</f>
         <v>-1</v>
       </c>
       <c r="K150" s="13" t="n">
-        <f aca="false">B$142+1</f>
-        <v>43917</v>
+        <f aca="false">$B$142+1</f>
+        <v>43918</v>
       </c>
       <c r="L150" s="0"/>
       <c r="M150" s="0"/>
@@ -5514,6 +5541,424 @@
       <c r="O150" s="0"/>
       <c r="P150" s="0"/>
       <c r="Q150" s="0"/>
+    </row>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D151" s="0"/>
+      <c r="E151" s="0"/>
+      <c r="F151" s="0"/>
+      <c r="G151" s="0"/>
+      <c r="H151" s="0"/>
+      <c r="I151" s="0"/>
+      <c r="J151" s="0"/>
+      <c r="K151" s="0"/>
+      <c r="L151" s="0"/>
+      <c r="M151" s="0"/>
+      <c r="N151" s="0"/>
+      <c r="O151" s="0"/>
+      <c r="P151" s="0"/>
+      <c r="Q151" s="0"/>
+    </row>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D152" s="0"/>
+      <c r="E152" s="0"/>
+      <c r="F152" s="0"/>
+      <c r="G152" s="0"/>
+      <c r="H152" s="0"/>
+      <c r="I152" s="0"/>
+      <c r="J152" s="0"/>
+      <c r="K152" s="0"/>
+      <c r="L152" s="0"/>
+      <c r="M152" s="0"/>
+      <c r="N152" s="0"/>
+      <c r="O152" s="0"/>
+      <c r="P152" s="0"/>
+      <c r="Q152" s="0"/>
+    </row>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B153" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D153" s="0"/>
+      <c r="E153" s="0"/>
+      <c r="F153" s="0"/>
+      <c r="G153" s="0"/>
+      <c r="H153" s="0"/>
+      <c r="I153" s="0"/>
+      <c r="J153" s="0"/>
+      <c r="K153" s="0"/>
+      <c r="L153" s="0"/>
+      <c r="M153" s="0"/>
+      <c r="N153" s="0"/>
+      <c r="O153" s="0"/>
+      <c r="P153" s="0"/>
+      <c r="Q153" s="0"/>
+    </row>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B154" s="7" t="n">
+        <v>43916</v>
+      </c>
+      <c r="D154" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E154" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F154" s="8"/>
+      <c r="G154" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H154" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I154" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J154" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K154" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="L154" s="0"/>
+      <c r="M154" s="0"/>
+      <c r="N154" s="0"/>
+      <c r="O154" s="0"/>
+      <c r="P154" s="0"/>
+      <c r="Q154" s="0"/>
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B155" s="9"/>
+      <c r="C155" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D155" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E155" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F155" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G155" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H155" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I155" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="J155" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="K155" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="L155" s="0"/>
+      <c r="M155" s="0"/>
+      <c r="N155" s="0"/>
+      <c r="O155" s="0"/>
+      <c r="P155" s="0"/>
+      <c r="Q155" s="0"/>
+    </row>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B156" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C156" s="12" t="n">
+        <v>300</v>
+      </c>
+      <c r="D156" s="1" t="n">
+        <v>8215</v>
+      </c>
+      <c r="E156" s="12" t="n">
+        <f aca="false">D156/60.48</f>
+        <v>135.830026455026</v>
+      </c>
+      <c r="F156" s="12" t="n">
+        <v>712</v>
+      </c>
+      <c r="G156" s="13" t="n">
+        <v>43900</v>
+      </c>
+      <c r="H156" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$154,G156)</f>
+        <v>16</v>
+      </c>
+      <c r="I156" s="13" t="n">
+        <v>43902</v>
+      </c>
+      <c r="J156" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$154,I156)</f>
+        <v>14</v>
+      </c>
+      <c r="K156" s="13" t="n">
+        <f aca="false">B$154+1</f>
+        <v>43917</v>
+      </c>
+      <c r="L156" s="0"/>
+      <c r="M156" s="0"/>
+      <c r="N156" s="0"/>
+      <c r="O156" s="0"/>
+      <c r="P156" s="0"/>
+      <c r="Q156" s="0"/>
+    </row>
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B157" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C157" s="12" t="n">
+        <v>230</v>
+      </c>
+      <c r="D157" s="1" t="n">
+        <v>4365</v>
+      </c>
+      <c r="E157" s="12" t="n">
+        <f aca="false">D157/46.75</f>
+        <v>93.3689839572193</v>
+      </c>
+      <c r="F157" s="12" t="n">
+        <v>718</v>
+      </c>
+      <c r="G157" s="13" t="n">
+        <v>43907</v>
+      </c>
+      <c r="H157" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$154,G157)</f>
+        <v>9</v>
+      </c>
+      <c r="I157" s="13" t="n">
+        <v>43913</v>
+      </c>
+      <c r="J157" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$154,I157)</f>
+        <v>3</v>
+      </c>
+      <c r="K157" s="13" t="n">
+        <f aca="false">B$154+1</f>
+        <v>43917</v>
+      </c>
+      <c r="L157" s="0"/>
+      <c r="M157" s="0"/>
+      <c r="N157" s="0"/>
+      <c r="O157" s="0"/>
+      <c r="P157" s="0"/>
+      <c r="Q157" s="0"/>
+    </row>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B158" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C158" s="12" t="n">
+        <v>330</v>
+      </c>
+      <c r="D158" s="1" t="n">
+        <v>1696</v>
+      </c>
+      <c r="E158" s="12" t="n">
+        <f aca="false">D158/65.27</f>
+        <v>25.9843726060978</v>
+      </c>
+      <c r="F158" s="12" t="n">
+        <v>365</v>
+      </c>
+      <c r="G158" s="13" t="n">
+        <v>43912</v>
+      </c>
+      <c r="H158" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$154,G158)</f>
+        <v>4</v>
+      </c>
+      <c r="I158" s="13" t="n">
+        <v>43914</v>
+      </c>
+      <c r="J158" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$154,I158)</f>
+        <v>2</v>
+      </c>
+      <c r="K158" s="13" t="n">
+        <f aca="false">B$154+1</f>
+        <v>43917</v>
+      </c>
+      <c r="L158" s="0"/>
+      <c r="M158" s="0"/>
+      <c r="N158" s="0"/>
+      <c r="O158" s="0"/>
+      <c r="P158" s="0"/>
+      <c r="Q158" s="0"/>
+    </row>
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B159" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C159" s="12" t="n">
+        <v>1660</v>
+      </c>
+      <c r="D159" s="1" t="n">
+        <v>1295</v>
+      </c>
+      <c r="E159" s="12" t="n">
+        <f aca="false">D159/331</f>
+        <v>3.91238670694864</v>
+      </c>
+      <c r="F159" s="12" t="n">
+        <v>268</v>
+      </c>
+      <c r="G159" s="13" t="n">
+        <v>43917</v>
+      </c>
+      <c r="H159" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$154,G159)</f>
+        <v>-1</v>
+      </c>
+      <c r="I159" s="13" t="n">
+        <f aca="false">B$154+1</f>
+        <v>43917</v>
+      </c>
+      <c r="J159" s="1" t="n">
+        <f aca="false">_xlfn.DAYS($B$154,I159)</f>
+        <v>-1</v>
+      </c>
+      <c r="K159" s="13" t="n">
+        <f aca="false">B$154+1</f>
+        <v>43917</v>
+      </c>
+      <c r="L159" s="0"/>
+      <c r="M159" s="0"/>
+      <c r="N159" s="0"/>
+      <c r="O159" s="0"/>
+      <c r="P159" s="0"/>
+      <c r="Q159" s="0"/>
+    </row>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B160" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C160" s="12" t="n">
+        <v>330</v>
+      </c>
+      <c r="D160" s="1" t="n">
+        <v>578</v>
+      </c>
+      <c r="E160" s="12" t="n">
+        <f aca="false">D160/67.79</f>
+        <v>8.52633131730344</v>
+      </c>
+      <c r="F160" s="12" t="n">
+        <v>115</v>
+      </c>
+      <c r="G160" s="13" t="n">
+        <v>43916</v>
+      </c>
+      <c r="H160" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$154,G160)</f>
+        <v>0</v>
+      </c>
+      <c r="I160" s="13" t="n">
+        <f aca="false">B$154+1</f>
+        <v>43917</v>
+      </c>
+      <c r="J160" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$154,I160)</f>
+        <v>-1</v>
+      </c>
+      <c r="K160" s="13" t="n">
+        <f aca="false">B$154+1</f>
+        <v>43917</v>
+      </c>
+      <c r="L160" s="0"/>
+      <c r="M160" s="0"/>
+      <c r="N160" s="0"/>
+      <c r="O160" s="0"/>
+      <c r="P160" s="0"/>
+      <c r="Q160" s="0"/>
+    </row>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B161" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C161" s="12" t="n">
+        <v>414</v>
+      </c>
+      <c r="D161" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="E161" s="12" t="n">
+        <f aca="false">D161/83.784</f>
+        <v>3.18676596963621</v>
+      </c>
+      <c r="F161" s="12" t="n">
+        <v>61</v>
+      </c>
+      <c r="G161" s="13" t="n">
+        <v>43917</v>
+      </c>
+      <c r="H161" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$154,G161)</f>
+        <v>-1</v>
+      </c>
+      <c r="I161" s="13" t="n">
+        <f aca="false">B$154+1</f>
+        <v>43917</v>
+      </c>
+      <c r="J161" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$154,I161)</f>
+        <v>-1</v>
+      </c>
+      <c r="K161" s="13" t="n">
+        <f aca="false">B$154+1</f>
+        <v>43917</v>
+      </c>
+      <c r="L161" s="0"/>
+      <c r="M161" s="0"/>
+      <c r="N161" s="0"/>
+      <c r="O161" s="0"/>
+      <c r="P161" s="0"/>
+      <c r="Q161" s="0"/>
+    </row>
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B162" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C162" s="12" t="n">
+        <v>50</v>
+      </c>
+      <c r="D162" s="12" t="n">
+        <v>77</v>
+      </c>
+      <c r="E162" s="12" t="n">
+        <f aca="false">D162/10.36</f>
+        <v>7.43243243243243</v>
+      </c>
+      <c r="F162" s="12" t="n">
+        <v>15</v>
+      </c>
+      <c r="G162" s="13" t="n">
+        <v>43915</v>
+      </c>
+      <c r="H162" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$154,G162)</f>
+        <v>1</v>
+      </c>
+      <c r="I162" s="13" t="n">
+        <f aca="false">B$154+1</f>
+        <v>43917</v>
+      </c>
+      <c r="J162" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$154,I162)</f>
+        <v>-1</v>
+      </c>
+      <c r="K162" s="13" t="n">
+        <f aca="false">B$154+1</f>
+        <v>43917</v>
+      </c>
+      <c r="L162" s="0"/>
+      <c r="M162" s="0"/>
+      <c r="N162" s="0"/>
+      <c r="O162" s="0"/>
+      <c r="P162" s="0"/>
+      <c r="Q162" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/covid19 lockdown evaluation .xlsx
+++ b/covid19 lockdown evaluation .xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="53">
   <si>
     <t>Effects of the lockdown issued by governments</t>
   </si>
@@ -353,7 +353,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q162"/>
+  <dimension ref="A1:Q174"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F31" activeCellId="0" sqref="F31"/>
@@ -805,7 +805,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="7" t="n">
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="D22" s="0"/>
       <c r="E22" s="8" t="s">
@@ -882,36 +882,36 @@
         <v>300</v>
       </c>
       <c r="D24" s="1" t="n">
-        <v>16523</v>
+        <v>17127</v>
       </c>
       <c r="E24" s="12" t="n">
         <f aca="false">D24/60.48</f>
-        <v>273.197751322751</v>
+        <v>283.184523809524</v>
       </c>
       <c r="F24" s="12" t="n">
-        <v>636</v>
+        <v>604</v>
       </c>
       <c r="G24" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H24" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,G24)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I24" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J24" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,I24)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K24" s="13" t="n">
         <f aca="false">$B$22+1</f>
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="L24" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K24,G24)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M24" s="0"/>
       <c r="N24" s="0"/>
@@ -927,36 +927,36 @@
         <v>230</v>
       </c>
       <c r="D25" s="1" t="n">
-        <v>13341</v>
+        <v>14045</v>
       </c>
       <c r="E25" s="12" t="n">
         <f aca="false">D25/46.75</f>
-        <v>285.368983957219</v>
+        <v>300.427807486631</v>
       </c>
       <c r="F25" s="12" t="n">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="G25" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H25" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,G25)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I25" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J25" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,I25)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K25" s="13" t="n">
         <f aca="false">$B$22+1</f>
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="L25" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K25,G25)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M25" s="0"/>
       <c r="N25" s="0"/>
@@ -972,36 +972,36 @@
         <v>330</v>
       </c>
       <c r="D26" s="1" t="n">
-        <v>8911</v>
+        <v>10328</v>
       </c>
       <c r="E26" s="12" t="n">
         <f aca="false">D26/65.27</f>
-        <v>136.525203002911</v>
+        <v>158.23502374751</v>
       </c>
       <c r="F26" s="12" t="n">
-        <v>833</v>
+        <v>1417</v>
       </c>
       <c r="G26" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H26" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,G26)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I26" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J26" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,I26)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K26" s="13" t="n">
         <f aca="false">$B$22+1</f>
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="L26" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K26,G26)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M26" s="0"/>
       <c r="N26" s="0"/>
@@ -1017,37 +1017,36 @@
         <v>50</v>
       </c>
       <c r="D27" s="12" t="n">
-        <v>477</v>
+        <v>591</v>
       </c>
       <c r="E27" s="12" t="n">
         <f aca="false">D27/10.36</f>
-        <v>46.042471042471</v>
+        <v>57.0463320463321</v>
       </c>
       <c r="F27" s="12" t="n">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="G27" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H27" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,G27)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I27" s="13" t="n">
-        <f aca="false">$B$22+1</f>
         <v>43928</v>
       </c>
       <c r="J27" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,I27)</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K27" s="13" t="n">
         <f aca="false">$B$22+1</f>
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="L27" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K27,G27)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M27" s="0"/>
       <c r="N27" s="0"/>
@@ -1063,37 +1062,36 @@
         <v>330</v>
       </c>
       <c r="D28" s="1" t="n">
-        <v>5373</v>
+        <v>6159</v>
       </c>
       <c r="E28" s="12" t="n">
         <f aca="false">D28/67.79</f>
-        <v>79.2594777990854</v>
+        <v>90.8541082755569</v>
       </c>
       <c r="F28" s="12" t="n">
-        <v>439</v>
+        <v>786</v>
       </c>
       <c r="G28" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H28" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,G28)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I28" s="13" t="n">
-        <f aca="false">$B$22+1</f>
-        <v>43928</v>
+        <v>43919</v>
       </c>
       <c r="J28" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,I28)</f>
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K28" s="13" t="n">
         <f aca="false">$B$22+1</f>
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="L28" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K28,G28)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M28" s="0"/>
       <c r="N28" s="0"/>
@@ -1109,37 +1107,36 @@
         <v>1660</v>
       </c>
       <c r="D29" s="1" t="n">
-        <v>10871</v>
+        <v>12481</v>
       </c>
       <c r="E29" s="12" t="n">
         <f aca="false">D29/331</f>
-        <v>32.8429003021148</v>
+        <v>37.7069486404834</v>
       </c>
       <c r="F29" s="12" t="n">
-        <v>1255</v>
+        <v>1970</v>
       </c>
       <c r="G29" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H29" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,G29)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I29" s="13" t="n">
-        <f aca="false">$B$22+1</f>
-        <v>43928</v>
+        <v>43921</v>
       </c>
       <c r="J29" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,I29)</f>
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K29" s="13" t="n">
         <f aca="false">$B$22+1</f>
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="L29" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K29,G29)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M29" s="0"/>
       <c r="N29" s="0"/>
@@ -1155,37 +1152,36 @@
         <v>414</v>
       </c>
       <c r="D30" s="1" t="n">
-        <v>1810</v>
+        <v>2016</v>
       </c>
       <c r="E30" s="12" t="n">
         <f aca="false">D30/83.784</f>
-        <v>21.6031700563353</v>
+        <v>24.0618733887138</v>
       </c>
       <c r="F30" s="12" t="n">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="G30" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H30" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,G30)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I30" s="13" t="n">
-        <f aca="false">$B$22+1</f>
-        <v>43928</v>
+        <v>43920</v>
       </c>
       <c r="J30" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,I30)</f>
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K30" s="13" t="n">
         <f aca="false">$B$22+1</f>
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="L30" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K30,G30)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M30" s="0"/>
       <c r="N30" s="0"/>
@@ -1250,7 +1246,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="7" t="n">
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="D34" s="0"/>
       <c r="E34" s="8" t="s">
@@ -1327,36 +1323,36 @@
         <v>300</v>
       </c>
       <c r="D36" s="1" t="n">
-        <v>15887</v>
+        <v>16523</v>
       </c>
       <c r="E36" s="12" t="n">
         <f aca="false">D36/60.48</f>
-        <v>262.681878306878</v>
+        <v>273.197751322751</v>
       </c>
       <c r="F36" s="12" t="n">
-        <v>525</v>
+        <v>636</v>
       </c>
       <c r="G36" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H36" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,G36)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I36" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J36" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,I36)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K36" s="13" t="n">
         <f aca="false">$B$34+1</f>
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="L36" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K36,G36)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M36" s="0"/>
       <c r="N36" s="0"/>
@@ -1372,36 +1368,36 @@
         <v>230</v>
       </c>
       <c r="D37" s="1" t="n">
-        <v>12641</v>
+        <v>13341</v>
       </c>
       <c r="E37" s="12" t="n">
         <f aca="false">D37/46.75</f>
-        <v>270.395721925134</v>
+        <v>285.368983957219</v>
       </c>
       <c r="F37" s="12" t="n">
-        <v>694</v>
+        <v>700</v>
       </c>
       <c r="G37" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H37" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,G37)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I37" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J37" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,I37)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K37" s="13" t="n">
         <f aca="false">$B$34+1</f>
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="L37" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K37,G37)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M37" s="0"/>
       <c r="N37" s="0"/>
@@ -1417,36 +1413,36 @@
         <v>330</v>
       </c>
       <c r="D38" s="1" t="n">
-        <v>8078</v>
+        <v>8911</v>
       </c>
       <c r="E38" s="12" t="n">
         <f aca="false">D38/65.27</f>
-        <v>123.762831316072</v>
+        <v>136.525203002911</v>
       </c>
       <c r="F38" s="12" t="n">
-        <v>518</v>
+        <v>833</v>
       </c>
       <c r="G38" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H38" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,G38)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I38" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J38" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,I38)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K38" s="13" t="n">
         <f aca="false">$B$34+1</f>
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="L38" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K38,G38)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M38" s="0"/>
       <c r="N38" s="0"/>
@@ -1462,25 +1458,25 @@
         <v>50</v>
       </c>
       <c r="D39" s="12" t="n">
-        <v>401</v>
+        <v>477</v>
       </c>
       <c r="E39" s="12" t="n">
         <f aca="false">D39/10.36</f>
-        <v>38.7065637065637</v>
+        <v>46.042471042471</v>
       </c>
       <c r="F39" s="12" t="n">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="G39" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H39" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,G39)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I39" s="13" t="n">
         <f aca="false">$B$34+1</f>
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="J39" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,I39)</f>
@@ -1488,11 +1484,11 @@
       </c>
       <c r="K39" s="13" t="n">
         <f aca="false">$B$34+1</f>
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="L39" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K39,G39)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M39" s="0"/>
       <c r="N39" s="0"/>
@@ -1508,25 +1504,25 @@
         <v>330</v>
       </c>
       <c r="D40" s="1" t="n">
-        <v>4934</v>
+        <v>5373</v>
       </c>
       <c r="E40" s="12" t="n">
         <f aca="false">D40/67.79</f>
-        <v>72.7835964006491</v>
+        <v>79.2594777990854</v>
       </c>
       <c r="F40" s="12" t="n">
-        <v>621</v>
+        <v>439</v>
       </c>
       <c r="G40" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H40" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,G40)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I40" s="13" t="n">
         <f aca="false">$B$34+1</f>
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="J40" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,I40)</f>
@@ -1534,11 +1530,11 @@
       </c>
       <c r="K40" s="13" t="n">
         <f aca="false">$B$34+1</f>
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="L40" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K40,G40)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M40" s="0"/>
       <c r="N40" s="0"/>
@@ -1554,25 +1550,25 @@
         <v>1660</v>
       </c>
       <c r="D41" s="1" t="n">
-        <v>9616</v>
+        <v>10871</v>
       </c>
       <c r="E41" s="12" t="n">
         <f aca="false">D41/331</f>
-        <v>29.0513595166163</v>
+        <v>32.8429003021148</v>
       </c>
       <c r="F41" s="12" t="n">
-        <v>1165</v>
+        <v>1255</v>
       </c>
       <c r="G41" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H41" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,G41)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I41" s="13" t="n">
         <f aca="false">$B$34+1</f>
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="J41" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,I41)</f>
@@ -1580,11 +1576,11 @@
       </c>
       <c r="K41" s="13" t="n">
         <f aca="false">$B$34+1</f>
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="L41" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K41,G41)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M41" s="0"/>
       <c r="N41" s="0"/>
@@ -1600,25 +1596,25 @@
         <v>414</v>
       </c>
       <c r="D42" s="1" t="n">
-        <v>1584</v>
+        <v>1810</v>
       </c>
       <c r="E42" s="12" t="n">
         <f aca="false">D42/83.784</f>
-        <v>18.9057576625609</v>
+        <v>21.6031700563353</v>
       </c>
       <c r="F42" s="12" t="n">
-        <v>140</v>
+        <v>226</v>
       </c>
       <c r="G42" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H42" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,G42)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I42" s="13" t="n">
         <f aca="false">$B$34+1</f>
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="J42" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,I42)</f>
@@ -1626,11 +1622,11 @@
       </c>
       <c r="K42" s="13" t="n">
         <f aca="false">$B$34+1</f>
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="L42" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K42,G42)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M42" s="0"/>
       <c r="N42" s="0"/>
@@ -1695,7 +1691,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="7" t="n">
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="D46" s="0"/>
       <c r="E46" s="8" t="s">
@@ -1772,36 +1768,36 @@
         <v>300</v>
       </c>
       <c r="D48" s="1" t="n">
-        <v>15362</v>
+        <v>15887</v>
       </c>
       <c r="E48" s="12" t="n">
         <f aca="false">D48/60.48</f>
-        <v>254.001322751323</v>
+        <v>262.681878306878</v>
       </c>
       <c r="F48" s="12" t="n">
-        <v>681</v>
+        <v>525</v>
       </c>
       <c r="G48" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H48" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,G48)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I48" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J48" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,I48)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K48" s="13" t="n">
         <f aca="false">$B$46+1</f>
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="L48" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K48,G48)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M48" s="0"/>
       <c r="N48" s="0"/>
@@ -1817,36 +1813,36 @@
         <v>230</v>
       </c>
       <c r="D49" s="1" t="n">
-        <v>11947</v>
+        <v>12641</v>
       </c>
       <c r="E49" s="12" t="n">
         <f aca="false">D49/46.75</f>
-        <v>255.550802139037</v>
+        <v>270.395721925134</v>
       </c>
       <c r="F49" s="12" t="n">
-        <v>749</v>
+        <v>694</v>
       </c>
       <c r="G49" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H49" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,G49)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I49" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J49" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,I49)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K49" s="13" t="n">
         <f aca="false">$B$46+1</f>
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="L49" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K49,G49)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M49" s="0"/>
       <c r="N49" s="0"/>
@@ -1862,36 +1858,36 @@
         <v>330</v>
       </c>
       <c r="D50" s="1" t="n">
-        <v>7560</v>
+        <v>8078</v>
       </c>
       <c r="E50" s="12" t="n">
         <f aca="false">D50/65.27</f>
-        <v>115.826566569634</v>
+        <v>123.762831316072</v>
       </c>
       <c r="F50" s="12" t="n">
-        <v>1053</v>
+        <v>518</v>
       </c>
       <c r="G50" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H50" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,G50)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I50" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J50" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,I50)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K50" s="13" t="n">
         <f aca="false">$B$46+1</f>
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="L50" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K50,G50)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M50" s="0"/>
       <c r="N50" s="0"/>
@@ -1907,25 +1903,25 @@
         <v>50</v>
       </c>
       <c r="D51" s="12" t="n">
-        <v>373</v>
+        <v>401</v>
       </c>
       <c r="E51" s="12" t="n">
         <f aca="false">D51/10.36</f>
-        <v>36.003861003861</v>
+        <v>38.7065637065637</v>
       </c>
       <c r="F51" s="12" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="G51" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H51" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,G51)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I51" s="13" t="n">
         <f aca="false">$B$46+1</f>
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="J51" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,I51)</f>
@@ -1933,11 +1929,11 @@
       </c>
       <c r="K51" s="13" t="n">
         <f aca="false">$B$46+1</f>
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="L51" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K51,G51)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M51" s="0"/>
       <c r="N51" s="0"/>
@@ -1953,25 +1949,25 @@
         <v>330</v>
       </c>
       <c r="D52" s="1" t="n">
-        <v>4313</v>
+        <v>4934</v>
       </c>
       <c r="E52" s="12" t="n">
         <f aca="false">D52/67.79</f>
-        <v>63.6229532379407</v>
+        <v>72.7835964006491</v>
       </c>
       <c r="F52" s="12" t="n">
-        <v>708</v>
+        <v>621</v>
       </c>
       <c r="G52" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H52" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,G52)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I52" s="13" t="n">
         <f aca="false">$B$46+1</f>
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="J52" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,I52)</f>
@@ -1979,11 +1975,11 @@
       </c>
       <c r="K52" s="13" t="n">
         <f aca="false">$B$46+1</f>
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="L52" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K52,G52)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M52" s="0"/>
       <c r="N52" s="0"/>
@@ -1999,25 +1995,25 @@
         <v>1660</v>
       </c>
       <c r="D53" s="1" t="n">
-        <v>8451</v>
+        <v>9616</v>
       </c>
       <c r="E53" s="12" t="n">
         <f aca="false">D53/331</f>
-        <v>25.5317220543807</v>
+        <v>29.0513595166163</v>
       </c>
       <c r="F53" s="12" t="n">
-        <v>1330</v>
+        <v>1165</v>
       </c>
       <c r="G53" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H53" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,G53)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I53" s="13" t="n">
         <f aca="false">$B$46+1</f>
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="J53" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,I53)</f>
@@ -2025,11 +2021,11 @@
       </c>
       <c r="K53" s="13" t="n">
         <f aca="false">$B$46+1</f>
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="L53" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K53,G53)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M53" s="0"/>
       <c r="N53" s="0"/>
@@ -2045,25 +2041,25 @@
         <v>414</v>
       </c>
       <c r="D54" s="1" t="n">
-        <v>1444</v>
+        <v>1584</v>
       </c>
       <c r="E54" s="12" t="n">
         <f aca="false">D54/83.784</f>
-        <v>17.2347942327891</v>
+        <v>18.9057576625609</v>
       </c>
       <c r="F54" s="12" t="n">
-        <v>169</v>
+        <v>140</v>
       </c>
       <c r="G54" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H54" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,G54)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I54" s="13" t="n">
         <f aca="false">$B$46+1</f>
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="J54" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,I54)</f>
@@ -2071,11 +2067,11 @@
       </c>
       <c r="K54" s="13" t="n">
         <f aca="false">$B$46+1</f>
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="L54" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K54,G54)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M54" s="0"/>
       <c r="N54" s="0"/>
@@ -2140,7 +2136,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="7" t="n">
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="D58" s="0"/>
       <c r="E58" s="8" t="s">
@@ -2217,36 +2213,36 @@
         <v>300</v>
       </c>
       <c r="D60" s="1" t="n">
-        <v>14681</v>
+        <v>15362</v>
       </c>
       <c r="E60" s="12" t="n">
         <f aca="false">D60/60.48</f>
-        <v>242.741402116402</v>
+        <v>254.001322751323</v>
       </c>
       <c r="F60" s="12" t="n">
-        <v>766</v>
+        <v>681</v>
       </c>
       <c r="G60" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H60" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,G60)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I60" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J60" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,I60)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K60" s="13" t="n">
         <f aca="false">$B$58+1</f>
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="L60" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K60,G60)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M60" s="0"/>
       <c r="N60" s="0"/>
@@ -2262,36 +2258,36 @@
         <v>230</v>
       </c>
       <c r="D61" s="1" t="n">
-        <v>11198</v>
+        <v>11947</v>
       </c>
       <c r="E61" s="12" t="n">
         <f aca="false">D61/46.75</f>
-        <v>239.529411764706</v>
+        <v>255.550802139037</v>
       </c>
       <c r="F61" s="12" t="n">
-        <v>850</v>
+        <v>749</v>
       </c>
       <c r="G61" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H61" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$70,G61)</f>
-        <v>16</v>
+        <f aca="false">_xlfn.DAYS($B$58,G61)</f>
+        <v>18</v>
       </c>
       <c r="I61" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J61" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,I61)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K61" s="13" t="n">
         <f aca="false">$B$58+1</f>
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="L61" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K61,G61)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M61" s="0"/>
       <c r="N61" s="0"/>
@@ -2307,36 +2303,36 @@
         <v>330</v>
       </c>
       <c r="D62" s="1" t="n">
-        <v>6507</v>
+        <v>7560</v>
       </c>
       <c r="E62" s="12" t="n">
         <f aca="false">D62/65.27</f>
-        <v>99.6935805117206</v>
+        <v>115.826566569634</v>
       </c>
       <c r="F62" s="12" t="n">
-        <v>1120</v>
+        <v>1053</v>
       </c>
       <c r="G62" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H62" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$70,G62)</f>
-        <v>11</v>
+        <f aca="false">_xlfn.DAYS($B$58,G62)</f>
+        <v>13</v>
       </c>
       <c r="I62" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J62" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,I62)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K62" s="13" t="n">
         <f aca="false">$B$58+1</f>
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="L62" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K62,G62)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M62" s="0"/>
       <c r="N62" s="0"/>
@@ -2352,25 +2348,25 @@
         <v>50</v>
       </c>
       <c r="D63" s="12" t="n">
-        <v>358</v>
+        <v>373</v>
       </c>
       <c r="E63" s="12" t="n">
         <f aca="false">D63/10.36</f>
-        <v>34.5559845559846</v>
+        <v>36.003861003861</v>
       </c>
       <c r="F63" s="12" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="G63" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H63" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$70,G63)</f>
-        <v>8</v>
+        <f aca="false">_xlfn.DAYS($B$58,G63)</f>
+        <v>10</v>
       </c>
       <c r="I63" s="13" t="n">
         <f aca="false">$B$58+1</f>
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="J63" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,I63)</f>
@@ -2378,11 +2374,11 @@
       </c>
       <c r="K63" s="13" t="n">
         <f aca="false">$B$58+1</f>
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="L63" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K63,G63)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M63" s="0"/>
       <c r="N63" s="0"/>
@@ -2398,25 +2394,25 @@
         <v>330</v>
       </c>
       <c r="D64" s="1" t="n">
-        <v>3605</v>
+        <v>4313</v>
       </c>
       <c r="E64" s="12" t="n">
         <f aca="false">D64/67.79</f>
-        <v>53.1789349461573</v>
+        <v>63.6229532379407</v>
       </c>
       <c r="F64" s="12" t="n">
-        <v>684</v>
+        <v>708</v>
       </c>
       <c r="G64" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H64" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$70,G64)</f>
-        <v>7</v>
+        <f aca="false">_xlfn.DAYS($B$58,G64)</f>
+        <v>9</v>
       </c>
       <c r="I64" s="13" t="n">
         <f aca="false">$B$58+1</f>
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="J64" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,I64)</f>
@@ -2424,11 +2420,11 @@
       </c>
       <c r="K64" s="13" t="n">
         <f aca="false">$B$58+1</f>
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="L64" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K64,G64)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M64" s="0"/>
       <c r="N64" s="0"/>
@@ -2444,25 +2440,25 @@
         <v>1660</v>
       </c>
       <c r="D65" s="1" t="n">
-        <v>7121</v>
+        <v>8451</v>
       </c>
       <c r="E65" s="12" t="n">
         <f aca="false">D65/331</f>
-        <v>21.5135951661631</v>
+        <v>25.5317220543807</v>
       </c>
       <c r="F65" s="12" t="n">
-        <v>1045</v>
+        <v>1330</v>
       </c>
       <c r="G65" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H65" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$70,G65)</f>
-        <v>6</v>
+        <f aca="false">_xlfn.DAYS($B$58,G65)</f>
+        <v>8</v>
       </c>
       <c r="I65" s="13" t="n">
         <f aca="false">$B$58+1</f>
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="J65" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,I65)</f>
@@ -2470,11 +2466,11 @@
       </c>
       <c r="K65" s="13" t="n">
         <f aca="false">$B$58+1</f>
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="L65" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K65,G65)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M65" s="0"/>
       <c r="N65" s="0"/>
@@ -2490,25 +2486,25 @@
         <v>414</v>
       </c>
       <c r="D66" s="1" t="n">
-        <v>1275</v>
+        <v>1444</v>
       </c>
       <c r="E66" s="12" t="n">
         <f aca="false">D66/83.784</f>
-        <v>15.2177026639931</v>
+        <v>17.2347942327891</v>
       </c>
       <c r="F66" s="12" t="n">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G66" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H66" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$70,G66)</f>
-        <v>5</v>
+        <f aca="false">_xlfn.DAYS($B$58,G66)</f>
+        <v>7</v>
       </c>
       <c r="I66" s="13" t="n">
         <f aca="false">$B$58+1</f>
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="J66" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,I66)</f>
@@ -2516,11 +2512,11 @@
       </c>
       <c r="K66" s="13" t="n">
         <f aca="false">$B$58+1</f>
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="L66" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K66,G66)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M66" s="0"/>
       <c r="N66" s="0"/>
@@ -2585,7 +2581,7 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="7" t="n">
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="D70" s="0"/>
       <c r="E70" s="8" t="s">
@@ -2662,36 +2658,36 @@
         <v>300</v>
       </c>
       <c r="D72" s="1" t="n">
-        <v>13915</v>
+        <v>14681</v>
       </c>
       <c r="E72" s="12" t="n">
         <f aca="false">D72/60.48</f>
-        <v>230.076058201058</v>
+        <v>242.741402116402</v>
       </c>
       <c r="F72" s="12" t="n">
-        <v>760</v>
+        <v>766</v>
       </c>
       <c r="G72" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H72" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,G72)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I72" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J72" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,I72)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K72" s="13" t="n">
         <f aca="false">$B$70+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="L72" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K72,G72)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M72" s="0"/>
       <c r="N72" s="0"/>
@@ -2707,20 +2703,20 @@
         <v>230</v>
       </c>
       <c r="D73" s="1" t="n">
-        <v>10348</v>
+        <v>11198</v>
       </c>
       <c r="E73" s="12" t="n">
         <f aca="false">D73/46.75</f>
-        <v>221.347593582888</v>
+        <v>239.529411764706</v>
       </c>
       <c r="F73" s="12" t="n">
-        <v>961</v>
+        <v>850</v>
       </c>
       <c r="G73" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H73" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$70,G73)</f>
+        <f aca="false">_xlfn.DAYS($B$82,G73)</f>
         <v>16</v>
       </c>
       <c r="I73" s="13" t="n">
@@ -2728,15 +2724,15 @@
       </c>
       <c r="J73" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,I73)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K73" s="13" t="n">
         <f aca="false">$B$70+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="L73" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K73,G73)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M73" s="0"/>
       <c r="N73" s="0"/>
@@ -2752,20 +2748,20 @@
         <v>330</v>
       </c>
       <c r="D74" s="1" t="n">
-        <v>5387</v>
+        <v>6507</v>
       </c>
       <c r="E74" s="12" t="n">
         <f aca="false">D74/65.27</f>
-        <v>82.5340891680711</v>
+        <v>99.6935805117206</v>
       </c>
       <c r="F74" s="12" t="n">
-        <v>1355</v>
+        <v>1120</v>
       </c>
       <c r="G74" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H74" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$70,G74)</f>
+        <f aca="false">_xlfn.DAYS($B$82,G74)</f>
         <v>11</v>
       </c>
       <c r="I74" s="13" t="n">
@@ -2773,15 +2769,15 @@
       </c>
       <c r="J74" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,I74)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K74" s="13" t="n">
         <f aca="false">$B$70+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="L74" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K74,G74)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M74" s="0"/>
       <c r="N74" s="0"/>
@@ -2797,25 +2793,25 @@
         <v>50</v>
       </c>
       <c r="D75" s="12" t="n">
-        <v>308</v>
+        <v>358</v>
       </c>
       <c r="E75" s="12" t="n">
         <f aca="false">D75/10.36</f>
-        <v>29.7297297297297</v>
+        <v>34.5559845559846</v>
       </c>
       <c r="F75" s="12" t="n">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="G75" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H75" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$70,G75)</f>
+        <f aca="false">_xlfn.DAYS($B$82,G75)</f>
         <v>8</v>
       </c>
       <c r="I75" s="13" t="n">
         <f aca="false">$B$70+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="J75" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,I75)</f>
@@ -2823,11 +2819,11 @@
       </c>
       <c r="K75" s="13" t="n">
         <f aca="false">$B$70+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="L75" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K75,G75)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M75" s="0"/>
       <c r="N75" s="0"/>
@@ -2843,25 +2839,25 @@
         <v>330</v>
       </c>
       <c r="D76" s="1" t="n">
-        <v>2921</v>
+        <v>3605</v>
       </c>
       <c r="E76" s="12" t="n">
         <f aca="false">D76/67.79</f>
-        <v>43.0889511727393</v>
+        <v>53.1789349461573</v>
       </c>
       <c r="F76" s="12" t="n">
-        <v>569</v>
+        <v>684</v>
       </c>
       <c r="G76" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H76" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$70,G76)</f>
+        <f aca="false">_xlfn.DAYS($B$82,G76)</f>
         <v>7</v>
       </c>
       <c r="I76" s="13" t="n">
         <f aca="false">$B$70+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="J76" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,I76)</f>
@@ -2869,11 +2865,11 @@
       </c>
       <c r="K76" s="13" t="n">
         <f aca="false">$B$70+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="L76" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K76,G76)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M76" s="0"/>
       <c r="N76" s="0"/>
@@ -2889,25 +2885,25 @@
         <v>1660</v>
       </c>
       <c r="D77" s="1" t="n">
-        <v>6076</v>
+        <v>7121</v>
       </c>
       <c r="E77" s="12" t="n">
         <f aca="false">D77/331</f>
-        <v>18.3564954682779</v>
+        <v>21.5135951661631</v>
       </c>
       <c r="F77" s="12" t="n">
-        <v>969</v>
+        <v>1045</v>
       </c>
       <c r="G77" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H77" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$70,G77)</f>
+        <f aca="false">_xlfn.DAYS($B$82,G77)</f>
         <v>6</v>
       </c>
       <c r="I77" s="13" t="n">
         <f aca="false">$B$70+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="J77" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,I77)</f>
@@ -2915,11 +2911,11 @@
       </c>
       <c r="K77" s="13" t="n">
         <f aca="false">$B$70+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="L77" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K77,G77)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M77" s="0"/>
       <c r="N77" s="0"/>
@@ -2935,25 +2931,25 @@
         <v>414</v>
       </c>
       <c r="D78" s="1" t="n">
-        <v>1107</v>
+        <v>1275</v>
       </c>
       <c r="E78" s="12" t="n">
         <f aca="false">D78/83.784</f>
-        <v>13.212546548267</v>
+        <v>15.2177026639931</v>
       </c>
       <c r="F78" s="12" t="n">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="G78" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H78" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$70,G78)</f>
+        <f aca="false">_xlfn.DAYS($B$82,G78)</f>
         <v>5</v>
       </c>
       <c r="I78" s="13" t="n">
         <f aca="false">$B$70+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="J78" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,I78)</f>
@@ -2961,11 +2957,11 @@
       </c>
       <c r="K78" s="13" t="n">
         <f aca="false">$B$70+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="L78" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K78,G78)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M78" s="0"/>
       <c r="N78" s="0"/>
@@ -3030,7 +3026,7 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="7" t="n">
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="D82" s="0"/>
       <c r="E82" s="8" t="s">
@@ -3107,36 +3103,36 @@
         <v>300</v>
       </c>
       <c r="D84" s="1" t="n">
-        <v>13155</v>
+        <v>13915</v>
       </c>
       <c r="E84" s="12" t="n">
         <f aca="false">D84/60.48</f>
-        <v>217.509920634921</v>
+        <v>230.076058201058</v>
       </c>
       <c r="F84" s="12" t="n">
-        <v>727</v>
+        <v>760</v>
       </c>
       <c r="G84" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H84" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,G84)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I84" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J84" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,I84)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K84" s="13" t="n">
         <f aca="false">$B$82+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="L84" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K84,G84)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M84" s="0"/>
       <c r="N84" s="0"/>
@@ -3152,36 +3148,36 @@
         <v>230</v>
       </c>
       <c r="D85" s="1" t="n">
-        <v>9387</v>
+        <v>10348</v>
       </c>
       <c r="E85" s="12" t="n">
         <f aca="false">D85/46.75</f>
-        <v>200.791443850267</v>
+        <v>221.347593582888</v>
       </c>
       <c r="F85" s="12" t="n">
-        <v>923</v>
+        <v>961</v>
       </c>
       <c r="G85" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H85" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,G85)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I85" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J85" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,I85)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K85" s="13" t="n">
         <f aca="false">$B$82+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="L85" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K85,G85)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M85" s="0"/>
       <c r="N85" s="0"/>
@@ -3197,36 +3193,36 @@
         <v>330</v>
       </c>
       <c r="D86" s="1" t="n">
-        <v>4032</v>
+        <v>5387</v>
       </c>
       <c r="E86" s="12" t="n">
         <f aca="false">D86/65.27</f>
-        <v>61.7741688371381</v>
+        <v>82.5340891680711</v>
       </c>
       <c r="F86" s="12" t="n">
-        <v>509</v>
+        <v>1355</v>
       </c>
       <c r="G86" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H86" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,G86)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I86" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J86" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,I86)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K86" s="13" t="n">
         <f aca="false">$B$82+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="L86" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K86,G86)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M86" s="0"/>
       <c r="N86" s="0"/>
@@ -3242,25 +3238,25 @@
         <v>50</v>
       </c>
       <c r="D87" s="12" t="n">
-        <v>239</v>
+        <v>308</v>
       </c>
       <c r="E87" s="12" t="n">
         <f aca="false">D87/10.36</f>
-        <v>23.0694980694981</v>
+        <v>29.7297297297297</v>
       </c>
       <c r="F87" s="12" t="n">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="G87" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H87" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,G87)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I87" s="13" t="n">
         <f aca="false">$B$82+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="J87" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,I87)</f>
@@ -3268,11 +3264,11 @@
       </c>
       <c r="K87" s="13" t="n">
         <f aca="false">$B$82+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="L87" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K87,G87)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M87" s="0"/>
       <c r="N87" s="0"/>
@@ -3288,25 +3284,25 @@
         <v>330</v>
       </c>
       <c r="D88" s="1" t="n">
-        <v>2352</v>
+        <v>2921</v>
       </c>
       <c r="E88" s="12" t="n">
         <f aca="false">D88/67.79</f>
-        <v>34.695382799823</v>
+        <v>43.0889511727393</v>
       </c>
       <c r="F88" s="12" t="n">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="G88" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H88" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,G88)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I88" s="13" t="n">
         <f aca="false">$B$82+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="J88" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,I88)</f>
@@ -3314,11 +3310,11 @@
       </c>
       <c r="K88" s="13" t="n">
         <f aca="false">$B$82+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="L88" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K88,G88)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M88" s="0"/>
       <c r="N88" s="0"/>
@@ -3334,25 +3330,25 @@
         <v>1660</v>
       </c>
       <c r="D89" s="1" t="n">
-        <v>5102</v>
+        <v>6076</v>
       </c>
       <c r="E89" s="12" t="n">
         <f aca="false">D89/331</f>
-        <v>15.4138972809668</v>
+        <v>18.3564954682779</v>
       </c>
       <c r="F89" s="12" t="n">
-        <v>1049</v>
+        <v>969</v>
       </c>
       <c r="G89" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H89" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,G89)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I89" s="13" t="n">
         <f aca="false">$B$82+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="J89" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,I89)</f>
@@ -3360,11 +3356,11 @@
       </c>
       <c r="K89" s="13" t="n">
         <f aca="false">$B$82+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="L89" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K89,G89)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M89" s="0"/>
       <c r="N89" s="0"/>
@@ -3380,25 +3376,25 @@
         <v>414</v>
       </c>
       <c r="D90" s="1" t="n">
-        <v>931</v>
+        <v>1107</v>
       </c>
       <c r="E90" s="12" t="n">
         <f aca="false">D90/83.784</f>
-        <v>11.1119068079824</v>
+        <v>13.212546548267</v>
       </c>
       <c r="F90" s="12" t="n">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="G90" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H90" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,G90)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I90" s="13" t="n">
         <f aca="false">$B$82+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="J90" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,I90)</f>
@@ -3406,11 +3402,11 @@
       </c>
       <c r="K90" s="13" t="n">
         <f aca="false">$B$82+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="L90" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K90,G90)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M90" s="0"/>
       <c r="N90" s="0"/>
@@ -3475,7 +3471,7 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="7" t="n">
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="D94" s="0"/>
       <c r="E94" s="8" t="s">
@@ -3552,36 +3548,36 @@
         <v>300</v>
       </c>
       <c r="D96" s="1" t="n">
-        <v>12428</v>
+        <v>13155</v>
       </c>
       <c r="E96" s="12" t="n">
         <f aca="false">D96/60.48</f>
-        <v>205.489417989418</v>
+        <v>217.509920634921</v>
       </c>
       <c r="F96" s="12" t="n">
-        <v>837</v>
+        <v>727</v>
       </c>
       <c r="G96" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H96" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,G96)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I96" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J96" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,I96)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K96" s="13" t="n">
         <f aca="false">$B$94+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="L96" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K96,G96)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M96" s="0"/>
       <c r="N96" s="0"/>
@@ -3597,36 +3593,36 @@
         <v>230</v>
       </c>
       <c r="D97" s="1" t="n">
-        <v>8464</v>
+        <v>9387</v>
       </c>
       <c r="E97" s="12" t="n">
         <f aca="false">D97/46.75</f>
-        <v>181.048128342246</v>
+        <v>200.791443850267</v>
       </c>
       <c r="F97" s="12" t="n">
-        <v>748</v>
+        <v>923</v>
       </c>
       <c r="G97" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H97" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,G97)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I97" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J97" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,I97)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K97" s="13" t="n">
         <f aca="false">$B$94+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="L97" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K97,G97)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M97" s="0"/>
       <c r="N97" s="0"/>
@@ -3642,36 +3638,36 @@
         <v>330</v>
       </c>
       <c r="D98" s="1" t="n">
-        <v>3523</v>
+        <v>4032</v>
       </c>
       <c r="E98" s="12" t="n">
         <f aca="false">D98/65.27</f>
-        <v>53.9757928604259</v>
+        <v>61.7741688371381</v>
       </c>
       <c r="F98" s="12" t="n">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="G98" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H98" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,G98)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I98" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J98" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,I98)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K98" s="13" t="n">
         <f aca="false">$B$94+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="L98" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K98,G98)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M98" s="0"/>
       <c r="N98" s="0"/>
@@ -3687,25 +3683,25 @@
         <v>50</v>
       </c>
       <c r="D99" s="12" t="n">
-        <v>180</v>
+        <v>239</v>
       </c>
       <c r="E99" s="12" t="n">
         <f aca="false">D99/10.36</f>
-        <v>17.3745173745174</v>
+        <v>23.0694980694981</v>
       </c>
       <c r="F99" s="12" t="n">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="G99" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H99" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,G99)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I99" s="13" t="n">
         <f aca="false">$B$94+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="J99" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,I99)</f>
@@ -3713,11 +3709,11 @@
       </c>
       <c r="K99" s="13" t="n">
         <f aca="false">$B$94+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="L99" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K99,G99)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M99" s="0"/>
       <c r="N99" s="0"/>
@@ -3733,25 +3729,25 @@
         <v>330</v>
       </c>
       <c r="D100" s="1" t="n">
-        <v>1789</v>
+        <v>2352</v>
       </c>
       <c r="E100" s="12" t="n">
         <f aca="false">D100/67.79</f>
-        <v>26.390323056498</v>
+        <v>34.695382799823</v>
       </c>
       <c r="F100" s="12" t="n">
-        <v>381</v>
+        <v>563</v>
       </c>
       <c r="G100" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H100" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,G100)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I100" s="13" t="n">
         <f aca="false">$B$94+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="J100" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,I100)</f>
@@ -3759,11 +3755,11 @@
       </c>
       <c r="K100" s="13" t="n">
         <f aca="false">$B$94+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="L100" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K100,G100)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M100" s="0"/>
       <c r="N100" s="0"/>
@@ -3779,25 +3775,25 @@
         <v>1660</v>
       </c>
       <c r="D101" s="1" t="n">
-        <v>4053</v>
+        <v>5102</v>
       </c>
       <c r="E101" s="12" t="n">
         <f aca="false">D101/331</f>
-        <v>12.2447129909366</v>
+        <v>15.4138972809668</v>
       </c>
       <c r="F101" s="12" t="n">
-        <v>912</v>
+        <v>1049</v>
       </c>
       <c r="G101" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H101" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,G101)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I101" s="13" t="n">
         <f aca="false">$B$94+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="J101" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,I101)</f>
@@ -3805,11 +3801,11 @@
       </c>
       <c r="K101" s="13" t="n">
         <f aca="false">$B$94+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="L101" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K101,G101)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M101" s="0"/>
       <c r="N101" s="0"/>
@@ -3825,25 +3821,25 @@
         <v>414</v>
       </c>
       <c r="D102" s="1" t="n">
-        <v>775</v>
+        <v>931</v>
       </c>
       <c r="E102" s="12" t="n">
         <f aca="false">D102/83.784</f>
-        <v>9.24997612909386</v>
+        <v>11.1119068079824</v>
       </c>
       <c r="F102" s="12" t="n">
-        <v>130</v>
+        <v>156</v>
       </c>
       <c r="G102" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H102" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,G102)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I102" s="13" t="n">
         <f aca="false">$B$94+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="J102" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,I102)</f>
@@ -3851,11 +3847,11 @@
       </c>
       <c r="K102" s="13" t="n">
         <f aca="false">$B$94+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="L102" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K102,G102)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M102" s="0"/>
       <c r="N102" s="0"/>
@@ -3864,15 +3860,16 @@
       <c r="Q102" s="0"/>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C103" s="12"/>
+      <c r="B103" s="4"/>
+      <c r="C103" s="5"/>
       <c r="D103" s="0"/>
-      <c r="E103" s="12"/>
-      <c r="F103" s="12"/>
-      <c r="G103" s="13"/>
+      <c r="E103" s="0"/>
+      <c r="F103" s="0"/>
+      <c r="G103" s="0"/>
       <c r="H103" s="0"/>
-      <c r="I103" s="13"/>
+      <c r="I103" s="0"/>
       <c r="J103" s="0"/>
-      <c r="K103" s="13"/>
+      <c r="K103" s="0"/>
       <c r="L103" s="0"/>
       <c r="M103" s="0"/>
       <c r="N103" s="0"/>
@@ -3881,15 +3878,16 @@
       <c r="Q103" s="0"/>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C104" s="12"/>
+      <c r="B104" s="4"/>
+      <c r="C104" s="5"/>
       <c r="D104" s="0"/>
-      <c r="E104" s="12"/>
-      <c r="F104" s="12"/>
-      <c r="G104" s="13"/>
+      <c r="E104" s="0"/>
+      <c r="F104" s="0"/>
+      <c r="G104" s="0"/>
       <c r="H104" s="0"/>
-      <c r="I104" s="13"/>
+      <c r="I104" s="0"/>
       <c r="J104" s="0"/>
-      <c r="K104" s="13"/>
+      <c r="K104" s="0"/>
       <c r="L104" s="0"/>
       <c r="M104" s="0"/>
       <c r="N104" s="0"/>
@@ -3918,7 +3916,7 @@
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="7" t="n">
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="D106" s="0"/>
       <c r="E106" s="8" t="s">
@@ -3940,7 +3938,9 @@
       <c r="K106" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="L106" s="0"/>
+      <c r="L106" s="8" t="s">
+        <v>37</v>
+      </c>
       <c r="M106" s="0"/>
       <c r="N106" s="0"/>
       <c r="O106" s="0"/>
@@ -3976,7 +3976,9 @@
       <c r="K107" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="L107" s="0"/>
+      <c r="L107" s="8" t="s">
+        <v>45</v>
+      </c>
       <c r="M107" s="0"/>
       <c r="N107" s="0"/>
       <c r="O107" s="0"/>
@@ -3991,34 +3993,37 @@
         <v>300</v>
       </c>
       <c r="D108" s="1" t="n">
-        <v>11591</v>
+        <v>12428</v>
       </c>
       <c r="E108" s="12" t="n">
         <f aca="false">D108/60.48</f>
-        <v>191.650132275132</v>
+        <v>205.489417989418</v>
       </c>
       <c r="F108" s="12" t="n">
-        <v>812</v>
+        <v>837</v>
       </c>
       <c r="G108" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H108" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,G108)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I108" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J108" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,I108)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K108" s="13" t="n">
-        <f aca="false">$B$118+1</f>
-        <v>43920</v>
-      </c>
-      <c r="L108" s="0"/>
+        <f aca="false">$B$106+1</f>
+        <v>43922</v>
+      </c>
+      <c r="L108" s="0" t="n">
+        <f aca="false">_xlfn.DAYS(K108,G108)</f>
+        <v>22</v>
+      </c>
       <c r="M108" s="0"/>
       <c r="N108" s="0"/>
       <c r="O108" s="0"/>
@@ -4033,34 +4038,37 @@
         <v>230</v>
       </c>
       <c r="D109" s="1" t="n">
-        <v>7716</v>
+        <v>8464</v>
       </c>
       <c r="E109" s="12" t="n">
         <f aca="false">D109/46.75</f>
-        <v>165.048128342246</v>
+        <v>181.048128342246</v>
       </c>
       <c r="F109" s="12" t="n">
-        <v>913</v>
+        <v>748</v>
       </c>
       <c r="G109" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H109" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,G109)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I109" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J109" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,I109)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K109" s="13" t="n">
-        <f aca="false">$B$118+1</f>
-        <v>43920</v>
-      </c>
-      <c r="L109" s="0"/>
+        <f aca="false">$B$106+1</f>
+        <v>43922</v>
+      </c>
+      <c r="L109" s="0" t="n">
+        <f aca="false">_xlfn.DAYS(K109,G109)</f>
+        <v>15</v>
+      </c>
       <c r="M109" s="0"/>
       <c r="N109" s="0"/>
       <c r="O109" s="0"/>
@@ -4075,34 +4083,37 @@
         <v>330</v>
       </c>
       <c r="D110" s="1" t="n">
-        <v>3024</v>
+        <v>3523</v>
       </c>
       <c r="E110" s="12" t="n">
         <f aca="false">D110/65.27</f>
-        <v>46.3306266278535</v>
+        <v>53.9757928604259</v>
       </c>
       <c r="F110" s="12" t="n">
-        <v>418</v>
+        <v>499</v>
       </c>
       <c r="G110" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H110" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,G110)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I110" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J110" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,I110)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K110" s="13" t="n">
-        <f aca="false">$B$118+1</f>
-        <v>43920</v>
-      </c>
-      <c r="L110" s="0"/>
+        <f aca="false">$B$106+1</f>
+        <v>43922</v>
+      </c>
+      <c r="L110" s="0" t="n">
+        <f aca="false">_xlfn.DAYS(K110,G110)</f>
+        <v>10</v>
+      </c>
       <c r="M110" s="0"/>
       <c r="N110" s="0"/>
       <c r="O110" s="0"/>
@@ -4117,35 +4128,38 @@
         <v>50</v>
       </c>
       <c r="D111" s="12" t="n">
-        <v>146</v>
+        <v>180</v>
       </c>
       <c r="E111" s="12" t="n">
         <f aca="false">D111/10.36</f>
-        <v>14.0926640926641</v>
+        <v>17.3745173745174</v>
       </c>
       <c r="F111" s="12" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G111" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H111" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,G111)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I111" s="13" t="n">
         <f aca="false">$B$106+1</f>
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="J111" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,I111)</f>
         <v>-1</v>
       </c>
       <c r="K111" s="13" t="n">
-        <f aca="false">$B$118+1</f>
-        <v>43920</v>
-      </c>
-      <c r="L111" s="0"/>
+        <f aca="false">$B$106+1</f>
+        <v>43922</v>
+      </c>
+      <c r="L111" s="0" t="n">
+        <f aca="false">_xlfn.DAYS(K111,G111)</f>
+        <v>7</v>
+      </c>
       <c r="M111" s="0"/>
       <c r="N111" s="0"/>
       <c r="O111" s="0"/>
@@ -4160,35 +4174,38 @@
         <v>330</v>
       </c>
       <c r="D112" s="1" t="n">
-        <v>1408</v>
+        <v>1789</v>
       </c>
       <c r="E112" s="12" t="n">
         <f aca="false">D112/67.79</f>
-        <v>20.770025077445</v>
+        <v>26.390323056498</v>
       </c>
       <c r="F112" s="12" t="n">
-        <v>180</v>
+        <v>381</v>
       </c>
       <c r="G112" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H112" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,G112)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I112" s="13" t="n">
         <f aca="false">$B$106+1</f>
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="J112" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,I112)</f>
         <v>-1</v>
       </c>
       <c r="K112" s="13" t="n">
-        <f aca="false">$B$118+1</f>
-        <v>43920</v>
-      </c>
-      <c r="L112" s="0"/>
+        <f aca="false">$B$106+1</f>
+        <v>43922</v>
+      </c>
+      <c r="L112" s="0" t="n">
+        <f aca="false">_xlfn.DAYS(K112,G112)</f>
+        <v>6</v>
+      </c>
       <c r="M112" s="0"/>
       <c r="N112" s="0"/>
       <c r="O112" s="0"/>
@@ -4203,34 +4220,38 @@
         <v>1660</v>
       </c>
       <c r="D113" s="1" t="n">
-        <v>3141</v>
+        <v>4053</v>
       </c>
       <c r="E113" s="12" t="n">
         <f aca="false">D113/331</f>
-        <v>9.48942598187311</v>
+        <v>12.2447129909366</v>
       </c>
       <c r="F113" s="12" t="n">
-        <v>573</v>
+        <v>912</v>
       </c>
       <c r="G113" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H113" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,G113)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I113" s="13" t="n">
-        <v>43920</v>
+        <f aca="false">$B$106+1</f>
+        <v>43922</v>
       </c>
       <c r="J113" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,I113)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K113" s="13" t="n">
-        <f aca="false">$B$118+1</f>
-        <v>43920</v>
-      </c>
-      <c r="L113" s="0"/>
+        <f aca="false">$B$106+1</f>
+        <v>43922</v>
+      </c>
+      <c r="L113" s="0" t="n">
+        <f aca="false">_xlfn.DAYS(K113,G113)</f>
+        <v>5</v>
+      </c>
       <c r="M113" s="0"/>
       <c r="N113" s="0"/>
       <c r="O113" s="0"/>
@@ -4245,35 +4266,38 @@
         <v>414</v>
       </c>
       <c r="D114" s="1" t="n">
-        <v>645</v>
+        <v>775</v>
       </c>
       <c r="E114" s="12" t="n">
         <f aca="false">D114/83.784</f>
-        <v>7.69836723002005</v>
+        <v>9.24997612909386</v>
       </c>
       <c r="F114" s="12" t="n">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="G114" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H114" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,G114)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I114" s="13" t="n">
         <f aca="false">$B$106+1</f>
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="J114" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,I114)</f>
         <v>-1</v>
       </c>
       <c r="K114" s="13" t="n">
-        <f aca="false">$B$118+1</f>
-        <v>43920</v>
-      </c>
-      <c r="L114" s="0"/>
+        <f aca="false">$B$106+1</f>
+        <v>43922</v>
+      </c>
+      <c r="L114" s="0" t="n">
+        <f aca="false">_xlfn.DAYS(K114,G114)</f>
+        <v>4</v>
+      </c>
       <c r="M114" s="0"/>
       <c r="N114" s="0"/>
       <c r="O114" s="0"/>
@@ -4281,16 +4305,15 @@
       <c r="Q114" s="0"/>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B115" s="4"/>
-      <c r="C115" s="5"/>
+      <c r="C115" s="12"/>
       <c r="D115" s="0"/>
-      <c r="E115" s="0"/>
-      <c r="F115" s="0"/>
-      <c r="G115" s="0"/>
+      <c r="E115" s="12"/>
+      <c r="F115" s="12"/>
+      <c r="G115" s="13"/>
       <c r="H115" s="0"/>
-      <c r="I115" s="0"/>
+      <c r="I115" s="13"/>
       <c r="J115" s="0"/>
-      <c r="K115" s="0"/>
+      <c r="K115" s="13"/>
       <c r="L115" s="0"/>
       <c r="M115" s="0"/>
       <c r="N115" s="0"/>
@@ -4299,16 +4322,15 @@
       <c r="Q115" s="0"/>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B116" s="4"/>
-      <c r="C116" s="5"/>
+      <c r="C116" s="12"/>
       <c r="D116" s="0"/>
-      <c r="E116" s="0"/>
-      <c r="F116" s="0"/>
-      <c r="G116" s="0"/>
+      <c r="E116" s="12"/>
+      <c r="F116" s="12"/>
+      <c r="G116" s="13"/>
       <c r="H116" s="0"/>
-      <c r="I116" s="0"/>
+      <c r="I116" s="13"/>
       <c r="J116" s="0"/>
-      <c r="K116" s="0"/>
+      <c r="K116" s="13"/>
       <c r="L116" s="0"/>
       <c r="M116" s="0"/>
       <c r="N116" s="0"/>
@@ -4337,7 +4359,7 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B118" s="7" t="n">
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="D118" s="0"/>
       <c r="E118" s="8" t="s">
@@ -4410,31 +4432,31 @@
         <v>300</v>
       </c>
       <c r="D120" s="1" t="n">
-        <v>10779</v>
+        <v>11591</v>
       </c>
       <c r="E120" s="12" t="n">
         <f aca="false">D120/60.48</f>
-        <v>178.224206349206</v>
+        <v>191.650132275132</v>
       </c>
       <c r="F120" s="12" t="n">
-        <v>756</v>
+        <v>812</v>
       </c>
       <c r="G120" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H120" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$118,G120)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I120" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J120" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$118,I120)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K120" s="13" t="n">
-        <f aca="false">$B$118+1</f>
+        <f aca="false">$B$130+1</f>
         <v>43920</v>
       </c>
       <c r="L120" s="0"/>
@@ -4452,31 +4474,31 @@
         <v>230</v>
       </c>
       <c r="D121" s="1" t="n">
-        <v>6803</v>
+        <v>7716</v>
       </c>
       <c r="E121" s="12" t="n">
         <f aca="false">D121/46.75</f>
-        <v>145.51871657754</v>
+        <v>165.048128342246</v>
       </c>
       <c r="F121" s="12" t="n">
-        <v>821</v>
+        <v>913</v>
       </c>
       <c r="G121" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H121" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$118,G121)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I121" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J121" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$118,I121)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K121" s="13" t="n">
-        <f aca="false">$B$118+1</f>
+        <f aca="false">$B$130+1</f>
         <v>43920</v>
       </c>
       <c r="L121" s="0"/>
@@ -4494,31 +4516,31 @@
         <v>330</v>
       </c>
       <c r="D122" s="1" t="n">
-        <v>2606</v>
+        <v>3024</v>
       </c>
       <c r="E122" s="12" t="n">
         <f aca="false">D122/65.27</f>
-        <v>39.9264593228129</v>
+        <v>46.3306266278535</v>
       </c>
       <c r="F122" s="12" t="n">
-        <v>292</v>
+        <v>418</v>
       </c>
       <c r="G122" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H122" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$118,G122)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I122" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J122" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$118,I122)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K122" s="13" t="n">
-        <f aca="false">$B$118+1</f>
+        <f aca="false">$B$130+1</f>
         <v>43920</v>
       </c>
       <c r="L122" s="0"/>
@@ -4530,38 +4552,38 @@
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B123" s="0" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C123" s="12" t="n">
-        <v>1660</v>
-      </c>
-      <c r="D123" s="1" t="n">
-        <v>2583</v>
+        <v>50</v>
+      </c>
+      <c r="D123" s="12" t="n">
+        <v>146</v>
       </c>
       <c r="E123" s="12" t="n">
-        <f aca="false">D123/331</f>
-        <v>7.8036253776435</v>
+        <f aca="false">D123/10.36</f>
+        <v>14.0926640926641</v>
       </c>
       <c r="F123" s="12" t="n">
-        <v>363</v>
+        <v>36</v>
       </c>
       <c r="G123" s="13" t="n">
-        <v>43917</v>
+        <v>43915</v>
       </c>
       <c r="H123" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$118,G123)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I123" s="13" t="n">
         <f aca="false">$B$118+1</f>
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="J123" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$118,I123)</f>
         <v>-1</v>
       </c>
       <c r="K123" s="13" t="n">
-        <f aca="false">$B$118+1</f>
+        <f aca="false">$B$130+1</f>
         <v>43920</v>
       </c>
       <c r="L123" s="0"/>
@@ -4579,32 +4601,32 @@
         <v>330</v>
       </c>
       <c r="D124" s="1" t="n">
-        <v>1228</v>
+        <v>1408</v>
       </c>
       <c r="E124" s="12" t="n">
         <f aca="false">D124/67.79</f>
-        <v>18.1147661897035</v>
+        <v>20.770025077445</v>
       </c>
       <c r="F124" s="12" t="n">
-        <v>209</v>
+        <v>180</v>
       </c>
       <c r="G124" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H124" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$118,G124)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I124" s="13" t="n">
         <f aca="false">$B$118+1</f>
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="J124" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$118,I124)</f>
         <v>-1</v>
       </c>
       <c r="K124" s="13" t="n">
-        <f aca="false">$B$118+1</f>
+        <f aca="false">$B$130+1</f>
         <v>43920</v>
       </c>
       <c r="L124" s="0"/>
@@ -4616,38 +4638,37 @@
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B125" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C125" s="12" t="n">
-        <v>414</v>
+        <v>1660</v>
       </c>
       <c r="D125" s="1" t="n">
-        <v>541</v>
+        <v>3141</v>
       </c>
       <c r="E125" s="12" t="n">
-        <f aca="false">D125/83.784</f>
-        <v>6.457080110761</v>
+        <f aca="false">D125/331</f>
+        <v>9.48942598187311</v>
       </c>
       <c r="F125" s="12" t="n">
-        <v>108</v>
+        <v>573</v>
       </c>
       <c r="G125" s="13" t="n">
-        <v>43918</v>
+        <v>43917</v>
       </c>
       <c r="H125" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$118,G125)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I125" s="13" t="n">
-        <f aca="false">$B$118+1</f>
         <v>43920</v>
       </c>
       <c r="J125" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$118,I125)</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K125" s="13" t="n">
-        <f aca="false">$B$118+1</f>
+        <f aca="false">$B$130+1</f>
         <v>43920</v>
       </c>
       <c r="L125" s="0"/>
@@ -4659,38 +4680,38 @@
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B126" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C126" s="12" t="n">
-        <v>50</v>
-      </c>
-      <c r="D126" s="12" t="n">
-        <v>110</v>
+        <v>414</v>
+      </c>
+      <c r="D126" s="1" t="n">
+        <v>645</v>
       </c>
       <c r="E126" s="12" t="n">
-        <f aca="false">D126/10.36</f>
-        <v>10.6177606177606</v>
+        <f aca="false">D126/83.784</f>
+        <v>7.69836723002005</v>
       </c>
       <c r="F126" s="12" t="n">
-        <v>5</v>
+        <v>104</v>
       </c>
       <c r="G126" s="13" t="n">
-        <v>43915</v>
+        <v>43918</v>
       </c>
       <c r="H126" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$118,G126)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I126" s="13" t="n">
         <f aca="false">$B$118+1</f>
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="J126" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$118,I126)</f>
         <v>-1</v>
       </c>
       <c r="K126" s="13" t="n">
-        <f aca="false">$B$118+1</f>
+        <f aca="false">$B$130+1</f>
         <v>43920</v>
       </c>
       <c r="L126" s="0"/>
@@ -4757,15 +4778,13 @@
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B130" s="7" t="n">
-        <v>43918</v>
-      </c>
-      <c r="D130" s="8" t="s">
-        <v>10</v>
-      </c>
+        <v>43919</v>
+      </c>
+      <c r="D130" s="0"/>
       <c r="E130" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F130" s="8"/>
+      <c r="F130" s="0"/>
       <c r="G130" s="8" t="s">
         <v>33</v>
       </c>
@@ -4793,8 +4812,8 @@
       <c r="C131" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D131" s="10" t="s">
-        <v>6</v>
+      <c r="D131" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="E131" s="10" t="s">
         <v>39</v>
@@ -4832,32 +4851,32 @@
         <v>300</v>
       </c>
       <c r="D132" s="1" t="n">
-        <v>10023</v>
+        <v>10779</v>
       </c>
       <c r="E132" s="12" t="n">
         <f aca="false">D132/60.48</f>
-        <v>165.724206349206</v>
+        <v>178.224206349206</v>
       </c>
       <c r="F132" s="12" t="n">
-        <v>889</v>
+        <v>756</v>
       </c>
       <c r="G132" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H132" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$130,G132)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I132" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J132" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$142,I132)</f>
-        <v>15</v>
+        <f aca="false">_xlfn.DAYS($B$130,I132)</f>
+        <v>17</v>
       </c>
       <c r="K132" s="13" t="n">
         <f aca="false">$B$130+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="L132" s="0"/>
       <c r="M132" s="0"/>
@@ -4874,32 +4893,32 @@
         <v>230</v>
       </c>
       <c r="D133" s="1" t="n">
-        <v>5982</v>
+        <v>6803</v>
       </c>
       <c r="E133" s="12" t="n">
         <f aca="false">D133/46.75</f>
-        <v>127.957219251337</v>
+        <v>145.51871657754</v>
       </c>
       <c r="F133" s="12" t="n">
-        <v>844</v>
+        <v>821</v>
       </c>
       <c r="G133" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H133" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$130,G133)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I133" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J133" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$142,I133)</f>
-        <v>4</v>
+        <f aca="false">_xlfn.DAYS($B$130,I133)</f>
+        <v>6</v>
       </c>
       <c r="K133" s="13" t="n">
         <f aca="false">$B$130+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="L133" s="0"/>
       <c r="M133" s="0"/>
@@ -4916,32 +4935,32 @@
         <v>330</v>
       </c>
       <c r="D134" s="1" t="n">
-        <v>2314</v>
+        <v>2606</v>
       </c>
       <c r="E134" s="12" t="n">
         <f aca="false">D134/65.27</f>
-        <v>35.4527347939329</v>
+        <v>39.9264593228129</v>
       </c>
       <c r="F134" s="12" t="n">
-        <v>319</v>
+        <v>292</v>
       </c>
       <c r="G134" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H134" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$130,G134)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I134" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J134" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$142,I134)</f>
-        <v>3</v>
+        <f aca="false">_xlfn.DAYS($B$130,I134)</f>
+        <v>5</v>
       </c>
       <c r="K134" s="13" t="n">
         <f aca="false">$B$130+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="L134" s="0"/>
       <c r="M134" s="0"/>
@@ -4958,25 +4977,25 @@
         <v>1660</v>
       </c>
       <c r="D135" s="1" t="n">
-        <v>2221</v>
+        <v>2583</v>
       </c>
       <c r="E135" s="12" t="n">
         <f aca="false">D135/331</f>
-        <v>6.70996978851964</v>
+        <v>7.8036253776435</v>
       </c>
       <c r="F135" s="12" t="n">
-        <v>525</v>
+        <v>363</v>
       </c>
       <c r="G135" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H135" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$130,G135)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I135" s="13" t="n">
         <f aca="false">$B$130+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="J135" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$130,I135)</f>
@@ -4984,7 +5003,7 @@
       </c>
       <c r="K135" s="13" t="n">
         <f aca="false">$B$130+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="L135" s="0"/>
       <c r="M135" s="0"/>
@@ -5001,25 +5020,25 @@
         <v>330</v>
       </c>
       <c r="D136" s="1" t="n">
-        <v>1019</v>
+        <v>1228</v>
       </c>
       <c r="E136" s="12" t="n">
         <f aca="false">D136/67.79</f>
-        <v>15.0317155922702</v>
+        <v>18.1147661897035</v>
       </c>
       <c r="F136" s="12" t="n">
-        <v>260</v>
+        <v>209</v>
       </c>
       <c r="G136" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H136" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$130,G136)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I136" s="13" t="n">
         <f aca="false">$B$130+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="J136" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$130,I136)</f>
@@ -5027,7 +5046,7 @@
       </c>
       <c r="K136" s="13" t="n">
         <f aca="false">$B$130+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="L136" s="0"/>
       <c r="M136" s="0"/>
@@ -5044,25 +5063,25 @@
         <v>414</v>
       </c>
       <c r="D137" s="1" t="n">
-        <v>433</v>
+        <v>541</v>
       </c>
       <c r="E137" s="12" t="n">
         <f aca="false">D137/83.784</f>
-        <v>5.16805117922276</v>
+        <v>6.457080110761</v>
       </c>
       <c r="F137" s="12" t="n">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="G137" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H137" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$130,G137)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I137" s="13" t="n">
         <f aca="false">$B$130+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="J137" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$130,I137)</f>
@@ -5070,7 +5089,7 @@
       </c>
       <c r="K137" s="13" t="n">
         <f aca="false">$B$130+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="L137" s="0"/>
       <c r="M137" s="0"/>
@@ -5087,25 +5106,25 @@
         <v>50</v>
       </c>
       <c r="D138" s="12" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E138" s="12" t="n">
         <f aca="false">D138/10.36</f>
-        <v>10.1351351351351</v>
+        <v>10.6177606177606</v>
       </c>
       <c r="F138" s="12" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G138" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H138" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$130,G138)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I138" s="13" t="n">
         <f aca="false">$B$130+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="J138" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$130,I138)</f>
@@ -5113,7 +5132,7 @@
       </c>
       <c r="K138" s="13" t="n">
         <f aca="false">$B$130+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="L138" s="0"/>
       <c r="M138" s="0"/>
@@ -5123,15 +5142,16 @@
       <c r="Q138" s="0"/>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C139" s="12"/>
-      <c r="D139" s="12"/>
-      <c r="E139" s="12"/>
-      <c r="F139" s="12"/>
-      <c r="G139" s="13"/>
+      <c r="B139" s="4"/>
+      <c r="C139" s="5"/>
+      <c r="D139" s="0"/>
+      <c r="E139" s="0"/>
+      <c r="F139" s="0"/>
+      <c r="G139" s="0"/>
       <c r="H139" s="0"/>
-      <c r="I139" s="13"/>
+      <c r="I139" s="0"/>
       <c r="J139" s="0"/>
-      <c r="K139" s="13"/>
+      <c r="K139" s="0"/>
       <c r="L139" s="0"/>
       <c r="M139" s="0"/>
       <c r="N139" s="0"/>
@@ -5176,11 +5196,10 @@
       <c r="P141" s="0"/>
       <c r="Q141" s="0"/>
     </row>
-    <row r="142" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B142" s="7" t="n">
-        <v>43917</v>
-      </c>
-      <c r="C142" s="0"/>
+        <v>43918</v>
+      </c>
       <c r="D142" s="8" t="s">
         <v>10</v>
       </c>
@@ -5203,10 +5222,14 @@
       <c r="K142" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="L142" s="8"/>
+      <c r="L142" s="0"/>
+      <c r="M142" s="0"/>
+      <c r="N142" s="0"/>
+      <c r="O142" s="0"/>
+      <c r="P142" s="0"/>
+      <c r="Q142" s="0"/>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="3"/>
       <c r="B143" s="9"/>
       <c r="C143" s="10" t="s">
         <v>38</v>
@@ -5235,7 +5258,7 @@
       <c r="K143" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="L143" s="8"/>
+      <c r="L143" s="0"/>
       <c r="M143" s="0"/>
       <c r="N143" s="0"/>
       <c r="O143" s="0"/>
@@ -5250,32 +5273,32 @@
         <v>300</v>
       </c>
       <c r="D144" s="1" t="n">
-        <v>9134</v>
+        <v>10023</v>
       </c>
       <c r="E144" s="12" t="n">
         <f aca="false">D144/60.48</f>
-        <v>151.025132275132</v>
+        <v>165.724206349206</v>
       </c>
       <c r="F144" s="12" t="n">
-        <v>919</v>
+        <v>889</v>
       </c>
       <c r="G144" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H144" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$142,G144)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I144" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J144" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$142,I144)</f>
+        <f aca="false">_xlfn.DAYS(B$154,I144)</f>
         <v>15</v>
       </c>
       <c r="K144" s="13" t="n">
         <f aca="false">$B$142+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="L144" s="0"/>
       <c r="M144" s="0"/>
@@ -5292,32 +5315,32 @@
         <v>230</v>
       </c>
       <c r="D145" s="1" t="n">
-        <v>5138</v>
+        <v>5982</v>
       </c>
       <c r="E145" s="12" t="n">
         <f aca="false">D145/46.75</f>
-        <v>109.903743315508</v>
+        <v>127.957219251337</v>
       </c>
       <c r="F145" s="12" t="n">
-        <v>773</v>
+        <v>844</v>
       </c>
       <c r="G145" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H145" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$142,G145)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I145" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J145" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$142,I145)</f>
+        <f aca="false">_xlfn.DAYS(B$154,I145)</f>
         <v>4</v>
       </c>
       <c r="K145" s="13" t="n">
         <f aca="false">$B$142+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="L145" s="0"/>
       <c r="M145" s="0"/>
@@ -5334,32 +5357,32 @@
         <v>330</v>
       </c>
       <c r="D146" s="1" t="n">
-        <v>1995</v>
+        <v>2314</v>
       </c>
       <c r="E146" s="12" t="n">
         <f aca="false">D146/65.27</f>
-        <v>30.5653439558756</v>
+        <v>35.4527347939329</v>
       </c>
       <c r="F146" s="12" t="n">
-        <v>299</v>
+        <v>319</v>
       </c>
       <c r="G146" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H146" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$142,G146)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I146" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J146" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$142,I146)</f>
+        <f aca="false">_xlfn.DAYS(B$154,I146)</f>
         <v>3</v>
       </c>
       <c r="K146" s="13" t="n">
         <f aca="false">$B$142+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="L146" s="0"/>
       <c r="M146" s="0"/>
@@ -5376,34 +5399,33 @@
         <v>1660</v>
       </c>
       <c r="D147" s="1" t="n">
-        <v>1696</v>
+        <v>2221</v>
       </c>
       <c r="E147" s="12" t="n">
         <f aca="false">D147/331</f>
-        <v>5.12386706948641</v>
+        <v>6.70996978851964</v>
       </c>
       <c r="F147" s="12" t="n">
-        <v>400</v>
+        <v>525</v>
       </c>
       <c r="G147" s="13" t="n">
-        <f aca="false">$B$142</f>
         <v>43917</v>
       </c>
       <c r="H147" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$142,G147)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I147" s="13" t="n">
         <f aca="false">$B$142+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="J147" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$142,I147)</f>
+        <f aca="false">_xlfn.DAYS($B$142,I147)</f>
         <v>-1</v>
       </c>
       <c r="K147" s="13" t="n">
         <f aca="false">$B$142+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="L147" s="0"/>
       <c r="M147" s="0"/>
@@ -5420,33 +5442,33 @@
         <v>330</v>
       </c>
       <c r="D148" s="1" t="n">
-        <v>759</v>
+        <v>1019</v>
       </c>
       <c r="E148" s="12" t="n">
         <f aca="false">D148/67.79</f>
-        <v>11.1963416433102</v>
+        <v>15.0317155922702</v>
       </c>
       <c r="F148" s="12" t="n">
-        <v>181</v>
+        <v>260</v>
       </c>
       <c r="G148" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H148" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$142,G148)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I148" s="13" t="n">
         <f aca="false">$B$142+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="J148" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$142,I148)</f>
+        <f aca="false">_xlfn.DAYS($B$142,I148)</f>
         <v>-1</v>
       </c>
       <c r="K148" s="13" t="n">
         <f aca="false">$B$142+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="L148" s="0"/>
       <c r="M148" s="0"/>
@@ -5463,34 +5485,33 @@
         <v>414</v>
       </c>
       <c r="D149" s="1" t="n">
-        <v>351</v>
+        <v>433</v>
       </c>
       <c r="E149" s="12" t="n">
         <f aca="false">D149/83.784</f>
-        <v>4.18934402749928</v>
+        <v>5.16805117922276</v>
       </c>
       <c r="F149" s="12" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G149" s="13" t="n">
-        <f aca="false">$B$142+1</f>
         <v>43918</v>
       </c>
       <c r="H149" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$142,G149)</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I149" s="13" t="n">
         <f aca="false">$B$142+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="J149" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$142,I149)</f>
+        <f aca="false">_xlfn.DAYS($B$142,I149)</f>
         <v>-1</v>
       </c>
       <c r="K149" s="13" t="n">
         <f aca="false">$B$142+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="L149" s="0"/>
       <c r="M149" s="0"/>
@@ -5514,26 +5535,26 @@
         <v>10.1351351351351</v>
       </c>
       <c r="F150" s="12" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="G150" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H150" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$142,G150)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I150" s="13" t="n">
         <f aca="false">$B$142+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="J150" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$142,I150)</f>
+        <f aca="false">_xlfn.DAYS($B$142,I150)</f>
         <v>-1</v>
       </c>
       <c r="K150" s="13" t="n">
         <f aca="false">$B$142+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="L150" s="0"/>
       <c r="M150" s="0"/>
@@ -5543,14 +5564,15 @@
       <c r="Q150" s="0"/>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D151" s="0"/>
-      <c r="E151" s="0"/>
-      <c r="F151" s="0"/>
-      <c r="G151" s="0"/>
+      <c r="C151" s="12"/>
+      <c r="D151" s="12"/>
+      <c r="E151" s="12"/>
+      <c r="F151" s="12"/>
+      <c r="G151" s="13"/>
       <c r="H151" s="0"/>
-      <c r="I151" s="0"/>
+      <c r="I151" s="13"/>
       <c r="J151" s="0"/>
-      <c r="K151" s="0"/>
+      <c r="K151" s="13"/>
       <c r="L151" s="0"/>
       <c r="M151" s="0"/>
       <c r="N151" s="0"/>
@@ -5559,6 +5581,8 @@
       <c r="Q151" s="0"/>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B152" s="4"/>
+      <c r="C152" s="5"/>
       <c r="D152" s="0"/>
       <c r="E152" s="0"/>
       <c r="F152" s="0"/>
@@ -5593,10 +5617,11 @@
       <c r="P153" s="0"/>
       <c r="Q153" s="0"/>
     </row>
-    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B154" s="7" t="n">
-        <v>43916</v>
-      </c>
+        <v>43917</v>
+      </c>
+      <c r="C154" s="0"/>
       <c r="D154" s="8" t="s">
         <v>10</v>
       </c>
@@ -5619,17 +5644,13 @@
       <c r="K154" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="L154" s="0"/>
-      <c r="M154" s="0"/>
-      <c r="N154" s="0"/>
-      <c r="O154" s="0"/>
-      <c r="P154" s="0"/>
-      <c r="Q154" s="0"/>
+      <c r="L154" s="8"/>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="3"/>
       <c r="B155" s="9"/>
       <c r="C155" s="10" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="D155" s="10" t="s">
         <v>6</v>
@@ -5655,7 +5676,7 @@
       <c r="K155" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="L155" s="0"/>
+      <c r="L155" s="8"/>
       <c r="M155" s="0"/>
       <c r="N155" s="0"/>
       <c r="O155" s="0"/>
@@ -5670,32 +5691,32 @@
         <v>300</v>
       </c>
       <c r="D156" s="1" t="n">
-        <v>8215</v>
+        <v>9134</v>
       </c>
       <c r="E156" s="12" t="n">
         <f aca="false">D156/60.48</f>
-        <v>135.830026455026</v>
+        <v>151.025132275132</v>
       </c>
       <c r="F156" s="12" t="n">
-        <v>712</v>
+        <v>919</v>
       </c>
       <c r="G156" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H156" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$154,G156)</f>
-        <v>16</v>
+        <f aca="false">_xlfn.DAYS($B$154,G156)</f>
+        <v>17</v>
       </c>
       <c r="I156" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J156" s="1" t="n">
         <f aca="false">_xlfn.DAYS(B$154,I156)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K156" s="13" t="n">
-        <f aca="false">B$154+1</f>
-        <v>43917</v>
+        <f aca="false">$B$154+1</f>
+        <v>43918</v>
       </c>
       <c r="L156" s="0"/>
       <c r="M156" s="0"/>
@@ -5712,32 +5733,32 @@
         <v>230</v>
       </c>
       <c r="D157" s="1" t="n">
-        <v>4365</v>
+        <v>5138</v>
       </c>
       <c r="E157" s="12" t="n">
         <f aca="false">D157/46.75</f>
-        <v>93.3689839572193</v>
+        <v>109.903743315508</v>
       </c>
       <c r="F157" s="12" t="n">
-        <v>718</v>
+        <v>773</v>
       </c>
       <c r="G157" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H157" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$154,G157)</f>
-        <v>9</v>
+        <f aca="false">_xlfn.DAYS($B$154,G157)</f>
+        <v>10</v>
       </c>
       <c r="I157" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J157" s="1" t="n">
         <f aca="false">_xlfn.DAYS(B$154,I157)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K157" s="13" t="n">
-        <f aca="false">B$154+1</f>
-        <v>43917</v>
+        <f aca="false">$B$154+1</f>
+        <v>43918</v>
       </c>
       <c r="L157" s="0"/>
       <c r="M157" s="0"/>
@@ -5754,32 +5775,32 @@
         <v>330</v>
       </c>
       <c r="D158" s="1" t="n">
-        <v>1696</v>
+        <v>1995</v>
       </c>
       <c r="E158" s="12" t="n">
         <f aca="false">D158/65.27</f>
-        <v>25.9843726060978</v>
+        <v>30.5653439558756</v>
       </c>
       <c r="F158" s="12" t="n">
-        <v>365</v>
+        <v>299</v>
       </c>
       <c r="G158" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H158" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$154,G158)</f>
-        <v>4</v>
+        <f aca="false">_xlfn.DAYS($B$154,G158)</f>
+        <v>5</v>
       </c>
       <c r="I158" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J158" s="1" t="n">
         <f aca="false">_xlfn.DAYS(B$154,I158)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K158" s="13" t="n">
-        <f aca="false">B$154+1</f>
-        <v>43917</v>
+        <f aca="false">$B$154+1</f>
+        <v>43918</v>
       </c>
       <c r="L158" s="0"/>
       <c r="M158" s="0"/>
@@ -5796,33 +5817,34 @@
         <v>1660</v>
       </c>
       <c r="D159" s="1" t="n">
-        <v>1295</v>
+        <v>1696</v>
       </c>
       <c r="E159" s="12" t="n">
         <f aca="false">D159/331</f>
-        <v>3.91238670694864</v>
+        <v>5.12386706948641</v>
       </c>
       <c r="F159" s="12" t="n">
-        <v>268</v>
+        <v>400</v>
       </c>
       <c r="G159" s="13" t="n">
+        <f aca="false">$B$154</f>
         <v>43917</v>
       </c>
       <c r="H159" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$154,G159)</f>
+        <f aca="false">_xlfn.DAYS($B$154,G159)</f>
+        <v>0</v>
+      </c>
+      <c r="I159" s="13" t="n">
+        <f aca="false">$B$154+1</f>
+        <v>43918</v>
+      </c>
+      <c r="J159" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$154,I159)</f>
         <v>-1</v>
       </c>
-      <c r="I159" s="13" t="n">
-        <f aca="false">B$154+1</f>
-        <v>43917</v>
-      </c>
-      <c r="J159" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$154,I159)</f>
-        <v>-1</v>
-      </c>
       <c r="K159" s="13" t="n">
-        <f aca="false">B$154+1</f>
-        <v>43917</v>
+        <f aca="false">$B$154+1</f>
+        <v>43918</v>
       </c>
       <c r="L159" s="0"/>
       <c r="M159" s="0"/>
@@ -5839,33 +5861,33 @@
         <v>330</v>
       </c>
       <c r="D160" s="1" t="n">
-        <v>578</v>
+        <v>759</v>
       </c>
       <c r="E160" s="12" t="n">
         <f aca="false">D160/67.79</f>
-        <v>8.52633131730344</v>
+        <v>11.1963416433102</v>
       </c>
       <c r="F160" s="12" t="n">
-        <v>115</v>
+        <v>181</v>
       </c>
       <c r="G160" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H160" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$154,G160)</f>
-        <v>0</v>
+        <f aca="false">_xlfn.DAYS($B$154,G160)</f>
+        <v>1</v>
       </c>
       <c r="I160" s="13" t="n">
-        <f aca="false">B$154+1</f>
-        <v>43917</v>
+        <f aca="false">$B$154+1</f>
+        <v>43918</v>
       </c>
       <c r="J160" s="1" t="n">
         <f aca="false">_xlfn.DAYS(B$154,I160)</f>
         <v>-1</v>
       </c>
       <c r="K160" s="13" t="n">
-        <f aca="false">B$154+1</f>
-        <v>43917</v>
+        <f aca="false">$B$154+1</f>
+        <v>43918</v>
       </c>
       <c r="L160" s="0"/>
       <c r="M160" s="0"/>
@@ -5882,33 +5904,34 @@
         <v>414</v>
       </c>
       <c r="D161" s="1" t="n">
-        <v>267</v>
+        <v>351</v>
       </c>
       <c r="E161" s="12" t="n">
         <f aca="false">D161/83.784</f>
-        <v>3.18676596963621</v>
+        <v>4.18934402749928</v>
       </c>
       <c r="F161" s="12" t="n">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="G161" s="13" t="n">
-        <v>43917</v>
+        <f aca="false">$B$154+1</f>
+        <v>43918</v>
       </c>
       <c r="H161" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$154,G161)</f>
+        <f aca="false">_xlfn.DAYS($B$154,G161)</f>
         <v>-1</v>
       </c>
       <c r="I161" s="13" t="n">
-        <f aca="false">B$154+1</f>
-        <v>43917</v>
+        <f aca="false">$B$154+1</f>
+        <v>43918</v>
       </c>
       <c r="J161" s="1" t="n">
         <f aca="false">_xlfn.DAYS(B$154,I161)</f>
         <v>-1</v>
       </c>
       <c r="K161" s="13" t="n">
-        <f aca="false">B$154+1</f>
-        <v>43917</v>
+        <f aca="false">$B$154+1</f>
+        <v>43918</v>
       </c>
       <c r="L161" s="0"/>
       <c r="M161" s="0"/>
@@ -5925,33 +5948,33 @@
         <v>50</v>
       </c>
       <c r="D162" s="12" t="n">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="E162" s="12" t="n">
         <f aca="false">D162/10.36</f>
-        <v>7.43243243243243</v>
+        <v>10.1351351351351</v>
       </c>
       <c r="F162" s="12" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="G162" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H162" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$154,G162)</f>
-        <v>1</v>
+        <f aca="false">_xlfn.DAYS($B$154,G162)</f>
+        <v>2</v>
       </c>
       <c r="I162" s="13" t="n">
-        <f aca="false">B$154+1</f>
-        <v>43917</v>
+        <f aca="false">$B$154+1</f>
+        <v>43918</v>
       </c>
       <c r="J162" s="1" t="n">
         <f aca="false">_xlfn.DAYS(B$154,I162)</f>
         <v>-1</v>
       </c>
       <c r="K162" s="13" t="n">
-        <f aca="false">B$154+1</f>
-        <v>43917</v>
+        <f aca="false">$B$154+1</f>
+        <v>43918</v>
       </c>
       <c r="L162" s="0"/>
       <c r="M162" s="0"/>
@@ -5959,6 +5982,424 @@
       <c r="O162" s="0"/>
       <c r="P162" s="0"/>
       <c r="Q162" s="0"/>
+    </row>
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D163" s="0"/>
+      <c r="E163" s="0"/>
+      <c r="F163" s="0"/>
+      <c r="G163" s="0"/>
+      <c r="H163" s="0"/>
+      <c r="I163" s="0"/>
+      <c r="J163" s="0"/>
+      <c r="K163" s="0"/>
+      <c r="L163" s="0"/>
+      <c r="M163" s="0"/>
+      <c r="N163" s="0"/>
+      <c r="O163" s="0"/>
+      <c r="P163" s="0"/>
+      <c r="Q163" s="0"/>
+    </row>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D164" s="0"/>
+      <c r="E164" s="0"/>
+      <c r="F164" s="0"/>
+      <c r="G164" s="0"/>
+      <c r="H164" s="0"/>
+      <c r="I164" s="0"/>
+      <c r="J164" s="0"/>
+      <c r="K164" s="0"/>
+      <c r="L164" s="0"/>
+      <c r="M164" s="0"/>
+      <c r="N164" s="0"/>
+      <c r="O164" s="0"/>
+      <c r="P164" s="0"/>
+      <c r="Q164" s="0"/>
+    </row>
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B165" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D165" s="0"/>
+      <c r="E165" s="0"/>
+      <c r="F165" s="0"/>
+      <c r="G165" s="0"/>
+      <c r="H165" s="0"/>
+      <c r="I165" s="0"/>
+      <c r="J165" s="0"/>
+      <c r="K165" s="0"/>
+      <c r="L165" s="0"/>
+      <c r="M165" s="0"/>
+      <c r="N165" s="0"/>
+      <c r="O165" s="0"/>
+      <c r="P165" s="0"/>
+      <c r="Q165" s="0"/>
+    </row>
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B166" s="7" t="n">
+        <v>43916</v>
+      </c>
+      <c r="D166" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E166" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F166" s="8"/>
+      <c r="G166" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H166" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I166" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J166" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K166" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="L166" s="0"/>
+      <c r="M166" s="0"/>
+      <c r="N166" s="0"/>
+      <c r="O166" s="0"/>
+      <c r="P166" s="0"/>
+      <c r="Q166" s="0"/>
+    </row>
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B167" s="9"/>
+      <c r="C167" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D167" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E167" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F167" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G167" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H167" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I167" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="J167" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="K167" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="L167" s="0"/>
+      <c r="M167" s="0"/>
+      <c r="N167" s="0"/>
+      <c r="O167" s="0"/>
+      <c r="P167" s="0"/>
+      <c r="Q167" s="0"/>
+    </row>
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B168" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C168" s="12" t="n">
+        <v>300</v>
+      </c>
+      <c r="D168" s="1" t="n">
+        <v>8215</v>
+      </c>
+      <c r="E168" s="12" t="n">
+        <f aca="false">D168/60.48</f>
+        <v>135.830026455026</v>
+      </c>
+      <c r="F168" s="12" t="n">
+        <v>712</v>
+      </c>
+      <c r="G168" s="13" t="n">
+        <v>43900</v>
+      </c>
+      <c r="H168" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$166,G168)</f>
+        <v>16</v>
+      </c>
+      <c r="I168" s="13" t="n">
+        <v>43902</v>
+      </c>
+      <c r="J168" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$166,I168)</f>
+        <v>14</v>
+      </c>
+      <c r="K168" s="13" t="n">
+        <f aca="false">B$166+1</f>
+        <v>43917</v>
+      </c>
+      <c r="L168" s="0"/>
+      <c r="M168" s="0"/>
+      <c r="N168" s="0"/>
+      <c r="O168" s="0"/>
+      <c r="P168" s="0"/>
+      <c r="Q168" s="0"/>
+    </row>
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B169" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C169" s="12" t="n">
+        <v>230</v>
+      </c>
+      <c r="D169" s="1" t="n">
+        <v>4365</v>
+      </c>
+      <c r="E169" s="12" t="n">
+        <f aca="false">D169/46.75</f>
+        <v>93.3689839572193</v>
+      </c>
+      <c r="F169" s="12" t="n">
+        <v>718</v>
+      </c>
+      <c r="G169" s="13" t="n">
+        <v>43907</v>
+      </c>
+      <c r="H169" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$166,G169)</f>
+        <v>9</v>
+      </c>
+      <c r="I169" s="13" t="n">
+        <v>43913</v>
+      </c>
+      <c r="J169" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$166,I169)</f>
+        <v>3</v>
+      </c>
+      <c r="K169" s="13" t="n">
+        <f aca="false">B$166+1</f>
+        <v>43917</v>
+      </c>
+      <c r="L169" s="0"/>
+      <c r="M169" s="0"/>
+      <c r="N169" s="0"/>
+      <c r="O169" s="0"/>
+      <c r="P169" s="0"/>
+      <c r="Q169" s="0"/>
+    </row>
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B170" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C170" s="12" t="n">
+        <v>330</v>
+      </c>
+      <c r="D170" s="1" t="n">
+        <v>1696</v>
+      </c>
+      <c r="E170" s="12" t="n">
+        <f aca="false">D170/65.27</f>
+        <v>25.9843726060978</v>
+      </c>
+      <c r="F170" s="12" t="n">
+        <v>365</v>
+      </c>
+      <c r="G170" s="13" t="n">
+        <v>43912</v>
+      </c>
+      <c r="H170" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$166,G170)</f>
+        <v>4</v>
+      </c>
+      <c r="I170" s="13" t="n">
+        <v>43914</v>
+      </c>
+      <c r="J170" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$166,I170)</f>
+        <v>2</v>
+      </c>
+      <c r="K170" s="13" t="n">
+        <f aca="false">B$166+1</f>
+        <v>43917</v>
+      </c>
+      <c r="L170" s="0"/>
+      <c r="M170" s="0"/>
+      <c r="N170" s="0"/>
+      <c r="O170" s="0"/>
+      <c r="P170" s="0"/>
+      <c r="Q170" s="0"/>
+    </row>
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B171" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C171" s="12" t="n">
+        <v>1660</v>
+      </c>
+      <c r="D171" s="1" t="n">
+        <v>1295</v>
+      </c>
+      <c r="E171" s="12" t="n">
+        <f aca="false">D171/331</f>
+        <v>3.91238670694864</v>
+      </c>
+      <c r="F171" s="12" t="n">
+        <v>268</v>
+      </c>
+      <c r="G171" s="13" t="n">
+        <v>43917</v>
+      </c>
+      <c r="H171" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$166,G171)</f>
+        <v>-1</v>
+      </c>
+      <c r="I171" s="13" t="n">
+        <f aca="false">B$166+1</f>
+        <v>43917</v>
+      </c>
+      <c r="J171" s="1" t="n">
+        <f aca="false">_xlfn.DAYS($B$166,I171)</f>
+        <v>-1</v>
+      </c>
+      <c r="K171" s="13" t="n">
+        <f aca="false">B$166+1</f>
+        <v>43917</v>
+      </c>
+      <c r="L171" s="0"/>
+      <c r="M171" s="0"/>
+      <c r="N171" s="0"/>
+      <c r="O171" s="0"/>
+      <c r="P171" s="0"/>
+      <c r="Q171" s="0"/>
+    </row>
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B172" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C172" s="12" t="n">
+        <v>330</v>
+      </c>
+      <c r="D172" s="1" t="n">
+        <v>578</v>
+      </c>
+      <c r="E172" s="12" t="n">
+        <f aca="false">D172/67.79</f>
+        <v>8.52633131730344</v>
+      </c>
+      <c r="F172" s="12" t="n">
+        <v>115</v>
+      </c>
+      <c r="G172" s="13" t="n">
+        <v>43916</v>
+      </c>
+      <c r="H172" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$166,G172)</f>
+        <v>0</v>
+      </c>
+      <c r="I172" s="13" t="n">
+        <f aca="false">B$166+1</f>
+        <v>43917</v>
+      </c>
+      <c r="J172" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$166,I172)</f>
+        <v>-1</v>
+      </c>
+      <c r="K172" s="13" t="n">
+        <f aca="false">B$166+1</f>
+        <v>43917</v>
+      </c>
+      <c r="L172" s="0"/>
+      <c r="M172" s="0"/>
+      <c r="N172" s="0"/>
+      <c r="O172" s="0"/>
+      <c r="P172" s="0"/>
+      <c r="Q172" s="0"/>
+    </row>
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B173" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C173" s="12" t="n">
+        <v>414</v>
+      </c>
+      <c r="D173" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="E173" s="12" t="n">
+        <f aca="false">D173/83.784</f>
+        <v>3.18676596963621</v>
+      </c>
+      <c r="F173" s="12" t="n">
+        <v>61</v>
+      </c>
+      <c r="G173" s="13" t="n">
+        <v>43917</v>
+      </c>
+      <c r="H173" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$166,G173)</f>
+        <v>-1</v>
+      </c>
+      <c r="I173" s="13" t="n">
+        <f aca="false">B$166+1</f>
+        <v>43917</v>
+      </c>
+      <c r="J173" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$166,I173)</f>
+        <v>-1</v>
+      </c>
+      <c r="K173" s="13" t="n">
+        <f aca="false">B$166+1</f>
+        <v>43917</v>
+      </c>
+      <c r="L173" s="0"/>
+      <c r="M173" s="0"/>
+      <c r="N173" s="0"/>
+      <c r="O173" s="0"/>
+      <c r="P173" s="0"/>
+      <c r="Q173" s="0"/>
+    </row>
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B174" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C174" s="12" t="n">
+        <v>50</v>
+      </c>
+      <c r="D174" s="12" t="n">
+        <v>77</v>
+      </c>
+      <c r="E174" s="12" t="n">
+        <f aca="false">D174/10.36</f>
+        <v>7.43243243243243</v>
+      </c>
+      <c r="F174" s="12" t="n">
+        <v>15</v>
+      </c>
+      <c r="G174" s="13" t="n">
+        <v>43915</v>
+      </c>
+      <c r="H174" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$166,G174)</f>
+        <v>1</v>
+      </c>
+      <c r="I174" s="13" t="n">
+        <f aca="false">B$166+1</f>
+        <v>43917</v>
+      </c>
+      <c r="J174" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$166,I174)</f>
+        <v>-1</v>
+      </c>
+      <c r="K174" s="13" t="n">
+        <f aca="false">B$166+1</f>
+        <v>43917</v>
+      </c>
+      <c r="L174" s="0"/>
+      <c r="M174" s="0"/>
+      <c r="N174" s="0"/>
+      <c r="O174" s="0"/>
+      <c r="P174" s="0"/>
+      <c r="Q174" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/covid19 lockdown evaluation .xlsx
+++ b/covid19 lockdown evaluation .xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="55">
   <si>
     <t>Effects of the lockdown issued by governments</t>
   </si>
@@ -41,10 +41,16 @@
     <t>: today for the data block</t>
   </si>
   <si>
+    <t>From Apr 6 on: adjustment in as much as 3 days back;</t>
+  </si>
+  <si>
     <t>start num</t>
   </si>
   <si>
     <t>: 5 deaths per million people inhabitants</t>
+  </si>
+  <si>
+    <t>we will note when backadjustment ends</t>
   </si>
   <si>
     <t>total deaths</t>
@@ -353,9 +359,9 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q174"/>
+  <dimension ref="A1:Q186"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F31" activeCellId="0" sqref="F31"/>
     </sheetView>
   </sheetViews>
@@ -460,7 +466,9 @@
       <c r="G5" s="0"/>
       <c r="H5" s="0"/>
       <c r="I5" s="0"/>
-      <c r="J5" s="0"/>
+      <c r="J5" s="0" t="s">
+        <v>8</v>
+      </c>
       <c r="K5" s="0"/>
       <c r="L5" s="0"/>
       <c r="M5" s="0"/>
@@ -471,10 +479,10 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" s="0"/>
       <c r="E6" s="0"/>
@@ -482,7 +490,9 @@
       <c r="G6" s="0"/>
       <c r="H6" s="0"/>
       <c r="I6" s="0"/>
-      <c r="J6" s="0"/>
+      <c r="J6" s="0" t="s">
+        <v>11</v>
+      </c>
       <c r="K6" s="0"/>
       <c r="L6" s="0"/>
       <c r="M6" s="0"/>
@@ -493,10 +503,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D7" s="0"/>
       <c r="E7" s="0"/>
@@ -515,10 +525,10 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D8" s="0"/>
       <c r="E8" s="0"/>
@@ -537,10 +547,10 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D9" s="0"/>
       <c r="E9" s="0"/>
@@ -559,10 +569,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D10" s="0"/>
       <c r="E10" s="0"/>
@@ -581,10 +591,10 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D11" s="0"/>
       <c r="E11" s="0"/>
@@ -603,10 +613,10 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D12" s="0"/>
       <c r="E12" s="0"/>
@@ -625,10 +635,10 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D13" s="0"/>
       <c r="E13" s="0"/>
@@ -647,10 +657,10 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" s="0"/>
       <c r="E14" s="0"/>
@@ -669,10 +679,10 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D15" s="0"/>
       <c r="E15" s="0"/>
@@ -708,10 +718,10 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D17" s="0"/>
       <c r="E17" s="0"/>
@@ -731,7 +741,7 @@
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="4"/>
       <c r="C18" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D18" s="0"/>
       <c r="E18" s="0"/>
@@ -786,7 +796,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D21" s="0"/>
       <c r="E21" s="0"/>
@@ -805,30 +815,30 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="7" t="n">
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="D22" s="0"/>
       <c r="E22" s="8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F22" s="0"/>
       <c r="G22" s="8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M22" s="0"/>
       <c r="N22" s="0"/>
@@ -839,34 +849,34 @@
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="9"/>
       <c r="C23" s="10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I23" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K23" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="J23" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="K23" s="8" t="s">
-        <v>41</v>
-      </c>
       <c r="L23" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M23" s="0"/>
       <c r="N23" s="0"/>
@@ -876,42 +886,42 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C24" s="12" t="n">
         <v>300</v>
       </c>
       <c r="D24" s="1" t="n">
-        <v>17127</v>
+        <v>17669</v>
       </c>
       <c r="E24" s="12" t="n">
         <f aca="false">D24/60.48</f>
-        <v>283.184523809524</v>
+        <v>292.146164021164</v>
       </c>
       <c r="F24" s="12" t="n">
-        <v>604</v>
+        <v>542</v>
       </c>
       <c r="G24" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H24" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,G24)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I24" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J24" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,I24)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K24" s="13" t="n">
         <f aca="false">$B$22+1</f>
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="L24" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K24,G24)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M24" s="0"/>
       <c r="N24" s="0"/>
@@ -921,42 +931,42 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C25" s="12" t="n">
         <v>230</v>
       </c>
       <c r="D25" s="1" t="n">
-        <v>14045</v>
+        <v>14792</v>
       </c>
       <c r="E25" s="12" t="n">
         <f aca="false">D25/46.75</f>
-        <v>300.427807486631</v>
+        <v>316.406417112299</v>
       </c>
       <c r="F25" s="12" t="n">
-        <v>704</v>
+        <v>747</v>
       </c>
       <c r="G25" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H25" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,G25)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I25" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J25" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,I25)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K25" s="13" t="n">
         <f aca="false">$B$22+1</f>
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="L25" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K25,G25)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M25" s="0"/>
       <c r="N25" s="0"/>
@@ -966,42 +976,42 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C26" s="12" t="n">
         <v>330</v>
       </c>
       <c r="D26" s="1" t="n">
-        <v>10328</v>
+        <v>10869</v>
       </c>
       <c r="E26" s="12" t="n">
         <f aca="false">D26/65.27</f>
-        <v>158.23502374751</v>
+        <v>166.52367090547</v>
       </c>
       <c r="F26" s="12" t="n">
-        <v>1417</v>
+        <v>541</v>
       </c>
       <c r="G26" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H26" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,G26)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I26" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J26" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,I26)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K26" s="13" t="n">
         <f aca="false">$B$22+1</f>
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="L26" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K26,G26)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M26" s="0"/>
       <c r="N26" s="0"/>
@@ -1011,42 +1021,42 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C27" s="12" t="n">
         <v>50</v>
       </c>
       <c r="D27" s="12" t="n">
-        <v>591</v>
+        <v>687</v>
       </c>
       <c r="E27" s="12" t="n">
         <f aca="false">D27/10.36</f>
-        <v>57.0463320463321</v>
+        <v>66.3127413127413</v>
       </c>
       <c r="F27" s="12" t="n">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="G27" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H27" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,G27)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I27" s="13" t="n">
         <v>43928</v>
       </c>
       <c r="J27" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,I27)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" s="13" t="n">
         <f aca="false">$B$22+1</f>
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="L27" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K27,G27)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M27" s="0"/>
       <c r="N27" s="0"/>
@@ -1056,42 +1066,42 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C28" s="12" t="n">
         <v>330</v>
       </c>
       <c r="D28" s="1" t="n">
-        <v>6159</v>
+        <v>7097</v>
       </c>
       <c r="E28" s="12" t="n">
         <f aca="false">D28/67.79</f>
-        <v>90.8541082755569</v>
+        <v>104.690957368343</v>
       </c>
       <c r="F28" s="12" t="n">
-        <v>786</v>
+        <v>938</v>
       </c>
       <c r="G28" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H28" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,G28)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I28" s="13" t="n">
         <v>43919</v>
       </c>
       <c r="J28" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,I28)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K28" s="13" t="n">
         <f aca="false">$B$22+1</f>
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="L28" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K28,G28)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M28" s="0"/>
       <c r="N28" s="0"/>
@@ -1101,42 +1111,42 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C29" s="12" t="n">
         <v>1660</v>
       </c>
       <c r="D29" s="1" t="n">
-        <v>12481</v>
+        <v>14788</v>
       </c>
       <c r="E29" s="12" t="n">
         <f aca="false">D29/331</f>
-        <v>37.7069486404834</v>
+        <v>44.6767371601209</v>
       </c>
       <c r="F29" s="12" t="n">
-        <v>1970</v>
+        <v>1940</v>
       </c>
       <c r="G29" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H29" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,G29)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I29" s="13" t="n">
         <v>43921</v>
       </c>
       <c r="J29" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,I29)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K29" s="13" t="n">
         <f aca="false">$B$22+1</f>
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="L29" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K29,G29)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M29" s="0"/>
       <c r="N29" s="0"/>
@@ -1146,42 +1156,42 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C30" s="12" t="n">
         <v>414</v>
       </c>
       <c r="D30" s="1" t="n">
-        <v>2016</v>
+        <v>2349</v>
       </c>
       <c r="E30" s="12" t="n">
         <f aca="false">D30/83.784</f>
-        <v>24.0618733887138</v>
+        <v>28.0363792609567</v>
       </c>
       <c r="F30" s="12" t="n">
-        <v>206</v>
+        <v>333</v>
       </c>
       <c r="G30" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H30" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,G30)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I30" s="13" t="n">
         <v>43920</v>
       </c>
       <c r="J30" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,I30)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K30" s="13" t="n">
         <f aca="false">$B$22+1</f>
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="L30" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K30,G30)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M30" s="0"/>
       <c r="N30" s="0"/>
@@ -1227,7 +1237,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D33" s="0"/>
       <c r="E33" s="0"/>
@@ -1246,30 +1256,30 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="7" t="n">
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="D34" s="0"/>
       <c r="E34" s="8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F34" s="0"/>
       <c r="G34" s="8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J34" s="8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K34" s="8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L34" s="8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M34" s="0"/>
       <c r="N34" s="0"/>
@@ -1280,34 +1290,34 @@
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="9"/>
       <c r="C35" s="10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I35" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="J35" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K35" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="J35" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="K35" s="8" t="s">
-        <v>41</v>
-      </c>
       <c r="L35" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M35" s="0"/>
       <c r="N35" s="0"/>
@@ -1317,42 +1327,42 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C36" s="12" t="n">
         <v>300</v>
       </c>
       <c r="D36" s="1" t="n">
-        <v>16523</v>
+        <v>17127</v>
       </c>
       <c r="E36" s="12" t="n">
         <f aca="false">D36/60.48</f>
-        <v>273.197751322751</v>
+        <v>283.184523809524</v>
       </c>
       <c r="F36" s="12" t="n">
-        <v>636</v>
+        <v>604</v>
       </c>
       <c r="G36" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H36" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,G36)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I36" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J36" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,I36)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K36" s="13" t="n">
         <f aca="false">$B$34+1</f>
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="L36" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K36,G36)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M36" s="0"/>
       <c r="N36" s="0"/>
@@ -1362,42 +1372,42 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C37" s="12" t="n">
         <v>230</v>
       </c>
       <c r="D37" s="1" t="n">
-        <v>13341</v>
+        <v>14045</v>
       </c>
       <c r="E37" s="12" t="n">
         <f aca="false">D37/46.75</f>
-        <v>285.368983957219</v>
+        <v>300.427807486631</v>
       </c>
       <c r="F37" s="12" t="n">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="G37" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H37" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,G37)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I37" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J37" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,I37)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K37" s="13" t="n">
         <f aca="false">$B$34+1</f>
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="L37" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K37,G37)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M37" s="0"/>
       <c r="N37" s="0"/>
@@ -1407,42 +1417,42 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C38" s="12" t="n">
         <v>330</v>
       </c>
       <c r="D38" s="1" t="n">
-        <v>8911</v>
+        <v>10328</v>
       </c>
       <c r="E38" s="12" t="n">
         <f aca="false">D38/65.27</f>
-        <v>136.525203002911</v>
+        <v>158.23502374751</v>
       </c>
       <c r="F38" s="12" t="n">
-        <v>833</v>
+        <v>1417</v>
       </c>
       <c r="G38" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H38" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,G38)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I38" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J38" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,I38)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K38" s="13" t="n">
         <f aca="false">$B$34+1</f>
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="L38" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K38,G38)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M38" s="0"/>
       <c r="N38" s="0"/>
@@ -1452,43 +1462,42 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C39" s="12" t="n">
         <v>50</v>
       </c>
       <c r="D39" s="12" t="n">
-        <v>477</v>
+        <v>591</v>
       </c>
       <c r="E39" s="12" t="n">
         <f aca="false">D39/10.36</f>
-        <v>46.042471042471</v>
+        <v>57.0463320463321</v>
       </c>
       <c r="F39" s="12" t="n">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="G39" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H39" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,G39)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I39" s="13" t="n">
-        <f aca="false">$B$34+1</f>
         <v>43928</v>
       </c>
       <c r="J39" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,I39)</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K39" s="13" t="n">
         <f aca="false">$B$34+1</f>
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="L39" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K39,G39)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M39" s="0"/>
       <c r="N39" s="0"/>
@@ -1498,43 +1507,42 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C40" s="12" t="n">
         <v>330</v>
       </c>
       <c r="D40" s="1" t="n">
-        <v>5373</v>
+        <v>6159</v>
       </c>
       <c r="E40" s="12" t="n">
         <f aca="false">D40/67.79</f>
-        <v>79.2594777990854</v>
+        <v>90.8541082755569</v>
       </c>
       <c r="F40" s="12" t="n">
-        <v>439</v>
+        <v>786</v>
       </c>
       <c r="G40" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H40" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,G40)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I40" s="13" t="n">
-        <f aca="false">$B$34+1</f>
-        <v>43928</v>
+        <v>43919</v>
       </c>
       <c r="J40" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,I40)</f>
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K40" s="13" t="n">
         <f aca="false">$B$34+1</f>
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="L40" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K40,G40)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M40" s="0"/>
       <c r="N40" s="0"/>
@@ -1544,43 +1552,42 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C41" s="12" t="n">
         <v>1660</v>
       </c>
       <c r="D41" s="1" t="n">
-        <v>10871</v>
+        <v>12848</v>
       </c>
       <c r="E41" s="12" t="n">
         <f aca="false">D41/331</f>
-        <v>32.8429003021148</v>
+        <v>38.8157099697885</v>
       </c>
       <c r="F41" s="12" t="n">
-        <v>1255</v>
+        <v>1970</v>
       </c>
       <c r="G41" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H41" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,G41)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I41" s="13" t="n">
-        <f aca="false">$B$34+1</f>
-        <v>43928</v>
+        <v>43921</v>
       </c>
       <c r="J41" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,I41)</f>
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K41" s="13" t="n">
         <f aca="false">$B$34+1</f>
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="L41" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K41,G41)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M41" s="0"/>
       <c r="N41" s="0"/>
@@ -1590,43 +1597,42 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C42" s="12" t="n">
         <v>414</v>
       </c>
       <c r="D42" s="1" t="n">
-        <v>1810</v>
+        <v>2016</v>
       </c>
       <c r="E42" s="12" t="n">
         <f aca="false">D42/83.784</f>
-        <v>21.6031700563353</v>
+        <v>24.0618733887138</v>
       </c>
       <c r="F42" s="12" t="n">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="G42" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H42" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,G42)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I42" s="13" t="n">
-        <f aca="false">$B$34+1</f>
-        <v>43928</v>
+        <v>43920</v>
       </c>
       <c r="J42" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,I42)</f>
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K42" s="13" t="n">
         <f aca="false">$B$34+1</f>
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="L42" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K42,G42)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M42" s="0"/>
       <c r="N42" s="0"/>
@@ -1672,7 +1678,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D45" s="0"/>
       <c r="E45" s="0"/>
@@ -1691,30 +1697,30 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="7" t="n">
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="D46" s="0"/>
       <c r="E46" s="8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F46" s="0"/>
       <c r="G46" s="8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H46" s="8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J46" s="8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K46" s="8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L46" s="8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M46" s="0"/>
       <c r="N46" s="0"/>
@@ -1725,34 +1731,34 @@
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="9"/>
       <c r="C47" s="10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I47" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="J47" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K47" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="J47" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="K47" s="8" t="s">
-        <v>41</v>
-      </c>
       <c r="L47" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M47" s="0"/>
       <c r="N47" s="0"/>
@@ -1762,42 +1768,42 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C48" s="12" t="n">
         <v>300</v>
       </c>
       <c r="D48" s="1" t="n">
-        <v>15887</v>
+        <v>16523</v>
       </c>
       <c r="E48" s="12" t="n">
         <f aca="false">D48/60.48</f>
-        <v>262.681878306878</v>
+        <v>273.197751322751</v>
       </c>
       <c r="F48" s="12" t="n">
-        <v>525</v>
+        <v>636</v>
       </c>
       <c r="G48" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H48" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,G48)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I48" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J48" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,I48)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K48" s="13" t="n">
         <f aca="false">$B$46+1</f>
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="L48" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K48,G48)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M48" s="0"/>
       <c r="N48" s="0"/>
@@ -1807,42 +1813,42 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C49" s="12" t="n">
         <v>230</v>
       </c>
       <c r="D49" s="1" t="n">
-        <v>12641</v>
+        <v>13341</v>
       </c>
       <c r="E49" s="12" t="n">
         <f aca="false">D49/46.75</f>
-        <v>270.395721925134</v>
+        <v>285.368983957219</v>
       </c>
       <c r="F49" s="12" t="n">
-        <v>694</v>
+        <v>700</v>
       </c>
       <c r="G49" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H49" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,G49)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I49" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J49" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,I49)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K49" s="13" t="n">
         <f aca="false">$B$46+1</f>
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="L49" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K49,G49)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M49" s="0"/>
       <c r="N49" s="0"/>
@@ -1852,42 +1858,42 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C50" s="12" t="n">
         <v>330</v>
       </c>
       <c r="D50" s="1" t="n">
-        <v>8078</v>
+        <v>8911</v>
       </c>
       <c r="E50" s="12" t="n">
         <f aca="false">D50/65.27</f>
-        <v>123.762831316072</v>
+        <v>136.525203002911</v>
       </c>
       <c r="F50" s="12" t="n">
-        <v>518</v>
+        <v>833</v>
       </c>
       <c r="G50" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H50" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,G50)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I50" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J50" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,I50)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K50" s="13" t="n">
         <f aca="false">$B$46+1</f>
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="L50" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K50,G50)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M50" s="0"/>
       <c r="N50" s="0"/>
@@ -1897,31 +1903,31 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C51" s="12" t="n">
         <v>50</v>
       </c>
       <c r="D51" s="12" t="n">
-        <v>401</v>
+        <v>477</v>
       </c>
       <c r="E51" s="12" t="n">
         <f aca="false">D51/10.36</f>
-        <v>38.7065637065637</v>
+        <v>46.042471042471</v>
       </c>
       <c r="F51" s="12" t="n">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="G51" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H51" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,G51)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I51" s="13" t="n">
         <f aca="false">$B$46+1</f>
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="J51" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,I51)</f>
@@ -1929,11 +1935,11 @@
       </c>
       <c r="K51" s="13" t="n">
         <f aca="false">$B$46+1</f>
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="L51" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K51,G51)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M51" s="0"/>
       <c r="N51" s="0"/>
@@ -1943,31 +1949,31 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C52" s="12" t="n">
         <v>330</v>
       </c>
       <c r="D52" s="1" t="n">
-        <v>4934</v>
+        <v>5373</v>
       </c>
       <c r="E52" s="12" t="n">
         <f aca="false">D52/67.79</f>
-        <v>72.7835964006491</v>
+        <v>79.2594777990854</v>
       </c>
       <c r="F52" s="12" t="n">
-        <v>621</v>
+        <v>439</v>
       </c>
       <c r="G52" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H52" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,G52)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I52" s="13" t="n">
         <f aca="false">$B$46+1</f>
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="J52" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,I52)</f>
@@ -1975,11 +1981,11 @@
       </c>
       <c r="K52" s="13" t="n">
         <f aca="false">$B$46+1</f>
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="L52" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K52,G52)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M52" s="0"/>
       <c r="N52" s="0"/>
@@ -1989,31 +1995,31 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C53" s="12" t="n">
         <v>1660</v>
       </c>
       <c r="D53" s="1" t="n">
-        <v>9616</v>
+        <v>10871</v>
       </c>
       <c r="E53" s="12" t="n">
         <f aca="false">D53/331</f>
-        <v>29.0513595166163</v>
+        <v>32.8429003021148</v>
       </c>
       <c r="F53" s="12" t="n">
-        <v>1165</v>
+        <v>1255</v>
       </c>
       <c r="G53" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H53" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,G53)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I53" s="13" t="n">
         <f aca="false">$B$46+1</f>
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="J53" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,I53)</f>
@@ -2021,11 +2027,11 @@
       </c>
       <c r="K53" s="13" t="n">
         <f aca="false">$B$46+1</f>
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="L53" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K53,G53)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M53" s="0"/>
       <c r="N53" s="0"/>
@@ -2035,31 +2041,31 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C54" s="12" t="n">
         <v>414</v>
       </c>
       <c r="D54" s="1" t="n">
-        <v>1584</v>
+        <v>1810</v>
       </c>
       <c r="E54" s="12" t="n">
         <f aca="false">D54/83.784</f>
-        <v>18.9057576625609</v>
+        <v>21.6031700563353</v>
       </c>
       <c r="F54" s="12" t="n">
-        <v>140</v>
+        <v>226</v>
       </c>
       <c r="G54" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H54" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,G54)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I54" s="13" t="n">
         <f aca="false">$B$46+1</f>
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="J54" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,I54)</f>
@@ -2067,11 +2073,11 @@
       </c>
       <c r="K54" s="13" t="n">
         <f aca="false">$B$46+1</f>
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="L54" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K54,G54)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M54" s="0"/>
       <c r="N54" s="0"/>
@@ -2117,7 +2123,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D57" s="0"/>
       <c r="E57" s="0"/>
@@ -2136,30 +2142,30 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="7" t="n">
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="D58" s="0"/>
       <c r="E58" s="8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F58" s="0"/>
       <c r="G58" s="8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H58" s="8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I58" s="8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J58" s="8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K58" s="8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L58" s="8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M58" s="0"/>
       <c r="N58" s="0"/>
@@ -2170,34 +2176,34 @@
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="9"/>
       <c r="C59" s="10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G59" s="11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H59" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I59" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="J59" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K59" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="J59" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="K59" s="8" t="s">
-        <v>41</v>
-      </c>
       <c r="L59" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M59" s="0"/>
       <c r="N59" s="0"/>
@@ -2207,42 +2213,42 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C60" s="12" t="n">
         <v>300</v>
       </c>
       <c r="D60" s="1" t="n">
-        <v>15362</v>
+        <v>15887</v>
       </c>
       <c r="E60" s="12" t="n">
         <f aca="false">D60/60.48</f>
-        <v>254.001322751323</v>
+        <v>262.681878306878</v>
       </c>
       <c r="F60" s="12" t="n">
-        <v>681</v>
+        <v>525</v>
       </c>
       <c r="G60" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H60" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,G60)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I60" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J60" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,I60)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K60" s="13" t="n">
         <f aca="false">$B$58+1</f>
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="L60" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K60,G60)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M60" s="0"/>
       <c r="N60" s="0"/>
@@ -2252,42 +2258,42 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C61" s="12" t="n">
         <v>230</v>
       </c>
       <c r="D61" s="1" t="n">
-        <v>11947</v>
+        <v>12641</v>
       </c>
       <c r="E61" s="12" t="n">
         <f aca="false">D61/46.75</f>
-        <v>255.550802139037</v>
+        <v>270.395721925134</v>
       </c>
       <c r="F61" s="12" t="n">
-        <v>749</v>
+        <v>694</v>
       </c>
       <c r="G61" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H61" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,G61)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I61" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J61" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,I61)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K61" s="13" t="n">
         <f aca="false">$B$58+1</f>
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="L61" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K61,G61)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M61" s="0"/>
       <c r="N61" s="0"/>
@@ -2297,42 +2303,42 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C62" s="12" t="n">
         <v>330</v>
       </c>
       <c r="D62" s="1" t="n">
-        <v>7560</v>
+        <v>8078</v>
       </c>
       <c r="E62" s="12" t="n">
         <f aca="false">D62/65.27</f>
-        <v>115.826566569634</v>
+        <v>123.762831316072</v>
       </c>
       <c r="F62" s="12" t="n">
-        <v>1053</v>
+        <v>518</v>
       </c>
       <c r="G62" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H62" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,G62)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I62" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J62" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,I62)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K62" s="13" t="n">
         <f aca="false">$B$58+1</f>
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="L62" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K62,G62)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M62" s="0"/>
       <c r="N62" s="0"/>
@@ -2342,31 +2348,31 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C63" s="12" t="n">
         <v>50</v>
       </c>
       <c r="D63" s="12" t="n">
-        <v>373</v>
+        <v>401</v>
       </c>
       <c r="E63" s="12" t="n">
         <f aca="false">D63/10.36</f>
-        <v>36.003861003861</v>
+        <v>38.7065637065637</v>
       </c>
       <c r="F63" s="12" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="G63" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H63" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,G63)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I63" s="13" t="n">
         <f aca="false">$B$58+1</f>
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="J63" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,I63)</f>
@@ -2374,11 +2380,11 @@
       </c>
       <c r="K63" s="13" t="n">
         <f aca="false">$B$58+1</f>
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="L63" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K63,G63)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M63" s="0"/>
       <c r="N63" s="0"/>
@@ -2388,31 +2394,31 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C64" s="12" t="n">
         <v>330</v>
       </c>
       <c r="D64" s="1" t="n">
-        <v>4313</v>
+        <v>4934</v>
       </c>
       <c r="E64" s="12" t="n">
         <f aca="false">D64/67.79</f>
-        <v>63.6229532379407</v>
+        <v>72.7835964006491</v>
       </c>
       <c r="F64" s="12" t="n">
-        <v>708</v>
+        <v>621</v>
       </c>
       <c r="G64" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H64" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,G64)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I64" s="13" t="n">
         <f aca="false">$B$58+1</f>
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="J64" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,I64)</f>
@@ -2420,11 +2426,11 @@
       </c>
       <c r="K64" s="13" t="n">
         <f aca="false">$B$58+1</f>
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="L64" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K64,G64)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M64" s="0"/>
       <c r="N64" s="0"/>
@@ -2434,31 +2440,31 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C65" s="12" t="n">
         <v>1660</v>
       </c>
       <c r="D65" s="1" t="n">
-        <v>8451</v>
+        <v>9616</v>
       </c>
       <c r="E65" s="12" t="n">
         <f aca="false">D65/331</f>
-        <v>25.5317220543807</v>
+        <v>29.0513595166163</v>
       </c>
       <c r="F65" s="12" t="n">
-        <v>1330</v>
+        <v>1165</v>
       </c>
       <c r="G65" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H65" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,G65)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I65" s="13" t="n">
         <f aca="false">$B$58+1</f>
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="J65" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,I65)</f>
@@ -2466,11 +2472,11 @@
       </c>
       <c r="K65" s="13" t="n">
         <f aca="false">$B$58+1</f>
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="L65" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K65,G65)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M65" s="0"/>
       <c r="N65" s="0"/>
@@ -2480,31 +2486,31 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C66" s="12" t="n">
         <v>414</v>
       </c>
       <c r="D66" s="1" t="n">
-        <v>1444</v>
+        <v>1584</v>
       </c>
       <c r="E66" s="12" t="n">
         <f aca="false">D66/83.784</f>
-        <v>17.2347942327891</v>
+        <v>18.9057576625609</v>
       </c>
       <c r="F66" s="12" t="n">
-        <v>169</v>
+        <v>140</v>
       </c>
       <c r="G66" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H66" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,G66)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I66" s="13" t="n">
         <f aca="false">$B$58+1</f>
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="J66" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,I66)</f>
@@ -2512,11 +2518,11 @@
       </c>
       <c r="K66" s="13" t="n">
         <f aca="false">$B$58+1</f>
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="L66" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K66,G66)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M66" s="0"/>
       <c r="N66" s="0"/>
@@ -2562,7 +2568,7 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D69" s="0"/>
       <c r="E69" s="0"/>
@@ -2581,30 +2587,30 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="7" t="n">
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="D70" s="0"/>
       <c r="E70" s="8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F70" s="0"/>
       <c r="G70" s="8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H70" s="8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I70" s="8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J70" s="8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K70" s="8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L70" s="8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M70" s="0"/>
       <c r="N70" s="0"/>
@@ -2615,34 +2621,34 @@
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="9"/>
       <c r="C71" s="10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F71" s="10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G71" s="11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H71" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I71" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="J71" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K71" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="J71" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="K71" s="8" t="s">
-        <v>41</v>
-      </c>
       <c r="L71" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M71" s="0"/>
       <c r="N71" s="0"/>
@@ -2652,42 +2658,42 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C72" s="12" t="n">
         <v>300</v>
       </c>
       <c r="D72" s="1" t="n">
-        <v>14681</v>
+        <v>15362</v>
       </c>
       <c r="E72" s="12" t="n">
         <f aca="false">D72/60.48</f>
-        <v>242.741402116402</v>
+        <v>254.001322751323</v>
       </c>
       <c r="F72" s="12" t="n">
-        <v>766</v>
+        <v>681</v>
       </c>
       <c r="G72" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H72" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,G72)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I72" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J72" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,I72)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K72" s="13" t="n">
         <f aca="false">$B$70+1</f>
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="L72" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K72,G72)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M72" s="0"/>
       <c r="N72" s="0"/>
@@ -2697,42 +2703,42 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C73" s="12" t="n">
         <v>230</v>
       </c>
       <c r="D73" s="1" t="n">
-        <v>11198</v>
+        <v>11947</v>
       </c>
       <c r="E73" s="12" t="n">
         <f aca="false">D73/46.75</f>
-        <v>239.529411764706</v>
+        <v>255.550802139037</v>
       </c>
       <c r="F73" s="12" t="n">
-        <v>850</v>
+        <v>749</v>
       </c>
       <c r="G73" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H73" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$82,G73)</f>
-        <v>16</v>
+        <f aca="false">_xlfn.DAYS($B$70,G73)</f>
+        <v>18</v>
       </c>
       <c r="I73" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J73" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,I73)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K73" s="13" t="n">
         <f aca="false">$B$70+1</f>
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="L73" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K73,G73)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M73" s="0"/>
       <c r="N73" s="0"/>
@@ -2742,42 +2748,42 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C74" s="12" t="n">
         <v>330</v>
       </c>
       <c r="D74" s="1" t="n">
-        <v>6507</v>
+        <v>7560</v>
       </c>
       <c r="E74" s="12" t="n">
         <f aca="false">D74/65.27</f>
-        <v>99.6935805117206</v>
+        <v>115.826566569634</v>
       </c>
       <c r="F74" s="12" t="n">
-        <v>1120</v>
+        <v>1053</v>
       </c>
       <c r="G74" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H74" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$82,G74)</f>
-        <v>11</v>
+        <f aca="false">_xlfn.DAYS($B$70,G74)</f>
+        <v>13</v>
       </c>
       <c r="I74" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J74" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,I74)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K74" s="13" t="n">
         <f aca="false">$B$70+1</f>
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="L74" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K74,G74)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M74" s="0"/>
       <c r="N74" s="0"/>
@@ -2787,31 +2793,31 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C75" s="12" t="n">
         <v>50</v>
       </c>
       <c r="D75" s="12" t="n">
-        <v>358</v>
+        <v>373</v>
       </c>
       <c r="E75" s="12" t="n">
         <f aca="false">D75/10.36</f>
-        <v>34.5559845559846</v>
+        <v>36.003861003861</v>
       </c>
       <c r="F75" s="12" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="G75" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H75" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$82,G75)</f>
-        <v>8</v>
+        <f aca="false">_xlfn.DAYS($B$70,G75)</f>
+        <v>10</v>
       </c>
       <c r="I75" s="13" t="n">
         <f aca="false">$B$70+1</f>
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="J75" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,I75)</f>
@@ -2819,11 +2825,11 @@
       </c>
       <c r="K75" s="13" t="n">
         <f aca="false">$B$70+1</f>
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="L75" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K75,G75)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M75" s="0"/>
       <c r="N75" s="0"/>
@@ -2833,31 +2839,31 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C76" s="12" t="n">
         <v>330</v>
       </c>
       <c r="D76" s="1" t="n">
-        <v>3605</v>
+        <v>4313</v>
       </c>
       <c r="E76" s="12" t="n">
         <f aca="false">D76/67.79</f>
-        <v>53.1789349461573</v>
+        <v>63.6229532379407</v>
       </c>
       <c r="F76" s="12" t="n">
-        <v>684</v>
+        <v>708</v>
       </c>
       <c r="G76" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H76" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$82,G76)</f>
-        <v>7</v>
+        <f aca="false">_xlfn.DAYS($B$70,G76)</f>
+        <v>9</v>
       </c>
       <c r="I76" s="13" t="n">
         <f aca="false">$B$70+1</f>
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="J76" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,I76)</f>
@@ -2865,11 +2871,11 @@
       </c>
       <c r="K76" s="13" t="n">
         <f aca="false">$B$70+1</f>
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="L76" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K76,G76)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M76" s="0"/>
       <c r="N76" s="0"/>
@@ -2879,31 +2885,31 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C77" s="12" t="n">
         <v>1660</v>
       </c>
       <c r="D77" s="1" t="n">
-        <v>7121</v>
+        <v>8451</v>
       </c>
       <c r="E77" s="12" t="n">
         <f aca="false">D77/331</f>
-        <v>21.5135951661631</v>
+        <v>25.5317220543807</v>
       </c>
       <c r="F77" s="12" t="n">
-        <v>1045</v>
+        <v>1330</v>
       </c>
       <c r="G77" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H77" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$82,G77)</f>
-        <v>6</v>
+        <f aca="false">_xlfn.DAYS($B$70,G77)</f>
+        <v>8</v>
       </c>
       <c r="I77" s="13" t="n">
         <f aca="false">$B$70+1</f>
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="J77" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,I77)</f>
@@ -2911,11 +2917,11 @@
       </c>
       <c r="K77" s="13" t="n">
         <f aca="false">$B$70+1</f>
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="L77" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K77,G77)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M77" s="0"/>
       <c r="N77" s="0"/>
@@ -2925,31 +2931,31 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C78" s="12" t="n">
         <v>414</v>
       </c>
       <c r="D78" s="1" t="n">
-        <v>1275</v>
+        <v>1444</v>
       </c>
       <c r="E78" s="12" t="n">
         <f aca="false">D78/83.784</f>
-        <v>15.2177026639931</v>
+        <v>17.2347942327891</v>
       </c>
       <c r="F78" s="12" t="n">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G78" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H78" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$82,G78)</f>
-        <v>5</v>
+        <f aca="false">_xlfn.DAYS($B$70,G78)</f>
+        <v>7</v>
       </c>
       <c r="I78" s="13" t="n">
         <f aca="false">$B$70+1</f>
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="J78" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,I78)</f>
@@ -2957,11 +2963,11 @@
       </c>
       <c r="K78" s="13" t="n">
         <f aca="false">$B$70+1</f>
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="L78" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K78,G78)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M78" s="0"/>
       <c r="N78" s="0"/>
@@ -3007,7 +3013,7 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D81" s="0"/>
       <c r="E81" s="0"/>
@@ -3026,30 +3032,30 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="7" t="n">
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="D82" s="0"/>
       <c r="E82" s="8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F82" s="0"/>
       <c r="G82" s="8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H82" s="8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I82" s="8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J82" s="8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K82" s="8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L82" s="8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M82" s="0"/>
       <c r="N82" s="0"/>
@@ -3060,34 +3066,34 @@
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="9"/>
       <c r="C83" s="10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E83" s="10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F83" s="10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G83" s="11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H83" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I83" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="J83" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K83" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="J83" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="K83" s="8" t="s">
-        <v>41</v>
-      </c>
       <c r="L83" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M83" s="0"/>
       <c r="N83" s="0"/>
@@ -3097,42 +3103,42 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C84" s="12" t="n">
         <v>300</v>
       </c>
       <c r="D84" s="1" t="n">
-        <v>13915</v>
+        <v>14681</v>
       </c>
       <c r="E84" s="12" t="n">
         <f aca="false">D84/60.48</f>
-        <v>230.076058201058</v>
+        <v>242.741402116402</v>
       </c>
       <c r="F84" s="12" t="n">
-        <v>760</v>
+        <v>766</v>
       </c>
       <c r="G84" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H84" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,G84)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I84" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J84" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,I84)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K84" s="13" t="n">
         <f aca="false">$B$82+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="L84" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K84,G84)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M84" s="0"/>
       <c r="N84" s="0"/>
@@ -3142,26 +3148,26 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C85" s="12" t="n">
         <v>230</v>
       </c>
       <c r="D85" s="1" t="n">
-        <v>10348</v>
+        <v>11198</v>
       </c>
       <c r="E85" s="12" t="n">
         <f aca="false">D85/46.75</f>
-        <v>221.347593582888</v>
+        <v>239.529411764706</v>
       </c>
       <c r="F85" s="12" t="n">
-        <v>961</v>
+        <v>850</v>
       </c>
       <c r="G85" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H85" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$82,G85)</f>
+        <f aca="false">_xlfn.DAYS($B$94,G85)</f>
         <v>16</v>
       </c>
       <c r="I85" s="13" t="n">
@@ -3169,15 +3175,15 @@
       </c>
       <c r="J85" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,I85)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K85" s="13" t="n">
         <f aca="false">$B$82+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="L85" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K85,G85)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M85" s="0"/>
       <c r="N85" s="0"/>
@@ -3187,26 +3193,26 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C86" s="12" t="n">
         <v>330</v>
       </c>
       <c r="D86" s="1" t="n">
-        <v>5387</v>
+        <v>6507</v>
       </c>
       <c r="E86" s="12" t="n">
         <f aca="false">D86/65.27</f>
-        <v>82.5340891680711</v>
+        <v>99.6935805117206</v>
       </c>
       <c r="F86" s="12" t="n">
-        <v>1355</v>
+        <v>1120</v>
       </c>
       <c r="G86" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H86" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$82,G86)</f>
+        <f aca="false">_xlfn.DAYS($B$94,G86)</f>
         <v>11</v>
       </c>
       <c r="I86" s="13" t="n">
@@ -3214,15 +3220,15 @@
       </c>
       <c r="J86" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,I86)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K86" s="13" t="n">
         <f aca="false">$B$82+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="L86" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K86,G86)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M86" s="0"/>
       <c r="N86" s="0"/>
@@ -3232,31 +3238,31 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C87" s="12" t="n">
         <v>50</v>
       </c>
       <c r="D87" s="12" t="n">
-        <v>308</v>
+        <v>358</v>
       </c>
       <c r="E87" s="12" t="n">
         <f aca="false">D87/10.36</f>
-        <v>29.7297297297297</v>
+        <v>34.5559845559846</v>
       </c>
       <c r="F87" s="12" t="n">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="G87" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H87" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$82,G87)</f>
+        <f aca="false">_xlfn.DAYS($B$94,G87)</f>
         <v>8</v>
       </c>
       <c r="I87" s="13" t="n">
         <f aca="false">$B$82+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="J87" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,I87)</f>
@@ -3264,11 +3270,11 @@
       </c>
       <c r="K87" s="13" t="n">
         <f aca="false">$B$82+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="L87" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K87,G87)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M87" s="0"/>
       <c r="N87" s="0"/>
@@ -3278,31 +3284,31 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C88" s="12" t="n">
         <v>330</v>
       </c>
       <c r="D88" s="1" t="n">
-        <v>2921</v>
+        <v>3605</v>
       </c>
       <c r="E88" s="12" t="n">
         <f aca="false">D88/67.79</f>
-        <v>43.0889511727393</v>
+        <v>53.1789349461573</v>
       </c>
       <c r="F88" s="12" t="n">
-        <v>569</v>
+        <v>684</v>
       </c>
       <c r="G88" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H88" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$82,G88)</f>
+        <f aca="false">_xlfn.DAYS($B$94,G88)</f>
         <v>7</v>
       </c>
       <c r="I88" s="13" t="n">
         <f aca="false">$B$82+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="J88" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,I88)</f>
@@ -3310,11 +3316,11 @@
       </c>
       <c r="K88" s="13" t="n">
         <f aca="false">$B$82+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="L88" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K88,G88)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M88" s="0"/>
       <c r="N88" s="0"/>
@@ -3324,31 +3330,31 @@
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C89" s="12" t="n">
         <v>1660</v>
       </c>
       <c r="D89" s="1" t="n">
-        <v>6076</v>
+        <v>7121</v>
       </c>
       <c r="E89" s="12" t="n">
         <f aca="false">D89/331</f>
-        <v>18.3564954682779</v>
+        <v>21.5135951661631</v>
       </c>
       <c r="F89" s="12" t="n">
-        <v>969</v>
+        <v>1045</v>
       </c>
       <c r="G89" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H89" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$82,G89)</f>
+        <f aca="false">_xlfn.DAYS($B$94,G89)</f>
         <v>6</v>
       </c>
       <c r="I89" s="13" t="n">
         <f aca="false">$B$82+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="J89" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,I89)</f>
@@ -3356,11 +3362,11 @@
       </c>
       <c r="K89" s="13" t="n">
         <f aca="false">$B$82+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="L89" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K89,G89)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M89" s="0"/>
       <c r="N89" s="0"/>
@@ -3370,31 +3376,31 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C90" s="12" t="n">
         <v>414</v>
       </c>
       <c r="D90" s="1" t="n">
-        <v>1107</v>
+        <v>1275</v>
       </c>
       <c r="E90" s="12" t="n">
         <f aca="false">D90/83.784</f>
-        <v>13.212546548267</v>
+        <v>15.2177026639931</v>
       </c>
       <c r="F90" s="12" t="n">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="G90" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H90" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$82,G90)</f>
+        <f aca="false">_xlfn.DAYS($B$94,G90)</f>
         <v>5</v>
       </c>
       <c r="I90" s="13" t="n">
         <f aca="false">$B$82+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="J90" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,I90)</f>
@@ -3402,11 +3408,11 @@
       </c>
       <c r="K90" s="13" t="n">
         <f aca="false">$B$82+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="L90" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K90,G90)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M90" s="0"/>
       <c r="N90" s="0"/>
@@ -3452,7 +3458,7 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D93" s="0"/>
       <c r="E93" s="0"/>
@@ -3471,30 +3477,30 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="7" t="n">
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="D94" s="0"/>
       <c r="E94" s="8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F94" s="0"/>
       <c r="G94" s="8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H94" s="8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I94" s="8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J94" s="8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K94" s="8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L94" s="8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M94" s="0"/>
       <c r="N94" s="0"/>
@@ -3505,34 +3511,34 @@
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="9"/>
       <c r="C95" s="10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E95" s="10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F95" s="10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G95" s="11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H95" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I95" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="J95" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K95" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="J95" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="K95" s="8" t="s">
-        <v>41</v>
-      </c>
       <c r="L95" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M95" s="0"/>
       <c r="N95" s="0"/>
@@ -3542,42 +3548,42 @@
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C96" s="12" t="n">
         <v>300</v>
       </c>
       <c r="D96" s="1" t="n">
-        <v>13155</v>
+        <v>13915</v>
       </c>
       <c r="E96" s="12" t="n">
         <f aca="false">D96/60.48</f>
-        <v>217.509920634921</v>
+        <v>230.076058201058</v>
       </c>
       <c r="F96" s="12" t="n">
-        <v>727</v>
+        <v>760</v>
       </c>
       <c r="G96" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H96" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,G96)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I96" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J96" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,I96)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K96" s="13" t="n">
         <f aca="false">$B$94+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="L96" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K96,G96)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M96" s="0"/>
       <c r="N96" s="0"/>
@@ -3587,42 +3593,42 @@
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C97" s="12" t="n">
         <v>230</v>
       </c>
       <c r="D97" s="1" t="n">
-        <v>9387</v>
+        <v>10348</v>
       </c>
       <c r="E97" s="12" t="n">
         <f aca="false">D97/46.75</f>
-        <v>200.791443850267</v>
+        <v>221.347593582888</v>
       </c>
       <c r="F97" s="12" t="n">
-        <v>923</v>
+        <v>961</v>
       </c>
       <c r="G97" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H97" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,G97)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I97" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J97" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,I97)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K97" s="13" t="n">
         <f aca="false">$B$94+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="L97" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K97,G97)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M97" s="0"/>
       <c r="N97" s="0"/>
@@ -3632,42 +3638,42 @@
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C98" s="12" t="n">
         <v>330</v>
       </c>
       <c r="D98" s="1" t="n">
-        <v>4032</v>
+        <v>5387</v>
       </c>
       <c r="E98" s="12" t="n">
         <f aca="false">D98/65.27</f>
-        <v>61.7741688371381</v>
+        <v>82.5340891680711</v>
       </c>
       <c r="F98" s="12" t="n">
-        <v>509</v>
+        <v>1355</v>
       </c>
       <c r="G98" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H98" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,G98)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I98" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J98" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,I98)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K98" s="13" t="n">
         <f aca="false">$B$94+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="L98" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K98,G98)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M98" s="0"/>
       <c r="N98" s="0"/>
@@ -3677,31 +3683,31 @@
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C99" s="12" t="n">
         <v>50</v>
       </c>
       <c r="D99" s="12" t="n">
-        <v>239</v>
+        <v>308</v>
       </c>
       <c r="E99" s="12" t="n">
         <f aca="false">D99/10.36</f>
-        <v>23.0694980694981</v>
+        <v>29.7297297297297</v>
       </c>
       <c r="F99" s="12" t="n">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="G99" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H99" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,G99)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I99" s="13" t="n">
         <f aca="false">$B$94+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="J99" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,I99)</f>
@@ -3709,11 +3715,11 @@
       </c>
       <c r="K99" s="13" t="n">
         <f aca="false">$B$94+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="L99" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K99,G99)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M99" s="0"/>
       <c r="N99" s="0"/>
@@ -3723,31 +3729,31 @@
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C100" s="12" t="n">
         <v>330</v>
       </c>
       <c r="D100" s="1" t="n">
-        <v>2352</v>
+        <v>2921</v>
       </c>
       <c r="E100" s="12" t="n">
         <f aca="false">D100/67.79</f>
-        <v>34.695382799823</v>
+        <v>43.0889511727393</v>
       </c>
       <c r="F100" s="12" t="n">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="G100" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H100" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,G100)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I100" s="13" t="n">
         <f aca="false">$B$94+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="J100" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,I100)</f>
@@ -3755,11 +3761,11 @@
       </c>
       <c r="K100" s="13" t="n">
         <f aca="false">$B$94+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="L100" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K100,G100)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M100" s="0"/>
       <c r="N100" s="0"/>
@@ -3769,31 +3775,31 @@
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B101" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C101" s="12" t="n">
         <v>1660</v>
       </c>
       <c r="D101" s="1" t="n">
-        <v>5102</v>
+        <v>6076</v>
       </c>
       <c r="E101" s="12" t="n">
         <f aca="false">D101/331</f>
-        <v>15.4138972809668</v>
+        <v>18.3564954682779</v>
       </c>
       <c r="F101" s="12" t="n">
-        <v>1049</v>
+        <v>969</v>
       </c>
       <c r="G101" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H101" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,G101)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I101" s="13" t="n">
         <f aca="false">$B$94+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="J101" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,I101)</f>
@@ -3801,11 +3807,11 @@
       </c>
       <c r="K101" s="13" t="n">
         <f aca="false">$B$94+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="L101" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K101,G101)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M101" s="0"/>
       <c r="N101" s="0"/>
@@ -3815,31 +3821,31 @@
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C102" s="12" t="n">
         <v>414</v>
       </c>
       <c r="D102" s="1" t="n">
-        <v>931</v>
+        <v>1107</v>
       </c>
       <c r="E102" s="12" t="n">
         <f aca="false">D102/83.784</f>
-        <v>11.1119068079824</v>
+        <v>13.212546548267</v>
       </c>
       <c r="F102" s="12" t="n">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="G102" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H102" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,G102)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I102" s="13" t="n">
         <f aca="false">$B$94+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="J102" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,I102)</f>
@@ -3847,11 +3853,11 @@
       </c>
       <c r="K102" s="13" t="n">
         <f aca="false">$B$94+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="L102" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K102,G102)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M102" s="0"/>
       <c r="N102" s="0"/>
@@ -3897,7 +3903,7 @@
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B105" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D105" s="0"/>
       <c r="E105" s="0"/>
@@ -3916,30 +3922,30 @@
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="7" t="n">
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="D106" s="0"/>
       <c r="E106" s="8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F106" s="0"/>
       <c r="G106" s="8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H106" s="8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I106" s="8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J106" s="8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K106" s="8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L106" s="8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M106" s="0"/>
       <c r="N106" s="0"/>
@@ -3950,34 +3956,34 @@
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B107" s="9"/>
       <c r="C107" s="10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E107" s="10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F107" s="10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G107" s="11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H107" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I107" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="J107" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K107" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="J107" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="K107" s="8" t="s">
-        <v>41</v>
-      </c>
       <c r="L107" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M107" s="0"/>
       <c r="N107" s="0"/>
@@ -3987,42 +3993,42 @@
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C108" s="12" t="n">
         <v>300</v>
       </c>
       <c r="D108" s="1" t="n">
-        <v>12428</v>
+        <v>13155</v>
       </c>
       <c r="E108" s="12" t="n">
         <f aca="false">D108/60.48</f>
-        <v>205.489417989418</v>
+        <v>217.509920634921</v>
       </c>
       <c r="F108" s="12" t="n">
-        <v>837</v>
+        <v>727</v>
       </c>
       <c r="G108" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H108" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,G108)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I108" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J108" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,I108)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K108" s="13" t="n">
         <f aca="false">$B$106+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="L108" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K108,G108)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M108" s="0"/>
       <c r="N108" s="0"/>
@@ -4032,42 +4038,42 @@
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B109" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C109" s="12" t="n">
         <v>230</v>
       </c>
       <c r="D109" s="1" t="n">
-        <v>8464</v>
+        <v>9387</v>
       </c>
       <c r="E109" s="12" t="n">
         <f aca="false">D109/46.75</f>
-        <v>181.048128342246</v>
+        <v>200.791443850267</v>
       </c>
       <c r="F109" s="12" t="n">
-        <v>748</v>
+        <v>923</v>
       </c>
       <c r="G109" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H109" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,G109)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I109" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J109" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,I109)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K109" s="13" t="n">
         <f aca="false">$B$106+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="L109" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K109,G109)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M109" s="0"/>
       <c r="N109" s="0"/>
@@ -4077,42 +4083,42 @@
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B110" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C110" s="12" t="n">
         <v>330</v>
       </c>
       <c r="D110" s="1" t="n">
-        <v>3523</v>
+        <v>4032</v>
       </c>
       <c r="E110" s="12" t="n">
         <f aca="false">D110/65.27</f>
-        <v>53.9757928604259</v>
+        <v>61.7741688371381</v>
       </c>
       <c r="F110" s="12" t="n">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="G110" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H110" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,G110)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I110" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J110" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,I110)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K110" s="13" t="n">
         <f aca="false">$B$106+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="L110" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K110,G110)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M110" s="0"/>
       <c r="N110" s="0"/>
@@ -4122,31 +4128,31 @@
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B111" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C111" s="12" t="n">
         <v>50</v>
       </c>
       <c r="D111" s="12" t="n">
-        <v>180</v>
+        <v>239</v>
       </c>
       <c r="E111" s="12" t="n">
         <f aca="false">D111/10.36</f>
-        <v>17.3745173745174</v>
+        <v>23.0694980694981</v>
       </c>
       <c r="F111" s="12" t="n">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="G111" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H111" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,G111)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I111" s="13" t="n">
         <f aca="false">$B$106+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="J111" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,I111)</f>
@@ -4154,11 +4160,11 @@
       </c>
       <c r="K111" s="13" t="n">
         <f aca="false">$B$106+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="L111" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K111,G111)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M111" s="0"/>
       <c r="N111" s="0"/>
@@ -4168,31 +4174,31 @@
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B112" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C112" s="12" t="n">
         <v>330</v>
       </c>
       <c r="D112" s="1" t="n">
-        <v>1789</v>
+        <v>2352</v>
       </c>
       <c r="E112" s="12" t="n">
         <f aca="false">D112/67.79</f>
-        <v>26.390323056498</v>
+        <v>34.695382799823</v>
       </c>
       <c r="F112" s="12" t="n">
-        <v>381</v>
+        <v>563</v>
       </c>
       <c r="G112" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H112" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,G112)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I112" s="13" t="n">
         <f aca="false">$B$106+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="J112" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,I112)</f>
@@ -4200,11 +4206,11 @@
       </c>
       <c r="K112" s="13" t="n">
         <f aca="false">$B$106+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="L112" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K112,G112)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M112" s="0"/>
       <c r="N112" s="0"/>
@@ -4214,31 +4220,31 @@
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B113" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C113" s="12" t="n">
         <v>1660</v>
       </c>
       <c r="D113" s="1" t="n">
-        <v>4053</v>
+        <v>5102</v>
       </c>
       <c r="E113" s="12" t="n">
         <f aca="false">D113/331</f>
-        <v>12.2447129909366</v>
+        <v>15.4138972809668</v>
       </c>
       <c r="F113" s="12" t="n">
-        <v>912</v>
+        <v>1049</v>
       </c>
       <c r="G113" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H113" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,G113)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I113" s="13" t="n">
         <f aca="false">$B$106+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="J113" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,I113)</f>
@@ -4246,11 +4252,11 @@
       </c>
       <c r="K113" s="13" t="n">
         <f aca="false">$B$106+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="L113" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K113,G113)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M113" s="0"/>
       <c r="N113" s="0"/>
@@ -4260,31 +4266,31 @@
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B114" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C114" s="12" t="n">
         <v>414</v>
       </c>
       <c r="D114" s="1" t="n">
-        <v>775</v>
+        <v>931</v>
       </c>
       <c r="E114" s="12" t="n">
         <f aca="false">D114/83.784</f>
-        <v>9.24997612909386</v>
+        <v>11.1119068079824</v>
       </c>
       <c r="F114" s="12" t="n">
-        <v>130</v>
+        <v>156</v>
       </c>
       <c r="G114" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H114" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,G114)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I114" s="13" t="n">
         <f aca="false">$B$106+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="J114" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,I114)</f>
@@ -4292,11 +4298,11 @@
       </c>
       <c r="K114" s="13" t="n">
         <f aca="false">$B$106+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="L114" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K114,G114)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M114" s="0"/>
       <c r="N114" s="0"/>
@@ -4305,15 +4311,16 @@
       <c r="Q114" s="0"/>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C115" s="12"/>
+      <c r="B115" s="4"/>
+      <c r="C115" s="5"/>
       <c r="D115" s="0"/>
-      <c r="E115" s="12"/>
-      <c r="F115" s="12"/>
-      <c r="G115" s="13"/>
+      <c r="E115" s="0"/>
+      <c r="F115" s="0"/>
+      <c r="G115" s="0"/>
       <c r="H115" s="0"/>
-      <c r="I115" s="13"/>
+      <c r="I115" s="0"/>
       <c r="J115" s="0"/>
-      <c r="K115" s="13"/>
+      <c r="K115" s="0"/>
       <c r="L115" s="0"/>
       <c r="M115" s="0"/>
       <c r="N115" s="0"/>
@@ -4322,15 +4329,16 @@
       <c r="Q115" s="0"/>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C116" s="12"/>
+      <c r="B116" s="4"/>
+      <c r="C116" s="5"/>
       <c r="D116" s="0"/>
-      <c r="E116" s="12"/>
-      <c r="F116" s="12"/>
-      <c r="G116" s="13"/>
+      <c r="E116" s="0"/>
+      <c r="F116" s="0"/>
+      <c r="G116" s="0"/>
       <c r="H116" s="0"/>
-      <c r="I116" s="13"/>
+      <c r="I116" s="0"/>
       <c r="J116" s="0"/>
-      <c r="K116" s="13"/>
+      <c r="K116" s="0"/>
       <c r="L116" s="0"/>
       <c r="M116" s="0"/>
       <c r="N116" s="0"/>
@@ -4340,7 +4348,7 @@
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B117" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D117" s="0"/>
       <c r="E117" s="0"/>
@@ -4359,29 +4367,31 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B118" s="7" t="n">
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="D118" s="0"/>
       <c r="E118" s="8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F118" s="0"/>
       <c r="G118" s="8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H118" s="8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I118" s="8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J118" s="8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K118" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="L118" s="0"/>
+        <v>38</v>
+      </c>
+      <c r="L118" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="M118" s="0"/>
       <c r="N118" s="0"/>
       <c r="O118" s="0"/>
@@ -4391,33 +4401,35 @@
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B119" s="9"/>
       <c r="C119" s="10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E119" s="10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F119" s="10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G119" s="11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H119" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I119" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="J119" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K119" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="J119" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="K119" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="L119" s="0"/>
+      <c r="L119" s="8" t="s">
+        <v>47</v>
+      </c>
       <c r="M119" s="0"/>
       <c r="N119" s="0"/>
       <c r="O119" s="0"/>
@@ -4426,40 +4438,43 @@
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B120" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C120" s="12" t="n">
         <v>300</v>
       </c>
       <c r="D120" s="1" t="n">
-        <v>11591</v>
+        <v>12428</v>
       </c>
       <c r="E120" s="12" t="n">
         <f aca="false">D120/60.48</f>
-        <v>191.650132275132</v>
+        <v>205.489417989418</v>
       </c>
       <c r="F120" s="12" t="n">
-        <v>812</v>
+        <v>837</v>
       </c>
       <c r="G120" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H120" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$118,G120)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I120" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J120" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$118,I120)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K120" s="13" t="n">
-        <f aca="false">$B$130+1</f>
-        <v>43920</v>
-      </c>
-      <c r="L120" s="0"/>
+        <f aca="false">$B$118+1</f>
+        <v>43922</v>
+      </c>
+      <c r="L120" s="0" t="n">
+        <f aca="false">_xlfn.DAYS(K120,G120)</f>
+        <v>22</v>
+      </c>
       <c r="M120" s="0"/>
       <c r="N120" s="0"/>
       <c r="O120" s="0"/>
@@ -4468,40 +4483,43 @@
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B121" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C121" s="12" t="n">
         <v>230</v>
       </c>
       <c r="D121" s="1" t="n">
-        <v>7716</v>
+        <v>8464</v>
       </c>
       <c r="E121" s="12" t="n">
         <f aca="false">D121/46.75</f>
-        <v>165.048128342246</v>
+        <v>181.048128342246</v>
       </c>
       <c r="F121" s="12" t="n">
-        <v>913</v>
+        <v>748</v>
       </c>
       <c r="G121" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H121" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$118,G121)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I121" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J121" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$118,I121)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K121" s="13" t="n">
-        <f aca="false">$B$130+1</f>
-        <v>43920</v>
-      </c>
-      <c r="L121" s="0"/>
+        <f aca="false">$B$118+1</f>
+        <v>43922</v>
+      </c>
+      <c r="L121" s="0" t="n">
+        <f aca="false">_xlfn.DAYS(K121,G121)</f>
+        <v>15</v>
+      </c>
       <c r="M121" s="0"/>
       <c r="N121" s="0"/>
       <c r="O121" s="0"/>
@@ -4510,40 +4528,43 @@
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B122" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C122" s="12" t="n">
         <v>330</v>
       </c>
       <c r="D122" s="1" t="n">
-        <v>3024</v>
+        <v>3523</v>
       </c>
       <c r="E122" s="12" t="n">
         <f aca="false">D122/65.27</f>
-        <v>46.3306266278535</v>
+        <v>53.9757928604259</v>
       </c>
       <c r="F122" s="12" t="n">
-        <v>418</v>
+        <v>499</v>
       </c>
       <c r="G122" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H122" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$118,G122)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I122" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J122" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$118,I122)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K122" s="13" t="n">
-        <f aca="false">$B$130+1</f>
-        <v>43920</v>
-      </c>
-      <c r="L122" s="0"/>
+        <f aca="false">$B$118+1</f>
+        <v>43922</v>
+      </c>
+      <c r="L122" s="0" t="n">
+        <f aca="false">_xlfn.DAYS(K122,G122)</f>
+        <v>10</v>
+      </c>
       <c r="M122" s="0"/>
       <c r="N122" s="0"/>
       <c r="O122" s="0"/>
@@ -4552,41 +4573,44 @@
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B123" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C123" s="12" t="n">
         <v>50</v>
       </c>
       <c r="D123" s="12" t="n">
-        <v>146</v>
+        <v>180</v>
       </c>
       <c r="E123" s="12" t="n">
         <f aca="false">D123/10.36</f>
-        <v>14.0926640926641</v>
+        <v>17.3745173745174</v>
       </c>
       <c r="F123" s="12" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G123" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H123" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$118,G123)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I123" s="13" t="n">
         <f aca="false">$B$118+1</f>
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="J123" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$118,I123)</f>
         <v>-1</v>
       </c>
       <c r="K123" s="13" t="n">
-        <f aca="false">$B$130+1</f>
-        <v>43920</v>
-      </c>
-      <c r="L123" s="0"/>
+        <f aca="false">$B$118+1</f>
+        <v>43922</v>
+      </c>
+      <c r="L123" s="0" t="n">
+        <f aca="false">_xlfn.DAYS(K123,G123)</f>
+        <v>7</v>
+      </c>
       <c r="M123" s="0"/>
       <c r="N123" s="0"/>
       <c r="O123" s="0"/>
@@ -4595,41 +4619,44 @@
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B124" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C124" s="12" t="n">
         <v>330</v>
       </c>
       <c r="D124" s="1" t="n">
-        <v>1408</v>
+        <v>1789</v>
       </c>
       <c r="E124" s="12" t="n">
         <f aca="false">D124/67.79</f>
-        <v>20.770025077445</v>
+        <v>26.390323056498</v>
       </c>
       <c r="F124" s="12" t="n">
-        <v>180</v>
+        <v>381</v>
       </c>
       <c r="G124" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H124" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$118,G124)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I124" s="13" t="n">
         <f aca="false">$B$118+1</f>
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="J124" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$118,I124)</f>
         <v>-1</v>
       </c>
       <c r="K124" s="13" t="n">
-        <f aca="false">$B$130+1</f>
-        <v>43920</v>
-      </c>
-      <c r="L124" s="0"/>
+        <f aca="false">$B$118+1</f>
+        <v>43922</v>
+      </c>
+      <c r="L124" s="0" t="n">
+        <f aca="false">_xlfn.DAYS(K124,G124)</f>
+        <v>6</v>
+      </c>
       <c r="M124" s="0"/>
       <c r="N124" s="0"/>
       <c r="O124" s="0"/>
@@ -4638,40 +4665,44 @@
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B125" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C125" s="12" t="n">
         <v>1660</v>
       </c>
       <c r="D125" s="1" t="n">
-        <v>3141</v>
+        <v>4053</v>
       </c>
       <c r="E125" s="12" t="n">
         <f aca="false">D125/331</f>
-        <v>9.48942598187311</v>
+        <v>12.2447129909366</v>
       </c>
       <c r="F125" s="12" t="n">
-        <v>573</v>
+        <v>912</v>
       </c>
       <c r="G125" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H125" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$118,G125)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I125" s="13" t="n">
-        <v>43920</v>
+        <f aca="false">$B$118+1</f>
+        <v>43922</v>
       </c>
       <c r="J125" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$118,I125)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K125" s="13" t="n">
-        <f aca="false">$B$130+1</f>
-        <v>43920</v>
-      </c>
-      <c r="L125" s="0"/>
+        <f aca="false">$B$118+1</f>
+        <v>43922</v>
+      </c>
+      <c r="L125" s="0" t="n">
+        <f aca="false">_xlfn.DAYS(K125,G125)</f>
+        <v>5</v>
+      </c>
       <c r="M125" s="0"/>
       <c r="N125" s="0"/>
       <c r="O125" s="0"/>
@@ -4680,41 +4711,44 @@
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B126" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C126" s="12" t="n">
         <v>414</v>
       </c>
       <c r="D126" s="1" t="n">
-        <v>645</v>
+        <v>775</v>
       </c>
       <c r="E126" s="12" t="n">
         <f aca="false">D126/83.784</f>
-        <v>7.69836723002005</v>
+        <v>9.24997612909386</v>
       </c>
       <c r="F126" s="12" t="n">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="G126" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H126" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$118,G126)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I126" s="13" t="n">
         <f aca="false">$B$118+1</f>
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="J126" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$118,I126)</f>
         <v>-1</v>
       </c>
       <c r="K126" s="13" t="n">
-        <f aca="false">$B$130+1</f>
-        <v>43920</v>
-      </c>
-      <c r="L126" s="0"/>
+        <f aca="false">$B$118+1</f>
+        <v>43922</v>
+      </c>
+      <c r="L126" s="0" t="n">
+        <f aca="false">_xlfn.DAYS(K126,G126)</f>
+        <v>4</v>
+      </c>
       <c r="M126" s="0"/>
       <c r="N126" s="0"/>
       <c r="O126" s="0"/>
@@ -4722,16 +4756,15 @@
       <c r="Q126" s="0"/>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B127" s="4"/>
-      <c r="C127" s="5"/>
+      <c r="C127" s="12"/>
       <c r="D127" s="0"/>
-      <c r="E127" s="0"/>
-      <c r="F127" s="0"/>
-      <c r="G127" s="0"/>
+      <c r="E127" s="12"/>
+      <c r="F127" s="12"/>
+      <c r="G127" s="13"/>
       <c r="H127" s="0"/>
-      <c r="I127" s="0"/>
+      <c r="I127" s="13"/>
       <c r="J127" s="0"/>
-      <c r="K127" s="0"/>
+      <c r="K127" s="13"/>
       <c r="L127" s="0"/>
       <c r="M127" s="0"/>
       <c r="N127" s="0"/>
@@ -4740,16 +4773,15 @@
       <c r="Q127" s="0"/>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B128" s="4"/>
-      <c r="C128" s="5"/>
+      <c r="C128" s="12"/>
       <c r="D128" s="0"/>
-      <c r="E128" s="0"/>
-      <c r="F128" s="0"/>
-      <c r="G128" s="0"/>
+      <c r="E128" s="12"/>
+      <c r="F128" s="12"/>
+      <c r="G128" s="13"/>
       <c r="H128" s="0"/>
-      <c r="I128" s="0"/>
+      <c r="I128" s="13"/>
       <c r="J128" s="0"/>
-      <c r="K128" s="0"/>
+      <c r="K128" s="13"/>
       <c r="L128" s="0"/>
       <c r="M128" s="0"/>
       <c r="N128" s="0"/>
@@ -4759,7 +4791,7 @@
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B129" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D129" s="0"/>
       <c r="E129" s="0"/>
@@ -4778,27 +4810,27 @@
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B130" s="7" t="n">
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="D130" s="0"/>
       <c r="E130" s="8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F130" s="0"/>
       <c r="G130" s="8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H130" s="8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I130" s="8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J130" s="8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K130" s="8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L130" s="0"/>
       <c r="M130" s="0"/>
@@ -4810,31 +4842,31 @@
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B131" s="9"/>
       <c r="C131" s="10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E131" s="10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F131" s="10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G131" s="11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H131" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I131" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="J131" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K131" s="8" t="s">
         <v>43</v>
-      </c>
-      <c r="J131" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="K131" s="8" t="s">
-        <v>41</v>
       </c>
       <c r="L131" s="0"/>
       <c r="M131" s="0"/>
@@ -4845,37 +4877,37 @@
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B132" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C132" s="12" t="n">
         <v>300</v>
       </c>
       <c r="D132" s="1" t="n">
-        <v>10779</v>
+        <v>11591</v>
       </c>
       <c r="E132" s="12" t="n">
         <f aca="false">D132/60.48</f>
-        <v>178.224206349206</v>
+        <v>191.650132275132</v>
       </c>
       <c r="F132" s="12" t="n">
-        <v>756</v>
+        <v>812</v>
       </c>
       <c r="G132" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H132" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$130,G132)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I132" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J132" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$130,I132)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K132" s="13" t="n">
-        <f aca="false">$B$130+1</f>
+        <f aca="false">$B$142+1</f>
         <v>43920</v>
       </c>
       <c r="L132" s="0"/>
@@ -4887,37 +4919,37 @@
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B133" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C133" s="12" t="n">
         <v>230</v>
       </c>
       <c r="D133" s="1" t="n">
-        <v>6803</v>
+        <v>7716</v>
       </c>
       <c r="E133" s="12" t="n">
         <f aca="false">D133/46.75</f>
-        <v>145.51871657754</v>
+        <v>165.048128342246</v>
       </c>
       <c r="F133" s="12" t="n">
-        <v>821</v>
+        <v>913</v>
       </c>
       <c r="G133" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H133" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$130,G133)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I133" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J133" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$130,I133)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K133" s="13" t="n">
-        <f aca="false">$B$130+1</f>
+        <f aca="false">$B$142+1</f>
         <v>43920</v>
       </c>
       <c r="L133" s="0"/>
@@ -4929,37 +4961,37 @@
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B134" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C134" s="12" t="n">
         <v>330</v>
       </c>
       <c r="D134" s="1" t="n">
-        <v>2606</v>
+        <v>3024</v>
       </c>
       <c r="E134" s="12" t="n">
         <f aca="false">D134/65.27</f>
-        <v>39.9264593228129</v>
+        <v>46.3306266278535</v>
       </c>
       <c r="F134" s="12" t="n">
-        <v>292</v>
+        <v>418</v>
       </c>
       <c r="G134" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H134" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$130,G134)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I134" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J134" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$130,I134)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K134" s="13" t="n">
-        <f aca="false">$B$130+1</f>
+        <f aca="false">$B$142+1</f>
         <v>43920</v>
       </c>
       <c r="L134" s="0"/>
@@ -4974,35 +5006,35 @@
         <v>51</v>
       </c>
       <c r="C135" s="12" t="n">
-        <v>1660</v>
-      </c>
-      <c r="D135" s="1" t="n">
-        <v>2583</v>
+        <v>50</v>
+      </c>
+      <c r="D135" s="12" t="n">
+        <v>146</v>
       </c>
       <c r="E135" s="12" t="n">
-        <f aca="false">D135/331</f>
-        <v>7.8036253776435</v>
+        <f aca="false">D135/10.36</f>
+        <v>14.0926640926641</v>
       </c>
       <c r="F135" s="12" t="n">
-        <v>363</v>
+        <v>36</v>
       </c>
       <c r="G135" s="13" t="n">
-        <v>43917</v>
+        <v>43915</v>
       </c>
       <c r="H135" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$130,G135)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I135" s="13" t="n">
         <f aca="false">$B$130+1</f>
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="J135" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$130,I135)</f>
         <v>-1</v>
       </c>
       <c r="K135" s="13" t="n">
-        <f aca="false">$B$130+1</f>
+        <f aca="false">$B$142+1</f>
         <v>43920</v>
       </c>
       <c r="L135" s="0"/>
@@ -5014,38 +5046,38 @@
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B136" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C136" s="12" t="n">
         <v>330</v>
       </c>
       <c r="D136" s="1" t="n">
-        <v>1228</v>
+        <v>1408</v>
       </c>
       <c r="E136" s="12" t="n">
         <f aca="false">D136/67.79</f>
-        <v>18.1147661897035</v>
+        <v>20.770025077445</v>
       </c>
       <c r="F136" s="12" t="n">
-        <v>209</v>
+        <v>180</v>
       </c>
       <c r="G136" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H136" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$130,G136)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I136" s="13" t="n">
         <f aca="false">$B$130+1</f>
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="J136" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$130,I136)</f>
         <v>-1</v>
       </c>
       <c r="K136" s="13" t="n">
-        <f aca="false">$B$130+1</f>
+        <f aca="false">$B$142+1</f>
         <v>43920</v>
       </c>
       <c r="L136" s="0"/>
@@ -5057,38 +5089,37 @@
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B137" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C137" s="12" t="n">
-        <v>414</v>
+        <v>1660</v>
       </c>
       <c r="D137" s="1" t="n">
-        <v>541</v>
+        <v>3141</v>
       </c>
       <c r="E137" s="12" t="n">
-        <f aca="false">D137/83.784</f>
-        <v>6.457080110761</v>
+        <f aca="false">D137/331</f>
+        <v>9.48942598187311</v>
       </c>
       <c r="F137" s="12" t="n">
-        <v>108</v>
+        <v>573</v>
       </c>
       <c r="G137" s="13" t="n">
-        <v>43918</v>
+        <v>43917</v>
       </c>
       <c r="H137" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$130,G137)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I137" s="13" t="n">
-        <f aca="false">$B$130+1</f>
         <v>43920</v>
       </c>
       <c r="J137" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$130,I137)</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K137" s="13" t="n">
-        <f aca="false">$B$130+1</f>
+        <f aca="false">$B$142+1</f>
         <v>43920</v>
       </c>
       <c r="L137" s="0"/>
@@ -5100,38 +5131,38 @@
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B138" s="0" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C138" s="12" t="n">
-        <v>50</v>
-      </c>
-      <c r="D138" s="12" t="n">
-        <v>110</v>
+        <v>414</v>
+      </c>
+      <c r="D138" s="1" t="n">
+        <v>645</v>
       </c>
       <c r="E138" s="12" t="n">
-        <f aca="false">D138/10.36</f>
-        <v>10.6177606177606</v>
+        <f aca="false">D138/83.784</f>
+        <v>7.69836723002005</v>
       </c>
       <c r="F138" s="12" t="n">
-        <v>5</v>
+        <v>104</v>
       </c>
       <c r="G138" s="13" t="n">
-        <v>43915</v>
+        <v>43918</v>
       </c>
       <c r="H138" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$130,G138)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I138" s="13" t="n">
         <f aca="false">$B$130+1</f>
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="J138" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$130,I138)</f>
         <v>-1</v>
       </c>
       <c r="K138" s="13" t="n">
-        <f aca="false">$B$130+1</f>
+        <f aca="false">$B$142+1</f>
         <v>43920</v>
       </c>
       <c r="L138" s="0"/>
@@ -5179,7 +5210,7 @@
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B141" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D141" s="0"/>
       <c r="E141" s="0"/>
@@ -5198,29 +5229,27 @@
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B142" s="7" t="n">
-        <v>43918</v>
-      </c>
-      <c r="D142" s="8" t="s">
-        <v>10</v>
-      </c>
+        <v>43919</v>
+      </c>
+      <c r="D142" s="0"/>
       <c r="E142" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F142" s="8"/>
+        <v>34</v>
+      </c>
+      <c r="F142" s="0"/>
       <c r="G142" s="8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H142" s="8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I142" s="8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J142" s="8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K142" s="8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L142" s="0"/>
       <c r="M142" s="0"/>
@@ -5232,31 +5261,31 @@
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B143" s="9"/>
       <c r="C143" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D143" s="10" t="s">
-        <v>6</v>
+        <v>40</v>
+      </c>
+      <c r="D143" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="E143" s="10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F143" s="10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G143" s="11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H143" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I143" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="J143" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K143" s="8" t="s">
         <v>43</v>
-      </c>
-      <c r="J143" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="K143" s="8" t="s">
-        <v>41</v>
       </c>
       <c r="L143" s="0"/>
       <c r="M143" s="0"/>
@@ -5267,38 +5296,38 @@
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B144" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C144" s="12" t="n">
         <v>300</v>
       </c>
       <c r="D144" s="1" t="n">
-        <v>10023</v>
+        <v>10779</v>
       </c>
       <c r="E144" s="12" t="n">
         <f aca="false">D144/60.48</f>
-        <v>165.724206349206</v>
+        <v>178.224206349206</v>
       </c>
       <c r="F144" s="12" t="n">
-        <v>889</v>
+        <v>756</v>
       </c>
       <c r="G144" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H144" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$142,G144)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I144" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J144" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$154,I144)</f>
-        <v>15</v>
+        <f aca="false">_xlfn.DAYS($B$142,I144)</f>
+        <v>17</v>
       </c>
       <c r="K144" s="13" t="n">
         <f aca="false">$B$142+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="L144" s="0"/>
       <c r="M144" s="0"/>
@@ -5309,38 +5338,38 @@
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B145" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C145" s="12" t="n">
         <v>230</v>
       </c>
       <c r="D145" s="1" t="n">
-        <v>5982</v>
+        <v>6803</v>
       </c>
       <c r="E145" s="12" t="n">
         <f aca="false">D145/46.75</f>
-        <v>127.957219251337</v>
+        <v>145.51871657754</v>
       </c>
       <c r="F145" s="12" t="n">
-        <v>844</v>
+        <v>821</v>
       </c>
       <c r="G145" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H145" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$142,G145)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I145" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J145" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$154,I145)</f>
-        <v>4</v>
+        <f aca="false">_xlfn.DAYS($B$142,I145)</f>
+        <v>6</v>
       </c>
       <c r="K145" s="13" t="n">
         <f aca="false">$B$142+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="L145" s="0"/>
       <c r="M145" s="0"/>
@@ -5351,38 +5380,38 @@
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B146" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C146" s="12" t="n">
         <v>330</v>
       </c>
       <c r="D146" s="1" t="n">
-        <v>2314</v>
+        <v>2606</v>
       </c>
       <c r="E146" s="12" t="n">
         <f aca="false">D146/65.27</f>
-        <v>35.4527347939329</v>
+        <v>39.9264593228129</v>
       </c>
       <c r="F146" s="12" t="n">
-        <v>319</v>
+        <v>292</v>
       </c>
       <c r="G146" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H146" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$142,G146)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I146" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J146" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$154,I146)</f>
-        <v>3</v>
+        <f aca="false">_xlfn.DAYS($B$142,I146)</f>
+        <v>5</v>
       </c>
       <c r="K146" s="13" t="n">
         <f aca="false">$B$142+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="L146" s="0"/>
       <c r="M146" s="0"/>
@@ -5393,31 +5422,31 @@
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B147" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C147" s="12" t="n">
         <v>1660</v>
       </c>
       <c r="D147" s="1" t="n">
-        <v>2221</v>
+        <v>2583</v>
       </c>
       <c r="E147" s="12" t="n">
         <f aca="false">D147/331</f>
-        <v>6.70996978851964</v>
+        <v>7.8036253776435</v>
       </c>
       <c r="F147" s="12" t="n">
-        <v>525</v>
+        <v>363</v>
       </c>
       <c r="G147" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H147" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$142,G147)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I147" s="13" t="n">
         <f aca="false">$B$142+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="J147" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$142,I147)</f>
@@ -5425,7 +5454,7 @@
       </c>
       <c r="K147" s="13" t="n">
         <f aca="false">$B$142+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="L147" s="0"/>
       <c r="M147" s="0"/>
@@ -5436,31 +5465,31 @@
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B148" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C148" s="12" t="n">
         <v>330</v>
       </c>
       <c r="D148" s="1" t="n">
-        <v>1019</v>
+        <v>1228</v>
       </c>
       <c r="E148" s="12" t="n">
         <f aca="false">D148/67.79</f>
-        <v>15.0317155922702</v>
+        <v>18.1147661897035</v>
       </c>
       <c r="F148" s="12" t="n">
-        <v>260</v>
+        <v>209</v>
       </c>
       <c r="G148" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H148" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$142,G148)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I148" s="13" t="n">
         <f aca="false">$B$142+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="J148" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$142,I148)</f>
@@ -5468,7 +5497,7 @@
       </c>
       <c r="K148" s="13" t="n">
         <f aca="false">$B$142+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="L148" s="0"/>
       <c r="M148" s="0"/>
@@ -5479,31 +5508,31 @@
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B149" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C149" s="12" t="n">
         <v>414</v>
       </c>
       <c r="D149" s="1" t="n">
-        <v>433</v>
+        <v>541</v>
       </c>
       <c r="E149" s="12" t="n">
         <f aca="false">D149/83.784</f>
-        <v>5.16805117922276</v>
+        <v>6.457080110761</v>
       </c>
       <c r="F149" s="12" t="n">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="G149" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H149" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$142,G149)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I149" s="13" t="n">
         <f aca="false">$B$142+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="J149" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$142,I149)</f>
@@ -5511,7 +5540,7 @@
       </c>
       <c r="K149" s="13" t="n">
         <f aca="false">$B$142+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="L149" s="0"/>
       <c r="M149" s="0"/>
@@ -5522,31 +5551,31 @@
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B150" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C150" s="12" t="n">
         <v>50</v>
       </c>
       <c r="D150" s="12" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E150" s="12" t="n">
         <f aca="false">D150/10.36</f>
-        <v>10.1351351351351</v>
+        <v>10.6177606177606</v>
       </c>
       <c r="F150" s="12" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G150" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H150" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$142,G150)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I150" s="13" t="n">
         <f aca="false">$B$142+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="J150" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$142,I150)</f>
@@ -5554,7 +5583,7 @@
       </c>
       <c r="K150" s="13" t="n">
         <f aca="false">$B$142+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="L150" s="0"/>
       <c r="M150" s="0"/>
@@ -5564,15 +5593,16 @@
       <c r="Q150" s="0"/>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C151" s="12"/>
-      <c r="D151" s="12"/>
-      <c r="E151" s="12"/>
-      <c r="F151" s="12"/>
-      <c r="G151" s="13"/>
+      <c r="B151" s="4"/>
+      <c r="C151" s="5"/>
+      <c r="D151" s="0"/>
+      <c r="E151" s="0"/>
+      <c r="F151" s="0"/>
+      <c r="G151" s="0"/>
       <c r="H151" s="0"/>
-      <c r="I151" s="13"/>
+      <c r="I151" s="0"/>
       <c r="J151" s="0"/>
-      <c r="K151" s="13"/>
+      <c r="K151" s="0"/>
       <c r="L151" s="0"/>
       <c r="M151" s="0"/>
       <c r="N151" s="0"/>
@@ -5600,7 +5630,7 @@
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B153" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D153" s="0"/>
       <c r="E153" s="0"/>
@@ -5617,66 +5647,69 @@
       <c r="P153" s="0"/>
       <c r="Q153" s="0"/>
     </row>
-    <row r="154" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B154" s="7" t="n">
-        <v>43917</v>
-      </c>
-      <c r="C154" s="0"/>
+        <v>43918</v>
+      </c>
       <c r="D154" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E154" s="8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F154" s="8"/>
       <c r="G154" s="8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H154" s="8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I154" s="8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J154" s="8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K154" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="L154" s="8"/>
+        <v>38</v>
+      </c>
+      <c r="L154" s="0"/>
+      <c r="M154" s="0"/>
+      <c r="N154" s="0"/>
+      <c r="O154" s="0"/>
+      <c r="P154" s="0"/>
+      <c r="Q154" s="0"/>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="3"/>
       <c r="B155" s="9"/>
       <c r="C155" s="10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D155" s="10" t="s">
         <v>6</v>
       </c>
       <c r="E155" s="10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F155" s="10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G155" s="11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H155" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I155" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="J155" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K155" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="J155" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="K155" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="L155" s="8"/>
+      <c r="L155" s="0"/>
       <c r="M155" s="0"/>
       <c r="N155" s="0"/>
       <c r="O155" s="0"/>
@@ -5685,38 +5718,38 @@
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B156" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C156" s="12" t="n">
         <v>300</v>
       </c>
       <c r="D156" s="1" t="n">
-        <v>9134</v>
+        <v>10023</v>
       </c>
       <c r="E156" s="12" t="n">
         <f aca="false">D156/60.48</f>
-        <v>151.025132275132</v>
+        <v>165.724206349206</v>
       </c>
       <c r="F156" s="12" t="n">
-        <v>919</v>
+        <v>889</v>
       </c>
       <c r="G156" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H156" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$154,G156)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I156" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J156" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$154,I156)</f>
+        <f aca="false">_xlfn.DAYS(B$166,I156)</f>
         <v>15</v>
       </c>
       <c r="K156" s="13" t="n">
         <f aca="false">$B$154+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="L156" s="0"/>
       <c r="M156" s="0"/>
@@ -5727,38 +5760,38 @@
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B157" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C157" s="12" t="n">
         <v>230</v>
       </c>
       <c r="D157" s="1" t="n">
-        <v>5138</v>
+        <v>5982</v>
       </c>
       <c r="E157" s="12" t="n">
         <f aca="false">D157/46.75</f>
-        <v>109.903743315508</v>
+        <v>127.957219251337</v>
       </c>
       <c r="F157" s="12" t="n">
-        <v>773</v>
+        <v>844</v>
       </c>
       <c r="G157" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H157" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$154,G157)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I157" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J157" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$154,I157)</f>
+        <f aca="false">_xlfn.DAYS(B$166,I157)</f>
         <v>4</v>
       </c>
       <c r="K157" s="13" t="n">
         <f aca="false">$B$154+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="L157" s="0"/>
       <c r="M157" s="0"/>
@@ -5769,38 +5802,38 @@
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B158" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C158" s="12" t="n">
         <v>330</v>
       </c>
       <c r="D158" s="1" t="n">
-        <v>1995</v>
+        <v>2314</v>
       </c>
       <c r="E158" s="12" t="n">
         <f aca="false">D158/65.27</f>
-        <v>30.5653439558756</v>
+        <v>35.4527347939329</v>
       </c>
       <c r="F158" s="12" t="n">
-        <v>299</v>
+        <v>319</v>
       </c>
       <c r="G158" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H158" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$154,G158)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I158" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J158" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$154,I158)</f>
+        <f aca="false">_xlfn.DAYS(B$166,I158)</f>
         <v>3</v>
       </c>
       <c r="K158" s="13" t="n">
         <f aca="false">$B$154+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="L158" s="0"/>
       <c r="M158" s="0"/>
@@ -5811,40 +5844,39 @@
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B159" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C159" s="12" t="n">
         <v>1660</v>
       </c>
       <c r="D159" s="1" t="n">
-        <v>1696</v>
+        <v>2221</v>
       </c>
       <c r="E159" s="12" t="n">
         <f aca="false">D159/331</f>
-        <v>5.12386706948641</v>
+        <v>6.70996978851964</v>
       </c>
       <c r="F159" s="12" t="n">
-        <v>400</v>
+        <v>525</v>
       </c>
       <c r="G159" s="13" t="n">
-        <f aca="false">$B$154</f>
         <v>43917</v>
       </c>
       <c r="H159" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$154,G159)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I159" s="13" t="n">
         <f aca="false">$B$154+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="J159" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$154,I159)</f>
+        <f aca="false">_xlfn.DAYS($B$154,I159)</f>
         <v>-1</v>
       </c>
       <c r="K159" s="13" t="n">
         <f aca="false">$B$154+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="L159" s="0"/>
       <c r="M159" s="0"/>
@@ -5855,39 +5887,39 @@
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B160" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C160" s="12" t="n">
         <v>330</v>
       </c>
       <c r="D160" s="1" t="n">
-        <v>759</v>
+        <v>1019</v>
       </c>
       <c r="E160" s="12" t="n">
         <f aca="false">D160/67.79</f>
-        <v>11.1963416433102</v>
+        <v>15.0317155922702</v>
       </c>
       <c r="F160" s="12" t="n">
-        <v>181</v>
+        <v>260</v>
       </c>
       <c r="G160" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H160" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$154,G160)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I160" s="13" t="n">
         <f aca="false">$B$154+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="J160" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$154,I160)</f>
+        <f aca="false">_xlfn.DAYS($B$154,I160)</f>
         <v>-1</v>
       </c>
       <c r="K160" s="13" t="n">
         <f aca="false">$B$154+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="L160" s="0"/>
       <c r="M160" s="0"/>
@@ -5898,40 +5930,39 @@
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B161" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C161" s="12" t="n">
         <v>414</v>
       </c>
       <c r="D161" s="1" t="n">
-        <v>351</v>
+        <v>433</v>
       </c>
       <c r="E161" s="12" t="n">
         <f aca="false">D161/83.784</f>
-        <v>4.18934402749928</v>
+        <v>5.16805117922276</v>
       </c>
       <c r="F161" s="12" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G161" s="13" t="n">
-        <f aca="false">$B$154+1</f>
         <v>43918</v>
       </c>
       <c r="H161" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$154,G161)</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I161" s="13" t="n">
         <f aca="false">$B$154+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="J161" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$154,I161)</f>
+        <f aca="false">_xlfn.DAYS($B$154,I161)</f>
         <v>-1</v>
       </c>
       <c r="K161" s="13" t="n">
         <f aca="false">$B$154+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="L161" s="0"/>
       <c r="M161" s="0"/>
@@ -5942,7 +5973,7 @@
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B162" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C162" s="12" t="n">
         <v>50</v>
@@ -5955,26 +5986,26 @@
         <v>10.1351351351351</v>
       </c>
       <c r="F162" s="12" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="G162" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H162" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$154,G162)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I162" s="13" t="n">
         <f aca="false">$B$154+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="J162" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$154,I162)</f>
+        <f aca="false">_xlfn.DAYS($B$154,I162)</f>
         <v>-1</v>
       </c>
       <c r="K162" s="13" t="n">
         <f aca="false">$B$154+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="L162" s="0"/>
       <c r="M162" s="0"/>
@@ -5984,14 +6015,15 @@
       <c r="Q162" s="0"/>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D163" s="0"/>
-      <c r="E163" s="0"/>
-      <c r="F163" s="0"/>
-      <c r="G163" s="0"/>
+      <c r="C163" s="12"/>
+      <c r="D163" s="12"/>
+      <c r="E163" s="12"/>
+      <c r="F163" s="12"/>
+      <c r="G163" s="13"/>
       <c r="H163" s="0"/>
-      <c r="I163" s="0"/>
+      <c r="I163" s="13"/>
       <c r="J163" s="0"/>
-      <c r="K163" s="0"/>
+      <c r="K163" s="13"/>
       <c r="L163" s="0"/>
       <c r="M163" s="0"/>
       <c r="N163" s="0"/>
@@ -6000,6 +6032,8 @@
       <c r="Q163" s="0"/>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B164" s="4"/>
+      <c r="C164" s="5"/>
       <c r="D164" s="0"/>
       <c r="E164" s="0"/>
       <c r="F164" s="0"/>
@@ -6017,7 +6051,7 @@
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B165" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D165" s="0"/>
       <c r="E165" s="0"/>
@@ -6034,69 +6068,66 @@
       <c r="P165" s="0"/>
       <c r="Q165" s="0"/>
     </row>
-    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B166" s="7" t="n">
-        <v>43916</v>
-      </c>
+        <v>43917</v>
+      </c>
+      <c r="C166" s="0"/>
       <c r="D166" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E166" s="8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F166" s="8"/>
       <c r="G166" s="8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H166" s="8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I166" s="8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J166" s="8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K166" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="L166" s="0"/>
-      <c r="M166" s="0"/>
-      <c r="N166" s="0"/>
-      <c r="O166" s="0"/>
-      <c r="P166" s="0"/>
-      <c r="Q166" s="0"/>
+        <v>38</v>
+      </c>
+      <c r="L166" s="8"/>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="3"/>
       <c r="B167" s="9"/>
       <c r="C167" s="10" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="D167" s="10" t="s">
         <v>6</v>
       </c>
       <c r="E167" s="10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F167" s="10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G167" s="11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H167" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I167" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="J167" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K167" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="J167" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="K167" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="L167" s="0"/>
+      <c r="L167" s="8"/>
       <c r="M167" s="0"/>
       <c r="N167" s="0"/>
       <c r="O167" s="0"/>
@@ -6105,38 +6136,38 @@
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B168" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C168" s="12" t="n">
         <v>300</v>
       </c>
       <c r="D168" s="1" t="n">
-        <v>8215</v>
+        <v>9134</v>
       </c>
       <c r="E168" s="12" t="n">
         <f aca="false">D168/60.48</f>
-        <v>135.830026455026</v>
+        <v>151.025132275132</v>
       </c>
       <c r="F168" s="12" t="n">
-        <v>712</v>
+        <v>919</v>
       </c>
       <c r="G168" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H168" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$166,G168)</f>
-        <v>16</v>
+        <f aca="false">_xlfn.DAYS($B$166,G168)</f>
+        <v>17</v>
       </c>
       <c r="I168" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J168" s="1" t="n">
         <f aca="false">_xlfn.DAYS(B$166,I168)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K168" s="13" t="n">
-        <f aca="false">B$166+1</f>
-        <v>43917</v>
+        <f aca="false">$B$166+1</f>
+        <v>43918</v>
       </c>
       <c r="L168" s="0"/>
       <c r="M168" s="0"/>
@@ -6147,38 +6178,38 @@
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B169" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C169" s="12" t="n">
         <v>230</v>
       </c>
       <c r="D169" s="1" t="n">
-        <v>4365</v>
+        <v>5138</v>
       </c>
       <c r="E169" s="12" t="n">
         <f aca="false">D169/46.75</f>
-        <v>93.3689839572193</v>
+        <v>109.903743315508</v>
       </c>
       <c r="F169" s="12" t="n">
-        <v>718</v>
+        <v>773</v>
       </c>
       <c r="G169" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H169" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$166,G169)</f>
-        <v>9</v>
+        <f aca="false">_xlfn.DAYS($B$166,G169)</f>
+        <v>10</v>
       </c>
       <c r="I169" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J169" s="1" t="n">
         <f aca="false">_xlfn.DAYS(B$166,I169)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K169" s="13" t="n">
-        <f aca="false">B$166+1</f>
-        <v>43917</v>
+        <f aca="false">$B$166+1</f>
+        <v>43918</v>
       </c>
       <c r="L169" s="0"/>
       <c r="M169" s="0"/>
@@ -6189,38 +6220,38 @@
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B170" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C170" s="12" t="n">
         <v>330</v>
       </c>
       <c r="D170" s="1" t="n">
-        <v>1696</v>
+        <v>1995</v>
       </c>
       <c r="E170" s="12" t="n">
         <f aca="false">D170/65.27</f>
-        <v>25.9843726060978</v>
+        <v>30.5653439558756</v>
       </c>
       <c r="F170" s="12" t="n">
-        <v>365</v>
+        <v>299</v>
       </c>
       <c r="G170" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H170" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$166,G170)</f>
-        <v>4</v>
+        <f aca="false">_xlfn.DAYS($B$166,G170)</f>
+        <v>5</v>
       </c>
       <c r="I170" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J170" s="1" t="n">
         <f aca="false">_xlfn.DAYS(B$166,I170)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K170" s="13" t="n">
-        <f aca="false">B$166+1</f>
-        <v>43917</v>
+        <f aca="false">$B$166+1</f>
+        <v>43918</v>
       </c>
       <c r="L170" s="0"/>
       <c r="M170" s="0"/>
@@ -6231,39 +6262,40 @@
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B171" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C171" s="12" t="n">
         <v>1660</v>
       </c>
       <c r="D171" s="1" t="n">
-        <v>1295</v>
+        <v>1696</v>
       </c>
       <c r="E171" s="12" t="n">
         <f aca="false">D171/331</f>
-        <v>3.91238670694864</v>
+        <v>5.12386706948641</v>
       </c>
       <c r="F171" s="12" t="n">
-        <v>268</v>
+        <v>400</v>
       </c>
       <c r="G171" s="13" t="n">
+        <f aca="false">$B$166</f>
         <v>43917</v>
       </c>
       <c r="H171" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$166,G171)</f>
+        <f aca="false">_xlfn.DAYS($B$166,G171)</f>
+        <v>0</v>
+      </c>
+      <c r="I171" s="13" t="n">
+        <f aca="false">$B$166+1</f>
+        <v>43918</v>
+      </c>
+      <c r="J171" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$166,I171)</f>
         <v>-1</v>
       </c>
-      <c r="I171" s="13" t="n">
-        <f aca="false">B$166+1</f>
-        <v>43917</v>
-      </c>
-      <c r="J171" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$166,I171)</f>
-        <v>-1</v>
-      </c>
       <c r="K171" s="13" t="n">
-        <f aca="false">B$166+1</f>
-        <v>43917</v>
+        <f aca="false">$B$166+1</f>
+        <v>43918</v>
       </c>
       <c r="L171" s="0"/>
       <c r="M171" s="0"/>
@@ -6274,39 +6306,39 @@
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B172" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C172" s="12" t="n">
         <v>330</v>
       </c>
       <c r="D172" s="1" t="n">
-        <v>578</v>
+        <v>759</v>
       </c>
       <c r="E172" s="12" t="n">
         <f aca="false">D172/67.79</f>
-        <v>8.52633131730344</v>
+        <v>11.1963416433102</v>
       </c>
       <c r="F172" s="12" t="n">
-        <v>115</v>
+        <v>181</v>
       </c>
       <c r="G172" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H172" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$166,G172)</f>
-        <v>0</v>
+        <f aca="false">_xlfn.DAYS($B$166,G172)</f>
+        <v>1</v>
       </c>
       <c r="I172" s="13" t="n">
-        <f aca="false">B$166+1</f>
-        <v>43917</v>
+        <f aca="false">$B$166+1</f>
+        <v>43918</v>
       </c>
       <c r="J172" s="1" t="n">
         <f aca="false">_xlfn.DAYS(B$166,I172)</f>
         <v>-1</v>
       </c>
       <c r="K172" s="13" t="n">
-        <f aca="false">B$166+1</f>
-        <v>43917</v>
+        <f aca="false">$B$166+1</f>
+        <v>43918</v>
       </c>
       <c r="L172" s="0"/>
       <c r="M172" s="0"/>
@@ -6317,39 +6349,40 @@
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B173" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C173" s="12" t="n">
         <v>414</v>
       </c>
       <c r="D173" s="1" t="n">
-        <v>267</v>
+        <v>351</v>
       </c>
       <c r="E173" s="12" t="n">
         <f aca="false">D173/83.784</f>
-        <v>3.18676596963621</v>
+        <v>4.18934402749928</v>
       </c>
       <c r="F173" s="12" t="n">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="G173" s="13" t="n">
-        <v>43917</v>
+        <f aca="false">$B$166+1</f>
+        <v>43918</v>
       </c>
       <c r="H173" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$166,G173)</f>
+        <f aca="false">_xlfn.DAYS($B$166,G173)</f>
         <v>-1</v>
       </c>
       <c r="I173" s="13" t="n">
-        <f aca="false">B$166+1</f>
-        <v>43917</v>
+        <f aca="false">$B$166+1</f>
+        <v>43918</v>
       </c>
       <c r="J173" s="1" t="n">
         <f aca="false">_xlfn.DAYS(B$166,I173)</f>
         <v>-1</v>
       </c>
       <c r="K173" s="13" t="n">
-        <f aca="false">B$166+1</f>
-        <v>43917</v>
+        <f aca="false">$B$166+1</f>
+        <v>43918</v>
       </c>
       <c r="L173" s="0"/>
       <c r="M173" s="0"/>
@@ -6360,39 +6393,39 @@
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B174" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C174" s="12" t="n">
         <v>50</v>
       </c>
       <c r="D174" s="12" t="n">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="E174" s="12" t="n">
         <f aca="false">D174/10.36</f>
-        <v>7.43243243243243</v>
+        <v>10.1351351351351</v>
       </c>
       <c r="F174" s="12" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="G174" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H174" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$166,G174)</f>
-        <v>1</v>
+        <f aca="false">_xlfn.DAYS($B$166,G174)</f>
+        <v>2</v>
       </c>
       <c r="I174" s="13" t="n">
-        <f aca="false">B$166+1</f>
-        <v>43917</v>
+        <f aca="false">$B$166+1</f>
+        <v>43918</v>
       </c>
       <c r="J174" s="1" t="n">
         <f aca="false">_xlfn.DAYS(B$166,I174)</f>
         <v>-1</v>
       </c>
       <c r="K174" s="13" t="n">
-        <f aca="false">B$166+1</f>
-        <v>43917</v>
+        <f aca="false">$B$166+1</f>
+        <v>43918</v>
       </c>
       <c r="L174" s="0"/>
       <c r="M174" s="0"/>
@@ -6400,6 +6433,424 @@
       <c r="O174" s="0"/>
       <c r="P174" s="0"/>
       <c r="Q174" s="0"/>
+    </row>
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D175" s="0"/>
+      <c r="E175" s="0"/>
+      <c r="F175" s="0"/>
+      <c r="G175" s="0"/>
+      <c r="H175" s="0"/>
+      <c r="I175" s="0"/>
+      <c r="J175" s="0"/>
+      <c r="K175" s="0"/>
+      <c r="L175" s="0"/>
+      <c r="M175" s="0"/>
+      <c r="N175" s="0"/>
+      <c r="O175" s="0"/>
+      <c r="P175" s="0"/>
+      <c r="Q175" s="0"/>
+    </row>
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D176" s="0"/>
+      <c r="E176" s="0"/>
+      <c r="F176" s="0"/>
+      <c r="G176" s="0"/>
+      <c r="H176" s="0"/>
+      <c r="I176" s="0"/>
+      <c r="J176" s="0"/>
+      <c r="K176" s="0"/>
+      <c r="L176" s="0"/>
+      <c r="M176" s="0"/>
+      <c r="N176" s="0"/>
+      <c r="O176" s="0"/>
+      <c r="P176" s="0"/>
+      <c r="Q176" s="0"/>
+    </row>
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B177" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D177" s="0"/>
+      <c r="E177" s="0"/>
+      <c r="F177" s="0"/>
+      <c r="G177" s="0"/>
+      <c r="H177" s="0"/>
+      <c r="I177" s="0"/>
+      <c r="J177" s="0"/>
+      <c r="K177" s="0"/>
+      <c r="L177" s="0"/>
+      <c r="M177" s="0"/>
+      <c r="N177" s="0"/>
+      <c r="O177" s="0"/>
+      <c r="P177" s="0"/>
+      <c r="Q177" s="0"/>
+    </row>
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B178" s="7" t="n">
+        <v>43916</v>
+      </c>
+      <c r="D178" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E178" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F178" s="8"/>
+      <c r="G178" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H178" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I178" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J178" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K178" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="L178" s="0"/>
+      <c r="M178" s="0"/>
+      <c r="N178" s="0"/>
+      <c r="O178" s="0"/>
+      <c r="P178" s="0"/>
+      <c r="Q178" s="0"/>
+    </row>
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B179" s="9"/>
+      <c r="C179" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D179" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E179" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F179" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G179" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="H179" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I179" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="J179" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K179" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="L179" s="0"/>
+      <c r="M179" s="0"/>
+      <c r="N179" s="0"/>
+      <c r="O179" s="0"/>
+      <c r="P179" s="0"/>
+      <c r="Q179" s="0"/>
+    </row>
+    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B180" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C180" s="12" t="n">
+        <v>300</v>
+      </c>
+      <c r="D180" s="1" t="n">
+        <v>8215</v>
+      </c>
+      <c r="E180" s="12" t="n">
+        <f aca="false">D180/60.48</f>
+        <v>135.830026455026</v>
+      </c>
+      <c r="F180" s="12" t="n">
+        <v>712</v>
+      </c>
+      <c r="G180" s="13" t="n">
+        <v>43900</v>
+      </c>
+      <c r="H180" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$178,G180)</f>
+        <v>16</v>
+      </c>
+      <c r="I180" s="13" t="n">
+        <v>43902</v>
+      </c>
+      <c r="J180" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$178,I180)</f>
+        <v>14</v>
+      </c>
+      <c r="K180" s="13" t="n">
+        <f aca="false">B$178+1</f>
+        <v>43917</v>
+      </c>
+      <c r="L180" s="0"/>
+      <c r="M180" s="0"/>
+      <c r="N180" s="0"/>
+      <c r="O180" s="0"/>
+      <c r="P180" s="0"/>
+      <c r="Q180" s="0"/>
+    </row>
+    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B181" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C181" s="12" t="n">
+        <v>230</v>
+      </c>
+      <c r="D181" s="1" t="n">
+        <v>4365</v>
+      </c>
+      <c r="E181" s="12" t="n">
+        <f aca="false">D181/46.75</f>
+        <v>93.3689839572193</v>
+      </c>
+      <c r="F181" s="12" t="n">
+        <v>718</v>
+      </c>
+      <c r="G181" s="13" t="n">
+        <v>43907</v>
+      </c>
+      <c r="H181" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$178,G181)</f>
+        <v>9</v>
+      </c>
+      <c r="I181" s="13" t="n">
+        <v>43913</v>
+      </c>
+      <c r="J181" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$178,I181)</f>
+        <v>3</v>
+      </c>
+      <c r="K181" s="13" t="n">
+        <f aca="false">B$178+1</f>
+        <v>43917</v>
+      </c>
+      <c r="L181" s="0"/>
+      <c r="M181" s="0"/>
+      <c r="N181" s="0"/>
+      <c r="O181" s="0"/>
+      <c r="P181" s="0"/>
+      <c r="Q181" s="0"/>
+    </row>
+    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B182" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C182" s="12" t="n">
+        <v>330</v>
+      </c>
+      <c r="D182" s="1" t="n">
+        <v>1696</v>
+      </c>
+      <c r="E182" s="12" t="n">
+        <f aca="false">D182/65.27</f>
+        <v>25.9843726060978</v>
+      </c>
+      <c r="F182" s="12" t="n">
+        <v>365</v>
+      </c>
+      <c r="G182" s="13" t="n">
+        <v>43912</v>
+      </c>
+      <c r="H182" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$178,G182)</f>
+        <v>4</v>
+      </c>
+      <c r="I182" s="13" t="n">
+        <v>43914</v>
+      </c>
+      <c r="J182" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$178,I182)</f>
+        <v>2</v>
+      </c>
+      <c r="K182" s="13" t="n">
+        <f aca="false">B$178+1</f>
+        <v>43917</v>
+      </c>
+      <c r="L182" s="0"/>
+      <c r="M182" s="0"/>
+      <c r="N182" s="0"/>
+      <c r="O182" s="0"/>
+      <c r="P182" s="0"/>
+      <c r="Q182" s="0"/>
+    </row>
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B183" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C183" s="12" t="n">
+        <v>1660</v>
+      </c>
+      <c r="D183" s="1" t="n">
+        <v>1295</v>
+      </c>
+      <c r="E183" s="12" t="n">
+        <f aca="false">D183/331</f>
+        <v>3.91238670694864</v>
+      </c>
+      <c r="F183" s="12" t="n">
+        <v>268</v>
+      </c>
+      <c r="G183" s="13" t="n">
+        <v>43917</v>
+      </c>
+      <c r="H183" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$178,G183)</f>
+        <v>-1</v>
+      </c>
+      <c r="I183" s="13" t="n">
+        <f aca="false">B$178+1</f>
+        <v>43917</v>
+      </c>
+      <c r="J183" s="1" t="n">
+        <f aca="false">_xlfn.DAYS($B$178,I183)</f>
+        <v>-1</v>
+      </c>
+      <c r="K183" s="13" t="n">
+        <f aca="false">B$178+1</f>
+        <v>43917</v>
+      </c>
+      <c r="L183" s="0"/>
+      <c r="M183" s="0"/>
+      <c r="N183" s="0"/>
+      <c r="O183" s="0"/>
+      <c r="P183" s="0"/>
+      <c r="Q183" s="0"/>
+    </row>
+    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B184" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C184" s="12" t="n">
+        <v>330</v>
+      </c>
+      <c r="D184" s="1" t="n">
+        <v>578</v>
+      </c>
+      <c r="E184" s="12" t="n">
+        <f aca="false">D184/67.79</f>
+        <v>8.52633131730344</v>
+      </c>
+      <c r="F184" s="12" t="n">
+        <v>115</v>
+      </c>
+      <c r="G184" s="13" t="n">
+        <v>43916</v>
+      </c>
+      <c r="H184" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$178,G184)</f>
+        <v>0</v>
+      </c>
+      <c r="I184" s="13" t="n">
+        <f aca="false">B$178+1</f>
+        <v>43917</v>
+      </c>
+      <c r="J184" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$178,I184)</f>
+        <v>-1</v>
+      </c>
+      <c r="K184" s="13" t="n">
+        <f aca="false">B$178+1</f>
+        <v>43917</v>
+      </c>
+      <c r="L184" s="0"/>
+      <c r="M184" s="0"/>
+      <c r="N184" s="0"/>
+      <c r="O184" s="0"/>
+      <c r="P184" s="0"/>
+      <c r="Q184" s="0"/>
+    </row>
+    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B185" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C185" s="12" t="n">
+        <v>414</v>
+      </c>
+      <c r="D185" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="E185" s="12" t="n">
+        <f aca="false">D185/83.784</f>
+        <v>3.18676596963621</v>
+      </c>
+      <c r="F185" s="12" t="n">
+        <v>61</v>
+      </c>
+      <c r="G185" s="13" t="n">
+        <v>43917</v>
+      </c>
+      <c r="H185" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$178,G185)</f>
+        <v>-1</v>
+      </c>
+      <c r="I185" s="13" t="n">
+        <f aca="false">B$178+1</f>
+        <v>43917</v>
+      </c>
+      <c r="J185" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$178,I185)</f>
+        <v>-1</v>
+      </c>
+      <c r="K185" s="13" t="n">
+        <f aca="false">B$178+1</f>
+        <v>43917</v>
+      </c>
+      <c r="L185" s="0"/>
+      <c r="M185" s="0"/>
+      <c r="N185" s="0"/>
+      <c r="O185" s="0"/>
+      <c r="P185" s="0"/>
+      <c r="Q185" s="0"/>
+    </row>
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B186" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C186" s="12" t="n">
+        <v>50</v>
+      </c>
+      <c r="D186" s="12" t="n">
+        <v>77</v>
+      </c>
+      <c r="E186" s="12" t="n">
+        <f aca="false">D186/10.36</f>
+        <v>7.43243243243243</v>
+      </c>
+      <c r="F186" s="12" t="n">
+        <v>15</v>
+      </c>
+      <c r="G186" s="13" t="n">
+        <v>43915</v>
+      </c>
+      <c r="H186" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$178,G186)</f>
+        <v>1</v>
+      </c>
+      <c r="I186" s="13" t="n">
+        <f aca="false">B$178+1</f>
+        <v>43917</v>
+      </c>
+      <c r="J186" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$178,I186)</f>
+        <v>-1</v>
+      </c>
+      <c r="K186" s="13" t="n">
+        <f aca="false">B$178+1</f>
+        <v>43917</v>
+      </c>
+      <c r="L186" s="0"/>
+      <c r="M186" s="0"/>
+      <c r="N186" s="0"/>
+      <c r="O186" s="0"/>
+      <c r="P186" s="0"/>
+      <c r="Q186" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/covid19 lockdown evaluation .xlsx
+++ b/covid19 lockdown evaluation .xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="55">
   <si>
     <t>Effects of the lockdown issued by governments</t>
   </si>
@@ -359,9 +359,9 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q186"/>
+  <dimension ref="A1:Q198"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F31" activeCellId="0" sqref="F31"/>
     </sheetView>
   </sheetViews>
@@ -815,7 +815,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="7" t="n">
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="D22" s="0"/>
       <c r="E22" s="8" t="s">
@@ -892,36 +892,36 @@
         <v>300</v>
       </c>
       <c r="D24" s="1" t="n">
-        <v>17669</v>
+        <v>18279</v>
       </c>
       <c r="E24" s="12" t="n">
         <f aca="false">D24/60.48</f>
-        <v>292.146164021164</v>
+        <v>302.232142857143</v>
       </c>
       <c r="F24" s="12" t="n">
-        <v>542</v>
+        <v>610</v>
       </c>
       <c r="G24" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H24" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,G24)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I24" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J24" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,I24)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K24" s="13" t="n">
         <f aca="false">$B$22+1</f>
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="L24" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K24,G24)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M24" s="0"/>
       <c r="N24" s="0"/>
@@ -937,36 +937,36 @@
         <v>230</v>
       </c>
       <c r="D25" s="1" t="n">
-        <v>14792</v>
+        <v>15447</v>
       </c>
       <c r="E25" s="12" t="n">
         <f aca="false">D25/46.75</f>
-        <v>316.406417112299</v>
+        <v>330.417112299465</v>
       </c>
       <c r="F25" s="12" t="n">
-        <v>747</v>
+        <v>655</v>
       </c>
       <c r="G25" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H25" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,G25)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I25" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J25" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,I25)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K25" s="13" t="n">
         <f aca="false">$B$22+1</f>
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="L25" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K25,G25)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M25" s="0"/>
       <c r="N25" s="0"/>
@@ -982,36 +982,36 @@
         <v>330</v>
       </c>
       <c r="D26" s="1" t="n">
-        <v>10869</v>
+        <v>12210</v>
       </c>
       <c r="E26" s="12" t="n">
         <f aca="false">D26/65.27</f>
-        <v>166.52367090547</v>
+        <v>187.069097594607</v>
       </c>
       <c r="F26" s="12" t="n">
-        <v>541</v>
+        <v>1341</v>
       </c>
       <c r="G26" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H26" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,G26)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I26" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J26" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,I26)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K26" s="13" t="n">
         <f aca="false">$B$22+1</f>
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="L26" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K26,G26)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M26" s="0"/>
       <c r="N26" s="0"/>
@@ -1027,36 +1027,36 @@
         <v>50</v>
       </c>
       <c r="D27" s="12" t="n">
-        <v>687</v>
+        <v>793</v>
       </c>
       <c r="E27" s="12" t="n">
         <f aca="false">D27/10.36</f>
-        <v>66.3127413127413</v>
+        <v>76.5444015444016</v>
       </c>
       <c r="F27" s="12" t="n">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="G27" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H27" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,G27)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I27" s="13" t="n">
         <v>43928</v>
       </c>
       <c r="J27" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,I27)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K27" s="13" t="n">
         <f aca="false">$B$22+1</f>
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="L27" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K27,G27)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M27" s="0"/>
       <c r="N27" s="0"/>
@@ -1072,36 +1072,36 @@
         <v>330</v>
       </c>
       <c r="D28" s="1" t="n">
-        <v>7097</v>
+        <v>7978</v>
       </c>
       <c r="E28" s="12" t="n">
         <f aca="false">D28/67.79</f>
-        <v>104.690957368343</v>
+        <v>117.686974480012</v>
       </c>
       <c r="F28" s="12" t="n">
-        <v>938</v>
+        <v>981</v>
       </c>
       <c r="G28" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H28" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,G28)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I28" s="13" t="n">
         <v>43919</v>
       </c>
       <c r="J28" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,I28)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K28" s="13" t="n">
         <f aca="false">$B$22+1</f>
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="L28" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K28,G28)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M28" s="0"/>
       <c r="N28" s="0"/>
@@ -1117,36 +1117,36 @@
         <v>1660</v>
       </c>
       <c r="D29" s="1" t="n">
-        <v>14788</v>
+        <v>16691</v>
       </c>
       <c r="E29" s="12" t="n">
         <f aca="false">D29/331</f>
-        <v>44.6767371601209</v>
+        <v>50.4259818731118</v>
       </c>
       <c r="F29" s="12" t="n">
-        <v>1940</v>
+        <v>1900</v>
       </c>
       <c r="G29" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H29" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,G29)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I29" s="13" t="n">
         <v>43921</v>
       </c>
       <c r="J29" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,I29)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K29" s="13" t="n">
         <f aca="false">$B$22+1</f>
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="L29" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K29,G29)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M29" s="0"/>
       <c r="N29" s="0"/>
@@ -1162,36 +1162,36 @@
         <v>414</v>
       </c>
       <c r="D30" s="1" t="n">
-        <v>2349</v>
+        <v>2607</v>
       </c>
       <c r="E30" s="12" t="n">
         <f aca="false">D30/83.784</f>
-        <v>28.0363792609567</v>
+        <v>31.1157261529648</v>
       </c>
       <c r="F30" s="12" t="n">
-        <v>333</v>
+        <v>258</v>
       </c>
       <c r="G30" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H30" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,G30)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I30" s="13" t="n">
         <v>43920</v>
       </c>
       <c r="J30" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,I30)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K30" s="13" t="n">
         <f aca="false">$B$22+1</f>
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="L30" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K30,G30)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M30" s="0"/>
       <c r="N30" s="0"/>
@@ -1256,7 +1256,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="7" t="n">
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="D34" s="0"/>
       <c r="E34" s="8" t="s">
@@ -1333,36 +1333,36 @@
         <v>300</v>
       </c>
       <c r="D36" s="1" t="n">
-        <v>17127</v>
+        <v>17669</v>
       </c>
       <c r="E36" s="12" t="n">
         <f aca="false">D36/60.48</f>
-        <v>283.184523809524</v>
+        <v>292.146164021164</v>
       </c>
       <c r="F36" s="12" t="n">
-        <v>604</v>
+        <v>542</v>
       </c>
       <c r="G36" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H36" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,G36)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I36" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J36" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,I36)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K36" s="13" t="n">
         <f aca="false">$B$34+1</f>
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="L36" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K36,G36)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M36" s="0"/>
       <c r="N36" s="0"/>
@@ -1378,36 +1378,36 @@
         <v>230</v>
       </c>
       <c r="D37" s="1" t="n">
-        <v>14045</v>
+        <v>14792</v>
       </c>
       <c r="E37" s="12" t="n">
         <f aca="false">D37/46.75</f>
-        <v>300.427807486631</v>
+        <v>316.406417112299</v>
       </c>
       <c r="F37" s="12" t="n">
-        <v>704</v>
+        <v>747</v>
       </c>
       <c r="G37" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H37" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,G37)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I37" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J37" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,I37)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K37" s="13" t="n">
         <f aca="false">$B$34+1</f>
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="L37" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K37,G37)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M37" s="0"/>
       <c r="N37" s="0"/>
@@ -1423,36 +1423,36 @@
         <v>330</v>
       </c>
       <c r="D38" s="1" t="n">
-        <v>10328</v>
+        <v>10869</v>
       </c>
       <c r="E38" s="12" t="n">
         <f aca="false">D38/65.27</f>
-        <v>158.23502374751</v>
+        <v>166.52367090547</v>
       </c>
       <c r="F38" s="12" t="n">
-        <v>1417</v>
+        <v>541</v>
       </c>
       <c r="G38" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H38" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,G38)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I38" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J38" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,I38)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K38" s="13" t="n">
         <f aca="false">$B$34+1</f>
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="L38" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K38,G38)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M38" s="0"/>
       <c r="N38" s="0"/>
@@ -1468,36 +1468,36 @@
         <v>50</v>
       </c>
       <c r="D39" s="12" t="n">
-        <v>591</v>
+        <v>687</v>
       </c>
       <c r="E39" s="12" t="n">
         <f aca="false">D39/10.36</f>
-        <v>57.0463320463321</v>
+        <v>66.3127413127413</v>
       </c>
       <c r="F39" s="12" t="n">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="G39" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H39" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,G39)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I39" s="13" t="n">
         <v>43928</v>
       </c>
       <c r="J39" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,I39)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" s="13" t="n">
         <f aca="false">$B$34+1</f>
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="L39" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K39,G39)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M39" s="0"/>
       <c r="N39" s="0"/>
@@ -1513,36 +1513,36 @@
         <v>330</v>
       </c>
       <c r="D40" s="1" t="n">
-        <v>6159</v>
+        <v>7097</v>
       </c>
       <c r="E40" s="12" t="n">
         <f aca="false">D40/67.79</f>
-        <v>90.8541082755569</v>
+        <v>104.690957368343</v>
       </c>
       <c r="F40" s="12" t="n">
-        <v>786</v>
+        <v>938</v>
       </c>
       <c r="G40" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H40" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,G40)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I40" s="13" t="n">
         <v>43919</v>
       </c>
       <c r="J40" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,I40)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K40" s="13" t="n">
         <f aca="false">$B$34+1</f>
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="L40" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K40,G40)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M40" s="0"/>
       <c r="N40" s="0"/>
@@ -1558,36 +1558,36 @@
         <v>1660</v>
       </c>
       <c r="D41" s="1" t="n">
-        <v>12848</v>
+        <v>14788</v>
       </c>
       <c r="E41" s="12" t="n">
         <f aca="false">D41/331</f>
-        <v>38.8157099697885</v>
+        <v>44.6767371601209</v>
       </c>
       <c r="F41" s="12" t="n">
-        <v>1970</v>
+        <v>1940</v>
       </c>
       <c r="G41" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H41" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,G41)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I41" s="13" t="n">
         <v>43921</v>
       </c>
       <c r="J41" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,I41)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K41" s="13" t="n">
         <f aca="false">$B$34+1</f>
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="L41" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K41,G41)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M41" s="0"/>
       <c r="N41" s="0"/>
@@ -1603,36 +1603,36 @@
         <v>414</v>
       </c>
       <c r="D42" s="1" t="n">
-        <v>2016</v>
+        <v>2349</v>
       </c>
       <c r="E42" s="12" t="n">
         <f aca="false">D42/83.784</f>
-        <v>24.0618733887138</v>
+        <v>28.0363792609567</v>
       </c>
       <c r="F42" s="12" t="n">
-        <v>206</v>
+        <v>333</v>
       </c>
       <c r="G42" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H42" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,G42)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I42" s="13" t="n">
         <v>43920</v>
       </c>
       <c r="J42" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,I42)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K42" s="13" t="n">
         <f aca="false">$B$34+1</f>
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="L42" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K42,G42)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M42" s="0"/>
       <c r="N42" s="0"/>
@@ -1697,7 +1697,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="7" t="n">
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="D46" s="0"/>
       <c r="E46" s="8" t="s">
@@ -1774,36 +1774,36 @@
         <v>300</v>
       </c>
       <c r="D48" s="1" t="n">
-        <v>16523</v>
+        <v>17127</v>
       </c>
       <c r="E48" s="12" t="n">
         <f aca="false">D48/60.48</f>
-        <v>273.197751322751</v>
+        <v>283.184523809524</v>
       </c>
       <c r="F48" s="12" t="n">
-        <v>636</v>
+        <v>604</v>
       </c>
       <c r="G48" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H48" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,G48)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I48" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J48" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,I48)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K48" s="13" t="n">
         <f aca="false">$B$46+1</f>
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="L48" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K48,G48)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M48" s="0"/>
       <c r="N48" s="0"/>
@@ -1819,36 +1819,36 @@
         <v>230</v>
       </c>
       <c r="D49" s="1" t="n">
-        <v>13341</v>
+        <v>14045</v>
       </c>
       <c r="E49" s="12" t="n">
         <f aca="false">D49/46.75</f>
-        <v>285.368983957219</v>
+        <v>300.427807486631</v>
       </c>
       <c r="F49" s="12" t="n">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="G49" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H49" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,G49)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I49" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J49" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,I49)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K49" s="13" t="n">
         <f aca="false">$B$46+1</f>
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="L49" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K49,G49)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M49" s="0"/>
       <c r="N49" s="0"/>
@@ -1864,36 +1864,36 @@
         <v>330</v>
       </c>
       <c r="D50" s="1" t="n">
-        <v>8911</v>
+        <v>10328</v>
       </c>
       <c r="E50" s="12" t="n">
         <f aca="false">D50/65.27</f>
-        <v>136.525203002911</v>
+        <v>158.23502374751</v>
       </c>
       <c r="F50" s="12" t="n">
-        <v>833</v>
+        <v>1417</v>
       </c>
       <c r="G50" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H50" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,G50)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I50" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J50" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,I50)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K50" s="13" t="n">
         <f aca="false">$B$46+1</f>
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="L50" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K50,G50)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M50" s="0"/>
       <c r="N50" s="0"/>
@@ -1909,37 +1909,36 @@
         <v>50</v>
       </c>
       <c r="D51" s="12" t="n">
-        <v>477</v>
+        <v>591</v>
       </c>
       <c r="E51" s="12" t="n">
         <f aca="false">D51/10.36</f>
-        <v>46.042471042471</v>
+        <v>57.0463320463321</v>
       </c>
       <c r="F51" s="12" t="n">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="G51" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H51" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,G51)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I51" s="13" t="n">
-        <f aca="false">$B$46+1</f>
         <v>43928</v>
       </c>
       <c r="J51" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,I51)</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K51" s="13" t="n">
         <f aca="false">$B$46+1</f>
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="L51" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K51,G51)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M51" s="0"/>
       <c r="N51" s="0"/>
@@ -1955,37 +1954,36 @@
         <v>330</v>
       </c>
       <c r="D52" s="1" t="n">
-        <v>5373</v>
+        <v>6159</v>
       </c>
       <c r="E52" s="12" t="n">
         <f aca="false">D52/67.79</f>
-        <v>79.2594777990854</v>
+        <v>90.8541082755569</v>
       </c>
       <c r="F52" s="12" t="n">
-        <v>439</v>
+        <v>786</v>
       </c>
       <c r="G52" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H52" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,G52)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I52" s="13" t="n">
-        <f aca="false">$B$46+1</f>
-        <v>43928</v>
+        <v>43919</v>
       </c>
       <c r="J52" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,I52)</f>
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K52" s="13" t="n">
         <f aca="false">$B$46+1</f>
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="L52" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K52,G52)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M52" s="0"/>
       <c r="N52" s="0"/>
@@ -2001,37 +1999,36 @@
         <v>1660</v>
       </c>
       <c r="D53" s="1" t="n">
-        <v>10871</v>
+        <v>12848</v>
       </c>
       <c r="E53" s="12" t="n">
         <f aca="false">D53/331</f>
-        <v>32.8429003021148</v>
+        <v>38.8157099697885</v>
       </c>
       <c r="F53" s="12" t="n">
-        <v>1255</v>
+        <v>1970</v>
       </c>
       <c r="G53" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H53" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,G53)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I53" s="13" t="n">
-        <f aca="false">$B$46+1</f>
-        <v>43928</v>
+        <v>43921</v>
       </c>
       <c r="J53" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,I53)</f>
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K53" s="13" t="n">
         <f aca="false">$B$46+1</f>
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="L53" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K53,G53)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M53" s="0"/>
       <c r="N53" s="0"/>
@@ -2047,37 +2044,36 @@
         <v>414</v>
       </c>
       <c r="D54" s="1" t="n">
-        <v>1810</v>
+        <v>2016</v>
       </c>
       <c r="E54" s="12" t="n">
         <f aca="false">D54/83.784</f>
-        <v>21.6031700563353</v>
+        <v>24.0618733887138</v>
       </c>
       <c r="F54" s="12" t="n">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="G54" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H54" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,G54)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I54" s="13" t="n">
-        <f aca="false">$B$46+1</f>
-        <v>43928</v>
+        <v>43920</v>
       </c>
       <c r="J54" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,I54)</f>
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K54" s="13" t="n">
         <f aca="false">$B$46+1</f>
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="L54" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K54,G54)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M54" s="0"/>
       <c r="N54" s="0"/>
@@ -2142,7 +2138,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="7" t="n">
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="D58" s="0"/>
       <c r="E58" s="8" t="s">
@@ -2219,36 +2215,36 @@
         <v>300</v>
       </c>
       <c r="D60" s="1" t="n">
-        <v>15887</v>
+        <v>16523</v>
       </c>
       <c r="E60" s="12" t="n">
         <f aca="false">D60/60.48</f>
-        <v>262.681878306878</v>
+        <v>273.197751322751</v>
       </c>
       <c r="F60" s="12" t="n">
-        <v>525</v>
+        <v>636</v>
       </c>
       <c r="G60" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H60" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,G60)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I60" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J60" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,I60)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K60" s="13" t="n">
         <f aca="false">$B$58+1</f>
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="L60" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K60,G60)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M60" s="0"/>
       <c r="N60" s="0"/>
@@ -2264,36 +2260,36 @@
         <v>230</v>
       </c>
       <c r="D61" s="1" t="n">
-        <v>12641</v>
+        <v>13341</v>
       </c>
       <c r="E61" s="12" t="n">
         <f aca="false">D61/46.75</f>
-        <v>270.395721925134</v>
+        <v>285.368983957219</v>
       </c>
       <c r="F61" s="12" t="n">
-        <v>694</v>
+        <v>700</v>
       </c>
       <c r="G61" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H61" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,G61)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I61" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J61" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,I61)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K61" s="13" t="n">
         <f aca="false">$B$58+1</f>
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="L61" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K61,G61)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M61" s="0"/>
       <c r="N61" s="0"/>
@@ -2309,36 +2305,36 @@
         <v>330</v>
       </c>
       <c r="D62" s="1" t="n">
-        <v>8078</v>
+        <v>8911</v>
       </c>
       <c r="E62" s="12" t="n">
         <f aca="false">D62/65.27</f>
-        <v>123.762831316072</v>
+        <v>136.525203002911</v>
       </c>
       <c r="F62" s="12" t="n">
-        <v>518</v>
+        <v>833</v>
       </c>
       <c r="G62" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H62" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,G62)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I62" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J62" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,I62)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K62" s="13" t="n">
         <f aca="false">$B$58+1</f>
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="L62" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K62,G62)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M62" s="0"/>
       <c r="N62" s="0"/>
@@ -2354,25 +2350,25 @@
         <v>50</v>
       </c>
       <c r="D63" s="12" t="n">
-        <v>401</v>
+        <v>477</v>
       </c>
       <c r="E63" s="12" t="n">
         <f aca="false">D63/10.36</f>
-        <v>38.7065637065637</v>
+        <v>46.042471042471</v>
       </c>
       <c r="F63" s="12" t="n">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="G63" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H63" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,G63)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I63" s="13" t="n">
         <f aca="false">$B$58+1</f>
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="J63" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,I63)</f>
@@ -2380,11 +2376,11 @@
       </c>
       <c r="K63" s="13" t="n">
         <f aca="false">$B$58+1</f>
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="L63" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K63,G63)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M63" s="0"/>
       <c r="N63" s="0"/>
@@ -2400,25 +2396,25 @@
         <v>330</v>
       </c>
       <c r="D64" s="1" t="n">
-        <v>4934</v>
+        <v>5373</v>
       </c>
       <c r="E64" s="12" t="n">
         <f aca="false">D64/67.79</f>
-        <v>72.7835964006491</v>
+        <v>79.2594777990854</v>
       </c>
       <c r="F64" s="12" t="n">
-        <v>621</v>
+        <v>439</v>
       </c>
       <c r="G64" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H64" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,G64)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I64" s="13" t="n">
         <f aca="false">$B$58+1</f>
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="J64" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,I64)</f>
@@ -2426,11 +2422,11 @@
       </c>
       <c r="K64" s="13" t="n">
         <f aca="false">$B$58+1</f>
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="L64" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K64,G64)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M64" s="0"/>
       <c r="N64" s="0"/>
@@ -2446,25 +2442,25 @@
         <v>1660</v>
       </c>
       <c r="D65" s="1" t="n">
-        <v>9616</v>
+        <v>10871</v>
       </c>
       <c r="E65" s="12" t="n">
         <f aca="false">D65/331</f>
-        <v>29.0513595166163</v>
+        <v>32.8429003021148</v>
       </c>
       <c r="F65" s="12" t="n">
-        <v>1165</v>
+        <v>1255</v>
       </c>
       <c r="G65" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H65" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,G65)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I65" s="13" t="n">
         <f aca="false">$B$58+1</f>
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="J65" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,I65)</f>
@@ -2472,11 +2468,11 @@
       </c>
       <c r="K65" s="13" t="n">
         <f aca="false">$B$58+1</f>
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="L65" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K65,G65)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M65" s="0"/>
       <c r="N65" s="0"/>
@@ -2492,25 +2488,25 @@
         <v>414</v>
       </c>
       <c r="D66" s="1" t="n">
-        <v>1584</v>
+        <v>1810</v>
       </c>
       <c r="E66" s="12" t="n">
         <f aca="false">D66/83.784</f>
-        <v>18.9057576625609</v>
+        <v>21.6031700563353</v>
       </c>
       <c r="F66" s="12" t="n">
-        <v>140</v>
+        <v>226</v>
       </c>
       <c r="G66" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H66" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,G66)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I66" s="13" t="n">
         <f aca="false">$B$58+1</f>
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="J66" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,I66)</f>
@@ -2518,11 +2514,11 @@
       </c>
       <c r="K66" s="13" t="n">
         <f aca="false">$B$58+1</f>
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="L66" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K66,G66)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M66" s="0"/>
       <c r="N66" s="0"/>
@@ -2587,7 +2583,7 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="7" t="n">
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="D70" s="0"/>
       <c r="E70" s="8" t="s">
@@ -2664,36 +2660,36 @@
         <v>300</v>
       </c>
       <c r="D72" s="1" t="n">
-        <v>15362</v>
+        <v>15887</v>
       </c>
       <c r="E72" s="12" t="n">
         <f aca="false">D72/60.48</f>
-        <v>254.001322751323</v>
+        <v>262.681878306878</v>
       </c>
       <c r="F72" s="12" t="n">
-        <v>681</v>
+        <v>525</v>
       </c>
       <c r="G72" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H72" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,G72)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I72" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J72" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,I72)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K72" s="13" t="n">
         <f aca="false">$B$70+1</f>
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="L72" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K72,G72)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M72" s="0"/>
       <c r="N72" s="0"/>
@@ -2709,36 +2705,36 @@
         <v>230</v>
       </c>
       <c r="D73" s="1" t="n">
-        <v>11947</v>
+        <v>12641</v>
       </c>
       <c r="E73" s="12" t="n">
         <f aca="false">D73/46.75</f>
-        <v>255.550802139037</v>
+        <v>270.395721925134</v>
       </c>
       <c r="F73" s="12" t="n">
-        <v>749</v>
+        <v>694</v>
       </c>
       <c r="G73" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H73" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,G73)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I73" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J73" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,I73)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K73" s="13" t="n">
         <f aca="false">$B$70+1</f>
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="L73" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K73,G73)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M73" s="0"/>
       <c r="N73" s="0"/>
@@ -2754,36 +2750,36 @@
         <v>330</v>
       </c>
       <c r="D74" s="1" t="n">
-        <v>7560</v>
+        <v>8078</v>
       </c>
       <c r="E74" s="12" t="n">
         <f aca="false">D74/65.27</f>
-        <v>115.826566569634</v>
+        <v>123.762831316072</v>
       </c>
       <c r="F74" s="12" t="n">
-        <v>1053</v>
+        <v>518</v>
       </c>
       <c r="G74" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H74" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,G74)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I74" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J74" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,I74)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K74" s="13" t="n">
         <f aca="false">$B$70+1</f>
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="L74" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K74,G74)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M74" s="0"/>
       <c r="N74" s="0"/>
@@ -2799,25 +2795,25 @@
         <v>50</v>
       </c>
       <c r="D75" s="12" t="n">
-        <v>373</v>
+        <v>401</v>
       </c>
       <c r="E75" s="12" t="n">
         <f aca="false">D75/10.36</f>
-        <v>36.003861003861</v>
+        <v>38.7065637065637</v>
       </c>
       <c r="F75" s="12" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="G75" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H75" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,G75)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I75" s="13" t="n">
         <f aca="false">$B$70+1</f>
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="J75" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,I75)</f>
@@ -2825,11 +2821,11 @@
       </c>
       <c r="K75" s="13" t="n">
         <f aca="false">$B$70+1</f>
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="L75" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K75,G75)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M75" s="0"/>
       <c r="N75" s="0"/>
@@ -2845,25 +2841,25 @@
         <v>330</v>
       </c>
       <c r="D76" s="1" t="n">
-        <v>4313</v>
+        <v>4934</v>
       </c>
       <c r="E76" s="12" t="n">
         <f aca="false">D76/67.79</f>
-        <v>63.6229532379407</v>
+        <v>72.7835964006491</v>
       </c>
       <c r="F76" s="12" t="n">
-        <v>708</v>
+        <v>621</v>
       </c>
       <c r="G76" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H76" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,G76)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I76" s="13" t="n">
         <f aca="false">$B$70+1</f>
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="J76" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,I76)</f>
@@ -2871,11 +2867,11 @@
       </c>
       <c r="K76" s="13" t="n">
         <f aca="false">$B$70+1</f>
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="L76" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K76,G76)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M76" s="0"/>
       <c r="N76" s="0"/>
@@ -2891,25 +2887,25 @@
         <v>1660</v>
       </c>
       <c r="D77" s="1" t="n">
-        <v>8451</v>
+        <v>9616</v>
       </c>
       <c r="E77" s="12" t="n">
         <f aca="false">D77/331</f>
-        <v>25.5317220543807</v>
+        <v>29.0513595166163</v>
       </c>
       <c r="F77" s="12" t="n">
-        <v>1330</v>
+        <v>1165</v>
       </c>
       <c r="G77" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H77" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,G77)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I77" s="13" t="n">
         <f aca="false">$B$70+1</f>
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="J77" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,I77)</f>
@@ -2917,11 +2913,11 @@
       </c>
       <c r="K77" s="13" t="n">
         <f aca="false">$B$70+1</f>
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="L77" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K77,G77)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M77" s="0"/>
       <c r="N77" s="0"/>
@@ -2937,25 +2933,25 @@
         <v>414</v>
       </c>
       <c r="D78" s="1" t="n">
-        <v>1444</v>
+        <v>1584</v>
       </c>
       <c r="E78" s="12" t="n">
         <f aca="false">D78/83.784</f>
-        <v>17.2347942327891</v>
+        <v>18.9057576625609</v>
       </c>
       <c r="F78" s="12" t="n">
-        <v>169</v>
+        <v>140</v>
       </c>
       <c r="G78" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H78" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,G78)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I78" s="13" t="n">
         <f aca="false">$B$70+1</f>
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="J78" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,I78)</f>
@@ -2963,11 +2959,11 @@
       </c>
       <c r="K78" s="13" t="n">
         <f aca="false">$B$70+1</f>
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="L78" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K78,G78)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M78" s="0"/>
       <c r="N78" s="0"/>
@@ -3032,7 +3028,7 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="7" t="n">
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="D82" s="0"/>
       <c r="E82" s="8" t="s">
@@ -3109,36 +3105,36 @@
         <v>300</v>
       </c>
       <c r="D84" s="1" t="n">
-        <v>14681</v>
+        <v>15362</v>
       </c>
       <c r="E84" s="12" t="n">
         <f aca="false">D84/60.48</f>
-        <v>242.741402116402</v>
+        <v>254.001322751323</v>
       </c>
       <c r="F84" s="12" t="n">
-        <v>766</v>
+        <v>681</v>
       </c>
       <c r="G84" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H84" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,G84)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I84" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J84" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,I84)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K84" s="13" t="n">
         <f aca="false">$B$82+1</f>
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="L84" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K84,G84)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M84" s="0"/>
       <c r="N84" s="0"/>
@@ -3154,36 +3150,36 @@
         <v>230</v>
       </c>
       <c r="D85" s="1" t="n">
-        <v>11198</v>
+        <v>11947</v>
       </c>
       <c r="E85" s="12" t="n">
         <f aca="false">D85/46.75</f>
-        <v>239.529411764706</v>
+        <v>255.550802139037</v>
       </c>
       <c r="F85" s="12" t="n">
-        <v>850</v>
+        <v>749</v>
       </c>
       <c r="G85" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H85" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$94,G85)</f>
-        <v>16</v>
+        <f aca="false">_xlfn.DAYS($B$82,G85)</f>
+        <v>18</v>
       </c>
       <c r="I85" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J85" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,I85)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K85" s="13" t="n">
         <f aca="false">$B$82+1</f>
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="L85" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K85,G85)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M85" s="0"/>
       <c r="N85" s="0"/>
@@ -3199,36 +3195,36 @@
         <v>330</v>
       </c>
       <c r="D86" s="1" t="n">
-        <v>6507</v>
+        <v>7560</v>
       </c>
       <c r="E86" s="12" t="n">
         <f aca="false">D86/65.27</f>
-        <v>99.6935805117206</v>
+        <v>115.826566569634</v>
       </c>
       <c r="F86" s="12" t="n">
-        <v>1120</v>
+        <v>1053</v>
       </c>
       <c r="G86" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H86" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$94,G86)</f>
-        <v>11</v>
+        <f aca="false">_xlfn.DAYS($B$82,G86)</f>
+        <v>13</v>
       </c>
       <c r="I86" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J86" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,I86)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K86" s="13" t="n">
         <f aca="false">$B$82+1</f>
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="L86" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K86,G86)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M86" s="0"/>
       <c r="N86" s="0"/>
@@ -3244,25 +3240,25 @@
         <v>50</v>
       </c>
       <c r="D87" s="12" t="n">
-        <v>358</v>
+        <v>373</v>
       </c>
       <c r="E87" s="12" t="n">
         <f aca="false">D87/10.36</f>
-        <v>34.5559845559846</v>
+        <v>36.003861003861</v>
       </c>
       <c r="F87" s="12" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="G87" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H87" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$94,G87)</f>
-        <v>8</v>
+        <f aca="false">_xlfn.DAYS($B$82,G87)</f>
+        <v>10</v>
       </c>
       <c r="I87" s="13" t="n">
         <f aca="false">$B$82+1</f>
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="J87" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,I87)</f>
@@ -3270,11 +3266,11 @@
       </c>
       <c r="K87" s="13" t="n">
         <f aca="false">$B$82+1</f>
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="L87" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K87,G87)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M87" s="0"/>
       <c r="N87" s="0"/>
@@ -3290,25 +3286,25 @@
         <v>330</v>
       </c>
       <c r="D88" s="1" t="n">
-        <v>3605</v>
+        <v>4313</v>
       </c>
       <c r="E88" s="12" t="n">
         <f aca="false">D88/67.79</f>
-        <v>53.1789349461573</v>
+        <v>63.6229532379407</v>
       </c>
       <c r="F88" s="12" t="n">
-        <v>684</v>
+        <v>708</v>
       </c>
       <c r="G88" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H88" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$94,G88)</f>
-        <v>7</v>
+        <f aca="false">_xlfn.DAYS($B$82,G88)</f>
+        <v>9</v>
       </c>
       <c r="I88" s="13" t="n">
         <f aca="false">$B$82+1</f>
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="J88" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,I88)</f>
@@ -3316,11 +3312,11 @@
       </c>
       <c r="K88" s="13" t="n">
         <f aca="false">$B$82+1</f>
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="L88" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K88,G88)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M88" s="0"/>
       <c r="N88" s="0"/>
@@ -3336,25 +3332,25 @@
         <v>1660</v>
       </c>
       <c r="D89" s="1" t="n">
-        <v>7121</v>
+        <v>8451</v>
       </c>
       <c r="E89" s="12" t="n">
         <f aca="false">D89/331</f>
-        <v>21.5135951661631</v>
+        <v>25.5317220543807</v>
       </c>
       <c r="F89" s="12" t="n">
-        <v>1045</v>
+        <v>1330</v>
       </c>
       <c r="G89" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H89" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$94,G89)</f>
-        <v>6</v>
+        <f aca="false">_xlfn.DAYS($B$82,G89)</f>
+        <v>8</v>
       </c>
       <c r="I89" s="13" t="n">
         <f aca="false">$B$82+1</f>
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="J89" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,I89)</f>
@@ -3362,11 +3358,11 @@
       </c>
       <c r="K89" s="13" t="n">
         <f aca="false">$B$82+1</f>
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="L89" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K89,G89)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M89" s="0"/>
       <c r="N89" s="0"/>
@@ -3382,25 +3378,25 @@
         <v>414</v>
       </c>
       <c r="D90" s="1" t="n">
-        <v>1275</v>
+        <v>1444</v>
       </c>
       <c r="E90" s="12" t="n">
         <f aca="false">D90/83.784</f>
-        <v>15.2177026639931</v>
+        <v>17.2347942327891</v>
       </c>
       <c r="F90" s="12" t="n">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G90" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H90" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$94,G90)</f>
-        <v>5</v>
+        <f aca="false">_xlfn.DAYS($B$82,G90)</f>
+        <v>7</v>
       </c>
       <c r="I90" s="13" t="n">
         <f aca="false">$B$82+1</f>
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="J90" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,I90)</f>
@@ -3408,11 +3404,11 @@
       </c>
       <c r="K90" s="13" t="n">
         <f aca="false">$B$82+1</f>
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="L90" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K90,G90)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M90" s="0"/>
       <c r="N90" s="0"/>
@@ -3477,7 +3473,7 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="7" t="n">
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="D94" s="0"/>
       <c r="E94" s="8" t="s">
@@ -3554,36 +3550,36 @@
         <v>300</v>
       </c>
       <c r="D96" s="1" t="n">
-        <v>13915</v>
+        <v>14681</v>
       </c>
       <c r="E96" s="12" t="n">
         <f aca="false">D96/60.48</f>
-        <v>230.076058201058</v>
+        <v>242.741402116402</v>
       </c>
       <c r="F96" s="12" t="n">
-        <v>760</v>
+        <v>766</v>
       </c>
       <c r="G96" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H96" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,G96)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I96" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J96" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,I96)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K96" s="13" t="n">
         <f aca="false">$B$94+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="L96" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K96,G96)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M96" s="0"/>
       <c r="N96" s="0"/>
@@ -3599,20 +3595,20 @@
         <v>230</v>
       </c>
       <c r="D97" s="1" t="n">
-        <v>10348</v>
+        <v>11198</v>
       </c>
       <c r="E97" s="12" t="n">
         <f aca="false">D97/46.75</f>
-        <v>221.347593582888</v>
+        <v>239.529411764706</v>
       </c>
       <c r="F97" s="12" t="n">
-        <v>961</v>
+        <v>850</v>
       </c>
       <c r="G97" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H97" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$94,G97)</f>
+        <f aca="false">_xlfn.DAYS($B$106,G97)</f>
         <v>16</v>
       </c>
       <c r="I97" s="13" t="n">
@@ -3620,15 +3616,15 @@
       </c>
       <c r="J97" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,I97)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K97" s="13" t="n">
         <f aca="false">$B$94+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="L97" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K97,G97)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M97" s="0"/>
       <c r="N97" s="0"/>
@@ -3644,20 +3640,20 @@
         <v>330</v>
       </c>
       <c r="D98" s="1" t="n">
-        <v>5387</v>
+        <v>6507</v>
       </c>
       <c r="E98" s="12" t="n">
         <f aca="false">D98/65.27</f>
-        <v>82.5340891680711</v>
+        <v>99.6935805117206</v>
       </c>
       <c r="F98" s="12" t="n">
-        <v>1355</v>
+        <v>1120</v>
       </c>
       <c r="G98" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H98" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$94,G98)</f>
+        <f aca="false">_xlfn.DAYS($B$106,G98)</f>
         <v>11</v>
       </c>
       <c r="I98" s="13" t="n">
@@ -3665,15 +3661,15 @@
       </c>
       <c r="J98" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,I98)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K98" s="13" t="n">
         <f aca="false">$B$94+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="L98" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K98,G98)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M98" s="0"/>
       <c r="N98" s="0"/>
@@ -3689,25 +3685,25 @@
         <v>50</v>
       </c>
       <c r="D99" s="12" t="n">
-        <v>308</v>
+        <v>358</v>
       </c>
       <c r="E99" s="12" t="n">
         <f aca="false">D99/10.36</f>
-        <v>29.7297297297297</v>
+        <v>34.5559845559846</v>
       </c>
       <c r="F99" s="12" t="n">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="G99" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H99" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$94,G99)</f>
+        <f aca="false">_xlfn.DAYS($B$106,G99)</f>
         <v>8</v>
       </c>
       <c r="I99" s="13" t="n">
         <f aca="false">$B$94+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="J99" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,I99)</f>
@@ -3715,11 +3711,11 @@
       </c>
       <c r="K99" s="13" t="n">
         <f aca="false">$B$94+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="L99" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K99,G99)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M99" s="0"/>
       <c r="N99" s="0"/>
@@ -3735,25 +3731,25 @@
         <v>330</v>
       </c>
       <c r="D100" s="1" t="n">
-        <v>2921</v>
+        <v>3605</v>
       </c>
       <c r="E100" s="12" t="n">
         <f aca="false">D100/67.79</f>
-        <v>43.0889511727393</v>
+        <v>53.1789349461573</v>
       </c>
       <c r="F100" s="12" t="n">
-        <v>569</v>
+        <v>684</v>
       </c>
       <c r="G100" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H100" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$94,G100)</f>
+        <f aca="false">_xlfn.DAYS($B$106,G100)</f>
         <v>7</v>
       </c>
       <c r="I100" s="13" t="n">
         <f aca="false">$B$94+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="J100" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,I100)</f>
@@ -3761,11 +3757,11 @@
       </c>
       <c r="K100" s="13" t="n">
         <f aca="false">$B$94+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="L100" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K100,G100)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M100" s="0"/>
       <c r="N100" s="0"/>
@@ -3781,25 +3777,25 @@
         <v>1660</v>
       </c>
       <c r="D101" s="1" t="n">
-        <v>6076</v>
+        <v>7121</v>
       </c>
       <c r="E101" s="12" t="n">
         <f aca="false">D101/331</f>
-        <v>18.3564954682779</v>
+        <v>21.5135951661631</v>
       </c>
       <c r="F101" s="12" t="n">
-        <v>969</v>
+        <v>1045</v>
       </c>
       <c r="G101" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H101" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$94,G101)</f>
+        <f aca="false">_xlfn.DAYS($B$106,G101)</f>
         <v>6</v>
       </c>
       <c r="I101" s="13" t="n">
         <f aca="false">$B$94+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="J101" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,I101)</f>
@@ -3807,11 +3803,11 @@
       </c>
       <c r="K101" s="13" t="n">
         <f aca="false">$B$94+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="L101" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K101,G101)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M101" s="0"/>
       <c r="N101" s="0"/>
@@ -3827,25 +3823,25 @@
         <v>414</v>
       </c>
       <c r="D102" s="1" t="n">
-        <v>1107</v>
+        <v>1275</v>
       </c>
       <c r="E102" s="12" t="n">
         <f aca="false">D102/83.784</f>
-        <v>13.212546548267</v>
+        <v>15.2177026639931</v>
       </c>
       <c r="F102" s="12" t="n">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="G102" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H102" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$94,G102)</f>
+        <f aca="false">_xlfn.DAYS($B$106,G102)</f>
         <v>5</v>
       </c>
       <c r="I102" s="13" t="n">
         <f aca="false">$B$94+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="J102" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,I102)</f>
@@ -3853,11 +3849,11 @@
       </c>
       <c r="K102" s="13" t="n">
         <f aca="false">$B$94+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="L102" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K102,G102)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M102" s="0"/>
       <c r="N102" s="0"/>
@@ -3922,7 +3918,7 @@
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="7" t="n">
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="D106" s="0"/>
       <c r="E106" s="8" t="s">
@@ -3999,36 +3995,36 @@
         <v>300</v>
       </c>
       <c r="D108" s="1" t="n">
-        <v>13155</v>
+        <v>13915</v>
       </c>
       <c r="E108" s="12" t="n">
         <f aca="false">D108/60.48</f>
-        <v>217.509920634921</v>
+        <v>230.076058201058</v>
       </c>
       <c r="F108" s="12" t="n">
-        <v>727</v>
+        <v>760</v>
       </c>
       <c r="G108" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H108" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,G108)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I108" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J108" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,I108)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K108" s="13" t="n">
         <f aca="false">$B$106+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="L108" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K108,G108)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M108" s="0"/>
       <c r="N108" s="0"/>
@@ -4044,36 +4040,36 @@
         <v>230</v>
       </c>
       <c r="D109" s="1" t="n">
-        <v>9387</v>
+        <v>10348</v>
       </c>
       <c r="E109" s="12" t="n">
         <f aca="false">D109/46.75</f>
-        <v>200.791443850267</v>
+        <v>221.347593582888</v>
       </c>
       <c r="F109" s="12" t="n">
-        <v>923</v>
+        <v>961</v>
       </c>
       <c r="G109" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H109" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,G109)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I109" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J109" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,I109)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K109" s="13" t="n">
         <f aca="false">$B$106+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="L109" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K109,G109)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M109" s="0"/>
       <c r="N109" s="0"/>
@@ -4089,36 +4085,36 @@
         <v>330</v>
       </c>
       <c r="D110" s="1" t="n">
-        <v>4032</v>
+        <v>5387</v>
       </c>
       <c r="E110" s="12" t="n">
         <f aca="false">D110/65.27</f>
-        <v>61.7741688371381</v>
+        <v>82.5340891680711</v>
       </c>
       <c r="F110" s="12" t="n">
-        <v>509</v>
+        <v>1355</v>
       </c>
       <c r="G110" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H110" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,G110)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I110" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J110" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,I110)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K110" s="13" t="n">
         <f aca="false">$B$106+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="L110" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K110,G110)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M110" s="0"/>
       <c r="N110" s="0"/>
@@ -4134,25 +4130,25 @@
         <v>50</v>
       </c>
       <c r="D111" s="12" t="n">
-        <v>239</v>
+        <v>308</v>
       </c>
       <c r="E111" s="12" t="n">
         <f aca="false">D111/10.36</f>
-        <v>23.0694980694981</v>
+        <v>29.7297297297297</v>
       </c>
       <c r="F111" s="12" t="n">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="G111" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H111" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,G111)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I111" s="13" t="n">
         <f aca="false">$B$106+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="J111" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,I111)</f>
@@ -4160,11 +4156,11 @@
       </c>
       <c r="K111" s="13" t="n">
         <f aca="false">$B$106+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="L111" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K111,G111)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M111" s="0"/>
       <c r="N111" s="0"/>
@@ -4180,25 +4176,25 @@
         <v>330</v>
       </c>
       <c r="D112" s="1" t="n">
-        <v>2352</v>
+        <v>2921</v>
       </c>
       <c r="E112" s="12" t="n">
         <f aca="false">D112/67.79</f>
-        <v>34.695382799823</v>
+        <v>43.0889511727393</v>
       </c>
       <c r="F112" s="12" t="n">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="G112" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H112" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,G112)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I112" s="13" t="n">
         <f aca="false">$B$106+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="J112" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,I112)</f>
@@ -4206,11 +4202,11 @@
       </c>
       <c r="K112" s="13" t="n">
         <f aca="false">$B$106+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="L112" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K112,G112)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M112" s="0"/>
       <c r="N112" s="0"/>
@@ -4226,25 +4222,25 @@
         <v>1660</v>
       </c>
       <c r="D113" s="1" t="n">
-        <v>5102</v>
+        <v>6076</v>
       </c>
       <c r="E113" s="12" t="n">
         <f aca="false">D113/331</f>
-        <v>15.4138972809668</v>
+        <v>18.3564954682779</v>
       </c>
       <c r="F113" s="12" t="n">
-        <v>1049</v>
+        <v>969</v>
       </c>
       <c r="G113" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H113" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,G113)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I113" s="13" t="n">
         <f aca="false">$B$106+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="J113" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,I113)</f>
@@ -4252,11 +4248,11 @@
       </c>
       <c r="K113" s="13" t="n">
         <f aca="false">$B$106+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="L113" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K113,G113)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M113" s="0"/>
       <c r="N113" s="0"/>
@@ -4272,25 +4268,25 @@
         <v>414</v>
       </c>
       <c r="D114" s="1" t="n">
-        <v>931</v>
+        <v>1107</v>
       </c>
       <c r="E114" s="12" t="n">
         <f aca="false">D114/83.784</f>
-        <v>11.1119068079824</v>
+        <v>13.212546548267</v>
       </c>
       <c r="F114" s="12" t="n">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="G114" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H114" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,G114)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I114" s="13" t="n">
         <f aca="false">$B$106+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="J114" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,I114)</f>
@@ -4298,11 +4294,11 @@
       </c>
       <c r="K114" s="13" t="n">
         <f aca="false">$B$106+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="L114" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K114,G114)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M114" s="0"/>
       <c r="N114" s="0"/>
@@ -4367,7 +4363,7 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B118" s="7" t="n">
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="D118" s="0"/>
       <c r="E118" s="8" t="s">
@@ -4444,36 +4440,36 @@
         <v>300</v>
       </c>
       <c r="D120" s="1" t="n">
-        <v>12428</v>
+        <v>13155</v>
       </c>
       <c r="E120" s="12" t="n">
         <f aca="false">D120/60.48</f>
-        <v>205.489417989418</v>
+        <v>217.509920634921</v>
       </c>
       <c r="F120" s="12" t="n">
-        <v>837</v>
+        <v>727</v>
       </c>
       <c r="G120" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H120" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$118,G120)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I120" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J120" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$118,I120)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K120" s="13" t="n">
         <f aca="false">$B$118+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="L120" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K120,G120)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M120" s="0"/>
       <c r="N120" s="0"/>
@@ -4489,36 +4485,36 @@
         <v>230</v>
       </c>
       <c r="D121" s="1" t="n">
-        <v>8464</v>
+        <v>9387</v>
       </c>
       <c r="E121" s="12" t="n">
         <f aca="false">D121/46.75</f>
-        <v>181.048128342246</v>
+        <v>200.791443850267</v>
       </c>
       <c r="F121" s="12" t="n">
-        <v>748</v>
+        <v>923</v>
       </c>
       <c r="G121" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H121" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$118,G121)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I121" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J121" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$118,I121)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K121" s="13" t="n">
         <f aca="false">$B$118+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="L121" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K121,G121)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M121" s="0"/>
       <c r="N121" s="0"/>
@@ -4534,36 +4530,36 @@
         <v>330</v>
       </c>
       <c r="D122" s="1" t="n">
-        <v>3523</v>
+        <v>4032</v>
       </c>
       <c r="E122" s="12" t="n">
         <f aca="false">D122/65.27</f>
-        <v>53.9757928604259</v>
+        <v>61.7741688371381</v>
       </c>
       <c r="F122" s="12" t="n">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="G122" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H122" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$118,G122)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I122" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J122" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$118,I122)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K122" s="13" t="n">
         <f aca="false">$B$118+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="L122" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K122,G122)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M122" s="0"/>
       <c r="N122" s="0"/>
@@ -4579,25 +4575,25 @@
         <v>50</v>
       </c>
       <c r="D123" s="12" t="n">
-        <v>180</v>
+        <v>239</v>
       </c>
       <c r="E123" s="12" t="n">
         <f aca="false">D123/10.36</f>
-        <v>17.3745173745174</v>
+        <v>23.0694980694981</v>
       </c>
       <c r="F123" s="12" t="n">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="G123" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H123" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$118,G123)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I123" s="13" t="n">
         <f aca="false">$B$118+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="J123" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$118,I123)</f>
@@ -4605,11 +4601,11 @@
       </c>
       <c r="K123" s="13" t="n">
         <f aca="false">$B$118+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="L123" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K123,G123)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M123" s="0"/>
       <c r="N123" s="0"/>
@@ -4625,25 +4621,25 @@
         <v>330</v>
       </c>
       <c r="D124" s="1" t="n">
-        <v>1789</v>
+        <v>2352</v>
       </c>
       <c r="E124" s="12" t="n">
         <f aca="false">D124/67.79</f>
-        <v>26.390323056498</v>
+        <v>34.695382799823</v>
       </c>
       <c r="F124" s="12" t="n">
-        <v>381</v>
+        <v>563</v>
       </c>
       <c r="G124" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H124" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$118,G124)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I124" s="13" t="n">
         <f aca="false">$B$118+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="J124" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$118,I124)</f>
@@ -4651,11 +4647,11 @@
       </c>
       <c r="K124" s="13" t="n">
         <f aca="false">$B$118+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="L124" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K124,G124)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M124" s="0"/>
       <c r="N124" s="0"/>
@@ -4671,25 +4667,25 @@
         <v>1660</v>
       </c>
       <c r="D125" s="1" t="n">
-        <v>4053</v>
+        <v>5102</v>
       </c>
       <c r="E125" s="12" t="n">
         <f aca="false">D125/331</f>
-        <v>12.2447129909366</v>
+        <v>15.4138972809668</v>
       </c>
       <c r="F125" s="12" t="n">
-        <v>912</v>
+        <v>1049</v>
       </c>
       <c r="G125" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H125" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$118,G125)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I125" s="13" t="n">
         <f aca="false">$B$118+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="J125" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$118,I125)</f>
@@ -4697,11 +4693,11 @@
       </c>
       <c r="K125" s="13" t="n">
         <f aca="false">$B$118+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="L125" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K125,G125)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M125" s="0"/>
       <c r="N125" s="0"/>
@@ -4717,25 +4713,25 @@
         <v>414</v>
       </c>
       <c r="D126" s="1" t="n">
-        <v>775</v>
+        <v>931</v>
       </c>
       <c r="E126" s="12" t="n">
         <f aca="false">D126/83.784</f>
-        <v>9.24997612909386</v>
+        <v>11.1119068079824</v>
       </c>
       <c r="F126" s="12" t="n">
-        <v>130</v>
+        <v>156</v>
       </c>
       <c r="G126" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H126" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$118,G126)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I126" s="13" t="n">
         <f aca="false">$B$118+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="J126" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$118,I126)</f>
@@ -4743,11 +4739,11 @@
       </c>
       <c r="K126" s="13" t="n">
         <f aca="false">$B$118+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="L126" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K126,G126)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M126" s="0"/>
       <c r="N126" s="0"/>
@@ -4756,15 +4752,16 @@
       <c r="Q126" s="0"/>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C127" s="12"/>
+      <c r="B127" s="4"/>
+      <c r="C127" s="5"/>
       <c r="D127" s="0"/>
-      <c r="E127" s="12"/>
-      <c r="F127" s="12"/>
-      <c r="G127" s="13"/>
+      <c r="E127" s="0"/>
+      <c r="F127" s="0"/>
+      <c r="G127" s="0"/>
       <c r="H127" s="0"/>
-      <c r="I127" s="13"/>
+      <c r="I127" s="0"/>
       <c r="J127" s="0"/>
-      <c r="K127" s="13"/>
+      <c r="K127" s="0"/>
       <c r="L127" s="0"/>
       <c r="M127" s="0"/>
       <c r="N127" s="0"/>
@@ -4773,15 +4770,16 @@
       <c r="Q127" s="0"/>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C128" s="12"/>
+      <c r="B128" s="4"/>
+      <c r="C128" s="5"/>
       <c r="D128" s="0"/>
-      <c r="E128" s="12"/>
-      <c r="F128" s="12"/>
-      <c r="G128" s="13"/>
+      <c r="E128" s="0"/>
+      <c r="F128" s="0"/>
+      <c r="G128" s="0"/>
       <c r="H128" s="0"/>
-      <c r="I128" s="13"/>
+      <c r="I128" s="0"/>
       <c r="J128" s="0"/>
-      <c r="K128" s="13"/>
+      <c r="K128" s="0"/>
       <c r="L128" s="0"/>
       <c r="M128" s="0"/>
       <c r="N128" s="0"/>
@@ -4810,7 +4808,7 @@
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B130" s="7" t="n">
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="D130" s="0"/>
       <c r="E130" s="8" t="s">
@@ -4832,7 +4830,9 @@
       <c r="K130" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="L130" s="0"/>
+      <c r="L130" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="M130" s="0"/>
       <c r="N130" s="0"/>
       <c r="O130" s="0"/>
@@ -4868,7 +4868,9 @@
       <c r="K131" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="L131" s="0"/>
+      <c r="L131" s="8" t="s">
+        <v>47</v>
+      </c>
       <c r="M131" s="0"/>
       <c r="N131" s="0"/>
       <c r="O131" s="0"/>
@@ -4883,34 +4885,37 @@
         <v>300</v>
       </c>
       <c r="D132" s="1" t="n">
-        <v>11591</v>
+        <v>12428</v>
       </c>
       <c r="E132" s="12" t="n">
         <f aca="false">D132/60.48</f>
-        <v>191.650132275132</v>
+        <v>205.489417989418</v>
       </c>
       <c r="F132" s="12" t="n">
-        <v>812</v>
+        <v>837</v>
       </c>
       <c r="G132" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H132" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$130,G132)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I132" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J132" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$130,I132)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K132" s="13" t="n">
-        <f aca="false">$B$142+1</f>
-        <v>43920</v>
-      </c>
-      <c r="L132" s="0"/>
+        <f aca="false">$B$130+1</f>
+        <v>43922</v>
+      </c>
+      <c r="L132" s="0" t="n">
+        <f aca="false">_xlfn.DAYS(K132,G132)</f>
+        <v>22</v>
+      </c>
       <c r="M132" s="0"/>
       <c r="N132" s="0"/>
       <c r="O132" s="0"/>
@@ -4925,34 +4930,37 @@
         <v>230</v>
       </c>
       <c r="D133" s="1" t="n">
-        <v>7716</v>
+        <v>8464</v>
       </c>
       <c r="E133" s="12" t="n">
         <f aca="false">D133/46.75</f>
-        <v>165.048128342246</v>
+        <v>181.048128342246</v>
       </c>
       <c r="F133" s="12" t="n">
-        <v>913</v>
+        <v>748</v>
       </c>
       <c r="G133" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H133" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$130,G133)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I133" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J133" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$130,I133)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K133" s="13" t="n">
-        <f aca="false">$B$142+1</f>
-        <v>43920</v>
-      </c>
-      <c r="L133" s="0"/>
+        <f aca="false">$B$130+1</f>
+        <v>43922</v>
+      </c>
+      <c r="L133" s="0" t="n">
+        <f aca="false">_xlfn.DAYS(K133,G133)</f>
+        <v>15</v>
+      </c>
       <c r="M133" s="0"/>
       <c r="N133" s="0"/>
       <c r="O133" s="0"/>
@@ -4967,34 +4975,37 @@
         <v>330</v>
       </c>
       <c r="D134" s="1" t="n">
-        <v>3024</v>
+        <v>3523</v>
       </c>
       <c r="E134" s="12" t="n">
         <f aca="false">D134/65.27</f>
-        <v>46.3306266278535</v>
+        <v>53.9757928604259</v>
       </c>
       <c r="F134" s="12" t="n">
-        <v>418</v>
+        <v>499</v>
       </c>
       <c r="G134" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H134" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$130,G134)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I134" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J134" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$130,I134)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K134" s="13" t="n">
-        <f aca="false">$B$142+1</f>
-        <v>43920</v>
-      </c>
-      <c r="L134" s="0"/>
+        <f aca="false">$B$130+1</f>
+        <v>43922</v>
+      </c>
+      <c r="L134" s="0" t="n">
+        <f aca="false">_xlfn.DAYS(K134,G134)</f>
+        <v>10</v>
+      </c>
       <c r="M134" s="0"/>
       <c r="N134" s="0"/>
       <c r="O134" s="0"/>
@@ -5009,35 +5020,38 @@
         <v>50</v>
       </c>
       <c r="D135" s="12" t="n">
-        <v>146</v>
+        <v>180</v>
       </c>
       <c r="E135" s="12" t="n">
         <f aca="false">D135/10.36</f>
-        <v>14.0926640926641</v>
+        <v>17.3745173745174</v>
       </c>
       <c r="F135" s="12" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G135" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H135" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$130,G135)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I135" s="13" t="n">
         <f aca="false">$B$130+1</f>
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="J135" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$130,I135)</f>
         <v>-1</v>
       </c>
       <c r="K135" s="13" t="n">
-        <f aca="false">$B$142+1</f>
-        <v>43920</v>
-      </c>
-      <c r="L135" s="0"/>
+        <f aca="false">$B$130+1</f>
+        <v>43922</v>
+      </c>
+      <c r="L135" s="0" t="n">
+        <f aca="false">_xlfn.DAYS(K135,G135)</f>
+        <v>7</v>
+      </c>
       <c r="M135" s="0"/>
       <c r="N135" s="0"/>
       <c r="O135" s="0"/>
@@ -5052,35 +5066,38 @@
         <v>330</v>
       </c>
       <c r="D136" s="1" t="n">
-        <v>1408</v>
+        <v>1789</v>
       </c>
       <c r="E136" s="12" t="n">
         <f aca="false">D136/67.79</f>
-        <v>20.770025077445</v>
+        <v>26.390323056498</v>
       </c>
       <c r="F136" s="12" t="n">
-        <v>180</v>
+        <v>381</v>
       </c>
       <c r="G136" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H136" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$130,G136)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I136" s="13" t="n">
         <f aca="false">$B$130+1</f>
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="J136" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$130,I136)</f>
         <v>-1</v>
       </c>
       <c r="K136" s="13" t="n">
-        <f aca="false">$B$142+1</f>
-        <v>43920</v>
-      </c>
-      <c r="L136" s="0"/>
+        <f aca="false">$B$130+1</f>
+        <v>43922</v>
+      </c>
+      <c r="L136" s="0" t="n">
+        <f aca="false">_xlfn.DAYS(K136,G136)</f>
+        <v>6</v>
+      </c>
       <c r="M136" s="0"/>
       <c r="N136" s="0"/>
       <c r="O136" s="0"/>
@@ -5095,34 +5112,38 @@
         <v>1660</v>
       </c>
       <c r="D137" s="1" t="n">
-        <v>3141</v>
+        <v>4053</v>
       </c>
       <c r="E137" s="12" t="n">
         <f aca="false">D137/331</f>
-        <v>9.48942598187311</v>
+        <v>12.2447129909366</v>
       </c>
       <c r="F137" s="12" t="n">
-        <v>573</v>
+        <v>912</v>
       </c>
       <c r="G137" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H137" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$130,G137)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I137" s="13" t="n">
-        <v>43920</v>
+        <f aca="false">$B$130+1</f>
+        <v>43922</v>
       </c>
       <c r="J137" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$130,I137)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K137" s="13" t="n">
-        <f aca="false">$B$142+1</f>
-        <v>43920</v>
-      </c>
-      <c r="L137" s="0"/>
+        <f aca="false">$B$130+1</f>
+        <v>43922</v>
+      </c>
+      <c r="L137" s="0" t="n">
+        <f aca="false">_xlfn.DAYS(K137,G137)</f>
+        <v>5</v>
+      </c>
       <c r="M137" s="0"/>
       <c r="N137" s="0"/>
       <c r="O137" s="0"/>
@@ -5137,35 +5158,38 @@
         <v>414</v>
       </c>
       <c r="D138" s="1" t="n">
-        <v>645</v>
+        <v>775</v>
       </c>
       <c r="E138" s="12" t="n">
         <f aca="false">D138/83.784</f>
-        <v>7.69836723002005</v>
+        <v>9.24997612909386</v>
       </c>
       <c r="F138" s="12" t="n">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="G138" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H138" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$130,G138)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I138" s="13" t="n">
         <f aca="false">$B$130+1</f>
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="J138" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$130,I138)</f>
         <v>-1</v>
       </c>
       <c r="K138" s="13" t="n">
-        <f aca="false">$B$142+1</f>
-        <v>43920</v>
-      </c>
-      <c r="L138" s="0"/>
+        <f aca="false">$B$130+1</f>
+        <v>43922</v>
+      </c>
+      <c r="L138" s="0" t="n">
+        <f aca="false">_xlfn.DAYS(K138,G138)</f>
+        <v>4</v>
+      </c>
       <c r="M138" s="0"/>
       <c r="N138" s="0"/>
       <c r="O138" s="0"/>
@@ -5173,16 +5197,15 @@
       <c r="Q138" s="0"/>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B139" s="4"/>
-      <c r="C139" s="5"/>
+      <c r="C139" s="12"/>
       <c r="D139" s="0"/>
-      <c r="E139" s="0"/>
-      <c r="F139" s="0"/>
-      <c r="G139" s="0"/>
+      <c r="E139" s="12"/>
+      <c r="F139" s="12"/>
+      <c r="G139" s="13"/>
       <c r="H139" s="0"/>
-      <c r="I139" s="0"/>
+      <c r="I139" s="13"/>
       <c r="J139" s="0"/>
-      <c r="K139" s="0"/>
+      <c r="K139" s="13"/>
       <c r="L139" s="0"/>
       <c r="M139" s="0"/>
       <c r="N139" s="0"/>
@@ -5191,16 +5214,15 @@
       <c r="Q139" s="0"/>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B140" s="4"/>
-      <c r="C140" s="5"/>
+      <c r="C140" s="12"/>
       <c r="D140" s="0"/>
-      <c r="E140" s="0"/>
-      <c r="F140" s="0"/>
-      <c r="G140" s="0"/>
+      <c r="E140" s="12"/>
+      <c r="F140" s="12"/>
+      <c r="G140" s="13"/>
       <c r="H140" s="0"/>
-      <c r="I140" s="0"/>
+      <c r="I140" s="13"/>
       <c r="J140" s="0"/>
-      <c r="K140" s="0"/>
+      <c r="K140" s="13"/>
       <c r="L140" s="0"/>
       <c r="M140" s="0"/>
       <c r="N140" s="0"/>
@@ -5229,7 +5251,7 @@
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B142" s="7" t="n">
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="D142" s="0"/>
       <c r="E142" s="8" t="s">
@@ -5302,31 +5324,31 @@
         <v>300</v>
       </c>
       <c r="D144" s="1" t="n">
-        <v>10779</v>
+        <v>11591</v>
       </c>
       <c r="E144" s="12" t="n">
         <f aca="false">D144/60.48</f>
-        <v>178.224206349206</v>
+        <v>191.650132275132</v>
       </c>
       <c r="F144" s="12" t="n">
-        <v>756</v>
+        <v>812</v>
       </c>
       <c r="G144" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H144" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$142,G144)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I144" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J144" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$142,I144)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K144" s="13" t="n">
-        <f aca="false">$B$142+1</f>
+        <f aca="false">$B$154+1</f>
         <v>43920</v>
       </c>
       <c r="L144" s="0"/>
@@ -5344,31 +5366,31 @@
         <v>230</v>
       </c>
       <c r="D145" s="1" t="n">
-        <v>6803</v>
+        <v>7716</v>
       </c>
       <c r="E145" s="12" t="n">
         <f aca="false">D145/46.75</f>
-        <v>145.51871657754</v>
+        <v>165.048128342246</v>
       </c>
       <c r="F145" s="12" t="n">
-        <v>821</v>
+        <v>913</v>
       </c>
       <c r="G145" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H145" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$142,G145)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I145" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J145" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$142,I145)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K145" s="13" t="n">
-        <f aca="false">$B$142+1</f>
+        <f aca="false">$B$154+1</f>
         <v>43920</v>
       </c>
       <c r="L145" s="0"/>
@@ -5386,31 +5408,31 @@
         <v>330</v>
       </c>
       <c r="D146" s="1" t="n">
-        <v>2606</v>
+        <v>3024</v>
       </c>
       <c r="E146" s="12" t="n">
         <f aca="false">D146/65.27</f>
-        <v>39.9264593228129</v>
+        <v>46.3306266278535</v>
       </c>
       <c r="F146" s="12" t="n">
-        <v>292</v>
+        <v>418</v>
       </c>
       <c r="G146" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H146" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$142,G146)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I146" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J146" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$142,I146)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K146" s="13" t="n">
-        <f aca="false">$B$142+1</f>
+        <f aca="false">$B$154+1</f>
         <v>43920</v>
       </c>
       <c r="L146" s="0"/>
@@ -5422,38 +5444,38 @@
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B147" s="0" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C147" s="12" t="n">
-        <v>1660</v>
-      </c>
-      <c r="D147" s="1" t="n">
-        <v>2583</v>
+        <v>50</v>
+      </c>
+      <c r="D147" s="12" t="n">
+        <v>146</v>
       </c>
       <c r="E147" s="12" t="n">
-        <f aca="false">D147/331</f>
-        <v>7.8036253776435</v>
+        <f aca="false">D147/10.36</f>
+        <v>14.0926640926641</v>
       </c>
       <c r="F147" s="12" t="n">
-        <v>363</v>
+        <v>36</v>
       </c>
       <c r="G147" s="13" t="n">
-        <v>43917</v>
+        <v>43915</v>
       </c>
       <c r="H147" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$142,G147)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I147" s="13" t="n">
         <f aca="false">$B$142+1</f>
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="J147" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$142,I147)</f>
         <v>-1</v>
       </c>
       <c r="K147" s="13" t="n">
-        <f aca="false">$B$142+1</f>
+        <f aca="false">$B$154+1</f>
         <v>43920</v>
       </c>
       <c r="L147" s="0"/>
@@ -5471,32 +5493,32 @@
         <v>330</v>
       </c>
       <c r="D148" s="1" t="n">
-        <v>1228</v>
+        <v>1408</v>
       </c>
       <c r="E148" s="12" t="n">
         <f aca="false">D148/67.79</f>
-        <v>18.1147661897035</v>
+        <v>20.770025077445</v>
       </c>
       <c r="F148" s="12" t="n">
-        <v>209</v>
+        <v>180</v>
       </c>
       <c r="G148" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H148" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$142,G148)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I148" s="13" t="n">
         <f aca="false">$B$142+1</f>
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="J148" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$142,I148)</f>
         <v>-1</v>
       </c>
       <c r="K148" s="13" t="n">
-        <f aca="false">$B$142+1</f>
+        <f aca="false">$B$154+1</f>
         <v>43920</v>
       </c>
       <c r="L148" s="0"/>
@@ -5508,38 +5530,37 @@
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B149" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C149" s="12" t="n">
-        <v>414</v>
+        <v>1660</v>
       </c>
       <c r="D149" s="1" t="n">
-        <v>541</v>
+        <v>3141</v>
       </c>
       <c r="E149" s="12" t="n">
-        <f aca="false">D149/83.784</f>
-        <v>6.457080110761</v>
+        <f aca="false">D149/331</f>
+        <v>9.48942598187311</v>
       </c>
       <c r="F149" s="12" t="n">
-        <v>108</v>
+        <v>573</v>
       </c>
       <c r="G149" s="13" t="n">
-        <v>43918</v>
+        <v>43917</v>
       </c>
       <c r="H149" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$142,G149)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I149" s="13" t="n">
-        <f aca="false">$B$142+1</f>
         <v>43920</v>
       </c>
       <c r="J149" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$142,I149)</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K149" s="13" t="n">
-        <f aca="false">$B$142+1</f>
+        <f aca="false">$B$154+1</f>
         <v>43920</v>
       </c>
       <c r="L149" s="0"/>
@@ -5551,38 +5572,38 @@
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B150" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C150" s="12" t="n">
-        <v>50</v>
-      </c>
-      <c r="D150" s="12" t="n">
-        <v>110</v>
+        <v>414</v>
+      </c>
+      <c r="D150" s="1" t="n">
+        <v>645</v>
       </c>
       <c r="E150" s="12" t="n">
-        <f aca="false">D150/10.36</f>
-        <v>10.6177606177606</v>
+        <f aca="false">D150/83.784</f>
+        <v>7.69836723002005</v>
       </c>
       <c r="F150" s="12" t="n">
-        <v>5</v>
+        <v>104</v>
       </c>
       <c r="G150" s="13" t="n">
-        <v>43915</v>
+        <v>43918</v>
       </c>
       <c r="H150" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$142,G150)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I150" s="13" t="n">
         <f aca="false">$B$142+1</f>
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="J150" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$142,I150)</f>
         <v>-1</v>
       </c>
       <c r="K150" s="13" t="n">
-        <f aca="false">$B$142+1</f>
+        <f aca="false">$B$154+1</f>
         <v>43920</v>
       </c>
       <c r="L150" s="0"/>
@@ -5649,15 +5670,13 @@
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B154" s="7" t="n">
-        <v>43918</v>
-      </c>
-      <c r="D154" s="8" t="s">
-        <v>12</v>
-      </c>
+        <v>43919</v>
+      </c>
+      <c r="D154" s="0"/>
       <c r="E154" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F154" s="8"/>
+      <c r="F154" s="0"/>
       <c r="G154" s="8" t="s">
         <v>35</v>
       </c>
@@ -5685,8 +5704,8 @@
       <c r="C155" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D155" s="10" t="s">
-        <v>6</v>
+      <c r="D155" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="E155" s="10" t="s">
         <v>41</v>
@@ -5724,32 +5743,32 @@
         <v>300</v>
       </c>
       <c r="D156" s="1" t="n">
-        <v>10023</v>
+        <v>10779</v>
       </c>
       <c r="E156" s="12" t="n">
         <f aca="false">D156/60.48</f>
-        <v>165.724206349206</v>
+        <v>178.224206349206</v>
       </c>
       <c r="F156" s="12" t="n">
-        <v>889</v>
+        <v>756</v>
       </c>
       <c r="G156" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H156" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$154,G156)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I156" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J156" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$166,I156)</f>
-        <v>15</v>
+        <f aca="false">_xlfn.DAYS($B$154,I156)</f>
+        <v>17</v>
       </c>
       <c r="K156" s="13" t="n">
         <f aca="false">$B$154+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="L156" s="0"/>
       <c r="M156" s="0"/>
@@ -5766,32 +5785,32 @@
         <v>230</v>
       </c>
       <c r="D157" s="1" t="n">
-        <v>5982</v>
+        <v>6803</v>
       </c>
       <c r="E157" s="12" t="n">
         <f aca="false">D157/46.75</f>
-        <v>127.957219251337</v>
+        <v>145.51871657754</v>
       </c>
       <c r="F157" s="12" t="n">
-        <v>844</v>
+        <v>821</v>
       </c>
       <c r="G157" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H157" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$154,G157)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I157" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J157" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$166,I157)</f>
-        <v>4</v>
+        <f aca="false">_xlfn.DAYS($B$154,I157)</f>
+        <v>6</v>
       </c>
       <c r="K157" s="13" t="n">
         <f aca="false">$B$154+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="L157" s="0"/>
       <c r="M157" s="0"/>
@@ -5808,32 +5827,32 @@
         <v>330</v>
       </c>
       <c r="D158" s="1" t="n">
-        <v>2314</v>
+        <v>2606</v>
       </c>
       <c r="E158" s="12" t="n">
         <f aca="false">D158/65.27</f>
-        <v>35.4527347939329</v>
+        <v>39.9264593228129</v>
       </c>
       <c r="F158" s="12" t="n">
-        <v>319</v>
+        <v>292</v>
       </c>
       <c r="G158" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H158" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$154,G158)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I158" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J158" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$166,I158)</f>
-        <v>3</v>
+        <f aca="false">_xlfn.DAYS($B$154,I158)</f>
+        <v>5</v>
       </c>
       <c r="K158" s="13" t="n">
         <f aca="false">$B$154+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="L158" s="0"/>
       <c r="M158" s="0"/>
@@ -5850,25 +5869,25 @@
         <v>1660</v>
       </c>
       <c r="D159" s="1" t="n">
-        <v>2221</v>
+        <v>2583</v>
       </c>
       <c r="E159" s="12" t="n">
         <f aca="false">D159/331</f>
-        <v>6.70996978851964</v>
+        <v>7.8036253776435</v>
       </c>
       <c r="F159" s="12" t="n">
-        <v>525</v>
+        <v>363</v>
       </c>
       <c r="G159" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H159" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$154,G159)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I159" s="13" t="n">
         <f aca="false">$B$154+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="J159" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$154,I159)</f>
@@ -5876,7 +5895,7 @@
       </c>
       <c r="K159" s="13" t="n">
         <f aca="false">$B$154+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="L159" s="0"/>
       <c r="M159" s="0"/>
@@ -5893,25 +5912,25 @@
         <v>330</v>
       </c>
       <c r="D160" s="1" t="n">
-        <v>1019</v>
+        <v>1228</v>
       </c>
       <c r="E160" s="12" t="n">
         <f aca="false">D160/67.79</f>
-        <v>15.0317155922702</v>
+        <v>18.1147661897035</v>
       </c>
       <c r="F160" s="12" t="n">
-        <v>260</v>
+        <v>209</v>
       </c>
       <c r="G160" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H160" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$154,G160)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I160" s="13" t="n">
         <f aca="false">$B$154+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="J160" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$154,I160)</f>
@@ -5919,7 +5938,7 @@
       </c>
       <c r="K160" s="13" t="n">
         <f aca="false">$B$154+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="L160" s="0"/>
       <c r="M160" s="0"/>
@@ -5936,25 +5955,25 @@
         <v>414</v>
       </c>
       <c r="D161" s="1" t="n">
-        <v>433</v>
+        <v>541</v>
       </c>
       <c r="E161" s="12" t="n">
         <f aca="false">D161/83.784</f>
-        <v>5.16805117922276</v>
+        <v>6.457080110761</v>
       </c>
       <c r="F161" s="12" t="n">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="G161" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H161" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$154,G161)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I161" s="13" t="n">
         <f aca="false">$B$154+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="J161" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$154,I161)</f>
@@ -5962,7 +5981,7 @@
       </c>
       <c r="K161" s="13" t="n">
         <f aca="false">$B$154+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="L161" s="0"/>
       <c r="M161" s="0"/>
@@ -5979,25 +5998,25 @@
         <v>50</v>
       </c>
       <c r="D162" s="12" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E162" s="12" t="n">
         <f aca="false">D162/10.36</f>
-        <v>10.1351351351351</v>
+        <v>10.6177606177606</v>
       </c>
       <c r="F162" s="12" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G162" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H162" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$154,G162)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I162" s="13" t="n">
         <f aca="false">$B$154+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="J162" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$154,I162)</f>
@@ -6005,7 +6024,7 @@
       </c>
       <c r="K162" s="13" t="n">
         <f aca="false">$B$154+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="L162" s="0"/>
       <c r="M162" s="0"/>
@@ -6015,15 +6034,16 @@
       <c r="Q162" s="0"/>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C163" s="12"/>
-      <c r="D163" s="12"/>
-      <c r="E163" s="12"/>
-      <c r="F163" s="12"/>
-      <c r="G163" s="13"/>
+      <c r="B163" s="4"/>
+      <c r="C163" s="5"/>
+      <c r="D163" s="0"/>
+      <c r="E163" s="0"/>
+      <c r="F163" s="0"/>
+      <c r="G163" s="0"/>
       <c r="H163" s="0"/>
-      <c r="I163" s="13"/>
+      <c r="I163" s="0"/>
       <c r="J163" s="0"/>
-      <c r="K163" s="13"/>
+      <c r="K163" s="0"/>
       <c r="L163" s="0"/>
       <c r="M163" s="0"/>
       <c r="N163" s="0"/>
@@ -6068,11 +6088,10 @@
       <c r="P165" s="0"/>
       <c r="Q165" s="0"/>
     </row>
-    <row r="166" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B166" s="7" t="n">
-        <v>43917</v>
-      </c>
-      <c r="C166" s="0"/>
+        <v>43918</v>
+      </c>
       <c r="D166" s="8" t="s">
         <v>12</v>
       </c>
@@ -6095,10 +6114,14 @@
       <c r="K166" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="L166" s="8"/>
+      <c r="L166" s="0"/>
+      <c r="M166" s="0"/>
+      <c r="N166" s="0"/>
+      <c r="O166" s="0"/>
+      <c r="P166" s="0"/>
+      <c r="Q166" s="0"/>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="3"/>
       <c r="B167" s="9"/>
       <c r="C167" s="10" t="s">
         <v>40</v>
@@ -6127,7 +6150,7 @@
       <c r="K167" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="L167" s="8"/>
+      <c r="L167" s="0"/>
       <c r="M167" s="0"/>
       <c r="N167" s="0"/>
       <c r="O167" s="0"/>
@@ -6142,32 +6165,32 @@
         <v>300</v>
       </c>
       <c r="D168" s="1" t="n">
-        <v>9134</v>
+        <v>10023</v>
       </c>
       <c r="E168" s="12" t="n">
         <f aca="false">D168/60.48</f>
-        <v>151.025132275132</v>
+        <v>165.724206349206</v>
       </c>
       <c r="F168" s="12" t="n">
-        <v>919</v>
+        <v>889</v>
       </c>
       <c r="G168" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H168" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$166,G168)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I168" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J168" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$166,I168)</f>
+        <f aca="false">_xlfn.DAYS(B$178,I168)</f>
         <v>15</v>
       </c>
       <c r="K168" s="13" t="n">
         <f aca="false">$B$166+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="L168" s="0"/>
       <c r="M168" s="0"/>
@@ -6184,32 +6207,32 @@
         <v>230</v>
       </c>
       <c r="D169" s="1" t="n">
-        <v>5138</v>
+        <v>5982</v>
       </c>
       <c r="E169" s="12" t="n">
         <f aca="false">D169/46.75</f>
-        <v>109.903743315508</v>
+        <v>127.957219251337</v>
       </c>
       <c r="F169" s="12" t="n">
-        <v>773</v>
+        <v>844</v>
       </c>
       <c r="G169" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H169" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$166,G169)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I169" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J169" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$166,I169)</f>
+        <f aca="false">_xlfn.DAYS(B$178,I169)</f>
         <v>4</v>
       </c>
       <c r="K169" s="13" t="n">
         <f aca="false">$B$166+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="L169" s="0"/>
       <c r="M169" s="0"/>
@@ -6226,32 +6249,32 @@
         <v>330</v>
       </c>
       <c r="D170" s="1" t="n">
-        <v>1995</v>
+        <v>2314</v>
       </c>
       <c r="E170" s="12" t="n">
         <f aca="false">D170/65.27</f>
-        <v>30.5653439558756</v>
+        <v>35.4527347939329</v>
       </c>
       <c r="F170" s="12" t="n">
-        <v>299</v>
+        <v>319</v>
       </c>
       <c r="G170" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H170" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$166,G170)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I170" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J170" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$166,I170)</f>
+        <f aca="false">_xlfn.DAYS(B$178,I170)</f>
         <v>3</v>
       </c>
       <c r="K170" s="13" t="n">
         <f aca="false">$B$166+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="L170" s="0"/>
       <c r="M170" s="0"/>
@@ -6268,34 +6291,33 @@
         <v>1660</v>
       </c>
       <c r="D171" s="1" t="n">
-        <v>1696</v>
+        <v>2221</v>
       </c>
       <c r="E171" s="12" t="n">
         <f aca="false">D171/331</f>
-        <v>5.12386706948641</v>
+        <v>6.70996978851964</v>
       </c>
       <c r="F171" s="12" t="n">
-        <v>400</v>
+        <v>525</v>
       </c>
       <c r="G171" s="13" t="n">
-        <f aca="false">$B$166</f>
         <v>43917</v>
       </c>
       <c r="H171" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$166,G171)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I171" s="13" t="n">
         <f aca="false">$B$166+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="J171" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$166,I171)</f>
+        <f aca="false">_xlfn.DAYS($B$166,I171)</f>
         <v>-1</v>
       </c>
       <c r="K171" s="13" t="n">
         <f aca="false">$B$166+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="L171" s="0"/>
       <c r="M171" s="0"/>
@@ -6312,33 +6334,33 @@
         <v>330</v>
       </c>
       <c r="D172" s="1" t="n">
-        <v>759</v>
+        <v>1019</v>
       </c>
       <c r="E172" s="12" t="n">
         <f aca="false">D172/67.79</f>
-        <v>11.1963416433102</v>
+        <v>15.0317155922702</v>
       </c>
       <c r="F172" s="12" t="n">
-        <v>181</v>
+        <v>260</v>
       </c>
       <c r="G172" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H172" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$166,G172)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I172" s="13" t="n">
         <f aca="false">$B$166+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="J172" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$166,I172)</f>
+        <f aca="false">_xlfn.DAYS($B$166,I172)</f>
         <v>-1</v>
       </c>
       <c r="K172" s="13" t="n">
         <f aca="false">$B$166+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="L172" s="0"/>
       <c r="M172" s="0"/>
@@ -6355,34 +6377,33 @@
         <v>414</v>
       </c>
       <c r="D173" s="1" t="n">
-        <v>351</v>
+        <v>433</v>
       </c>
       <c r="E173" s="12" t="n">
         <f aca="false">D173/83.784</f>
-        <v>4.18934402749928</v>
+        <v>5.16805117922276</v>
       </c>
       <c r="F173" s="12" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G173" s="13" t="n">
-        <f aca="false">$B$166+1</f>
         <v>43918</v>
       </c>
       <c r="H173" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$166,G173)</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I173" s="13" t="n">
         <f aca="false">$B$166+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="J173" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$166,I173)</f>
+        <f aca="false">_xlfn.DAYS($B$166,I173)</f>
         <v>-1</v>
       </c>
       <c r="K173" s="13" t="n">
         <f aca="false">$B$166+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="L173" s="0"/>
       <c r="M173" s="0"/>
@@ -6406,26 +6427,26 @@
         <v>10.1351351351351</v>
       </c>
       <c r="F174" s="12" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="G174" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H174" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$166,G174)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I174" s="13" t="n">
         <f aca="false">$B$166+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="J174" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$166,I174)</f>
+        <f aca="false">_xlfn.DAYS($B$166,I174)</f>
         <v>-1</v>
       </c>
       <c r="K174" s="13" t="n">
         <f aca="false">$B$166+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="L174" s="0"/>
       <c r="M174" s="0"/>
@@ -6435,14 +6456,15 @@
       <c r="Q174" s="0"/>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D175" s="0"/>
-      <c r="E175" s="0"/>
-      <c r="F175" s="0"/>
-      <c r="G175" s="0"/>
+      <c r="C175" s="12"/>
+      <c r="D175" s="12"/>
+      <c r="E175" s="12"/>
+      <c r="F175" s="12"/>
+      <c r="G175" s="13"/>
       <c r="H175" s="0"/>
-      <c r="I175" s="0"/>
+      <c r="I175" s="13"/>
       <c r="J175" s="0"/>
-      <c r="K175" s="0"/>
+      <c r="K175" s="13"/>
       <c r="L175" s="0"/>
       <c r="M175" s="0"/>
       <c r="N175" s="0"/>
@@ -6451,6 +6473,8 @@
       <c r="Q175" s="0"/>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B176" s="4"/>
+      <c r="C176" s="5"/>
       <c r="D176" s="0"/>
       <c r="E176" s="0"/>
       <c r="F176" s="0"/>
@@ -6485,10 +6509,11 @@
       <c r="P177" s="0"/>
       <c r="Q177" s="0"/>
     </row>
-    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B178" s="7" t="n">
-        <v>43916</v>
-      </c>
+        <v>43917</v>
+      </c>
+      <c r="C178" s="0"/>
       <c r="D178" s="8" t="s">
         <v>12</v>
       </c>
@@ -6511,17 +6536,13 @@
       <c r="K178" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="L178" s="0"/>
-      <c r="M178" s="0"/>
-      <c r="N178" s="0"/>
-      <c r="O178" s="0"/>
-      <c r="P178" s="0"/>
-      <c r="Q178" s="0"/>
+      <c r="L178" s="8"/>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="3"/>
       <c r="B179" s="9"/>
       <c r="C179" s="10" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D179" s="10" t="s">
         <v>6</v>
@@ -6547,7 +6568,7 @@
       <c r="K179" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="L179" s="0"/>
+      <c r="L179" s="8"/>
       <c r="M179" s="0"/>
       <c r="N179" s="0"/>
       <c r="O179" s="0"/>
@@ -6562,32 +6583,32 @@
         <v>300</v>
       </c>
       <c r="D180" s="1" t="n">
-        <v>8215</v>
+        <v>9134</v>
       </c>
       <c r="E180" s="12" t="n">
         <f aca="false">D180/60.48</f>
-        <v>135.830026455026</v>
+        <v>151.025132275132</v>
       </c>
       <c r="F180" s="12" t="n">
-        <v>712</v>
+        <v>919</v>
       </c>
       <c r="G180" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H180" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$178,G180)</f>
-        <v>16</v>
+        <f aca="false">_xlfn.DAYS($B$178,G180)</f>
+        <v>17</v>
       </c>
       <c r="I180" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J180" s="1" t="n">
         <f aca="false">_xlfn.DAYS(B$178,I180)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K180" s="13" t="n">
-        <f aca="false">B$178+1</f>
-        <v>43917</v>
+        <f aca="false">$B$178+1</f>
+        <v>43918</v>
       </c>
       <c r="L180" s="0"/>
       <c r="M180" s="0"/>
@@ -6604,32 +6625,32 @@
         <v>230</v>
       </c>
       <c r="D181" s="1" t="n">
-        <v>4365</v>
+        <v>5138</v>
       </c>
       <c r="E181" s="12" t="n">
         <f aca="false">D181/46.75</f>
-        <v>93.3689839572193</v>
+        <v>109.903743315508</v>
       </c>
       <c r="F181" s="12" t="n">
-        <v>718</v>
+        <v>773</v>
       </c>
       <c r="G181" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H181" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$178,G181)</f>
-        <v>9</v>
+        <f aca="false">_xlfn.DAYS($B$178,G181)</f>
+        <v>10</v>
       </c>
       <c r="I181" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J181" s="1" t="n">
         <f aca="false">_xlfn.DAYS(B$178,I181)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K181" s="13" t="n">
-        <f aca="false">B$178+1</f>
-        <v>43917</v>
+        <f aca="false">$B$178+1</f>
+        <v>43918</v>
       </c>
       <c r="L181" s="0"/>
       <c r="M181" s="0"/>
@@ -6646,32 +6667,32 @@
         <v>330</v>
       </c>
       <c r="D182" s="1" t="n">
-        <v>1696</v>
+        <v>1995</v>
       </c>
       <c r="E182" s="12" t="n">
         <f aca="false">D182/65.27</f>
-        <v>25.9843726060978</v>
+        <v>30.5653439558756</v>
       </c>
       <c r="F182" s="12" t="n">
-        <v>365</v>
+        <v>299</v>
       </c>
       <c r="G182" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H182" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$178,G182)</f>
-        <v>4</v>
+        <f aca="false">_xlfn.DAYS($B$178,G182)</f>
+        <v>5</v>
       </c>
       <c r="I182" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J182" s="1" t="n">
         <f aca="false">_xlfn.DAYS(B$178,I182)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K182" s="13" t="n">
-        <f aca="false">B$178+1</f>
-        <v>43917</v>
+        <f aca="false">$B$178+1</f>
+        <v>43918</v>
       </c>
       <c r="L182" s="0"/>
       <c r="M182" s="0"/>
@@ -6688,33 +6709,34 @@
         <v>1660</v>
       </c>
       <c r="D183" s="1" t="n">
-        <v>1295</v>
+        <v>1696</v>
       </c>
       <c r="E183" s="12" t="n">
         <f aca="false">D183/331</f>
-        <v>3.91238670694864</v>
+        <v>5.12386706948641</v>
       </c>
       <c r="F183" s="12" t="n">
-        <v>268</v>
+        <v>400</v>
       </c>
       <c r="G183" s="13" t="n">
+        <f aca="false">$B$178</f>
         <v>43917</v>
       </c>
       <c r="H183" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$178,G183)</f>
+        <f aca="false">_xlfn.DAYS($B$178,G183)</f>
+        <v>0</v>
+      </c>
+      <c r="I183" s="13" t="n">
+        <f aca="false">$B$178+1</f>
+        <v>43918</v>
+      </c>
+      <c r="J183" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$178,I183)</f>
         <v>-1</v>
       </c>
-      <c r="I183" s="13" t="n">
-        <f aca="false">B$178+1</f>
-        <v>43917</v>
-      </c>
-      <c r="J183" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$178,I183)</f>
-        <v>-1</v>
-      </c>
       <c r="K183" s="13" t="n">
-        <f aca="false">B$178+1</f>
-        <v>43917</v>
+        <f aca="false">$B$178+1</f>
+        <v>43918</v>
       </c>
       <c r="L183" s="0"/>
       <c r="M183" s="0"/>
@@ -6731,33 +6753,33 @@
         <v>330</v>
       </c>
       <c r="D184" s="1" t="n">
-        <v>578</v>
+        <v>759</v>
       </c>
       <c r="E184" s="12" t="n">
         <f aca="false">D184/67.79</f>
-        <v>8.52633131730344</v>
+        <v>11.1963416433102</v>
       </c>
       <c r="F184" s="12" t="n">
-        <v>115</v>
+        <v>181</v>
       </c>
       <c r="G184" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H184" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$178,G184)</f>
-        <v>0</v>
+        <f aca="false">_xlfn.DAYS($B$178,G184)</f>
+        <v>1</v>
       </c>
       <c r="I184" s="13" t="n">
-        <f aca="false">B$178+1</f>
-        <v>43917</v>
+        <f aca="false">$B$178+1</f>
+        <v>43918</v>
       </c>
       <c r="J184" s="1" t="n">
         <f aca="false">_xlfn.DAYS(B$178,I184)</f>
         <v>-1</v>
       </c>
       <c r="K184" s="13" t="n">
-        <f aca="false">B$178+1</f>
-        <v>43917</v>
+        <f aca="false">$B$178+1</f>
+        <v>43918</v>
       </c>
       <c r="L184" s="0"/>
       <c r="M184" s="0"/>
@@ -6774,33 +6796,34 @@
         <v>414</v>
       </c>
       <c r="D185" s="1" t="n">
-        <v>267</v>
+        <v>351</v>
       </c>
       <c r="E185" s="12" t="n">
         <f aca="false">D185/83.784</f>
-        <v>3.18676596963621</v>
+        <v>4.18934402749928</v>
       </c>
       <c r="F185" s="12" t="n">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="G185" s="13" t="n">
-        <v>43917</v>
+        <f aca="false">$B$178+1</f>
+        <v>43918</v>
       </c>
       <c r="H185" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$178,G185)</f>
+        <f aca="false">_xlfn.DAYS($B$178,G185)</f>
         <v>-1</v>
       </c>
       <c r="I185" s="13" t="n">
-        <f aca="false">B$178+1</f>
-        <v>43917</v>
+        <f aca="false">$B$178+1</f>
+        <v>43918</v>
       </c>
       <c r="J185" s="1" t="n">
         <f aca="false">_xlfn.DAYS(B$178,I185)</f>
         <v>-1</v>
       </c>
       <c r="K185" s="13" t="n">
-        <f aca="false">B$178+1</f>
-        <v>43917</v>
+        <f aca="false">$B$178+1</f>
+        <v>43918</v>
       </c>
       <c r="L185" s="0"/>
       <c r="M185" s="0"/>
@@ -6817,33 +6840,33 @@
         <v>50</v>
       </c>
       <c r="D186" s="12" t="n">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="E186" s="12" t="n">
         <f aca="false">D186/10.36</f>
-        <v>7.43243243243243</v>
+        <v>10.1351351351351</v>
       </c>
       <c r="F186" s="12" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="G186" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H186" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$178,G186)</f>
-        <v>1</v>
+        <f aca="false">_xlfn.DAYS($B$178,G186)</f>
+        <v>2</v>
       </c>
       <c r="I186" s="13" t="n">
-        <f aca="false">B$178+1</f>
-        <v>43917</v>
+        <f aca="false">$B$178+1</f>
+        <v>43918</v>
       </c>
       <c r="J186" s="1" t="n">
         <f aca="false">_xlfn.DAYS(B$178,I186)</f>
         <v>-1</v>
       </c>
       <c r="K186" s="13" t="n">
-        <f aca="false">B$178+1</f>
-        <v>43917</v>
+        <f aca="false">$B$178+1</f>
+        <v>43918</v>
       </c>
       <c r="L186" s="0"/>
       <c r="M186" s="0"/>
@@ -6851,6 +6874,424 @@
       <c r="O186" s="0"/>
       <c r="P186" s="0"/>
       <c r="Q186" s="0"/>
+    </row>
+    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D187" s="0"/>
+      <c r="E187" s="0"/>
+      <c r="F187" s="0"/>
+      <c r="G187" s="0"/>
+      <c r="H187" s="0"/>
+      <c r="I187" s="0"/>
+      <c r="J187" s="0"/>
+      <c r="K187" s="0"/>
+      <c r="L187" s="0"/>
+      <c r="M187" s="0"/>
+      <c r="N187" s="0"/>
+      <c r="O187" s="0"/>
+      <c r="P187" s="0"/>
+      <c r="Q187" s="0"/>
+    </row>
+    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D188" s="0"/>
+      <c r="E188" s="0"/>
+      <c r="F188" s="0"/>
+      <c r="G188" s="0"/>
+      <c r="H188" s="0"/>
+      <c r="I188" s="0"/>
+      <c r="J188" s="0"/>
+      <c r="K188" s="0"/>
+      <c r="L188" s="0"/>
+      <c r="M188" s="0"/>
+      <c r="N188" s="0"/>
+      <c r="O188" s="0"/>
+      <c r="P188" s="0"/>
+      <c r="Q188" s="0"/>
+    </row>
+    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B189" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D189" s="0"/>
+      <c r="E189" s="0"/>
+      <c r="F189" s="0"/>
+      <c r="G189" s="0"/>
+      <c r="H189" s="0"/>
+      <c r="I189" s="0"/>
+      <c r="J189" s="0"/>
+      <c r="K189" s="0"/>
+      <c r="L189" s="0"/>
+      <c r="M189" s="0"/>
+      <c r="N189" s="0"/>
+      <c r="O189" s="0"/>
+      <c r="P189" s="0"/>
+      <c r="Q189" s="0"/>
+    </row>
+    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B190" s="7" t="n">
+        <v>43916</v>
+      </c>
+      <c r="D190" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E190" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F190" s="8"/>
+      <c r="G190" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H190" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I190" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J190" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K190" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="L190" s="0"/>
+      <c r="M190" s="0"/>
+      <c r="N190" s="0"/>
+      <c r="O190" s="0"/>
+      <c r="P190" s="0"/>
+      <c r="Q190" s="0"/>
+    </row>
+    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B191" s="9"/>
+      <c r="C191" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D191" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E191" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F191" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G191" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="H191" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I191" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="J191" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K191" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="L191" s="0"/>
+      <c r="M191" s="0"/>
+      <c r="N191" s="0"/>
+      <c r="O191" s="0"/>
+      <c r="P191" s="0"/>
+      <c r="Q191" s="0"/>
+    </row>
+    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B192" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C192" s="12" t="n">
+        <v>300</v>
+      </c>
+      <c r="D192" s="1" t="n">
+        <v>8215</v>
+      </c>
+      <c r="E192" s="12" t="n">
+        <f aca="false">D192/60.48</f>
+        <v>135.830026455026</v>
+      </c>
+      <c r="F192" s="12" t="n">
+        <v>712</v>
+      </c>
+      <c r="G192" s="13" t="n">
+        <v>43900</v>
+      </c>
+      <c r="H192" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$190,G192)</f>
+        <v>16</v>
+      </c>
+      <c r="I192" s="13" t="n">
+        <v>43902</v>
+      </c>
+      <c r="J192" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$190,I192)</f>
+        <v>14</v>
+      </c>
+      <c r="K192" s="13" t="n">
+        <f aca="false">B$190+1</f>
+        <v>43917</v>
+      </c>
+      <c r="L192" s="0"/>
+      <c r="M192" s="0"/>
+      <c r="N192" s="0"/>
+      <c r="O192" s="0"/>
+      <c r="P192" s="0"/>
+      <c r="Q192" s="0"/>
+    </row>
+    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B193" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C193" s="12" t="n">
+        <v>230</v>
+      </c>
+      <c r="D193" s="1" t="n">
+        <v>4365</v>
+      </c>
+      <c r="E193" s="12" t="n">
+        <f aca="false">D193/46.75</f>
+        <v>93.3689839572193</v>
+      </c>
+      <c r="F193" s="12" t="n">
+        <v>718</v>
+      </c>
+      <c r="G193" s="13" t="n">
+        <v>43907</v>
+      </c>
+      <c r="H193" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$190,G193)</f>
+        <v>9</v>
+      </c>
+      <c r="I193" s="13" t="n">
+        <v>43913</v>
+      </c>
+      <c r="J193" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$190,I193)</f>
+        <v>3</v>
+      </c>
+      <c r="K193" s="13" t="n">
+        <f aca="false">B$190+1</f>
+        <v>43917</v>
+      </c>
+      <c r="L193" s="0"/>
+      <c r="M193" s="0"/>
+      <c r="N193" s="0"/>
+      <c r="O193" s="0"/>
+      <c r="P193" s="0"/>
+      <c r="Q193" s="0"/>
+    </row>
+    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B194" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C194" s="12" t="n">
+        <v>330</v>
+      </c>
+      <c r="D194" s="1" t="n">
+        <v>1696</v>
+      </c>
+      <c r="E194" s="12" t="n">
+        <f aca="false">D194/65.27</f>
+        <v>25.9843726060978</v>
+      </c>
+      <c r="F194" s="12" t="n">
+        <v>365</v>
+      </c>
+      <c r="G194" s="13" t="n">
+        <v>43912</v>
+      </c>
+      <c r="H194" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$190,G194)</f>
+        <v>4</v>
+      </c>
+      <c r="I194" s="13" t="n">
+        <v>43914</v>
+      </c>
+      <c r="J194" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$190,I194)</f>
+        <v>2</v>
+      </c>
+      <c r="K194" s="13" t="n">
+        <f aca="false">B$190+1</f>
+        <v>43917</v>
+      </c>
+      <c r="L194" s="0"/>
+      <c r="M194" s="0"/>
+      <c r="N194" s="0"/>
+      <c r="O194" s="0"/>
+      <c r="P194" s="0"/>
+      <c r="Q194" s="0"/>
+    </row>
+    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B195" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C195" s="12" t="n">
+        <v>1660</v>
+      </c>
+      <c r="D195" s="1" t="n">
+        <v>1295</v>
+      </c>
+      <c r="E195" s="12" t="n">
+        <f aca="false">D195/331</f>
+        <v>3.91238670694864</v>
+      </c>
+      <c r="F195" s="12" t="n">
+        <v>268</v>
+      </c>
+      <c r="G195" s="13" t="n">
+        <v>43917</v>
+      </c>
+      <c r="H195" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$190,G195)</f>
+        <v>-1</v>
+      </c>
+      <c r="I195" s="13" t="n">
+        <f aca="false">B$190+1</f>
+        <v>43917</v>
+      </c>
+      <c r="J195" s="1" t="n">
+        <f aca="false">_xlfn.DAYS($B$190,I195)</f>
+        <v>-1</v>
+      </c>
+      <c r="K195" s="13" t="n">
+        <f aca="false">B$190+1</f>
+        <v>43917</v>
+      </c>
+      <c r="L195" s="0"/>
+      <c r="M195" s="0"/>
+      <c r="N195" s="0"/>
+      <c r="O195" s="0"/>
+      <c r="P195" s="0"/>
+      <c r="Q195" s="0"/>
+    </row>
+    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B196" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C196" s="12" t="n">
+        <v>330</v>
+      </c>
+      <c r="D196" s="1" t="n">
+        <v>578</v>
+      </c>
+      <c r="E196" s="12" t="n">
+        <f aca="false">D196/67.79</f>
+        <v>8.52633131730344</v>
+      </c>
+      <c r="F196" s="12" t="n">
+        <v>115</v>
+      </c>
+      <c r="G196" s="13" t="n">
+        <v>43916</v>
+      </c>
+      <c r="H196" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$190,G196)</f>
+        <v>0</v>
+      </c>
+      <c r="I196" s="13" t="n">
+        <f aca="false">B$190+1</f>
+        <v>43917</v>
+      </c>
+      <c r="J196" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$190,I196)</f>
+        <v>-1</v>
+      </c>
+      <c r="K196" s="13" t="n">
+        <f aca="false">B$190+1</f>
+        <v>43917</v>
+      </c>
+      <c r="L196" s="0"/>
+      <c r="M196" s="0"/>
+      <c r="N196" s="0"/>
+      <c r="O196" s="0"/>
+      <c r="P196" s="0"/>
+      <c r="Q196" s="0"/>
+    </row>
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B197" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C197" s="12" t="n">
+        <v>414</v>
+      </c>
+      <c r="D197" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="E197" s="12" t="n">
+        <f aca="false">D197/83.784</f>
+        <v>3.18676596963621</v>
+      </c>
+      <c r="F197" s="12" t="n">
+        <v>61</v>
+      </c>
+      <c r="G197" s="13" t="n">
+        <v>43917</v>
+      </c>
+      <c r="H197" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$190,G197)</f>
+        <v>-1</v>
+      </c>
+      <c r="I197" s="13" t="n">
+        <f aca="false">B$190+1</f>
+        <v>43917</v>
+      </c>
+      <c r="J197" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$190,I197)</f>
+        <v>-1</v>
+      </c>
+      <c r="K197" s="13" t="n">
+        <f aca="false">B$190+1</f>
+        <v>43917</v>
+      </c>
+      <c r="L197" s="0"/>
+      <c r="M197" s="0"/>
+      <c r="N197" s="0"/>
+      <c r="O197" s="0"/>
+      <c r="P197" s="0"/>
+      <c r="Q197" s="0"/>
+    </row>
+    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B198" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C198" s="12" t="n">
+        <v>50</v>
+      </c>
+      <c r="D198" s="12" t="n">
+        <v>77</v>
+      </c>
+      <c r="E198" s="12" t="n">
+        <f aca="false">D198/10.36</f>
+        <v>7.43243243243243</v>
+      </c>
+      <c r="F198" s="12" t="n">
+        <v>15</v>
+      </c>
+      <c r="G198" s="13" t="n">
+        <v>43915</v>
+      </c>
+      <c r="H198" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$190,G198)</f>
+        <v>1</v>
+      </c>
+      <c r="I198" s="13" t="n">
+        <f aca="false">B$190+1</f>
+        <v>43917</v>
+      </c>
+      <c r="J198" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$190,I198)</f>
+        <v>-1</v>
+      </c>
+      <c r="K198" s="13" t="n">
+        <f aca="false">B$190+1</f>
+        <v>43917</v>
+      </c>
+      <c r="L198" s="0"/>
+      <c r="M198" s="0"/>
+      <c r="N198" s="0"/>
+      <c r="O198" s="0"/>
+      <c r="P198" s="0"/>
+      <c r="Q198" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/covid19 lockdown evaluation .xlsx
+++ b/covid19 lockdown evaluation .xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="55">
   <si>
     <t>Effects of the lockdown issued by governments</t>
   </si>
@@ -359,7 +359,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q198"/>
+  <dimension ref="A1:Q210"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F31" activeCellId="0" sqref="F31"/>
@@ -815,7 +815,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="7" t="n">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="D22" s="0"/>
       <c r="E22" s="8" t="s">
@@ -892,36 +892,36 @@
         <v>300</v>
       </c>
       <c r="D24" s="1" t="n">
-        <v>18279</v>
+        <v>18849</v>
       </c>
       <c r="E24" s="12" t="n">
         <f aca="false">D24/60.48</f>
-        <v>302.232142857143</v>
+        <v>311.656746031746</v>
       </c>
       <c r="F24" s="12" t="n">
-        <v>610</v>
+        <v>570</v>
       </c>
       <c r="G24" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H24" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,G24)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I24" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J24" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,I24)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K24" s="13" t="n">
         <f aca="false">$B$22+1</f>
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="L24" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K24,G24)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M24" s="0"/>
       <c r="N24" s="0"/>
@@ -937,36 +937,36 @@
         <v>230</v>
       </c>
       <c r="D25" s="1" t="n">
-        <v>15447</v>
+        <v>16081</v>
       </c>
       <c r="E25" s="12" t="n">
         <f aca="false">D25/46.75</f>
-        <v>330.417112299465</v>
+        <v>343.978609625668</v>
       </c>
       <c r="F25" s="12" t="n">
-        <v>655</v>
+        <v>634</v>
       </c>
       <c r="G25" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H25" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,G25)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I25" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J25" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,I25)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K25" s="13" t="n">
         <f aca="false">$B$22+1</f>
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="L25" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K25,G25)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M25" s="0"/>
       <c r="N25" s="0"/>
@@ -982,36 +982,36 @@
         <v>330</v>
       </c>
       <c r="D26" s="1" t="n">
-        <v>12210</v>
+        <v>13197</v>
       </c>
       <c r="E26" s="12" t="n">
         <f aca="false">D26/65.27</f>
-        <v>187.069097594607</v>
+        <v>202.190899341198</v>
       </c>
       <c r="F26" s="12" t="n">
-        <v>1341</v>
+        <v>987</v>
       </c>
       <c r="G26" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H26" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,G26)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I26" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J26" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,I26)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K26" s="13" t="n">
         <f aca="false">$B$22+1</f>
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="L26" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K26,G26)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M26" s="0"/>
       <c r="N26" s="0"/>
@@ -1027,36 +1027,36 @@
         <v>50</v>
       </c>
       <c r="D27" s="12" t="n">
-        <v>793</v>
+        <v>870</v>
       </c>
       <c r="E27" s="12" t="n">
         <f aca="false">D27/10.36</f>
-        <v>76.5444015444016</v>
+        <v>83.976833976834</v>
       </c>
       <c r="F27" s="12" t="n">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="G27" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H27" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,G27)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I27" s="13" t="n">
         <v>43928</v>
       </c>
       <c r="J27" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,I27)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K27" s="13" t="n">
         <f aca="false">$B$22+1</f>
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="L27" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K27,G27)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M27" s="0"/>
       <c r="N27" s="0"/>
@@ -1072,36 +1072,36 @@
         <v>330</v>
       </c>
       <c r="D28" s="1" t="n">
-        <v>7978</v>
+        <v>8958</v>
       </c>
       <c r="E28" s="12" t="n">
         <f aca="false">D28/67.79</f>
-        <v>117.686974480012</v>
+        <v>132.143383979938</v>
       </c>
       <c r="F28" s="12" t="n">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="G28" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H28" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,G28)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I28" s="13" t="n">
         <v>43919</v>
       </c>
       <c r="J28" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,I28)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K28" s="13" t="n">
         <f aca="false">$B$22+1</f>
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="L28" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K28,G28)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M28" s="0"/>
       <c r="N28" s="0"/>
@@ -1117,36 +1117,36 @@
         <v>1660</v>
       </c>
       <c r="D29" s="1" t="n">
-        <v>16691</v>
+        <v>18747</v>
       </c>
       <c r="E29" s="12" t="n">
         <f aca="false">D29/331</f>
-        <v>50.4259818731118</v>
+        <v>56.6374622356496</v>
       </c>
       <c r="F29" s="12" t="n">
-        <v>1900</v>
+        <v>2035</v>
       </c>
       <c r="G29" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H29" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,G29)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I29" s="13" t="n">
         <v>43921</v>
       </c>
       <c r="J29" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,I29)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K29" s="13" t="n">
         <f aca="false">$B$22+1</f>
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="L29" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K29,G29)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M29" s="0"/>
       <c r="N29" s="0"/>
@@ -1162,36 +1162,36 @@
         <v>414</v>
       </c>
       <c r="D30" s="1" t="n">
-        <v>2607</v>
+        <v>2736</v>
       </c>
       <c r="E30" s="12" t="n">
         <f aca="false">D30/83.784</f>
-        <v>31.1157261529648</v>
+        <v>32.6553995989688</v>
       </c>
       <c r="F30" s="12" t="n">
-        <v>258</v>
+        <v>129</v>
       </c>
       <c r="G30" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H30" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,G30)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I30" s="13" t="n">
         <v>43920</v>
       </c>
       <c r="J30" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,I30)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K30" s="13" t="n">
         <f aca="false">$B$22+1</f>
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="L30" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K30,G30)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M30" s="0"/>
       <c r="N30" s="0"/>
@@ -1256,7 +1256,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="7" t="n">
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="D34" s="0"/>
       <c r="E34" s="8" t="s">
@@ -1333,36 +1333,36 @@
         <v>300</v>
       </c>
       <c r="D36" s="1" t="n">
-        <v>17669</v>
+        <v>18279</v>
       </c>
       <c r="E36" s="12" t="n">
         <f aca="false">D36/60.48</f>
-        <v>292.146164021164</v>
+        <v>302.232142857143</v>
       </c>
       <c r="F36" s="12" t="n">
-        <v>542</v>
+        <v>610</v>
       </c>
       <c r="G36" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H36" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,G36)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I36" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J36" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,I36)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K36" s="13" t="n">
         <f aca="false">$B$34+1</f>
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="L36" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K36,G36)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M36" s="0"/>
       <c r="N36" s="0"/>
@@ -1378,36 +1378,36 @@
         <v>230</v>
       </c>
       <c r="D37" s="1" t="n">
-        <v>14792</v>
+        <v>15447</v>
       </c>
       <c r="E37" s="12" t="n">
         <f aca="false">D37/46.75</f>
-        <v>316.406417112299</v>
+        <v>330.417112299465</v>
       </c>
       <c r="F37" s="12" t="n">
-        <v>747</v>
+        <v>655</v>
       </c>
       <c r="G37" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H37" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,G37)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I37" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J37" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,I37)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K37" s="13" t="n">
         <f aca="false">$B$34+1</f>
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="L37" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K37,G37)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M37" s="0"/>
       <c r="N37" s="0"/>
@@ -1423,36 +1423,36 @@
         <v>330</v>
       </c>
       <c r="D38" s="1" t="n">
-        <v>10869</v>
+        <v>12210</v>
       </c>
       <c r="E38" s="12" t="n">
         <f aca="false">D38/65.27</f>
-        <v>166.52367090547</v>
+        <v>187.069097594607</v>
       </c>
       <c r="F38" s="12" t="n">
-        <v>541</v>
+        <v>1341</v>
       </c>
       <c r="G38" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H38" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,G38)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I38" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J38" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,I38)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K38" s="13" t="n">
         <f aca="false">$B$34+1</f>
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="L38" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K38,G38)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M38" s="0"/>
       <c r="N38" s="0"/>
@@ -1468,36 +1468,36 @@
         <v>50</v>
       </c>
       <c r="D39" s="12" t="n">
-        <v>687</v>
+        <v>793</v>
       </c>
       <c r="E39" s="12" t="n">
         <f aca="false">D39/10.36</f>
-        <v>66.3127413127413</v>
+        <v>76.5444015444016</v>
       </c>
       <c r="F39" s="12" t="n">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="G39" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H39" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,G39)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I39" s="13" t="n">
         <v>43928</v>
       </c>
       <c r="J39" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,I39)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K39" s="13" t="n">
         <f aca="false">$B$34+1</f>
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="L39" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K39,G39)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M39" s="0"/>
       <c r="N39" s="0"/>
@@ -1513,36 +1513,36 @@
         <v>330</v>
       </c>
       <c r="D40" s="1" t="n">
-        <v>7097</v>
+        <v>7978</v>
       </c>
       <c r="E40" s="12" t="n">
         <f aca="false">D40/67.79</f>
-        <v>104.690957368343</v>
+        <v>117.686974480012</v>
       </c>
       <c r="F40" s="12" t="n">
-        <v>938</v>
+        <v>881</v>
       </c>
       <c r="G40" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H40" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,G40)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I40" s="13" t="n">
         <v>43919</v>
       </c>
       <c r="J40" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,I40)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K40" s="13" t="n">
         <f aca="false">$B$34+1</f>
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="L40" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K40,G40)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M40" s="0"/>
       <c r="N40" s="0"/>
@@ -1558,36 +1558,36 @@
         <v>1660</v>
       </c>
       <c r="D41" s="1" t="n">
-        <v>14788</v>
+        <v>16691</v>
       </c>
       <c r="E41" s="12" t="n">
         <f aca="false">D41/331</f>
-        <v>44.6767371601209</v>
+        <v>50.4259818731118</v>
       </c>
       <c r="F41" s="12" t="n">
-        <v>1940</v>
+        <v>1900</v>
       </c>
       <c r="G41" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H41" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,G41)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I41" s="13" t="n">
         <v>43921</v>
       </c>
       <c r="J41" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,I41)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K41" s="13" t="n">
         <f aca="false">$B$34+1</f>
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="L41" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K41,G41)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M41" s="0"/>
       <c r="N41" s="0"/>
@@ -1603,36 +1603,36 @@
         <v>414</v>
       </c>
       <c r="D42" s="1" t="n">
-        <v>2349</v>
+        <v>2607</v>
       </c>
       <c r="E42" s="12" t="n">
         <f aca="false">D42/83.784</f>
-        <v>28.0363792609567</v>
+        <v>31.1157261529648</v>
       </c>
       <c r="F42" s="12" t="n">
-        <v>333</v>
+        <v>258</v>
       </c>
       <c r="G42" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H42" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,G42)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I42" s="13" t="n">
         <v>43920</v>
       </c>
       <c r="J42" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,I42)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K42" s="13" t="n">
         <f aca="false">$B$34+1</f>
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="L42" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K42,G42)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M42" s="0"/>
       <c r="N42" s="0"/>
@@ -1697,7 +1697,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="7" t="n">
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="D46" s="0"/>
       <c r="E46" s="8" t="s">
@@ -1774,36 +1774,36 @@
         <v>300</v>
       </c>
       <c r="D48" s="1" t="n">
-        <v>17127</v>
+        <v>17669</v>
       </c>
       <c r="E48" s="12" t="n">
         <f aca="false">D48/60.48</f>
-        <v>283.184523809524</v>
+        <v>292.146164021164</v>
       </c>
       <c r="F48" s="12" t="n">
-        <v>604</v>
+        <v>542</v>
       </c>
       <c r="G48" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H48" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,G48)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I48" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J48" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,I48)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K48" s="13" t="n">
         <f aca="false">$B$46+1</f>
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="L48" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K48,G48)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M48" s="0"/>
       <c r="N48" s="0"/>
@@ -1819,36 +1819,36 @@
         <v>230</v>
       </c>
       <c r="D49" s="1" t="n">
-        <v>14045</v>
+        <v>14792</v>
       </c>
       <c r="E49" s="12" t="n">
         <f aca="false">D49/46.75</f>
-        <v>300.427807486631</v>
+        <v>316.406417112299</v>
       </c>
       <c r="F49" s="12" t="n">
-        <v>704</v>
+        <v>747</v>
       </c>
       <c r="G49" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H49" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,G49)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I49" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J49" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,I49)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K49" s="13" t="n">
         <f aca="false">$B$46+1</f>
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="L49" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K49,G49)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M49" s="0"/>
       <c r="N49" s="0"/>
@@ -1864,36 +1864,36 @@
         <v>330</v>
       </c>
       <c r="D50" s="1" t="n">
-        <v>10328</v>
+        <v>10869</v>
       </c>
       <c r="E50" s="12" t="n">
         <f aca="false">D50/65.27</f>
-        <v>158.23502374751</v>
+        <v>166.52367090547</v>
       </c>
       <c r="F50" s="12" t="n">
-        <v>1417</v>
+        <v>541</v>
       </c>
       <c r="G50" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H50" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,G50)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I50" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J50" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,I50)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K50" s="13" t="n">
         <f aca="false">$B$46+1</f>
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="L50" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K50,G50)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M50" s="0"/>
       <c r="N50" s="0"/>
@@ -1909,36 +1909,36 @@
         <v>50</v>
       </c>
       <c r="D51" s="12" t="n">
-        <v>591</v>
+        <v>687</v>
       </c>
       <c r="E51" s="12" t="n">
         <f aca="false">D51/10.36</f>
-        <v>57.0463320463321</v>
+        <v>66.3127413127413</v>
       </c>
       <c r="F51" s="12" t="n">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="G51" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H51" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,G51)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I51" s="13" t="n">
         <v>43928</v>
       </c>
       <c r="J51" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,I51)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K51" s="13" t="n">
         <f aca="false">$B$46+1</f>
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="L51" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K51,G51)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M51" s="0"/>
       <c r="N51" s="0"/>
@@ -1954,36 +1954,36 @@
         <v>330</v>
       </c>
       <c r="D52" s="1" t="n">
-        <v>6159</v>
+        <v>7097</v>
       </c>
       <c r="E52" s="12" t="n">
         <f aca="false">D52/67.79</f>
-        <v>90.8541082755569</v>
+        <v>104.690957368343</v>
       </c>
       <c r="F52" s="12" t="n">
-        <v>786</v>
+        <v>938</v>
       </c>
       <c r="G52" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H52" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,G52)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I52" s="13" t="n">
         <v>43919</v>
       </c>
       <c r="J52" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,I52)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K52" s="13" t="n">
         <f aca="false">$B$46+1</f>
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="L52" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K52,G52)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M52" s="0"/>
       <c r="N52" s="0"/>
@@ -1999,36 +1999,36 @@
         <v>1660</v>
       </c>
       <c r="D53" s="1" t="n">
-        <v>12848</v>
+        <v>14788</v>
       </c>
       <c r="E53" s="12" t="n">
         <f aca="false">D53/331</f>
-        <v>38.8157099697885</v>
+        <v>44.6767371601209</v>
       </c>
       <c r="F53" s="12" t="n">
-        <v>1970</v>
+        <v>1940</v>
       </c>
       <c r="G53" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H53" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,G53)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I53" s="13" t="n">
         <v>43921</v>
       </c>
       <c r="J53" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,I53)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K53" s="13" t="n">
         <f aca="false">$B$46+1</f>
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="L53" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K53,G53)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M53" s="0"/>
       <c r="N53" s="0"/>
@@ -2044,36 +2044,36 @@
         <v>414</v>
       </c>
       <c r="D54" s="1" t="n">
-        <v>2016</v>
+        <v>2349</v>
       </c>
       <c r="E54" s="12" t="n">
         <f aca="false">D54/83.784</f>
-        <v>24.0618733887138</v>
+        <v>28.0363792609567</v>
       </c>
       <c r="F54" s="12" t="n">
-        <v>206</v>
+        <v>333</v>
       </c>
       <c r="G54" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H54" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,G54)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I54" s="13" t="n">
         <v>43920</v>
       </c>
       <c r="J54" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,I54)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K54" s="13" t="n">
         <f aca="false">$B$46+1</f>
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="L54" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K54,G54)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M54" s="0"/>
       <c r="N54" s="0"/>
@@ -2138,7 +2138,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="7" t="n">
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="D58" s="0"/>
       <c r="E58" s="8" t="s">
@@ -2215,36 +2215,36 @@
         <v>300</v>
       </c>
       <c r="D60" s="1" t="n">
-        <v>16523</v>
+        <v>17127</v>
       </c>
       <c r="E60" s="12" t="n">
         <f aca="false">D60/60.48</f>
-        <v>273.197751322751</v>
+        <v>283.184523809524</v>
       </c>
       <c r="F60" s="12" t="n">
-        <v>636</v>
+        <v>604</v>
       </c>
       <c r="G60" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H60" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,G60)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I60" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J60" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,I60)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K60" s="13" t="n">
         <f aca="false">$B$58+1</f>
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="L60" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K60,G60)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M60" s="0"/>
       <c r="N60" s="0"/>
@@ -2260,36 +2260,36 @@
         <v>230</v>
       </c>
       <c r="D61" s="1" t="n">
-        <v>13341</v>
+        <v>14045</v>
       </c>
       <c r="E61" s="12" t="n">
         <f aca="false">D61/46.75</f>
-        <v>285.368983957219</v>
+        <v>300.427807486631</v>
       </c>
       <c r="F61" s="12" t="n">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="G61" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H61" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,G61)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I61" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J61" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,I61)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K61" s="13" t="n">
         <f aca="false">$B$58+1</f>
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="L61" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K61,G61)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M61" s="0"/>
       <c r="N61" s="0"/>
@@ -2305,36 +2305,36 @@
         <v>330</v>
       </c>
       <c r="D62" s="1" t="n">
-        <v>8911</v>
+        <v>10328</v>
       </c>
       <c r="E62" s="12" t="n">
         <f aca="false">D62/65.27</f>
-        <v>136.525203002911</v>
+        <v>158.23502374751</v>
       </c>
       <c r="F62" s="12" t="n">
-        <v>833</v>
+        <v>1417</v>
       </c>
       <c r="G62" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H62" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,G62)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I62" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J62" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,I62)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K62" s="13" t="n">
         <f aca="false">$B$58+1</f>
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="L62" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K62,G62)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M62" s="0"/>
       <c r="N62" s="0"/>
@@ -2350,37 +2350,36 @@
         <v>50</v>
       </c>
       <c r="D63" s="12" t="n">
-        <v>477</v>
+        <v>591</v>
       </c>
       <c r="E63" s="12" t="n">
         <f aca="false">D63/10.36</f>
-        <v>46.042471042471</v>
+        <v>57.0463320463321</v>
       </c>
       <c r="F63" s="12" t="n">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="G63" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H63" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,G63)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I63" s="13" t="n">
-        <f aca="false">$B$58+1</f>
         <v>43928</v>
       </c>
       <c r="J63" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,I63)</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K63" s="13" t="n">
         <f aca="false">$B$58+1</f>
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="L63" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K63,G63)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M63" s="0"/>
       <c r="N63" s="0"/>
@@ -2396,37 +2395,36 @@
         <v>330</v>
       </c>
       <c r="D64" s="1" t="n">
-        <v>5373</v>
+        <v>6159</v>
       </c>
       <c r="E64" s="12" t="n">
         <f aca="false">D64/67.79</f>
-        <v>79.2594777990854</v>
+        <v>90.8541082755569</v>
       </c>
       <c r="F64" s="12" t="n">
-        <v>439</v>
+        <v>786</v>
       </c>
       <c r="G64" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H64" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,G64)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I64" s="13" t="n">
-        <f aca="false">$B$58+1</f>
-        <v>43928</v>
+        <v>43919</v>
       </c>
       <c r="J64" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,I64)</f>
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K64" s="13" t="n">
         <f aca="false">$B$58+1</f>
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="L64" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K64,G64)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M64" s="0"/>
       <c r="N64" s="0"/>
@@ -2442,37 +2440,36 @@
         <v>1660</v>
       </c>
       <c r="D65" s="1" t="n">
-        <v>10871</v>
+        <v>12848</v>
       </c>
       <c r="E65" s="12" t="n">
         <f aca="false">D65/331</f>
-        <v>32.8429003021148</v>
+        <v>38.8157099697885</v>
       </c>
       <c r="F65" s="12" t="n">
-        <v>1255</v>
+        <v>1970</v>
       </c>
       <c r="G65" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H65" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,G65)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I65" s="13" t="n">
-        <f aca="false">$B$58+1</f>
-        <v>43928</v>
+        <v>43921</v>
       </c>
       <c r="J65" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,I65)</f>
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K65" s="13" t="n">
         <f aca="false">$B$58+1</f>
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="L65" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K65,G65)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M65" s="0"/>
       <c r="N65" s="0"/>
@@ -2488,37 +2485,36 @@
         <v>414</v>
       </c>
       <c r="D66" s="1" t="n">
-        <v>1810</v>
+        <v>2016</v>
       </c>
       <c r="E66" s="12" t="n">
         <f aca="false">D66/83.784</f>
-        <v>21.6031700563353</v>
+        <v>24.0618733887138</v>
       </c>
       <c r="F66" s="12" t="n">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="G66" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H66" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,G66)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I66" s="13" t="n">
-        <f aca="false">$B$58+1</f>
-        <v>43928</v>
+        <v>43920</v>
       </c>
       <c r="J66" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,I66)</f>
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K66" s="13" t="n">
         <f aca="false">$B$58+1</f>
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="L66" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K66,G66)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M66" s="0"/>
       <c r="N66" s="0"/>
@@ -2583,7 +2579,7 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="7" t="n">
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="D70" s="0"/>
       <c r="E70" s="8" t="s">
@@ -2660,36 +2656,36 @@
         <v>300</v>
       </c>
       <c r="D72" s="1" t="n">
-        <v>15887</v>
+        <v>16523</v>
       </c>
       <c r="E72" s="12" t="n">
         <f aca="false">D72/60.48</f>
-        <v>262.681878306878</v>
+        <v>273.197751322751</v>
       </c>
       <c r="F72" s="12" t="n">
-        <v>525</v>
+        <v>636</v>
       </c>
       <c r="G72" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H72" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,G72)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I72" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J72" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,I72)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K72" s="13" t="n">
         <f aca="false">$B$70+1</f>
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="L72" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K72,G72)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M72" s="0"/>
       <c r="N72" s="0"/>
@@ -2705,36 +2701,36 @@
         <v>230</v>
       </c>
       <c r="D73" s="1" t="n">
-        <v>12641</v>
+        <v>13341</v>
       </c>
       <c r="E73" s="12" t="n">
         <f aca="false">D73/46.75</f>
-        <v>270.395721925134</v>
+        <v>285.368983957219</v>
       </c>
       <c r="F73" s="12" t="n">
-        <v>694</v>
+        <v>700</v>
       </c>
       <c r="G73" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H73" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,G73)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I73" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J73" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,I73)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K73" s="13" t="n">
         <f aca="false">$B$70+1</f>
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="L73" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K73,G73)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M73" s="0"/>
       <c r="N73" s="0"/>
@@ -2750,36 +2746,36 @@
         <v>330</v>
       </c>
       <c r="D74" s="1" t="n">
-        <v>8078</v>
+        <v>8911</v>
       </c>
       <c r="E74" s="12" t="n">
         <f aca="false">D74/65.27</f>
-        <v>123.762831316072</v>
+        <v>136.525203002911</v>
       </c>
       <c r="F74" s="12" t="n">
-        <v>518</v>
+        <v>833</v>
       </c>
       <c r="G74" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H74" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,G74)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I74" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J74" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,I74)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K74" s="13" t="n">
         <f aca="false">$B$70+1</f>
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="L74" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K74,G74)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M74" s="0"/>
       <c r="N74" s="0"/>
@@ -2795,25 +2791,25 @@
         <v>50</v>
       </c>
       <c r="D75" s="12" t="n">
-        <v>401</v>
+        <v>477</v>
       </c>
       <c r="E75" s="12" t="n">
         <f aca="false">D75/10.36</f>
-        <v>38.7065637065637</v>
+        <v>46.042471042471</v>
       </c>
       <c r="F75" s="12" t="n">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="G75" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H75" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,G75)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I75" s="13" t="n">
         <f aca="false">$B$70+1</f>
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="J75" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,I75)</f>
@@ -2821,11 +2817,11 @@
       </c>
       <c r="K75" s="13" t="n">
         <f aca="false">$B$70+1</f>
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="L75" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K75,G75)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M75" s="0"/>
       <c r="N75" s="0"/>
@@ -2841,25 +2837,25 @@
         <v>330</v>
       </c>
       <c r="D76" s="1" t="n">
-        <v>4934</v>
+        <v>5373</v>
       </c>
       <c r="E76" s="12" t="n">
         <f aca="false">D76/67.79</f>
-        <v>72.7835964006491</v>
+        <v>79.2594777990854</v>
       </c>
       <c r="F76" s="12" t="n">
-        <v>621</v>
+        <v>439</v>
       </c>
       <c r="G76" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H76" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,G76)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I76" s="13" t="n">
         <f aca="false">$B$70+1</f>
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="J76" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,I76)</f>
@@ -2867,11 +2863,11 @@
       </c>
       <c r="K76" s="13" t="n">
         <f aca="false">$B$70+1</f>
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="L76" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K76,G76)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M76" s="0"/>
       <c r="N76" s="0"/>
@@ -2887,25 +2883,25 @@
         <v>1660</v>
       </c>
       <c r="D77" s="1" t="n">
-        <v>9616</v>
+        <v>10871</v>
       </c>
       <c r="E77" s="12" t="n">
         <f aca="false">D77/331</f>
-        <v>29.0513595166163</v>
+        <v>32.8429003021148</v>
       </c>
       <c r="F77" s="12" t="n">
-        <v>1165</v>
+        <v>1255</v>
       </c>
       <c r="G77" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H77" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,G77)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I77" s="13" t="n">
         <f aca="false">$B$70+1</f>
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="J77" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,I77)</f>
@@ -2913,11 +2909,11 @@
       </c>
       <c r="K77" s="13" t="n">
         <f aca="false">$B$70+1</f>
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="L77" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K77,G77)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M77" s="0"/>
       <c r="N77" s="0"/>
@@ -2933,25 +2929,25 @@
         <v>414</v>
       </c>
       <c r="D78" s="1" t="n">
-        <v>1584</v>
+        <v>1810</v>
       </c>
       <c r="E78" s="12" t="n">
         <f aca="false">D78/83.784</f>
-        <v>18.9057576625609</v>
+        <v>21.6031700563353</v>
       </c>
       <c r="F78" s="12" t="n">
-        <v>140</v>
+        <v>226</v>
       </c>
       <c r="G78" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H78" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,G78)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I78" s="13" t="n">
         <f aca="false">$B$70+1</f>
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="J78" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,I78)</f>
@@ -2959,11 +2955,11 @@
       </c>
       <c r="K78" s="13" t="n">
         <f aca="false">$B$70+1</f>
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="L78" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K78,G78)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M78" s="0"/>
       <c r="N78" s="0"/>
@@ -3028,7 +3024,7 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="7" t="n">
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="D82" s="0"/>
       <c r="E82" s="8" t="s">
@@ -3105,36 +3101,36 @@
         <v>300</v>
       </c>
       <c r="D84" s="1" t="n">
-        <v>15362</v>
+        <v>15887</v>
       </c>
       <c r="E84" s="12" t="n">
         <f aca="false">D84/60.48</f>
-        <v>254.001322751323</v>
+        <v>262.681878306878</v>
       </c>
       <c r="F84" s="12" t="n">
-        <v>681</v>
+        <v>525</v>
       </c>
       <c r="G84" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H84" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,G84)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I84" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J84" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,I84)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K84" s="13" t="n">
         <f aca="false">$B$82+1</f>
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="L84" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K84,G84)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M84" s="0"/>
       <c r="N84" s="0"/>
@@ -3150,36 +3146,36 @@
         <v>230</v>
       </c>
       <c r="D85" s="1" t="n">
-        <v>11947</v>
+        <v>12641</v>
       </c>
       <c r="E85" s="12" t="n">
         <f aca="false">D85/46.75</f>
-        <v>255.550802139037</v>
+        <v>270.395721925134</v>
       </c>
       <c r="F85" s="12" t="n">
-        <v>749</v>
+        <v>694</v>
       </c>
       <c r="G85" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H85" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,G85)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I85" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J85" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,I85)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K85" s="13" t="n">
         <f aca="false">$B$82+1</f>
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="L85" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K85,G85)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M85" s="0"/>
       <c r="N85" s="0"/>
@@ -3195,36 +3191,36 @@
         <v>330</v>
       </c>
       <c r="D86" s="1" t="n">
-        <v>7560</v>
+        <v>8078</v>
       </c>
       <c r="E86" s="12" t="n">
         <f aca="false">D86/65.27</f>
-        <v>115.826566569634</v>
+        <v>123.762831316072</v>
       </c>
       <c r="F86" s="12" t="n">
-        <v>1053</v>
+        <v>518</v>
       </c>
       <c r="G86" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H86" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,G86)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I86" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J86" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,I86)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K86" s="13" t="n">
         <f aca="false">$B$82+1</f>
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="L86" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K86,G86)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M86" s="0"/>
       <c r="N86" s="0"/>
@@ -3240,25 +3236,25 @@
         <v>50</v>
       </c>
       <c r="D87" s="12" t="n">
-        <v>373</v>
+        <v>401</v>
       </c>
       <c r="E87" s="12" t="n">
         <f aca="false">D87/10.36</f>
-        <v>36.003861003861</v>
+        <v>38.7065637065637</v>
       </c>
       <c r="F87" s="12" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="G87" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H87" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,G87)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I87" s="13" t="n">
         <f aca="false">$B$82+1</f>
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="J87" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,I87)</f>
@@ -3266,11 +3262,11 @@
       </c>
       <c r="K87" s="13" t="n">
         <f aca="false">$B$82+1</f>
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="L87" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K87,G87)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M87" s="0"/>
       <c r="N87" s="0"/>
@@ -3286,25 +3282,25 @@
         <v>330</v>
       </c>
       <c r="D88" s="1" t="n">
-        <v>4313</v>
+        <v>4934</v>
       </c>
       <c r="E88" s="12" t="n">
         <f aca="false">D88/67.79</f>
-        <v>63.6229532379407</v>
+        <v>72.7835964006491</v>
       </c>
       <c r="F88" s="12" t="n">
-        <v>708</v>
+        <v>621</v>
       </c>
       <c r="G88" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H88" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,G88)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I88" s="13" t="n">
         <f aca="false">$B$82+1</f>
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="J88" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,I88)</f>
@@ -3312,11 +3308,11 @@
       </c>
       <c r="K88" s="13" t="n">
         <f aca="false">$B$82+1</f>
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="L88" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K88,G88)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M88" s="0"/>
       <c r="N88" s="0"/>
@@ -3332,25 +3328,25 @@
         <v>1660</v>
       </c>
       <c r="D89" s="1" t="n">
-        <v>8451</v>
+        <v>9616</v>
       </c>
       <c r="E89" s="12" t="n">
         <f aca="false">D89/331</f>
-        <v>25.5317220543807</v>
+        <v>29.0513595166163</v>
       </c>
       <c r="F89" s="12" t="n">
-        <v>1330</v>
+        <v>1165</v>
       </c>
       <c r="G89" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H89" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,G89)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I89" s="13" t="n">
         <f aca="false">$B$82+1</f>
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="J89" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,I89)</f>
@@ -3358,11 +3354,11 @@
       </c>
       <c r="K89" s="13" t="n">
         <f aca="false">$B$82+1</f>
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="L89" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K89,G89)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M89" s="0"/>
       <c r="N89" s="0"/>
@@ -3378,25 +3374,25 @@
         <v>414</v>
       </c>
       <c r="D90" s="1" t="n">
-        <v>1444</v>
+        <v>1584</v>
       </c>
       <c r="E90" s="12" t="n">
         <f aca="false">D90/83.784</f>
-        <v>17.2347942327891</v>
+        <v>18.9057576625609</v>
       </c>
       <c r="F90" s="12" t="n">
-        <v>169</v>
+        <v>140</v>
       </c>
       <c r="G90" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H90" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,G90)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I90" s="13" t="n">
         <f aca="false">$B$82+1</f>
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="J90" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,I90)</f>
@@ -3404,11 +3400,11 @@
       </c>
       <c r="K90" s="13" t="n">
         <f aca="false">$B$82+1</f>
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="L90" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K90,G90)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M90" s="0"/>
       <c r="N90" s="0"/>
@@ -3473,7 +3469,7 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="7" t="n">
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="D94" s="0"/>
       <c r="E94" s="8" t="s">
@@ -3550,36 +3546,36 @@
         <v>300</v>
       </c>
       <c r="D96" s="1" t="n">
-        <v>14681</v>
+        <v>15362</v>
       </c>
       <c r="E96" s="12" t="n">
         <f aca="false">D96/60.48</f>
-        <v>242.741402116402</v>
+        <v>254.001322751323</v>
       </c>
       <c r="F96" s="12" t="n">
-        <v>766</v>
+        <v>681</v>
       </c>
       <c r="G96" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H96" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,G96)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I96" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J96" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,I96)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K96" s="13" t="n">
         <f aca="false">$B$94+1</f>
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="L96" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K96,G96)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M96" s="0"/>
       <c r="N96" s="0"/>
@@ -3595,36 +3591,36 @@
         <v>230</v>
       </c>
       <c r="D97" s="1" t="n">
-        <v>11198</v>
+        <v>11947</v>
       </c>
       <c r="E97" s="12" t="n">
         <f aca="false">D97/46.75</f>
-        <v>239.529411764706</v>
+        <v>255.550802139037</v>
       </c>
       <c r="F97" s="12" t="n">
-        <v>850</v>
+        <v>749</v>
       </c>
       <c r="G97" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H97" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$106,G97)</f>
-        <v>16</v>
+        <f aca="false">_xlfn.DAYS($B$94,G97)</f>
+        <v>18</v>
       </c>
       <c r="I97" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J97" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,I97)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K97" s="13" t="n">
         <f aca="false">$B$94+1</f>
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="L97" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K97,G97)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M97" s="0"/>
       <c r="N97" s="0"/>
@@ -3640,36 +3636,36 @@
         <v>330</v>
       </c>
       <c r="D98" s="1" t="n">
-        <v>6507</v>
+        <v>7560</v>
       </c>
       <c r="E98" s="12" t="n">
         <f aca="false">D98/65.27</f>
-        <v>99.6935805117206</v>
+        <v>115.826566569634</v>
       </c>
       <c r="F98" s="12" t="n">
-        <v>1120</v>
+        <v>1053</v>
       </c>
       <c r="G98" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H98" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$106,G98)</f>
-        <v>11</v>
+        <f aca="false">_xlfn.DAYS($B$94,G98)</f>
+        <v>13</v>
       </c>
       <c r="I98" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J98" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,I98)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K98" s="13" t="n">
         <f aca="false">$B$94+1</f>
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="L98" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K98,G98)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M98" s="0"/>
       <c r="N98" s="0"/>
@@ -3685,25 +3681,25 @@
         <v>50</v>
       </c>
       <c r="D99" s="12" t="n">
-        <v>358</v>
+        <v>373</v>
       </c>
       <c r="E99" s="12" t="n">
         <f aca="false">D99/10.36</f>
-        <v>34.5559845559846</v>
+        <v>36.003861003861</v>
       </c>
       <c r="F99" s="12" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="G99" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H99" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$106,G99)</f>
-        <v>8</v>
+        <f aca="false">_xlfn.DAYS($B$94,G99)</f>
+        <v>10</v>
       </c>
       <c r="I99" s="13" t="n">
         <f aca="false">$B$94+1</f>
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="J99" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,I99)</f>
@@ -3711,11 +3707,11 @@
       </c>
       <c r="K99" s="13" t="n">
         <f aca="false">$B$94+1</f>
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="L99" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K99,G99)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M99" s="0"/>
       <c r="N99" s="0"/>
@@ -3731,25 +3727,25 @@
         <v>330</v>
       </c>
       <c r="D100" s="1" t="n">
-        <v>3605</v>
+        <v>4313</v>
       </c>
       <c r="E100" s="12" t="n">
         <f aca="false">D100/67.79</f>
-        <v>53.1789349461573</v>
+        <v>63.6229532379407</v>
       </c>
       <c r="F100" s="12" t="n">
-        <v>684</v>
+        <v>708</v>
       </c>
       <c r="G100" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H100" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$106,G100)</f>
-        <v>7</v>
+        <f aca="false">_xlfn.DAYS($B$94,G100)</f>
+        <v>9</v>
       </c>
       <c r="I100" s="13" t="n">
         <f aca="false">$B$94+1</f>
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="J100" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,I100)</f>
@@ -3757,11 +3753,11 @@
       </c>
       <c r="K100" s="13" t="n">
         <f aca="false">$B$94+1</f>
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="L100" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K100,G100)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M100" s="0"/>
       <c r="N100" s="0"/>
@@ -3777,25 +3773,25 @@
         <v>1660</v>
       </c>
       <c r="D101" s="1" t="n">
-        <v>7121</v>
+        <v>8451</v>
       </c>
       <c r="E101" s="12" t="n">
         <f aca="false">D101/331</f>
-        <v>21.5135951661631</v>
+        <v>25.5317220543807</v>
       </c>
       <c r="F101" s="12" t="n">
-        <v>1045</v>
+        <v>1330</v>
       </c>
       <c r="G101" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H101" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$106,G101)</f>
-        <v>6</v>
+        <f aca="false">_xlfn.DAYS($B$94,G101)</f>
+        <v>8</v>
       </c>
       <c r="I101" s="13" t="n">
         <f aca="false">$B$94+1</f>
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="J101" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,I101)</f>
@@ -3803,11 +3799,11 @@
       </c>
       <c r="K101" s="13" t="n">
         <f aca="false">$B$94+1</f>
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="L101" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K101,G101)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M101" s="0"/>
       <c r="N101" s="0"/>
@@ -3823,25 +3819,25 @@
         <v>414</v>
       </c>
       <c r="D102" s="1" t="n">
-        <v>1275</v>
+        <v>1444</v>
       </c>
       <c r="E102" s="12" t="n">
         <f aca="false">D102/83.784</f>
-        <v>15.2177026639931</v>
+        <v>17.2347942327891</v>
       </c>
       <c r="F102" s="12" t="n">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G102" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H102" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$106,G102)</f>
-        <v>5</v>
+        <f aca="false">_xlfn.DAYS($B$94,G102)</f>
+        <v>7</v>
       </c>
       <c r="I102" s="13" t="n">
         <f aca="false">$B$94+1</f>
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="J102" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,I102)</f>
@@ -3849,11 +3845,11 @@
       </c>
       <c r="K102" s="13" t="n">
         <f aca="false">$B$94+1</f>
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="L102" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K102,G102)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M102" s="0"/>
       <c r="N102" s="0"/>
@@ -3918,7 +3914,7 @@
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="7" t="n">
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="D106" s="0"/>
       <c r="E106" s="8" t="s">
@@ -3995,36 +3991,36 @@
         <v>300</v>
       </c>
       <c r="D108" s="1" t="n">
-        <v>13915</v>
+        <v>14681</v>
       </c>
       <c r="E108" s="12" t="n">
         <f aca="false">D108/60.48</f>
-        <v>230.076058201058</v>
+        <v>242.741402116402</v>
       </c>
       <c r="F108" s="12" t="n">
-        <v>760</v>
+        <v>766</v>
       </c>
       <c r="G108" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H108" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,G108)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I108" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J108" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,I108)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K108" s="13" t="n">
         <f aca="false">$B$106+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="L108" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K108,G108)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M108" s="0"/>
       <c r="N108" s="0"/>
@@ -4040,20 +4036,20 @@
         <v>230</v>
       </c>
       <c r="D109" s="1" t="n">
-        <v>10348</v>
+        <v>11198</v>
       </c>
       <c r="E109" s="12" t="n">
         <f aca="false">D109/46.75</f>
-        <v>221.347593582888</v>
+        <v>239.529411764706</v>
       </c>
       <c r="F109" s="12" t="n">
-        <v>961</v>
+        <v>850</v>
       </c>
       <c r="G109" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H109" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$106,G109)</f>
+        <f aca="false">_xlfn.DAYS($B$118,G109)</f>
         <v>16</v>
       </c>
       <c r="I109" s="13" t="n">
@@ -4061,15 +4057,15 @@
       </c>
       <c r="J109" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,I109)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K109" s="13" t="n">
         <f aca="false">$B$106+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="L109" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K109,G109)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M109" s="0"/>
       <c r="N109" s="0"/>
@@ -4085,20 +4081,20 @@
         <v>330</v>
       </c>
       <c r="D110" s="1" t="n">
-        <v>5387</v>
+        <v>6507</v>
       </c>
       <c r="E110" s="12" t="n">
         <f aca="false">D110/65.27</f>
-        <v>82.5340891680711</v>
+        <v>99.6935805117206</v>
       </c>
       <c r="F110" s="12" t="n">
-        <v>1355</v>
+        <v>1120</v>
       </c>
       <c r="G110" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H110" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$106,G110)</f>
+        <f aca="false">_xlfn.DAYS($B$118,G110)</f>
         <v>11</v>
       </c>
       <c r="I110" s="13" t="n">
@@ -4106,15 +4102,15 @@
       </c>
       <c r="J110" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,I110)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K110" s="13" t="n">
         <f aca="false">$B$106+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="L110" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K110,G110)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M110" s="0"/>
       <c r="N110" s="0"/>
@@ -4130,25 +4126,25 @@
         <v>50</v>
       </c>
       <c r="D111" s="12" t="n">
-        <v>308</v>
+        <v>358</v>
       </c>
       <c r="E111" s="12" t="n">
         <f aca="false">D111/10.36</f>
-        <v>29.7297297297297</v>
+        <v>34.5559845559846</v>
       </c>
       <c r="F111" s="12" t="n">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="G111" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H111" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$106,G111)</f>
+        <f aca="false">_xlfn.DAYS($B$118,G111)</f>
         <v>8</v>
       </c>
       <c r="I111" s="13" t="n">
         <f aca="false">$B$106+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="J111" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,I111)</f>
@@ -4156,11 +4152,11 @@
       </c>
       <c r="K111" s="13" t="n">
         <f aca="false">$B$106+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="L111" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K111,G111)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M111" s="0"/>
       <c r="N111" s="0"/>
@@ -4176,25 +4172,25 @@
         <v>330</v>
       </c>
       <c r="D112" s="1" t="n">
-        <v>2921</v>
+        <v>3605</v>
       </c>
       <c r="E112" s="12" t="n">
         <f aca="false">D112/67.79</f>
-        <v>43.0889511727393</v>
+        <v>53.1789349461573</v>
       </c>
       <c r="F112" s="12" t="n">
-        <v>569</v>
+        <v>684</v>
       </c>
       <c r="G112" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H112" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$106,G112)</f>
+        <f aca="false">_xlfn.DAYS($B$118,G112)</f>
         <v>7</v>
       </c>
       <c r="I112" s="13" t="n">
         <f aca="false">$B$106+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="J112" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,I112)</f>
@@ -4202,11 +4198,11 @@
       </c>
       <c r="K112" s="13" t="n">
         <f aca="false">$B$106+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="L112" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K112,G112)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M112" s="0"/>
       <c r="N112" s="0"/>
@@ -4222,25 +4218,25 @@
         <v>1660</v>
       </c>
       <c r="D113" s="1" t="n">
-        <v>6076</v>
+        <v>7121</v>
       </c>
       <c r="E113" s="12" t="n">
         <f aca="false">D113/331</f>
-        <v>18.3564954682779</v>
+        <v>21.5135951661631</v>
       </c>
       <c r="F113" s="12" t="n">
-        <v>969</v>
+        <v>1045</v>
       </c>
       <c r="G113" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H113" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$106,G113)</f>
+        <f aca="false">_xlfn.DAYS($B$118,G113)</f>
         <v>6</v>
       </c>
       <c r="I113" s="13" t="n">
         <f aca="false">$B$106+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="J113" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,I113)</f>
@@ -4248,11 +4244,11 @@
       </c>
       <c r="K113" s="13" t="n">
         <f aca="false">$B$106+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="L113" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K113,G113)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M113" s="0"/>
       <c r="N113" s="0"/>
@@ -4268,25 +4264,25 @@
         <v>414</v>
       </c>
       <c r="D114" s="1" t="n">
-        <v>1107</v>
+        <v>1275</v>
       </c>
       <c r="E114" s="12" t="n">
         <f aca="false">D114/83.784</f>
-        <v>13.212546548267</v>
+        <v>15.2177026639931</v>
       </c>
       <c r="F114" s="12" t="n">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="G114" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H114" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$106,G114)</f>
+        <f aca="false">_xlfn.DAYS($B$118,G114)</f>
         <v>5</v>
       </c>
       <c r="I114" s="13" t="n">
         <f aca="false">$B$106+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="J114" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,I114)</f>
@@ -4294,11 +4290,11 @@
       </c>
       <c r="K114" s="13" t="n">
         <f aca="false">$B$106+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="L114" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K114,G114)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M114" s="0"/>
       <c r="N114" s="0"/>
@@ -4363,7 +4359,7 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B118" s="7" t="n">
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="D118" s="0"/>
       <c r="E118" s="8" t="s">
@@ -4440,36 +4436,36 @@
         <v>300</v>
       </c>
       <c r="D120" s="1" t="n">
-        <v>13155</v>
+        <v>13915</v>
       </c>
       <c r="E120" s="12" t="n">
         <f aca="false">D120/60.48</f>
-        <v>217.509920634921</v>
+        <v>230.076058201058</v>
       </c>
       <c r="F120" s="12" t="n">
-        <v>727</v>
+        <v>760</v>
       </c>
       <c r="G120" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H120" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$118,G120)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I120" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J120" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$118,I120)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K120" s="13" t="n">
         <f aca="false">$B$118+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="L120" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K120,G120)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M120" s="0"/>
       <c r="N120" s="0"/>
@@ -4485,36 +4481,36 @@
         <v>230</v>
       </c>
       <c r="D121" s="1" t="n">
-        <v>9387</v>
+        <v>10348</v>
       </c>
       <c r="E121" s="12" t="n">
         <f aca="false">D121/46.75</f>
-        <v>200.791443850267</v>
+        <v>221.347593582888</v>
       </c>
       <c r="F121" s="12" t="n">
-        <v>923</v>
+        <v>961</v>
       </c>
       <c r="G121" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H121" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$118,G121)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I121" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J121" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$118,I121)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K121" s="13" t="n">
         <f aca="false">$B$118+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="L121" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K121,G121)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M121" s="0"/>
       <c r="N121" s="0"/>
@@ -4530,36 +4526,36 @@
         <v>330</v>
       </c>
       <c r="D122" s="1" t="n">
-        <v>4032</v>
+        <v>5387</v>
       </c>
       <c r="E122" s="12" t="n">
         <f aca="false">D122/65.27</f>
-        <v>61.7741688371381</v>
+        <v>82.5340891680711</v>
       </c>
       <c r="F122" s="12" t="n">
-        <v>509</v>
+        <v>1355</v>
       </c>
       <c r="G122" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H122" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$118,G122)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I122" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J122" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$118,I122)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K122" s="13" t="n">
         <f aca="false">$B$118+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="L122" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K122,G122)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M122" s="0"/>
       <c r="N122" s="0"/>
@@ -4575,25 +4571,25 @@
         <v>50</v>
       </c>
       <c r="D123" s="12" t="n">
-        <v>239</v>
+        <v>308</v>
       </c>
       <c r="E123" s="12" t="n">
         <f aca="false">D123/10.36</f>
-        <v>23.0694980694981</v>
+        <v>29.7297297297297</v>
       </c>
       <c r="F123" s="12" t="n">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="G123" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H123" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$118,G123)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I123" s="13" t="n">
         <f aca="false">$B$118+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="J123" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$118,I123)</f>
@@ -4601,11 +4597,11 @@
       </c>
       <c r="K123" s="13" t="n">
         <f aca="false">$B$118+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="L123" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K123,G123)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M123" s="0"/>
       <c r="N123" s="0"/>
@@ -4621,25 +4617,25 @@
         <v>330</v>
       </c>
       <c r="D124" s="1" t="n">
-        <v>2352</v>
+        <v>2921</v>
       </c>
       <c r="E124" s="12" t="n">
         <f aca="false">D124/67.79</f>
-        <v>34.695382799823</v>
+        <v>43.0889511727393</v>
       </c>
       <c r="F124" s="12" t="n">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="G124" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H124" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$118,G124)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I124" s="13" t="n">
         <f aca="false">$B$118+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="J124" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$118,I124)</f>
@@ -4647,11 +4643,11 @@
       </c>
       <c r="K124" s="13" t="n">
         <f aca="false">$B$118+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="L124" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K124,G124)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M124" s="0"/>
       <c r="N124" s="0"/>
@@ -4667,25 +4663,25 @@
         <v>1660</v>
       </c>
       <c r="D125" s="1" t="n">
-        <v>5102</v>
+        <v>6076</v>
       </c>
       <c r="E125" s="12" t="n">
         <f aca="false">D125/331</f>
-        <v>15.4138972809668</v>
+        <v>18.3564954682779</v>
       </c>
       <c r="F125" s="12" t="n">
-        <v>1049</v>
+        <v>969</v>
       </c>
       <c r="G125" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H125" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$118,G125)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I125" s="13" t="n">
         <f aca="false">$B$118+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="J125" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$118,I125)</f>
@@ -4693,11 +4689,11 @@
       </c>
       <c r="K125" s="13" t="n">
         <f aca="false">$B$118+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="L125" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K125,G125)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M125" s="0"/>
       <c r="N125" s="0"/>
@@ -4713,25 +4709,25 @@
         <v>414</v>
       </c>
       <c r="D126" s="1" t="n">
-        <v>931</v>
+        <v>1107</v>
       </c>
       <c r="E126" s="12" t="n">
         <f aca="false">D126/83.784</f>
-        <v>11.1119068079824</v>
+        <v>13.212546548267</v>
       </c>
       <c r="F126" s="12" t="n">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="G126" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H126" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$118,G126)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I126" s="13" t="n">
         <f aca="false">$B$118+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="J126" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$118,I126)</f>
@@ -4739,11 +4735,11 @@
       </c>
       <c r="K126" s="13" t="n">
         <f aca="false">$B$118+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="L126" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K126,G126)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M126" s="0"/>
       <c r="N126" s="0"/>
@@ -4808,7 +4804,7 @@
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B130" s="7" t="n">
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="D130" s="0"/>
       <c r="E130" s="8" t="s">
@@ -4885,36 +4881,36 @@
         <v>300</v>
       </c>
       <c r="D132" s="1" t="n">
-        <v>12428</v>
+        <v>13155</v>
       </c>
       <c r="E132" s="12" t="n">
         <f aca="false">D132/60.48</f>
-        <v>205.489417989418</v>
+        <v>217.509920634921</v>
       </c>
       <c r="F132" s="12" t="n">
-        <v>837</v>
+        <v>727</v>
       </c>
       <c r="G132" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H132" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$130,G132)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I132" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J132" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$130,I132)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K132" s="13" t="n">
         <f aca="false">$B$130+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="L132" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K132,G132)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M132" s="0"/>
       <c r="N132" s="0"/>
@@ -4930,36 +4926,36 @@
         <v>230</v>
       </c>
       <c r="D133" s="1" t="n">
-        <v>8464</v>
+        <v>9387</v>
       </c>
       <c r="E133" s="12" t="n">
         <f aca="false">D133/46.75</f>
-        <v>181.048128342246</v>
+        <v>200.791443850267</v>
       </c>
       <c r="F133" s="12" t="n">
-        <v>748</v>
+        <v>923</v>
       </c>
       <c r="G133" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H133" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$130,G133)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I133" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J133" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$130,I133)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K133" s="13" t="n">
         <f aca="false">$B$130+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="L133" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K133,G133)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M133" s="0"/>
       <c r="N133" s="0"/>
@@ -4975,36 +4971,36 @@
         <v>330</v>
       </c>
       <c r="D134" s="1" t="n">
-        <v>3523</v>
+        <v>4032</v>
       </c>
       <c r="E134" s="12" t="n">
         <f aca="false">D134/65.27</f>
-        <v>53.9757928604259</v>
+        <v>61.7741688371381</v>
       </c>
       <c r="F134" s="12" t="n">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="G134" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H134" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$130,G134)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I134" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J134" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$130,I134)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K134" s="13" t="n">
         <f aca="false">$B$130+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="L134" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K134,G134)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M134" s="0"/>
       <c r="N134" s="0"/>
@@ -5020,25 +5016,25 @@
         <v>50</v>
       </c>
       <c r="D135" s="12" t="n">
-        <v>180</v>
+        <v>239</v>
       </c>
       <c r="E135" s="12" t="n">
         <f aca="false">D135/10.36</f>
-        <v>17.3745173745174</v>
+        <v>23.0694980694981</v>
       </c>
       <c r="F135" s="12" t="n">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="G135" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H135" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$130,G135)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I135" s="13" t="n">
         <f aca="false">$B$130+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="J135" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$130,I135)</f>
@@ -5046,11 +5042,11 @@
       </c>
       <c r="K135" s="13" t="n">
         <f aca="false">$B$130+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="L135" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K135,G135)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M135" s="0"/>
       <c r="N135" s="0"/>
@@ -5066,25 +5062,25 @@
         <v>330</v>
       </c>
       <c r="D136" s="1" t="n">
-        <v>1789</v>
+        <v>2352</v>
       </c>
       <c r="E136" s="12" t="n">
         <f aca="false">D136/67.79</f>
-        <v>26.390323056498</v>
+        <v>34.695382799823</v>
       </c>
       <c r="F136" s="12" t="n">
-        <v>381</v>
+        <v>563</v>
       </c>
       <c r="G136" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H136" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$130,G136)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I136" s="13" t="n">
         <f aca="false">$B$130+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="J136" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$130,I136)</f>
@@ -5092,11 +5088,11 @@
       </c>
       <c r="K136" s="13" t="n">
         <f aca="false">$B$130+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="L136" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K136,G136)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M136" s="0"/>
       <c r="N136" s="0"/>
@@ -5112,25 +5108,25 @@
         <v>1660</v>
       </c>
       <c r="D137" s="1" t="n">
-        <v>4053</v>
+        <v>5102</v>
       </c>
       <c r="E137" s="12" t="n">
         <f aca="false">D137/331</f>
-        <v>12.2447129909366</v>
+        <v>15.4138972809668</v>
       </c>
       <c r="F137" s="12" t="n">
-        <v>912</v>
+        <v>1049</v>
       </c>
       <c r="G137" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H137" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$130,G137)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I137" s="13" t="n">
         <f aca="false">$B$130+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="J137" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$130,I137)</f>
@@ -5138,11 +5134,11 @@
       </c>
       <c r="K137" s="13" t="n">
         <f aca="false">$B$130+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="L137" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K137,G137)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M137" s="0"/>
       <c r="N137" s="0"/>
@@ -5158,25 +5154,25 @@
         <v>414</v>
       </c>
       <c r="D138" s="1" t="n">
-        <v>775</v>
+        <v>931</v>
       </c>
       <c r="E138" s="12" t="n">
         <f aca="false">D138/83.784</f>
-        <v>9.24997612909386</v>
+        <v>11.1119068079824</v>
       </c>
       <c r="F138" s="12" t="n">
-        <v>130</v>
+        <v>156</v>
       </c>
       <c r="G138" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H138" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$130,G138)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I138" s="13" t="n">
         <f aca="false">$B$130+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="J138" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$130,I138)</f>
@@ -5184,11 +5180,11 @@
       </c>
       <c r="K138" s="13" t="n">
         <f aca="false">$B$130+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="L138" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K138,G138)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M138" s="0"/>
       <c r="N138" s="0"/>
@@ -5197,15 +5193,16 @@
       <c r="Q138" s="0"/>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C139" s="12"/>
+      <c r="B139" s="4"/>
+      <c r="C139" s="5"/>
       <c r="D139" s="0"/>
-      <c r="E139" s="12"/>
-      <c r="F139" s="12"/>
-      <c r="G139" s="13"/>
+      <c r="E139" s="0"/>
+      <c r="F139" s="0"/>
+      <c r="G139" s="0"/>
       <c r="H139" s="0"/>
-      <c r="I139" s="13"/>
+      <c r="I139" s="0"/>
       <c r="J139" s="0"/>
-      <c r="K139" s="13"/>
+      <c r="K139" s="0"/>
       <c r="L139" s="0"/>
       <c r="M139" s="0"/>
       <c r="N139" s="0"/>
@@ -5214,15 +5211,16 @@
       <c r="Q139" s="0"/>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C140" s="12"/>
+      <c r="B140" s="4"/>
+      <c r="C140" s="5"/>
       <c r="D140" s="0"/>
-      <c r="E140" s="12"/>
-      <c r="F140" s="12"/>
-      <c r="G140" s="13"/>
+      <c r="E140" s="0"/>
+      <c r="F140" s="0"/>
+      <c r="G140" s="0"/>
       <c r="H140" s="0"/>
-      <c r="I140" s="13"/>
+      <c r="I140" s="0"/>
       <c r="J140" s="0"/>
-      <c r="K140" s="13"/>
+      <c r="K140" s="0"/>
       <c r="L140" s="0"/>
       <c r="M140" s="0"/>
       <c r="N140" s="0"/>
@@ -5251,7 +5249,7 @@
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B142" s="7" t="n">
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="D142" s="0"/>
       <c r="E142" s="8" t="s">
@@ -5273,7 +5271,9 @@
       <c r="K142" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="L142" s="0"/>
+      <c r="L142" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="M142" s="0"/>
       <c r="N142" s="0"/>
       <c r="O142" s="0"/>
@@ -5309,7 +5309,9 @@
       <c r="K143" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="L143" s="0"/>
+      <c r="L143" s="8" t="s">
+        <v>47</v>
+      </c>
       <c r="M143" s="0"/>
       <c r="N143" s="0"/>
       <c r="O143" s="0"/>
@@ -5324,34 +5326,37 @@
         <v>300</v>
       </c>
       <c r="D144" s="1" t="n">
-        <v>11591</v>
+        <v>12428</v>
       </c>
       <c r="E144" s="12" t="n">
         <f aca="false">D144/60.48</f>
-        <v>191.650132275132</v>
+        <v>205.489417989418</v>
       </c>
       <c r="F144" s="12" t="n">
-        <v>812</v>
+        <v>837</v>
       </c>
       <c r="G144" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H144" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$142,G144)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I144" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J144" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$142,I144)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K144" s="13" t="n">
-        <f aca="false">$B$154+1</f>
-        <v>43920</v>
-      </c>
-      <c r="L144" s="0"/>
+        <f aca="false">$B$142+1</f>
+        <v>43922</v>
+      </c>
+      <c r="L144" s="0" t="n">
+        <f aca="false">_xlfn.DAYS(K144,G144)</f>
+        <v>22</v>
+      </c>
       <c r="M144" s="0"/>
       <c r="N144" s="0"/>
       <c r="O144" s="0"/>
@@ -5366,34 +5371,37 @@
         <v>230</v>
       </c>
       <c r="D145" s="1" t="n">
-        <v>7716</v>
+        <v>8464</v>
       </c>
       <c r="E145" s="12" t="n">
         <f aca="false">D145/46.75</f>
-        <v>165.048128342246</v>
+        <v>181.048128342246</v>
       </c>
       <c r="F145" s="12" t="n">
-        <v>913</v>
+        <v>748</v>
       </c>
       <c r="G145" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H145" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$142,G145)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I145" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J145" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$142,I145)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K145" s="13" t="n">
-        <f aca="false">$B$154+1</f>
-        <v>43920</v>
-      </c>
-      <c r="L145" s="0"/>
+        <f aca="false">$B$142+1</f>
+        <v>43922</v>
+      </c>
+      <c r="L145" s="0" t="n">
+        <f aca="false">_xlfn.DAYS(K145,G145)</f>
+        <v>15</v>
+      </c>
       <c r="M145" s="0"/>
       <c r="N145" s="0"/>
       <c r="O145" s="0"/>
@@ -5408,34 +5416,37 @@
         <v>330</v>
       </c>
       <c r="D146" s="1" t="n">
-        <v>3024</v>
+        <v>3523</v>
       </c>
       <c r="E146" s="12" t="n">
         <f aca="false">D146/65.27</f>
-        <v>46.3306266278535</v>
+        <v>53.9757928604259</v>
       </c>
       <c r="F146" s="12" t="n">
-        <v>418</v>
+        <v>499</v>
       </c>
       <c r="G146" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H146" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$142,G146)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I146" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J146" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$142,I146)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K146" s="13" t="n">
-        <f aca="false">$B$154+1</f>
-        <v>43920</v>
-      </c>
-      <c r="L146" s="0"/>
+        <f aca="false">$B$142+1</f>
+        <v>43922</v>
+      </c>
+      <c r="L146" s="0" t="n">
+        <f aca="false">_xlfn.DAYS(K146,G146)</f>
+        <v>10</v>
+      </c>
       <c r="M146" s="0"/>
       <c r="N146" s="0"/>
       <c r="O146" s="0"/>
@@ -5450,35 +5461,38 @@
         <v>50</v>
       </c>
       <c r="D147" s="12" t="n">
-        <v>146</v>
+        <v>180</v>
       </c>
       <c r="E147" s="12" t="n">
         <f aca="false">D147/10.36</f>
-        <v>14.0926640926641</v>
+        <v>17.3745173745174</v>
       </c>
       <c r="F147" s="12" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G147" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H147" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$142,G147)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I147" s="13" t="n">
         <f aca="false">$B$142+1</f>
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="J147" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$142,I147)</f>
         <v>-1</v>
       </c>
       <c r="K147" s="13" t="n">
-        <f aca="false">$B$154+1</f>
-        <v>43920</v>
-      </c>
-      <c r="L147" s="0"/>
+        <f aca="false">$B$142+1</f>
+        <v>43922</v>
+      </c>
+      <c r="L147" s="0" t="n">
+        <f aca="false">_xlfn.DAYS(K147,G147)</f>
+        <v>7</v>
+      </c>
       <c r="M147" s="0"/>
       <c r="N147" s="0"/>
       <c r="O147" s="0"/>
@@ -5493,35 +5507,38 @@
         <v>330</v>
       </c>
       <c r="D148" s="1" t="n">
-        <v>1408</v>
+        <v>1789</v>
       </c>
       <c r="E148" s="12" t="n">
         <f aca="false">D148/67.79</f>
-        <v>20.770025077445</v>
+        <v>26.390323056498</v>
       </c>
       <c r="F148" s="12" t="n">
-        <v>180</v>
+        <v>381</v>
       </c>
       <c r="G148" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H148" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$142,G148)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I148" s="13" t="n">
         <f aca="false">$B$142+1</f>
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="J148" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$142,I148)</f>
         <v>-1</v>
       </c>
       <c r="K148" s="13" t="n">
-        <f aca="false">$B$154+1</f>
-        <v>43920</v>
-      </c>
-      <c r="L148" s="0"/>
+        <f aca="false">$B$142+1</f>
+        <v>43922</v>
+      </c>
+      <c r="L148" s="0" t="n">
+        <f aca="false">_xlfn.DAYS(K148,G148)</f>
+        <v>6</v>
+      </c>
       <c r="M148" s="0"/>
       <c r="N148" s="0"/>
       <c r="O148" s="0"/>
@@ -5536,34 +5553,38 @@
         <v>1660</v>
       </c>
       <c r="D149" s="1" t="n">
-        <v>3141</v>
+        <v>4053</v>
       </c>
       <c r="E149" s="12" t="n">
         <f aca="false">D149/331</f>
-        <v>9.48942598187311</v>
+        <v>12.2447129909366</v>
       </c>
       <c r="F149" s="12" t="n">
-        <v>573</v>
+        <v>912</v>
       </c>
       <c r="G149" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H149" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$142,G149)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I149" s="13" t="n">
-        <v>43920</v>
+        <f aca="false">$B$142+1</f>
+        <v>43922</v>
       </c>
       <c r="J149" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$142,I149)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K149" s="13" t="n">
-        <f aca="false">$B$154+1</f>
-        <v>43920</v>
-      </c>
-      <c r="L149" s="0"/>
+        <f aca="false">$B$142+1</f>
+        <v>43922</v>
+      </c>
+      <c r="L149" s="0" t="n">
+        <f aca="false">_xlfn.DAYS(K149,G149)</f>
+        <v>5</v>
+      </c>
       <c r="M149" s="0"/>
       <c r="N149" s="0"/>
       <c r="O149" s="0"/>
@@ -5578,35 +5599,38 @@
         <v>414</v>
       </c>
       <c r="D150" s="1" t="n">
-        <v>645</v>
+        <v>775</v>
       </c>
       <c r="E150" s="12" t="n">
         <f aca="false">D150/83.784</f>
-        <v>7.69836723002005</v>
+        <v>9.24997612909386</v>
       </c>
       <c r="F150" s="12" t="n">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="G150" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H150" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$142,G150)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I150" s="13" t="n">
         <f aca="false">$B$142+1</f>
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="J150" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$142,I150)</f>
         <v>-1</v>
       </c>
       <c r="K150" s="13" t="n">
-        <f aca="false">$B$154+1</f>
-        <v>43920</v>
-      </c>
-      <c r="L150" s="0"/>
+        <f aca="false">$B$142+1</f>
+        <v>43922</v>
+      </c>
+      <c r="L150" s="0" t="n">
+        <f aca="false">_xlfn.DAYS(K150,G150)</f>
+        <v>4</v>
+      </c>
       <c r="M150" s="0"/>
       <c r="N150" s="0"/>
       <c r="O150" s="0"/>
@@ -5614,16 +5638,15 @@
       <c r="Q150" s="0"/>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B151" s="4"/>
-      <c r="C151" s="5"/>
+      <c r="C151" s="12"/>
       <c r="D151" s="0"/>
-      <c r="E151" s="0"/>
-      <c r="F151" s="0"/>
-      <c r="G151" s="0"/>
+      <c r="E151" s="12"/>
+      <c r="F151" s="12"/>
+      <c r="G151" s="13"/>
       <c r="H151" s="0"/>
-      <c r="I151" s="0"/>
+      <c r="I151" s="13"/>
       <c r="J151" s="0"/>
-      <c r="K151" s="0"/>
+      <c r="K151" s="13"/>
       <c r="L151" s="0"/>
       <c r="M151" s="0"/>
       <c r="N151" s="0"/>
@@ -5632,16 +5655,15 @@
       <c r="Q151" s="0"/>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B152" s="4"/>
-      <c r="C152" s="5"/>
+      <c r="C152" s="12"/>
       <c r="D152" s="0"/>
-      <c r="E152" s="0"/>
-      <c r="F152" s="0"/>
-      <c r="G152" s="0"/>
+      <c r="E152" s="12"/>
+      <c r="F152" s="12"/>
+      <c r="G152" s="13"/>
       <c r="H152" s="0"/>
-      <c r="I152" s="0"/>
+      <c r="I152" s="13"/>
       <c r="J152" s="0"/>
-      <c r="K152" s="0"/>
+      <c r="K152" s="13"/>
       <c r="L152" s="0"/>
       <c r="M152" s="0"/>
       <c r="N152" s="0"/>
@@ -5670,7 +5692,7 @@
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B154" s="7" t="n">
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="D154" s="0"/>
       <c r="E154" s="8" t="s">
@@ -5743,31 +5765,31 @@
         <v>300</v>
       </c>
       <c r="D156" s="1" t="n">
-        <v>10779</v>
+        <v>11591</v>
       </c>
       <c r="E156" s="12" t="n">
         <f aca="false">D156/60.48</f>
-        <v>178.224206349206</v>
+        <v>191.650132275132</v>
       </c>
       <c r="F156" s="12" t="n">
-        <v>756</v>
+        <v>812</v>
       </c>
       <c r="G156" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H156" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$154,G156)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I156" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J156" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$154,I156)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K156" s="13" t="n">
-        <f aca="false">$B$154+1</f>
+        <f aca="false">$B$166+1</f>
         <v>43920</v>
       </c>
       <c r="L156" s="0"/>
@@ -5785,31 +5807,31 @@
         <v>230</v>
       </c>
       <c r="D157" s="1" t="n">
-        <v>6803</v>
+        <v>7716</v>
       </c>
       <c r="E157" s="12" t="n">
         <f aca="false">D157/46.75</f>
-        <v>145.51871657754</v>
+        <v>165.048128342246</v>
       </c>
       <c r="F157" s="12" t="n">
-        <v>821</v>
+        <v>913</v>
       </c>
       <c r="G157" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H157" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$154,G157)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I157" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J157" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$154,I157)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K157" s="13" t="n">
-        <f aca="false">$B$154+1</f>
+        <f aca="false">$B$166+1</f>
         <v>43920</v>
       </c>
       <c r="L157" s="0"/>
@@ -5827,31 +5849,31 @@
         <v>330</v>
       </c>
       <c r="D158" s="1" t="n">
-        <v>2606</v>
+        <v>3024</v>
       </c>
       <c r="E158" s="12" t="n">
         <f aca="false">D158/65.27</f>
-        <v>39.9264593228129</v>
+        <v>46.3306266278535</v>
       </c>
       <c r="F158" s="12" t="n">
-        <v>292</v>
+        <v>418</v>
       </c>
       <c r="G158" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H158" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$154,G158)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I158" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J158" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$154,I158)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K158" s="13" t="n">
-        <f aca="false">$B$154+1</f>
+        <f aca="false">$B$166+1</f>
         <v>43920</v>
       </c>
       <c r="L158" s="0"/>
@@ -5863,38 +5885,38 @@
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B159" s="0" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C159" s="12" t="n">
-        <v>1660</v>
-      </c>
-      <c r="D159" s="1" t="n">
-        <v>2583</v>
+        <v>50</v>
+      </c>
+      <c r="D159" s="12" t="n">
+        <v>146</v>
       </c>
       <c r="E159" s="12" t="n">
-        <f aca="false">D159/331</f>
-        <v>7.8036253776435</v>
+        <f aca="false">D159/10.36</f>
+        <v>14.0926640926641</v>
       </c>
       <c r="F159" s="12" t="n">
-        <v>363</v>
+        <v>36</v>
       </c>
       <c r="G159" s="13" t="n">
-        <v>43917</v>
+        <v>43915</v>
       </c>
       <c r="H159" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$154,G159)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I159" s="13" t="n">
         <f aca="false">$B$154+1</f>
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="J159" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$154,I159)</f>
         <v>-1</v>
       </c>
       <c r="K159" s="13" t="n">
-        <f aca="false">$B$154+1</f>
+        <f aca="false">$B$166+1</f>
         <v>43920</v>
       </c>
       <c r="L159" s="0"/>
@@ -5912,32 +5934,32 @@
         <v>330</v>
       </c>
       <c r="D160" s="1" t="n">
-        <v>1228</v>
+        <v>1408</v>
       </c>
       <c r="E160" s="12" t="n">
         <f aca="false">D160/67.79</f>
-        <v>18.1147661897035</v>
+        <v>20.770025077445</v>
       </c>
       <c r="F160" s="12" t="n">
-        <v>209</v>
+        <v>180</v>
       </c>
       <c r="G160" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H160" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$154,G160)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I160" s="13" t="n">
         <f aca="false">$B$154+1</f>
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="J160" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$154,I160)</f>
         <v>-1</v>
       </c>
       <c r="K160" s="13" t="n">
-        <f aca="false">$B$154+1</f>
+        <f aca="false">$B$166+1</f>
         <v>43920</v>
       </c>
       <c r="L160" s="0"/>
@@ -5949,38 +5971,37 @@
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B161" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C161" s="12" t="n">
-        <v>414</v>
+        <v>1660</v>
       </c>
       <c r="D161" s="1" t="n">
-        <v>541</v>
+        <v>3141</v>
       </c>
       <c r="E161" s="12" t="n">
-        <f aca="false">D161/83.784</f>
-        <v>6.457080110761</v>
+        <f aca="false">D161/331</f>
+        <v>9.48942598187311</v>
       </c>
       <c r="F161" s="12" t="n">
-        <v>108</v>
+        <v>573</v>
       </c>
       <c r="G161" s="13" t="n">
-        <v>43918</v>
+        <v>43917</v>
       </c>
       <c r="H161" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$154,G161)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I161" s="13" t="n">
-        <f aca="false">$B$154+1</f>
         <v>43920</v>
       </c>
       <c r="J161" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$154,I161)</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K161" s="13" t="n">
-        <f aca="false">$B$154+1</f>
+        <f aca="false">$B$166+1</f>
         <v>43920</v>
       </c>
       <c r="L161" s="0"/>
@@ -5992,38 +6013,38 @@
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B162" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C162" s="12" t="n">
-        <v>50</v>
-      </c>
-      <c r="D162" s="12" t="n">
-        <v>110</v>
+        <v>414</v>
+      </c>
+      <c r="D162" s="1" t="n">
+        <v>645</v>
       </c>
       <c r="E162" s="12" t="n">
-        <f aca="false">D162/10.36</f>
-        <v>10.6177606177606</v>
+        <f aca="false">D162/83.784</f>
+        <v>7.69836723002005</v>
       </c>
       <c r="F162" s="12" t="n">
-        <v>5</v>
+        <v>104</v>
       </c>
       <c r="G162" s="13" t="n">
-        <v>43915</v>
+        <v>43918</v>
       </c>
       <c r="H162" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$154,G162)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I162" s="13" t="n">
         <f aca="false">$B$154+1</f>
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="J162" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$154,I162)</f>
         <v>-1</v>
       </c>
       <c r="K162" s="13" t="n">
-        <f aca="false">$B$154+1</f>
+        <f aca="false">$B$166+1</f>
         <v>43920</v>
       </c>
       <c r="L162" s="0"/>
@@ -6090,15 +6111,13 @@
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B166" s="7" t="n">
-        <v>43918</v>
-      </c>
-      <c r="D166" s="8" t="s">
-        <v>12</v>
-      </c>
+        <v>43919</v>
+      </c>
+      <c r="D166" s="0"/>
       <c r="E166" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F166" s="8"/>
+      <c r="F166" s="0"/>
       <c r="G166" s="8" t="s">
         <v>35</v>
       </c>
@@ -6126,8 +6145,8 @@
       <c r="C167" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D167" s="10" t="s">
-        <v>6</v>
+      <c r="D167" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="E167" s="10" t="s">
         <v>41</v>
@@ -6165,32 +6184,32 @@
         <v>300</v>
       </c>
       <c r="D168" s="1" t="n">
-        <v>10023</v>
+        <v>10779</v>
       </c>
       <c r="E168" s="12" t="n">
         <f aca="false">D168/60.48</f>
-        <v>165.724206349206</v>
+        <v>178.224206349206</v>
       </c>
       <c r="F168" s="12" t="n">
-        <v>889</v>
+        <v>756</v>
       </c>
       <c r="G168" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H168" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$166,G168)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I168" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J168" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$178,I168)</f>
-        <v>15</v>
+        <f aca="false">_xlfn.DAYS($B$166,I168)</f>
+        <v>17</v>
       </c>
       <c r="K168" s="13" t="n">
         <f aca="false">$B$166+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="L168" s="0"/>
       <c r="M168" s="0"/>
@@ -6207,32 +6226,32 @@
         <v>230</v>
       </c>
       <c r="D169" s="1" t="n">
-        <v>5982</v>
+        <v>6803</v>
       </c>
       <c r="E169" s="12" t="n">
         <f aca="false">D169/46.75</f>
-        <v>127.957219251337</v>
+        <v>145.51871657754</v>
       </c>
       <c r="F169" s="12" t="n">
-        <v>844</v>
+        <v>821</v>
       </c>
       <c r="G169" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H169" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$166,G169)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I169" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J169" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$178,I169)</f>
-        <v>4</v>
+        <f aca="false">_xlfn.DAYS($B$166,I169)</f>
+        <v>6</v>
       </c>
       <c r="K169" s="13" t="n">
         <f aca="false">$B$166+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="L169" s="0"/>
       <c r="M169" s="0"/>
@@ -6249,32 +6268,32 @@
         <v>330</v>
       </c>
       <c r="D170" s="1" t="n">
-        <v>2314</v>
+        <v>2606</v>
       </c>
       <c r="E170" s="12" t="n">
         <f aca="false">D170/65.27</f>
-        <v>35.4527347939329</v>
+        <v>39.9264593228129</v>
       </c>
       <c r="F170" s="12" t="n">
-        <v>319</v>
+        <v>292</v>
       </c>
       <c r="G170" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H170" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$166,G170)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I170" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J170" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$178,I170)</f>
-        <v>3</v>
+        <f aca="false">_xlfn.DAYS($B$166,I170)</f>
+        <v>5</v>
       </c>
       <c r="K170" s="13" t="n">
         <f aca="false">$B$166+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="L170" s="0"/>
       <c r="M170" s="0"/>
@@ -6291,25 +6310,25 @@
         <v>1660</v>
       </c>
       <c r="D171" s="1" t="n">
-        <v>2221</v>
+        <v>2583</v>
       </c>
       <c r="E171" s="12" t="n">
         <f aca="false">D171/331</f>
-        <v>6.70996978851964</v>
+        <v>7.8036253776435</v>
       </c>
       <c r="F171" s="12" t="n">
-        <v>525</v>
+        <v>363</v>
       </c>
       <c r="G171" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H171" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$166,G171)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I171" s="13" t="n">
         <f aca="false">$B$166+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="J171" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$166,I171)</f>
@@ -6317,7 +6336,7 @@
       </c>
       <c r="K171" s="13" t="n">
         <f aca="false">$B$166+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="L171" s="0"/>
       <c r="M171" s="0"/>
@@ -6334,25 +6353,25 @@
         <v>330</v>
       </c>
       <c r="D172" s="1" t="n">
-        <v>1019</v>
+        <v>1228</v>
       </c>
       <c r="E172" s="12" t="n">
         <f aca="false">D172/67.79</f>
-        <v>15.0317155922702</v>
+        <v>18.1147661897035</v>
       </c>
       <c r="F172" s="12" t="n">
-        <v>260</v>
+        <v>209</v>
       </c>
       <c r="G172" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H172" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$166,G172)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I172" s="13" t="n">
         <f aca="false">$B$166+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="J172" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$166,I172)</f>
@@ -6360,7 +6379,7 @@
       </c>
       <c r="K172" s="13" t="n">
         <f aca="false">$B$166+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="L172" s="0"/>
       <c r="M172" s="0"/>
@@ -6377,25 +6396,25 @@
         <v>414</v>
       </c>
       <c r="D173" s="1" t="n">
-        <v>433</v>
+        <v>541</v>
       </c>
       <c r="E173" s="12" t="n">
         <f aca="false">D173/83.784</f>
-        <v>5.16805117922276</v>
+        <v>6.457080110761</v>
       </c>
       <c r="F173" s="12" t="n">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="G173" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H173" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$166,G173)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I173" s="13" t="n">
         <f aca="false">$B$166+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="J173" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$166,I173)</f>
@@ -6403,7 +6422,7 @@
       </c>
       <c r="K173" s="13" t="n">
         <f aca="false">$B$166+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="L173" s="0"/>
       <c r="M173" s="0"/>
@@ -6420,25 +6439,25 @@
         <v>50</v>
       </c>
       <c r="D174" s="12" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E174" s="12" t="n">
         <f aca="false">D174/10.36</f>
-        <v>10.1351351351351</v>
+        <v>10.6177606177606</v>
       </c>
       <c r="F174" s="12" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G174" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H174" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$166,G174)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I174" s="13" t="n">
         <f aca="false">$B$166+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="J174" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$166,I174)</f>
@@ -6446,7 +6465,7 @@
       </c>
       <c r="K174" s="13" t="n">
         <f aca="false">$B$166+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="L174" s="0"/>
       <c r="M174" s="0"/>
@@ -6456,15 +6475,16 @@
       <c r="Q174" s="0"/>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C175" s="12"/>
-      <c r="D175" s="12"/>
-      <c r="E175" s="12"/>
-      <c r="F175" s="12"/>
-      <c r="G175" s="13"/>
+      <c r="B175" s="4"/>
+      <c r="C175" s="5"/>
+      <c r="D175" s="0"/>
+      <c r="E175" s="0"/>
+      <c r="F175" s="0"/>
+      <c r="G175" s="0"/>
       <c r="H175" s="0"/>
-      <c r="I175" s="13"/>
+      <c r="I175" s="0"/>
       <c r="J175" s="0"/>
-      <c r="K175" s="13"/>
+      <c r="K175" s="0"/>
       <c r="L175" s="0"/>
       <c r="M175" s="0"/>
       <c r="N175" s="0"/>
@@ -6509,11 +6529,10 @@
       <c r="P177" s="0"/>
       <c r="Q177" s="0"/>
     </row>
-    <row r="178" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B178" s="7" t="n">
-        <v>43917</v>
-      </c>
-      <c r="C178" s="0"/>
+        <v>43918</v>
+      </c>
       <c r="D178" s="8" t="s">
         <v>12</v>
       </c>
@@ -6536,10 +6555,14 @@
       <c r="K178" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="L178" s="8"/>
+      <c r="L178" s="0"/>
+      <c r="M178" s="0"/>
+      <c r="N178" s="0"/>
+      <c r="O178" s="0"/>
+      <c r="P178" s="0"/>
+      <c r="Q178" s="0"/>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="3"/>
       <c r="B179" s="9"/>
       <c r="C179" s="10" t="s">
         <v>40</v>
@@ -6568,7 +6591,7 @@
       <c r="K179" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="L179" s="8"/>
+      <c r="L179" s="0"/>
       <c r="M179" s="0"/>
       <c r="N179" s="0"/>
       <c r="O179" s="0"/>
@@ -6583,32 +6606,32 @@
         <v>300</v>
       </c>
       <c r="D180" s="1" t="n">
-        <v>9134</v>
+        <v>10023</v>
       </c>
       <c r="E180" s="12" t="n">
         <f aca="false">D180/60.48</f>
-        <v>151.025132275132</v>
+        <v>165.724206349206</v>
       </c>
       <c r="F180" s="12" t="n">
-        <v>919</v>
+        <v>889</v>
       </c>
       <c r="G180" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H180" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$178,G180)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I180" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J180" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$178,I180)</f>
+        <f aca="false">_xlfn.DAYS(B$190,I180)</f>
         <v>15</v>
       </c>
       <c r="K180" s="13" t="n">
         <f aca="false">$B$178+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="L180" s="0"/>
       <c r="M180" s="0"/>
@@ -6625,32 +6648,32 @@
         <v>230</v>
       </c>
       <c r="D181" s="1" t="n">
-        <v>5138</v>
+        <v>5982</v>
       </c>
       <c r="E181" s="12" t="n">
         <f aca="false">D181/46.75</f>
-        <v>109.903743315508</v>
+        <v>127.957219251337</v>
       </c>
       <c r="F181" s="12" t="n">
-        <v>773</v>
+        <v>844</v>
       </c>
       <c r="G181" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H181" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$178,G181)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I181" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J181" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$178,I181)</f>
+        <f aca="false">_xlfn.DAYS(B$190,I181)</f>
         <v>4</v>
       </c>
       <c r="K181" s="13" t="n">
         <f aca="false">$B$178+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="L181" s="0"/>
       <c r="M181" s="0"/>
@@ -6667,32 +6690,32 @@
         <v>330</v>
       </c>
       <c r="D182" s="1" t="n">
-        <v>1995</v>
+        <v>2314</v>
       </c>
       <c r="E182" s="12" t="n">
         <f aca="false">D182/65.27</f>
-        <v>30.5653439558756</v>
+        <v>35.4527347939329</v>
       </c>
       <c r="F182" s="12" t="n">
-        <v>299</v>
+        <v>319</v>
       </c>
       <c r="G182" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H182" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$178,G182)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I182" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J182" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$178,I182)</f>
+        <f aca="false">_xlfn.DAYS(B$190,I182)</f>
         <v>3</v>
       </c>
       <c r="K182" s="13" t="n">
         <f aca="false">$B$178+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="L182" s="0"/>
       <c r="M182" s="0"/>
@@ -6709,34 +6732,33 @@
         <v>1660</v>
       </c>
       <c r="D183" s="1" t="n">
-        <v>1696</v>
+        <v>2221</v>
       </c>
       <c r="E183" s="12" t="n">
         <f aca="false">D183/331</f>
-        <v>5.12386706948641</v>
+        <v>6.70996978851964</v>
       </c>
       <c r="F183" s="12" t="n">
-        <v>400</v>
+        <v>525</v>
       </c>
       <c r="G183" s="13" t="n">
-        <f aca="false">$B$178</f>
         <v>43917</v>
       </c>
       <c r="H183" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$178,G183)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I183" s="13" t="n">
         <f aca="false">$B$178+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="J183" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$178,I183)</f>
+        <f aca="false">_xlfn.DAYS($B$178,I183)</f>
         <v>-1</v>
       </c>
       <c r="K183" s="13" t="n">
         <f aca="false">$B$178+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="L183" s="0"/>
       <c r="M183" s="0"/>
@@ -6753,33 +6775,33 @@
         <v>330</v>
       </c>
       <c r="D184" s="1" t="n">
-        <v>759</v>
+        <v>1019</v>
       </c>
       <c r="E184" s="12" t="n">
         <f aca="false">D184/67.79</f>
-        <v>11.1963416433102</v>
+        <v>15.0317155922702</v>
       </c>
       <c r="F184" s="12" t="n">
-        <v>181</v>
+        <v>260</v>
       </c>
       <c r="G184" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H184" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$178,G184)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I184" s="13" t="n">
         <f aca="false">$B$178+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="J184" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$178,I184)</f>
+        <f aca="false">_xlfn.DAYS($B$178,I184)</f>
         <v>-1</v>
       </c>
       <c r="K184" s="13" t="n">
         <f aca="false">$B$178+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="L184" s="0"/>
       <c r="M184" s="0"/>
@@ -6796,34 +6818,33 @@
         <v>414</v>
       </c>
       <c r="D185" s="1" t="n">
-        <v>351</v>
+        <v>433</v>
       </c>
       <c r="E185" s="12" t="n">
         <f aca="false">D185/83.784</f>
-        <v>4.18934402749928</v>
+        <v>5.16805117922276</v>
       </c>
       <c r="F185" s="12" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G185" s="13" t="n">
-        <f aca="false">$B$178+1</f>
         <v>43918</v>
       </c>
       <c r="H185" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$178,G185)</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I185" s="13" t="n">
         <f aca="false">$B$178+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="J185" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$178,I185)</f>
+        <f aca="false">_xlfn.DAYS($B$178,I185)</f>
         <v>-1</v>
       </c>
       <c r="K185" s="13" t="n">
         <f aca="false">$B$178+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="L185" s="0"/>
       <c r="M185" s="0"/>
@@ -6847,26 +6868,26 @@
         <v>10.1351351351351</v>
       </c>
       <c r="F186" s="12" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="G186" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H186" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$178,G186)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I186" s="13" t="n">
         <f aca="false">$B$178+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="J186" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$178,I186)</f>
+        <f aca="false">_xlfn.DAYS($B$178,I186)</f>
         <v>-1</v>
       </c>
       <c r="K186" s="13" t="n">
         <f aca="false">$B$178+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="L186" s="0"/>
       <c r="M186" s="0"/>
@@ -6876,14 +6897,15 @@
       <c r="Q186" s="0"/>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D187" s="0"/>
-      <c r="E187" s="0"/>
-      <c r="F187" s="0"/>
-      <c r="G187" s="0"/>
+      <c r="C187" s="12"/>
+      <c r="D187" s="12"/>
+      <c r="E187" s="12"/>
+      <c r="F187" s="12"/>
+      <c r="G187" s="13"/>
       <c r="H187" s="0"/>
-      <c r="I187" s="0"/>
+      <c r="I187" s="13"/>
       <c r="J187" s="0"/>
-      <c r="K187" s="0"/>
+      <c r="K187" s="13"/>
       <c r="L187" s="0"/>
       <c r="M187" s="0"/>
       <c r="N187" s="0"/>
@@ -6892,6 +6914,8 @@
       <c r="Q187" s="0"/>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B188" s="4"/>
+      <c r="C188" s="5"/>
       <c r="D188" s="0"/>
       <c r="E188" s="0"/>
       <c r="F188" s="0"/>
@@ -6926,10 +6950,11 @@
       <c r="P189" s="0"/>
       <c r="Q189" s="0"/>
     </row>
-    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B190" s="7" t="n">
-        <v>43916</v>
-      </c>
+        <v>43917</v>
+      </c>
+      <c r="C190" s="0"/>
       <c r="D190" s="8" t="s">
         <v>12</v>
       </c>
@@ -6952,17 +6977,13 @@
       <c r="K190" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="L190" s="0"/>
-      <c r="M190" s="0"/>
-      <c r="N190" s="0"/>
-      <c r="O190" s="0"/>
-      <c r="P190" s="0"/>
-      <c r="Q190" s="0"/>
+      <c r="L190" s="8"/>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="3"/>
       <c r="B191" s="9"/>
       <c r="C191" s="10" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D191" s="10" t="s">
         <v>6</v>
@@ -6988,7 +7009,7 @@
       <c r="K191" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="L191" s="0"/>
+      <c r="L191" s="8"/>
       <c r="M191" s="0"/>
       <c r="N191" s="0"/>
       <c r="O191" s="0"/>
@@ -7003,32 +7024,32 @@
         <v>300</v>
       </c>
       <c r="D192" s="1" t="n">
-        <v>8215</v>
+        <v>9134</v>
       </c>
       <c r="E192" s="12" t="n">
         <f aca="false">D192/60.48</f>
-        <v>135.830026455026</v>
+        <v>151.025132275132</v>
       </c>
       <c r="F192" s="12" t="n">
-        <v>712</v>
+        <v>919</v>
       </c>
       <c r="G192" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H192" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$190,G192)</f>
-        <v>16</v>
+        <f aca="false">_xlfn.DAYS($B$190,G192)</f>
+        <v>17</v>
       </c>
       <c r="I192" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J192" s="1" t="n">
         <f aca="false">_xlfn.DAYS(B$190,I192)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K192" s="13" t="n">
-        <f aca="false">B$190+1</f>
-        <v>43917</v>
+        <f aca="false">$B$190+1</f>
+        <v>43918</v>
       </c>
       <c r="L192" s="0"/>
       <c r="M192" s="0"/>
@@ -7045,32 +7066,32 @@
         <v>230</v>
       </c>
       <c r="D193" s="1" t="n">
-        <v>4365</v>
+        <v>5138</v>
       </c>
       <c r="E193" s="12" t="n">
         <f aca="false">D193/46.75</f>
-        <v>93.3689839572193</v>
+        <v>109.903743315508</v>
       </c>
       <c r="F193" s="12" t="n">
-        <v>718</v>
+        <v>773</v>
       </c>
       <c r="G193" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H193" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$190,G193)</f>
-        <v>9</v>
+        <f aca="false">_xlfn.DAYS($B$190,G193)</f>
+        <v>10</v>
       </c>
       <c r="I193" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J193" s="1" t="n">
         <f aca="false">_xlfn.DAYS(B$190,I193)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K193" s="13" t="n">
-        <f aca="false">B$190+1</f>
-        <v>43917</v>
+        <f aca="false">$B$190+1</f>
+        <v>43918</v>
       </c>
       <c r="L193" s="0"/>
       <c r="M193" s="0"/>
@@ -7087,32 +7108,32 @@
         <v>330</v>
       </c>
       <c r="D194" s="1" t="n">
-        <v>1696</v>
+        <v>1995</v>
       </c>
       <c r="E194" s="12" t="n">
         <f aca="false">D194/65.27</f>
-        <v>25.9843726060978</v>
+        <v>30.5653439558756</v>
       </c>
       <c r="F194" s="12" t="n">
-        <v>365</v>
+        <v>299</v>
       </c>
       <c r="G194" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H194" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$190,G194)</f>
-        <v>4</v>
+        <f aca="false">_xlfn.DAYS($B$190,G194)</f>
+        <v>5</v>
       </c>
       <c r="I194" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J194" s="1" t="n">
         <f aca="false">_xlfn.DAYS(B$190,I194)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K194" s="13" t="n">
-        <f aca="false">B$190+1</f>
-        <v>43917</v>
+        <f aca="false">$B$190+1</f>
+        <v>43918</v>
       </c>
       <c r="L194" s="0"/>
       <c r="M194" s="0"/>
@@ -7129,33 +7150,34 @@
         <v>1660</v>
       </c>
       <c r="D195" s="1" t="n">
-        <v>1295</v>
+        <v>1696</v>
       </c>
       <c r="E195" s="12" t="n">
         <f aca="false">D195/331</f>
-        <v>3.91238670694864</v>
+        <v>5.12386706948641</v>
       </c>
       <c r="F195" s="12" t="n">
-        <v>268</v>
+        <v>400</v>
       </c>
       <c r="G195" s="13" t="n">
+        <f aca="false">$B$190</f>
         <v>43917</v>
       </c>
       <c r="H195" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$190,G195)</f>
+        <f aca="false">_xlfn.DAYS($B$190,G195)</f>
+        <v>0</v>
+      </c>
+      <c r="I195" s="13" t="n">
+        <f aca="false">$B$190+1</f>
+        <v>43918</v>
+      </c>
+      <c r="J195" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$190,I195)</f>
         <v>-1</v>
       </c>
-      <c r="I195" s="13" t="n">
-        <f aca="false">B$190+1</f>
-        <v>43917</v>
-      </c>
-      <c r="J195" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$190,I195)</f>
-        <v>-1</v>
-      </c>
       <c r="K195" s="13" t="n">
-        <f aca="false">B$190+1</f>
-        <v>43917</v>
+        <f aca="false">$B$190+1</f>
+        <v>43918</v>
       </c>
       <c r="L195" s="0"/>
       <c r="M195" s="0"/>
@@ -7172,33 +7194,33 @@
         <v>330</v>
       </c>
       <c r="D196" s="1" t="n">
-        <v>578</v>
+        <v>759</v>
       </c>
       <c r="E196" s="12" t="n">
         <f aca="false">D196/67.79</f>
-        <v>8.52633131730344</v>
+        <v>11.1963416433102</v>
       </c>
       <c r="F196" s="12" t="n">
-        <v>115</v>
+        <v>181</v>
       </c>
       <c r="G196" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H196" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$190,G196)</f>
-        <v>0</v>
+        <f aca="false">_xlfn.DAYS($B$190,G196)</f>
+        <v>1</v>
       </c>
       <c r="I196" s="13" t="n">
-        <f aca="false">B$190+1</f>
-        <v>43917</v>
+        <f aca="false">$B$190+1</f>
+        <v>43918</v>
       </c>
       <c r="J196" s="1" t="n">
         <f aca="false">_xlfn.DAYS(B$190,I196)</f>
         <v>-1</v>
       </c>
       <c r="K196" s="13" t="n">
-        <f aca="false">B$190+1</f>
-        <v>43917</v>
+        <f aca="false">$B$190+1</f>
+        <v>43918</v>
       </c>
       <c r="L196" s="0"/>
       <c r="M196" s="0"/>
@@ -7215,33 +7237,34 @@
         <v>414</v>
       </c>
       <c r="D197" s="1" t="n">
-        <v>267</v>
+        <v>351</v>
       </c>
       <c r="E197" s="12" t="n">
         <f aca="false">D197/83.784</f>
-        <v>3.18676596963621</v>
+        <v>4.18934402749928</v>
       </c>
       <c r="F197" s="12" t="n">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="G197" s="13" t="n">
-        <v>43917</v>
+        <f aca="false">$B$190+1</f>
+        <v>43918</v>
       </c>
       <c r="H197" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$190,G197)</f>
+        <f aca="false">_xlfn.DAYS($B$190,G197)</f>
         <v>-1</v>
       </c>
       <c r="I197" s="13" t="n">
-        <f aca="false">B$190+1</f>
-        <v>43917</v>
+        <f aca="false">$B$190+1</f>
+        <v>43918</v>
       </c>
       <c r="J197" s="1" t="n">
         <f aca="false">_xlfn.DAYS(B$190,I197)</f>
         <v>-1</v>
       </c>
       <c r="K197" s="13" t="n">
-        <f aca="false">B$190+1</f>
-        <v>43917</v>
+        <f aca="false">$B$190+1</f>
+        <v>43918</v>
       </c>
       <c r="L197" s="0"/>
       <c r="M197" s="0"/>
@@ -7258,33 +7281,33 @@
         <v>50</v>
       </c>
       <c r="D198" s="12" t="n">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="E198" s="12" t="n">
         <f aca="false">D198/10.36</f>
-        <v>7.43243243243243</v>
+        <v>10.1351351351351</v>
       </c>
       <c r="F198" s="12" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="G198" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H198" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$190,G198)</f>
-        <v>1</v>
+        <f aca="false">_xlfn.DAYS($B$190,G198)</f>
+        <v>2</v>
       </c>
       <c r="I198" s="13" t="n">
-        <f aca="false">B$190+1</f>
-        <v>43917</v>
+        <f aca="false">$B$190+1</f>
+        <v>43918</v>
       </c>
       <c r="J198" s="1" t="n">
         <f aca="false">_xlfn.DAYS(B$190,I198)</f>
         <v>-1</v>
       </c>
       <c r="K198" s="13" t="n">
-        <f aca="false">B$190+1</f>
-        <v>43917</v>
+        <f aca="false">$B$190+1</f>
+        <v>43918</v>
       </c>
       <c r="L198" s="0"/>
       <c r="M198" s="0"/>
@@ -7292,6 +7315,424 @@
       <c r="O198" s="0"/>
       <c r="P198" s="0"/>
       <c r="Q198" s="0"/>
+    </row>
+    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D199" s="0"/>
+      <c r="E199" s="0"/>
+      <c r="F199" s="0"/>
+      <c r="G199" s="0"/>
+      <c r="H199" s="0"/>
+      <c r="I199" s="0"/>
+      <c r="J199" s="0"/>
+      <c r="K199" s="0"/>
+      <c r="L199" s="0"/>
+      <c r="M199" s="0"/>
+      <c r="N199" s="0"/>
+      <c r="O199" s="0"/>
+      <c r="P199" s="0"/>
+      <c r="Q199" s="0"/>
+    </row>
+    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D200" s="0"/>
+      <c r="E200" s="0"/>
+      <c r="F200" s="0"/>
+      <c r="G200" s="0"/>
+      <c r="H200" s="0"/>
+      <c r="I200" s="0"/>
+      <c r="J200" s="0"/>
+      <c r="K200" s="0"/>
+      <c r="L200" s="0"/>
+      <c r="M200" s="0"/>
+      <c r="N200" s="0"/>
+      <c r="O200" s="0"/>
+      <c r="P200" s="0"/>
+      <c r="Q200" s="0"/>
+    </row>
+    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B201" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D201" s="0"/>
+      <c r="E201" s="0"/>
+      <c r="F201" s="0"/>
+      <c r="G201" s="0"/>
+      <c r="H201" s="0"/>
+      <c r="I201" s="0"/>
+      <c r="J201" s="0"/>
+      <c r="K201" s="0"/>
+      <c r="L201" s="0"/>
+      <c r="M201" s="0"/>
+      <c r="N201" s="0"/>
+      <c r="O201" s="0"/>
+      <c r="P201" s="0"/>
+      <c r="Q201" s="0"/>
+    </row>
+    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B202" s="7" t="n">
+        <v>43916</v>
+      </c>
+      <c r="D202" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E202" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F202" s="8"/>
+      <c r="G202" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H202" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I202" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J202" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K202" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="L202" s="0"/>
+      <c r="M202" s="0"/>
+      <c r="N202" s="0"/>
+      <c r="O202" s="0"/>
+      <c r="P202" s="0"/>
+      <c r="Q202" s="0"/>
+    </row>
+    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B203" s="9"/>
+      <c r="C203" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D203" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E203" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F203" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G203" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="H203" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I203" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="J203" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K203" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="L203" s="0"/>
+      <c r="M203" s="0"/>
+      <c r="N203" s="0"/>
+      <c r="O203" s="0"/>
+      <c r="P203" s="0"/>
+      <c r="Q203" s="0"/>
+    </row>
+    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B204" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C204" s="12" t="n">
+        <v>300</v>
+      </c>
+      <c r="D204" s="1" t="n">
+        <v>8215</v>
+      </c>
+      <c r="E204" s="12" t="n">
+        <f aca="false">D204/60.48</f>
+        <v>135.830026455026</v>
+      </c>
+      <c r="F204" s="12" t="n">
+        <v>712</v>
+      </c>
+      <c r="G204" s="13" t="n">
+        <v>43900</v>
+      </c>
+      <c r="H204" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$202,G204)</f>
+        <v>16</v>
+      </c>
+      <c r="I204" s="13" t="n">
+        <v>43902</v>
+      </c>
+      <c r="J204" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$202,I204)</f>
+        <v>14</v>
+      </c>
+      <c r="K204" s="13" t="n">
+        <f aca="false">B$202+1</f>
+        <v>43917</v>
+      </c>
+      <c r="L204" s="0"/>
+      <c r="M204" s="0"/>
+      <c r="N204" s="0"/>
+      <c r="O204" s="0"/>
+      <c r="P204" s="0"/>
+      <c r="Q204" s="0"/>
+    </row>
+    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B205" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C205" s="12" t="n">
+        <v>230</v>
+      </c>
+      <c r="D205" s="1" t="n">
+        <v>4365</v>
+      </c>
+      <c r="E205" s="12" t="n">
+        <f aca="false">D205/46.75</f>
+        <v>93.3689839572193</v>
+      </c>
+      <c r="F205" s="12" t="n">
+        <v>718</v>
+      </c>
+      <c r="G205" s="13" t="n">
+        <v>43907</v>
+      </c>
+      <c r="H205" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$202,G205)</f>
+        <v>9</v>
+      </c>
+      <c r="I205" s="13" t="n">
+        <v>43913</v>
+      </c>
+      <c r="J205" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$202,I205)</f>
+        <v>3</v>
+      </c>
+      <c r="K205" s="13" t="n">
+        <f aca="false">B$202+1</f>
+        <v>43917</v>
+      </c>
+      <c r="L205" s="0"/>
+      <c r="M205" s="0"/>
+      <c r="N205" s="0"/>
+      <c r="O205" s="0"/>
+      <c r="P205" s="0"/>
+      <c r="Q205" s="0"/>
+    </row>
+    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B206" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C206" s="12" t="n">
+        <v>330</v>
+      </c>
+      <c r="D206" s="1" t="n">
+        <v>1696</v>
+      </c>
+      <c r="E206" s="12" t="n">
+        <f aca="false">D206/65.27</f>
+        <v>25.9843726060978</v>
+      </c>
+      <c r="F206" s="12" t="n">
+        <v>365</v>
+      </c>
+      <c r="G206" s="13" t="n">
+        <v>43912</v>
+      </c>
+      <c r="H206" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$202,G206)</f>
+        <v>4</v>
+      </c>
+      <c r="I206" s="13" t="n">
+        <v>43914</v>
+      </c>
+      <c r="J206" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$202,I206)</f>
+        <v>2</v>
+      </c>
+      <c r="K206" s="13" t="n">
+        <f aca="false">B$202+1</f>
+        <v>43917</v>
+      </c>
+      <c r="L206" s="0"/>
+      <c r="M206" s="0"/>
+      <c r="N206" s="0"/>
+      <c r="O206" s="0"/>
+      <c r="P206" s="0"/>
+      <c r="Q206" s="0"/>
+    </row>
+    <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B207" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C207" s="12" t="n">
+        <v>1660</v>
+      </c>
+      <c r="D207" s="1" t="n">
+        <v>1295</v>
+      </c>
+      <c r="E207" s="12" t="n">
+        <f aca="false">D207/331</f>
+        <v>3.91238670694864</v>
+      </c>
+      <c r="F207" s="12" t="n">
+        <v>268</v>
+      </c>
+      <c r="G207" s="13" t="n">
+        <v>43917</v>
+      </c>
+      <c r="H207" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$202,G207)</f>
+        <v>-1</v>
+      </c>
+      <c r="I207" s="13" t="n">
+        <f aca="false">B$202+1</f>
+        <v>43917</v>
+      </c>
+      <c r="J207" s="1" t="n">
+        <f aca="false">_xlfn.DAYS($B$202,I207)</f>
+        <v>-1</v>
+      </c>
+      <c r="K207" s="13" t="n">
+        <f aca="false">B$202+1</f>
+        <v>43917</v>
+      </c>
+      <c r="L207" s="0"/>
+      <c r="M207" s="0"/>
+      <c r="N207" s="0"/>
+      <c r="O207" s="0"/>
+      <c r="P207" s="0"/>
+      <c r="Q207" s="0"/>
+    </row>
+    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B208" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C208" s="12" t="n">
+        <v>330</v>
+      </c>
+      <c r="D208" s="1" t="n">
+        <v>578</v>
+      </c>
+      <c r="E208" s="12" t="n">
+        <f aca="false">D208/67.79</f>
+        <v>8.52633131730344</v>
+      </c>
+      <c r="F208" s="12" t="n">
+        <v>115</v>
+      </c>
+      <c r="G208" s="13" t="n">
+        <v>43916</v>
+      </c>
+      <c r="H208" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$202,G208)</f>
+        <v>0</v>
+      </c>
+      <c r="I208" s="13" t="n">
+        <f aca="false">B$202+1</f>
+        <v>43917</v>
+      </c>
+      <c r="J208" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$202,I208)</f>
+        <v>-1</v>
+      </c>
+      <c r="K208" s="13" t="n">
+        <f aca="false">B$202+1</f>
+        <v>43917</v>
+      </c>
+      <c r="L208" s="0"/>
+      <c r="M208" s="0"/>
+      <c r="N208" s="0"/>
+      <c r="O208" s="0"/>
+      <c r="P208" s="0"/>
+      <c r="Q208" s="0"/>
+    </row>
+    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B209" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C209" s="12" t="n">
+        <v>414</v>
+      </c>
+      <c r="D209" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="E209" s="12" t="n">
+        <f aca="false">D209/83.784</f>
+        <v>3.18676596963621</v>
+      </c>
+      <c r="F209" s="12" t="n">
+        <v>61</v>
+      </c>
+      <c r="G209" s="13" t="n">
+        <v>43917</v>
+      </c>
+      <c r="H209" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$202,G209)</f>
+        <v>-1</v>
+      </c>
+      <c r="I209" s="13" t="n">
+        <f aca="false">B$202+1</f>
+        <v>43917</v>
+      </c>
+      <c r="J209" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$202,I209)</f>
+        <v>-1</v>
+      </c>
+      <c r="K209" s="13" t="n">
+        <f aca="false">B$202+1</f>
+        <v>43917</v>
+      </c>
+      <c r="L209" s="0"/>
+      <c r="M209" s="0"/>
+      <c r="N209" s="0"/>
+      <c r="O209" s="0"/>
+      <c r="P209" s="0"/>
+      <c r="Q209" s="0"/>
+    </row>
+    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B210" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C210" s="12" t="n">
+        <v>50</v>
+      </c>
+      <c r="D210" s="12" t="n">
+        <v>77</v>
+      </c>
+      <c r="E210" s="12" t="n">
+        <f aca="false">D210/10.36</f>
+        <v>7.43243243243243</v>
+      </c>
+      <c r="F210" s="12" t="n">
+        <v>15</v>
+      </c>
+      <c r="G210" s="13" t="n">
+        <v>43915</v>
+      </c>
+      <c r="H210" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$202,G210)</f>
+        <v>1</v>
+      </c>
+      <c r="I210" s="13" t="n">
+        <f aca="false">B$202+1</f>
+        <v>43917</v>
+      </c>
+      <c r="J210" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$202,I210)</f>
+        <v>-1</v>
+      </c>
+      <c r="K210" s="13" t="n">
+        <f aca="false">B$202+1</f>
+        <v>43917</v>
+      </c>
+      <c r="L210" s="0"/>
+      <c r="M210" s="0"/>
+      <c r="N210" s="0"/>
+      <c r="O210" s="0"/>
+      <c r="P210" s="0"/>
+      <c r="Q210" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/covid19 lockdown evaluation .xlsx
+++ b/covid19 lockdown evaluation .xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="55">
   <si>
     <t>Effects of the lockdown issued by governments</t>
   </si>
@@ -359,10 +359,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q210"/>
+  <dimension ref="A1:Q222"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F31" activeCellId="0" sqref="F31"/>
+      <selection pane="topLeft" activeCell="D31" activeCellId="0" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -815,7 +815,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="7" t="n">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="D22" s="0"/>
       <c r="E22" s="8" t="s">
@@ -892,36 +892,36 @@
         <v>300</v>
       </c>
       <c r="D24" s="1" t="n">
-        <v>18849</v>
+        <v>19468</v>
       </c>
       <c r="E24" s="12" t="n">
         <f aca="false">D24/60.48</f>
-        <v>311.656746031746</v>
+        <v>321.891534391534</v>
       </c>
       <c r="F24" s="12" t="n">
-        <v>570</v>
+        <v>619</v>
       </c>
       <c r="G24" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H24" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,G24)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I24" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J24" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,I24)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K24" s="13" t="n">
         <f aca="false">$B$22+1</f>
-        <v>43932</v>
+        <v>43933</v>
       </c>
       <c r="L24" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K24,G24)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M24" s="0"/>
       <c r="N24" s="0"/>
@@ -937,36 +937,36 @@
         <v>230</v>
       </c>
       <c r="D25" s="1" t="n">
-        <v>16081</v>
+        <v>16606</v>
       </c>
       <c r="E25" s="12" t="n">
         <f aca="false">D25/46.75</f>
-        <v>343.978609625668</v>
+        <v>355.208556149733</v>
       </c>
       <c r="F25" s="12" t="n">
-        <v>634</v>
+        <v>525</v>
       </c>
       <c r="G25" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H25" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,G25)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I25" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J25" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,I25)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K25" s="13" t="n">
         <f aca="false">$B$22+1</f>
-        <v>43932</v>
+        <v>43933</v>
       </c>
       <c r="L25" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K25,G25)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M25" s="0"/>
       <c r="N25" s="0"/>
@@ -982,36 +982,36 @@
         <v>330</v>
       </c>
       <c r="D26" s="1" t="n">
-        <v>13197</v>
+        <v>13832</v>
       </c>
       <c r="E26" s="12" t="n">
         <f aca="false">D26/65.27</f>
-        <v>202.190899341198</v>
+        <v>211.919718094071</v>
       </c>
       <c r="F26" s="12" t="n">
-        <v>987</v>
+        <v>635</v>
       </c>
       <c r="G26" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H26" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,G26)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I26" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J26" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,I26)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K26" s="13" t="n">
         <f aca="false">$B$22+1</f>
-        <v>43932</v>
+        <v>43933</v>
       </c>
       <c r="L26" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K26,G26)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M26" s="0"/>
       <c r="N26" s="0"/>
@@ -1027,36 +1027,36 @@
         <v>50</v>
       </c>
       <c r="D27" s="12" t="n">
-        <v>870</v>
+        <v>887</v>
       </c>
       <c r="E27" s="12" t="n">
         <f aca="false">D27/10.36</f>
-        <v>83.976833976834</v>
+        <v>85.6177606177606</v>
       </c>
       <c r="F27" s="12" t="n">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="G27" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H27" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,G27)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I27" s="13" t="n">
         <v>43928</v>
       </c>
       <c r="J27" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,I27)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K27" s="13" t="n">
         <f aca="false">$B$22+1</f>
-        <v>43932</v>
+        <v>43933</v>
       </c>
       <c r="L27" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K27,G27)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M27" s="0"/>
       <c r="N27" s="0"/>
@@ -1072,36 +1072,36 @@
         <v>330</v>
       </c>
       <c r="D28" s="1" t="n">
-        <v>8958</v>
+        <v>9875</v>
       </c>
       <c r="E28" s="12" t="n">
         <f aca="false">D28/67.79</f>
-        <v>132.143383979938</v>
+        <v>145.670452869155</v>
       </c>
       <c r="F28" s="12" t="n">
-        <v>980</v>
+        <v>917</v>
       </c>
       <c r="G28" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H28" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,G28)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I28" s="13" t="n">
         <v>43919</v>
       </c>
       <c r="J28" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,I28)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K28" s="13" t="n">
         <f aca="false">$B$22+1</f>
-        <v>43932</v>
+        <v>43933</v>
       </c>
       <c r="L28" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K28,G28)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M28" s="0"/>
       <c r="N28" s="0"/>
@@ -1117,36 +1117,36 @@
         <v>1660</v>
       </c>
       <c r="D29" s="1" t="n">
-        <v>18747</v>
+        <v>20577</v>
       </c>
       <c r="E29" s="12" t="n">
         <f aca="false">D29/331</f>
-        <v>56.6374622356496</v>
+        <v>62.166163141994</v>
       </c>
       <c r="F29" s="12" t="n">
-        <v>2035</v>
+        <v>1830</v>
       </c>
       <c r="G29" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H29" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,G29)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I29" s="13" t="n">
         <v>43921</v>
       </c>
       <c r="J29" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,I29)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K29" s="13" t="n">
         <f aca="false">$B$22+1</f>
-        <v>43932</v>
+        <v>43933</v>
       </c>
       <c r="L29" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K29,G29)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M29" s="0"/>
       <c r="N29" s="0"/>
@@ -1162,36 +1162,36 @@
         <v>414</v>
       </c>
       <c r="D30" s="1" t="n">
-        <v>2736</v>
+        <v>2871</v>
       </c>
       <c r="E30" s="12" t="n">
         <f aca="false">D30/83.784</f>
-        <v>32.6553995989688</v>
+        <v>34.2666857633916</v>
       </c>
       <c r="F30" s="12" t="n">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="G30" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H30" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,G30)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I30" s="13" t="n">
         <v>43920</v>
       </c>
       <c r="J30" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,I30)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K30" s="13" t="n">
         <f aca="false">$B$22+1</f>
-        <v>43932</v>
+        <v>43933</v>
       </c>
       <c r="L30" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K30,G30)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M30" s="0"/>
       <c r="N30" s="0"/>
@@ -1256,7 +1256,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="7" t="n">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="D34" s="0"/>
       <c r="E34" s="8" t="s">
@@ -1333,36 +1333,36 @@
         <v>300</v>
       </c>
       <c r="D36" s="1" t="n">
-        <v>18279</v>
+        <v>18849</v>
       </c>
       <c r="E36" s="12" t="n">
         <f aca="false">D36/60.48</f>
-        <v>302.232142857143</v>
+        <v>311.656746031746</v>
       </c>
       <c r="F36" s="12" t="n">
-        <v>610</v>
+        <v>570</v>
       </c>
       <c r="G36" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H36" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,G36)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I36" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J36" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,I36)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K36" s="13" t="n">
         <f aca="false">$B$34+1</f>
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="L36" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K36,G36)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M36" s="0"/>
       <c r="N36" s="0"/>
@@ -1378,36 +1378,36 @@
         <v>230</v>
       </c>
       <c r="D37" s="1" t="n">
-        <v>15447</v>
+        <v>16081</v>
       </c>
       <c r="E37" s="12" t="n">
         <f aca="false">D37/46.75</f>
-        <v>330.417112299465</v>
+        <v>343.978609625668</v>
       </c>
       <c r="F37" s="12" t="n">
-        <v>655</v>
+        <v>634</v>
       </c>
       <c r="G37" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H37" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,G37)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I37" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J37" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,I37)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K37" s="13" t="n">
         <f aca="false">$B$34+1</f>
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="L37" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K37,G37)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M37" s="0"/>
       <c r="N37" s="0"/>
@@ -1423,36 +1423,36 @@
         <v>330</v>
       </c>
       <c r="D38" s="1" t="n">
-        <v>12210</v>
+        <v>13197</v>
       </c>
       <c r="E38" s="12" t="n">
         <f aca="false">D38/65.27</f>
-        <v>187.069097594607</v>
+        <v>202.190899341198</v>
       </c>
       <c r="F38" s="12" t="n">
-        <v>1341</v>
+        <v>987</v>
       </c>
       <c r="G38" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H38" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,G38)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I38" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J38" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,I38)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K38" s="13" t="n">
         <f aca="false">$B$34+1</f>
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="L38" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K38,G38)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M38" s="0"/>
       <c r="N38" s="0"/>
@@ -1468,36 +1468,36 @@
         <v>50</v>
       </c>
       <c r="D39" s="12" t="n">
-        <v>793</v>
+        <v>870</v>
       </c>
       <c r="E39" s="12" t="n">
         <f aca="false">D39/10.36</f>
-        <v>76.5444015444016</v>
+        <v>83.976833976834</v>
       </c>
       <c r="F39" s="12" t="n">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="G39" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H39" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,G39)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I39" s="13" t="n">
         <v>43928</v>
       </c>
       <c r="J39" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,I39)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K39" s="13" t="n">
         <f aca="false">$B$34+1</f>
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="L39" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K39,G39)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M39" s="0"/>
       <c r="N39" s="0"/>
@@ -1513,36 +1513,36 @@
         <v>330</v>
       </c>
       <c r="D40" s="1" t="n">
-        <v>7978</v>
+        <v>8958</v>
       </c>
       <c r="E40" s="12" t="n">
         <f aca="false">D40/67.79</f>
-        <v>117.686974480012</v>
+        <v>132.143383979938</v>
       </c>
       <c r="F40" s="12" t="n">
-        <v>881</v>
+        <v>980</v>
       </c>
       <c r="G40" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H40" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,G40)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I40" s="13" t="n">
         <v>43919</v>
       </c>
       <c r="J40" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,I40)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K40" s="13" t="n">
         <f aca="false">$B$34+1</f>
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="L40" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K40,G40)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M40" s="0"/>
       <c r="N40" s="0"/>
@@ -1558,36 +1558,36 @@
         <v>1660</v>
       </c>
       <c r="D41" s="1" t="n">
-        <v>16691</v>
+        <v>18747</v>
       </c>
       <c r="E41" s="12" t="n">
         <f aca="false">D41/331</f>
-        <v>50.4259818731118</v>
+        <v>56.6374622356496</v>
       </c>
       <c r="F41" s="12" t="n">
-        <v>1900</v>
+        <v>2035</v>
       </c>
       <c r="G41" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H41" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,G41)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I41" s="13" t="n">
         <v>43921</v>
       </c>
       <c r="J41" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,I41)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K41" s="13" t="n">
         <f aca="false">$B$34+1</f>
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="L41" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K41,G41)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M41" s="0"/>
       <c r="N41" s="0"/>
@@ -1603,36 +1603,36 @@
         <v>414</v>
       </c>
       <c r="D42" s="1" t="n">
-        <v>2607</v>
+        <v>2736</v>
       </c>
       <c r="E42" s="12" t="n">
         <f aca="false">D42/83.784</f>
-        <v>31.1157261529648</v>
+        <v>32.6553995989688</v>
       </c>
       <c r="F42" s="12" t="n">
-        <v>258</v>
+        <v>129</v>
       </c>
       <c r="G42" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H42" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,G42)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I42" s="13" t="n">
         <v>43920</v>
       </c>
       <c r="J42" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,I42)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K42" s="13" t="n">
         <f aca="false">$B$34+1</f>
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="L42" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K42,G42)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M42" s="0"/>
       <c r="N42" s="0"/>
@@ -1697,7 +1697,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="7" t="n">
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="D46" s="0"/>
       <c r="E46" s="8" t="s">
@@ -1774,36 +1774,36 @@
         <v>300</v>
       </c>
       <c r="D48" s="1" t="n">
-        <v>17669</v>
+        <v>18279</v>
       </c>
       <c r="E48" s="12" t="n">
         <f aca="false">D48/60.48</f>
-        <v>292.146164021164</v>
+        <v>302.232142857143</v>
       </c>
       <c r="F48" s="12" t="n">
-        <v>542</v>
+        <v>610</v>
       </c>
       <c r="G48" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H48" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,G48)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I48" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J48" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,I48)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K48" s="13" t="n">
         <f aca="false">$B$46+1</f>
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="L48" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K48,G48)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M48" s="0"/>
       <c r="N48" s="0"/>
@@ -1819,36 +1819,36 @@
         <v>230</v>
       </c>
       <c r="D49" s="1" t="n">
-        <v>14792</v>
+        <v>15447</v>
       </c>
       <c r="E49" s="12" t="n">
         <f aca="false">D49/46.75</f>
-        <v>316.406417112299</v>
+        <v>330.417112299465</v>
       </c>
       <c r="F49" s="12" t="n">
-        <v>747</v>
+        <v>655</v>
       </c>
       <c r="G49" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H49" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,G49)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I49" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J49" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,I49)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K49" s="13" t="n">
         <f aca="false">$B$46+1</f>
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="L49" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K49,G49)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M49" s="0"/>
       <c r="N49" s="0"/>
@@ -1864,36 +1864,36 @@
         <v>330</v>
       </c>
       <c r="D50" s="1" t="n">
-        <v>10869</v>
+        <v>12210</v>
       </c>
       <c r="E50" s="12" t="n">
         <f aca="false">D50/65.27</f>
-        <v>166.52367090547</v>
+        <v>187.069097594607</v>
       </c>
       <c r="F50" s="12" t="n">
-        <v>541</v>
+        <v>1341</v>
       </c>
       <c r="G50" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H50" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,G50)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I50" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J50" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,I50)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K50" s="13" t="n">
         <f aca="false">$B$46+1</f>
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="L50" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K50,G50)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M50" s="0"/>
       <c r="N50" s="0"/>
@@ -1909,36 +1909,36 @@
         <v>50</v>
       </c>
       <c r="D51" s="12" t="n">
-        <v>687</v>
+        <v>793</v>
       </c>
       <c r="E51" s="12" t="n">
         <f aca="false">D51/10.36</f>
-        <v>66.3127413127413</v>
+        <v>76.5444015444016</v>
       </c>
       <c r="F51" s="12" t="n">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="G51" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H51" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,G51)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I51" s="13" t="n">
         <v>43928</v>
       </c>
       <c r="J51" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,I51)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K51" s="13" t="n">
         <f aca="false">$B$46+1</f>
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="L51" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K51,G51)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M51" s="0"/>
       <c r="N51" s="0"/>
@@ -1954,36 +1954,36 @@
         <v>330</v>
       </c>
       <c r="D52" s="1" t="n">
-        <v>7097</v>
+        <v>7978</v>
       </c>
       <c r="E52" s="12" t="n">
         <f aca="false">D52/67.79</f>
-        <v>104.690957368343</v>
+        <v>117.686974480012</v>
       </c>
       <c r="F52" s="12" t="n">
-        <v>938</v>
+        <v>881</v>
       </c>
       <c r="G52" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H52" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,G52)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I52" s="13" t="n">
         <v>43919</v>
       </c>
       <c r="J52" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,I52)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K52" s="13" t="n">
         <f aca="false">$B$46+1</f>
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="L52" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K52,G52)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M52" s="0"/>
       <c r="N52" s="0"/>
@@ -1999,36 +1999,36 @@
         <v>1660</v>
       </c>
       <c r="D53" s="1" t="n">
-        <v>14788</v>
+        <v>16691</v>
       </c>
       <c r="E53" s="12" t="n">
         <f aca="false">D53/331</f>
-        <v>44.6767371601209</v>
+        <v>50.4259818731118</v>
       </c>
       <c r="F53" s="12" t="n">
-        <v>1940</v>
+        <v>1900</v>
       </c>
       <c r="G53" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H53" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,G53)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I53" s="13" t="n">
         <v>43921</v>
       </c>
       <c r="J53" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,I53)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K53" s="13" t="n">
         <f aca="false">$B$46+1</f>
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="L53" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K53,G53)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M53" s="0"/>
       <c r="N53" s="0"/>
@@ -2044,36 +2044,36 @@
         <v>414</v>
       </c>
       <c r="D54" s="1" t="n">
-        <v>2349</v>
+        <v>2607</v>
       </c>
       <c r="E54" s="12" t="n">
         <f aca="false">D54/83.784</f>
-        <v>28.0363792609567</v>
+        <v>31.1157261529648</v>
       </c>
       <c r="F54" s="12" t="n">
-        <v>333</v>
+        <v>258</v>
       </c>
       <c r="G54" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H54" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,G54)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I54" s="13" t="n">
         <v>43920</v>
       </c>
       <c r="J54" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,I54)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K54" s="13" t="n">
         <f aca="false">$B$46+1</f>
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="L54" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K54,G54)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M54" s="0"/>
       <c r="N54" s="0"/>
@@ -2138,7 +2138,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="7" t="n">
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="D58" s="0"/>
       <c r="E58" s="8" t="s">
@@ -2215,36 +2215,36 @@
         <v>300</v>
       </c>
       <c r="D60" s="1" t="n">
-        <v>17127</v>
+        <v>17669</v>
       </c>
       <c r="E60" s="12" t="n">
         <f aca="false">D60/60.48</f>
-        <v>283.184523809524</v>
+        <v>292.146164021164</v>
       </c>
       <c r="F60" s="12" t="n">
-        <v>604</v>
+        <v>542</v>
       </c>
       <c r="G60" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H60" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,G60)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I60" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J60" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,I60)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K60" s="13" t="n">
         <f aca="false">$B$58+1</f>
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="L60" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K60,G60)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M60" s="0"/>
       <c r="N60" s="0"/>
@@ -2260,36 +2260,36 @@
         <v>230</v>
       </c>
       <c r="D61" s="1" t="n">
-        <v>14045</v>
+        <v>14792</v>
       </c>
       <c r="E61" s="12" t="n">
         <f aca="false">D61/46.75</f>
-        <v>300.427807486631</v>
+        <v>316.406417112299</v>
       </c>
       <c r="F61" s="12" t="n">
-        <v>704</v>
+        <v>747</v>
       </c>
       <c r="G61" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H61" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,G61)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I61" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J61" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,I61)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K61" s="13" t="n">
         <f aca="false">$B$58+1</f>
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="L61" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K61,G61)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M61" s="0"/>
       <c r="N61" s="0"/>
@@ -2305,36 +2305,36 @@
         <v>330</v>
       </c>
       <c r="D62" s="1" t="n">
-        <v>10328</v>
+        <v>10869</v>
       </c>
       <c r="E62" s="12" t="n">
         <f aca="false">D62/65.27</f>
-        <v>158.23502374751</v>
+        <v>166.52367090547</v>
       </c>
       <c r="F62" s="12" t="n">
-        <v>1417</v>
+        <v>541</v>
       </c>
       <c r="G62" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H62" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,G62)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I62" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J62" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,I62)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K62" s="13" t="n">
         <f aca="false">$B$58+1</f>
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="L62" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K62,G62)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M62" s="0"/>
       <c r="N62" s="0"/>
@@ -2350,36 +2350,36 @@
         <v>50</v>
       </c>
       <c r="D63" s="12" t="n">
-        <v>591</v>
+        <v>687</v>
       </c>
       <c r="E63" s="12" t="n">
         <f aca="false">D63/10.36</f>
-        <v>57.0463320463321</v>
+        <v>66.3127413127413</v>
       </c>
       <c r="F63" s="12" t="n">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="G63" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H63" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,G63)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I63" s="13" t="n">
         <v>43928</v>
       </c>
       <c r="J63" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,I63)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K63" s="13" t="n">
         <f aca="false">$B$58+1</f>
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="L63" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K63,G63)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M63" s="0"/>
       <c r="N63" s="0"/>
@@ -2395,36 +2395,36 @@
         <v>330</v>
       </c>
       <c r="D64" s="1" t="n">
-        <v>6159</v>
+        <v>7097</v>
       </c>
       <c r="E64" s="12" t="n">
         <f aca="false">D64/67.79</f>
-        <v>90.8541082755569</v>
+        <v>104.690957368343</v>
       </c>
       <c r="F64" s="12" t="n">
-        <v>786</v>
+        <v>938</v>
       </c>
       <c r="G64" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H64" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,G64)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I64" s="13" t="n">
         <v>43919</v>
       </c>
       <c r="J64" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,I64)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K64" s="13" t="n">
         <f aca="false">$B$58+1</f>
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="L64" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K64,G64)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M64" s="0"/>
       <c r="N64" s="0"/>
@@ -2440,36 +2440,36 @@
         <v>1660</v>
       </c>
       <c r="D65" s="1" t="n">
-        <v>12848</v>
+        <v>14788</v>
       </c>
       <c r="E65" s="12" t="n">
         <f aca="false">D65/331</f>
-        <v>38.8157099697885</v>
+        <v>44.6767371601209</v>
       </c>
       <c r="F65" s="12" t="n">
-        <v>1970</v>
+        <v>1940</v>
       </c>
       <c r="G65" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H65" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,G65)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I65" s="13" t="n">
         <v>43921</v>
       </c>
       <c r="J65" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,I65)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K65" s="13" t="n">
         <f aca="false">$B$58+1</f>
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="L65" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K65,G65)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M65" s="0"/>
       <c r="N65" s="0"/>
@@ -2485,36 +2485,36 @@
         <v>414</v>
       </c>
       <c r="D66" s="1" t="n">
-        <v>2016</v>
+        <v>2349</v>
       </c>
       <c r="E66" s="12" t="n">
         <f aca="false">D66/83.784</f>
-        <v>24.0618733887138</v>
+        <v>28.0363792609567</v>
       </c>
       <c r="F66" s="12" t="n">
-        <v>206</v>
+        <v>333</v>
       </c>
       <c r="G66" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H66" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,G66)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I66" s="13" t="n">
         <v>43920</v>
       </c>
       <c r="J66" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,I66)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K66" s="13" t="n">
         <f aca="false">$B$58+1</f>
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="L66" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K66,G66)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M66" s="0"/>
       <c r="N66" s="0"/>
@@ -2579,7 +2579,7 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="7" t="n">
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="D70" s="0"/>
       <c r="E70" s="8" t="s">
@@ -2656,36 +2656,36 @@
         <v>300</v>
       </c>
       <c r="D72" s="1" t="n">
-        <v>16523</v>
+        <v>17127</v>
       </c>
       <c r="E72" s="12" t="n">
         <f aca="false">D72/60.48</f>
-        <v>273.197751322751</v>
+        <v>283.184523809524</v>
       </c>
       <c r="F72" s="12" t="n">
-        <v>636</v>
+        <v>604</v>
       </c>
       <c r="G72" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H72" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,G72)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I72" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J72" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,I72)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K72" s="13" t="n">
         <f aca="false">$B$70+1</f>
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="L72" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K72,G72)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M72" s="0"/>
       <c r="N72" s="0"/>
@@ -2701,36 +2701,36 @@
         <v>230</v>
       </c>
       <c r="D73" s="1" t="n">
-        <v>13341</v>
+        <v>14045</v>
       </c>
       <c r="E73" s="12" t="n">
         <f aca="false">D73/46.75</f>
-        <v>285.368983957219</v>
+        <v>300.427807486631</v>
       </c>
       <c r="F73" s="12" t="n">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="G73" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H73" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,G73)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I73" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J73" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,I73)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K73" s="13" t="n">
         <f aca="false">$B$70+1</f>
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="L73" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K73,G73)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M73" s="0"/>
       <c r="N73" s="0"/>
@@ -2746,36 +2746,36 @@
         <v>330</v>
       </c>
       <c r="D74" s="1" t="n">
-        <v>8911</v>
+        <v>10328</v>
       </c>
       <c r="E74" s="12" t="n">
         <f aca="false">D74/65.27</f>
-        <v>136.525203002911</v>
+        <v>158.23502374751</v>
       </c>
       <c r="F74" s="12" t="n">
-        <v>833</v>
+        <v>1417</v>
       </c>
       <c r="G74" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H74" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,G74)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I74" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J74" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,I74)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K74" s="13" t="n">
         <f aca="false">$B$70+1</f>
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="L74" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K74,G74)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M74" s="0"/>
       <c r="N74" s="0"/>
@@ -2791,37 +2791,36 @@
         <v>50</v>
       </c>
       <c r="D75" s="12" t="n">
-        <v>477</v>
+        <v>591</v>
       </c>
       <c r="E75" s="12" t="n">
         <f aca="false">D75/10.36</f>
-        <v>46.042471042471</v>
+        <v>57.0463320463321</v>
       </c>
       <c r="F75" s="12" t="n">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="G75" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H75" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,G75)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I75" s="13" t="n">
-        <f aca="false">$B$70+1</f>
         <v>43928</v>
       </c>
       <c r="J75" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,I75)</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K75" s="13" t="n">
         <f aca="false">$B$70+1</f>
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="L75" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K75,G75)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M75" s="0"/>
       <c r="N75" s="0"/>
@@ -2837,37 +2836,36 @@
         <v>330</v>
       </c>
       <c r="D76" s="1" t="n">
-        <v>5373</v>
+        <v>6159</v>
       </c>
       <c r="E76" s="12" t="n">
         <f aca="false">D76/67.79</f>
-        <v>79.2594777990854</v>
+        <v>90.8541082755569</v>
       </c>
       <c r="F76" s="12" t="n">
-        <v>439</v>
+        <v>786</v>
       </c>
       <c r="G76" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H76" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,G76)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I76" s="13" t="n">
-        <f aca="false">$B$70+1</f>
-        <v>43928</v>
+        <v>43919</v>
       </c>
       <c r="J76" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,I76)</f>
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K76" s="13" t="n">
         <f aca="false">$B$70+1</f>
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="L76" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K76,G76)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M76" s="0"/>
       <c r="N76" s="0"/>
@@ -2883,37 +2881,36 @@
         <v>1660</v>
       </c>
       <c r="D77" s="1" t="n">
-        <v>10871</v>
+        <v>12848</v>
       </c>
       <c r="E77" s="12" t="n">
         <f aca="false">D77/331</f>
-        <v>32.8429003021148</v>
+        <v>38.8157099697885</v>
       </c>
       <c r="F77" s="12" t="n">
-        <v>1255</v>
+        <v>1970</v>
       </c>
       <c r="G77" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H77" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,G77)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I77" s="13" t="n">
-        <f aca="false">$B$70+1</f>
-        <v>43928</v>
+        <v>43921</v>
       </c>
       <c r="J77" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,I77)</f>
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K77" s="13" t="n">
         <f aca="false">$B$70+1</f>
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="L77" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K77,G77)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M77" s="0"/>
       <c r="N77" s="0"/>
@@ -2929,37 +2926,36 @@
         <v>414</v>
       </c>
       <c r="D78" s="1" t="n">
-        <v>1810</v>
+        <v>2016</v>
       </c>
       <c r="E78" s="12" t="n">
         <f aca="false">D78/83.784</f>
-        <v>21.6031700563353</v>
+        <v>24.0618733887138</v>
       </c>
       <c r="F78" s="12" t="n">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="G78" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H78" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,G78)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I78" s="13" t="n">
-        <f aca="false">$B$70+1</f>
-        <v>43928</v>
+        <v>43920</v>
       </c>
       <c r="J78" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,I78)</f>
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K78" s="13" t="n">
         <f aca="false">$B$70+1</f>
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="L78" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K78,G78)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M78" s="0"/>
       <c r="N78" s="0"/>
@@ -3024,7 +3020,7 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="7" t="n">
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="D82" s="0"/>
       <c r="E82" s="8" t="s">
@@ -3101,36 +3097,36 @@
         <v>300</v>
       </c>
       <c r="D84" s="1" t="n">
-        <v>15887</v>
+        <v>16523</v>
       </c>
       <c r="E84" s="12" t="n">
         <f aca="false">D84/60.48</f>
-        <v>262.681878306878</v>
+        <v>273.197751322751</v>
       </c>
       <c r="F84" s="12" t="n">
-        <v>525</v>
+        <v>636</v>
       </c>
       <c r="G84" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H84" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,G84)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I84" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J84" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,I84)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K84" s="13" t="n">
         <f aca="false">$B$82+1</f>
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="L84" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K84,G84)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M84" s="0"/>
       <c r="N84" s="0"/>
@@ -3146,36 +3142,36 @@
         <v>230</v>
       </c>
       <c r="D85" s="1" t="n">
-        <v>12641</v>
+        <v>13341</v>
       </c>
       <c r="E85" s="12" t="n">
         <f aca="false">D85/46.75</f>
-        <v>270.395721925134</v>
+        <v>285.368983957219</v>
       </c>
       <c r="F85" s="12" t="n">
-        <v>694</v>
+        <v>700</v>
       </c>
       <c r="G85" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H85" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,G85)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I85" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J85" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,I85)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K85" s="13" t="n">
         <f aca="false">$B$82+1</f>
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="L85" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K85,G85)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M85" s="0"/>
       <c r="N85" s="0"/>
@@ -3191,36 +3187,36 @@
         <v>330</v>
       </c>
       <c r="D86" s="1" t="n">
-        <v>8078</v>
+        <v>8911</v>
       </c>
       <c r="E86" s="12" t="n">
         <f aca="false">D86/65.27</f>
-        <v>123.762831316072</v>
+        <v>136.525203002911</v>
       </c>
       <c r="F86" s="12" t="n">
-        <v>518</v>
+        <v>833</v>
       </c>
       <c r="G86" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H86" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,G86)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I86" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J86" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,I86)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K86" s="13" t="n">
         <f aca="false">$B$82+1</f>
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="L86" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K86,G86)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M86" s="0"/>
       <c r="N86" s="0"/>
@@ -3236,25 +3232,25 @@
         <v>50</v>
       </c>
       <c r="D87" s="12" t="n">
-        <v>401</v>
+        <v>477</v>
       </c>
       <c r="E87" s="12" t="n">
         <f aca="false">D87/10.36</f>
-        <v>38.7065637065637</v>
+        <v>46.042471042471</v>
       </c>
       <c r="F87" s="12" t="n">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="G87" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H87" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,G87)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I87" s="13" t="n">
         <f aca="false">$B$82+1</f>
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="J87" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,I87)</f>
@@ -3262,11 +3258,11 @@
       </c>
       <c r="K87" s="13" t="n">
         <f aca="false">$B$82+1</f>
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="L87" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K87,G87)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M87" s="0"/>
       <c r="N87" s="0"/>
@@ -3282,25 +3278,25 @@
         <v>330</v>
       </c>
       <c r="D88" s="1" t="n">
-        <v>4934</v>
+        <v>5373</v>
       </c>
       <c r="E88" s="12" t="n">
         <f aca="false">D88/67.79</f>
-        <v>72.7835964006491</v>
+        <v>79.2594777990854</v>
       </c>
       <c r="F88" s="12" t="n">
-        <v>621</v>
+        <v>439</v>
       </c>
       <c r="G88" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H88" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,G88)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I88" s="13" t="n">
         <f aca="false">$B$82+1</f>
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="J88" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,I88)</f>
@@ -3308,11 +3304,11 @@
       </c>
       <c r="K88" s="13" t="n">
         <f aca="false">$B$82+1</f>
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="L88" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K88,G88)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M88" s="0"/>
       <c r="N88" s="0"/>
@@ -3328,25 +3324,25 @@
         <v>1660</v>
       </c>
       <c r="D89" s="1" t="n">
-        <v>9616</v>
+        <v>10871</v>
       </c>
       <c r="E89" s="12" t="n">
         <f aca="false">D89/331</f>
-        <v>29.0513595166163</v>
+        <v>32.8429003021148</v>
       </c>
       <c r="F89" s="12" t="n">
-        <v>1165</v>
+        <v>1255</v>
       </c>
       <c r="G89" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H89" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,G89)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I89" s="13" t="n">
         <f aca="false">$B$82+1</f>
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="J89" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,I89)</f>
@@ -3354,11 +3350,11 @@
       </c>
       <c r="K89" s="13" t="n">
         <f aca="false">$B$82+1</f>
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="L89" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K89,G89)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M89" s="0"/>
       <c r="N89" s="0"/>
@@ -3374,25 +3370,25 @@
         <v>414</v>
       </c>
       <c r="D90" s="1" t="n">
-        <v>1584</v>
+        <v>1810</v>
       </c>
       <c r="E90" s="12" t="n">
         <f aca="false">D90/83.784</f>
-        <v>18.9057576625609</v>
+        <v>21.6031700563353</v>
       </c>
       <c r="F90" s="12" t="n">
-        <v>140</v>
+        <v>226</v>
       </c>
       <c r="G90" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H90" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,G90)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I90" s="13" t="n">
         <f aca="false">$B$82+1</f>
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="J90" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,I90)</f>
@@ -3400,11 +3396,11 @@
       </c>
       <c r="K90" s="13" t="n">
         <f aca="false">$B$82+1</f>
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="L90" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K90,G90)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M90" s="0"/>
       <c r="N90" s="0"/>
@@ -3469,7 +3465,7 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="7" t="n">
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="D94" s="0"/>
       <c r="E94" s="8" t="s">
@@ -3546,36 +3542,36 @@
         <v>300</v>
       </c>
       <c r="D96" s="1" t="n">
-        <v>15362</v>
+        <v>15887</v>
       </c>
       <c r="E96" s="12" t="n">
         <f aca="false">D96/60.48</f>
-        <v>254.001322751323</v>
+        <v>262.681878306878</v>
       </c>
       <c r="F96" s="12" t="n">
-        <v>681</v>
+        <v>525</v>
       </c>
       <c r="G96" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H96" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,G96)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I96" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J96" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,I96)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K96" s="13" t="n">
         <f aca="false">$B$94+1</f>
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="L96" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K96,G96)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M96" s="0"/>
       <c r="N96" s="0"/>
@@ -3591,36 +3587,36 @@
         <v>230</v>
       </c>
       <c r="D97" s="1" t="n">
-        <v>11947</v>
+        <v>12641</v>
       </c>
       <c r="E97" s="12" t="n">
         <f aca="false">D97/46.75</f>
-        <v>255.550802139037</v>
+        <v>270.395721925134</v>
       </c>
       <c r="F97" s="12" t="n">
-        <v>749</v>
+        <v>694</v>
       </c>
       <c r="G97" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H97" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,G97)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I97" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J97" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,I97)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K97" s="13" t="n">
         <f aca="false">$B$94+1</f>
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="L97" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K97,G97)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M97" s="0"/>
       <c r="N97" s="0"/>
@@ -3636,36 +3632,36 @@
         <v>330</v>
       </c>
       <c r="D98" s="1" t="n">
-        <v>7560</v>
+        <v>8078</v>
       </c>
       <c r="E98" s="12" t="n">
         <f aca="false">D98/65.27</f>
-        <v>115.826566569634</v>
+        <v>123.762831316072</v>
       </c>
       <c r="F98" s="12" t="n">
-        <v>1053</v>
+        <v>518</v>
       </c>
       <c r="G98" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H98" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,G98)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I98" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J98" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,I98)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K98" s="13" t="n">
         <f aca="false">$B$94+1</f>
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="L98" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K98,G98)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M98" s="0"/>
       <c r="N98" s="0"/>
@@ -3681,25 +3677,25 @@
         <v>50</v>
       </c>
       <c r="D99" s="12" t="n">
-        <v>373</v>
+        <v>401</v>
       </c>
       <c r="E99" s="12" t="n">
         <f aca="false">D99/10.36</f>
-        <v>36.003861003861</v>
+        <v>38.7065637065637</v>
       </c>
       <c r="F99" s="12" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="G99" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H99" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,G99)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I99" s="13" t="n">
         <f aca="false">$B$94+1</f>
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="J99" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,I99)</f>
@@ -3707,11 +3703,11 @@
       </c>
       <c r="K99" s="13" t="n">
         <f aca="false">$B$94+1</f>
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="L99" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K99,G99)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M99" s="0"/>
       <c r="N99" s="0"/>
@@ -3727,25 +3723,25 @@
         <v>330</v>
       </c>
       <c r="D100" s="1" t="n">
-        <v>4313</v>
+        <v>4934</v>
       </c>
       <c r="E100" s="12" t="n">
         <f aca="false">D100/67.79</f>
-        <v>63.6229532379407</v>
+        <v>72.7835964006491</v>
       </c>
       <c r="F100" s="12" t="n">
-        <v>708</v>
+        <v>621</v>
       </c>
       <c r="G100" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H100" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,G100)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I100" s="13" t="n">
         <f aca="false">$B$94+1</f>
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="J100" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,I100)</f>
@@ -3753,11 +3749,11 @@
       </c>
       <c r="K100" s="13" t="n">
         <f aca="false">$B$94+1</f>
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="L100" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K100,G100)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M100" s="0"/>
       <c r="N100" s="0"/>
@@ -3773,25 +3769,25 @@
         <v>1660</v>
       </c>
       <c r="D101" s="1" t="n">
-        <v>8451</v>
+        <v>9616</v>
       </c>
       <c r="E101" s="12" t="n">
         <f aca="false">D101/331</f>
-        <v>25.5317220543807</v>
+        <v>29.0513595166163</v>
       </c>
       <c r="F101" s="12" t="n">
-        <v>1330</v>
+        <v>1165</v>
       </c>
       <c r="G101" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H101" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,G101)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I101" s="13" t="n">
         <f aca="false">$B$94+1</f>
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="J101" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,I101)</f>
@@ -3799,11 +3795,11 @@
       </c>
       <c r="K101" s="13" t="n">
         <f aca="false">$B$94+1</f>
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="L101" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K101,G101)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M101" s="0"/>
       <c r="N101" s="0"/>
@@ -3819,25 +3815,25 @@
         <v>414</v>
       </c>
       <c r="D102" s="1" t="n">
-        <v>1444</v>
+        <v>1584</v>
       </c>
       <c r="E102" s="12" t="n">
         <f aca="false">D102/83.784</f>
-        <v>17.2347942327891</v>
+        <v>18.9057576625609</v>
       </c>
       <c r="F102" s="12" t="n">
-        <v>169</v>
+        <v>140</v>
       </c>
       <c r="G102" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H102" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,G102)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I102" s="13" t="n">
         <f aca="false">$B$94+1</f>
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="J102" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,I102)</f>
@@ -3845,11 +3841,11 @@
       </c>
       <c r="K102" s="13" t="n">
         <f aca="false">$B$94+1</f>
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="L102" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K102,G102)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M102" s="0"/>
       <c r="N102" s="0"/>
@@ -3914,7 +3910,7 @@
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="7" t="n">
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="D106" s="0"/>
       <c r="E106" s="8" t="s">
@@ -3991,36 +3987,36 @@
         <v>300</v>
       </c>
       <c r="D108" s="1" t="n">
-        <v>14681</v>
+        <v>15362</v>
       </c>
       <c r="E108" s="12" t="n">
         <f aca="false">D108/60.48</f>
-        <v>242.741402116402</v>
+        <v>254.001322751323</v>
       </c>
       <c r="F108" s="12" t="n">
-        <v>766</v>
+        <v>681</v>
       </c>
       <c r="G108" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H108" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,G108)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I108" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J108" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,I108)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K108" s="13" t="n">
         <f aca="false">$B$106+1</f>
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="L108" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K108,G108)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M108" s="0"/>
       <c r="N108" s="0"/>
@@ -4036,36 +4032,36 @@
         <v>230</v>
       </c>
       <c r="D109" s="1" t="n">
-        <v>11198</v>
+        <v>11947</v>
       </c>
       <c r="E109" s="12" t="n">
         <f aca="false">D109/46.75</f>
-        <v>239.529411764706</v>
+        <v>255.550802139037</v>
       </c>
       <c r="F109" s="12" t="n">
-        <v>850</v>
+        <v>749</v>
       </c>
       <c r="G109" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H109" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$118,G109)</f>
-        <v>16</v>
+        <f aca="false">_xlfn.DAYS($B$106,G109)</f>
+        <v>18</v>
       </c>
       <c r="I109" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J109" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,I109)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K109" s="13" t="n">
         <f aca="false">$B$106+1</f>
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="L109" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K109,G109)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M109" s="0"/>
       <c r="N109" s="0"/>
@@ -4081,36 +4077,36 @@
         <v>330</v>
       </c>
       <c r="D110" s="1" t="n">
-        <v>6507</v>
+        <v>7560</v>
       </c>
       <c r="E110" s="12" t="n">
         <f aca="false">D110/65.27</f>
-        <v>99.6935805117206</v>
+        <v>115.826566569634</v>
       </c>
       <c r="F110" s="12" t="n">
-        <v>1120</v>
+        <v>1053</v>
       </c>
       <c r="G110" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H110" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$118,G110)</f>
-        <v>11</v>
+        <f aca="false">_xlfn.DAYS($B$106,G110)</f>
+        <v>13</v>
       </c>
       <c r="I110" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J110" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,I110)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K110" s="13" t="n">
         <f aca="false">$B$106+1</f>
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="L110" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K110,G110)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M110" s="0"/>
       <c r="N110" s="0"/>
@@ -4126,25 +4122,25 @@
         <v>50</v>
       </c>
       <c r="D111" s="12" t="n">
-        <v>358</v>
+        <v>373</v>
       </c>
       <c r="E111" s="12" t="n">
         <f aca="false">D111/10.36</f>
-        <v>34.5559845559846</v>
+        <v>36.003861003861</v>
       </c>
       <c r="F111" s="12" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="G111" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H111" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$118,G111)</f>
-        <v>8</v>
+        <f aca="false">_xlfn.DAYS($B$106,G111)</f>
+        <v>10</v>
       </c>
       <c r="I111" s="13" t="n">
         <f aca="false">$B$106+1</f>
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="J111" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,I111)</f>
@@ -4152,11 +4148,11 @@
       </c>
       <c r="K111" s="13" t="n">
         <f aca="false">$B$106+1</f>
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="L111" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K111,G111)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M111" s="0"/>
       <c r="N111" s="0"/>
@@ -4172,25 +4168,25 @@
         <v>330</v>
       </c>
       <c r="D112" s="1" t="n">
-        <v>3605</v>
+        <v>4313</v>
       </c>
       <c r="E112" s="12" t="n">
         <f aca="false">D112/67.79</f>
-        <v>53.1789349461573</v>
+        <v>63.6229532379407</v>
       </c>
       <c r="F112" s="12" t="n">
-        <v>684</v>
+        <v>708</v>
       </c>
       <c r="G112" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H112" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$118,G112)</f>
-        <v>7</v>
+        <f aca="false">_xlfn.DAYS($B$106,G112)</f>
+        <v>9</v>
       </c>
       <c r="I112" s="13" t="n">
         <f aca="false">$B$106+1</f>
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="J112" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,I112)</f>
@@ -4198,11 +4194,11 @@
       </c>
       <c r="K112" s="13" t="n">
         <f aca="false">$B$106+1</f>
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="L112" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K112,G112)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M112" s="0"/>
       <c r="N112" s="0"/>
@@ -4218,25 +4214,25 @@
         <v>1660</v>
       </c>
       <c r="D113" s="1" t="n">
-        <v>7121</v>
+        <v>8451</v>
       </c>
       <c r="E113" s="12" t="n">
         <f aca="false">D113/331</f>
-        <v>21.5135951661631</v>
+        <v>25.5317220543807</v>
       </c>
       <c r="F113" s="12" t="n">
-        <v>1045</v>
+        <v>1330</v>
       </c>
       <c r="G113" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H113" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$118,G113)</f>
-        <v>6</v>
+        <f aca="false">_xlfn.DAYS($B$106,G113)</f>
+        <v>8</v>
       </c>
       <c r="I113" s="13" t="n">
         <f aca="false">$B$106+1</f>
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="J113" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,I113)</f>
@@ -4244,11 +4240,11 @@
       </c>
       <c r="K113" s="13" t="n">
         <f aca="false">$B$106+1</f>
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="L113" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K113,G113)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M113" s="0"/>
       <c r="N113" s="0"/>
@@ -4264,25 +4260,25 @@
         <v>414</v>
       </c>
       <c r="D114" s="1" t="n">
-        <v>1275</v>
+        <v>1444</v>
       </c>
       <c r="E114" s="12" t="n">
         <f aca="false">D114/83.784</f>
-        <v>15.2177026639931</v>
+        <v>17.2347942327891</v>
       </c>
       <c r="F114" s="12" t="n">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G114" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H114" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$118,G114)</f>
-        <v>5</v>
+        <f aca="false">_xlfn.DAYS($B$106,G114)</f>
+        <v>7</v>
       </c>
       <c r="I114" s="13" t="n">
         <f aca="false">$B$106+1</f>
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="J114" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,I114)</f>
@@ -4290,11 +4286,11 @@
       </c>
       <c r="K114" s="13" t="n">
         <f aca="false">$B$106+1</f>
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="L114" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K114,G114)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M114" s="0"/>
       <c r="N114" s="0"/>
@@ -4359,7 +4355,7 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B118" s="7" t="n">
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="D118" s="0"/>
       <c r="E118" s="8" t="s">
@@ -4436,36 +4432,36 @@
         <v>300</v>
       </c>
       <c r="D120" s="1" t="n">
-        <v>13915</v>
+        <v>14681</v>
       </c>
       <c r="E120" s="12" t="n">
         <f aca="false">D120/60.48</f>
-        <v>230.076058201058</v>
+        <v>242.741402116402</v>
       </c>
       <c r="F120" s="12" t="n">
-        <v>760</v>
+        <v>766</v>
       </c>
       <c r="G120" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H120" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$118,G120)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I120" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J120" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$118,I120)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K120" s="13" t="n">
         <f aca="false">$B$118+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="L120" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K120,G120)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M120" s="0"/>
       <c r="N120" s="0"/>
@@ -4481,20 +4477,20 @@
         <v>230</v>
       </c>
       <c r="D121" s="1" t="n">
-        <v>10348</v>
+        <v>11198</v>
       </c>
       <c r="E121" s="12" t="n">
         <f aca="false">D121/46.75</f>
-        <v>221.347593582888</v>
+        <v>239.529411764706</v>
       </c>
       <c r="F121" s="12" t="n">
-        <v>961</v>
+        <v>850</v>
       </c>
       <c r="G121" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H121" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$118,G121)</f>
+        <f aca="false">_xlfn.DAYS($B$130,G121)</f>
         <v>16</v>
       </c>
       <c r="I121" s="13" t="n">
@@ -4502,15 +4498,15 @@
       </c>
       <c r="J121" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$118,I121)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K121" s="13" t="n">
         <f aca="false">$B$118+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="L121" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K121,G121)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M121" s="0"/>
       <c r="N121" s="0"/>
@@ -4526,20 +4522,20 @@
         <v>330</v>
       </c>
       <c r="D122" s="1" t="n">
-        <v>5387</v>
+        <v>6507</v>
       </c>
       <c r="E122" s="12" t="n">
         <f aca="false">D122/65.27</f>
-        <v>82.5340891680711</v>
+        <v>99.6935805117206</v>
       </c>
       <c r="F122" s="12" t="n">
-        <v>1355</v>
+        <v>1120</v>
       </c>
       <c r="G122" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H122" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$118,G122)</f>
+        <f aca="false">_xlfn.DAYS($B$130,G122)</f>
         <v>11</v>
       </c>
       <c r="I122" s="13" t="n">
@@ -4547,15 +4543,15 @@
       </c>
       <c r="J122" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$118,I122)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K122" s="13" t="n">
         <f aca="false">$B$118+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="L122" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K122,G122)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M122" s="0"/>
       <c r="N122" s="0"/>
@@ -4571,25 +4567,25 @@
         <v>50</v>
       </c>
       <c r="D123" s="12" t="n">
-        <v>308</v>
+        <v>358</v>
       </c>
       <c r="E123" s="12" t="n">
         <f aca="false">D123/10.36</f>
-        <v>29.7297297297297</v>
+        <v>34.5559845559846</v>
       </c>
       <c r="F123" s="12" t="n">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="G123" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H123" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$118,G123)</f>
+        <f aca="false">_xlfn.DAYS($B$130,G123)</f>
         <v>8</v>
       </c>
       <c r="I123" s="13" t="n">
         <f aca="false">$B$118+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="J123" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$118,I123)</f>
@@ -4597,11 +4593,11 @@
       </c>
       <c r="K123" s="13" t="n">
         <f aca="false">$B$118+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="L123" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K123,G123)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M123" s="0"/>
       <c r="N123" s="0"/>
@@ -4617,25 +4613,25 @@
         <v>330</v>
       </c>
       <c r="D124" s="1" t="n">
-        <v>2921</v>
+        <v>3605</v>
       </c>
       <c r="E124" s="12" t="n">
         <f aca="false">D124/67.79</f>
-        <v>43.0889511727393</v>
+        <v>53.1789349461573</v>
       </c>
       <c r="F124" s="12" t="n">
-        <v>569</v>
+        <v>684</v>
       </c>
       <c r="G124" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H124" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$118,G124)</f>
+        <f aca="false">_xlfn.DAYS($B$130,G124)</f>
         <v>7</v>
       </c>
       <c r="I124" s="13" t="n">
         <f aca="false">$B$118+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="J124" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$118,I124)</f>
@@ -4643,11 +4639,11 @@
       </c>
       <c r="K124" s="13" t="n">
         <f aca="false">$B$118+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="L124" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K124,G124)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M124" s="0"/>
       <c r="N124" s="0"/>
@@ -4663,25 +4659,25 @@
         <v>1660</v>
       </c>
       <c r="D125" s="1" t="n">
-        <v>6076</v>
+        <v>7121</v>
       </c>
       <c r="E125" s="12" t="n">
         <f aca="false">D125/331</f>
-        <v>18.3564954682779</v>
+        <v>21.5135951661631</v>
       </c>
       <c r="F125" s="12" t="n">
-        <v>969</v>
+        <v>1045</v>
       </c>
       <c r="G125" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H125" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$118,G125)</f>
+        <f aca="false">_xlfn.DAYS($B$130,G125)</f>
         <v>6</v>
       </c>
       <c r="I125" s="13" t="n">
         <f aca="false">$B$118+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="J125" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$118,I125)</f>
@@ -4689,11 +4685,11 @@
       </c>
       <c r="K125" s="13" t="n">
         <f aca="false">$B$118+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="L125" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K125,G125)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M125" s="0"/>
       <c r="N125" s="0"/>
@@ -4709,25 +4705,25 @@
         <v>414</v>
       </c>
       <c r="D126" s="1" t="n">
-        <v>1107</v>
+        <v>1275</v>
       </c>
       <c r="E126" s="12" t="n">
         <f aca="false">D126/83.784</f>
-        <v>13.212546548267</v>
+        <v>15.2177026639931</v>
       </c>
       <c r="F126" s="12" t="n">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="G126" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H126" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$118,G126)</f>
+        <f aca="false">_xlfn.DAYS($B$130,G126)</f>
         <v>5</v>
       </c>
       <c r="I126" s="13" t="n">
         <f aca="false">$B$118+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="J126" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$118,I126)</f>
@@ -4735,11 +4731,11 @@
       </c>
       <c r="K126" s="13" t="n">
         <f aca="false">$B$118+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="L126" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K126,G126)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M126" s="0"/>
       <c r="N126" s="0"/>
@@ -4804,7 +4800,7 @@
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B130" s="7" t="n">
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="D130" s="0"/>
       <c r="E130" s="8" t="s">
@@ -4881,36 +4877,36 @@
         <v>300</v>
       </c>
       <c r="D132" s="1" t="n">
-        <v>13155</v>
+        <v>13915</v>
       </c>
       <c r="E132" s="12" t="n">
         <f aca="false">D132/60.48</f>
-        <v>217.509920634921</v>
+        <v>230.076058201058</v>
       </c>
       <c r="F132" s="12" t="n">
-        <v>727</v>
+        <v>760</v>
       </c>
       <c r="G132" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H132" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$130,G132)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I132" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J132" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$130,I132)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K132" s="13" t="n">
         <f aca="false">$B$130+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="L132" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K132,G132)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M132" s="0"/>
       <c r="N132" s="0"/>
@@ -4926,36 +4922,36 @@
         <v>230</v>
       </c>
       <c r="D133" s="1" t="n">
-        <v>9387</v>
+        <v>10348</v>
       </c>
       <c r="E133" s="12" t="n">
         <f aca="false">D133/46.75</f>
-        <v>200.791443850267</v>
+        <v>221.347593582888</v>
       </c>
       <c r="F133" s="12" t="n">
-        <v>923</v>
+        <v>961</v>
       </c>
       <c r="G133" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H133" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$130,G133)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I133" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J133" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$130,I133)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K133" s="13" t="n">
         <f aca="false">$B$130+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="L133" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K133,G133)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M133" s="0"/>
       <c r="N133" s="0"/>
@@ -4971,36 +4967,36 @@
         <v>330</v>
       </c>
       <c r="D134" s="1" t="n">
-        <v>4032</v>
+        <v>5387</v>
       </c>
       <c r="E134" s="12" t="n">
         <f aca="false">D134/65.27</f>
-        <v>61.7741688371381</v>
+        <v>82.5340891680711</v>
       </c>
       <c r="F134" s="12" t="n">
-        <v>509</v>
+        <v>1355</v>
       </c>
       <c r="G134" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H134" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$130,G134)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I134" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J134" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$130,I134)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K134" s="13" t="n">
         <f aca="false">$B$130+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="L134" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K134,G134)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M134" s="0"/>
       <c r="N134" s="0"/>
@@ -5016,25 +5012,25 @@
         <v>50</v>
       </c>
       <c r="D135" s="12" t="n">
-        <v>239</v>
+        <v>308</v>
       </c>
       <c r="E135" s="12" t="n">
         <f aca="false">D135/10.36</f>
-        <v>23.0694980694981</v>
+        <v>29.7297297297297</v>
       </c>
       <c r="F135" s="12" t="n">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="G135" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H135" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$130,G135)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I135" s="13" t="n">
         <f aca="false">$B$130+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="J135" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$130,I135)</f>
@@ -5042,11 +5038,11 @@
       </c>
       <c r="K135" s="13" t="n">
         <f aca="false">$B$130+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="L135" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K135,G135)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M135" s="0"/>
       <c r="N135" s="0"/>
@@ -5062,25 +5058,25 @@
         <v>330</v>
       </c>
       <c r="D136" s="1" t="n">
-        <v>2352</v>
+        <v>2921</v>
       </c>
       <c r="E136" s="12" t="n">
         <f aca="false">D136/67.79</f>
-        <v>34.695382799823</v>
+        <v>43.0889511727393</v>
       </c>
       <c r="F136" s="12" t="n">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="G136" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H136" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$130,G136)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I136" s="13" t="n">
         <f aca="false">$B$130+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="J136" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$130,I136)</f>
@@ -5088,11 +5084,11 @@
       </c>
       <c r="K136" s="13" t="n">
         <f aca="false">$B$130+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="L136" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K136,G136)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M136" s="0"/>
       <c r="N136" s="0"/>
@@ -5108,25 +5104,25 @@
         <v>1660</v>
       </c>
       <c r="D137" s="1" t="n">
-        <v>5102</v>
+        <v>6076</v>
       </c>
       <c r="E137" s="12" t="n">
         <f aca="false">D137/331</f>
-        <v>15.4138972809668</v>
+        <v>18.3564954682779</v>
       </c>
       <c r="F137" s="12" t="n">
-        <v>1049</v>
+        <v>969</v>
       </c>
       <c r="G137" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H137" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$130,G137)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I137" s="13" t="n">
         <f aca="false">$B$130+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="J137" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$130,I137)</f>
@@ -5134,11 +5130,11 @@
       </c>
       <c r="K137" s="13" t="n">
         <f aca="false">$B$130+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="L137" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K137,G137)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M137" s="0"/>
       <c r="N137" s="0"/>
@@ -5154,25 +5150,25 @@
         <v>414</v>
       </c>
       <c r="D138" s="1" t="n">
-        <v>931</v>
+        <v>1107</v>
       </c>
       <c r="E138" s="12" t="n">
         <f aca="false">D138/83.784</f>
-        <v>11.1119068079824</v>
+        <v>13.212546548267</v>
       </c>
       <c r="F138" s="12" t="n">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="G138" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H138" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$130,G138)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I138" s="13" t="n">
         <f aca="false">$B$130+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="J138" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$130,I138)</f>
@@ -5180,11 +5176,11 @@
       </c>
       <c r="K138" s="13" t="n">
         <f aca="false">$B$130+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="L138" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K138,G138)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M138" s="0"/>
       <c r="N138" s="0"/>
@@ -5249,7 +5245,7 @@
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B142" s="7" t="n">
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="D142" s="0"/>
       <c r="E142" s="8" t="s">
@@ -5326,36 +5322,36 @@
         <v>300</v>
       </c>
       <c r="D144" s="1" t="n">
-        <v>12428</v>
+        <v>13155</v>
       </c>
       <c r="E144" s="12" t="n">
         <f aca="false">D144/60.48</f>
-        <v>205.489417989418</v>
+        <v>217.509920634921</v>
       </c>
       <c r="F144" s="12" t="n">
-        <v>837</v>
+        <v>727</v>
       </c>
       <c r="G144" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H144" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$142,G144)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I144" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J144" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$142,I144)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K144" s="13" t="n">
         <f aca="false">$B$142+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="L144" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K144,G144)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M144" s="0"/>
       <c r="N144" s="0"/>
@@ -5371,36 +5367,36 @@
         <v>230</v>
       </c>
       <c r="D145" s="1" t="n">
-        <v>8464</v>
+        <v>9387</v>
       </c>
       <c r="E145" s="12" t="n">
         <f aca="false">D145/46.75</f>
-        <v>181.048128342246</v>
+        <v>200.791443850267</v>
       </c>
       <c r="F145" s="12" t="n">
-        <v>748</v>
+        <v>923</v>
       </c>
       <c r="G145" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H145" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$142,G145)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I145" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J145" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$142,I145)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K145" s="13" t="n">
         <f aca="false">$B$142+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="L145" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K145,G145)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M145" s="0"/>
       <c r="N145" s="0"/>
@@ -5416,36 +5412,36 @@
         <v>330</v>
       </c>
       <c r="D146" s="1" t="n">
-        <v>3523</v>
+        <v>4032</v>
       </c>
       <c r="E146" s="12" t="n">
         <f aca="false">D146/65.27</f>
-        <v>53.9757928604259</v>
+        <v>61.7741688371381</v>
       </c>
       <c r="F146" s="12" t="n">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="G146" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H146" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$142,G146)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I146" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J146" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$142,I146)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K146" s="13" t="n">
         <f aca="false">$B$142+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="L146" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K146,G146)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M146" s="0"/>
       <c r="N146" s="0"/>
@@ -5461,25 +5457,25 @@
         <v>50</v>
       </c>
       <c r="D147" s="12" t="n">
-        <v>180</v>
+        <v>239</v>
       </c>
       <c r="E147" s="12" t="n">
         <f aca="false">D147/10.36</f>
-        <v>17.3745173745174</v>
+        <v>23.0694980694981</v>
       </c>
       <c r="F147" s="12" t="n">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="G147" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H147" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$142,G147)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I147" s="13" t="n">
         <f aca="false">$B$142+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="J147" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$142,I147)</f>
@@ -5487,11 +5483,11 @@
       </c>
       <c r="K147" s="13" t="n">
         <f aca="false">$B$142+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="L147" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K147,G147)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M147" s="0"/>
       <c r="N147" s="0"/>
@@ -5507,25 +5503,25 @@
         <v>330</v>
       </c>
       <c r="D148" s="1" t="n">
-        <v>1789</v>
+        <v>2352</v>
       </c>
       <c r="E148" s="12" t="n">
         <f aca="false">D148/67.79</f>
-        <v>26.390323056498</v>
+        <v>34.695382799823</v>
       </c>
       <c r="F148" s="12" t="n">
-        <v>381</v>
+        <v>563</v>
       </c>
       <c r="G148" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H148" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$142,G148)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I148" s="13" t="n">
         <f aca="false">$B$142+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="J148" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$142,I148)</f>
@@ -5533,11 +5529,11 @@
       </c>
       <c r="K148" s="13" t="n">
         <f aca="false">$B$142+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="L148" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K148,G148)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M148" s="0"/>
       <c r="N148" s="0"/>
@@ -5553,25 +5549,25 @@
         <v>1660</v>
       </c>
       <c r="D149" s="1" t="n">
-        <v>4053</v>
+        <v>5102</v>
       </c>
       <c r="E149" s="12" t="n">
         <f aca="false">D149/331</f>
-        <v>12.2447129909366</v>
+        <v>15.4138972809668</v>
       </c>
       <c r="F149" s="12" t="n">
-        <v>912</v>
+        <v>1049</v>
       </c>
       <c r="G149" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H149" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$142,G149)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I149" s="13" t="n">
         <f aca="false">$B$142+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="J149" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$142,I149)</f>
@@ -5579,11 +5575,11 @@
       </c>
       <c r="K149" s="13" t="n">
         <f aca="false">$B$142+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="L149" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K149,G149)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M149" s="0"/>
       <c r="N149" s="0"/>
@@ -5599,25 +5595,25 @@
         <v>414</v>
       </c>
       <c r="D150" s="1" t="n">
-        <v>775</v>
+        <v>931</v>
       </c>
       <c r="E150" s="12" t="n">
         <f aca="false">D150/83.784</f>
-        <v>9.24997612909386</v>
+        <v>11.1119068079824</v>
       </c>
       <c r="F150" s="12" t="n">
-        <v>130</v>
+        <v>156</v>
       </c>
       <c r="G150" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H150" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$142,G150)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I150" s="13" t="n">
         <f aca="false">$B$142+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="J150" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$142,I150)</f>
@@ -5625,11 +5621,11 @@
       </c>
       <c r="K150" s="13" t="n">
         <f aca="false">$B$142+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="L150" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K150,G150)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M150" s="0"/>
       <c r="N150" s="0"/>
@@ -5638,15 +5634,16 @@
       <c r="Q150" s="0"/>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C151" s="12"/>
+      <c r="B151" s="4"/>
+      <c r="C151" s="5"/>
       <c r="D151" s="0"/>
-      <c r="E151" s="12"/>
-      <c r="F151" s="12"/>
-      <c r="G151" s="13"/>
+      <c r="E151" s="0"/>
+      <c r="F151" s="0"/>
+      <c r="G151" s="0"/>
       <c r="H151" s="0"/>
-      <c r="I151" s="13"/>
+      <c r="I151" s="0"/>
       <c r="J151" s="0"/>
-      <c r="K151" s="13"/>
+      <c r="K151" s="0"/>
       <c r="L151" s="0"/>
       <c r="M151" s="0"/>
       <c r="N151" s="0"/>
@@ -5655,15 +5652,16 @@
       <c r="Q151" s="0"/>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C152" s="12"/>
+      <c r="B152" s="4"/>
+      <c r="C152" s="5"/>
       <c r="D152" s="0"/>
-      <c r="E152" s="12"/>
-      <c r="F152" s="12"/>
-      <c r="G152" s="13"/>
+      <c r="E152" s="0"/>
+      <c r="F152" s="0"/>
+      <c r="G152" s="0"/>
       <c r="H152" s="0"/>
-      <c r="I152" s="13"/>
+      <c r="I152" s="0"/>
       <c r="J152" s="0"/>
-      <c r="K152" s="13"/>
+      <c r="K152" s="0"/>
       <c r="L152" s="0"/>
       <c r="M152" s="0"/>
       <c r="N152" s="0"/>
@@ -5692,7 +5690,7 @@
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B154" s="7" t="n">
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="D154" s="0"/>
       <c r="E154" s="8" t="s">
@@ -5714,7 +5712,9 @@
       <c r="K154" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="L154" s="0"/>
+      <c r="L154" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="M154" s="0"/>
       <c r="N154" s="0"/>
       <c r="O154" s="0"/>
@@ -5750,7 +5750,9 @@
       <c r="K155" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="L155" s="0"/>
+      <c r="L155" s="8" t="s">
+        <v>47</v>
+      </c>
       <c r="M155" s="0"/>
       <c r="N155" s="0"/>
       <c r="O155" s="0"/>
@@ -5765,34 +5767,37 @@
         <v>300</v>
       </c>
       <c r="D156" s="1" t="n">
-        <v>11591</v>
+        <v>12428</v>
       </c>
       <c r="E156" s="12" t="n">
         <f aca="false">D156/60.48</f>
-        <v>191.650132275132</v>
+        <v>205.489417989418</v>
       </c>
       <c r="F156" s="12" t="n">
-        <v>812</v>
+        <v>837</v>
       </c>
       <c r="G156" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H156" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$154,G156)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I156" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J156" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$154,I156)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K156" s="13" t="n">
-        <f aca="false">$B$166+1</f>
-        <v>43920</v>
-      </c>
-      <c r="L156" s="0"/>
+        <f aca="false">$B$154+1</f>
+        <v>43922</v>
+      </c>
+      <c r="L156" s="0" t="n">
+        <f aca="false">_xlfn.DAYS(K156,G156)</f>
+        <v>22</v>
+      </c>
       <c r="M156" s="0"/>
       <c r="N156" s="0"/>
       <c r="O156" s="0"/>
@@ -5807,34 +5812,37 @@
         <v>230</v>
       </c>
       <c r="D157" s="1" t="n">
-        <v>7716</v>
+        <v>8464</v>
       </c>
       <c r="E157" s="12" t="n">
         <f aca="false">D157/46.75</f>
-        <v>165.048128342246</v>
+        <v>181.048128342246</v>
       </c>
       <c r="F157" s="12" t="n">
-        <v>913</v>
+        <v>748</v>
       </c>
       <c r="G157" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H157" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$154,G157)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I157" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J157" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$154,I157)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K157" s="13" t="n">
-        <f aca="false">$B$166+1</f>
-        <v>43920</v>
-      </c>
-      <c r="L157" s="0"/>
+        <f aca="false">$B$154+1</f>
+        <v>43922</v>
+      </c>
+      <c r="L157" s="0" t="n">
+        <f aca="false">_xlfn.DAYS(K157,G157)</f>
+        <v>15</v>
+      </c>
       <c r="M157" s="0"/>
       <c r="N157" s="0"/>
       <c r="O157" s="0"/>
@@ -5849,34 +5857,37 @@
         <v>330</v>
       </c>
       <c r="D158" s="1" t="n">
-        <v>3024</v>
+        <v>3523</v>
       </c>
       <c r="E158" s="12" t="n">
         <f aca="false">D158/65.27</f>
-        <v>46.3306266278535</v>
+        <v>53.9757928604259</v>
       </c>
       <c r="F158" s="12" t="n">
-        <v>418</v>
+        <v>499</v>
       </c>
       <c r="G158" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H158" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$154,G158)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I158" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J158" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$154,I158)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K158" s="13" t="n">
-        <f aca="false">$B$166+1</f>
-        <v>43920</v>
-      </c>
-      <c r="L158" s="0"/>
+        <f aca="false">$B$154+1</f>
+        <v>43922</v>
+      </c>
+      <c r="L158" s="0" t="n">
+        <f aca="false">_xlfn.DAYS(K158,G158)</f>
+        <v>10</v>
+      </c>
       <c r="M158" s="0"/>
       <c r="N158" s="0"/>
       <c r="O158" s="0"/>
@@ -5891,35 +5902,38 @@
         <v>50</v>
       </c>
       <c r="D159" s="12" t="n">
-        <v>146</v>
+        <v>180</v>
       </c>
       <c r="E159" s="12" t="n">
         <f aca="false">D159/10.36</f>
-        <v>14.0926640926641</v>
+        <v>17.3745173745174</v>
       </c>
       <c r="F159" s="12" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G159" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H159" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$154,G159)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I159" s="13" t="n">
         <f aca="false">$B$154+1</f>
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="J159" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$154,I159)</f>
         <v>-1</v>
       </c>
       <c r="K159" s="13" t="n">
-        <f aca="false">$B$166+1</f>
-        <v>43920</v>
-      </c>
-      <c r="L159" s="0"/>
+        <f aca="false">$B$154+1</f>
+        <v>43922</v>
+      </c>
+      <c r="L159" s="0" t="n">
+        <f aca="false">_xlfn.DAYS(K159,G159)</f>
+        <v>7</v>
+      </c>
       <c r="M159" s="0"/>
       <c r="N159" s="0"/>
       <c r="O159" s="0"/>
@@ -5934,35 +5948,38 @@
         <v>330</v>
       </c>
       <c r="D160" s="1" t="n">
-        <v>1408</v>
+        <v>1789</v>
       </c>
       <c r="E160" s="12" t="n">
         <f aca="false">D160/67.79</f>
-        <v>20.770025077445</v>
+        <v>26.390323056498</v>
       </c>
       <c r="F160" s="12" t="n">
-        <v>180</v>
+        <v>381</v>
       </c>
       <c r="G160" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H160" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$154,G160)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I160" s="13" t="n">
         <f aca="false">$B$154+1</f>
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="J160" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$154,I160)</f>
         <v>-1</v>
       </c>
       <c r="K160" s="13" t="n">
-        <f aca="false">$B$166+1</f>
-        <v>43920</v>
-      </c>
-      <c r="L160" s="0"/>
+        <f aca="false">$B$154+1</f>
+        <v>43922</v>
+      </c>
+      <c r="L160" s="0" t="n">
+        <f aca="false">_xlfn.DAYS(K160,G160)</f>
+        <v>6</v>
+      </c>
       <c r="M160" s="0"/>
       <c r="N160" s="0"/>
       <c r="O160" s="0"/>
@@ -5977,34 +5994,38 @@
         <v>1660</v>
       </c>
       <c r="D161" s="1" t="n">
-        <v>3141</v>
+        <v>4053</v>
       </c>
       <c r="E161" s="12" t="n">
         <f aca="false">D161/331</f>
-        <v>9.48942598187311</v>
+        <v>12.2447129909366</v>
       </c>
       <c r="F161" s="12" t="n">
-        <v>573</v>
+        <v>912</v>
       </c>
       <c r="G161" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H161" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$154,G161)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I161" s="13" t="n">
-        <v>43920</v>
+        <f aca="false">$B$154+1</f>
+        <v>43922</v>
       </c>
       <c r="J161" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$154,I161)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K161" s="13" t="n">
-        <f aca="false">$B$166+1</f>
-        <v>43920</v>
-      </c>
-      <c r="L161" s="0"/>
+        <f aca="false">$B$154+1</f>
+        <v>43922</v>
+      </c>
+      <c r="L161" s="0" t="n">
+        <f aca="false">_xlfn.DAYS(K161,G161)</f>
+        <v>5</v>
+      </c>
       <c r="M161" s="0"/>
       <c r="N161" s="0"/>
       <c r="O161" s="0"/>
@@ -6019,35 +6040,38 @@
         <v>414</v>
       </c>
       <c r="D162" s="1" t="n">
-        <v>645</v>
+        <v>775</v>
       </c>
       <c r="E162" s="12" t="n">
         <f aca="false">D162/83.784</f>
-        <v>7.69836723002005</v>
+        <v>9.24997612909386</v>
       </c>
       <c r="F162" s="12" t="n">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="G162" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H162" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$154,G162)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I162" s="13" t="n">
         <f aca="false">$B$154+1</f>
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="J162" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$154,I162)</f>
         <v>-1</v>
       </c>
       <c r="K162" s="13" t="n">
-        <f aca="false">$B$166+1</f>
-        <v>43920</v>
-      </c>
-      <c r="L162" s="0"/>
+        <f aca="false">$B$154+1</f>
+        <v>43922</v>
+      </c>
+      <c r="L162" s="0" t="n">
+        <f aca="false">_xlfn.DAYS(K162,G162)</f>
+        <v>4</v>
+      </c>
       <c r="M162" s="0"/>
       <c r="N162" s="0"/>
       <c r="O162" s="0"/>
@@ -6055,16 +6079,15 @@
       <c r="Q162" s="0"/>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B163" s="4"/>
-      <c r="C163" s="5"/>
+      <c r="C163" s="12"/>
       <c r="D163" s="0"/>
-      <c r="E163" s="0"/>
-      <c r="F163" s="0"/>
-      <c r="G163" s="0"/>
+      <c r="E163" s="12"/>
+      <c r="F163" s="12"/>
+      <c r="G163" s="13"/>
       <c r="H163" s="0"/>
-      <c r="I163" s="0"/>
+      <c r="I163" s="13"/>
       <c r="J163" s="0"/>
-      <c r="K163" s="0"/>
+      <c r="K163" s="13"/>
       <c r="L163" s="0"/>
       <c r="M163" s="0"/>
       <c r="N163" s="0"/>
@@ -6073,16 +6096,15 @@
       <c r="Q163" s="0"/>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B164" s="4"/>
-      <c r="C164" s="5"/>
+      <c r="C164" s="12"/>
       <c r="D164" s="0"/>
-      <c r="E164" s="0"/>
-      <c r="F164" s="0"/>
-      <c r="G164" s="0"/>
+      <c r="E164" s="12"/>
+      <c r="F164" s="12"/>
+      <c r="G164" s="13"/>
       <c r="H164" s="0"/>
-      <c r="I164" s="0"/>
+      <c r="I164" s="13"/>
       <c r="J164" s="0"/>
-      <c r="K164" s="0"/>
+      <c r="K164" s="13"/>
       <c r="L164" s="0"/>
       <c r="M164" s="0"/>
       <c r="N164" s="0"/>
@@ -6111,7 +6133,7 @@
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B166" s="7" t="n">
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="D166" s="0"/>
       <c r="E166" s="8" t="s">
@@ -6184,31 +6206,31 @@
         <v>300</v>
       </c>
       <c r="D168" s="1" t="n">
-        <v>10779</v>
+        <v>11591</v>
       </c>
       <c r="E168" s="12" t="n">
         <f aca="false">D168/60.48</f>
-        <v>178.224206349206</v>
+        <v>191.650132275132</v>
       </c>
       <c r="F168" s="12" t="n">
-        <v>756</v>
+        <v>812</v>
       </c>
       <c r="G168" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H168" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$166,G168)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I168" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J168" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$166,I168)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K168" s="13" t="n">
-        <f aca="false">$B$166+1</f>
+        <f aca="false">$B$178+1</f>
         <v>43920</v>
       </c>
       <c r="L168" s="0"/>
@@ -6226,31 +6248,31 @@
         <v>230</v>
       </c>
       <c r="D169" s="1" t="n">
-        <v>6803</v>
+        <v>7716</v>
       </c>
       <c r="E169" s="12" t="n">
         <f aca="false">D169/46.75</f>
-        <v>145.51871657754</v>
+        <v>165.048128342246</v>
       </c>
       <c r="F169" s="12" t="n">
-        <v>821</v>
+        <v>913</v>
       </c>
       <c r="G169" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H169" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$166,G169)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I169" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J169" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$166,I169)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K169" s="13" t="n">
-        <f aca="false">$B$166+1</f>
+        <f aca="false">$B$178+1</f>
         <v>43920</v>
       </c>
       <c r="L169" s="0"/>
@@ -6268,31 +6290,31 @@
         <v>330</v>
       </c>
       <c r="D170" s="1" t="n">
-        <v>2606</v>
+        <v>3024</v>
       </c>
       <c r="E170" s="12" t="n">
         <f aca="false">D170/65.27</f>
-        <v>39.9264593228129</v>
+        <v>46.3306266278535</v>
       </c>
       <c r="F170" s="12" t="n">
-        <v>292</v>
+        <v>418</v>
       </c>
       <c r="G170" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H170" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$166,G170)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I170" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J170" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$166,I170)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K170" s="13" t="n">
-        <f aca="false">$B$166+1</f>
+        <f aca="false">$B$178+1</f>
         <v>43920</v>
       </c>
       <c r="L170" s="0"/>
@@ -6304,38 +6326,38 @@
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B171" s="0" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C171" s="12" t="n">
-        <v>1660</v>
-      </c>
-      <c r="D171" s="1" t="n">
-        <v>2583</v>
+        <v>50</v>
+      </c>
+      <c r="D171" s="12" t="n">
+        <v>146</v>
       </c>
       <c r="E171" s="12" t="n">
-        <f aca="false">D171/331</f>
-        <v>7.8036253776435</v>
+        <f aca="false">D171/10.36</f>
+        <v>14.0926640926641</v>
       </c>
       <c r="F171" s="12" t="n">
-        <v>363</v>
+        <v>36</v>
       </c>
       <c r="G171" s="13" t="n">
-        <v>43917</v>
+        <v>43915</v>
       </c>
       <c r="H171" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$166,G171)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I171" s="13" t="n">
         <f aca="false">$B$166+1</f>
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="J171" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$166,I171)</f>
         <v>-1</v>
       </c>
       <c r="K171" s="13" t="n">
-        <f aca="false">$B$166+1</f>
+        <f aca="false">$B$178+1</f>
         <v>43920</v>
       </c>
       <c r="L171" s="0"/>
@@ -6353,32 +6375,32 @@
         <v>330</v>
       </c>
       <c r="D172" s="1" t="n">
-        <v>1228</v>
+        <v>1408</v>
       </c>
       <c r="E172" s="12" t="n">
         <f aca="false">D172/67.79</f>
-        <v>18.1147661897035</v>
+        <v>20.770025077445</v>
       </c>
       <c r="F172" s="12" t="n">
-        <v>209</v>
+        <v>180</v>
       </c>
       <c r="G172" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H172" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$166,G172)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I172" s="13" t="n">
         <f aca="false">$B$166+1</f>
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="J172" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$166,I172)</f>
         <v>-1</v>
       </c>
       <c r="K172" s="13" t="n">
-        <f aca="false">$B$166+1</f>
+        <f aca="false">$B$178+1</f>
         <v>43920</v>
       </c>
       <c r="L172" s="0"/>
@@ -6390,38 +6412,37 @@
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B173" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C173" s="12" t="n">
-        <v>414</v>
+        <v>1660</v>
       </c>
       <c r="D173" s="1" t="n">
-        <v>541</v>
+        <v>3141</v>
       </c>
       <c r="E173" s="12" t="n">
-        <f aca="false">D173/83.784</f>
-        <v>6.457080110761</v>
+        <f aca="false">D173/331</f>
+        <v>9.48942598187311</v>
       </c>
       <c r="F173" s="12" t="n">
-        <v>108</v>
+        <v>573</v>
       </c>
       <c r="G173" s="13" t="n">
-        <v>43918</v>
+        <v>43917</v>
       </c>
       <c r="H173" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$166,G173)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I173" s="13" t="n">
-        <f aca="false">$B$166+1</f>
         <v>43920</v>
       </c>
       <c r="J173" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$166,I173)</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K173" s="13" t="n">
-        <f aca="false">$B$166+1</f>
+        <f aca="false">$B$178+1</f>
         <v>43920</v>
       </c>
       <c r="L173" s="0"/>
@@ -6433,38 +6454,38 @@
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B174" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C174" s="12" t="n">
-        <v>50</v>
-      </c>
-      <c r="D174" s="12" t="n">
-        <v>110</v>
+        <v>414</v>
+      </c>
+      <c r="D174" s="1" t="n">
+        <v>645</v>
       </c>
       <c r="E174" s="12" t="n">
-        <f aca="false">D174/10.36</f>
-        <v>10.6177606177606</v>
+        <f aca="false">D174/83.784</f>
+        <v>7.69836723002005</v>
       </c>
       <c r="F174" s="12" t="n">
-        <v>5</v>
+        <v>104</v>
       </c>
       <c r="G174" s="13" t="n">
-        <v>43915</v>
+        <v>43918</v>
       </c>
       <c r="H174" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$166,G174)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I174" s="13" t="n">
         <f aca="false">$B$166+1</f>
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="J174" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$166,I174)</f>
         <v>-1</v>
       </c>
       <c r="K174" s="13" t="n">
-        <f aca="false">$B$166+1</f>
+        <f aca="false">$B$178+1</f>
         <v>43920</v>
       </c>
       <c r="L174" s="0"/>
@@ -6531,15 +6552,13 @@
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B178" s="7" t="n">
-        <v>43918</v>
-      </c>
-      <c r="D178" s="8" t="s">
-        <v>12</v>
-      </c>
+        <v>43919</v>
+      </c>
+      <c r="D178" s="0"/>
       <c r="E178" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F178" s="8"/>
+      <c r="F178" s="0"/>
       <c r="G178" s="8" t="s">
         <v>35</v>
       </c>
@@ -6567,8 +6586,8 @@
       <c r="C179" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D179" s="10" t="s">
-        <v>6</v>
+      <c r="D179" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="E179" s="10" t="s">
         <v>41</v>
@@ -6606,32 +6625,32 @@
         <v>300</v>
       </c>
       <c r="D180" s="1" t="n">
-        <v>10023</v>
+        <v>10779</v>
       </c>
       <c r="E180" s="12" t="n">
         <f aca="false">D180/60.48</f>
-        <v>165.724206349206</v>
+        <v>178.224206349206</v>
       </c>
       <c r="F180" s="12" t="n">
-        <v>889</v>
+        <v>756</v>
       </c>
       <c r="G180" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H180" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$178,G180)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I180" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J180" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$190,I180)</f>
-        <v>15</v>
+        <f aca="false">_xlfn.DAYS($B$178,I180)</f>
+        <v>17</v>
       </c>
       <c r="K180" s="13" t="n">
         <f aca="false">$B$178+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="L180" s="0"/>
       <c r="M180" s="0"/>
@@ -6648,32 +6667,32 @@
         <v>230</v>
       </c>
       <c r="D181" s="1" t="n">
-        <v>5982</v>
+        <v>6803</v>
       </c>
       <c r="E181" s="12" t="n">
         <f aca="false">D181/46.75</f>
-        <v>127.957219251337</v>
+        <v>145.51871657754</v>
       </c>
       <c r="F181" s="12" t="n">
-        <v>844</v>
+        <v>821</v>
       </c>
       <c r="G181" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H181" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$178,G181)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I181" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J181" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$190,I181)</f>
-        <v>4</v>
+        <f aca="false">_xlfn.DAYS($B$178,I181)</f>
+        <v>6</v>
       </c>
       <c r="K181" s="13" t="n">
         <f aca="false">$B$178+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="L181" s="0"/>
       <c r="M181" s="0"/>
@@ -6690,32 +6709,32 @@
         <v>330</v>
       </c>
       <c r="D182" s="1" t="n">
-        <v>2314</v>
+        <v>2606</v>
       </c>
       <c r="E182" s="12" t="n">
         <f aca="false">D182/65.27</f>
-        <v>35.4527347939329</v>
+        <v>39.9264593228129</v>
       </c>
       <c r="F182" s="12" t="n">
-        <v>319</v>
+        <v>292</v>
       </c>
       <c r="G182" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H182" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$178,G182)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I182" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J182" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$190,I182)</f>
-        <v>3</v>
+        <f aca="false">_xlfn.DAYS($B$178,I182)</f>
+        <v>5</v>
       </c>
       <c r="K182" s="13" t="n">
         <f aca="false">$B$178+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="L182" s="0"/>
       <c r="M182" s="0"/>
@@ -6732,25 +6751,25 @@
         <v>1660</v>
       </c>
       <c r="D183" s="1" t="n">
-        <v>2221</v>
+        <v>2583</v>
       </c>
       <c r="E183" s="12" t="n">
         <f aca="false">D183/331</f>
-        <v>6.70996978851964</v>
+        <v>7.8036253776435</v>
       </c>
       <c r="F183" s="12" t="n">
-        <v>525</v>
+        <v>363</v>
       </c>
       <c r="G183" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H183" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$178,G183)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I183" s="13" t="n">
         <f aca="false">$B$178+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="J183" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$178,I183)</f>
@@ -6758,7 +6777,7 @@
       </c>
       <c r="K183" s="13" t="n">
         <f aca="false">$B$178+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="L183" s="0"/>
       <c r="M183" s="0"/>
@@ -6775,25 +6794,25 @@
         <v>330</v>
       </c>
       <c r="D184" s="1" t="n">
-        <v>1019</v>
+        <v>1228</v>
       </c>
       <c r="E184" s="12" t="n">
         <f aca="false">D184/67.79</f>
-        <v>15.0317155922702</v>
+        <v>18.1147661897035</v>
       </c>
       <c r="F184" s="12" t="n">
-        <v>260</v>
+        <v>209</v>
       </c>
       <c r="G184" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H184" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$178,G184)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I184" s="13" t="n">
         <f aca="false">$B$178+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="J184" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$178,I184)</f>
@@ -6801,7 +6820,7 @@
       </c>
       <c r="K184" s="13" t="n">
         <f aca="false">$B$178+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="L184" s="0"/>
       <c r="M184" s="0"/>
@@ -6818,25 +6837,25 @@
         <v>414</v>
       </c>
       <c r="D185" s="1" t="n">
-        <v>433</v>
+        <v>541</v>
       </c>
       <c r="E185" s="12" t="n">
         <f aca="false">D185/83.784</f>
-        <v>5.16805117922276</v>
+        <v>6.457080110761</v>
       </c>
       <c r="F185" s="12" t="n">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="G185" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H185" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$178,G185)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I185" s="13" t="n">
         <f aca="false">$B$178+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="J185" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$178,I185)</f>
@@ -6844,7 +6863,7 @@
       </c>
       <c r="K185" s="13" t="n">
         <f aca="false">$B$178+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="L185" s="0"/>
       <c r="M185" s="0"/>
@@ -6861,25 +6880,25 @@
         <v>50</v>
       </c>
       <c r="D186" s="12" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E186" s="12" t="n">
         <f aca="false">D186/10.36</f>
-        <v>10.1351351351351</v>
+        <v>10.6177606177606</v>
       </c>
       <c r="F186" s="12" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G186" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H186" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$178,G186)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I186" s="13" t="n">
         <f aca="false">$B$178+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="J186" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$178,I186)</f>
@@ -6887,7 +6906,7 @@
       </c>
       <c r="K186" s="13" t="n">
         <f aca="false">$B$178+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="L186" s="0"/>
       <c r="M186" s="0"/>
@@ -6897,15 +6916,16 @@
       <c r="Q186" s="0"/>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C187" s="12"/>
-      <c r="D187" s="12"/>
-      <c r="E187" s="12"/>
-      <c r="F187" s="12"/>
-      <c r="G187" s="13"/>
+      <c r="B187" s="4"/>
+      <c r="C187" s="5"/>
+      <c r="D187" s="0"/>
+      <c r="E187" s="0"/>
+      <c r="F187" s="0"/>
+      <c r="G187" s="0"/>
       <c r="H187" s="0"/>
-      <c r="I187" s="13"/>
+      <c r="I187" s="0"/>
       <c r="J187" s="0"/>
-      <c r="K187" s="13"/>
+      <c r="K187" s="0"/>
       <c r="L187" s="0"/>
       <c r="M187" s="0"/>
       <c r="N187" s="0"/>
@@ -6950,11 +6970,10 @@
       <c r="P189" s="0"/>
       <c r="Q189" s="0"/>
     </row>
-    <row r="190" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B190" s="7" t="n">
-        <v>43917</v>
-      </c>
-      <c r="C190" s="0"/>
+        <v>43918</v>
+      </c>
       <c r="D190" s="8" t="s">
         <v>12</v>
       </c>
@@ -6977,10 +6996,14 @@
       <c r="K190" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="L190" s="8"/>
+      <c r="L190" s="0"/>
+      <c r="M190" s="0"/>
+      <c r="N190" s="0"/>
+      <c r="O190" s="0"/>
+      <c r="P190" s="0"/>
+      <c r="Q190" s="0"/>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="3"/>
       <c r="B191" s="9"/>
       <c r="C191" s="10" t="s">
         <v>40</v>
@@ -7009,7 +7032,7 @@
       <c r="K191" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="L191" s="8"/>
+      <c r="L191" s="0"/>
       <c r="M191" s="0"/>
       <c r="N191" s="0"/>
       <c r="O191" s="0"/>
@@ -7024,32 +7047,32 @@
         <v>300</v>
       </c>
       <c r="D192" s="1" t="n">
-        <v>9134</v>
+        <v>10023</v>
       </c>
       <c r="E192" s="12" t="n">
         <f aca="false">D192/60.48</f>
-        <v>151.025132275132</v>
+        <v>165.724206349206</v>
       </c>
       <c r="F192" s="12" t="n">
-        <v>919</v>
+        <v>889</v>
       </c>
       <c r="G192" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H192" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$190,G192)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I192" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J192" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$190,I192)</f>
+        <f aca="false">_xlfn.DAYS(B$202,I192)</f>
         <v>15</v>
       </c>
       <c r="K192" s="13" t="n">
         <f aca="false">$B$190+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="L192" s="0"/>
       <c r="M192" s="0"/>
@@ -7066,32 +7089,32 @@
         <v>230</v>
       </c>
       <c r="D193" s="1" t="n">
-        <v>5138</v>
+        <v>5982</v>
       </c>
       <c r="E193" s="12" t="n">
         <f aca="false">D193/46.75</f>
-        <v>109.903743315508</v>
+        <v>127.957219251337</v>
       </c>
       <c r="F193" s="12" t="n">
-        <v>773</v>
+        <v>844</v>
       </c>
       <c r="G193" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H193" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$190,G193)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I193" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J193" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$190,I193)</f>
+        <f aca="false">_xlfn.DAYS(B$202,I193)</f>
         <v>4</v>
       </c>
       <c r="K193" s="13" t="n">
         <f aca="false">$B$190+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="L193" s="0"/>
       <c r="M193" s="0"/>
@@ -7108,32 +7131,32 @@
         <v>330</v>
       </c>
       <c r="D194" s="1" t="n">
-        <v>1995</v>
+        <v>2314</v>
       </c>
       <c r="E194" s="12" t="n">
         <f aca="false">D194/65.27</f>
-        <v>30.5653439558756</v>
+        <v>35.4527347939329</v>
       </c>
       <c r="F194" s="12" t="n">
-        <v>299</v>
+        <v>319</v>
       </c>
       <c r="G194" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H194" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$190,G194)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I194" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J194" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$190,I194)</f>
+        <f aca="false">_xlfn.DAYS(B$202,I194)</f>
         <v>3</v>
       </c>
       <c r="K194" s="13" t="n">
         <f aca="false">$B$190+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="L194" s="0"/>
       <c r="M194" s="0"/>
@@ -7150,34 +7173,33 @@
         <v>1660</v>
       </c>
       <c r="D195" s="1" t="n">
-        <v>1696</v>
+        <v>2221</v>
       </c>
       <c r="E195" s="12" t="n">
         <f aca="false">D195/331</f>
-        <v>5.12386706948641</v>
+        <v>6.70996978851964</v>
       </c>
       <c r="F195" s="12" t="n">
-        <v>400</v>
+        <v>525</v>
       </c>
       <c r="G195" s="13" t="n">
-        <f aca="false">$B$190</f>
         <v>43917</v>
       </c>
       <c r="H195" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$190,G195)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I195" s="13" t="n">
         <f aca="false">$B$190+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="J195" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$190,I195)</f>
+        <f aca="false">_xlfn.DAYS($B$190,I195)</f>
         <v>-1</v>
       </c>
       <c r="K195" s="13" t="n">
         <f aca="false">$B$190+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="L195" s="0"/>
       <c r="M195" s="0"/>
@@ -7194,33 +7216,33 @@
         <v>330</v>
       </c>
       <c r="D196" s="1" t="n">
-        <v>759</v>
+        <v>1019</v>
       </c>
       <c r="E196" s="12" t="n">
         <f aca="false">D196/67.79</f>
-        <v>11.1963416433102</v>
+        <v>15.0317155922702</v>
       </c>
       <c r="F196" s="12" t="n">
-        <v>181</v>
+        <v>260</v>
       </c>
       <c r="G196" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H196" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$190,G196)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I196" s="13" t="n">
         <f aca="false">$B$190+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="J196" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$190,I196)</f>
+        <f aca="false">_xlfn.DAYS($B$190,I196)</f>
         <v>-1</v>
       </c>
       <c r="K196" s="13" t="n">
         <f aca="false">$B$190+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="L196" s="0"/>
       <c r="M196" s="0"/>
@@ -7237,34 +7259,33 @@
         <v>414</v>
       </c>
       <c r="D197" s="1" t="n">
-        <v>351</v>
+        <v>433</v>
       </c>
       <c r="E197" s="12" t="n">
         <f aca="false">D197/83.784</f>
-        <v>4.18934402749928</v>
+        <v>5.16805117922276</v>
       </c>
       <c r="F197" s="12" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G197" s="13" t="n">
-        <f aca="false">$B$190+1</f>
         <v>43918</v>
       </c>
       <c r="H197" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$190,G197)</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I197" s="13" t="n">
         <f aca="false">$B$190+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="J197" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$190,I197)</f>
+        <f aca="false">_xlfn.DAYS($B$190,I197)</f>
         <v>-1</v>
       </c>
       <c r="K197" s="13" t="n">
         <f aca="false">$B$190+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="L197" s="0"/>
       <c r="M197" s="0"/>
@@ -7288,26 +7309,26 @@
         <v>10.1351351351351</v>
       </c>
       <c r="F198" s="12" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="G198" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H198" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$190,G198)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I198" s="13" t="n">
         <f aca="false">$B$190+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="J198" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$190,I198)</f>
+        <f aca="false">_xlfn.DAYS($B$190,I198)</f>
         <v>-1</v>
       </c>
       <c r="K198" s="13" t="n">
         <f aca="false">$B$190+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="L198" s="0"/>
       <c r="M198" s="0"/>
@@ -7317,14 +7338,15 @@
       <c r="Q198" s="0"/>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D199" s="0"/>
-      <c r="E199" s="0"/>
-      <c r="F199" s="0"/>
-      <c r="G199" s="0"/>
+      <c r="C199" s="12"/>
+      <c r="D199" s="12"/>
+      <c r="E199" s="12"/>
+      <c r="F199" s="12"/>
+      <c r="G199" s="13"/>
       <c r="H199" s="0"/>
-      <c r="I199" s="0"/>
+      <c r="I199" s="13"/>
       <c r="J199" s="0"/>
-      <c r="K199" s="0"/>
+      <c r="K199" s="13"/>
       <c r="L199" s="0"/>
       <c r="M199" s="0"/>
       <c r="N199" s="0"/>
@@ -7333,6 +7355,8 @@
       <c r="Q199" s="0"/>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B200" s="4"/>
+      <c r="C200" s="5"/>
       <c r="D200" s="0"/>
       <c r="E200" s="0"/>
       <c r="F200" s="0"/>
@@ -7367,10 +7391,11 @@
       <c r="P201" s="0"/>
       <c r="Q201" s="0"/>
     </row>
-    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B202" s="7" t="n">
-        <v>43916</v>
-      </c>
+        <v>43917</v>
+      </c>
+      <c r="C202" s="0"/>
       <c r="D202" s="8" t="s">
         <v>12</v>
       </c>
@@ -7393,17 +7418,13 @@
       <c r="K202" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="L202" s="0"/>
-      <c r="M202" s="0"/>
-      <c r="N202" s="0"/>
-      <c r="O202" s="0"/>
-      <c r="P202" s="0"/>
-      <c r="Q202" s="0"/>
+      <c r="L202" s="8"/>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="3"/>
       <c r="B203" s="9"/>
       <c r="C203" s="10" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D203" s="10" t="s">
         <v>6</v>
@@ -7429,7 +7450,7 @@
       <c r="K203" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="L203" s="0"/>
+      <c r="L203" s="8"/>
       <c r="M203" s="0"/>
       <c r="N203" s="0"/>
       <c r="O203" s="0"/>
@@ -7444,32 +7465,32 @@
         <v>300</v>
       </c>
       <c r="D204" s="1" t="n">
-        <v>8215</v>
+        <v>9134</v>
       </c>
       <c r="E204" s="12" t="n">
         <f aca="false">D204/60.48</f>
-        <v>135.830026455026</v>
+        <v>151.025132275132</v>
       </c>
       <c r="F204" s="12" t="n">
-        <v>712</v>
+        <v>919</v>
       </c>
       <c r="G204" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H204" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$202,G204)</f>
-        <v>16</v>
+        <f aca="false">_xlfn.DAYS($B$202,G204)</f>
+        <v>17</v>
       </c>
       <c r="I204" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J204" s="1" t="n">
         <f aca="false">_xlfn.DAYS(B$202,I204)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K204" s="13" t="n">
-        <f aca="false">B$202+1</f>
-        <v>43917</v>
+        <f aca="false">$B$202+1</f>
+        <v>43918</v>
       </c>
       <c r="L204" s="0"/>
       <c r="M204" s="0"/>
@@ -7486,32 +7507,32 @@
         <v>230</v>
       </c>
       <c r="D205" s="1" t="n">
-        <v>4365</v>
+        <v>5138</v>
       </c>
       <c r="E205" s="12" t="n">
         <f aca="false">D205/46.75</f>
-        <v>93.3689839572193</v>
+        <v>109.903743315508</v>
       </c>
       <c r="F205" s="12" t="n">
-        <v>718</v>
+        <v>773</v>
       </c>
       <c r="G205" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H205" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$202,G205)</f>
-        <v>9</v>
+        <f aca="false">_xlfn.DAYS($B$202,G205)</f>
+        <v>10</v>
       </c>
       <c r="I205" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J205" s="1" t="n">
         <f aca="false">_xlfn.DAYS(B$202,I205)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K205" s="13" t="n">
-        <f aca="false">B$202+1</f>
-        <v>43917</v>
+        <f aca="false">$B$202+1</f>
+        <v>43918</v>
       </c>
       <c r="L205" s="0"/>
       <c r="M205" s="0"/>
@@ -7528,32 +7549,32 @@
         <v>330</v>
       </c>
       <c r="D206" s="1" t="n">
-        <v>1696</v>
+        <v>1995</v>
       </c>
       <c r="E206" s="12" t="n">
         <f aca="false">D206/65.27</f>
-        <v>25.9843726060978</v>
+        <v>30.5653439558756</v>
       </c>
       <c r="F206" s="12" t="n">
-        <v>365</v>
+        <v>299</v>
       </c>
       <c r="G206" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H206" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$202,G206)</f>
-        <v>4</v>
+        <f aca="false">_xlfn.DAYS($B$202,G206)</f>
+        <v>5</v>
       </c>
       <c r="I206" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J206" s="1" t="n">
         <f aca="false">_xlfn.DAYS(B$202,I206)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K206" s="13" t="n">
-        <f aca="false">B$202+1</f>
-        <v>43917</v>
+        <f aca="false">$B$202+1</f>
+        <v>43918</v>
       </c>
       <c r="L206" s="0"/>
       <c r="M206" s="0"/>
@@ -7570,33 +7591,34 @@
         <v>1660</v>
       </c>
       <c r="D207" s="1" t="n">
-        <v>1295</v>
+        <v>1696</v>
       </c>
       <c r="E207" s="12" t="n">
         <f aca="false">D207/331</f>
-        <v>3.91238670694864</v>
+        <v>5.12386706948641</v>
       </c>
       <c r="F207" s="12" t="n">
-        <v>268</v>
+        <v>400</v>
       </c>
       <c r="G207" s="13" t="n">
+        <f aca="false">$B$202</f>
         <v>43917</v>
       </c>
       <c r="H207" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$202,G207)</f>
+        <f aca="false">_xlfn.DAYS($B$202,G207)</f>
+        <v>0</v>
+      </c>
+      <c r="I207" s="13" t="n">
+        <f aca="false">$B$202+1</f>
+        <v>43918</v>
+      </c>
+      <c r="J207" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$202,I207)</f>
         <v>-1</v>
       </c>
-      <c r="I207" s="13" t="n">
-        <f aca="false">B$202+1</f>
-        <v>43917</v>
-      </c>
-      <c r="J207" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$202,I207)</f>
-        <v>-1</v>
-      </c>
       <c r="K207" s="13" t="n">
-        <f aca="false">B$202+1</f>
-        <v>43917</v>
+        <f aca="false">$B$202+1</f>
+        <v>43918</v>
       </c>
       <c r="L207" s="0"/>
       <c r="M207" s="0"/>
@@ -7613,33 +7635,33 @@
         <v>330</v>
       </c>
       <c r="D208" s="1" t="n">
-        <v>578</v>
+        <v>759</v>
       </c>
       <c r="E208" s="12" t="n">
         <f aca="false">D208/67.79</f>
-        <v>8.52633131730344</v>
+        <v>11.1963416433102</v>
       </c>
       <c r="F208" s="12" t="n">
-        <v>115</v>
+        <v>181</v>
       </c>
       <c r="G208" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H208" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$202,G208)</f>
-        <v>0</v>
+        <f aca="false">_xlfn.DAYS($B$202,G208)</f>
+        <v>1</v>
       </c>
       <c r="I208" s="13" t="n">
-        <f aca="false">B$202+1</f>
-        <v>43917</v>
+        <f aca="false">$B$202+1</f>
+        <v>43918</v>
       </c>
       <c r="J208" s="1" t="n">
         <f aca="false">_xlfn.DAYS(B$202,I208)</f>
         <v>-1</v>
       </c>
       <c r="K208" s="13" t="n">
-        <f aca="false">B$202+1</f>
-        <v>43917</v>
+        <f aca="false">$B$202+1</f>
+        <v>43918</v>
       </c>
       <c r="L208" s="0"/>
       <c r="M208" s="0"/>
@@ -7656,33 +7678,34 @@
         <v>414</v>
       </c>
       <c r="D209" s="1" t="n">
-        <v>267</v>
+        <v>351</v>
       </c>
       <c r="E209" s="12" t="n">
         <f aca="false">D209/83.784</f>
-        <v>3.18676596963621</v>
+        <v>4.18934402749928</v>
       </c>
       <c r="F209" s="12" t="n">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="G209" s="13" t="n">
-        <v>43917</v>
+        <f aca="false">$B$202+1</f>
+        <v>43918</v>
       </c>
       <c r="H209" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$202,G209)</f>
+        <f aca="false">_xlfn.DAYS($B$202,G209)</f>
         <v>-1</v>
       </c>
       <c r="I209" s="13" t="n">
-        <f aca="false">B$202+1</f>
-        <v>43917</v>
+        <f aca="false">$B$202+1</f>
+        <v>43918</v>
       </c>
       <c r="J209" s="1" t="n">
         <f aca="false">_xlfn.DAYS(B$202,I209)</f>
         <v>-1</v>
       </c>
       <c r="K209" s="13" t="n">
-        <f aca="false">B$202+1</f>
-        <v>43917</v>
+        <f aca="false">$B$202+1</f>
+        <v>43918</v>
       </c>
       <c r="L209" s="0"/>
       <c r="M209" s="0"/>
@@ -7699,33 +7722,33 @@
         <v>50</v>
       </c>
       <c r="D210" s="12" t="n">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="E210" s="12" t="n">
         <f aca="false">D210/10.36</f>
-        <v>7.43243243243243</v>
+        <v>10.1351351351351</v>
       </c>
       <c r="F210" s="12" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="G210" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H210" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$202,G210)</f>
-        <v>1</v>
+        <f aca="false">_xlfn.DAYS($B$202,G210)</f>
+        <v>2</v>
       </c>
       <c r="I210" s="13" t="n">
-        <f aca="false">B$202+1</f>
-        <v>43917</v>
+        <f aca="false">$B$202+1</f>
+        <v>43918</v>
       </c>
       <c r="J210" s="1" t="n">
         <f aca="false">_xlfn.DAYS(B$202,I210)</f>
         <v>-1</v>
       </c>
       <c r="K210" s="13" t="n">
-        <f aca="false">B$202+1</f>
-        <v>43917</v>
+        <f aca="false">$B$202+1</f>
+        <v>43918</v>
       </c>
       <c r="L210" s="0"/>
       <c r="M210" s="0"/>
@@ -7733,6 +7756,424 @@
       <c r="O210" s="0"/>
       <c r="P210" s="0"/>
       <c r="Q210" s="0"/>
+    </row>
+    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D211" s="0"/>
+      <c r="E211" s="0"/>
+      <c r="F211" s="0"/>
+      <c r="G211" s="0"/>
+      <c r="H211" s="0"/>
+      <c r="I211" s="0"/>
+      <c r="J211" s="0"/>
+      <c r="K211" s="0"/>
+      <c r="L211" s="0"/>
+      <c r="M211" s="0"/>
+      <c r="N211" s="0"/>
+      <c r="O211" s="0"/>
+      <c r="P211" s="0"/>
+      <c r="Q211" s="0"/>
+    </row>
+    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D212" s="0"/>
+      <c r="E212" s="0"/>
+      <c r="F212" s="0"/>
+      <c r="G212" s="0"/>
+      <c r="H212" s="0"/>
+      <c r="I212" s="0"/>
+      <c r="J212" s="0"/>
+      <c r="K212" s="0"/>
+      <c r="L212" s="0"/>
+      <c r="M212" s="0"/>
+      <c r="N212" s="0"/>
+      <c r="O212" s="0"/>
+      <c r="P212" s="0"/>
+      <c r="Q212" s="0"/>
+    </row>
+    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B213" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D213" s="0"/>
+      <c r="E213" s="0"/>
+      <c r="F213" s="0"/>
+      <c r="G213" s="0"/>
+      <c r="H213" s="0"/>
+      <c r="I213" s="0"/>
+      <c r="J213" s="0"/>
+      <c r="K213" s="0"/>
+      <c r="L213" s="0"/>
+      <c r="M213" s="0"/>
+      <c r="N213" s="0"/>
+      <c r="O213" s="0"/>
+      <c r="P213" s="0"/>
+      <c r="Q213" s="0"/>
+    </row>
+    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B214" s="7" t="n">
+        <v>43916</v>
+      </c>
+      <c r="D214" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E214" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F214" s="8"/>
+      <c r="G214" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H214" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I214" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J214" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K214" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="L214" s="0"/>
+      <c r="M214" s="0"/>
+      <c r="N214" s="0"/>
+      <c r="O214" s="0"/>
+      <c r="P214" s="0"/>
+      <c r="Q214" s="0"/>
+    </row>
+    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B215" s="9"/>
+      <c r="C215" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D215" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E215" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F215" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G215" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="H215" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I215" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="J215" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K215" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="L215" s="0"/>
+      <c r="M215" s="0"/>
+      <c r="N215" s="0"/>
+      <c r="O215" s="0"/>
+      <c r="P215" s="0"/>
+      <c r="Q215" s="0"/>
+    </row>
+    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B216" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C216" s="12" t="n">
+        <v>300</v>
+      </c>
+      <c r="D216" s="1" t="n">
+        <v>8215</v>
+      </c>
+      <c r="E216" s="12" t="n">
+        <f aca="false">D216/60.48</f>
+        <v>135.830026455026</v>
+      </c>
+      <c r="F216" s="12" t="n">
+        <v>712</v>
+      </c>
+      <c r="G216" s="13" t="n">
+        <v>43900</v>
+      </c>
+      <c r="H216" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$214,G216)</f>
+        <v>16</v>
+      </c>
+      <c r="I216" s="13" t="n">
+        <v>43902</v>
+      </c>
+      <c r="J216" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$214,I216)</f>
+        <v>14</v>
+      </c>
+      <c r="K216" s="13" t="n">
+        <f aca="false">B$214+1</f>
+        <v>43917</v>
+      </c>
+      <c r="L216" s="0"/>
+      <c r="M216" s="0"/>
+      <c r="N216" s="0"/>
+      <c r="O216" s="0"/>
+      <c r="P216" s="0"/>
+      <c r="Q216" s="0"/>
+    </row>
+    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B217" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C217" s="12" t="n">
+        <v>230</v>
+      </c>
+      <c r="D217" s="1" t="n">
+        <v>4365</v>
+      </c>
+      <c r="E217" s="12" t="n">
+        <f aca="false">D217/46.75</f>
+        <v>93.3689839572193</v>
+      </c>
+      <c r="F217" s="12" t="n">
+        <v>718</v>
+      </c>
+      <c r="G217" s="13" t="n">
+        <v>43907</v>
+      </c>
+      <c r="H217" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$214,G217)</f>
+        <v>9</v>
+      </c>
+      <c r="I217" s="13" t="n">
+        <v>43913</v>
+      </c>
+      <c r="J217" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$214,I217)</f>
+        <v>3</v>
+      </c>
+      <c r="K217" s="13" t="n">
+        <f aca="false">B$214+1</f>
+        <v>43917</v>
+      </c>
+      <c r="L217" s="0"/>
+      <c r="M217" s="0"/>
+      <c r="N217" s="0"/>
+      <c r="O217" s="0"/>
+      <c r="P217" s="0"/>
+      <c r="Q217" s="0"/>
+    </row>
+    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B218" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C218" s="12" t="n">
+        <v>330</v>
+      </c>
+      <c r="D218" s="1" t="n">
+        <v>1696</v>
+      </c>
+      <c r="E218" s="12" t="n">
+        <f aca="false">D218/65.27</f>
+        <v>25.9843726060978</v>
+      </c>
+      <c r="F218" s="12" t="n">
+        <v>365</v>
+      </c>
+      <c r="G218" s="13" t="n">
+        <v>43912</v>
+      </c>
+      <c r="H218" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$214,G218)</f>
+        <v>4</v>
+      </c>
+      <c r="I218" s="13" t="n">
+        <v>43914</v>
+      </c>
+      <c r="J218" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$214,I218)</f>
+        <v>2</v>
+      </c>
+      <c r="K218" s="13" t="n">
+        <f aca="false">B$214+1</f>
+        <v>43917</v>
+      </c>
+      <c r="L218" s="0"/>
+      <c r="M218" s="0"/>
+      <c r="N218" s="0"/>
+      <c r="O218" s="0"/>
+      <c r="P218" s="0"/>
+      <c r="Q218" s="0"/>
+    </row>
+    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B219" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C219" s="12" t="n">
+        <v>1660</v>
+      </c>
+      <c r="D219" s="1" t="n">
+        <v>1295</v>
+      </c>
+      <c r="E219" s="12" t="n">
+        <f aca="false">D219/331</f>
+        <v>3.91238670694864</v>
+      </c>
+      <c r="F219" s="12" t="n">
+        <v>268</v>
+      </c>
+      <c r="G219" s="13" t="n">
+        <v>43917</v>
+      </c>
+      <c r="H219" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$214,G219)</f>
+        <v>-1</v>
+      </c>
+      <c r="I219" s="13" t="n">
+        <f aca="false">B$214+1</f>
+        <v>43917</v>
+      </c>
+      <c r="J219" s="1" t="n">
+        <f aca="false">_xlfn.DAYS($B$214,I219)</f>
+        <v>-1</v>
+      </c>
+      <c r="K219" s="13" t="n">
+        <f aca="false">B$214+1</f>
+        <v>43917</v>
+      </c>
+      <c r="L219" s="0"/>
+      <c r="M219" s="0"/>
+      <c r="N219" s="0"/>
+      <c r="O219" s="0"/>
+      <c r="P219" s="0"/>
+      <c r="Q219" s="0"/>
+    </row>
+    <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B220" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C220" s="12" t="n">
+        <v>330</v>
+      </c>
+      <c r="D220" s="1" t="n">
+        <v>578</v>
+      </c>
+      <c r="E220" s="12" t="n">
+        <f aca="false">D220/67.79</f>
+        <v>8.52633131730344</v>
+      </c>
+      <c r="F220" s="12" t="n">
+        <v>115</v>
+      </c>
+      <c r="G220" s="13" t="n">
+        <v>43916</v>
+      </c>
+      <c r="H220" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$214,G220)</f>
+        <v>0</v>
+      </c>
+      <c r="I220" s="13" t="n">
+        <f aca="false">B$214+1</f>
+        <v>43917</v>
+      </c>
+      <c r="J220" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$214,I220)</f>
+        <v>-1</v>
+      </c>
+      <c r="K220" s="13" t="n">
+        <f aca="false">B$214+1</f>
+        <v>43917</v>
+      </c>
+      <c r="L220" s="0"/>
+      <c r="M220" s="0"/>
+      <c r="N220" s="0"/>
+      <c r="O220" s="0"/>
+      <c r="P220" s="0"/>
+      <c r="Q220" s="0"/>
+    </row>
+    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B221" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C221" s="12" t="n">
+        <v>414</v>
+      </c>
+      <c r="D221" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="E221" s="12" t="n">
+        <f aca="false">D221/83.784</f>
+        <v>3.18676596963621</v>
+      </c>
+      <c r="F221" s="12" t="n">
+        <v>61</v>
+      </c>
+      <c r="G221" s="13" t="n">
+        <v>43917</v>
+      </c>
+      <c r="H221" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$214,G221)</f>
+        <v>-1</v>
+      </c>
+      <c r="I221" s="13" t="n">
+        <f aca="false">B$214+1</f>
+        <v>43917</v>
+      </c>
+      <c r="J221" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$214,I221)</f>
+        <v>-1</v>
+      </c>
+      <c r="K221" s="13" t="n">
+        <f aca="false">B$214+1</f>
+        <v>43917</v>
+      </c>
+      <c r="L221" s="0"/>
+      <c r="M221" s="0"/>
+      <c r="N221" s="0"/>
+      <c r="O221" s="0"/>
+      <c r="P221" s="0"/>
+      <c r="Q221" s="0"/>
+    </row>
+    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B222" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C222" s="12" t="n">
+        <v>50</v>
+      </c>
+      <c r="D222" s="12" t="n">
+        <v>77</v>
+      </c>
+      <c r="E222" s="12" t="n">
+        <f aca="false">D222/10.36</f>
+        <v>7.43243243243243</v>
+      </c>
+      <c r="F222" s="12" t="n">
+        <v>15</v>
+      </c>
+      <c r="G222" s="13" t="n">
+        <v>43915</v>
+      </c>
+      <c r="H222" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$214,G222)</f>
+        <v>1</v>
+      </c>
+      <c r="I222" s="13" t="n">
+        <f aca="false">B$214+1</f>
+        <v>43917</v>
+      </c>
+      <c r="J222" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$214,I222)</f>
+        <v>-1</v>
+      </c>
+      <c r="K222" s="13" t="n">
+        <f aca="false">B$214+1</f>
+        <v>43917</v>
+      </c>
+      <c r="L222" s="0"/>
+      <c r="M222" s="0"/>
+      <c r="N222" s="0"/>
+      <c r="O222" s="0"/>
+      <c r="P222" s="0"/>
+      <c r="Q222" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/covid19 lockdown evaluation .xlsx
+++ b/covid19 lockdown evaluation .xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="55">
   <si>
     <t>Effects of the lockdown issued by governments</t>
   </si>
@@ -359,10 +359,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q222"/>
+  <dimension ref="A1:Q234"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D31" activeCellId="0" sqref="D31"/>
+      <selection pane="topLeft" activeCell="F31" activeCellId="0" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -815,7 +815,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="7" t="n">
-        <v>43932</v>
+        <v>43933</v>
       </c>
       <c r="D22" s="0"/>
       <c r="E22" s="8" t="s">
@@ -892,36 +892,36 @@
         <v>300</v>
       </c>
       <c r="D24" s="1" t="n">
-        <v>19468</v>
+        <v>19899</v>
       </c>
       <c r="E24" s="12" t="n">
         <f aca="false">D24/60.48</f>
-        <v>321.891534391534</v>
+        <v>329.017857142857</v>
       </c>
       <c r="F24" s="12" t="n">
-        <v>619</v>
+        <v>431</v>
       </c>
       <c r="G24" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H24" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,G24)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I24" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J24" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,I24)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K24" s="13" t="n">
         <f aca="false">$B$22+1</f>
-        <v>43933</v>
+        <v>43934</v>
       </c>
       <c r="L24" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K24,G24)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M24" s="0"/>
       <c r="N24" s="0"/>
@@ -937,36 +937,36 @@
         <v>230</v>
       </c>
       <c r="D25" s="1" t="n">
-        <v>16606</v>
+        <v>17209</v>
       </c>
       <c r="E25" s="12" t="n">
         <f aca="false">D25/46.75</f>
-        <v>355.208556149733</v>
+        <v>368.106951871658</v>
       </c>
       <c r="F25" s="12" t="n">
-        <v>525</v>
+        <v>603</v>
       </c>
       <c r="G25" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H25" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,G25)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I25" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J25" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,I25)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K25" s="13" t="n">
         <f aca="false">$B$22+1</f>
-        <v>43933</v>
+        <v>43934</v>
       </c>
       <c r="L25" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K25,G25)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M25" s="0"/>
       <c r="N25" s="0"/>
@@ -982,36 +982,36 @@
         <v>330</v>
       </c>
       <c r="D26" s="1" t="n">
-        <v>13832</v>
+        <v>14393</v>
       </c>
       <c r="E26" s="12" t="n">
         <f aca="false">D26/65.27</f>
-        <v>211.919718094071</v>
+        <v>220.514784740309</v>
       </c>
       <c r="F26" s="12" t="n">
-        <v>635</v>
+        <v>561</v>
       </c>
       <c r="G26" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H26" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,G26)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I26" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J26" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,I26)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K26" s="13" t="n">
         <f aca="false">$B$22+1</f>
-        <v>43933</v>
+        <v>43934</v>
       </c>
       <c r="L26" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K26,G26)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M26" s="0"/>
       <c r="N26" s="0"/>
@@ -1027,36 +1027,36 @@
         <v>50</v>
       </c>
       <c r="D27" s="12" t="n">
-        <v>887</v>
+        <v>899</v>
       </c>
       <c r="E27" s="12" t="n">
         <f aca="false">D27/10.36</f>
-        <v>85.6177606177606</v>
+        <v>86.7760617760618</v>
       </c>
       <c r="F27" s="12" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G27" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H27" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,G27)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I27" s="13" t="n">
         <v>43928</v>
       </c>
       <c r="J27" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,I27)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K27" s="13" t="n">
         <f aca="false">$B$22+1</f>
-        <v>43933</v>
+        <v>43934</v>
       </c>
       <c r="L27" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K27,G27)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M27" s="0"/>
       <c r="N27" s="0"/>
@@ -1072,36 +1072,36 @@
         <v>330</v>
       </c>
       <c r="D28" s="1" t="n">
-        <v>9875</v>
+        <v>10612</v>
       </c>
       <c r="E28" s="12" t="n">
         <f aca="false">D28/67.79</f>
-        <v>145.670452869155</v>
+        <v>156.54226287063</v>
       </c>
       <c r="F28" s="12" t="n">
-        <v>917</v>
+        <v>737</v>
       </c>
       <c r="G28" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H28" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,G28)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I28" s="13" t="n">
         <v>43919</v>
       </c>
       <c r="J28" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,I28)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K28" s="13" t="n">
         <f aca="false">$B$22+1</f>
-        <v>43933</v>
+        <v>43934</v>
       </c>
       <c r="L28" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K28,G28)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M28" s="0"/>
       <c r="N28" s="0"/>
@@ -1117,36 +1117,36 @@
         <v>1660</v>
       </c>
       <c r="D29" s="1" t="n">
-        <v>20577</v>
+        <v>22105</v>
       </c>
       <c r="E29" s="12" t="n">
         <f aca="false">D29/331</f>
-        <v>62.166163141994</v>
+        <v>66.7824773413897</v>
       </c>
       <c r="F29" s="12" t="n">
-        <v>1830</v>
+        <v>1528</v>
       </c>
       <c r="G29" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H29" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,G29)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I29" s="13" t="n">
         <v>43921</v>
       </c>
       <c r="J29" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,I29)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K29" s="13" t="n">
         <f aca="false">$B$22+1</f>
-        <v>43933</v>
+        <v>43934</v>
       </c>
       <c r="L29" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K29,G29)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M29" s="0"/>
       <c r="N29" s="0"/>
@@ -1162,36 +1162,36 @@
         <v>414</v>
       </c>
       <c r="D30" s="1" t="n">
-        <v>2871</v>
+        <v>3022</v>
       </c>
       <c r="E30" s="12" t="n">
         <f aca="false">D30/83.784</f>
-        <v>34.2666857633916</v>
+        <v>36.0689391769312</v>
       </c>
       <c r="F30" s="12" t="n">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="G30" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H30" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,G30)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I30" s="13" t="n">
         <v>43920</v>
       </c>
       <c r="J30" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,I30)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K30" s="13" t="n">
         <f aca="false">$B$22+1</f>
-        <v>43933</v>
+        <v>43934</v>
       </c>
       <c r="L30" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K30,G30)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M30" s="0"/>
       <c r="N30" s="0"/>
@@ -1256,7 +1256,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="7" t="n">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="D34" s="0"/>
       <c r="E34" s="8" t="s">
@@ -1333,36 +1333,36 @@
         <v>300</v>
       </c>
       <c r="D36" s="1" t="n">
-        <v>18849</v>
+        <v>19468</v>
       </c>
       <c r="E36" s="12" t="n">
         <f aca="false">D36/60.48</f>
-        <v>311.656746031746</v>
+        <v>321.891534391534</v>
       </c>
       <c r="F36" s="12" t="n">
-        <v>570</v>
+        <v>619</v>
       </c>
       <c r="G36" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H36" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,G36)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I36" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J36" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,I36)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K36" s="13" t="n">
         <f aca="false">$B$34+1</f>
-        <v>43932</v>
+        <v>43933</v>
       </c>
       <c r="L36" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K36,G36)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M36" s="0"/>
       <c r="N36" s="0"/>
@@ -1378,36 +1378,36 @@
         <v>230</v>
       </c>
       <c r="D37" s="1" t="n">
-        <v>16081</v>
+        <v>16606</v>
       </c>
       <c r="E37" s="12" t="n">
         <f aca="false">D37/46.75</f>
-        <v>343.978609625668</v>
+        <v>355.208556149733</v>
       </c>
       <c r="F37" s="12" t="n">
-        <v>634</v>
+        <v>525</v>
       </c>
       <c r="G37" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H37" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,G37)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I37" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J37" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,I37)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K37" s="13" t="n">
         <f aca="false">$B$34+1</f>
-        <v>43932</v>
+        <v>43933</v>
       </c>
       <c r="L37" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K37,G37)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M37" s="0"/>
       <c r="N37" s="0"/>
@@ -1423,36 +1423,36 @@
         <v>330</v>
       </c>
       <c r="D38" s="1" t="n">
-        <v>13197</v>
+        <v>13832</v>
       </c>
       <c r="E38" s="12" t="n">
         <f aca="false">D38/65.27</f>
-        <v>202.190899341198</v>
+        <v>211.919718094071</v>
       </c>
       <c r="F38" s="12" t="n">
-        <v>987</v>
+        <v>635</v>
       </c>
       <c r="G38" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H38" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,G38)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I38" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J38" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,I38)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K38" s="13" t="n">
         <f aca="false">$B$34+1</f>
-        <v>43932</v>
+        <v>43933</v>
       </c>
       <c r="L38" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K38,G38)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M38" s="0"/>
       <c r="N38" s="0"/>
@@ -1468,36 +1468,36 @@
         <v>50</v>
       </c>
       <c r="D39" s="12" t="n">
-        <v>870</v>
+        <v>887</v>
       </c>
       <c r="E39" s="12" t="n">
         <f aca="false">D39/10.36</f>
-        <v>83.976833976834</v>
+        <v>85.6177606177606</v>
       </c>
       <c r="F39" s="12" t="n">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="G39" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H39" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,G39)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I39" s="13" t="n">
         <v>43928</v>
       </c>
       <c r="J39" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,I39)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K39" s="13" t="n">
         <f aca="false">$B$34+1</f>
-        <v>43932</v>
+        <v>43933</v>
       </c>
       <c r="L39" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K39,G39)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M39" s="0"/>
       <c r="N39" s="0"/>
@@ -1513,36 +1513,36 @@
         <v>330</v>
       </c>
       <c r="D40" s="1" t="n">
-        <v>8958</v>
+        <v>9875</v>
       </c>
       <c r="E40" s="12" t="n">
         <f aca="false">D40/67.79</f>
-        <v>132.143383979938</v>
+        <v>145.670452869155</v>
       </c>
       <c r="F40" s="12" t="n">
-        <v>980</v>
+        <v>917</v>
       </c>
       <c r="G40" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H40" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,G40)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I40" s="13" t="n">
         <v>43919</v>
       </c>
       <c r="J40" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,I40)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K40" s="13" t="n">
         <f aca="false">$B$34+1</f>
-        <v>43932</v>
+        <v>43933</v>
       </c>
       <c r="L40" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K40,G40)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M40" s="0"/>
       <c r="N40" s="0"/>
@@ -1558,36 +1558,36 @@
         <v>1660</v>
       </c>
       <c r="D41" s="1" t="n">
-        <v>18747</v>
+        <v>20577</v>
       </c>
       <c r="E41" s="12" t="n">
         <f aca="false">D41/331</f>
-        <v>56.6374622356496</v>
+        <v>62.166163141994</v>
       </c>
       <c r="F41" s="12" t="n">
-        <v>2035</v>
+        <v>1830</v>
       </c>
       <c r="G41" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H41" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,G41)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I41" s="13" t="n">
         <v>43921</v>
       </c>
       <c r="J41" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,I41)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K41" s="13" t="n">
         <f aca="false">$B$34+1</f>
-        <v>43932</v>
+        <v>43933</v>
       </c>
       <c r="L41" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K41,G41)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M41" s="0"/>
       <c r="N41" s="0"/>
@@ -1603,36 +1603,36 @@
         <v>414</v>
       </c>
       <c r="D42" s="1" t="n">
-        <v>2736</v>
+        <v>2871</v>
       </c>
       <c r="E42" s="12" t="n">
         <f aca="false">D42/83.784</f>
-        <v>32.6553995989688</v>
+        <v>34.2666857633916</v>
       </c>
       <c r="F42" s="12" t="n">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="G42" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H42" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,G42)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I42" s="13" t="n">
         <v>43920</v>
       </c>
       <c r="J42" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,I42)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K42" s="13" t="n">
         <f aca="false">$B$34+1</f>
-        <v>43932</v>
+        <v>43933</v>
       </c>
       <c r="L42" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K42,G42)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M42" s="0"/>
       <c r="N42" s="0"/>
@@ -1697,7 +1697,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="7" t="n">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="D46" s="0"/>
       <c r="E46" s="8" t="s">
@@ -1774,36 +1774,36 @@
         <v>300</v>
       </c>
       <c r="D48" s="1" t="n">
-        <v>18279</v>
+        <v>18849</v>
       </c>
       <c r="E48" s="12" t="n">
         <f aca="false">D48/60.48</f>
-        <v>302.232142857143</v>
+        <v>311.656746031746</v>
       </c>
       <c r="F48" s="12" t="n">
-        <v>610</v>
+        <v>570</v>
       </c>
       <c r="G48" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H48" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,G48)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I48" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J48" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,I48)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K48" s="13" t="n">
         <f aca="false">$B$46+1</f>
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="L48" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K48,G48)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M48" s="0"/>
       <c r="N48" s="0"/>
@@ -1819,36 +1819,36 @@
         <v>230</v>
       </c>
       <c r="D49" s="1" t="n">
-        <v>15447</v>
+        <v>16081</v>
       </c>
       <c r="E49" s="12" t="n">
         <f aca="false">D49/46.75</f>
-        <v>330.417112299465</v>
+        <v>343.978609625668</v>
       </c>
       <c r="F49" s="12" t="n">
-        <v>655</v>
+        <v>634</v>
       </c>
       <c r="G49" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H49" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,G49)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I49" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J49" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,I49)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K49" s="13" t="n">
         <f aca="false">$B$46+1</f>
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="L49" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K49,G49)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M49" s="0"/>
       <c r="N49" s="0"/>
@@ -1864,36 +1864,36 @@
         <v>330</v>
       </c>
       <c r="D50" s="1" t="n">
-        <v>12210</v>
+        <v>13197</v>
       </c>
       <c r="E50" s="12" t="n">
         <f aca="false">D50/65.27</f>
-        <v>187.069097594607</v>
+        <v>202.190899341198</v>
       </c>
       <c r="F50" s="12" t="n">
-        <v>1341</v>
+        <v>987</v>
       </c>
       <c r="G50" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H50" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,G50)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I50" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J50" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,I50)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K50" s="13" t="n">
         <f aca="false">$B$46+1</f>
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="L50" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K50,G50)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M50" s="0"/>
       <c r="N50" s="0"/>
@@ -1909,36 +1909,36 @@
         <v>50</v>
       </c>
       <c r="D51" s="12" t="n">
-        <v>793</v>
+        <v>870</v>
       </c>
       <c r="E51" s="12" t="n">
         <f aca="false">D51/10.36</f>
-        <v>76.5444015444016</v>
+        <v>83.976833976834</v>
       </c>
       <c r="F51" s="12" t="n">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="G51" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H51" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,G51)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I51" s="13" t="n">
         <v>43928</v>
       </c>
       <c r="J51" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,I51)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K51" s="13" t="n">
         <f aca="false">$B$46+1</f>
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="L51" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K51,G51)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M51" s="0"/>
       <c r="N51" s="0"/>
@@ -1954,36 +1954,36 @@
         <v>330</v>
       </c>
       <c r="D52" s="1" t="n">
-        <v>7978</v>
+        <v>8958</v>
       </c>
       <c r="E52" s="12" t="n">
         <f aca="false">D52/67.79</f>
-        <v>117.686974480012</v>
+        <v>132.143383979938</v>
       </c>
       <c r="F52" s="12" t="n">
-        <v>881</v>
+        <v>980</v>
       </c>
       <c r="G52" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H52" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,G52)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I52" s="13" t="n">
         <v>43919</v>
       </c>
       <c r="J52" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,I52)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K52" s="13" t="n">
         <f aca="false">$B$46+1</f>
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="L52" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K52,G52)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M52" s="0"/>
       <c r="N52" s="0"/>
@@ -1999,36 +1999,36 @@
         <v>1660</v>
       </c>
       <c r="D53" s="1" t="n">
-        <v>16691</v>
+        <v>18747</v>
       </c>
       <c r="E53" s="12" t="n">
         <f aca="false">D53/331</f>
-        <v>50.4259818731118</v>
+        <v>56.6374622356496</v>
       </c>
       <c r="F53" s="12" t="n">
-        <v>1900</v>
+        <v>2035</v>
       </c>
       <c r="G53" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H53" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,G53)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I53" s="13" t="n">
         <v>43921</v>
       </c>
       <c r="J53" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,I53)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K53" s="13" t="n">
         <f aca="false">$B$46+1</f>
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="L53" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K53,G53)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M53" s="0"/>
       <c r="N53" s="0"/>
@@ -2044,36 +2044,36 @@
         <v>414</v>
       </c>
       <c r="D54" s="1" t="n">
-        <v>2607</v>
+        <v>2736</v>
       </c>
       <c r="E54" s="12" t="n">
         <f aca="false">D54/83.784</f>
-        <v>31.1157261529648</v>
+        <v>32.6553995989688</v>
       </c>
       <c r="F54" s="12" t="n">
-        <v>258</v>
+        <v>129</v>
       </c>
       <c r="G54" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H54" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,G54)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I54" s="13" t="n">
         <v>43920</v>
       </c>
       <c r="J54" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,I54)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K54" s="13" t="n">
         <f aca="false">$B$46+1</f>
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="L54" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K54,G54)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M54" s="0"/>
       <c r="N54" s="0"/>
@@ -2138,7 +2138,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="7" t="n">
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="D58" s="0"/>
       <c r="E58" s="8" t="s">
@@ -2215,36 +2215,36 @@
         <v>300</v>
       </c>
       <c r="D60" s="1" t="n">
-        <v>17669</v>
+        <v>18279</v>
       </c>
       <c r="E60" s="12" t="n">
         <f aca="false">D60/60.48</f>
-        <v>292.146164021164</v>
+        <v>302.232142857143</v>
       </c>
       <c r="F60" s="12" t="n">
-        <v>542</v>
+        <v>610</v>
       </c>
       <c r="G60" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H60" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,G60)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I60" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J60" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,I60)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K60" s="13" t="n">
         <f aca="false">$B$58+1</f>
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="L60" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K60,G60)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M60" s="0"/>
       <c r="N60" s="0"/>
@@ -2260,36 +2260,36 @@
         <v>230</v>
       </c>
       <c r="D61" s="1" t="n">
-        <v>14792</v>
+        <v>15447</v>
       </c>
       <c r="E61" s="12" t="n">
         <f aca="false">D61/46.75</f>
-        <v>316.406417112299</v>
+        <v>330.417112299465</v>
       </c>
       <c r="F61" s="12" t="n">
-        <v>747</v>
+        <v>655</v>
       </c>
       <c r="G61" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H61" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,G61)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I61" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J61" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,I61)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K61" s="13" t="n">
         <f aca="false">$B$58+1</f>
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="L61" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K61,G61)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M61" s="0"/>
       <c r="N61" s="0"/>
@@ -2305,36 +2305,36 @@
         <v>330</v>
       </c>
       <c r="D62" s="1" t="n">
-        <v>10869</v>
+        <v>12210</v>
       </c>
       <c r="E62" s="12" t="n">
         <f aca="false">D62/65.27</f>
-        <v>166.52367090547</v>
+        <v>187.069097594607</v>
       </c>
       <c r="F62" s="12" t="n">
-        <v>541</v>
+        <v>1341</v>
       </c>
       <c r="G62" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H62" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,G62)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I62" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J62" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,I62)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K62" s="13" t="n">
         <f aca="false">$B$58+1</f>
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="L62" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K62,G62)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M62" s="0"/>
       <c r="N62" s="0"/>
@@ -2350,36 +2350,36 @@
         <v>50</v>
       </c>
       <c r="D63" s="12" t="n">
-        <v>687</v>
+        <v>793</v>
       </c>
       <c r="E63" s="12" t="n">
         <f aca="false">D63/10.36</f>
-        <v>66.3127413127413</v>
+        <v>76.5444015444016</v>
       </c>
       <c r="F63" s="12" t="n">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="G63" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H63" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,G63)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I63" s="13" t="n">
         <v>43928</v>
       </c>
       <c r="J63" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,I63)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K63" s="13" t="n">
         <f aca="false">$B$58+1</f>
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="L63" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K63,G63)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M63" s="0"/>
       <c r="N63" s="0"/>
@@ -2395,36 +2395,36 @@
         <v>330</v>
       </c>
       <c r="D64" s="1" t="n">
-        <v>7097</v>
+        <v>7978</v>
       </c>
       <c r="E64" s="12" t="n">
         <f aca="false">D64/67.79</f>
-        <v>104.690957368343</v>
+        <v>117.686974480012</v>
       </c>
       <c r="F64" s="12" t="n">
-        <v>938</v>
+        <v>881</v>
       </c>
       <c r="G64" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H64" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,G64)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I64" s="13" t="n">
         <v>43919</v>
       </c>
       <c r="J64" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,I64)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K64" s="13" t="n">
         <f aca="false">$B$58+1</f>
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="L64" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K64,G64)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M64" s="0"/>
       <c r="N64" s="0"/>
@@ -2440,36 +2440,36 @@
         <v>1660</v>
       </c>
       <c r="D65" s="1" t="n">
-        <v>14788</v>
+        <v>16691</v>
       </c>
       <c r="E65" s="12" t="n">
         <f aca="false">D65/331</f>
-        <v>44.6767371601209</v>
+        <v>50.4259818731118</v>
       </c>
       <c r="F65" s="12" t="n">
-        <v>1940</v>
+        <v>1900</v>
       </c>
       <c r="G65" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H65" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,G65)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I65" s="13" t="n">
         <v>43921</v>
       </c>
       <c r="J65" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,I65)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K65" s="13" t="n">
         <f aca="false">$B$58+1</f>
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="L65" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K65,G65)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M65" s="0"/>
       <c r="N65" s="0"/>
@@ -2485,36 +2485,36 @@
         <v>414</v>
       </c>
       <c r="D66" s="1" t="n">
-        <v>2349</v>
+        <v>2607</v>
       </c>
       <c r="E66" s="12" t="n">
         <f aca="false">D66/83.784</f>
-        <v>28.0363792609567</v>
+        <v>31.1157261529648</v>
       </c>
       <c r="F66" s="12" t="n">
-        <v>333</v>
+        <v>258</v>
       </c>
       <c r="G66" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H66" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,G66)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I66" s="13" t="n">
         <v>43920</v>
       </c>
       <c r="J66" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,I66)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K66" s="13" t="n">
         <f aca="false">$B$58+1</f>
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="L66" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K66,G66)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M66" s="0"/>
       <c r="N66" s="0"/>
@@ -2579,7 +2579,7 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="7" t="n">
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="D70" s="0"/>
       <c r="E70" s="8" t="s">
@@ -2656,36 +2656,36 @@
         <v>300</v>
       </c>
       <c r="D72" s="1" t="n">
-        <v>17127</v>
+        <v>17669</v>
       </c>
       <c r="E72" s="12" t="n">
         <f aca="false">D72/60.48</f>
-        <v>283.184523809524</v>
+        <v>292.146164021164</v>
       </c>
       <c r="F72" s="12" t="n">
-        <v>604</v>
+        <v>542</v>
       </c>
       <c r="G72" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H72" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,G72)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I72" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J72" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,I72)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K72" s="13" t="n">
         <f aca="false">$B$70+1</f>
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="L72" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K72,G72)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M72" s="0"/>
       <c r="N72" s="0"/>
@@ -2701,36 +2701,36 @@
         <v>230</v>
       </c>
       <c r="D73" s="1" t="n">
-        <v>14045</v>
+        <v>14792</v>
       </c>
       <c r="E73" s="12" t="n">
         <f aca="false">D73/46.75</f>
-        <v>300.427807486631</v>
+        <v>316.406417112299</v>
       </c>
       <c r="F73" s="12" t="n">
-        <v>704</v>
+        <v>747</v>
       </c>
       <c r="G73" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H73" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,G73)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I73" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J73" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,I73)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K73" s="13" t="n">
         <f aca="false">$B$70+1</f>
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="L73" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K73,G73)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M73" s="0"/>
       <c r="N73" s="0"/>
@@ -2746,36 +2746,36 @@
         <v>330</v>
       </c>
       <c r="D74" s="1" t="n">
-        <v>10328</v>
+        <v>10869</v>
       </c>
       <c r="E74" s="12" t="n">
         <f aca="false">D74/65.27</f>
-        <v>158.23502374751</v>
+        <v>166.52367090547</v>
       </c>
       <c r="F74" s="12" t="n">
-        <v>1417</v>
+        <v>541</v>
       </c>
       <c r="G74" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H74" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,G74)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I74" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J74" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,I74)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K74" s="13" t="n">
         <f aca="false">$B$70+1</f>
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="L74" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K74,G74)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M74" s="0"/>
       <c r="N74" s="0"/>
@@ -2791,36 +2791,36 @@
         <v>50</v>
       </c>
       <c r="D75" s="12" t="n">
-        <v>591</v>
+        <v>687</v>
       </c>
       <c r="E75" s="12" t="n">
         <f aca="false">D75/10.36</f>
-        <v>57.0463320463321</v>
+        <v>66.3127413127413</v>
       </c>
       <c r="F75" s="12" t="n">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="G75" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H75" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,G75)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I75" s="13" t="n">
         <v>43928</v>
       </c>
       <c r="J75" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,I75)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K75" s="13" t="n">
         <f aca="false">$B$70+1</f>
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="L75" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K75,G75)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M75" s="0"/>
       <c r="N75" s="0"/>
@@ -2836,36 +2836,36 @@
         <v>330</v>
       </c>
       <c r="D76" s="1" t="n">
-        <v>6159</v>
+        <v>7097</v>
       </c>
       <c r="E76" s="12" t="n">
         <f aca="false">D76/67.79</f>
-        <v>90.8541082755569</v>
+        <v>104.690957368343</v>
       </c>
       <c r="F76" s="12" t="n">
-        <v>786</v>
+        <v>938</v>
       </c>
       <c r="G76" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H76" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,G76)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I76" s="13" t="n">
         <v>43919</v>
       </c>
       <c r="J76" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,I76)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K76" s="13" t="n">
         <f aca="false">$B$70+1</f>
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="L76" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K76,G76)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M76" s="0"/>
       <c r="N76" s="0"/>
@@ -2881,36 +2881,36 @@
         <v>1660</v>
       </c>
       <c r="D77" s="1" t="n">
-        <v>12848</v>
+        <v>14788</v>
       </c>
       <c r="E77" s="12" t="n">
         <f aca="false">D77/331</f>
-        <v>38.8157099697885</v>
+        <v>44.6767371601209</v>
       </c>
       <c r="F77" s="12" t="n">
-        <v>1970</v>
+        <v>1940</v>
       </c>
       <c r="G77" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H77" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,G77)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I77" s="13" t="n">
         <v>43921</v>
       </c>
       <c r="J77" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,I77)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K77" s="13" t="n">
         <f aca="false">$B$70+1</f>
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="L77" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K77,G77)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M77" s="0"/>
       <c r="N77" s="0"/>
@@ -2926,36 +2926,36 @@
         <v>414</v>
       </c>
       <c r="D78" s="1" t="n">
-        <v>2016</v>
+        <v>2349</v>
       </c>
       <c r="E78" s="12" t="n">
         <f aca="false">D78/83.784</f>
-        <v>24.0618733887138</v>
+        <v>28.0363792609567</v>
       </c>
       <c r="F78" s="12" t="n">
-        <v>206</v>
+        <v>333</v>
       </c>
       <c r="G78" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H78" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,G78)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I78" s="13" t="n">
         <v>43920</v>
       </c>
       <c r="J78" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,I78)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K78" s="13" t="n">
         <f aca="false">$B$70+1</f>
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="L78" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K78,G78)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M78" s="0"/>
       <c r="N78" s="0"/>
@@ -3020,7 +3020,7 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="7" t="n">
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="D82" s="0"/>
       <c r="E82" s="8" t="s">
@@ -3097,36 +3097,36 @@
         <v>300</v>
       </c>
       <c r="D84" s="1" t="n">
-        <v>16523</v>
+        <v>17127</v>
       </c>
       <c r="E84" s="12" t="n">
         <f aca="false">D84/60.48</f>
-        <v>273.197751322751</v>
+        <v>283.184523809524</v>
       </c>
       <c r="F84" s="12" t="n">
-        <v>636</v>
+        <v>604</v>
       </c>
       <c r="G84" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H84" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,G84)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I84" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J84" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,I84)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K84" s="13" t="n">
         <f aca="false">$B$82+1</f>
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="L84" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K84,G84)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M84" s="0"/>
       <c r="N84" s="0"/>
@@ -3142,36 +3142,36 @@
         <v>230</v>
       </c>
       <c r="D85" s="1" t="n">
-        <v>13341</v>
+        <v>14045</v>
       </c>
       <c r="E85" s="12" t="n">
         <f aca="false">D85/46.75</f>
-        <v>285.368983957219</v>
+        <v>300.427807486631</v>
       </c>
       <c r="F85" s="12" t="n">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="G85" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H85" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,G85)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I85" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J85" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,I85)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K85" s="13" t="n">
         <f aca="false">$B$82+1</f>
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="L85" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K85,G85)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M85" s="0"/>
       <c r="N85" s="0"/>
@@ -3187,36 +3187,36 @@
         <v>330</v>
       </c>
       <c r="D86" s="1" t="n">
-        <v>8911</v>
+        <v>10328</v>
       </c>
       <c r="E86" s="12" t="n">
         <f aca="false">D86/65.27</f>
-        <v>136.525203002911</v>
+        <v>158.23502374751</v>
       </c>
       <c r="F86" s="12" t="n">
-        <v>833</v>
+        <v>1417</v>
       </c>
       <c r="G86" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H86" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,G86)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I86" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J86" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,I86)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K86" s="13" t="n">
         <f aca="false">$B$82+1</f>
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="L86" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K86,G86)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M86" s="0"/>
       <c r="N86" s="0"/>
@@ -3232,37 +3232,36 @@
         <v>50</v>
       </c>
       <c r="D87" s="12" t="n">
-        <v>477</v>
+        <v>591</v>
       </c>
       <c r="E87" s="12" t="n">
         <f aca="false">D87/10.36</f>
-        <v>46.042471042471</v>
+        <v>57.0463320463321</v>
       </c>
       <c r="F87" s="12" t="n">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="G87" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H87" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,G87)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I87" s="13" t="n">
-        <f aca="false">$B$82+1</f>
         <v>43928</v>
       </c>
       <c r="J87" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,I87)</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K87" s="13" t="n">
         <f aca="false">$B$82+1</f>
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="L87" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K87,G87)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M87" s="0"/>
       <c r="N87" s="0"/>
@@ -3278,37 +3277,36 @@
         <v>330</v>
       </c>
       <c r="D88" s="1" t="n">
-        <v>5373</v>
+        <v>6159</v>
       </c>
       <c r="E88" s="12" t="n">
         <f aca="false">D88/67.79</f>
-        <v>79.2594777990854</v>
+        <v>90.8541082755569</v>
       </c>
       <c r="F88" s="12" t="n">
-        <v>439</v>
+        <v>786</v>
       </c>
       <c r="G88" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H88" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,G88)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I88" s="13" t="n">
-        <f aca="false">$B$82+1</f>
-        <v>43928</v>
+        <v>43919</v>
       </c>
       <c r="J88" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,I88)</f>
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K88" s="13" t="n">
         <f aca="false">$B$82+1</f>
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="L88" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K88,G88)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M88" s="0"/>
       <c r="N88" s="0"/>
@@ -3324,37 +3322,36 @@
         <v>1660</v>
       </c>
       <c r="D89" s="1" t="n">
-        <v>10871</v>
+        <v>12848</v>
       </c>
       <c r="E89" s="12" t="n">
         <f aca="false">D89/331</f>
-        <v>32.8429003021148</v>
+        <v>38.8157099697885</v>
       </c>
       <c r="F89" s="12" t="n">
-        <v>1255</v>
+        <v>1970</v>
       </c>
       <c r="G89" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H89" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,G89)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I89" s="13" t="n">
-        <f aca="false">$B$82+1</f>
-        <v>43928</v>
+        <v>43921</v>
       </c>
       <c r="J89" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,I89)</f>
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K89" s="13" t="n">
         <f aca="false">$B$82+1</f>
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="L89" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K89,G89)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M89" s="0"/>
       <c r="N89" s="0"/>
@@ -3370,37 +3367,36 @@
         <v>414</v>
       </c>
       <c r="D90" s="1" t="n">
-        <v>1810</v>
+        <v>2016</v>
       </c>
       <c r="E90" s="12" t="n">
         <f aca="false">D90/83.784</f>
-        <v>21.6031700563353</v>
+        <v>24.0618733887138</v>
       </c>
       <c r="F90" s="12" t="n">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="G90" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H90" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,G90)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I90" s="13" t="n">
-        <f aca="false">$B$82+1</f>
-        <v>43928</v>
+        <v>43920</v>
       </c>
       <c r="J90" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,I90)</f>
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K90" s="13" t="n">
         <f aca="false">$B$82+1</f>
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="L90" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K90,G90)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M90" s="0"/>
       <c r="N90" s="0"/>
@@ -3465,7 +3461,7 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="7" t="n">
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="D94" s="0"/>
       <c r="E94" s="8" t="s">
@@ -3542,36 +3538,36 @@
         <v>300</v>
       </c>
       <c r="D96" s="1" t="n">
-        <v>15887</v>
+        <v>16523</v>
       </c>
       <c r="E96" s="12" t="n">
         <f aca="false">D96/60.48</f>
-        <v>262.681878306878</v>
+        <v>273.197751322751</v>
       </c>
       <c r="F96" s="12" t="n">
-        <v>525</v>
+        <v>636</v>
       </c>
       <c r="G96" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H96" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,G96)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I96" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J96" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,I96)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K96" s="13" t="n">
         <f aca="false">$B$94+1</f>
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="L96" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K96,G96)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M96" s="0"/>
       <c r="N96" s="0"/>
@@ -3587,36 +3583,36 @@
         <v>230</v>
       </c>
       <c r="D97" s="1" t="n">
-        <v>12641</v>
+        <v>13341</v>
       </c>
       <c r="E97" s="12" t="n">
         <f aca="false">D97/46.75</f>
-        <v>270.395721925134</v>
+        <v>285.368983957219</v>
       </c>
       <c r="F97" s="12" t="n">
-        <v>694</v>
+        <v>700</v>
       </c>
       <c r="G97" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H97" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,G97)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I97" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J97" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,I97)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K97" s="13" t="n">
         <f aca="false">$B$94+1</f>
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="L97" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K97,G97)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M97" s="0"/>
       <c r="N97" s="0"/>
@@ -3632,36 +3628,36 @@
         <v>330</v>
       </c>
       <c r="D98" s="1" t="n">
-        <v>8078</v>
+        <v>8911</v>
       </c>
       <c r="E98" s="12" t="n">
         <f aca="false">D98/65.27</f>
-        <v>123.762831316072</v>
+        <v>136.525203002911</v>
       </c>
       <c r="F98" s="12" t="n">
-        <v>518</v>
+        <v>833</v>
       </c>
       <c r="G98" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H98" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,G98)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I98" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J98" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,I98)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K98" s="13" t="n">
         <f aca="false">$B$94+1</f>
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="L98" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K98,G98)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M98" s="0"/>
       <c r="N98" s="0"/>
@@ -3677,25 +3673,25 @@
         <v>50</v>
       </c>
       <c r="D99" s="12" t="n">
-        <v>401</v>
+        <v>477</v>
       </c>
       <c r="E99" s="12" t="n">
         <f aca="false">D99/10.36</f>
-        <v>38.7065637065637</v>
+        <v>46.042471042471</v>
       </c>
       <c r="F99" s="12" t="n">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="G99" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H99" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,G99)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I99" s="13" t="n">
         <f aca="false">$B$94+1</f>
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="J99" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,I99)</f>
@@ -3703,11 +3699,11 @@
       </c>
       <c r="K99" s="13" t="n">
         <f aca="false">$B$94+1</f>
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="L99" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K99,G99)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M99" s="0"/>
       <c r="N99" s="0"/>
@@ -3723,25 +3719,25 @@
         <v>330</v>
       </c>
       <c r="D100" s="1" t="n">
-        <v>4934</v>
+        <v>5373</v>
       </c>
       <c r="E100" s="12" t="n">
         <f aca="false">D100/67.79</f>
-        <v>72.7835964006491</v>
+        <v>79.2594777990854</v>
       </c>
       <c r="F100" s="12" t="n">
-        <v>621</v>
+        <v>439</v>
       </c>
       <c r="G100" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H100" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,G100)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I100" s="13" t="n">
         <f aca="false">$B$94+1</f>
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="J100" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,I100)</f>
@@ -3749,11 +3745,11 @@
       </c>
       <c r="K100" s="13" t="n">
         <f aca="false">$B$94+1</f>
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="L100" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K100,G100)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M100" s="0"/>
       <c r="N100" s="0"/>
@@ -3769,25 +3765,25 @@
         <v>1660</v>
       </c>
       <c r="D101" s="1" t="n">
-        <v>9616</v>
+        <v>10871</v>
       </c>
       <c r="E101" s="12" t="n">
         <f aca="false">D101/331</f>
-        <v>29.0513595166163</v>
+        <v>32.8429003021148</v>
       </c>
       <c r="F101" s="12" t="n">
-        <v>1165</v>
+        <v>1255</v>
       </c>
       <c r="G101" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H101" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,G101)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I101" s="13" t="n">
         <f aca="false">$B$94+1</f>
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="J101" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,I101)</f>
@@ -3795,11 +3791,11 @@
       </c>
       <c r="K101" s="13" t="n">
         <f aca="false">$B$94+1</f>
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="L101" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K101,G101)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M101" s="0"/>
       <c r="N101" s="0"/>
@@ -3815,25 +3811,25 @@
         <v>414</v>
       </c>
       <c r="D102" s="1" t="n">
-        <v>1584</v>
+        <v>1810</v>
       </c>
       <c r="E102" s="12" t="n">
         <f aca="false">D102/83.784</f>
-        <v>18.9057576625609</v>
+        <v>21.6031700563353</v>
       </c>
       <c r="F102" s="12" t="n">
-        <v>140</v>
+        <v>226</v>
       </c>
       <c r="G102" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H102" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,G102)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I102" s="13" t="n">
         <f aca="false">$B$94+1</f>
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="J102" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,I102)</f>
@@ -3841,11 +3837,11 @@
       </c>
       <c r="K102" s="13" t="n">
         <f aca="false">$B$94+1</f>
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="L102" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K102,G102)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M102" s="0"/>
       <c r="N102" s="0"/>
@@ -3910,7 +3906,7 @@
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="7" t="n">
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="D106" s="0"/>
       <c r="E106" s="8" t="s">
@@ -3987,36 +3983,36 @@
         <v>300</v>
       </c>
       <c r="D108" s="1" t="n">
-        <v>15362</v>
+        <v>15887</v>
       </c>
       <c r="E108" s="12" t="n">
         <f aca="false">D108/60.48</f>
-        <v>254.001322751323</v>
+        <v>262.681878306878</v>
       </c>
       <c r="F108" s="12" t="n">
-        <v>681</v>
+        <v>525</v>
       </c>
       <c r="G108" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H108" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,G108)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I108" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J108" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,I108)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K108" s="13" t="n">
         <f aca="false">$B$106+1</f>
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="L108" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K108,G108)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M108" s="0"/>
       <c r="N108" s="0"/>
@@ -4032,36 +4028,36 @@
         <v>230</v>
       </c>
       <c r="D109" s="1" t="n">
-        <v>11947</v>
+        <v>12641</v>
       </c>
       <c r="E109" s="12" t="n">
         <f aca="false">D109/46.75</f>
-        <v>255.550802139037</v>
+        <v>270.395721925134</v>
       </c>
       <c r="F109" s="12" t="n">
-        <v>749</v>
+        <v>694</v>
       </c>
       <c r="G109" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H109" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,G109)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I109" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J109" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,I109)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K109" s="13" t="n">
         <f aca="false">$B$106+1</f>
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="L109" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K109,G109)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M109" s="0"/>
       <c r="N109" s="0"/>
@@ -4077,36 +4073,36 @@
         <v>330</v>
       </c>
       <c r="D110" s="1" t="n">
-        <v>7560</v>
+        <v>8078</v>
       </c>
       <c r="E110" s="12" t="n">
         <f aca="false">D110/65.27</f>
-        <v>115.826566569634</v>
+        <v>123.762831316072</v>
       </c>
       <c r="F110" s="12" t="n">
-        <v>1053</v>
+        <v>518</v>
       </c>
       <c r="G110" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H110" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,G110)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I110" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J110" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,I110)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K110" s="13" t="n">
         <f aca="false">$B$106+1</f>
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="L110" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K110,G110)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M110" s="0"/>
       <c r="N110" s="0"/>
@@ -4122,25 +4118,25 @@
         <v>50</v>
       </c>
       <c r="D111" s="12" t="n">
-        <v>373</v>
+        <v>401</v>
       </c>
       <c r="E111" s="12" t="n">
         <f aca="false">D111/10.36</f>
-        <v>36.003861003861</v>
+        <v>38.7065637065637</v>
       </c>
       <c r="F111" s="12" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="G111" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H111" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,G111)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I111" s="13" t="n">
         <f aca="false">$B$106+1</f>
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="J111" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,I111)</f>
@@ -4148,11 +4144,11 @@
       </c>
       <c r="K111" s="13" t="n">
         <f aca="false">$B$106+1</f>
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="L111" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K111,G111)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M111" s="0"/>
       <c r="N111" s="0"/>
@@ -4168,25 +4164,25 @@
         <v>330</v>
       </c>
       <c r="D112" s="1" t="n">
-        <v>4313</v>
+        <v>4934</v>
       </c>
       <c r="E112" s="12" t="n">
         <f aca="false">D112/67.79</f>
-        <v>63.6229532379407</v>
+        <v>72.7835964006491</v>
       </c>
       <c r="F112" s="12" t="n">
-        <v>708</v>
+        <v>621</v>
       </c>
       <c r="G112" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H112" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,G112)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I112" s="13" t="n">
         <f aca="false">$B$106+1</f>
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="J112" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,I112)</f>
@@ -4194,11 +4190,11 @@
       </c>
       <c r="K112" s="13" t="n">
         <f aca="false">$B$106+1</f>
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="L112" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K112,G112)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M112" s="0"/>
       <c r="N112" s="0"/>
@@ -4214,25 +4210,25 @@
         <v>1660</v>
       </c>
       <c r="D113" s="1" t="n">
-        <v>8451</v>
+        <v>9616</v>
       </c>
       <c r="E113" s="12" t="n">
         <f aca="false">D113/331</f>
-        <v>25.5317220543807</v>
+        <v>29.0513595166163</v>
       </c>
       <c r="F113" s="12" t="n">
-        <v>1330</v>
+        <v>1165</v>
       </c>
       <c r="G113" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H113" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,G113)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I113" s="13" t="n">
         <f aca="false">$B$106+1</f>
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="J113" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,I113)</f>
@@ -4240,11 +4236,11 @@
       </c>
       <c r="K113" s="13" t="n">
         <f aca="false">$B$106+1</f>
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="L113" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K113,G113)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M113" s="0"/>
       <c r="N113" s="0"/>
@@ -4260,25 +4256,25 @@
         <v>414</v>
       </c>
       <c r="D114" s="1" t="n">
-        <v>1444</v>
+        <v>1584</v>
       </c>
       <c r="E114" s="12" t="n">
         <f aca="false">D114/83.784</f>
-        <v>17.2347942327891</v>
+        <v>18.9057576625609</v>
       </c>
       <c r="F114" s="12" t="n">
-        <v>169</v>
+        <v>140</v>
       </c>
       <c r="G114" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H114" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,G114)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I114" s="13" t="n">
         <f aca="false">$B$106+1</f>
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="J114" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,I114)</f>
@@ -4286,11 +4282,11 @@
       </c>
       <c r="K114" s="13" t="n">
         <f aca="false">$B$106+1</f>
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="L114" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K114,G114)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M114" s="0"/>
       <c r="N114" s="0"/>
@@ -4355,7 +4351,7 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B118" s="7" t="n">
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="D118" s="0"/>
       <c r="E118" s="8" t="s">
@@ -4432,36 +4428,36 @@
         <v>300</v>
       </c>
       <c r="D120" s="1" t="n">
-        <v>14681</v>
+        <v>15362</v>
       </c>
       <c r="E120" s="12" t="n">
         <f aca="false">D120/60.48</f>
-        <v>242.741402116402</v>
+        <v>254.001322751323</v>
       </c>
       <c r="F120" s="12" t="n">
-        <v>766</v>
+        <v>681</v>
       </c>
       <c r="G120" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H120" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$118,G120)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I120" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J120" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$118,I120)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K120" s="13" t="n">
         <f aca="false">$B$118+1</f>
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="L120" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K120,G120)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M120" s="0"/>
       <c r="N120" s="0"/>
@@ -4477,36 +4473,36 @@
         <v>230</v>
       </c>
       <c r="D121" s="1" t="n">
-        <v>11198</v>
+        <v>11947</v>
       </c>
       <c r="E121" s="12" t="n">
         <f aca="false">D121/46.75</f>
-        <v>239.529411764706</v>
+        <v>255.550802139037</v>
       </c>
       <c r="F121" s="12" t="n">
-        <v>850</v>
+        <v>749</v>
       </c>
       <c r="G121" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H121" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$130,G121)</f>
-        <v>16</v>
+        <f aca="false">_xlfn.DAYS($B$118,G121)</f>
+        <v>18</v>
       </c>
       <c r="I121" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J121" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$118,I121)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K121" s="13" t="n">
         <f aca="false">$B$118+1</f>
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="L121" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K121,G121)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M121" s="0"/>
       <c r="N121" s="0"/>
@@ -4522,36 +4518,36 @@
         <v>330</v>
       </c>
       <c r="D122" s="1" t="n">
-        <v>6507</v>
+        <v>7560</v>
       </c>
       <c r="E122" s="12" t="n">
         <f aca="false">D122/65.27</f>
-        <v>99.6935805117206</v>
+        <v>115.826566569634</v>
       </c>
       <c r="F122" s="12" t="n">
-        <v>1120</v>
+        <v>1053</v>
       </c>
       <c r="G122" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H122" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$130,G122)</f>
-        <v>11</v>
+        <f aca="false">_xlfn.DAYS($B$118,G122)</f>
+        <v>13</v>
       </c>
       <c r="I122" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J122" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$118,I122)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K122" s="13" t="n">
         <f aca="false">$B$118+1</f>
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="L122" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K122,G122)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M122" s="0"/>
       <c r="N122" s="0"/>
@@ -4567,25 +4563,25 @@
         <v>50</v>
       </c>
       <c r="D123" s="12" t="n">
-        <v>358</v>
+        <v>373</v>
       </c>
       <c r="E123" s="12" t="n">
         <f aca="false">D123/10.36</f>
-        <v>34.5559845559846</v>
+        <v>36.003861003861</v>
       </c>
       <c r="F123" s="12" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="G123" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H123" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$130,G123)</f>
-        <v>8</v>
+        <f aca="false">_xlfn.DAYS($B$118,G123)</f>
+        <v>10</v>
       </c>
       <c r="I123" s="13" t="n">
         <f aca="false">$B$118+1</f>
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="J123" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$118,I123)</f>
@@ -4593,11 +4589,11 @@
       </c>
       <c r="K123" s="13" t="n">
         <f aca="false">$B$118+1</f>
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="L123" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K123,G123)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M123" s="0"/>
       <c r="N123" s="0"/>
@@ -4613,25 +4609,25 @@
         <v>330</v>
       </c>
       <c r="D124" s="1" t="n">
-        <v>3605</v>
+        <v>4313</v>
       </c>
       <c r="E124" s="12" t="n">
         <f aca="false">D124/67.79</f>
-        <v>53.1789349461573</v>
+        <v>63.6229532379407</v>
       </c>
       <c r="F124" s="12" t="n">
-        <v>684</v>
+        <v>708</v>
       </c>
       <c r="G124" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H124" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$130,G124)</f>
-        <v>7</v>
+        <f aca="false">_xlfn.DAYS($B$118,G124)</f>
+        <v>9</v>
       </c>
       <c r="I124" s="13" t="n">
         <f aca="false">$B$118+1</f>
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="J124" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$118,I124)</f>
@@ -4639,11 +4635,11 @@
       </c>
       <c r="K124" s="13" t="n">
         <f aca="false">$B$118+1</f>
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="L124" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K124,G124)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M124" s="0"/>
       <c r="N124" s="0"/>
@@ -4659,25 +4655,25 @@
         <v>1660</v>
       </c>
       <c r="D125" s="1" t="n">
-        <v>7121</v>
+        <v>8451</v>
       </c>
       <c r="E125" s="12" t="n">
         <f aca="false">D125/331</f>
-        <v>21.5135951661631</v>
+        <v>25.5317220543807</v>
       </c>
       <c r="F125" s="12" t="n">
-        <v>1045</v>
+        <v>1330</v>
       </c>
       <c r="G125" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H125" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$130,G125)</f>
-        <v>6</v>
+        <f aca="false">_xlfn.DAYS($B$118,G125)</f>
+        <v>8</v>
       </c>
       <c r="I125" s="13" t="n">
         <f aca="false">$B$118+1</f>
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="J125" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$118,I125)</f>
@@ -4685,11 +4681,11 @@
       </c>
       <c r="K125" s="13" t="n">
         <f aca="false">$B$118+1</f>
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="L125" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K125,G125)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M125" s="0"/>
       <c r="N125" s="0"/>
@@ -4705,25 +4701,25 @@
         <v>414</v>
       </c>
       <c r="D126" s="1" t="n">
-        <v>1275</v>
+        <v>1444</v>
       </c>
       <c r="E126" s="12" t="n">
         <f aca="false">D126/83.784</f>
-        <v>15.2177026639931</v>
+        <v>17.2347942327891</v>
       </c>
       <c r="F126" s="12" t="n">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G126" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H126" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$130,G126)</f>
-        <v>5</v>
+        <f aca="false">_xlfn.DAYS($B$118,G126)</f>
+        <v>7</v>
       </c>
       <c r="I126" s="13" t="n">
         <f aca="false">$B$118+1</f>
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="J126" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$118,I126)</f>
@@ -4731,11 +4727,11 @@
       </c>
       <c r="K126" s="13" t="n">
         <f aca="false">$B$118+1</f>
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="L126" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K126,G126)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M126" s="0"/>
       <c r="N126" s="0"/>
@@ -4800,7 +4796,7 @@
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B130" s="7" t="n">
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="D130" s="0"/>
       <c r="E130" s="8" t="s">
@@ -4877,36 +4873,36 @@
         <v>300</v>
       </c>
       <c r="D132" s="1" t="n">
-        <v>13915</v>
+        <v>14681</v>
       </c>
       <c r="E132" s="12" t="n">
         <f aca="false">D132/60.48</f>
-        <v>230.076058201058</v>
+        <v>242.741402116402</v>
       </c>
       <c r="F132" s="12" t="n">
-        <v>760</v>
+        <v>766</v>
       </c>
       <c r="G132" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H132" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$130,G132)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I132" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J132" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$130,I132)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K132" s="13" t="n">
         <f aca="false">$B$130+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="L132" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K132,G132)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M132" s="0"/>
       <c r="N132" s="0"/>
@@ -4922,20 +4918,20 @@
         <v>230</v>
       </c>
       <c r="D133" s="1" t="n">
-        <v>10348</v>
+        <v>11198</v>
       </c>
       <c r="E133" s="12" t="n">
         <f aca="false">D133/46.75</f>
-        <v>221.347593582888</v>
+        <v>239.529411764706</v>
       </c>
       <c r="F133" s="12" t="n">
-        <v>961</v>
+        <v>850</v>
       </c>
       <c r="G133" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H133" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$130,G133)</f>
+        <f aca="false">_xlfn.DAYS($B$142,G133)</f>
         <v>16</v>
       </c>
       <c r="I133" s="13" t="n">
@@ -4943,15 +4939,15 @@
       </c>
       <c r="J133" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$130,I133)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K133" s="13" t="n">
         <f aca="false">$B$130+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="L133" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K133,G133)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M133" s="0"/>
       <c r="N133" s="0"/>
@@ -4967,20 +4963,20 @@
         <v>330</v>
       </c>
       <c r="D134" s="1" t="n">
-        <v>5387</v>
+        <v>6507</v>
       </c>
       <c r="E134" s="12" t="n">
         <f aca="false">D134/65.27</f>
-        <v>82.5340891680711</v>
+        <v>99.6935805117206</v>
       </c>
       <c r="F134" s="12" t="n">
-        <v>1355</v>
+        <v>1120</v>
       </c>
       <c r="G134" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H134" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$130,G134)</f>
+        <f aca="false">_xlfn.DAYS($B$142,G134)</f>
         <v>11</v>
       </c>
       <c r="I134" s="13" t="n">
@@ -4988,15 +4984,15 @@
       </c>
       <c r="J134" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$130,I134)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K134" s="13" t="n">
         <f aca="false">$B$130+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="L134" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K134,G134)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M134" s="0"/>
       <c r="N134" s="0"/>
@@ -5012,25 +5008,25 @@
         <v>50</v>
       </c>
       <c r="D135" s="12" t="n">
-        <v>308</v>
+        <v>358</v>
       </c>
       <c r="E135" s="12" t="n">
         <f aca="false">D135/10.36</f>
-        <v>29.7297297297297</v>
+        <v>34.5559845559846</v>
       </c>
       <c r="F135" s="12" t="n">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="G135" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H135" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$130,G135)</f>
+        <f aca="false">_xlfn.DAYS($B$142,G135)</f>
         <v>8</v>
       </c>
       <c r="I135" s="13" t="n">
         <f aca="false">$B$130+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="J135" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$130,I135)</f>
@@ -5038,11 +5034,11 @@
       </c>
       <c r="K135" s="13" t="n">
         <f aca="false">$B$130+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="L135" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K135,G135)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M135" s="0"/>
       <c r="N135" s="0"/>
@@ -5058,25 +5054,25 @@
         <v>330</v>
       </c>
       <c r="D136" s="1" t="n">
-        <v>2921</v>
+        <v>3605</v>
       </c>
       <c r="E136" s="12" t="n">
         <f aca="false">D136/67.79</f>
-        <v>43.0889511727393</v>
+        <v>53.1789349461573</v>
       </c>
       <c r="F136" s="12" t="n">
-        <v>569</v>
+        <v>684</v>
       </c>
       <c r="G136" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H136" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$130,G136)</f>
+        <f aca="false">_xlfn.DAYS($B$142,G136)</f>
         <v>7</v>
       </c>
       <c r="I136" s="13" t="n">
         <f aca="false">$B$130+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="J136" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$130,I136)</f>
@@ -5084,11 +5080,11 @@
       </c>
       <c r="K136" s="13" t="n">
         <f aca="false">$B$130+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="L136" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K136,G136)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M136" s="0"/>
       <c r="N136" s="0"/>
@@ -5104,25 +5100,25 @@
         <v>1660</v>
       </c>
       <c r="D137" s="1" t="n">
-        <v>6076</v>
+        <v>7121</v>
       </c>
       <c r="E137" s="12" t="n">
         <f aca="false">D137/331</f>
-        <v>18.3564954682779</v>
+        <v>21.5135951661631</v>
       </c>
       <c r="F137" s="12" t="n">
-        <v>969</v>
+        <v>1045</v>
       </c>
       <c r="G137" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H137" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$130,G137)</f>
+        <f aca="false">_xlfn.DAYS($B$142,G137)</f>
         <v>6</v>
       </c>
       <c r="I137" s="13" t="n">
         <f aca="false">$B$130+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="J137" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$130,I137)</f>
@@ -5130,11 +5126,11 @@
       </c>
       <c r="K137" s="13" t="n">
         <f aca="false">$B$130+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="L137" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K137,G137)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M137" s="0"/>
       <c r="N137" s="0"/>
@@ -5150,25 +5146,25 @@
         <v>414</v>
       </c>
       <c r="D138" s="1" t="n">
-        <v>1107</v>
+        <v>1275</v>
       </c>
       <c r="E138" s="12" t="n">
         <f aca="false">D138/83.784</f>
-        <v>13.212546548267</v>
+        <v>15.2177026639931</v>
       </c>
       <c r="F138" s="12" t="n">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="G138" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H138" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$130,G138)</f>
+        <f aca="false">_xlfn.DAYS($B$142,G138)</f>
         <v>5</v>
       </c>
       <c r="I138" s="13" t="n">
         <f aca="false">$B$130+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="J138" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$130,I138)</f>
@@ -5176,11 +5172,11 @@
       </c>
       <c r="K138" s="13" t="n">
         <f aca="false">$B$130+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="L138" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K138,G138)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M138" s="0"/>
       <c r="N138" s="0"/>
@@ -5245,7 +5241,7 @@
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B142" s="7" t="n">
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="D142" s="0"/>
       <c r="E142" s="8" t="s">
@@ -5322,36 +5318,36 @@
         <v>300</v>
       </c>
       <c r="D144" s="1" t="n">
-        <v>13155</v>
+        <v>13915</v>
       </c>
       <c r="E144" s="12" t="n">
         <f aca="false">D144/60.48</f>
-        <v>217.509920634921</v>
+        <v>230.076058201058</v>
       </c>
       <c r="F144" s="12" t="n">
-        <v>727</v>
+        <v>760</v>
       </c>
       <c r="G144" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H144" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$142,G144)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I144" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J144" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$142,I144)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K144" s="13" t="n">
         <f aca="false">$B$142+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="L144" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K144,G144)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M144" s="0"/>
       <c r="N144" s="0"/>
@@ -5367,36 +5363,36 @@
         <v>230</v>
       </c>
       <c r="D145" s="1" t="n">
-        <v>9387</v>
+        <v>10348</v>
       </c>
       <c r="E145" s="12" t="n">
         <f aca="false">D145/46.75</f>
-        <v>200.791443850267</v>
+        <v>221.347593582888</v>
       </c>
       <c r="F145" s="12" t="n">
-        <v>923</v>
+        <v>961</v>
       </c>
       <c r="G145" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H145" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$142,G145)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I145" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J145" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$142,I145)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K145" s="13" t="n">
         <f aca="false">$B$142+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="L145" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K145,G145)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M145" s="0"/>
       <c r="N145" s="0"/>
@@ -5412,36 +5408,36 @@
         <v>330</v>
       </c>
       <c r="D146" s="1" t="n">
-        <v>4032</v>
+        <v>5387</v>
       </c>
       <c r="E146" s="12" t="n">
         <f aca="false">D146/65.27</f>
-        <v>61.7741688371381</v>
+        <v>82.5340891680711</v>
       </c>
       <c r="F146" s="12" t="n">
-        <v>509</v>
+        <v>1355</v>
       </c>
       <c r="G146" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H146" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$142,G146)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I146" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J146" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$142,I146)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K146" s="13" t="n">
         <f aca="false">$B$142+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="L146" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K146,G146)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M146" s="0"/>
       <c r="N146" s="0"/>
@@ -5457,25 +5453,25 @@
         <v>50</v>
       </c>
       <c r="D147" s="12" t="n">
-        <v>239</v>
+        <v>308</v>
       </c>
       <c r="E147" s="12" t="n">
         <f aca="false">D147/10.36</f>
-        <v>23.0694980694981</v>
+        <v>29.7297297297297</v>
       </c>
       <c r="F147" s="12" t="n">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="G147" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H147" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$142,G147)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I147" s="13" t="n">
         <f aca="false">$B$142+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="J147" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$142,I147)</f>
@@ -5483,11 +5479,11 @@
       </c>
       <c r="K147" s="13" t="n">
         <f aca="false">$B$142+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="L147" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K147,G147)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M147" s="0"/>
       <c r="N147" s="0"/>
@@ -5503,25 +5499,25 @@
         <v>330</v>
       </c>
       <c r="D148" s="1" t="n">
-        <v>2352</v>
+        <v>2921</v>
       </c>
       <c r="E148" s="12" t="n">
         <f aca="false">D148/67.79</f>
-        <v>34.695382799823</v>
+        <v>43.0889511727393</v>
       </c>
       <c r="F148" s="12" t="n">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="G148" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H148" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$142,G148)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I148" s="13" t="n">
         <f aca="false">$B$142+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="J148" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$142,I148)</f>
@@ -5529,11 +5525,11 @@
       </c>
       <c r="K148" s="13" t="n">
         <f aca="false">$B$142+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="L148" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K148,G148)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M148" s="0"/>
       <c r="N148" s="0"/>
@@ -5549,25 +5545,25 @@
         <v>1660</v>
       </c>
       <c r="D149" s="1" t="n">
-        <v>5102</v>
+        <v>6076</v>
       </c>
       <c r="E149" s="12" t="n">
         <f aca="false">D149/331</f>
-        <v>15.4138972809668</v>
+        <v>18.3564954682779</v>
       </c>
       <c r="F149" s="12" t="n">
-        <v>1049</v>
+        <v>969</v>
       </c>
       <c r="G149" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H149" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$142,G149)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I149" s="13" t="n">
         <f aca="false">$B$142+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="J149" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$142,I149)</f>
@@ -5575,11 +5571,11 @@
       </c>
       <c r="K149" s="13" t="n">
         <f aca="false">$B$142+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="L149" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K149,G149)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M149" s="0"/>
       <c r="N149" s="0"/>
@@ -5595,25 +5591,25 @@
         <v>414</v>
       </c>
       <c r="D150" s="1" t="n">
-        <v>931</v>
+        <v>1107</v>
       </c>
       <c r="E150" s="12" t="n">
         <f aca="false">D150/83.784</f>
-        <v>11.1119068079824</v>
+        <v>13.212546548267</v>
       </c>
       <c r="F150" s="12" t="n">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="G150" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H150" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$142,G150)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I150" s="13" t="n">
         <f aca="false">$B$142+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="J150" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$142,I150)</f>
@@ -5621,11 +5617,11 @@
       </c>
       <c r="K150" s="13" t="n">
         <f aca="false">$B$142+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="L150" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K150,G150)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M150" s="0"/>
       <c r="N150" s="0"/>
@@ -5690,7 +5686,7 @@
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B154" s="7" t="n">
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="D154" s="0"/>
       <c r="E154" s="8" t="s">
@@ -5767,36 +5763,36 @@
         <v>300</v>
       </c>
       <c r="D156" s="1" t="n">
-        <v>12428</v>
+        <v>13155</v>
       </c>
       <c r="E156" s="12" t="n">
         <f aca="false">D156/60.48</f>
-        <v>205.489417989418</v>
+        <v>217.509920634921</v>
       </c>
       <c r="F156" s="12" t="n">
-        <v>837</v>
+        <v>727</v>
       </c>
       <c r="G156" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H156" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$154,G156)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I156" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J156" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$154,I156)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K156" s="13" t="n">
         <f aca="false">$B$154+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="L156" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K156,G156)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M156" s="0"/>
       <c r="N156" s="0"/>
@@ -5812,36 +5808,36 @@
         <v>230</v>
       </c>
       <c r="D157" s="1" t="n">
-        <v>8464</v>
+        <v>9387</v>
       </c>
       <c r="E157" s="12" t="n">
         <f aca="false">D157/46.75</f>
-        <v>181.048128342246</v>
+        <v>200.791443850267</v>
       </c>
       <c r="F157" s="12" t="n">
-        <v>748</v>
+        <v>923</v>
       </c>
       <c r="G157" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H157" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$154,G157)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I157" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J157" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$154,I157)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K157" s="13" t="n">
         <f aca="false">$B$154+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="L157" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K157,G157)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M157" s="0"/>
       <c r="N157" s="0"/>
@@ -5857,36 +5853,36 @@
         <v>330</v>
       </c>
       <c r="D158" s="1" t="n">
-        <v>3523</v>
+        <v>4032</v>
       </c>
       <c r="E158" s="12" t="n">
         <f aca="false">D158/65.27</f>
-        <v>53.9757928604259</v>
+        <v>61.7741688371381</v>
       </c>
       <c r="F158" s="12" t="n">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="G158" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H158" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$154,G158)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I158" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J158" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$154,I158)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K158" s="13" t="n">
         <f aca="false">$B$154+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="L158" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K158,G158)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M158" s="0"/>
       <c r="N158" s="0"/>
@@ -5902,25 +5898,25 @@
         <v>50</v>
       </c>
       <c r="D159" s="12" t="n">
-        <v>180</v>
+        <v>239</v>
       </c>
       <c r="E159" s="12" t="n">
         <f aca="false">D159/10.36</f>
-        <v>17.3745173745174</v>
+        <v>23.0694980694981</v>
       </c>
       <c r="F159" s="12" t="n">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="G159" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H159" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$154,G159)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I159" s="13" t="n">
         <f aca="false">$B$154+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="J159" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$154,I159)</f>
@@ -5928,11 +5924,11 @@
       </c>
       <c r="K159" s="13" t="n">
         <f aca="false">$B$154+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="L159" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K159,G159)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M159" s="0"/>
       <c r="N159" s="0"/>
@@ -5948,25 +5944,25 @@
         <v>330</v>
       </c>
       <c r="D160" s="1" t="n">
-        <v>1789</v>
+        <v>2352</v>
       </c>
       <c r="E160" s="12" t="n">
         <f aca="false">D160/67.79</f>
-        <v>26.390323056498</v>
+        <v>34.695382799823</v>
       </c>
       <c r="F160" s="12" t="n">
-        <v>381</v>
+        <v>563</v>
       </c>
       <c r="G160" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H160" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$154,G160)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I160" s="13" t="n">
         <f aca="false">$B$154+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="J160" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$154,I160)</f>
@@ -5974,11 +5970,11 @@
       </c>
       <c r="K160" s="13" t="n">
         <f aca="false">$B$154+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="L160" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K160,G160)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M160" s="0"/>
       <c r="N160" s="0"/>
@@ -5994,25 +5990,25 @@
         <v>1660</v>
       </c>
       <c r="D161" s="1" t="n">
-        <v>4053</v>
+        <v>5102</v>
       </c>
       <c r="E161" s="12" t="n">
         <f aca="false">D161/331</f>
-        <v>12.2447129909366</v>
+        <v>15.4138972809668</v>
       </c>
       <c r="F161" s="12" t="n">
-        <v>912</v>
+        <v>1049</v>
       </c>
       <c r="G161" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H161" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$154,G161)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I161" s="13" t="n">
         <f aca="false">$B$154+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="J161" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$154,I161)</f>
@@ -6020,11 +6016,11 @@
       </c>
       <c r="K161" s="13" t="n">
         <f aca="false">$B$154+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="L161" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K161,G161)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M161" s="0"/>
       <c r="N161" s="0"/>
@@ -6040,25 +6036,25 @@
         <v>414</v>
       </c>
       <c r="D162" s="1" t="n">
-        <v>775</v>
+        <v>931</v>
       </c>
       <c r="E162" s="12" t="n">
         <f aca="false">D162/83.784</f>
-        <v>9.24997612909386</v>
+        <v>11.1119068079824</v>
       </c>
       <c r="F162" s="12" t="n">
-        <v>130</v>
+        <v>156</v>
       </c>
       <c r="G162" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H162" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$154,G162)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I162" s="13" t="n">
         <f aca="false">$B$154+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="J162" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$154,I162)</f>
@@ -6066,11 +6062,11 @@
       </c>
       <c r="K162" s="13" t="n">
         <f aca="false">$B$154+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="L162" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K162,G162)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M162" s="0"/>
       <c r="N162" s="0"/>
@@ -6079,15 +6075,16 @@
       <c r="Q162" s="0"/>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C163" s="12"/>
+      <c r="B163" s="4"/>
+      <c r="C163" s="5"/>
       <c r="D163" s="0"/>
-      <c r="E163" s="12"/>
-      <c r="F163" s="12"/>
-      <c r="G163" s="13"/>
+      <c r="E163" s="0"/>
+      <c r="F163" s="0"/>
+      <c r="G163" s="0"/>
       <c r="H163" s="0"/>
-      <c r="I163" s="13"/>
+      <c r="I163" s="0"/>
       <c r="J163" s="0"/>
-      <c r="K163" s="13"/>
+      <c r="K163" s="0"/>
       <c r="L163" s="0"/>
       <c r="M163" s="0"/>
       <c r="N163" s="0"/>
@@ -6096,15 +6093,16 @@
       <c r="Q163" s="0"/>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C164" s="12"/>
+      <c r="B164" s="4"/>
+      <c r="C164" s="5"/>
       <c r="D164" s="0"/>
-      <c r="E164" s="12"/>
-      <c r="F164" s="12"/>
-      <c r="G164" s="13"/>
+      <c r="E164" s="0"/>
+      <c r="F164" s="0"/>
+      <c r="G164" s="0"/>
       <c r="H164" s="0"/>
-      <c r="I164" s="13"/>
+      <c r="I164" s="0"/>
       <c r="J164" s="0"/>
-      <c r="K164" s="13"/>
+      <c r="K164" s="0"/>
       <c r="L164" s="0"/>
       <c r="M164" s="0"/>
       <c r="N164" s="0"/>
@@ -6133,7 +6131,7 @@
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B166" s="7" t="n">
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="D166" s="0"/>
       <c r="E166" s="8" t="s">
@@ -6155,7 +6153,9 @@
       <c r="K166" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="L166" s="0"/>
+      <c r="L166" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="M166" s="0"/>
       <c r="N166" s="0"/>
       <c r="O166" s="0"/>
@@ -6191,7 +6191,9 @@
       <c r="K167" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="L167" s="0"/>
+      <c r="L167" s="8" t="s">
+        <v>47</v>
+      </c>
       <c r="M167" s="0"/>
       <c r="N167" s="0"/>
       <c r="O167" s="0"/>
@@ -6206,34 +6208,37 @@
         <v>300</v>
       </c>
       <c r="D168" s="1" t="n">
-        <v>11591</v>
+        <v>12428</v>
       </c>
       <c r="E168" s="12" t="n">
         <f aca="false">D168/60.48</f>
-        <v>191.650132275132</v>
+        <v>205.489417989418</v>
       </c>
       <c r="F168" s="12" t="n">
-        <v>812</v>
+        <v>837</v>
       </c>
       <c r="G168" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H168" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$166,G168)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I168" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J168" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$166,I168)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K168" s="13" t="n">
-        <f aca="false">$B$178+1</f>
-        <v>43920</v>
-      </c>
-      <c r="L168" s="0"/>
+        <f aca="false">$B$166+1</f>
+        <v>43922</v>
+      </c>
+      <c r="L168" s="0" t="n">
+        <f aca="false">_xlfn.DAYS(K168,G168)</f>
+        <v>22</v>
+      </c>
       <c r="M168" s="0"/>
       <c r="N168" s="0"/>
       <c r="O168" s="0"/>
@@ -6248,34 +6253,37 @@
         <v>230</v>
       </c>
       <c r="D169" s="1" t="n">
-        <v>7716</v>
+        <v>8464</v>
       </c>
       <c r="E169" s="12" t="n">
         <f aca="false">D169/46.75</f>
-        <v>165.048128342246</v>
+        <v>181.048128342246</v>
       </c>
       <c r="F169" s="12" t="n">
-        <v>913</v>
+        <v>748</v>
       </c>
       <c r="G169" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H169" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$166,G169)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I169" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J169" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$166,I169)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K169" s="13" t="n">
-        <f aca="false">$B$178+1</f>
-        <v>43920</v>
-      </c>
-      <c r="L169" s="0"/>
+        <f aca="false">$B$166+1</f>
+        <v>43922</v>
+      </c>
+      <c r="L169" s="0" t="n">
+        <f aca="false">_xlfn.DAYS(K169,G169)</f>
+        <v>15</v>
+      </c>
       <c r="M169" s="0"/>
       <c r="N169" s="0"/>
       <c r="O169" s="0"/>
@@ -6290,34 +6298,37 @@
         <v>330</v>
       </c>
       <c r="D170" s="1" t="n">
-        <v>3024</v>
+        <v>3523</v>
       </c>
       <c r="E170" s="12" t="n">
         <f aca="false">D170/65.27</f>
-        <v>46.3306266278535</v>
+        <v>53.9757928604259</v>
       </c>
       <c r="F170" s="12" t="n">
-        <v>418</v>
+        <v>499</v>
       </c>
       <c r="G170" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H170" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$166,G170)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I170" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J170" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$166,I170)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K170" s="13" t="n">
-        <f aca="false">$B$178+1</f>
-        <v>43920</v>
-      </c>
-      <c r="L170" s="0"/>
+        <f aca="false">$B$166+1</f>
+        <v>43922</v>
+      </c>
+      <c r="L170" s="0" t="n">
+        <f aca="false">_xlfn.DAYS(K170,G170)</f>
+        <v>10</v>
+      </c>
       <c r="M170" s="0"/>
       <c r="N170" s="0"/>
       <c r="O170" s="0"/>
@@ -6332,35 +6343,38 @@
         <v>50</v>
       </c>
       <c r="D171" s="12" t="n">
-        <v>146</v>
+        <v>180</v>
       </c>
       <c r="E171" s="12" t="n">
         <f aca="false">D171/10.36</f>
-        <v>14.0926640926641</v>
+        <v>17.3745173745174</v>
       </c>
       <c r="F171" s="12" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G171" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H171" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$166,G171)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I171" s="13" t="n">
         <f aca="false">$B$166+1</f>
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="J171" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$166,I171)</f>
         <v>-1</v>
       </c>
       <c r="K171" s="13" t="n">
-        <f aca="false">$B$178+1</f>
-        <v>43920</v>
-      </c>
-      <c r="L171" s="0"/>
+        <f aca="false">$B$166+1</f>
+        <v>43922</v>
+      </c>
+      <c r="L171" s="0" t="n">
+        <f aca="false">_xlfn.DAYS(K171,G171)</f>
+        <v>7</v>
+      </c>
       <c r="M171" s="0"/>
       <c r="N171" s="0"/>
       <c r="O171" s="0"/>
@@ -6375,35 +6389,38 @@
         <v>330</v>
       </c>
       <c r="D172" s="1" t="n">
-        <v>1408</v>
+        <v>1789</v>
       </c>
       <c r="E172" s="12" t="n">
         <f aca="false">D172/67.79</f>
-        <v>20.770025077445</v>
+        <v>26.390323056498</v>
       </c>
       <c r="F172" s="12" t="n">
-        <v>180</v>
+        <v>381</v>
       </c>
       <c r="G172" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H172" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$166,G172)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I172" s="13" t="n">
         <f aca="false">$B$166+1</f>
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="J172" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$166,I172)</f>
         <v>-1</v>
       </c>
       <c r="K172" s="13" t="n">
-        <f aca="false">$B$178+1</f>
-        <v>43920</v>
-      </c>
-      <c r="L172" s="0"/>
+        <f aca="false">$B$166+1</f>
+        <v>43922</v>
+      </c>
+      <c r="L172" s="0" t="n">
+        <f aca="false">_xlfn.DAYS(K172,G172)</f>
+        <v>6</v>
+      </c>
       <c r="M172" s="0"/>
       <c r="N172" s="0"/>
       <c r="O172" s="0"/>
@@ -6418,34 +6435,38 @@
         <v>1660</v>
       </c>
       <c r="D173" s="1" t="n">
-        <v>3141</v>
+        <v>4053</v>
       </c>
       <c r="E173" s="12" t="n">
         <f aca="false">D173/331</f>
-        <v>9.48942598187311</v>
+        <v>12.2447129909366</v>
       </c>
       <c r="F173" s="12" t="n">
-        <v>573</v>
+        <v>912</v>
       </c>
       <c r="G173" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H173" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$166,G173)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I173" s="13" t="n">
-        <v>43920</v>
+        <f aca="false">$B$166+1</f>
+        <v>43922</v>
       </c>
       <c r="J173" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$166,I173)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K173" s="13" t="n">
-        <f aca="false">$B$178+1</f>
-        <v>43920</v>
-      </c>
-      <c r="L173" s="0"/>
+        <f aca="false">$B$166+1</f>
+        <v>43922</v>
+      </c>
+      <c r="L173" s="0" t="n">
+        <f aca="false">_xlfn.DAYS(K173,G173)</f>
+        <v>5</v>
+      </c>
       <c r="M173" s="0"/>
       <c r="N173" s="0"/>
       <c r="O173" s="0"/>
@@ -6460,35 +6481,38 @@
         <v>414</v>
       </c>
       <c r="D174" s="1" t="n">
-        <v>645</v>
+        <v>775</v>
       </c>
       <c r="E174" s="12" t="n">
         <f aca="false">D174/83.784</f>
-        <v>7.69836723002005</v>
+        <v>9.24997612909386</v>
       </c>
       <c r="F174" s="12" t="n">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="G174" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H174" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$166,G174)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I174" s="13" t="n">
         <f aca="false">$B$166+1</f>
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="J174" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$166,I174)</f>
         <v>-1</v>
       </c>
       <c r="K174" s="13" t="n">
-        <f aca="false">$B$178+1</f>
-        <v>43920</v>
-      </c>
-      <c r="L174" s="0"/>
+        <f aca="false">$B$166+1</f>
+        <v>43922</v>
+      </c>
+      <c r="L174" s="0" t="n">
+        <f aca="false">_xlfn.DAYS(K174,G174)</f>
+        <v>4</v>
+      </c>
       <c r="M174" s="0"/>
       <c r="N174" s="0"/>
       <c r="O174" s="0"/>
@@ -6496,16 +6520,15 @@
       <c r="Q174" s="0"/>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B175" s="4"/>
-      <c r="C175" s="5"/>
+      <c r="C175" s="12"/>
       <c r="D175" s="0"/>
-      <c r="E175" s="0"/>
-      <c r="F175" s="0"/>
-      <c r="G175" s="0"/>
+      <c r="E175" s="12"/>
+      <c r="F175" s="12"/>
+      <c r="G175" s="13"/>
       <c r="H175" s="0"/>
-      <c r="I175" s="0"/>
+      <c r="I175" s="13"/>
       <c r="J175" s="0"/>
-      <c r="K175" s="0"/>
+      <c r="K175" s="13"/>
       <c r="L175" s="0"/>
       <c r="M175" s="0"/>
       <c r="N175" s="0"/>
@@ -6514,16 +6537,15 @@
       <c r="Q175" s="0"/>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B176" s="4"/>
-      <c r="C176" s="5"/>
+      <c r="C176" s="12"/>
       <c r="D176" s="0"/>
-      <c r="E176" s="0"/>
-      <c r="F176" s="0"/>
-      <c r="G176" s="0"/>
+      <c r="E176" s="12"/>
+      <c r="F176" s="12"/>
+      <c r="G176" s="13"/>
       <c r="H176" s="0"/>
-      <c r="I176" s="0"/>
+      <c r="I176" s="13"/>
       <c r="J176" s="0"/>
-      <c r="K176" s="0"/>
+      <c r="K176" s="13"/>
       <c r="L176" s="0"/>
       <c r="M176" s="0"/>
       <c r="N176" s="0"/>
@@ -6552,7 +6574,7 @@
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B178" s="7" t="n">
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="D178" s="0"/>
       <c r="E178" s="8" t="s">
@@ -6625,31 +6647,31 @@
         <v>300</v>
       </c>
       <c r="D180" s="1" t="n">
-        <v>10779</v>
+        <v>11591</v>
       </c>
       <c r="E180" s="12" t="n">
         <f aca="false">D180/60.48</f>
-        <v>178.224206349206</v>
+        <v>191.650132275132</v>
       </c>
       <c r="F180" s="12" t="n">
-        <v>756</v>
+        <v>812</v>
       </c>
       <c r="G180" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H180" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$178,G180)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I180" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J180" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$178,I180)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K180" s="13" t="n">
-        <f aca="false">$B$178+1</f>
+        <f aca="false">$B$190+1</f>
         <v>43920</v>
       </c>
       <c r="L180" s="0"/>
@@ -6667,31 +6689,31 @@
         <v>230</v>
       </c>
       <c r="D181" s="1" t="n">
-        <v>6803</v>
+        <v>7716</v>
       </c>
       <c r="E181" s="12" t="n">
         <f aca="false">D181/46.75</f>
-        <v>145.51871657754</v>
+        <v>165.048128342246</v>
       </c>
       <c r="F181" s="12" t="n">
-        <v>821</v>
+        <v>913</v>
       </c>
       <c r="G181" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H181" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$178,G181)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I181" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J181" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$178,I181)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K181" s="13" t="n">
-        <f aca="false">$B$178+1</f>
+        <f aca="false">$B$190+1</f>
         <v>43920</v>
       </c>
       <c r="L181" s="0"/>
@@ -6709,31 +6731,31 @@
         <v>330</v>
       </c>
       <c r="D182" s="1" t="n">
-        <v>2606</v>
+        <v>3024</v>
       </c>
       <c r="E182" s="12" t="n">
         <f aca="false">D182/65.27</f>
-        <v>39.9264593228129</v>
+        <v>46.3306266278535</v>
       </c>
       <c r="F182" s="12" t="n">
-        <v>292</v>
+        <v>418</v>
       </c>
       <c r="G182" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H182" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$178,G182)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I182" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J182" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$178,I182)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K182" s="13" t="n">
-        <f aca="false">$B$178+1</f>
+        <f aca="false">$B$190+1</f>
         <v>43920</v>
       </c>
       <c r="L182" s="0"/>
@@ -6745,38 +6767,38 @@
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B183" s="0" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C183" s="12" t="n">
-        <v>1660</v>
-      </c>
-      <c r="D183" s="1" t="n">
-        <v>2583</v>
+        <v>50</v>
+      </c>
+      <c r="D183" s="12" t="n">
+        <v>146</v>
       </c>
       <c r="E183" s="12" t="n">
-        <f aca="false">D183/331</f>
-        <v>7.8036253776435</v>
+        <f aca="false">D183/10.36</f>
+        <v>14.0926640926641</v>
       </c>
       <c r="F183" s="12" t="n">
-        <v>363</v>
+        <v>36</v>
       </c>
       <c r="G183" s="13" t="n">
-        <v>43917</v>
+        <v>43915</v>
       </c>
       <c r="H183" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$178,G183)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I183" s="13" t="n">
         <f aca="false">$B$178+1</f>
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="J183" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$178,I183)</f>
         <v>-1</v>
       </c>
       <c r="K183" s="13" t="n">
-        <f aca="false">$B$178+1</f>
+        <f aca="false">$B$190+1</f>
         <v>43920</v>
       </c>
       <c r="L183" s="0"/>
@@ -6794,32 +6816,32 @@
         <v>330</v>
       </c>
       <c r="D184" s="1" t="n">
-        <v>1228</v>
+        <v>1408</v>
       </c>
       <c r="E184" s="12" t="n">
         <f aca="false">D184/67.79</f>
-        <v>18.1147661897035</v>
+        <v>20.770025077445</v>
       </c>
       <c r="F184" s="12" t="n">
-        <v>209</v>
+        <v>180</v>
       </c>
       <c r="G184" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H184" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$178,G184)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I184" s="13" t="n">
         <f aca="false">$B$178+1</f>
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="J184" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$178,I184)</f>
         <v>-1</v>
       </c>
       <c r="K184" s="13" t="n">
-        <f aca="false">$B$178+1</f>
+        <f aca="false">$B$190+1</f>
         <v>43920</v>
       </c>
       <c r="L184" s="0"/>
@@ -6831,38 +6853,37 @@
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B185" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C185" s="12" t="n">
-        <v>414</v>
+        <v>1660</v>
       </c>
       <c r="D185" s="1" t="n">
-        <v>541</v>
+        <v>3141</v>
       </c>
       <c r="E185" s="12" t="n">
-        <f aca="false">D185/83.784</f>
-        <v>6.457080110761</v>
+        <f aca="false">D185/331</f>
+        <v>9.48942598187311</v>
       </c>
       <c r="F185" s="12" t="n">
-        <v>108</v>
+        <v>573</v>
       </c>
       <c r="G185" s="13" t="n">
-        <v>43918</v>
+        <v>43917</v>
       </c>
       <c r="H185" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$178,G185)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I185" s="13" t="n">
-        <f aca="false">$B$178+1</f>
         <v>43920</v>
       </c>
       <c r="J185" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$178,I185)</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K185" s="13" t="n">
-        <f aca="false">$B$178+1</f>
+        <f aca="false">$B$190+1</f>
         <v>43920</v>
       </c>
       <c r="L185" s="0"/>
@@ -6874,38 +6895,38 @@
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B186" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C186" s="12" t="n">
-        <v>50</v>
-      </c>
-      <c r="D186" s="12" t="n">
-        <v>110</v>
+        <v>414</v>
+      </c>
+      <c r="D186" s="1" t="n">
+        <v>645</v>
       </c>
       <c r="E186" s="12" t="n">
-        <f aca="false">D186/10.36</f>
-        <v>10.6177606177606</v>
+        <f aca="false">D186/83.784</f>
+        <v>7.69836723002005</v>
       </c>
       <c r="F186" s="12" t="n">
-        <v>5</v>
+        <v>104</v>
       </c>
       <c r="G186" s="13" t="n">
-        <v>43915</v>
+        <v>43918</v>
       </c>
       <c r="H186" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$178,G186)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I186" s="13" t="n">
         <f aca="false">$B$178+1</f>
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="J186" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$178,I186)</f>
         <v>-1</v>
       </c>
       <c r="K186" s="13" t="n">
-        <f aca="false">$B$178+1</f>
+        <f aca="false">$B$190+1</f>
         <v>43920</v>
       </c>
       <c r="L186" s="0"/>
@@ -6972,15 +6993,13 @@
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B190" s="7" t="n">
-        <v>43918</v>
-      </c>
-      <c r="D190" s="8" t="s">
-        <v>12</v>
-      </c>
+        <v>43919</v>
+      </c>
+      <c r="D190" s="0"/>
       <c r="E190" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F190" s="8"/>
+      <c r="F190" s="0"/>
       <c r="G190" s="8" t="s">
         <v>35</v>
       </c>
@@ -7008,8 +7027,8 @@
       <c r="C191" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D191" s="10" t="s">
-        <v>6</v>
+      <c r="D191" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="E191" s="10" t="s">
         <v>41</v>
@@ -7047,32 +7066,32 @@
         <v>300</v>
       </c>
       <c r="D192" s="1" t="n">
-        <v>10023</v>
+        <v>10779</v>
       </c>
       <c r="E192" s="12" t="n">
         <f aca="false">D192/60.48</f>
-        <v>165.724206349206</v>
+        <v>178.224206349206</v>
       </c>
       <c r="F192" s="12" t="n">
-        <v>889</v>
+        <v>756</v>
       </c>
       <c r="G192" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H192" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$190,G192)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I192" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J192" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$202,I192)</f>
-        <v>15</v>
+        <f aca="false">_xlfn.DAYS($B$190,I192)</f>
+        <v>17</v>
       </c>
       <c r="K192" s="13" t="n">
         <f aca="false">$B$190+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="L192" s="0"/>
       <c r="M192" s="0"/>
@@ -7089,32 +7108,32 @@
         <v>230</v>
       </c>
       <c r="D193" s="1" t="n">
-        <v>5982</v>
+        <v>6803</v>
       </c>
       <c r="E193" s="12" t="n">
         <f aca="false">D193/46.75</f>
-        <v>127.957219251337</v>
+        <v>145.51871657754</v>
       </c>
       <c r="F193" s="12" t="n">
-        <v>844</v>
+        <v>821</v>
       </c>
       <c r="G193" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H193" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$190,G193)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I193" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J193" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$202,I193)</f>
-        <v>4</v>
+        <f aca="false">_xlfn.DAYS($B$190,I193)</f>
+        <v>6</v>
       </c>
       <c r="K193" s="13" t="n">
         <f aca="false">$B$190+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="L193" s="0"/>
       <c r="M193" s="0"/>
@@ -7131,32 +7150,32 @@
         <v>330</v>
       </c>
       <c r="D194" s="1" t="n">
-        <v>2314</v>
+        <v>2606</v>
       </c>
       <c r="E194" s="12" t="n">
         <f aca="false">D194/65.27</f>
-        <v>35.4527347939329</v>
+        <v>39.9264593228129</v>
       </c>
       <c r="F194" s="12" t="n">
-        <v>319</v>
+        <v>292</v>
       </c>
       <c r="G194" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H194" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$190,G194)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I194" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J194" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$202,I194)</f>
-        <v>3</v>
+        <f aca="false">_xlfn.DAYS($B$190,I194)</f>
+        <v>5</v>
       </c>
       <c r="K194" s="13" t="n">
         <f aca="false">$B$190+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="L194" s="0"/>
       <c r="M194" s="0"/>
@@ -7173,25 +7192,25 @@
         <v>1660</v>
       </c>
       <c r="D195" s="1" t="n">
-        <v>2221</v>
+        <v>2583</v>
       </c>
       <c r="E195" s="12" t="n">
         <f aca="false">D195/331</f>
-        <v>6.70996978851964</v>
+        <v>7.8036253776435</v>
       </c>
       <c r="F195" s="12" t="n">
-        <v>525</v>
+        <v>363</v>
       </c>
       <c r="G195" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H195" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$190,G195)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I195" s="13" t="n">
         <f aca="false">$B$190+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="J195" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$190,I195)</f>
@@ -7199,7 +7218,7 @@
       </c>
       <c r="K195" s="13" t="n">
         <f aca="false">$B$190+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="L195" s="0"/>
       <c r="M195" s="0"/>
@@ -7216,25 +7235,25 @@
         <v>330</v>
       </c>
       <c r="D196" s="1" t="n">
-        <v>1019</v>
+        <v>1228</v>
       </c>
       <c r="E196" s="12" t="n">
         <f aca="false">D196/67.79</f>
-        <v>15.0317155922702</v>
+        <v>18.1147661897035</v>
       </c>
       <c r="F196" s="12" t="n">
-        <v>260</v>
+        <v>209</v>
       </c>
       <c r="G196" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H196" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$190,G196)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I196" s="13" t="n">
         <f aca="false">$B$190+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="J196" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$190,I196)</f>
@@ -7242,7 +7261,7 @@
       </c>
       <c r="K196" s="13" t="n">
         <f aca="false">$B$190+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="L196" s="0"/>
       <c r="M196" s="0"/>
@@ -7259,25 +7278,25 @@
         <v>414</v>
       </c>
       <c r="D197" s="1" t="n">
-        <v>433</v>
+        <v>541</v>
       </c>
       <c r="E197" s="12" t="n">
         <f aca="false">D197/83.784</f>
-        <v>5.16805117922276</v>
+        <v>6.457080110761</v>
       </c>
       <c r="F197" s="12" t="n">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="G197" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H197" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$190,G197)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I197" s="13" t="n">
         <f aca="false">$B$190+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="J197" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$190,I197)</f>
@@ -7285,7 +7304,7 @@
       </c>
       <c r="K197" s="13" t="n">
         <f aca="false">$B$190+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="L197" s="0"/>
       <c r="M197" s="0"/>
@@ -7302,25 +7321,25 @@
         <v>50</v>
       </c>
       <c r="D198" s="12" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E198" s="12" t="n">
         <f aca="false">D198/10.36</f>
-        <v>10.1351351351351</v>
+        <v>10.6177606177606</v>
       </c>
       <c r="F198" s="12" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G198" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H198" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$190,G198)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I198" s="13" t="n">
         <f aca="false">$B$190+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="J198" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$190,I198)</f>
@@ -7328,7 +7347,7 @@
       </c>
       <c r="K198" s="13" t="n">
         <f aca="false">$B$190+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="L198" s="0"/>
       <c r="M198" s="0"/>
@@ -7338,15 +7357,16 @@
       <c r="Q198" s="0"/>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C199" s="12"/>
-      <c r="D199" s="12"/>
-      <c r="E199" s="12"/>
-      <c r="F199" s="12"/>
-      <c r="G199" s="13"/>
+      <c r="B199" s="4"/>
+      <c r="C199" s="5"/>
+      <c r="D199" s="0"/>
+      <c r="E199" s="0"/>
+      <c r="F199" s="0"/>
+      <c r="G199" s="0"/>
       <c r="H199" s="0"/>
-      <c r="I199" s="13"/>
+      <c r="I199" s="0"/>
       <c r="J199" s="0"/>
-      <c r="K199" s="13"/>
+      <c r="K199" s="0"/>
       <c r="L199" s="0"/>
       <c r="M199" s="0"/>
       <c r="N199" s="0"/>
@@ -7391,11 +7411,10 @@
       <c r="P201" s="0"/>
       <c r="Q201" s="0"/>
     </row>
-    <row r="202" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B202" s="7" t="n">
-        <v>43917</v>
-      </c>
-      <c r="C202" s="0"/>
+        <v>43918</v>
+      </c>
       <c r="D202" s="8" t="s">
         <v>12</v>
       </c>
@@ -7418,10 +7437,14 @@
       <c r="K202" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="L202" s="8"/>
+      <c r="L202" s="0"/>
+      <c r="M202" s="0"/>
+      <c r="N202" s="0"/>
+      <c r="O202" s="0"/>
+      <c r="P202" s="0"/>
+      <c r="Q202" s="0"/>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="3"/>
       <c r="B203" s="9"/>
       <c r="C203" s="10" t="s">
         <v>40</v>
@@ -7450,7 +7473,7 @@
       <c r="K203" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="L203" s="8"/>
+      <c r="L203" s="0"/>
       <c r="M203" s="0"/>
       <c r="N203" s="0"/>
       <c r="O203" s="0"/>
@@ -7465,32 +7488,32 @@
         <v>300</v>
       </c>
       <c r="D204" s="1" t="n">
-        <v>9134</v>
+        <v>10023</v>
       </c>
       <c r="E204" s="12" t="n">
         <f aca="false">D204/60.48</f>
-        <v>151.025132275132</v>
+        <v>165.724206349206</v>
       </c>
       <c r="F204" s="12" t="n">
-        <v>919</v>
+        <v>889</v>
       </c>
       <c r="G204" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H204" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$202,G204)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I204" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J204" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$202,I204)</f>
+        <f aca="false">_xlfn.DAYS(B$214,I204)</f>
         <v>15</v>
       </c>
       <c r="K204" s="13" t="n">
         <f aca="false">$B$202+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="L204" s="0"/>
       <c r="M204" s="0"/>
@@ -7507,32 +7530,32 @@
         <v>230</v>
       </c>
       <c r="D205" s="1" t="n">
-        <v>5138</v>
+        <v>5982</v>
       </c>
       <c r="E205" s="12" t="n">
         <f aca="false">D205/46.75</f>
-        <v>109.903743315508</v>
+        <v>127.957219251337</v>
       </c>
       <c r="F205" s="12" t="n">
-        <v>773</v>
+        <v>844</v>
       </c>
       <c r="G205" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H205" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$202,G205)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I205" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J205" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$202,I205)</f>
+        <f aca="false">_xlfn.DAYS(B$214,I205)</f>
         <v>4</v>
       </c>
       <c r="K205" s="13" t="n">
         <f aca="false">$B$202+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="L205" s="0"/>
       <c r="M205" s="0"/>
@@ -7549,32 +7572,32 @@
         <v>330</v>
       </c>
       <c r="D206" s="1" t="n">
-        <v>1995</v>
+        <v>2314</v>
       </c>
       <c r="E206" s="12" t="n">
         <f aca="false">D206/65.27</f>
-        <v>30.5653439558756</v>
+        <v>35.4527347939329</v>
       </c>
       <c r="F206" s="12" t="n">
-        <v>299</v>
+        <v>319</v>
       </c>
       <c r="G206" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H206" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$202,G206)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I206" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J206" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$202,I206)</f>
+        <f aca="false">_xlfn.DAYS(B$214,I206)</f>
         <v>3</v>
       </c>
       <c r="K206" s="13" t="n">
         <f aca="false">$B$202+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="L206" s="0"/>
       <c r="M206" s="0"/>
@@ -7591,34 +7614,33 @@
         <v>1660</v>
       </c>
       <c r="D207" s="1" t="n">
-        <v>1696</v>
+        <v>2221</v>
       </c>
       <c r="E207" s="12" t="n">
         <f aca="false">D207/331</f>
-        <v>5.12386706948641</v>
+        <v>6.70996978851964</v>
       </c>
       <c r="F207" s="12" t="n">
-        <v>400</v>
+        <v>525</v>
       </c>
       <c r="G207" s="13" t="n">
-        <f aca="false">$B$202</f>
         <v>43917</v>
       </c>
       <c r="H207" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$202,G207)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I207" s="13" t="n">
         <f aca="false">$B$202+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="J207" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$202,I207)</f>
+        <f aca="false">_xlfn.DAYS($B$202,I207)</f>
         <v>-1</v>
       </c>
       <c r="K207" s="13" t="n">
         <f aca="false">$B$202+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="L207" s="0"/>
       <c r="M207" s="0"/>
@@ -7635,33 +7657,33 @@
         <v>330</v>
       </c>
       <c r="D208" s="1" t="n">
-        <v>759</v>
+        <v>1019</v>
       </c>
       <c r="E208" s="12" t="n">
         <f aca="false">D208/67.79</f>
-        <v>11.1963416433102</v>
+        <v>15.0317155922702</v>
       </c>
       <c r="F208" s="12" t="n">
-        <v>181</v>
+        <v>260</v>
       </c>
       <c r="G208" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H208" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$202,G208)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I208" s="13" t="n">
         <f aca="false">$B$202+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="J208" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$202,I208)</f>
+        <f aca="false">_xlfn.DAYS($B$202,I208)</f>
         <v>-1</v>
       </c>
       <c r="K208" s="13" t="n">
         <f aca="false">$B$202+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="L208" s="0"/>
       <c r="M208" s="0"/>
@@ -7678,34 +7700,33 @@
         <v>414</v>
       </c>
       <c r="D209" s="1" t="n">
-        <v>351</v>
+        <v>433</v>
       </c>
       <c r="E209" s="12" t="n">
         <f aca="false">D209/83.784</f>
-        <v>4.18934402749928</v>
+        <v>5.16805117922276</v>
       </c>
       <c r="F209" s="12" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G209" s="13" t="n">
-        <f aca="false">$B$202+1</f>
         <v>43918</v>
       </c>
       <c r="H209" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$202,G209)</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I209" s="13" t="n">
         <f aca="false">$B$202+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="J209" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$202,I209)</f>
+        <f aca="false">_xlfn.DAYS($B$202,I209)</f>
         <v>-1</v>
       </c>
       <c r="K209" s="13" t="n">
         <f aca="false">$B$202+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="L209" s="0"/>
       <c r="M209" s="0"/>
@@ -7729,26 +7750,26 @@
         <v>10.1351351351351</v>
       </c>
       <c r="F210" s="12" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="G210" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H210" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$202,G210)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I210" s="13" t="n">
         <f aca="false">$B$202+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="J210" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$202,I210)</f>
+        <f aca="false">_xlfn.DAYS($B$202,I210)</f>
         <v>-1</v>
       </c>
       <c r="K210" s="13" t="n">
         <f aca="false">$B$202+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="L210" s="0"/>
       <c r="M210" s="0"/>
@@ -7758,14 +7779,15 @@
       <c r="Q210" s="0"/>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D211" s="0"/>
-      <c r="E211" s="0"/>
-      <c r="F211" s="0"/>
-      <c r="G211" s="0"/>
+      <c r="C211" s="12"/>
+      <c r="D211" s="12"/>
+      <c r="E211" s="12"/>
+      <c r="F211" s="12"/>
+      <c r="G211" s="13"/>
       <c r="H211" s="0"/>
-      <c r="I211" s="0"/>
+      <c r="I211" s="13"/>
       <c r="J211" s="0"/>
-      <c r="K211" s="0"/>
+      <c r="K211" s="13"/>
       <c r="L211" s="0"/>
       <c r="M211" s="0"/>
       <c r="N211" s="0"/>
@@ -7774,6 +7796,8 @@
       <c r="Q211" s="0"/>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B212" s="4"/>
+      <c r="C212" s="5"/>
       <c r="D212" s="0"/>
       <c r="E212" s="0"/>
       <c r="F212" s="0"/>
@@ -7808,10 +7832,11 @@
       <c r="P213" s="0"/>
       <c r="Q213" s="0"/>
     </row>
-    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="214" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B214" s="7" t="n">
-        <v>43916</v>
-      </c>
+        <v>43917</v>
+      </c>
+      <c r="C214" s="0"/>
       <c r="D214" s="8" t="s">
         <v>12</v>
       </c>
@@ -7834,17 +7859,13 @@
       <c r="K214" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="L214" s="0"/>
-      <c r="M214" s="0"/>
-      <c r="N214" s="0"/>
-      <c r="O214" s="0"/>
-      <c r="P214" s="0"/>
-      <c r="Q214" s="0"/>
+      <c r="L214" s="8"/>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="3"/>
       <c r="B215" s="9"/>
       <c r="C215" s="10" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D215" s="10" t="s">
         <v>6</v>
@@ -7870,7 +7891,7 @@
       <c r="K215" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="L215" s="0"/>
+      <c r="L215" s="8"/>
       <c r="M215" s="0"/>
       <c r="N215" s="0"/>
       <c r="O215" s="0"/>
@@ -7885,32 +7906,32 @@
         <v>300</v>
       </c>
       <c r="D216" s="1" t="n">
-        <v>8215</v>
+        <v>9134</v>
       </c>
       <c r="E216" s="12" t="n">
         <f aca="false">D216/60.48</f>
-        <v>135.830026455026</v>
+        <v>151.025132275132</v>
       </c>
       <c r="F216" s="12" t="n">
-        <v>712</v>
+        <v>919</v>
       </c>
       <c r="G216" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H216" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$214,G216)</f>
-        <v>16</v>
+        <f aca="false">_xlfn.DAYS($B$214,G216)</f>
+        <v>17</v>
       </c>
       <c r="I216" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J216" s="1" t="n">
         <f aca="false">_xlfn.DAYS(B$214,I216)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K216" s="13" t="n">
-        <f aca="false">B$214+1</f>
-        <v>43917</v>
+        <f aca="false">$B$214+1</f>
+        <v>43918</v>
       </c>
       <c r="L216" s="0"/>
       <c r="M216" s="0"/>
@@ -7927,32 +7948,32 @@
         <v>230</v>
       </c>
       <c r="D217" s="1" t="n">
-        <v>4365</v>
+        <v>5138</v>
       </c>
       <c r="E217" s="12" t="n">
         <f aca="false">D217/46.75</f>
-        <v>93.3689839572193</v>
+        <v>109.903743315508</v>
       </c>
       <c r="F217" s="12" t="n">
-        <v>718</v>
+        <v>773</v>
       </c>
       <c r="G217" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H217" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$214,G217)</f>
-        <v>9</v>
+        <f aca="false">_xlfn.DAYS($B$214,G217)</f>
+        <v>10</v>
       </c>
       <c r="I217" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J217" s="1" t="n">
         <f aca="false">_xlfn.DAYS(B$214,I217)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K217" s="13" t="n">
-        <f aca="false">B$214+1</f>
-        <v>43917</v>
+        <f aca="false">$B$214+1</f>
+        <v>43918</v>
       </c>
       <c r="L217" s="0"/>
       <c r="M217" s="0"/>
@@ -7969,32 +7990,32 @@
         <v>330</v>
       </c>
       <c r="D218" s="1" t="n">
-        <v>1696</v>
+        <v>1995</v>
       </c>
       <c r="E218" s="12" t="n">
         <f aca="false">D218/65.27</f>
-        <v>25.9843726060978</v>
+        <v>30.5653439558756</v>
       </c>
       <c r="F218" s="12" t="n">
-        <v>365</v>
+        <v>299</v>
       </c>
       <c r="G218" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H218" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$214,G218)</f>
-        <v>4</v>
+        <f aca="false">_xlfn.DAYS($B$214,G218)</f>
+        <v>5</v>
       </c>
       <c r="I218" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J218" s="1" t="n">
         <f aca="false">_xlfn.DAYS(B$214,I218)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K218" s="13" t="n">
-        <f aca="false">B$214+1</f>
-        <v>43917</v>
+        <f aca="false">$B$214+1</f>
+        <v>43918</v>
       </c>
       <c r="L218" s="0"/>
       <c r="M218" s="0"/>
@@ -8011,33 +8032,34 @@
         <v>1660</v>
       </c>
       <c r="D219" s="1" t="n">
-        <v>1295</v>
+        <v>1696</v>
       </c>
       <c r="E219" s="12" t="n">
         <f aca="false">D219/331</f>
-        <v>3.91238670694864</v>
+        <v>5.12386706948641</v>
       </c>
       <c r="F219" s="12" t="n">
-        <v>268</v>
+        <v>400</v>
       </c>
       <c r="G219" s="13" t="n">
+        <f aca="false">$B$214</f>
         <v>43917</v>
       </c>
       <c r="H219" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$214,G219)</f>
+        <f aca="false">_xlfn.DAYS($B$214,G219)</f>
+        <v>0</v>
+      </c>
+      <c r="I219" s="13" t="n">
+        <f aca="false">$B$214+1</f>
+        <v>43918</v>
+      </c>
+      <c r="J219" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$214,I219)</f>
         <v>-1</v>
       </c>
-      <c r="I219" s="13" t="n">
-        <f aca="false">B$214+1</f>
-        <v>43917</v>
-      </c>
-      <c r="J219" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$214,I219)</f>
-        <v>-1</v>
-      </c>
       <c r="K219" s="13" t="n">
-        <f aca="false">B$214+1</f>
-        <v>43917</v>
+        <f aca="false">$B$214+1</f>
+        <v>43918</v>
       </c>
       <c r="L219" s="0"/>
       <c r="M219" s="0"/>
@@ -8054,33 +8076,33 @@
         <v>330</v>
       </c>
       <c r="D220" s="1" t="n">
-        <v>578</v>
+        <v>759</v>
       </c>
       <c r="E220" s="12" t="n">
         <f aca="false">D220/67.79</f>
-        <v>8.52633131730344</v>
+        <v>11.1963416433102</v>
       </c>
       <c r="F220" s="12" t="n">
-        <v>115</v>
+        <v>181</v>
       </c>
       <c r="G220" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H220" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$214,G220)</f>
-        <v>0</v>
+        <f aca="false">_xlfn.DAYS($B$214,G220)</f>
+        <v>1</v>
       </c>
       <c r="I220" s="13" t="n">
-        <f aca="false">B$214+1</f>
-        <v>43917</v>
+        <f aca="false">$B$214+1</f>
+        <v>43918</v>
       </c>
       <c r="J220" s="1" t="n">
         <f aca="false">_xlfn.DAYS(B$214,I220)</f>
         <v>-1</v>
       </c>
       <c r="K220" s="13" t="n">
-        <f aca="false">B$214+1</f>
-        <v>43917</v>
+        <f aca="false">$B$214+1</f>
+        <v>43918</v>
       </c>
       <c r="L220" s="0"/>
       <c r="M220" s="0"/>
@@ -8097,33 +8119,34 @@
         <v>414</v>
       </c>
       <c r="D221" s="1" t="n">
-        <v>267</v>
+        <v>351</v>
       </c>
       <c r="E221" s="12" t="n">
         <f aca="false">D221/83.784</f>
-        <v>3.18676596963621</v>
+        <v>4.18934402749928</v>
       </c>
       <c r="F221" s="12" t="n">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="G221" s="13" t="n">
-        <v>43917</v>
+        <f aca="false">$B$214+1</f>
+        <v>43918</v>
       </c>
       <c r="H221" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$214,G221)</f>
+        <f aca="false">_xlfn.DAYS($B$214,G221)</f>
         <v>-1</v>
       </c>
       <c r="I221" s="13" t="n">
-        <f aca="false">B$214+1</f>
-        <v>43917</v>
+        <f aca="false">$B$214+1</f>
+        <v>43918</v>
       </c>
       <c r="J221" s="1" t="n">
         <f aca="false">_xlfn.DAYS(B$214,I221)</f>
         <v>-1</v>
       </c>
       <c r="K221" s="13" t="n">
-        <f aca="false">B$214+1</f>
-        <v>43917</v>
+        <f aca="false">$B$214+1</f>
+        <v>43918</v>
       </c>
       <c r="L221" s="0"/>
       <c r="M221" s="0"/>
@@ -8140,33 +8163,33 @@
         <v>50</v>
       </c>
       <c r="D222" s="12" t="n">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="E222" s="12" t="n">
         <f aca="false">D222/10.36</f>
-        <v>7.43243243243243</v>
+        <v>10.1351351351351</v>
       </c>
       <c r="F222" s="12" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="G222" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H222" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$214,G222)</f>
-        <v>1</v>
+        <f aca="false">_xlfn.DAYS($B$214,G222)</f>
+        <v>2</v>
       </c>
       <c r="I222" s="13" t="n">
-        <f aca="false">B$214+1</f>
-        <v>43917</v>
+        <f aca="false">$B$214+1</f>
+        <v>43918</v>
       </c>
       <c r="J222" s="1" t="n">
         <f aca="false">_xlfn.DAYS(B$214,I222)</f>
         <v>-1</v>
       </c>
       <c r="K222" s="13" t="n">
-        <f aca="false">B$214+1</f>
-        <v>43917</v>
+        <f aca="false">$B$214+1</f>
+        <v>43918</v>
       </c>
       <c r="L222" s="0"/>
       <c r="M222" s="0"/>
@@ -8174,6 +8197,424 @@
       <c r="O222" s="0"/>
       <c r="P222" s="0"/>
       <c r="Q222" s="0"/>
+    </row>
+    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D223" s="0"/>
+      <c r="E223" s="0"/>
+      <c r="F223" s="0"/>
+      <c r="G223" s="0"/>
+      <c r="H223" s="0"/>
+      <c r="I223" s="0"/>
+      <c r="J223" s="0"/>
+      <c r="K223" s="0"/>
+      <c r="L223" s="0"/>
+      <c r="M223" s="0"/>
+      <c r="N223" s="0"/>
+      <c r="O223" s="0"/>
+      <c r="P223" s="0"/>
+      <c r="Q223" s="0"/>
+    </row>
+    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D224" s="0"/>
+      <c r="E224" s="0"/>
+      <c r="F224" s="0"/>
+      <c r="G224" s="0"/>
+      <c r="H224" s="0"/>
+      <c r="I224" s="0"/>
+      <c r="J224" s="0"/>
+      <c r="K224" s="0"/>
+      <c r="L224" s="0"/>
+      <c r="M224" s="0"/>
+      <c r="N224" s="0"/>
+      <c r="O224" s="0"/>
+      <c r="P224" s="0"/>
+      <c r="Q224" s="0"/>
+    </row>
+    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B225" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D225" s="0"/>
+      <c r="E225" s="0"/>
+      <c r="F225" s="0"/>
+      <c r="G225" s="0"/>
+      <c r="H225" s="0"/>
+      <c r="I225" s="0"/>
+      <c r="J225" s="0"/>
+      <c r="K225" s="0"/>
+      <c r="L225" s="0"/>
+      <c r="M225" s="0"/>
+      <c r="N225" s="0"/>
+      <c r="O225" s="0"/>
+      <c r="P225" s="0"/>
+      <c r="Q225" s="0"/>
+    </row>
+    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B226" s="7" t="n">
+        <v>43916</v>
+      </c>
+      <c r="D226" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E226" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F226" s="8"/>
+      <c r="G226" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H226" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I226" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J226" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K226" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="L226" s="0"/>
+      <c r="M226" s="0"/>
+      <c r="N226" s="0"/>
+      <c r="O226" s="0"/>
+      <c r="P226" s="0"/>
+      <c r="Q226" s="0"/>
+    </row>
+    <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B227" s="9"/>
+      <c r="C227" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D227" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E227" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F227" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G227" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="H227" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I227" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="J227" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K227" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="L227" s="0"/>
+      <c r="M227" s="0"/>
+      <c r="N227" s="0"/>
+      <c r="O227" s="0"/>
+      <c r="P227" s="0"/>
+      <c r="Q227" s="0"/>
+    </row>
+    <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B228" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C228" s="12" t="n">
+        <v>300</v>
+      </c>
+      <c r="D228" s="1" t="n">
+        <v>8215</v>
+      </c>
+      <c r="E228" s="12" t="n">
+        <f aca="false">D228/60.48</f>
+        <v>135.830026455026</v>
+      </c>
+      <c r="F228" s="12" t="n">
+        <v>712</v>
+      </c>
+      <c r="G228" s="13" t="n">
+        <v>43900</v>
+      </c>
+      <c r="H228" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$226,G228)</f>
+        <v>16</v>
+      </c>
+      <c r="I228" s="13" t="n">
+        <v>43902</v>
+      </c>
+      <c r="J228" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$226,I228)</f>
+        <v>14</v>
+      </c>
+      <c r="K228" s="13" t="n">
+        <f aca="false">B$226+1</f>
+        <v>43917</v>
+      </c>
+      <c r="L228" s="0"/>
+      <c r="M228" s="0"/>
+      <c r="N228" s="0"/>
+      <c r="O228" s="0"/>
+      <c r="P228" s="0"/>
+      <c r="Q228" s="0"/>
+    </row>
+    <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B229" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C229" s="12" t="n">
+        <v>230</v>
+      </c>
+      <c r="D229" s="1" t="n">
+        <v>4365</v>
+      </c>
+      <c r="E229" s="12" t="n">
+        <f aca="false">D229/46.75</f>
+        <v>93.3689839572193</v>
+      </c>
+      <c r="F229" s="12" t="n">
+        <v>718</v>
+      </c>
+      <c r="G229" s="13" t="n">
+        <v>43907</v>
+      </c>
+      <c r="H229" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$226,G229)</f>
+        <v>9</v>
+      </c>
+      <c r="I229" s="13" t="n">
+        <v>43913</v>
+      </c>
+      <c r="J229" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$226,I229)</f>
+        <v>3</v>
+      </c>
+      <c r="K229" s="13" t="n">
+        <f aca="false">B$226+1</f>
+        <v>43917</v>
+      </c>
+      <c r="L229" s="0"/>
+      <c r="M229" s="0"/>
+      <c r="N229" s="0"/>
+      <c r="O229" s="0"/>
+      <c r="P229" s="0"/>
+      <c r="Q229" s="0"/>
+    </row>
+    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B230" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C230" s="12" t="n">
+        <v>330</v>
+      </c>
+      <c r="D230" s="1" t="n">
+        <v>1696</v>
+      </c>
+      <c r="E230" s="12" t="n">
+        <f aca="false">D230/65.27</f>
+        <v>25.9843726060978</v>
+      </c>
+      <c r="F230" s="12" t="n">
+        <v>365</v>
+      </c>
+      <c r="G230" s="13" t="n">
+        <v>43912</v>
+      </c>
+      <c r="H230" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$226,G230)</f>
+        <v>4</v>
+      </c>
+      <c r="I230" s="13" t="n">
+        <v>43914</v>
+      </c>
+      <c r="J230" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$226,I230)</f>
+        <v>2</v>
+      </c>
+      <c r="K230" s="13" t="n">
+        <f aca="false">B$226+1</f>
+        <v>43917</v>
+      </c>
+      <c r="L230" s="0"/>
+      <c r="M230" s="0"/>
+      <c r="N230" s="0"/>
+      <c r="O230" s="0"/>
+      <c r="P230" s="0"/>
+      <c r="Q230" s="0"/>
+    </row>
+    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B231" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C231" s="12" t="n">
+        <v>1660</v>
+      </c>
+      <c r="D231" s="1" t="n">
+        <v>1295</v>
+      </c>
+      <c r="E231" s="12" t="n">
+        <f aca="false">D231/331</f>
+        <v>3.91238670694864</v>
+      </c>
+      <c r="F231" s="12" t="n">
+        <v>268</v>
+      </c>
+      <c r="G231" s="13" t="n">
+        <v>43917</v>
+      </c>
+      <c r="H231" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$226,G231)</f>
+        <v>-1</v>
+      </c>
+      <c r="I231" s="13" t="n">
+        <f aca="false">B$226+1</f>
+        <v>43917</v>
+      </c>
+      <c r="J231" s="1" t="n">
+        <f aca="false">_xlfn.DAYS($B$226,I231)</f>
+        <v>-1</v>
+      </c>
+      <c r="K231" s="13" t="n">
+        <f aca="false">B$226+1</f>
+        <v>43917</v>
+      </c>
+      <c r="L231" s="0"/>
+      <c r="M231" s="0"/>
+      <c r="N231" s="0"/>
+      <c r="O231" s="0"/>
+      <c r="P231" s="0"/>
+      <c r="Q231" s="0"/>
+    </row>
+    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B232" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C232" s="12" t="n">
+        <v>330</v>
+      </c>
+      <c r="D232" s="1" t="n">
+        <v>578</v>
+      </c>
+      <c r="E232" s="12" t="n">
+        <f aca="false">D232/67.79</f>
+        <v>8.52633131730344</v>
+      </c>
+      <c r="F232" s="12" t="n">
+        <v>115</v>
+      </c>
+      <c r="G232" s="13" t="n">
+        <v>43916</v>
+      </c>
+      <c r="H232" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$226,G232)</f>
+        <v>0</v>
+      </c>
+      <c r="I232" s="13" t="n">
+        <f aca="false">B$226+1</f>
+        <v>43917</v>
+      </c>
+      <c r="J232" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$226,I232)</f>
+        <v>-1</v>
+      </c>
+      <c r="K232" s="13" t="n">
+        <f aca="false">B$226+1</f>
+        <v>43917</v>
+      </c>
+      <c r="L232" s="0"/>
+      <c r="M232" s="0"/>
+      <c r="N232" s="0"/>
+      <c r="O232" s="0"/>
+      <c r="P232" s="0"/>
+      <c r="Q232" s="0"/>
+    </row>
+    <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B233" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C233" s="12" t="n">
+        <v>414</v>
+      </c>
+      <c r="D233" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="E233" s="12" t="n">
+        <f aca="false">D233/83.784</f>
+        <v>3.18676596963621</v>
+      </c>
+      <c r="F233" s="12" t="n">
+        <v>61</v>
+      </c>
+      <c r="G233" s="13" t="n">
+        <v>43917</v>
+      </c>
+      <c r="H233" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$226,G233)</f>
+        <v>-1</v>
+      </c>
+      <c r="I233" s="13" t="n">
+        <f aca="false">B$226+1</f>
+        <v>43917</v>
+      </c>
+      <c r="J233" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$226,I233)</f>
+        <v>-1</v>
+      </c>
+      <c r="K233" s="13" t="n">
+        <f aca="false">B$226+1</f>
+        <v>43917</v>
+      </c>
+      <c r="L233" s="0"/>
+      <c r="M233" s="0"/>
+      <c r="N233" s="0"/>
+      <c r="O233" s="0"/>
+      <c r="P233" s="0"/>
+      <c r="Q233" s="0"/>
+    </row>
+    <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B234" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C234" s="12" t="n">
+        <v>50</v>
+      </c>
+      <c r="D234" s="12" t="n">
+        <v>77</v>
+      </c>
+      <c r="E234" s="12" t="n">
+        <f aca="false">D234/10.36</f>
+        <v>7.43243243243243</v>
+      </c>
+      <c r="F234" s="12" t="n">
+        <v>15</v>
+      </c>
+      <c r="G234" s="13" t="n">
+        <v>43915</v>
+      </c>
+      <c r="H234" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$226,G234)</f>
+        <v>1</v>
+      </c>
+      <c r="I234" s="13" t="n">
+        <f aca="false">B$226+1</f>
+        <v>43917</v>
+      </c>
+      <c r="J234" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$226,I234)</f>
+        <v>-1</v>
+      </c>
+      <c r="K234" s="13" t="n">
+        <f aca="false">B$226+1</f>
+        <v>43917</v>
+      </c>
+      <c r="L234" s="0"/>
+      <c r="M234" s="0"/>
+      <c r="N234" s="0"/>
+      <c r="O234" s="0"/>
+      <c r="P234" s="0"/>
+      <c r="Q234" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/covid19 lockdown evaluation .xlsx
+++ b/covid19 lockdown evaluation .xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="55">
   <si>
     <t>Effects of the lockdown issued by governments</t>
   </si>
@@ -359,7 +359,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q234"/>
+  <dimension ref="A1:Q246"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F31" activeCellId="0" sqref="F31"/>
@@ -815,7 +815,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="7" t="n">
-        <v>43933</v>
+        <v>43934</v>
       </c>
       <c r="D22" s="0"/>
       <c r="E22" s="8" t="s">
@@ -892,36 +892,36 @@
         <v>300</v>
       </c>
       <c r="D24" s="1" t="n">
-        <v>19899</v>
+        <v>20465</v>
       </c>
       <c r="E24" s="12" t="n">
         <f aca="false">D24/60.48</f>
-        <v>329.017857142857</v>
+        <v>338.376322751323</v>
       </c>
       <c r="F24" s="12" t="n">
-        <v>431</v>
+        <v>566</v>
       </c>
       <c r="G24" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H24" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,G24)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I24" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J24" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,I24)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K24" s="13" t="n">
         <f aca="false">$B$22+1</f>
-        <v>43934</v>
+        <v>43935</v>
       </c>
       <c r="L24" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K24,G24)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M24" s="0"/>
       <c r="N24" s="0"/>
@@ -937,36 +937,36 @@
         <v>230</v>
       </c>
       <c r="D25" s="1" t="n">
-        <v>17209</v>
+        <v>17756</v>
       </c>
       <c r="E25" s="12" t="n">
         <f aca="false">D25/46.75</f>
-        <v>368.106951871658</v>
+        <v>379.807486631016</v>
       </c>
       <c r="F25" s="12" t="n">
-        <v>603</v>
+        <v>547</v>
       </c>
       <c r="G25" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H25" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,G25)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I25" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J25" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,I25)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K25" s="13" t="n">
         <f aca="false">$B$22+1</f>
-        <v>43934</v>
+        <v>43935</v>
       </c>
       <c r="L25" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K25,G25)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M25" s="0"/>
       <c r="N25" s="0"/>
@@ -982,36 +982,36 @@
         <v>330</v>
       </c>
       <c r="D26" s="1" t="n">
-        <v>14393</v>
+        <v>14967</v>
       </c>
       <c r="E26" s="12" t="n">
         <f aca="false">D26/65.27</f>
-        <v>220.514784740309</v>
+        <v>229.30902405393</v>
       </c>
       <c r="F26" s="12" t="n">
-        <v>561</v>
+        <v>574</v>
       </c>
       <c r="G26" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H26" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,G26)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I26" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J26" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,I26)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K26" s="13" t="n">
         <f aca="false">$B$22+1</f>
-        <v>43934</v>
+        <v>43935</v>
       </c>
       <c r="L26" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K26,G26)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M26" s="0"/>
       <c r="N26" s="0"/>
@@ -1027,36 +1027,36 @@
         <v>50</v>
       </c>
       <c r="D27" s="12" t="n">
-        <v>899</v>
+        <v>919</v>
       </c>
       <c r="E27" s="12" t="n">
         <f aca="false">D27/10.36</f>
-        <v>86.7760617760618</v>
+        <v>88.7065637065637</v>
       </c>
       <c r="F27" s="12" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G27" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H27" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,G27)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I27" s="13" t="n">
         <v>43928</v>
       </c>
       <c r="J27" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,I27)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K27" s="13" t="n">
         <f aca="false">$B$22+1</f>
-        <v>43934</v>
+        <v>43935</v>
       </c>
       <c r="L27" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K27,G27)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M27" s="0"/>
       <c r="N27" s="0"/>
@@ -1072,36 +1072,36 @@
         <v>330</v>
       </c>
       <c r="D28" s="1" t="n">
-        <v>10612</v>
+        <v>11329</v>
       </c>
       <c r="E28" s="12" t="n">
         <f aca="false">D28/67.79</f>
-        <v>156.54226287063</v>
+        <v>167.1190441068</v>
       </c>
       <c r="F28" s="12" t="n">
-        <v>737</v>
+        <v>717</v>
       </c>
       <c r="G28" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H28" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,G28)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I28" s="13" t="n">
         <v>43919</v>
       </c>
       <c r="J28" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,I28)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K28" s="13" t="n">
         <f aca="false">$B$22+1</f>
-        <v>43934</v>
+        <v>43935</v>
       </c>
       <c r="L28" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K28,G28)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M28" s="0"/>
       <c r="N28" s="0"/>
@@ -1117,36 +1117,36 @@
         <v>1660</v>
       </c>
       <c r="D29" s="1" t="n">
-        <v>22105</v>
+        <v>23640</v>
       </c>
       <c r="E29" s="12" t="n">
         <f aca="false">D29/331</f>
-        <v>66.7824773413897</v>
+        <v>71.4199395770393</v>
       </c>
       <c r="F29" s="12" t="n">
-        <v>1528</v>
+        <v>1535</v>
       </c>
       <c r="G29" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H29" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,G29)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I29" s="13" t="n">
         <v>43921</v>
       </c>
       <c r="J29" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,I29)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K29" s="13" t="n">
         <f aca="false">$B$22+1</f>
-        <v>43934</v>
+        <v>43935</v>
       </c>
       <c r="L29" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K29,G29)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M29" s="0"/>
       <c r="N29" s="0"/>
@@ -1162,36 +1162,36 @@
         <v>414</v>
       </c>
       <c r="D30" s="1" t="n">
-        <v>3022</v>
+        <v>3194</v>
       </c>
       <c r="E30" s="12" t="n">
         <f aca="false">D30/83.784</f>
-        <v>36.0689391769312</v>
+        <v>38.1218371049365</v>
       </c>
       <c r="F30" s="12" t="n">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="G30" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H30" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,G30)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I30" s="13" t="n">
         <v>43920</v>
       </c>
       <c r="J30" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,I30)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K30" s="13" t="n">
         <f aca="false">$B$22+1</f>
-        <v>43934</v>
+        <v>43935</v>
       </c>
       <c r="L30" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K30,G30)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M30" s="0"/>
       <c r="N30" s="0"/>
@@ -1256,7 +1256,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="7" t="n">
-        <v>43932</v>
+        <v>43933</v>
       </c>
       <c r="D34" s="0"/>
       <c r="E34" s="8" t="s">
@@ -1333,36 +1333,36 @@
         <v>300</v>
       </c>
       <c r="D36" s="1" t="n">
-        <v>19468</v>
+        <v>19899</v>
       </c>
       <c r="E36" s="12" t="n">
         <f aca="false">D36/60.48</f>
-        <v>321.891534391534</v>
+        <v>329.017857142857</v>
       </c>
       <c r="F36" s="12" t="n">
-        <v>619</v>
+        <v>431</v>
       </c>
       <c r="G36" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H36" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,G36)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I36" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J36" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,I36)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K36" s="13" t="n">
         <f aca="false">$B$34+1</f>
-        <v>43933</v>
+        <v>43934</v>
       </c>
       <c r="L36" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K36,G36)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M36" s="0"/>
       <c r="N36" s="0"/>
@@ -1378,36 +1378,36 @@
         <v>230</v>
       </c>
       <c r="D37" s="1" t="n">
-        <v>16606</v>
+        <v>17209</v>
       </c>
       <c r="E37" s="12" t="n">
         <f aca="false">D37/46.75</f>
-        <v>355.208556149733</v>
+        <v>368.106951871658</v>
       </c>
       <c r="F37" s="12" t="n">
-        <v>525</v>
+        <v>603</v>
       </c>
       <c r="G37" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H37" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,G37)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I37" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J37" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,I37)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K37" s="13" t="n">
         <f aca="false">$B$34+1</f>
-        <v>43933</v>
+        <v>43934</v>
       </c>
       <c r="L37" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K37,G37)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M37" s="0"/>
       <c r="N37" s="0"/>
@@ -1423,36 +1423,36 @@
         <v>330</v>
       </c>
       <c r="D38" s="1" t="n">
-        <v>13832</v>
+        <v>14393</v>
       </c>
       <c r="E38" s="12" t="n">
         <f aca="false">D38/65.27</f>
-        <v>211.919718094071</v>
+        <v>220.514784740309</v>
       </c>
       <c r="F38" s="12" t="n">
-        <v>635</v>
+        <v>561</v>
       </c>
       <c r="G38" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H38" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,G38)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I38" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J38" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,I38)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K38" s="13" t="n">
         <f aca="false">$B$34+1</f>
-        <v>43933</v>
+        <v>43934</v>
       </c>
       <c r="L38" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K38,G38)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M38" s="0"/>
       <c r="N38" s="0"/>
@@ -1468,36 +1468,36 @@
         <v>50</v>
       </c>
       <c r="D39" s="12" t="n">
-        <v>887</v>
+        <v>899</v>
       </c>
       <c r="E39" s="12" t="n">
         <f aca="false">D39/10.36</f>
-        <v>85.6177606177606</v>
+        <v>86.7760617760618</v>
       </c>
       <c r="F39" s="12" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G39" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H39" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,G39)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I39" s="13" t="n">
         <v>43928</v>
       </c>
       <c r="J39" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,I39)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K39" s="13" t="n">
         <f aca="false">$B$34+1</f>
-        <v>43933</v>
+        <v>43934</v>
       </c>
       <c r="L39" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K39,G39)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M39" s="0"/>
       <c r="N39" s="0"/>
@@ -1513,36 +1513,36 @@
         <v>330</v>
       </c>
       <c r="D40" s="1" t="n">
-        <v>9875</v>
+        <v>10612</v>
       </c>
       <c r="E40" s="12" t="n">
         <f aca="false">D40/67.79</f>
-        <v>145.670452869155</v>
+        <v>156.54226287063</v>
       </c>
       <c r="F40" s="12" t="n">
-        <v>917</v>
+        <v>737</v>
       </c>
       <c r="G40" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H40" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,G40)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I40" s="13" t="n">
         <v>43919</v>
       </c>
       <c r="J40" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,I40)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K40" s="13" t="n">
         <f aca="false">$B$34+1</f>
-        <v>43933</v>
+        <v>43934</v>
       </c>
       <c r="L40" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K40,G40)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M40" s="0"/>
       <c r="N40" s="0"/>
@@ -1558,36 +1558,36 @@
         <v>1660</v>
       </c>
       <c r="D41" s="1" t="n">
-        <v>20577</v>
+        <v>22105</v>
       </c>
       <c r="E41" s="12" t="n">
         <f aca="false">D41/331</f>
-        <v>62.166163141994</v>
+        <v>66.7824773413897</v>
       </c>
       <c r="F41" s="12" t="n">
-        <v>1830</v>
+        <v>1528</v>
       </c>
       <c r="G41" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H41" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,G41)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I41" s="13" t="n">
         <v>43921</v>
       </c>
       <c r="J41" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,I41)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K41" s="13" t="n">
         <f aca="false">$B$34+1</f>
-        <v>43933</v>
+        <v>43934</v>
       </c>
       <c r="L41" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K41,G41)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M41" s="0"/>
       <c r="N41" s="0"/>
@@ -1603,36 +1603,36 @@
         <v>414</v>
       </c>
       <c r="D42" s="1" t="n">
-        <v>2871</v>
+        <v>3022</v>
       </c>
       <c r="E42" s="12" t="n">
         <f aca="false">D42/83.784</f>
-        <v>34.2666857633916</v>
+        <v>36.0689391769312</v>
       </c>
       <c r="F42" s="12" t="n">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="G42" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H42" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,G42)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I42" s="13" t="n">
         <v>43920</v>
       </c>
       <c r="J42" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,I42)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K42" s="13" t="n">
         <f aca="false">$B$34+1</f>
-        <v>43933</v>
+        <v>43934</v>
       </c>
       <c r="L42" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K42,G42)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M42" s="0"/>
       <c r="N42" s="0"/>
@@ -1697,7 +1697,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="7" t="n">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="D46" s="0"/>
       <c r="E46" s="8" t="s">
@@ -1774,36 +1774,36 @@
         <v>300</v>
       </c>
       <c r="D48" s="1" t="n">
-        <v>18849</v>
+        <v>19468</v>
       </c>
       <c r="E48" s="12" t="n">
         <f aca="false">D48/60.48</f>
-        <v>311.656746031746</v>
+        <v>321.891534391534</v>
       </c>
       <c r="F48" s="12" t="n">
-        <v>570</v>
+        <v>619</v>
       </c>
       <c r="G48" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H48" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,G48)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I48" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J48" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,I48)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K48" s="13" t="n">
         <f aca="false">$B$46+1</f>
-        <v>43932</v>
+        <v>43933</v>
       </c>
       <c r="L48" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K48,G48)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M48" s="0"/>
       <c r="N48" s="0"/>
@@ -1819,36 +1819,36 @@
         <v>230</v>
       </c>
       <c r="D49" s="1" t="n">
-        <v>16081</v>
+        <v>16606</v>
       </c>
       <c r="E49" s="12" t="n">
         <f aca="false">D49/46.75</f>
-        <v>343.978609625668</v>
+        <v>355.208556149733</v>
       </c>
       <c r="F49" s="12" t="n">
-        <v>634</v>
+        <v>525</v>
       </c>
       <c r="G49" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H49" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,G49)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I49" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J49" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,I49)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K49" s="13" t="n">
         <f aca="false">$B$46+1</f>
-        <v>43932</v>
+        <v>43933</v>
       </c>
       <c r="L49" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K49,G49)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M49" s="0"/>
       <c r="N49" s="0"/>
@@ -1864,36 +1864,36 @@
         <v>330</v>
       </c>
       <c r="D50" s="1" t="n">
-        <v>13197</v>
+        <v>13832</v>
       </c>
       <c r="E50" s="12" t="n">
         <f aca="false">D50/65.27</f>
-        <v>202.190899341198</v>
+        <v>211.919718094071</v>
       </c>
       <c r="F50" s="12" t="n">
-        <v>987</v>
+        <v>635</v>
       </c>
       <c r="G50" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H50" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,G50)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I50" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J50" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,I50)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K50" s="13" t="n">
         <f aca="false">$B$46+1</f>
-        <v>43932</v>
+        <v>43933</v>
       </c>
       <c r="L50" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K50,G50)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M50" s="0"/>
       <c r="N50" s="0"/>
@@ -1909,36 +1909,36 @@
         <v>50</v>
       </c>
       <c r="D51" s="12" t="n">
-        <v>870</v>
+        <v>887</v>
       </c>
       <c r="E51" s="12" t="n">
         <f aca="false">D51/10.36</f>
-        <v>83.976833976834</v>
+        <v>85.6177606177606</v>
       </c>
       <c r="F51" s="12" t="n">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="G51" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H51" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,G51)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I51" s="13" t="n">
         <v>43928</v>
       </c>
       <c r="J51" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,I51)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K51" s="13" t="n">
         <f aca="false">$B$46+1</f>
-        <v>43932</v>
+        <v>43933</v>
       </c>
       <c r="L51" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K51,G51)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M51" s="0"/>
       <c r="N51" s="0"/>
@@ -1954,36 +1954,36 @@
         <v>330</v>
       </c>
       <c r="D52" s="1" t="n">
-        <v>8958</v>
+        <v>9875</v>
       </c>
       <c r="E52" s="12" t="n">
         <f aca="false">D52/67.79</f>
-        <v>132.143383979938</v>
+        <v>145.670452869155</v>
       </c>
       <c r="F52" s="12" t="n">
-        <v>980</v>
+        <v>917</v>
       </c>
       <c r="G52" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H52" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,G52)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I52" s="13" t="n">
         <v>43919</v>
       </c>
       <c r="J52" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,I52)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K52" s="13" t="n">
         <f aca="false">$B$46+1</f>
-        <v>43932</v>
+        <v>43933</v>
       </c>
       <c r="L52" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K52,G52)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M52" s="0"/>
       <c r="N52" s="0"/>
@@ -1999,36 +1999,36 @@
         <v>1660</v>
       </c>
       <c r="D53" s="1" t="n">
-        <v>18747</v>
+        <v>20577</v>
       </c>
       <c r="E53" s="12" t="n">
         <f aca="false">D53/331</f>
-        <v>56.6374622356496</v>
+        <v>62.166163141994</v>
       </c>
       <c r="F53" s="12" t="n">
-        <v>2035</v>
+        <v>1830</v>
       </c>
       <c r="G53" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H53" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,G53)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I53" s="13" t="n">
         <v>43921</v>
       </c>
       <c r="J53" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,I53)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K53" s="13" t="n">
         <f aca="false">$B$46+1</f>
-        <v>43932</v>
+        <v>43933</v>
       </c>
       <c r="L53" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K53,G53)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M53" s="0"/>
       <c r="N53" s="0"/>
@@ -2044,36 +2044,36 @@
         <v>414</v>
       </c>
       <c r="D54" s="1" t="n">
-        <v>2736</v>
+        <v>2871</v>
       </c>
       <c r="E54" s="12" t="n">
         <f aca="false">D54/83.784</f>
-        <v>32.6553995989688</v>
+        <v>34.2666857633916</v>
       </c>
       <c r="F54" s="12" t="n">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="G54" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H54" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,G54)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I54" s="13" t="n">
         <v>43920</v>
       </c>
       <c r="J54" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,I54)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K54" s="13" t="n">
         <f aca="false">$B$46+1</f>
-        <v>43932</v>
+        <v>43933</v>
       </c>
       <c r="L54" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K54,G54)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M54" s="0"/>
       <c r="N54" s="0"/>
@@ -2138,7 +2138,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="7" t="n">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="D58" s="0"/>
       <c r="E58" s="8" t="s">
@@ -2215,36 +2215,36 @@
         <v>300</v>
       </c>
       <c r="D60" s="1" t="n">
-        <v>18279</v>
+        <v>18849</v>
       </c>
       <c r="E60" s="12" t="n">
         <f aca="false">D60/60.48</f>
-        <v>302.232142857143</v>
+        <v>311.656746031746</v>
       </c>
       <c r="F60" s="12" t="n">
-        <v>610</v>
+        <v>570</v>
       </c>
       <c r="G60" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H60" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,G60)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I60" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J60" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,I60)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K60" s="13" t="n">
         <f aca="false">$B$58+1</f>
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="L60" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K60,G60)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M60" s="0"/>
       <c r="N60" s="0"/>
@@ -2260,36 +2260,36 @@
         <v>230</v>
       </c>
       <c r="D61" s="1" t="n">
-        <v>15447</v>
+        <v>16081</v>
       </c>
       <c r="E61" s="12" t="n">
         <f aca="false">D61/46.75</f>
-        <v>330.417112299465</v>
+        <v>343.978609625668</v>
       </c>
       <c r="F61" s="12" t="n">
-        <v>655</v>
+        <v>634</v>
       </c>
       <c r="G61" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H61" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,G61)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I61" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J61" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,I61)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K61" s="13" t="n">
         <f aca="false">$B$58+1</f>
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="L61" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K61,G61)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M61" s="0"/>
       <c r="N61" s="0"/>
@@ -2305,36 +2305,36 @@
         <v>330</v>
       </c>
       <c r="D62" s="1" t="n">
-        <v>12210</v>
+        <v>13197</v>
       </c>
       <c r="E62" s="12" t="n">
         <f aca="false">D62/65.27</f>
-        <v>187.069097594607</v>
+        <v>202.190899341198</v>
       </c>
       <c r="F62" s="12" t="n">
-        <v>1341</v>
+        <v>987</v>
       </c>
       <c r="G62" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H62" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,G62)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I62" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J62" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,I62)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K62" s="13" t="n">
         <f aca="false">$B$58+1</f>
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="L62" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K62,G62)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M62" s="0"/>
       <c r="N62" s="0"/>
@@ -2350,36 +2350,36 @@
         <v>50</v>
       </c>
       <c r="D63" s="12" t="n">
-        <v>793</v>
+        <v>870</v>
       </c>
       <c r="E63" s="12" t="n">
         <f aca="false">D63/10.36</f>
-        <v>76.5444015444016</v>
+        <v>83.976833976834</v>
       </c>
       <c r="F63" s="12" t="n">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="G63" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H63" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,G63)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I63" s="13" t="n">
         <v>43928</v>
       </c>
       <c r="J63" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,I63)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K63" s="13" t="n">
         <f aca="false">$B$58+1</f>
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="L63" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K63,G63)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M63" s="0"/>
       <c r="N63" s="0"/>
@@ -2395,36 +2395,36 @@
         <v>330</v>
       </c>
       <c r="D64" s="1" t="n">
-        <v>7978</v>
+        <v>8958</v>
       </c>
       <c r="E64" s="12" t="n">
         <f aca="false">D64/67.79</f>
-        <v>117.686974480012</v>
+        <v>132.143383979938</v>
       </c>
       <c r="F64" s="12" t="n">
-        <v>881</v>
+        <v>980</v>
       </c>
       <c r="G64" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H64" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,G64)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I64" s="13" t="n">
         <v>43919</v>
       </c>
       <c r="J64" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,I64)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K64" s="13" t="n">
         <f aca="false">$B$58+1</f>
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="L64" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K64,G64)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M64" s="0"/>
       <c r="N64" s="0"/>
@@ -2440,36 +2440,36 @@
         <v>1660</v>
       </c>
       <c r="D65" s="1" t="n">
-        <v>16691</v>
+        <v>18747</v>
       </c>
       <c r="E65" s="12" t="n">
         <f aca="false">D65/331</f>
-        <v>50.4259818731118</v>
+        <v>56.6374622356496</v>
       </c>
       <c r="F65" s="12" t="n">
-        <v>1900</v>
+        <v>2035</v>
       </c>
       <c r="G65" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H65" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,G65)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I65" s="13" t="n">
         <v>43921</v>
       </c>
       <c r="J65" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,I65)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K65" s="13" t="n">
         <f aca="false">$B$58+1</f>
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="L65" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K65,G65)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M65" s="0"/>
       <c r="N65" s="0"/>
@@ -2485,36 +2485,36 @@
         <v>414</v>
       </c>
       <c r="D66" s="1" t="n">
-        <v>2607</v>
+        <v>2736</v>
       </c>
       <c r="E66" s="12" t="n">
         <f aca="false">D66/83.784</f>
-        <v>31.1157261529648</v>
+        <v>32.6553995989688</v>
       </c>
       <c r="F66" s="12" t="n">
-        <v>258</v>
+        <v>129</v>
       </c>
       <c r="G66" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H66" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,G66)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I66" s="13" t="n">
         <v>43920</v>
       </c>
       <c r="J66" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,I66)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K66" s="13" t="n">
         <f aca="false">$B$58+1</f>
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="L66" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K66,G66)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M66" s="0"/>
       <c r="N66" s="0"/>
@@ -2579,7 +2579,7 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="7" t="n">
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="D70" s="0"/>
       <c r="E70" s="8" t="s">
@@ -2656,36 +2656,36 @@
         <v>300</v>
       </c>
       <c r="D72" s="1" t="n">
-        <v>17669</v>
+        <v>18279</v>
       </c>
       <c r="E72" s="12" t="n">
         <f aca="false">D72/60.48</f>
-        <v>292.146164021164</v>
+        <v>302.232142857143</v>
       </c>
       <c r="F72" s="12" t="n">
-        <v>542</v>
+        <v>610</v>
       </c>
       <c r="G72" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H72" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,G72)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I72" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J72" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,I72)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K72" s="13" t="n">
         <f aca="false">$B$70+1</f>
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="L72" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K72,G72)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M72" s="0"/>
       <c r="N72" s="0"/>
@@ -2701,36 +2701,36 @@
         <v>230</v>
       </c>
       <c r="D73" s="1" t="n">
-        <v>14792</v>
+        <v>15447</v>
       </c>
       <c r="E73" s="12" t="n">
         <f aca="false">D73/46.75</f>
-        <v>316.406417112299</v>
+        <v>330.417112299465</v>
       </c>
       <c r="F73" s="12" t="n">
-        <v>747</v>
+        <v>655</v>
       </c>
       <c r="G73" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H73" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,G73)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I73" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J73" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,I73)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K73" s="13" t="n">
         <f aca="false">$B$70+1</f>
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="L73" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K73,G73)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M73" s="0"/>
       <c r="N73" s="0"/>
@@ -2746,36 +2746,36 @@
         <v>330</v>
       </c>
       <c r="D74" s="1" t="n">
-        <v>10869</v>
+        <v>12210</v>
       </c>
       <c r="E74" s="12" t="n">
         <f aca="false">D74/65.27</f>
-        <v>166.52367090547</v>
+        <v>187.069097594607</v>
       </c>
       <c r="F74" s="12" t="n">
-        <v>541</v>
+        <v>1341</v>
       </c>
       <c r="G74" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H74" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,G74)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I74" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J74" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,I74)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K74" s="13" t="n">
         <f aca="false">$B$70+1</f>
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="L74" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K74,G74)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M74" s="0"/>
       <c r="N74" s="0"/>
@@ -2791,36 +2791,36 @@
         <v>50</v>
       </c>
       <c r="D75" s="12" t="n">
-        <v>687</v>
+        <v>793</v>
       </c>
       <c r="E75" s="12" t="n">
         <f aca="false">D75/10.36</f>
-        <v>66.3127413127413</v>
+        <v>76.5444015444016</v>
       </c>
       <c r="F75" s="12" t="n">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="G75" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H75" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,G75)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I75" s="13" t="n">
         <v>43928</v>
       </c>
       <c r="J75" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,I75)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K75" s="13" t="n">
         <f aca="false">$B$70+1</f>
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="L75" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K75,G75)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M75" s="0"/>
       <c r="N75" s="0"/>
@@ -2836,36 +2836,36 @@
         <v>330</v>
       </c>
       <c r="D76" s="1" t="n">
-        <v>7097</v>
+        <v>7978</v>
       </c>
       <c r="E76" s="12" t="n">
         <f aca="false">D76/67.79</f>
-        <v>104.690957368343</v>
+        <v>117.686974480012</v>
       </c>
       <c r="F76" s="12" t="n">
-        <v>938</v>
+        <v>881</v>
       </c>
       <c r="G76" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H76" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,G76)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I76" s="13" t="n">
         <v>43919</v>
       </c>
       <c r="J76" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,I76)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K76" s="13" t="n">
         <f aca="false">$B$70+1</f>
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="L76" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K76,G76)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M76" s="0"/>
       <c r="N76" s="0"/>
@@ -2881,36 +2881,36 @@
         <v>1660</v>
       </c>
       <c r="D77" s="1" t="n">
-        <v>14788</v>
+        <v>16691</v>
       </c>
       <c r="E77" s="12" t="n">
         <f aca="false">D77/331</f>
-        <v>44.6767371601209</v>
+        <v>50.4259818731118</v>
       </c>
       <c r="F77" s="12" t="n">
-        <v>1940</v>
+        <v>1900</v>
       </c>
       <c r="G77" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H77" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,G77)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I77" s="13" t="n">
         <v>43921</v>
       </c>
       <c r="J77" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,I77)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K77" s="13" t="n">
         <f aca="false">$B$70+1</f>
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="L77" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K77,G77)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M77" s="0"/>
       <c r="N77" s="0"/>
@@ -2926,36 +2926,36 @@
         <v>414</v>
       </c>
       <c r="D78" s="1" t="n">
-        <v>2349</v>
+        <v>2607</v>
       </c>
       <c r="E78" s="12" t="n">
         <f aca="false">D78/83.784</f>
-        <v>28.0363792609567</v>
+        <v>31.1157261529648</v>
       </c>
       <c r="F78" s="12" t="n">
-        <v>333</v>
+        <v>258</v>
       </c>
       <c r="G78" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H78" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,G78)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I78" s="13" t="n">
         <v>43920</v>
       </c>
       <c r="J78" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,I78)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K78" s="13" t="n">
         <f aca="false">$B$70+1</f>
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="L78" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K78,G78)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M78" s="0"/>
       <c r="N78" s="0"/>
@@ -3020,7 +3020,7 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="7" t="n">
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="D82" s="0"/>
       <c r="E82" s="8" t="s">
@@ -3097,36 +3097,36 @@
         <v>300</v>
       </c>
       <c r="D84" s="1" t="n">
-        <v>17127</v>
+        <v>17669</v>
       </c>
       <c r="E84" s="12" t="n">
         <f aca="false">D84/60.48</f>
-        <v>283.184523809524</v>
+        <v>292.146164021164</v>
       </c>
       <c r="F84" s="12" t="n">
-        <v>604</v>
+        <v>542</v>
       </c>
       <c r="G84" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H84" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,G84)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I84" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J84" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,I84)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K84" s="13" t="n">
         <f aca="false">$B$82+1</f>
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="L84" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K84,G84)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M84" s="0"/>
       <c r="N84" s="0"/>
@@ -3142,36 +3142,36 @@
         <v>230</v>
       </c>
       <c r="D85" s="1" t="n">
-        <v>14045</v>
+        <v>14792</v>
       </c>
       <c r="E85" s="12" t="n">
         <f aca="false">D85/46.75</f>
-        <v>300.427807486631</v>
+        <v>316.406417112299</v>
       </c>
       <c r="F85" s="12" t="n">
-        <v>704</v>
+        <v>747</v>
       </c>
       <c r="G85" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H85" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,G85)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I85" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J85" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,I85)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K85" s="13" t="n">
         <f aca="false">$B$82+1</f>
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="L85" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K85,G85)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M85" s="0"/>
       <c r="N85" s="0"/>
@@ -3187,36 +3187,36 @@
         <v>330</v>
       </c>
       <c r="D86" s="1" t="n">
-        <v>10328</v>
+        <v>10869</v>
       </c>
       <c r="E86" s="12" t="n">
         <f aca="false">D86/65.27</f>
-        <v>158.23502374751</v>
+        <v>166.52367090547</v>
       </c>
       <c r="F86" s="12" t="n">
-        <v>1417</v>
+        <v>541</v>
       </c>
       <c r="G86" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H86" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,G86)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I86" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J86" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,I86)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K86" s="13" t="n">
         <f aca="false">$B$82+1</f>
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="L86" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K86,G86)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M86" s="0"/>
       <c r="N86" s="0"/>
@@ -3232,36 +3232,36 @@
         <v>50</v>
       </c>
       <c r="D87" s="12" t="n">
-        <v>591</v>
+        <v>687</v>
       </c>
       <c r="E87" s="12" t="n">
         <f aca="false">D87/10.36</f>
-        <v>57.0463320463321</v>
+        <v>66.3127413127413</v>
       </c>
       <c r="F87" s="12" t="n">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="G87" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H87" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,G87)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I87" s="13" t="n">
         <v>43928</v>
       </c>
       <c r="J87" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,I87)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K87" s="13" t="n">
         <f aca="false">$B$82+1</f>
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="L87" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K87,G87)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M87" s="0"/>
       <c r="N87" s="0"/>
@@ -3277,36 +3277,36 @@
         <v>330</v>
       </c>
       <c r="D88" s="1" t="n">
-        <v>6159</v>
+        <v>7097</v>
       </c>
       <c r="E88" s="12" t="n">
         <f aca="false">D88/67.79</f>
-        <v>90.8541082755569</v>
+        <v>104.690957368343</v>
       </c>
       <c r="F88" s="12" t="n">
-        <v>786</v>
+        <v>938</v>
       </c>
       <c r="G88" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H88" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,G88)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I88" s="13" t="n">
         <v>43919</v>
       </c>
       <c r="J88" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,I88)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K88" s="13" t="n">
         <f aca="false">$B$82+1</f>
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="L88" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K88,G88)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M88" s="0"/>
       <c r="N88" s="0"/>
@@ -3322,36 +3322,36 @@
         <v>1660</v>
       </c>
       <c r="D89" s="1" t="n">
-        <v>12848</v>
+        <v>14788</v>
       </c>
       <c r="E89" s="12" t="n">
         <f aca="false">D89/331</f>
-        <v>38.8157099697885</v>
+        <v>44.6767371601209</v>
       </c>
       <c r="F89" s="12" t="n">
-        <v>1970</v>
+        <v>1940</v>
       </c>
       <c r="G89" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H89" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,G89)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I89" s="13" t="n">
         <v>43921</v>
       </c>
       <c r="J89" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,I89)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K89" s="13" t="n">
         <f aca="false">$B$82+1</f>
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="L89" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K89,G89)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M89" s="0"/>
       <c r="N89" s="0"/>
@@ -3367,36 +3367,36 @@
         <v>414</v>
       </c>
       <c r="D90" s="1" t="n">
-        <v>2016</v>
+        <v>2349</v>
       </c>
       <c r="E90" s="12" t="n">
         <f aca="false">D90/83.784</f>
-        <v>24.0618733887138</v>
+        <v>28.0363792609567</v>
       </c>
       <c r="F90" s="12" t="n">
-        <v>206</v>
+        <v>333</v>
       </c>
       <c r="G90" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H90" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,G90)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I90" s="13" t="n">
         <v>43920</v>
       </c>
       <c r="J90" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,I90)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K90" s="13" t="n">
         <f aca="false">$B$82+1</f>
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="L90" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K90,G90)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M90" s="0"/>
       <c r="N90" s="0"/>
@@ -3461,7 +3461,7 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="7" t="n">
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="D94" s="0"/>
       <c r="E94" s="8" t="s">
@@ -3538,36 +3538,36 @@
         <v>300</v>
       </c>
       <c r="D96" s="1" t="n">
-        <v>16523</v>
+        <v>17127</v>
       </c>
       <c r="E96" s="12" t="n">
         <f aca="false">D96/60.48</f>
-        <v>273.197751322751</v>
+        <v>283.184523809524</v>
       </c>
       <c r="F96" s="12" t="n">
-        <v>636</v>
+        <v>604</v>
       </c>
       <c r="G96" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H96" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,G96)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I96" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J96" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,I96)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K96" s="13" t="n">
         <f aca="false">$B$94+1</f>
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="L96" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K96,G96)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M96" s="0"/>
       <c r="N96" s="0"/>
@@ -3583,36 +3583,36 @@
         <v>230</v>
       </c>
       <c r="D97" s="1" t="n">
-        <v>13341</v>
+        <v>14045</v>
       </c>
       <c r="E97" s="12" t="n">
         <f aca="false">D97/46.75</f>
-        <v>285.368983957219</v>
+        <v>300.427807486631</v>
       </c>
       <c r="F97" s="12" t="n">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="G97" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H97" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,G97)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I97" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J97" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,I97)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K97" s="13" t="n">
         <f aca="false">$B$94+1</f>
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="L97" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K97,G97)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M97" s="0"/>
       <c r="N97" s="0"/>
@@ -3628,36 +3628,36 @@
         <v>330</v>
       </c>
       <c r="D98" s="1" t="n">
-        <v>8911</v>
+        <v>10328</v>
       </c>
       <c r="E98" s="12" t="n">
         <f aca="false">D98/65.27</f>
-        <v>136.525203002911</v>
+        <v>158.23502374751</v>
       </c>
       <c r="F98" s="12" t="n">
-        <v>833</v>
+        <v>1417</v>
       </c>
       <c r="G98" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H98" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,G98)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I98" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J98" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,I98)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K98" s="13" t="n">
         <f aca="false">$B$94+1</f>
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="L98" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K98,G98)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M98" s="0"/>
       <c r="N98" s="0"/>
@@ -3673,37 +3673,36 @@
         <v>50</v>
       </c>
       <c r="D99" s="12" t="n">
-        <v>477</v>
+        <v>591</v>
       </c>
       <c r="E99" s="12" t="n">
         <f aca="false">D99/10.36</f>
-        <v>46.042471042471</v>
+        <v>57.0463320463321</v>
       </c>
       <c r="F99" s="12" t="n">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="G99" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H99" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,G99)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I99" s="13" t="n">
-        <f aca="false">$B$94+1</f>
         <v>43928</v>
       </c>
       <c r="J99" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,I99)</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K99" s="13" t="n">
         <f aca="false">$B$94+1</f>
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="L99" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K99,G99)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M99" s="0"/>
       <c r="N99" s="0"/>
@@ -3719,37 +3718,36 @@
         <v>330</v>
       </c>
       <c r="D100" s="1" t="n">
-        <v>5373</v>
+        <v>6159</v>
       </c>
       <c r="E100" s="12" t="n">
         <f aca="false">D100/67.79</f>
-        <v>79.2594777990854</v>
+        <v>90.8541082755569</v>
       </c>
       <c r="F100" s="12" t="n">
-        <v>439</v>
+        <v>786</v>
       </c>
       <c r="G100" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H100" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,G100)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I100" s="13" t="n">
-        <f aca="false">$B$94+1</f>
-        <v>43928</v>
+        <v>43919</v>
       </c>
       <c r="J100" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,I100)</f>
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K100" s="13" t="n">
         <f aca="false">$B$94+1</f>
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="L100" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K100,G100)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M100" s="0"/>
       <c r="N100" s="0"/>
@@ -3765,37 +3763,36 @@
         <v>1660</v>
       </c>
       <c r="D101" s="1" t="n">
-        <v>10871</v>
+        <v>12848</v>
       </c>
       <c r="E101" s="12" t="n">
         <f aca="false">D101/331</f>
-        <v>32.8429003021148</v>
+        <v>38.8157099697885</v>
       </c>
       <c r="F101" s="12" t="n">
-        <v>1255</v>
+        <v>1970</v>
       </c>
       <c r="G101" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H101" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,G101)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I101" s="13" t="n">
-        <f aca="false">$B$94+1</f>
-        <v>43928</v>
+        <v>43921</v>
       </c>
       <c r="J101" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,I101)</f>
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K101" s="13" t="n">
         <f aca="false">$B$94+1</f>
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="L101" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K101,G101)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M101" s="0"/>
       <c r="N101" s="0"/>
@@ -3811,37 +3808,36 @@
         <v>414</v>
       </c>
       <c r="D102" s="1" t="n">
-        <v>1810</v>
+        <v>2016</v>
       </c>
       <c r="E102" s="12" t="n">
         <f aca="false">D102/83.784</f>
-        <v>21.6031700563353</v>
+        <v>24.0618733887138</v>
       </c>
       <c r="F102" s="12" t="n">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="G102" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H102" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,G102)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I102" s="13" t="n">
-        <f aca="false">$B$94+1</f>
-        <v>43928</v>
+        <v>43920</v>
       </c>
       <c r="J102" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,I102)</f>
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K102" s="13" t="n">
         <f aca="false">$B$94+1</f>
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="L102" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K102,G102)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M102" s="0"/>
       <c r="N102" s="0"/>
@@ -3906,7 +3902,7 @@
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="7" t="n">
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="D106" s="0"/>
       <c r="E106" s="8" t="s">
@@ -3983,36 +3979,36 @@
         <v>300</v>
       </c>
       <c r="D108" s="1" t="n">
-        <v>15887</v>
+        <v>16523</v>
       </c>
       <c r="E108" s="12" t="n">
         <f aca="false">D108/60.48</f>
-        <v>262.681878306878</v>
+        <v>273.197751322751</v>
       </c>
       <c r="F108" s="12" t="n">
-        <v>525</v>
+        <v>636</v>
       </c>
       <c r="G108" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H108" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,G108)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I108" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J108" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,I108)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K108" s="13" t="n">
         <f aca="false">$B$106+1</f>
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="L108" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K108,G108)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M108" s="0"/>
       <c r="N108" s="0"/>
@@ -4028,36 +4024,36 @@
         <v>230</v>
       </c>
       <c r="D109" s="1" t="n">
-        <v>12641</v>
+        <v>13341</v>
       </c>
       <c r="E109" s="12" t="n">
         <f aca="false">D109/46.75</f>
-        <v>270.395721925134</v>
+        <v>285.368983957219</v>
       </c>
       <c r="F109" s="12" t="n">
-        <v>694</v>
+        <v>700</v>
       </c>
       <c r="G109" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H109" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,G109)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I109" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J109" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,I109)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K109" s="13" t="n">
         <f aca="false">$B$106+1</f>
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="L109" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K109,G109)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M109" s="0"/>
       <c r="N109" s="0"/>
@@ -4073,36 +4069,36 @@
         <v>330</v>
       </c>
       <c r="D110" s="1" t="n">
-        <v>8078</v>
+        <v>8911</v>
       </c>
       <c r="E110" s="12" t="n">
         <f aca="false">D110/65.27</f>
-        <v>123.762831316072</v>
+        <v>136.525203002911</v>
       </c>
       <c r="F110" s="12" t="n">
-        <v>518</v>
+        <v>833</v>
       </c>
       <c r="G110" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H110" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,G110)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I110" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J110" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,I110)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K110" s="13" t="n">
         <f aca="false">$B$106+1</f>
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="L110" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K110,G110)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M110" s="0"/>
       <c r="N110" s="0"/>
@@ -4118,25 +4114,25 @@
         <v>50</v>
       </c>
       <c r="D111" s="12" t="n">
-        <v>401</v>
+        <v>477</v>
       </c>
       <c r="E111" s="12" t="n">
         <f aca="false">D111/10.36</f>
-        <v>38.7065637065637</v>
+        <v>46.042471042471</v>
       </c>
       <c r="F111" s="12" t="n">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="G111" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H111" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,G111)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I111" s="13" t="n">
         <f aca="false">$B$106+1</f>
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="J111" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,I111)</f>
@@ -4144,11 +4140,11 @@
       </c>
       <c r="K111" s="13" t="n">
         <f aca="false">$B$106+1</f>
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="L111" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K111,G111)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M111" s="0"/>
       <c r="N111" s="0"/>
@@ -4164,25 +4160,25 @@
         <v>330</v>
       </c>
       <c r="D112" s="1" t="n">
-        <v>4934</v>
+        <v>5373</v>
       </c>
       <c r="E112" s="12" t="n">
         <f aca="false">D112/67.79</f>
-        <v>72.7835964006491</v>
+        <v>79.2594777990854</v>
       </c>
       <c r="F112" s="12" t="n">
-        <v>621</v>
+        <v>439</v>
       </c>
       <c r="G112" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H112" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,G112)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I112" s="13" t="n">
         <f aca="false">$B$106+1</f>
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="J112" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,I112)</f>
@@ -4190,11 +4186,11 @@
       </c>
       <c r="K112" s="13" t="n">
         <f aca="false">$B$106+1</f>
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="L112" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K112,G112)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M112" s="0"/>
       <c r="N112" s="0"/>
@@ -4210,25 +4206,25 @@
         <v>1660</v>
       </c>
       <c r="D113" s="1" t="n">
-        <v>9616</v>
+        <v>10871</v>
       </c>
       <c r="E113" s="12" t="n">
         <f aca="false">D113/331</f>
-        <v>29.0513595166163</v>
+        <v>32.8429003021148</v>
       </c>
       <c r="F113" s="12" t="n">
-        <v>1165</v>
+        <v>1255</v>
       </c>
       <c r="G113" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H113" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,G113)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I113" s="13" t="n">
         <f aca="false">$B$106+1</f>
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="J113" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,I113)</f>
@@ -4236,11 +4232,11 @@
       </c>
       <c r="K113" s="13" t="n">
         <f aca="false">$B$106+1</f>
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="L113" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K113,G113)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M113" s="0"/>
       <c r="N113" s="0"/>
@@ -4256,25 +4252,25 @@
         <v>414</v>
       </c>
       <c r="D114" s="1" t="n">
-        <v>1584</v>
+        <v>1810</v>
       </c>
       <c r="E114" s="12" t="n">
         <f aca="false">D114/83.784</f>
-        <v>18.9057576625609</v>
+        <v>21.6031700563353</v>
       </c>
       <c r="F114" s="12" t="n">
-        <v>140</v>
+        <v>226</v>
       </c>
       <c r="G114" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H114" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,G114)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I114" s="13" t="n">
         <f aca="false">$B$106+1</f>
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="J114" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,I114)</f>
@@ -4282,11 +4278,11 @@
       </c>
       <c r="K114" s="13" t="n">
         <f aca="false">$B$106+1</f>
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="L114" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K114,G114)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M114" s="0"/>
       <c r="N114" s="0"/>
@@ -4351,7 +4347,7 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B118" s="7" t="n">
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="D118" s="0"/>
       <c r="E118" s="8" t="s">
@@ -4428,36 +4424,36 @@
         <v>300</v>
       </c>
       <c r="D120" s="1" t="n">
-        <v>15362</v>
+        <v>15887</v>
       </c>
       <c r="E120" s="12" t="n">
         <f aca="false">D120/60.48</f>
-        <v>254.001322751323</v>
+        <v>262.681878306878</v>
       </c>
       <c r="F120" s="12" t="n">
-        <v>681</v>
+        <v>525</v>
       </c>
       <c r="G120" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H120" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$118,G120)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I120" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J120" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$118,I120)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K120" s="13" t="n">
         <f aca="false">$B$118+1</f>
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="L120" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K120,G120)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M120" s="0"/>
       <c r="N120" s="0"/>
@@ -4473,36 +4469,36 @@
         <v>230</v>
       </c>
       <c r="D121" s="1" t="n">
-        <v>11947</v>
+        <v>12641</v>
       </c>
       <c r="E121" s="12" t="n">
         <f aca="false">D121/46.75</f>
-        <v>255.550802139037</v>
+        <v>270.395721925134</v>
       </c>
       <c r="F121" s="12" t="n">
-        <v>749</v>
+        <v>694</v>
       </c>
       <c r="G121" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H121" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$118,G121)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I121" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J121" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$118,I121)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K121" s="13" t="n">
         <f aca="false">$B$118+1</f>
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="L121" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K121,G121)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M121" s="0"/>
       <c r="N121" s="0"/>
@@ -4518,36 +4514,36 @@
         <v>330</v>
       </c>
       <c r="D122" s="1" t="n">
-        <v>7560</v>
+        <v>8078</v>
       </c>
       <c r="E122" s="12" t="n">
         <f aca="false">D122/65.27</f>
-        <v>115.826566569634</v>
+        <v>123.762831316072</v>
       </c>
       <c r="F122" s="12" t="n">
-        <v>1053</v>
+        <v>518</v>
       </c>
       <c r="G122" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H122" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$118,G122)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I122" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J122" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$118,I122)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K122" s="13" t="n">
         <f aca="false">$B$118+1</f>
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="L122" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K122,G122)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M122" s="0"/>
       <c r="N122" s="0"/>
@@ -4563,25 +4559,25 @@
         <v>50</v>
       </c>
       <c r="D123" s="12" t="n">
-        <v>373</v>
+        <v>401</v>
       </c>
       <c r="E123" s="12" t="n">
         <f aca="false">D123/10.36</f>
-        <v>36.003861003861</v>
+        <v>38.7065637065637</v>
       </c>
       <c r="F123" s="12" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="G123" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H123" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$118,G123)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I123" s="13" t="n">
         <f aca="false">$B$118+1</f>
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="J123" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$118,I123)</f>
@@ -4589,11 +4585,11 @@
       </c>
       <c r="K123" s="13" t="n">
         <f aca="false">$B$118+1</f>
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="L123" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K123,G123)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M123" s="0"/>
       <c r="N123" s="0"/>
@@ -4609,25 +4605,25 @@
         <v>330</v>
       </c>
       <c r="D124" s="1" t="n">
-        <v>4313</v>
+        <v>4934</v>
       </c>
       <c r="E124" s="12" t="n">
         <f aca="false">D124/67.79</f>
-        <v>63.6229532379407</v>
+        <v>72.7835964006491</v>
       </c>
       <c r="F124" s="12" t="n">
-        <v>708</v>
+        <v>621</v>
       </c>
       <c r="G124" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H124" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$118,G124)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I124" s="13" t="n">
         <f aca="false">$B$118+1</f>
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="J124" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$118,I124)</f>
@@ -4635,11 +4631,11 @@
       </c>
       <c r="K124" s="13" t="n">
         <f aca="false">$B$118+1</f>
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="L124" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K124,G124)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M124" s="0"/>
       <c r="N124" s="0"/>
@@ -4655,25 +4651,25 @@
         <v>1660</v>
       </c>
       <c r="D125" s="1" t="n">
-        <v>8451</v>
+        <v>9616</v>
       </c>
       <c r="E125" s="12" t="n">
         <f aca="false">D125/331</f>
-        <v>25.5317220543807</v>
+        <v>29.0513595166163</v>
       </c>
       <c r="F125" s="12" t="n">
-        <v>1330</v>
+        <v>1165</v>
       </c>
       <c r="G125" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H125" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$118,G125)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I125" s="13" t="n">
         <f aca="false">$B$118+1</f>
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="J125" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$118,I125)</f>
@@ -4681,11 +4677,11 @@
       </c>
       <c r="K125" s="13" t="n">
         <f aca="false">$B$118+1</f>
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="L125" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K125,G125)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M125" s="0"/>
       <c r="N125" s="0"/>
@@ -4701,25 +4697,25 @@
         <v>414</v>
       </c>
       <c r="D126" s="1" t="n">
-        <v>1444</v>
+        <v>1584</v>
       </c>
       <c r="E126" s="12" t="n">
         <f aca="false">D126/83.784</f>
-        <v>17.2347942327891</v>
+        <v>18.9057576625609</v>
       </c>
       <c r="F126" s="12" t="n">
-        <v>169</v>
+        <v>140</v>
       </c>
       <c r="G126" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H126" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$118,G126)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I126" s="13" t="n">
         <f aca="false">$B$118+1</f>
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="J126" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$118,I126)</f>
@@ -4727,11 +4723,11 @@
       </c>
       <c r="K126" s="13" t="n">
         <f aca="false">$B$118+1</f>
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="L126" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K126,G126)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M126" s="0"/>
       <c r="N126" s="0"/>
@@ -4796,7 +4792,7 @@
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B130" s="7" t="n">
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="D130" s="0"/>
       <c r="E130" s="8" t="s">
@@ -4873,36 +4869,36 @@
         <v>300</v>
       </c>
       <c r="D132" s="1" t="n">
-        <v>14681</v>
+        <v>15362</v>
       </c>
       <c r="E132" s="12" t="n">
         <f aca="false">D132/60.48</f>
-        <v>242.741402116402</v>
+        <v>254.001322751323</v>
       </c>
       <c r="F132" s="12" t="n">
-        <v>766</v>
+        <v>681</v>
       </c>
       <c r="G132" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H132" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$130,G132)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I132" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J132" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$130,I132)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K132" s="13" t="n">
         <f aca="false">$B$130+1</f>
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="L132" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K132,G132)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M132" s="0"/>
       <c r="N132" s="0"/>
@@ -4918,36 +4914,36 @@
         <v>230</v>
       </c>
       <c r="D133" s="1" t="n">
-        <v>11198</v>
+        <v>11947</v>
       </c>
       <c r="E133" s="12" t="n">
         <f aca="false">D133/46.75</f>
-        <v>239.529411764706</v>
+        <v>255.550802139037</v>
       </c>
       <c r="F133" s="12" t="n">
-        <v>850</v>
+        <v>749</v>
       </c>
       <c r="G133" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H133" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$142,G133)</f>
-        <v>16</v>
+        <f aca="false">_xlfn.DAYS($B$130,G133)</f>
+        <v>18</v>
       </c>
       <c r="I133" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J133" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$130,I133)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K133" s="13" t="n">
         <f aca="false">$B$130+1</f>
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="L133" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K133,G133)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M133" s="0"/>
       <c r="N133" s="0"/>
@@ -4963,36 +4959,36 @@
         <v>330</v>
       </c>
       <c r="D134" s="1" t="n">
-        <v>6507</v>
+        <v>7560</v>
       </c>
       <c r="E134" s="12" t="n">
         <f aca="false">D134/65.27</f>
-        <v>99.6935805117206</v>
+        <v>115.826566569634</v>
       </c>
       <c r="F134" s="12" t="n">
-        <v>1120</v>
+        <v>1053</v>
       </c>
       <c r="G134" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H134" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$142,G134)</f>
-        <v>11</v>
+        <f aca="false">_xlfn.DAYS($B$130,G134)</f>
+        <v>13</v>
       </c>
       <c r="I134" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J134" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$130,I134)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K134" s="13" t="n">
         <f aca="false">$B$130+1</f>
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="L134" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K134,G134)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M134" s="0"/>
       <c r="N134" s="0"/>
@@ -5008,25 +5004,25 @@
         <v>50</v>
       </c>
       <c r="D135" s="12" t="n">
-        <v>358</v>
+        <v>373</v>
       </c>
       <c r="E135" s="12" t="n">
         <f aca="false">D135/10.36</f>
-        <v>34.5559845559846</v>
+        <v>36.003861003861</v>
       </c>
       <c r="F135" s="12" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="G135" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H135" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$142,G135)</f>
-        <v>8</v>
+        <f aca="false">_xlfn.DAYS($B$130,G135)</f>
+        <v>10</v>
       </c>
       <c r="I135" s="13" t="n">
         <f aca="false">$B$130+1</f>
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="J135" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$130,I135)</f>
@@ -5034,11 +5030,11 @@
       </c>
       <c r="K135" s="13" t="n">
         <f aca="false">$B$130+1</f>
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="L135" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K135,G135)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M135" s="0"/>
       <c r="N135" s="0"/>
@@ -5054,25 +5050,25 @@
         <v>330</v>
       </c>
       <c r="D136" s="1" t="n">
-        <v>3605</v>
+        <v>4313</v>
       </c>
       <c r="E136" s="12" t="n">
         <f aca="false">D136/67.79</f>
-        <v>53.1789349461573</v>
+        <v>63.6229532379407</v>
       </c>
       <c r="F136" s="12" t="n">
-        <v>684</v>
+        <v>708</v>
       </c>
       <c r="G136" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H136" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$142,G136)</f>
-        <v>7</v>
+        <f aca="false">_xlfn.DAYS($B$130,G136)</f>
+        <v>9</v>
       </c>
       <c r="I136" s="13" t="n">
         <f aca="false">$B$130+1</f>
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="J136" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$130,I136)</f>
@@ -5080,11 +5076,11 @@
       </c>
       <c r="K136" s="13" t="n">
         <f aca="false">$B$130+1</f>
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="L136" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K136,G136)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M136" s="0"/>
       <c r="N136" s="0"/>
@@ -5100,25 +5096,25 @@
         <v>1660</v>
       </c>
       <c r="D137" s="1" t="n">
-        <v>7121</v>
+        <v>8451</v>
       </c>
       <c r="E137" s="12" t="n">
         <f aca="false">D137/331</f>
-        <v>21.5135951661631</v>
+        <v>25.5317220543807</v>
       </c>
       <c r="F137" s="12" t="n">
-        <v>1045</v>
+        <v>1330</v>
       </c>
       <c r="G137" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H137" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$142,G137)</f>
-        <v>6</v>
+        <f aca="false">_xlfn.DAYS($B$130,G137)</f>
+        <v>8</v>
       </c>
       <c r="I137" s="13" t="n">
         <f aca="false">$B$130+1</f>
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="J137" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$130,I137)</f>
@@ -5126,11 +5122,11 @@
       </c>
       <c r="K137" s="13" t="n">
         <f aca="false">$B$130+1</f>
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="L137" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K137,G137)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M137" s="0"/>
       <c r="N137" s="0"/>
@@ -5146,25 +5142,25 @@
         <v>414</v>
       </c>
       <c r="D138" s="1" t="n">
-        <v>1275</v>
+        <v>1444</v>
       </c>
       <c r="E138" s="12" t="n">
         <f aca="false">D138/83.784</f>
-        <v>15.2177026639931</v>
+        <v>17.2347942327891</v>
       </c>
       <c r="F138" s="12" t="n">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G138" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H138" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$142,G138)</f>
-        <v>5</v>
+        <f aca="false">_xlfn.DAYS($B$130,G138)</f>
+        <v>7</v>
       </c>
       <c r="I138" s="13" t="n">
         <f aca="false">$B$130+1</f>
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="J138" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$130,I138)</f>
@@ -5172,11 +5168,11 @@
       </c>
       <c r="K138" s="13" t="n">
         <f aca="false">$B$130+1</f>
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="L138" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K138,G138)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M138" s="0"/>
       <c r="N138" s="0"/>
@@ -5241,7 +5237,7 @@
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B142" s="7" t="n">
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="D142" s="0"/>
       <c r="E142" s="8" t="s">
@@ -5318,36 +5314,36 @@
         <v>300</v>
       </c>
       <c r="D144" s="1" t="n">
-        <v>13915</v>
+        <v>14681</v>
       </c>
       <c r="E144" s="12" t="n">
         <f aca="false">D144/60.48</f>
-        <v>230.076058201058</v>
+        <v>242.741402116402</v>
       </c>
       <c r="F144" s="12" t="n">
-        <v>760</v>
+        <v>766</v>
       </c>
       <c r="G144" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H144" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$142,G144)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I144" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J144" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$142,I144)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K144" s="13" t="n">
         <f aca="false">$B$142+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="L144" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K144,G144)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M144" s="0"/>
       <c r="N144" s="0"/>
@@ -5363,20 +5359,20 @@
         <v>230</v>
       </c>
       <c r="D145" s="1" t="n">
-        <v>10348</v>
+        <v>11198</v>
       </c>
       <c r="E145" s="12" t="n">
         <f aca="false">D145/46.75</f>
-        <v>221.347593582888</v>
+        <v>239.529411764706</v>
       </c>
       <c r="F145" s="12" t="n">
-        <v>961</v>
+        <v>850</v>
       </c>
       <c r="G145" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H145" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$142,G145)</f>
+        <f aca="false">_xlfn.DAYS($B$154,G145)</f>
         <v>16</v>
       </c>
       <c r="I145" s="13" t="n">
@@ -5384,15 +5380,15 @@
       </c>
       <c r="J145" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$142,I145)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K145" s="13" t="n">
         <f aca="false">$B$142+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="L145" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K145,G145)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M145" s="0"/>
       <c r="N145" s="0"/>
@@ -5408,20 +5404,20 @@
         <v>330</v>
       </c>
       <c r="D146" s="1" t="n">
-        <v>5387</v>
+        <v>6507</v>
       </c>
       <c r="E146" s="12" t="n">
         <f aca="false">D146/65.27</f>
-        <v>82.5340891680711</v>
+        <v>99.6935805117206</v>
       </c>
       <c r="F146" s="12" t="n">
-        <v>1355</v>
+        <v>1120</v>
       </c>
       <c r="G146" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H146" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$142,G146)</f>
+        <f aca="false">_xlfn.DAYS($B$154,G146)</f>
         <v>11</v>
       </c>
       <c r="I146" s="13" t="n">
@@ -5429,15 +5425,15 @@
       </c>
       <c r="J146" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$142,I146)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K146" s="13" t="n">
         <f aca="false">$B$142+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="L146" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K146,G146)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M146" s="0"/>
       <c r="N146" s="0"/>
@@ -5453,25 +5449,25 @@
         <v>50</v>
       </c>
       <c r="D147" s="12" t="n">
-        <v>308</v>
+        <v>358</v>
       </c>
       <c r="E147" s="12" t="n">
         <f aca="false">D147/10.36</f>
-        <v>29.7297297297297</v>
+        <v>34.5559845559846</v>
       </c>
       <c r="F147" s="12" t="n">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="G147" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H147" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$142,G147)</f>
+        <f aca="false">_xlfn.DAYS($B$154,G147)</f>
         <v>8</v>
       </c>
       <c r="I147" s="13" t="n">
         <f aca="false">$B$142+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="J147" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$142,I147)</f>
@@ -5479,11 +5475,11 @@
       </c>
       <c r="K147" s="13" t="n">
         <f aca="false">$B$142+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="L147" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K147,G147)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M147" s="0"/>
       <c r="N147" s="0"/>
@@ -5499,25 +5495,25 @@
         <v>330</v>
       </c>
       <c r="D148" s="1" t="n">
-        <v>2921</v>
+        <v>3605</v>
       </c>
       <c r="E148" s="12" t="n">
         <f aca="false">D148/67.79</f>
-        <v>43.0889511727393</v>
+        <v>53.1789349461573</v>
       </c>
       <c r="F148" s="12" t="n">
-        <v>569</v>
+        <v>684</v>
       </c>
       <c r="G148" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H148" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$142,G148)</f>
+        <f aca="false">_xlfn.DAYS($B$154,G148)</f>
         <v>7</v>
       </c>
       <c r="I148" s="13" t="n">
         <f aca="false">$B$142+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="J148" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$142,I148)</f>
@@ -5525,11 +5521,11 @@
       </c>
       <c r="K148" s="13" t="n">
         <f aca="false">$B$142+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="L148" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K148,G148)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M148" s="0"/>
       <c r="N148" s="0"/>
@@ -5545,25 +5541,25 @@
         <v>1660</v>
       </c>
       <c r="D149" s="1" t="n">
-        <v>6076</v>
+        <v>7121</v>
       </c>
       <c r="E149" s="12" t="n">
         <f aca="false">D149/331</f>
-        <v>18.3564954682779</v>
+        <v>21.5135951661631</v>
       </c>
       <c r="F149" s="12" t="n">
-        <v>969</v>
+        <v>1045</v>
       </c>
       <c r="G149" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H149" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$142,G149)</f>
+        <f aca="false">_xlfn.DAYS($B$154,G149)</f>
         <v>6</v>
       </c>
       <c r="I149" s="13" t="n">
         <f aca="false">$B$142+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="J149" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$142,I149)</f>
@@ -5571,11 +5567,11 @@
       </c>
       <c r="K149" s="13" t="n">
         <f aca="false">$B$142+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="L149" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K149,G149)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M149" s="0"/>
       <c r="N149" s="0"/>
@@ -5591,25 +5587,25 @@
         <v>414</v>
       </c>
       <c r="D150" s="1" t="n">
-        <v>1107</v>
+        <v>1275</v>
       </c>
       <c r="E150" s="12" t="n">
         <f aca="false">D150/83.784</f>
-        <v>13.212546548267</v>
+        <v>15.2177026639931</v>
       </c>
       <c r="F150" s="12" t="n">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="G150" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H150" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$142,G150)</f>
+        <f aca="false">_xlfn.DAYS($B$154,G150)</f>
         <v>5</v>
       </c>
       <c r="I150" s="13" t="n">
         <f aca="false">$B$142+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="J150" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$142,I150)</f>
@@ -5617,11 +5613,11 @@
       </c>
       <c r="K150" s="13" t="n">
         <f aca="false">$B$142+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="L150" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K150,G150)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M150" s="0"/>
       <c r="N150" s="0"/>
@@ -5686,7 +5682,7 @@
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B154" s="7" t="n">
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="D154" s="0"/>
       <c r="E154" s="8" t="s">
@@ -5763,36 +5759,36 @@
         <v>300</v>
       </c>
       <c r="D156" s="1" t="n">
-        <v>13155</v>
+        <v>13915</v>
       </c>
       <c r="E156" s="12" t="n">
         <f aca="false">D156/60.48</f>
-        <v>217.509920634921</v>
+        <v>230.076058201058</v>
       </c>
       <c r="F156" s="12" t="n">
-        <v>727</v>
+        <v>760</v>
       </c>
       <c r="G156" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H156" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$154,G156)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I156" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J156" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$154,I156)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K156" s="13" t="n">
         <f aca="false">$B$154+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="L156" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K156,G156)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M156" s="0"/>
       <c r="N156" s="0"/>
@@ -5808,36 +5804,36 @@
         <v>230</v>
       </c>
       <c r="D157" s="1" t="n">
-        <v>9387</v>
+        <v>10348</v>
       </c>
       <c r="E157" s="12" t="n">
         <f aca="false">D157/46.75</f>
-        <v>200.791443850267</v>
+        <v>221.347593582888</v>
       </c>
       <c r="F157" s="12" t="n">
-        <v>923</v>
+        <v>961</v>
       </c>
       <c r="G157" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H157" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$154,G157)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I157" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J157" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$154,I157)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K157" s="13" t="n">
         <f aca="false">$B$154+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="L157" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K157,G157)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M157" s="0"/>
       <c r="N157" s="0"/>
@@ -5853,36 +5849,36 @@
         <v>330</v>
       </c>
       <c r="D158" s="1" t="n">
-        <v>4032</v>
+        <v>5387</v>
       </c>
       <c r="E158" s="12" t="n">
         <f aca="false">D158/65.27</f>
-        <v>61.7741688371381</v>
+        <v>82.5340891680711</v>
       </c>
       <c r="F158" s="12" t="n">
-        <v>509</v>
+        <v>1355</v>
       </c>
       <c r="G158" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H158" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$154,G158)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I158" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J158" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$154,I158)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K158" s="13" t="n">
         <f aca="false">$B$154+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="L158" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K158,G158)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M158" s="0"/>
       <c r="N158" s="0"/>
@@ -5898,25 +5894,25 @@
         <v>50</v>
       </c>
       <c r="D159" s="12" t="n">
-        <v>239</v>
+        <v>308</v>
       </c>
       <c r="E159" s="12" t="n">
         <f aca="false">D159/10.36</f>
-        <v>23.0694980694981</v>
+        <v>29.7297297297297</v>
       </c>
       <c r="F159" s="12" t="n">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="G159" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H159" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$154,G159)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I159" s="13" t="n">
         <f aca="false">$B$154+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="J159" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$154,I159)</f>
@@ -5924,11 +5920,11 @@
       </c>
       <c r="K159" s="13" t="n">
         <f aca="false">$B$154+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="L159" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K159,G159)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M159" s="0"/>
       <c r="N159" s="0"/>
@@ -5944,25 +5940,25 @@
         <v>330</v>
       </c>
       <c r="D160" s="1" t="n">
-        <v>2352</v>
+        <v>2921</v>
       </c>
       <c r="E160" s="12" t="n">
         <f aca="false">D160/67.79</f>
-        <v>34.695382799823</v>
+        <v>43.0889511727393</v>
       </c>
       <c r="F160" s="12" t="n">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="G160" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H160" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$154,G160)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I160" s="13" t="n">
         <f aca="false">$B$154+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="J160" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$154,I160)</f>
@@ -5970,11 +5966,11 @@
       </c>
       <c r="K160" s="13" t="n">
         <f aca="false">$B$154+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="L160" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K160,G160)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M160" s="0"/>
       <c r="N160" s="0"/>
@@ -5990,25 +5986,25 @@
         <v>1660</v>
       </c>
       <c r="D161" s="1" t="n">
-        <v>5102</v>
+        <v>6076</v>
       </c>
       <c r="E161" s="12" t="n">
         <f aca="false">D161/331</f>
-        <v>15.4138972809668</v>
+        <v>18.3564954682779</v>
       </c>
       <c r="F161" s="12" t="n">
-        <v>1049</v>
+        <v>969</v>
       </c>
       <c r="G161" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H161" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$154,G161)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I161" s="13" t="n">
         <f aca="false">$B$154+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="J161" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$154,I161)</f>
@@ -6016,11 +6012,11 @@
       </c>
       <c r="K161" s="13" t="n">
         <f aca="false">$B$154+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="L161" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K161,G161)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M161" s="0"/>
       <c r="N161" s="0"/>
@@ -6036,25 +6032,25 @@
         <v>414</v>
       </c>
       <c r="D162" s="1" t="n">
-        <v>931</v>
+        <v>1107</v>
       </c>
       <c r="E162" s="12" t="n">
         <f aca="false">D162/83.784</f>
-        <v>11.1119068079824</v>
+        <v>13.212546548267</v>
       </c>
       <c r="F162" s="12" t="n">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="G162" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H162" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$154,G162)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I162" s="13" t="n">
         <f aca="false">$B$154+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="J162" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$154,I162)</f>
@@ -6062,11 +6058,11 @@
       </c>
       <c r="K162" s="13" t="n">
         <f aca="false">$B$154+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="L162" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K162,G162)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M162" s="0"/>
       <c r="N162" s="0"/>
@@ -6131,7 +6127,7 @@
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B166" s="7" t="n">
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="D166" s="0"/>
       <c r="E166" s="8" t="s">
@@ -6208,36 +6204,36 @@
         <v>300</v>
       </c>
       <c r="D168" s="1" t="n">
-        <v>12428</v>
+        <v>13155</v>
       </c>
       <c r="E168" s="12" t="n">
         <f aca="false">D168/60.48</f>
-        <v>205.489417989418</v>
+        <v>217.509920634921</v>
       </c>
       <c r="F168" s="12" t="n">
-        <v>837</v>
+        <v>727</v>
       </c>
       <c r="G168" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H168" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$166,G168)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I168" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J168" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$166,I168)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K168" s="13" t="n">
         <f aca="false">$B$166+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="L168" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K168,G168)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M168" s="0"/>
       <c r="N168" s="0"/>
@@ -6253,36 +6249,36 @@
         <v>230</v>
       </c>
       <c r="D169" s="1" t="n">
-        <v>8464</v>
+        <v>9387</v>
       </c>
       <c r="E169" s="12" t="n">
         <f aca="false">D169/46.75</f>
-        <v>181.048128342246</v>
+        <v>200.791443850267</v>
       </c>
       <c r="F169" s="12" t="n">
-        <v>748</v>
+        <v>923</v>
       </c>
       <c r="G169" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H169" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$166,G169)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I169" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J169" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$166,I169)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K169" s="13" t="n">
         <f aca="false">$B$166+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="L169" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K169,G169)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M169" s="0"/>
       <c r="N169" s="0"/>
@@ -6298,36 +6294,36 @@
         <v>330</v>
       </c>
       <c r="D170" s="1" t="n">
-        <v>3523</v>
+        <v>4032</v>
       </c>
       <c r="E170" s="12" t="n">
         <f aca="false">D170/65.27</f>
-        <v>53.9757928604259</v>
+        <v>61.7741688371381</v>
       </c>
       <c r="F170" s="12" t="n">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="G170" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H170" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$166,G170)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I170" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J170" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$166,I170)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K170" s="13" t="n">
         <f aca="false">$B$166+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="L170" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K170,G170)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M170" s="0"/>
       <c r="N170" s="0"/>
@@ -6343,25 +6339,25 @@
         <v>50</v>
       </c>
       <c r="D171" s="12" t="n">
-        <v>180</v>
+        <v>239</v>
       </c>
       <c r="E171" s="12" t="n">
         <f aca="false">D171/10.36</f>
-        <v>17.3745173745174</v>
+        <v>23.0694980694981</v>
       </c>
       <c r="F171" s="12" t="n">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="G171" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H171" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$166,G171)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I171" s="13" t="n">
         <f aca="false">$B$166+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="J171" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$166,I171)</f>
@@ -6369,11 +6365,11 @@
       </c>
       <c r="K171" s="13" t="n">
         <f aca="false">$B$166+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="L171" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K171,G171)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M171" s="0"/>
       <c r="N171" s="0"/>
@@ -6389,25 +6385,25 @@
         <v>330</v>
       </c>
       <c r="D172" s="1" t="n">
-        <v>1789</v>
+        <v>2352</v>
       </c>
       <c r="E172" s="12" t="n">
         <f aca="false">D172/67.79</f>
-        <v>26.390323056498</v>
+        <v>34.695382799823</v>
       </c>
       <c r="F172" s="12" t="n">
-        <v>381</v>
+        <v>563</v>
       </c>
       <c r="G172" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H172" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$166,G172)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I172" s="13" t="n">
         <f aca="false">$B$166+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="J172" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$166,I172)</f>
@@ -6415,11 +6411,11 @@
       </c>
       <c r="K172" s="13" t="n">
         <f aca="false">$B$166+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="L172" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K172,G172)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M172" s="0"/>
       <c r="N172" s="0"/>
@@ -6435,25 +6431,25 @@
         <v>1660</v>
       </c>
       <c r="D173" s="1" t="n">
-        <v>4053</v>
+        <v>5102</v>
       </c>
       <c r="E173" s="12" t="n">
         <f aca="false">D173/331</f>
-        <v>12.2447129909366</v>
+        <v>15.4138972809668</v>
       </c>
       <c r="F173" s="12" t="n">
-        <v>912</v>
+        <v>1049</v>
       </c>
       <c r="G173" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H173" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$166,G173)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I173" s="13" t="n">
         <f aca="false">$B$166+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="J173" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$166,I173)</f>
@@ -6461,11 +6457,11 @@
       </c>
       <c r="K173" s="13" t="n">
         <f aca="false">$B$166+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="L173" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K173,G173)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M173" s="0"/>
       <c r="N173" s="0"/>
@@ -6481,25 +6477,25 @@
         <v>414</v>
       </c>
       <c r="D174" s="1" t="n">
-        <v>775</v>
+        <v>931</v>
       </c>
       <c r="E174" s="12" t="n">
         <f aca="false">D174/83.784</f>
-        <v>9.24997612909386</v>
+        <v>11.1119068079824</v>
       </c>
       <c r="F174" s="12" t="n">
-        <v>130</v>
+        <v>156</v>
       </c>
       <c r="G174" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H174" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$166,G174)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I174" s="13" t="n">
         <f aca="false">$B$166+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="J174" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$166,I174)</f>
@@ -6507,11 +6503,11 @@
       </c>
       <c r="K174" s="13" t="n">
         <f aca="false">$B$166+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="L174" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K174,G174)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M174" s="0"/>
       <c r="N174" s="0"/>
@@ -6520,15 +6516,16 @@
       <c r="Q174" s="0"/>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C175" s="12"/>
+      <c r="B175" s="4"/>
+      <c r="C175" s="5"/>
       <c r="D175" s="0"/>
-      <c r="E175" s="12"/>
-      <c r="F175" s="12"/>
-      <c r="G175" s="13"/>
+      <c r="E175" s="0"/>
+      <c r="F175" s="0"/>
+      <c r="G175" s="0"/>
       <c r="H175" s="0"/>
-      <c r="I175" s="13"/>
+      <c r="I175" s="0"/>
       <c r="J175" s="0"/>
-      <c r="K175" s="13"/>
+      <c r="K175" s="0"/>
       <c r="L175" s="0"/>
       <c r="M175" s="0"/>
       <c r="N175" s="0"/>
@@ -6537,15 +6534,16 @@
       <c r="Q175" s="0"/>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C176" s="12"/>
+      <c r="B176" s="4"/>
+      <c r="C176" s="5"/>
       <c r="D176" s="0"/>
-      <c r="E176" s="12"/>
-      <c r="F176" s="12"/>
-      <c r="G176" s="13"/>
+      <c r="E176" s="0"/>
+      <c r="F176" s="0"/>
+      <c r="G176" s="0"/>
       <c r="H176" s="0"/>
-      <c r="I176" s="13"/>
+      <c r="I176" s="0"/>
       <c r="J176" s="0"/>
-      <c r="K176" s="13"/>
+      <c r="K176" s="0"/>
       <c r="L176" s="0"/>
       <c r="M176" s="0"/>
       <c r="N176" s="0"/>
@@ -6574,7 +6572,7 @@
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B178" s="7" t="n">
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="D178" s="0"/>
       <c r="E178" s="8" t="s">
@@ -6596,7 +6594,9 @@
       <c r="K178" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="L178" s="0"/>
+      <c r="L178" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="M178" s="0"/>
       <c r="N178" s="0"/>
       <c r="O178" s="0"/>
@@ -6632,7 +6632,9 @@
       <c r="K179" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="L179" s="0"/>
+      <c r="L179" s="8" t="s">
+        <v>47</v>
+      </c>
       <c r="M179" s="0"/>
       <c r="N179" s="0"/>
       <c r="O179" s="0"/>
@@ -6647,34 +6649,37 @@
         <v>300</v>
       </c>
       <c r="D180" s="1" t="n">
-        <v>11591</v>
+        <v>12428</v>
       </c>
       <c r="E180" s="12" t="n">
         <f aca="false">D180/60.48</f>
-        <v>191.650132275132</v>
+        <v>205.489417989418</v>
       </c>
       <c r="F180" s="12" t="n">
-        <v>812</v>
+        <v>837</v>
       </c>
       <c r="G180" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H180" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$178,G180)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I180" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J180" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$178,I180)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K180" s="13" t="n">
-        <f aca="false">$B$190+1</f>
-        <v>43920</v>
-      </c>
-      <c r="L180" s="0"/>
+        <f aca="false">$B$178+1</f>
+        <v>43922</v>
+      </c>
+      <c r="L180" s="0" t="n">
+        <f aca="false">_xlfn.DAYS(K180,G180)</f>
+        <v>22</v>
+      </c>
       <c r="M180" s="0"/>
       <c r="N180" s="0"/>
       <c r="O180" s="0"/>
@@ -6689,34 +6694,37 @@
         <v>230</v>
       </c>
       <c r="D181" s="1" t="n">
-        <v>7716</v>
+        <v>8464</v>
       </c>
       <c r="E181" s="12" t="n">
         <f aca="false">D181/46.75</f>
-        <v>165.048128342246</v>
+        <v>181.048128342246</v>
       </c>
       <c r="F181" s="12" t="n">
-        <v>913</v>
+        <v>748</v>
       </c>
       <c r="G181" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H181" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$178,G181)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I181" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J181" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$178,I181)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K181" s="13" t="n">
-        <f aca="false">$B$190+1</f>
-        <v>43920</v>
-      </c>
-      <c r="L181" s="0"/>
+        <f aca="false">$B$178+1</f>
+        <v>43922</v>
+      </c>
+      <c r="L181" s="0" t="n">
+        <f aca="false">_xlfn.DAYS(K181,G181)</f>
+        <v>15</v>
+      </c>
       <c r="M181" s="0"/>
       <c r="N181" s="0"/>
       <c r="O181" s="0"/>
@@ -6731,34 +6739,37 @@
         <v>330</v>
       </c>
       <c r="D182" s="1" t="n">
-        <v>3024</v>
+        <v>3523</v>
       </c>
       <c r="E182" s="12" t="n">
         <f aca="false">D182/65.27</f>
-        <v>46.3306266278535</v>
+        <v>53.9757928604259</v>
       </c>
       <c r="F182" s="12" t="n">
-        <v>418</v>
+        <v>499</v>
       </c>
       <c r="G182" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H182" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$178,G182)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I182" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J182" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$178,I182)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K182" s="13" t="n">
-        <f aca="false">$B$190+1</f>
-        <v>43920</v>
-      </c>
-      <c r="L182" s="0"/>
+        <f aca="false">$B$178+1</f>
+        <v>43922</v>
+      </c>
+      <c r="L182" s="0" t="n">
+        <f aca="false">_xlfn.DAYS(K182,G182)</f>
+        <v>10</v>
+      </c>
       <c r="M182" s="0"/>
       <c r="N182" s="0"/>
       <c r="O182" s="0"/>
@@ -6773,35 +6784,38 @@
         <v>50</v>
       </c>
       <c r="D183" s="12" t="n">
-        <v>146</v>
+        <v>180</v>
       </c>
       <c r="E183" s="12" t="n">
         <f aca="false">D183/10.36</f>
-        <v>14.0926640926641</v>
+        <v>17.3745173745174</v>
       </c>
       <c r="F183" s="12" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G183" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H183" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$178,G183)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I183" s="13" t="n">
         <f aca="false">$B$178+1</f>
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="J183" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$178,I183)</f>
         <v>-1</v>
       </c>
       <c r="K183" s="13" t="n">
-        <f aca="false">$B$190+1</f>
-        <v>43920</v>
-      </c>
-      <c r="L183" s="0"/>
+        <f aca="false">$B$178+1</f>
+        <v>43922</v>
+      </c>
+      <c r="L183" s="0" t="n">
+        <f aca="false">_xlfn.DAYS(K183,G183)</f>
+        <v>7</v>
+      </c>
       <c r="M183" s="0"/>
       <c r="N183" s="0"/>
       <c r="O183" s="0"/>
@@ -6816,35 +6830,38 @@
         <v>330</v>
       </c>
       <c r="D184" s="1" t="n">
-        <v>1408</v>
+        <v>1789</v>
       </c>
       <c r="E184" s="12" t="n">
         <f aca="false">D184/67.79</f>
-        <v>20.770025077445</v>
+        <v>26.390323056498</v>
       </c>
       <c r="F184" s="12" t="n">
-        <v>180</v>
+        <v>381</v>
       </c>
       <c r="G184" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H184" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$178,G184)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I184" s="13" t="n">
         <f aca="false">$B$178+1</f>
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="J184" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$178,I184)</f>
         <v>-1</v>
       </c>
       <c r="K184" s="13" t="n">
-        <f aca="false">$B$190+1</f>
-        <v>43920</v>
-      </c>
-      <c r="L184" s="0"/>
+        <f aca="false">$B$178+1</f>
+        <v>43922</v>
+      </c>
+      <c r="L184" s="0" t="n">
+        <f aca="false">_xlfn.DAYS(K184,G184)</f>
+        <v>6</v>
+      </c>
       <c r="M184" s="0"/>
       <c r="N184" s="0"/>
       <c r="O184" s="0"/>
@@ -6859,34 +6876,38 @@
         <v>1660</v>
       </c>
       <c r="D185" s="1" t="n">
-        <v>3141</v>
+        <v>4053</v>
       </c>
       <c r="E185" s="12" t="n">
         <f aca="false">D185/331</f>
-        <v>9.48942598187311</v>
+        <v>12.2447129909366</v>
       </c>
       <c r="F185" s="12" t="n">
-        <v>573</v>
+        <v>912</v>
       </c>
       <c r="G185" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H185" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$178,G185)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I185" s="13" t="n">
-        <v>43920</v>
+        <f aca="false">$B$178+1</f>
+        <v>43922</v>
       </c>
       <c r="J185" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$178,I185)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K185" s="13" t="n">
-        <f aca="false">$B$190+1</f>
-        <v>43920</v>
-      </c>
-      <c r="L185" s="0"/>
+        <f aca="false">$B$178+1</f>
+        <v>43922</v>
+      </c>
+      <c r="L185" s="0" t="n">
+        <f aca="false">_xlfn.DAYS(K185,G185)</f>
+        <v>5</v>
+      </c>
       <c r="M185" s="0"/>
       <c r="N185" s="0"/>
       <c r="O185" s="0"/>
@@ -6901,35 +6922,38 @@
         <v>414</v>
       </c>
       <c r="D186" s="1" t="n">
-        <v>645</v>
+        <v>775</v>
       </c>
       <c r="E186" s="12" t="n">
         <f aca="false">D186/83.784</f>
-        <v>7.69836723002005</v>
+        <v>9.24997612909386</v>
       </c>
       <c r="F186" s="12" t="n">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="G186" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H186" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$178,G186)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I186" s="13" t="n">
         <f aca="false">$B$178+1</f>
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="J186" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$178,I186)</f>
         <v>-1</v>
       </c>
       <c r="K186" s="13" t="n">
-        <f aca="false">$B$190+1</f>
-        <v>43920</v>
-      </c>
-      <c r="L186" s="0"/>
+        <f aca="false">$B$178+1</f>
+        <v>43922</v>
+      </c>
+      <c r="L186" s="0" t="n">
+        <f aca="false">_xlfn.DAYS(K186,G186)</f>
+        <v>4</v>
+      </c>
       <c r="M186" s="0"/>
       <c r="N186" s="0"/>
       <c r="O186" s="0"/>
@@ -6937,16 +6961,15 @@
       <c r="Q186" s="0"/>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B187" s="4"/>
-      <c r="C187" s="5"/>
+      <c r="C187" s="12"/>
       <c r="D187" s="0"/>
-      <c r="E187" s="0"/>
-      <c r="F187" s="0"/>
-      <c r="G187" s="0"/>
+      <c r="E187" s="12"/>
+      <c r="F187" s="12"/>
+      <c r="G187" s="13"/>
       <c r="H187" s="0"/>
-      <c r="I187" s="0"/>
+      <c r="I187" s="13"/>
       <c r="J187" s="0"/>
-      <c r="K187" s="0"/>
+      <c r="K187" s="13"/>
       <c r="L187" s="0"/>
       <c r="M187" s="0"/>
       <c r="N187" s="0"/>
@@ -6955,16 +6978,15 @@
       <c r="Q187" s="0"/>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B188" s="4"/>
-      <c r="C188" s="5"/>
+      <c r="C188" s="12"/>
       <c r="D188" s="0"/>
-      <c r="E188" s="0"/>
-      <c r="F188" s="0"/>
-      <c r="G188" s="0"/>
+      <c r="E188" s="12"/>
+      <c r="F188" s="12"/>
+      <c r="G188" s="13"/>
       <c r="H188" s="0"/>
-      <c r="I188" s="0"/>
+      <c r="I188" s="13"/>
       <c r="J188" s="0"/>
-      <c r="K188" s="0"/>
+      <c r="K188" s="13"/>
       <c r="L188" s="0"/>
       <c r="M188" s="0"/>
       <c r="N188" s="0"/>
@@ -6993,7 +7015,7 @@
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B190" s="7" t="n">
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="D190" s="0"/>
       <c r="E190" s="8" t="s">
@@ -7066,31 +7088,31 @@
         <v>300</v>
       </c>
       <c r="D192" s="1" t="n">
-        <v>10779</v>
+        <v>11591</v>
       </c>
       <c r="E192" s="12" t="n">
         <f aca="false">D192/60.48</f>
-        <v>178.224206349206</v>
+        <v>191.650132275132</v>
       </c>
       <c r="F192" s="12" t="n">
-        <v>756</v>
+        <v>812</v>
       </c>
       <c r="G192" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H192" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$190,G192)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I192" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J192" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$190,I192)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K192" s="13" t="n">
-        <f aca="false">$B$190+1</f>
+        <f aca="false">$B$202+1</f>
         <v>43920</v>
       </c>
       <c r="L192" s="0"/>
@@ -7108,31 +7130,31 @@
         <v>230</v>
       </c>
       <c r="D193" s="1" t="n">
-        <v>6803</v>
+        <v>7716</v>
       </c>
       <c r="E193" s="12" t="n">
         <f aca="false">D193/46.75</f>
-        <v>145.51871657754</v>
+        <v>165.048128342246</v>
       </c>
       <c r="F193" s="12" t="n">
-        <v>821</v>
+        <v>913</v>
       </c>
       <c r="G193" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H193" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$190,G193)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I193" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J193" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$190,I193)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K193" s="13" t="n">
-        <f aca="false">$B$190+1</f>
+        <f aca="false">$B$202+1</f>
         <v>43920</v>
       </c>
       <c r="L193" s="0"/>
@@ -7150,31 +7172,31 @@
         <v>330</v>
       </c>
       <c r="D194" s="1" t="n">
-        <v>2606</v>
+        <v>3024</v>
       </c>
       <c r="E194" s="12" t="n">
         <f aca="false">D194/65.27</f>
-        <v>39.9264593228129</v>
+        <v>46.3306266278535</v>
       </c>
       <c r="F194" s="12" t="n">
-        <v>292</v>
+        <v>418</v>
       </c>
       <c r="G194" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H194" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$190,G194)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I194" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J194" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$190,I194)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K194" s="13" t="n">
-        <f aca="false">$B$190+1</f>
+        <f aca="false">$B$202+1</f>
         <v>43920</v>
       </c>
       <c r="L194" s="0"/>
@@ -7186,38 +7208,38 @@
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B195" s="0" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C195" s="12" t="n">
-        <v>1660</v>
-      </c>
-      <c r="D195" s="1" t="n">
-        <v>2583</v>
+        <v>50</v>
+      </c>
+      <c r="D195" s="12" t="n">
+        <v>146</v>
       </c>
       <c r="E195" s="12" t="n">
-        <f aca="false">D195/331</f>
-        <v>7.8036253776435</v>
+        <f aca="false">D195/10.36</f>
+        <v>14.0926640926641</v>
       </c>
       <c r="F195" s="12" t="n">
-        <v>363</v>
+        <v>36</v>
       </c>
       <c r="G195" s="13" t="n">
-        <v>43917</v>
+        <v>43915</v>
       </c>
       <c r="H195" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$190,G195)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I195" s="13" t="n">
         <f aca="false">$B$190+1</f>
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="J195" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$190,I195)</f>
         <v>-1</v>
       </c>
       <c r="K195" s="13" t="n">
-        <f aca="false">$B$190+1</f>
+        <f aca="false">$B$202+1</f>
         <v>43920</v>
       </c>
       <c r="L195" s="0"/>
@@ -7235,32 +7257,32 @@
         <v>330</v>
       </c>
       <c r="D196" s="1" t="n">
-        <v>1228</v>
+        <v>1408</v>
       </c>
       <c r="E196" s="12" t="n">
         <f aca="false">D196/67.79</f>
-        <v>18.1147661897035</v>
+        <v>20.770025077445</v>
       </c>
       <c r="F196" s="12" t="n">
-        <v>209</v>
+        <v>180</v>
       </c>
       <c r="G196" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H196" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$190,G196)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I196" s="13" t="n">
         <f aca="false">$B$190+1</f>
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="J196" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$190,I196)</f>
         <v>-1</v>
       </c>
       <c r="K196" s="13" t="n">
-        <f aca="false">$B$190+1</f>
+        <f aca="false">$B$202+1</f>
         <v>43920</v>
       </c>
       <c r="L196" s="0"/>
@@ -7272,38 +7294,37 @@
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B197" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C197" s="12" t="n">
-        <v>414</v>
+        <v>1660</v>
       </c>
       <c r="D197" s="1" t="n">
-        <v>541</v>
+        <v>3141</v>
       </c>
       <c r="E197" s="12" t="n">
-        <f aca="false">D197/83.784</f>
-        <v>6.457080110761</v>
+        <f aca="false">D197/331</f>
+        <v>9.48942598187311</v>
       </c>
       <c r="F197" s="12" t="n">
-        <v>108</v>
+        <v>573</v>
       </c>
       <c r="G197" s="13" t="n">
-        <v>43918</v>
+        <v>43917</v>
       </c>
       <c r="H197" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$190,G197)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I197" s="13" t="n">
-        <f aca="false">$B$190+1</f>
         <v>43920</v>
       </c>
       <c r="J197" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$190,I197)</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K197" s="13" t="n">
-        <f aca="false">$B$190+1</f>
+        <f aca="false">$B$202+1</f>
         <v>43920</v>
       </c>
       <c r="L197" s="0"/>
@@ -7315,38 +7336,38 @@
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B198" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C198" s="12" t="n">
-        <v>50</v>
-      </c>
-      <c r="D198" s="12" t="n">
-        <v>110</v>
+        <v>414</v>
+      </c>
+      <c r="D198" s="1" t="n">
+        <v>645</v>
       </c>
       <c r="E198" s="12" t="n">
-        <f aca="false">D198/10.36</f>
-        <v>10.6177606177606</v>
+        <f aca="false">D198/83.784</f>
+        <v>7.69836723002005</v>
       </c>
       <c r="F198" s="12" t="n">
-        <v>5</v>
+        <v>104</v>
       </c>
       <c r="G198" s="13" t="n">
-        <v>43915</v>
+        <v>43918</v>
       </c>
       <c r="H198" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$190,G198)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I198" s="13" t="n">
         <f aca="false">$B$190+1</f>
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="J198" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$190,I198)</f>
         <v>-1</v>
       </c>
       <c r="K198" s="13" t="n">
-        <f aca="false">$B$190+1</f>
+        <f aca="false">$B$202+1</f>
         <v>43920</v>
       </c>
       <c r="L198" s="0"/>
@@ -7413,15 +7434,13 @@
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B202" s="7" t="n">
-        <v>43918</v>
-      </c>
-      <c r="D202" s="8" t="s">
-        <v>12</v>
-      </c>
+        <v>43919</v>
+      </c>
+      <c r="D202" s="0"/>
       <c r="E202" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F202" s="8"/>
+      <c r="F202" s="0"/>
       <c r="G202" s="8" t="s">
         <v>35</v>
       </c>
@@ -7449,8 +7468,8 @@
       <c r="C203" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D203" s="10" t="s">
-        <v>6</v>
+      <c r="D203" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="E203" s="10" t="s">
         <v>41</v>
@@ -7488,32 +7507,32 @@
         <v>300</v>
       </c>
       <c r="D204" s="1" t="n">
-        <v>10023</v>
+        <v>10779</v>
       </c>
       <c r="E204" s="12" t="n">
         <f aca="false">D204/60.48</f>
-        <v>165.724206349206</v>
+        <v>178.224206349206</v>
       </c>
       <c r="F204" s="12" t="n">
-        <v>889</v>
+        <v>756</v>
       </c>
       <c r="G204" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H204" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$202,G204)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I204" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J204" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$214,I204)</f>
-        <v>15</v>
+        <f aca="false">_xlfn.DAYS($B$202,I204)</f>
+        <v>17</v>
       </c>
       <c r="K204" s="13" t="n">
         <f aca="false">$B$202+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="L204" s="0"/>
       <c r="M204" s="0"/>
@@ -7530,32 +7549,32 @@
         <v>230</v>
       </c>
       <c r="D205" s="1" t="n">
-        <v>5982</v>
+        <v>6803</v>
       </c>
       <c r="E205" s="12" t="n">
         <f aca="false">D205/46.75</f>
-        <v>127.957219251337</v>
+        <v>145.51871657754</v>
       </c>
       <c r="F205" s="12" t="n">
-        <v>844</v>
+        <v>821</v>
       </c>
       <c r="G205" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H205" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$202,G205)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I205" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J205" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$214,I205)</f>
-        <v>4</v>
+        <f aca="false">_xlfn.DAYS($B$202,I205)</f>
+        <v>6</v>
       </c>
       <c r="K205" s="13" t="n">
         <f aca="false">$B$202+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="L205" s="0"/>
       <c r="M205" s="0"/>
@@ -7572,32 +7591,32 @@
         <v>330</v>
       </c>
       <c r="D206" s="1" t="n">
-        <v>2314</v>
+        <v>2606</v>
       </c>
       <c r="E206" s="12" t="n">
         <f aca="false">D206/65.27</f>
-        <v>35.4527347939329</v>
+        <v>39.9264593228129</v>
       </c>
       <c r="F206" s="12" t="n">
-        <v>319</v>
+        <v>292</v>
       </c>
       <c r="G206" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H206" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$202,G206)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I206" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J206" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$214,I206)</f>
-        <v>3</v>
+        <f aca="false">_xlfn.DAYS($B$202,I206)</f>
+        <v>5</v>
       </c>
       <c r="K206" s="13" t="n">
         <f aca="false">$B$202+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="L206" s="0"/>
       <c r="M206" s="0"/>
@@ -7614,25 +7633,25 @@
         <v>1660</v>
       </c>
       <c r="D207" s="1" t="n">
-        <v>2221</v>
+        <v>2583</v>
       </c>
       <c r="E207" s="12" t="n">
         <f aca="false">D207/331</f>
-        <v>6.70996978851964</v>
+        <v>7.8036253776435</v>
       </c>
       <c r="F207" s="12" t="n">
-        <v>525</v>
+        <v>363</v>
       </c>
       <c r="G207" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H207" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$202,G207)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I207" s="13" t="n">
         <f aca="false">$B$202+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="J207" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$202,I207)</f>
@@ -7640,7 +7659,7 @@
       </c>
       <c r="K207" s="13" t="n">
         <f aca="false">$B$202+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="L207" s="0"/>
       <c r="M207" s="0"/>
@@ -7657,25 +7676,25 @@
         <v>330</v>
       </c>
       <c r="D208" s="1" t="n">
-        <v>1019</v>
+        <v>1228</v>
       </c>
       <c r="E208" s="12" t="n">
         <f aca="false">D208/67.79</f>
-        <v>15.0317155922702</v>
+        <v>18.1147661897035</v>
       </c>
       <c r="F208" s="12" t="n">
-        <v>260</v>
+        <v>209</v>
       </c>
       <c r="G208" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H208" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$202,G208)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I208" s="13" t="n">
         <f aca="false">$B$202+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="J208" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$202,I208)</f>
@@ -7683,7 +7702,7 @@
       </c>
       <c r="K208" s="13" t="n">
         <f aca="false">$B$202+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="L208" s="0"/>
       <c r="M208" s="0"/>
@@ -7700,25 +7719,25 @@
         <v>414</v>
       </c>
       <c r="D209" s="1" t="n">
-        <v>433</v>
+        <v>541</v>
       </c>
       <c r="E209" s="12" t="n">
         <f aca="false">D209/83.784</f>
-        <v>5.16805117922276</v>
+        <v>6.457080110761</v>
       </c>
       <c r="F209" s="12" t="n">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="G209" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H209" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$202,G209)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I209" s="13" t="n">
         <f aca="false">$B$202+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="J209" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$202,I209)</f>
@@ -7726,7 +7745,7 @@
       </c>
       <c r="K209" s="13" t="n">
         <f aca="false">$B$202+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="L209" s="0"/>
       <c r="M209" s="0"/>
@@ -7743,25 +7762,25 @@
         <v>50</v>
       </c>
       <c r="D210" s="12" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E210" s="12" t="n">
         <f aca="false">D210/10.36</f>
-        <v>10.1351351351351</v>
+        <v>10.6177606177606</v>
       </c>
       <c r="F210" s="12" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G210" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H210" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$202,G210)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I210" s="13" t="n">
         <f aca="false">$B$202+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="J210" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$202,I210)</f>
@@ -7769,7 +7788,7 @@
       </c>
       <c r="K210" s="13" t="n">
         <f aca="false">$B$202+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="L210" s="0"/>
       <c r="M210" s="0"/>
@@ -7779,15 +7798,16 @@
       <c r="Q210" s="0"/>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C211" s="12"/>
-      <c r="D211" s="12"/>
-      <c r="E211" s="12"/>
-      <c r="F211" s="12"/>
-      <c r="G211" s="13"/>
+      <c r="B211" s="4"/>
+      <c r="C211" s="5"/>
+      <c r="D211" s="0"/>
+      <c r="E211" s="0"/>
+      <c r="F211" s="0"/>
+      <c r="G211" s="0"/>
       <c r="H211" s="0"/>
-      <c r="I211" s="13"/>
+      <c r="I211" s="0"/>
       <c r="J211" s="0"/>
-      <c r="K211" s="13"/>
+      <c r="K211" s="0"/>
       <c r="L211" s="0"/>
       <c r="M211" s="0"/>
       <c r="N211" s="0"/>
@@ -7832,11 +7852,10 @@
       <c r="P213" s="0"/>
       <c r="Q213" s="0"/>
     </row>
-    <row r="214" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B214" s="7" t="n">
-        <v>43917</v>
-      </c>
-      <c r="C214" s="0"/>
+        <v>43918</v>
+      </c>
       <c r="D214" s="8" t="s">
         <v>12</v>
       </c>
@@ -7859,10 +7878,14 @@
       <c r="K214" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="L214" s="8"/>
+      <c r="L214" s="0"/>
+      <c r="M214" s="0"/>
+      <c r="N214" s="0"/>
+      <c r="O214" s="0"/>
+      <c r="P214" s="0"/>
+      <c r="Q214" s="0"/>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="3"/>
       <c r="B215" s="9"/>
       <c r="C215" s="10" t="s">
         <v>40</v>
@@ -7891,7 +7914,7 @@
       <c r="K215" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="L215" s="8"/>
+      <c r="L215" s="0"/>
       <c r="M215" s="0"/>
       <c r="N215" s="0"/>
       <c r="O215" s="0"/>
@@ -7906,32 +7929,32 @@
         <v>300</v>
       </c>
       <c r="D216" s="1" t="n">
-        <v>9134</v>
+        <v>10023</v>
       </c>
       <c r="E216" s="12" t="n">
         <f aca="false">D216/60.48</f>
-        <v>151.025132275132</v>
+        <v>165.724206349206</v>
       </c>
       <c r="F216" s="12" t="n">
-        <v>919</v>
+        <v>889</v>
       </c>
       <c r="G216" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H216" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$214,G216)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I216" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J216" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$214,I216)</f>
+        <f aca="false">_xlfn.DAYS(B$226,I216)</f>
         <v>15</v>
       </c>
       <c r="K216" s="13" t="n">
         <f aca="false">$B$214+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="L216" s="0"/>
       <c r="M216" s="0"/>
@@ -7948,32 +7971,32 @@
         <v>230</v>
       </c>
       <c r="D217" s="1" t="n">
-        <v>5138</v>
+        <v>5982</v>
       </c>
       <c r="E217" s="12" t="n">
         <f aca="false">D217/46.75</f>
-        <v>109.903743315508</v>
+        <v>127.957219251337</v>
       </c>
       <c r="F217" s="12" t="n">
-        <v>773</v>
+        <v>844</v>
       </c>
       <c r="G217" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H217" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$214,G217)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I217" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J217" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$214,I217)</f>
+        <f aca="false">_xlfn.DAYS(B$226,I217)</f>
         <v>4</v>
       </c>
       <c r="K217" s="13" t="n">
         <f aca="false">$B$214+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="L217" s="0"/>
       <c r="M217" s="0"/>
@@ -7990,32 +8013,32 @@
         <v>330</v>
       </c>
       <c r="D218" s="1" t="n">
-        <v>1995</v>
+        <v>2314</v>
       </c>
       <c r="E218" s="12" t="n">
         <f aca="false">D218/65.27</f>
-        <v>30.5653439558756</v>
+        <v>35.4527347939329</v>
       </c>
       <c r="F218" s="12" t="n">
-        <v>299</v>
+        <v>319</v>
       </c>
       <c r="G218" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H218" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$214,G218)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I218" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J218" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$214,I218)</f>
+        <f aca="false">_xlfn.DAYS(B$226,I218)</f>
         <v>3</v>
       </c>
       <c r="K218" s="13" t="n">
         <f aca="false">$B$214+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="L218" s="0"/>
       <c r="M218" s="0"/>
@@ -8032,34 +8055,33 @@
         <v>1660</v>
       </c>
       <c r="D219" s="1" t="n">
-        <v>1696</v>
+        <v>2221</v>
       </c>
       <c r="E219" s="12" t="n">
         <f aca="false">D219/331</f>
-        <v>5.12386706948641</v>
+        <v>6.70996978851964</v>
       </c>
       <c r="F219" s="12" t="n">
-        <v>400</v>
+        <v>525</v>
       </c>
       <c r="G219" s="13" t="n">
-        <f aca="false">$B$214</f>
         <v>43917</v>
       </c>
       <c r="H219" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$214,G219)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I219" s="13" t="n">
         <f aca="false">$B$214+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="J219" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$214,I219)</f>
+        <f aca="false">_xlfn.DAYS($B$214,I219)</f>
         <v>-1</v>
       </c>
       <c r="K219" s="13" t="n">
         <f aca="false">$B$214+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="L219" s="0"/>
       <c r="M219" s="0"/>
@@ -8076,33 +8098,33 @@
         <v>330</v>
       </c>
       <c r="D220" s="1" t="n">
-        <v>759</v>
+        <v>1019</v>
       </c>
       <c r="E220" s="12" t="n">
         <f aca="false">D220/67.79</f>
-        <v>11.1963416433102</v>
+        <v>15.0317155922702</v>
       </c>
       <c r="F220" s="12" t="n">
-        <v>181</v>
+        <v>260</v>
       </c>
       <c r="G220" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H220" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$214,G220)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I220" s="13" t="n">
         <f aca="false">$B$214+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="J220" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$214,I220)</f>
+        <f aca="false">_xlfn.DAYS($B$214,I220)</f>
         <v>-1</v>
       </c>
       <c r="K220" s="13" t="n">
         <f aca="false">$B$214+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="L220" s="0"/>
       <c r="M220" s="0"/>
@@ -8119,34 +8141,33 @@
         <v>414</v>
       </c>
       <c r="D221" s="1" t="n">
-        <v>351</v>
+        <v>433</v>
       </c>
       <c r="E221" s="12" t="n">
         <f aca="false">D221/83.784</f>
-        <v>4.18934402749928</v>
+        <v>5.16805117922276</v>
       </c>
       <c r="F221" s="12" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G221" s="13" t="n">
-        <f aca="false">$B$214+1</f>
         <v>43918</v>
       </c>
       <c r="H221" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$214,G221)</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I221" s="13" t="n">
         <f aca="false">$B$214+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="J221" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$214,I221)</f>
+        <f aca="false">_xlfn.DAYS($B$214,I221)</f>
         <v>-1</v>
       </c>
       <c r="K221" s="13" t="n">
         <f aca="false">$B$214+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="L221" s="0"/>
       <c r="M221" s="0"/>
@@ -8170,26 +8191,26 @@
         <v>10.1351351351351</v>
       </c>
       <c r="F222" s="12" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="G222" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H222" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$214,G222)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I222" s="13" t="n">
         <f aca="false">$B$214+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="J222" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$214,I222)</f>
+        <f aca="false">_xlfn.DAYS($B$214,I222)</f>
         <v>-1</v>
       </c>
       <c r="K222" s="13" t="n">
         <f aca="false">$B$214+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="L222" s="0"/>
       <c r="M222" s="0"/>
@@ -8199,14 +8220,15 @@
       <c r="Q222" s="0"/>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D223" s="0"/>
-      <c r="E223" s="0"/>
-      <c r="F223" s="0"/>
-      <c r="G223" s="0"/>
+      <c r="C223" s="12"/>
+      <c r="D223" s="12"/>
+      <c r="E223" s="12"/>
+      <c r="F223" s="12"/>
+      <c r="G223" s="13"/>
       <c r="H223" s="0"/>
-      <c r="I223" s="0"/>
+      <c r="I223" s="13"/>
       <c r="J223" s="0"/>
-      <c r="K223" s="0"/>
+      <c r="K223" s="13"/>
       <c r="L223" s="0"/>
       <c r="M223" s="0"/>
       <c r="N223" s="0"/>
@@ -8215,6 +8237,8 @@
       <c r="Q223" s="0"/>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B224" s="4"/>
+      <c r="C224" s="5"/>
       <c r="D224" s="0"/>
       <c r="E224" s="0"/>
       <c r="F224" s="0"/>
@@ -8249,10 +8273,11 @@
       <c r="P225" s="0"/>
       <c r="Q225" s="0"/>
     </row>
-    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="226" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B226" s="7" t="n">
-        <v>43916</v>
-      </c>
+        <v>43917</v>
+      </c>
+      <c r="C226" s="0"/>
       <c r="D226" s="8" t="s">
         <v>12</v>
       </c>
@@ -8275,17 +8300,13 @@
       <c r="K226" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="L226" s="0"/>
-      <c r="M226" s="0"/>
-      <c r="N226" s="0"/>
-      <c r="O226" s="0"/>
-      <c r="P226" s="0"/>
-      <c r="Q226" s="0"/>
+      <c r="L226" s="8"/>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="3"/>
       <c r="B227" s="9"/>
       <c r="C227" s="10" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D227" s="10" t="s">
         <v>6</v>
@@ -8311,7 +8332,7 @@
       <c r="K227" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="L227" s="0"/>
+      <c r="L227" s="8"/>
       <c r="M227" s="0"/>
       <c r="N227" s="0"/>
       <c r="O227" s="0"/>
@@ -8326,32 +8347,32 @@
         <v>300</v>
       </c>
       <c r="D228" s="1" t="n">
-        <v>8215</v>
+        <v>9134</v>
       </c>
       <c r="E228" s="12" t="n">
         <f aca="false">D228/60.48</f>
-        <v>135.830026455026</v>
+        <v>151.025132275132</v>
       </c>
       <c r="F228" s="12" t="n">
-        <v>712</v>
+        <v>919</v>
       </c>
       <c r="G228" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H228" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$226,G228)</f>
-        <v>16</v>
+        <f aca="false">_xlfn.DAYS($B$226,G228)</f>
+        <v>17</v>
       </c>
       <c r="I228" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J228" s="1" t="n">
         <f aca="false">_xlfn.DAYS(B$226,I228)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K228" s="13" t="n">
-        <f aca="false">B$226+1</f>
-        <v>43917</v>
+        <f aca="false">$B$226+1</f>
+        <v>43918</v>
       </c>
       <c r="L228" s="0"/>
       <c r="M228" s="0"/>
@@ -8368,32 +8389,32 @@
         <v>230</v>
       </c>
       <c r="D229" s="1" t="n">
-        <v>4365</v>
+        <v>5138</v>
       </c>
       <c r="E229" s="12" t="n">
         <f aca="false">D229/46.75</f>
-        <v>93.3689839572193</v>
+        <v>109.903743315508</v>
       </c>
       <c r="F229" s="12" t="n">
-        <v>718</v>
+        <v>773</v>
       </c>
       <c r="G229" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H229" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$226,G229)</f>
-        <v>9</v>
+        <f aca="false">_xlfn.DAYS($B$226,G229)</f>
+        <v>10</v>
       </c>
       <c r="I229" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J229" s="1" t="n">
         <f aca="false">_xlfn.DAYS(B$226,I229)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K229" s="13" t="n">
-        <f aca="false">B$226+1</f>
-        <v>43917</v>
+        <f aca="false">$B$226+1</f>
+        <v>43918</v>
       </c>
       <c r="L229" s="0"/>
       <c r="M229" s="0"/>
@@ -8410,32 +8431,32 @@
         <v>330</v>
       </c>
       <c r="D230" s="1" t="n">
-        <v>1696</v>
+        <v>1995</v>
       </c>
       <c r="E230" s="12" t="n">
         <f aca="false">D230/65.27</f>
-        <v>25.9843726060978</v>
+        <v>30.5653439558756</v>
       </c>
       <c r="F230" s="12" t="n">
-        <v>365</v>
+        <v>299</v>
       </c>
       <c r="G230" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H230" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$226,G230)</f>
-        <v>4</v>
+        <f aca="false">_xlfn.DAYS($B$226,G230)</f>
+        <v>5</v>
       </c>
       <c r="I230" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J230" s="1" t="n">
         <f aca="false">_xlfn.DAYS(B$226,I230)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K230" s="13" t="n">
-        <f aca="false">B$226+1</f>
-        <v>43917</v>
+        <f aca="false">$B$226+1</f>
+        <v>43918</v>
       </c>
       <c r="L230" s="0"/>
       <c r="M230" s="0"/>
@@ -8452,33 +8473,34 @@
         <v>1660</v>
       </c>
       <c r="D231" s="1" t="n">
-        <v>1295</v>
+        <v>1696</v>
       </c>
       <c r="E231" s="12" t="n">
         <f aca="false">D231/331</f>
-        <v>3.91238670694864</v>
+        <v>5.12386706948641</v>
       </c>
       <c r="F231" s="12" t="n">
-        <v>268</v>
+        <v>400</v>
       </c>
       <c r="G231" s="13" t="n">
+        <f aca="false">$B$226</f>
         <v>43917</v>
       </c>
       <c r="H231" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$226,G231)</f>
+        <f aca="false">_xlfn.DAYS($B$226,G231)</f>
+        <v>0</v>
+      </c>
+      <c r="I231" s="13" t="n">
+        <f aca="false">$B$226+1</f>
+        <v>43918</v>
+      </c>
+      <c r="J231" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$226,I231)</f>
         <v>-1</v>
       </c>
-      <c r="I231" s="13" t="n">
-        <f aca="false">B$226+1</f>
-        <v>43917</v>
-      </c>
-      <c r="J231" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$226,I231)</f>
-        <v>-1</v>
-      </c>
       <c r="K231" s="13" t="n">
-        <f aca="false">B$226+1</f>
-        <v>43917</v>
+        <f aca="false">$B$226+1</f>
+        <v>43918</v>
       </c>
       <c r="L231" s="0"/>
       <c r="M231" s="0"/>
@@ -8495,33 +8517,33 @@
         <v>330</v>
       </c>
       <c r="D232" s="1" t="n">
-        <v>578</v>
+        <v>759</v>
       </c>
       <c r="E232" s="12" t="n">
         <f aca="false">D232/67.79</f>
-        <v>8.52633131730344</v>
+        <v>11.1963416433102</v>
       </c>
       <c r="F232" s="12" t="n">
-        <v>115</v>
+        <v>181</v>
       </c>
       <c r="G232" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H232" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$226,G232)</f>
-        <v>0</v>
+        <f aca="false">_xlfn.DAYS($B$226,G232)</f>
+        <v>1</v>
       </c>
       <c r="I232" s="13" t="n">
-        <f aca="false">B$226+1</f>
-        <v>43917</v>
+        <f aca="false">$B$226+1</f>
+        <v>43918</v>
       </c>
       <c r="J232" s="1" t="n">
         <f aca="false">_xlfn.DAYS(B$226,I232)</f>
         <v>-1</v>
       </c>
       <c r="K232" s="13" t="n">
-        <f aca="false">B$226+1</f>
-        <v>43917</v>
+        <f aca="false">$B$226+1</f>
+        <v>43918</v>
       </c>
       <c r="L232" s="0"/>
       <c r="M232" s="0"/>
@@ -8538,33 +8560,34 @@
         <v>414</v>
       </c>
       <c r="D233" s="1" t="n">
-        <v>267</v>
+        <v>351</v>
       </c>
       <c r="E233" s="12" t="n">
         <f aca="false">D233/83.784</f>
-        <v>3.18676596963621</v>
+        <v>4.18934402749928</v>
       </c>
       <c r="F233" s="12" t="n">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="G233" s="13" t="n">
-        <v>43917</v>
+        <f aca="false">$B$226+1</f>
+        <v>43918</v>
       </c>
       <c r="H233" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$226,G233)</f>
+        <f aca="false">_xlfn.DAYS($B$226,G233)</f>
         <v>-1</v>
       </c>
       <c r="I233" s="13" t="n">
-        <f aca="false">B$226+1</f>
-        <v>43917</v>
+        <f aca="false">$B$226+1</f>
+        <v>43918</v>
       </c>
       <c r="J233" s="1" t="n">
         <f aca="false">_xlfn.DAYS(B$226,I233)</f>
         <v>-1</v>
       </c>
       <c r="K233" s="13" t="n">
-        <f aca="false">B$226+1</f>
-        <v>43917</v>
+        <f aca="false">$B$226+1</f>
+        <v>43918</v>
       </c>
       <c r="L233" s="0"/>
       <c r="M233" s="0"/>
@@ -8581,33 +8604,33 @@
         <v>50</v>
       </c>
       <c r="D234" s="12" t="n">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="E234" s="12" t="n">
         <f aca="false">D234/10.36</f>
-        <v>7.43243243243243</v>
+        <v>10.1351351351351</v>
       </c>
       <c r="F234" s="12" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="G234" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H234" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$226,G234)</f>
-        <v>1</v>
+        <f aca="false">_xlfn.DAYS($B$226,G234)</f>
+        <v>2</v>
       </c>
       <c r="I234" s="13" t="n">
-        <f aca="false">B$226+1</f>
-        <v>43917</v>
+        <f aca="false">$B$226+1</f>
+        <v>43918</v>
       </c>
       <c r="J234" s="1" t="n">
         <f aca="false">_xlfn.DAYS(B$226,I234)</f>
         <v>-1</v>
       </c>
       <c r="K234" s="13" t="n">
-        <f aca="false">B$226+1</f>
-        <v>43917</v>
+        <f aca="false">$B$226+1</f>
+        <v>43918</v>
       </c>
       <c r="L234" s="0"/>
       <c r="M234" s="0"/>
@@ -8615,6 +8638,424 @@
       <c r="O234" s="0"/>
       <c r="P234" s="0"/>
       <c r="Q234" s="0"/>
+    </row>
+    <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D235" s="0"/>
+      <c r="E235" s="0"/>
+      <c r="F235" s="0"/>
+      <c r="G235" s="0"/>
+      <c r="H235" s="0"/>
+      <c r="I235" s="0"/>
+      <c r="J235" s="0"/>
+      <c r="K235" s="0"/>
+      <c r="L235" s="0"/>
+      <c r="M235" s="0"/>
+      <c r="N235" s="0"/>
+      <c r="O235" s="0"/>
+      <c r="P235" s="0"/>
+      <c r="Q235" s="0"/>
+    </row>
+    <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D236" s="0"/>
+      <c r="E236" s="0"/>
+      <c r="F236" s="0"/>
+      <c r="G236" s="0"/>
+      <c r="H236" s="0"/>
+      <c r="I236" s="0"/>
+      <c r="J236" s="0"/>
+      <c r="K236" s="0"/>
+      <c r="L236" s="0"/>
+      <c r="M236" s="0"/>
+      <c r="N236" s="0"/>
+      <c r="O236" s="0"/>
+      <c r="P236" s="0"/>
+      <c r="Q236" s="0"/>
+    </row>
+    <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B237" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D237" s="0"/>
+      <c r="E237" s="0"/>
+      <c r="F237" s="0"/>
+      <c r="G237" s="0"/>
+      <c r="H237" s="0"/>
+      <c r="I237" s="0"/>
+      <c r="J237" s="0"/>
+      <c r="K237" s="0"/>
+      <c r="L237" s="0"/>
+      <c r="M237" s="0"/>
+      <c r="N237" s="0"/>
+      <c r="O237" s="0"/>
+      <c r="P237" s="0"/>
+      <c r="Q237" s="0"/>
+    </row>
+    <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B238" s="7" t="n">
+        <v>43916</v>
+      </c>
+      <c r="D238" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E238" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F238" s="8"/>
+      <c r="G238" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H238" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I238" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J238" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K238" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="L238" s="0"/>
+      <c r="M238" s="0"/>
+      <c r="N238" s="0"/>
+      <c r="O238" s="0"/>
+      <c r="P238" s="0"/>
+      <c r="Q238" s="0"/>
+    </row>
+    <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B239" s="9"/>
+      <c r="C239" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D239" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E239" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F239" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G239" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="H239" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I239" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="J239" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K239" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="L239" s="0"/>
+      <c r="M239" s="0"/>
+      <c r="N239" s="0"/>
+      <c r="O239" s="0"/>
+      <c r="P239" s="0"/>
+      <c r="Q239" s="0"/>
+    </row>
+    <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B240" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C240" s="12" t="n">
+        <v>300</v>
+      </c>
+      <c r="D240" s="1" t="n">
+        <v>8215</v>
+      </c>
+      <c r="E240" s="12" t="n">
+        <f aca="false">D240/60.48</f>
+        <v>135.830026455026</v>
+      </c>
+      <c r="F240" s="12" t="n">
+        <v>712</v>
+      </c>
+      <c r="G240" s="13" t="n">
+        <v>43900</v>
+      </c>
+      <c r="H240" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$238,G240)</f>
+        <v>16</v>
+      </c>
+      <c r="I240" s="13" t="n">
+        <v>43902</v>
+      </c>
+      <c r="J240" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$238,I240)</f>
+        <v>14</v>
+      </c>
+      <c r="K240" s="13" t="n">
+        <f aca="false">B$238+1</f>
+        <v>43917</v>
+      </c>
+      <c r="L240" s="0"/>
+      <c r="M240" s="0"/>
+      <c r="N240" s="0"/>
+      <c r="O240" s="0"/>
+      <c r="P240" s="0"/>
+      <c r="Q240" s="0"/>
+    </row>
+    <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B241" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C241" s="12" t="n">
+        <v>230</v>
+      </c>
+      <c r="D241" s="1" t="n">
+        <v>4365</v>
+      </c>
+      <c r="E241" s="12" t="n">
+        <f aca="false">D241/46.75</f>
+        <v>93.3689839572193</v>
+      </c>
+      <c r="F241" s="12" t="n">
+        <v>718</v>
+      </c>
+      <c r="G241" s="13" t="n">
+        <v>43907</v>
+      </c>
+      <c r="H241" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$238,G241)</f>
+        <v>9</v>
+      </c>
+      <c r="I241" s="13" t="n">
+        <v>43913</v>
+      </c>
+      <c r="J241" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$238,I241)</f>
+        <v>3</v>
+      </c>
+      <c r="K241" s="13" t="n">
+        <f aca="false">B$238+1</f>
+        <v>43917</v>
+      </c>
+      <c r="L241" s="0"/>
+      <c r="M241" s="0"/>
+      <c r="N241" s="0"/>
+      <c r="O241" s="0"/>
+      <c r="P241" s="0"/>
+      <c r="Q241" s="0"/>
+    </row>
+    <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B242" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C242" s="12" t="n">
+        <v>330</v>
+      </c>
+      <c r="D242" s="1" t="n">
+        <v>1696</v>
+      </c>
+      <c r="E242" s="12" t="n">
+        <f aca="false">D242/65.27</f>
+        <v>25.9843726060978</v>
+      </c>
+      <c r="F242" s="12" t="n">
+        <v>365</v>
+      </c>
+      <c r="G242" s="13" t="n">
+        <v>43912</v>
+      </c>
+      <c r="H242" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$238,G242)</f>
+        <v>4</v>
+      </c>
+      <c r="I242" s="13" t="n">
+        <v>43914</v>
+      </c>
+      <c r="J242" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$238,I242)</f>
+        <v>2</v>
+      </c>
+      <c r="K242" s="13" t="n">
+        <f aca="false">B$238+1</f>
+        <v>43917</v>
+      </c>
+      <c r="L242" s="0"/>
+      <c r="M242" s="0"/>
+      <c r="N242" s="0"/>
+      <c r="O242" s="0"/>
+      <c r="P242" s="0"/>
+      <c r="Q242" s="0"/>
+    </row>
+    <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B243" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C243" s="12" t="n">
+        <v>1660</v>
+      </c>
+      <c r="D243" s="1" t="n">
+        <v>1295</v>
+      </c>
+      <c r="E243" s="12" t="n">
+        <f aca="false">D243/331</f>
+        <v>3.91238670694864</v>
+      </c>
+      <c r="F243" s="12" t="n">
+        <v>268</v>
+      </c>
+      <c r="G243" s="13" t="n">
+        <v>43917</v>
+      </c>
+      <c r="H243" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$238,G243)</f>
+        <v>-1</v>
+      </c>
+      <c r="I243" s="13" t="n">
+        <f aca="false">B$238+1</f>
+        <v>43917</v>
+      </c>
+      <c r="J243" s="1" t="n">
+        <f aca="false">_xlfn.DAYS($B$238,I243)</f>
+        <v>-1</v>
+      </c>
+      <c r="K243" s="13" t="n">
+        <f aca="false">B$238+1</f>
+        <v>43917</v>
+      </c>
+      <c r="L243" s="0"/>
+      <c r="M243" s="0"/>
+      <c r="N243" s="0"/>
+      <c r="O243" s="0"/>
+      <c r="P243" s="0"/>
+      <c r="Q243" s="0"/>
+    </row>
+    <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B244" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C244" s="12" t="n">
+        <v>330</v>
+      </c>
+      <c r="D244" s="1" t="n">
+        <v>578</v>
+      </c>
+      <c r="E244" s="12" t="n">
+        <f aca="false">D244/67.79</f>
+        <v>8.52633131730344</v>
+      </c>
+      <c r="F244" s="12" t="n">
+        <v>115</v>
+      </c>
+      <c r="G244" s="13" t="n">
+        <v>43916</v>
+      </c>
+      <c r="H244" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$238,G244)</f>
+        <v>0</v>
+      </c>
+      <c r="I244" s="13" t="n">
+        <f aca="false">B$238+1</f>
+        <v>43917</v>
+      </c>
+      <c r="J244" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$238,I244)</f>
+        <v>-1</v>
+      </c>
+      <c r="K244" s="13" t="n">
+        <f aca="false">B$238+1</f>
+        <v>43917</v>
+      </c>
+      <c r="L244" s="0"/>
+      <c r="M244" s="0"/>
+      <c r="N244" s="0"/>
+      <c r="O244" s="0"/>
+      <c r="P244" s="0"/>
+      <c r="Q244" s="0"/>
+    </row>
+    <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B245" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C245" s="12" t="n">
+        <v>414</v>
+      </c>
+      <c r="D245" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="E245" s="12" t="n">
+        <f aca="false">D245/83.784</f>
+        <v>3.18676596963621</v>
+      </c>
+      <c r="F245" s="12" t="n">
+        <v>61</v>
+      </c>
+      <c r="G245" s="13" t="n">
+        <v>43917</v>
+      </c>
+      <c r="H245" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$238,G245)</f>
+        <v>-1</v>
+      </c>
+      <c r="I245" s="13" t="n">
+        <f aca="false">B$238+1</f>
+        <v>43917</v>
+      </c>
+      <c r="J245" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$238,I245)</f>
+        <v>-1</v>
+      </c>
+      <c r="K245" s="13" t="n">
+        <f aca="false">B$238+1</f>
+        <v>43917</v>
+      </c>
+      <c r="L245" s="0"/>
+      <c r="M245" s="0"/>
+      <c r="N245" s="0"/>
+      <c r="O245" s="0"/>
+      <c r="P245" s="0"/>
+      <c r="Q245" s="0"/>
+    </row>
+    <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B246" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C246" s="12" t="n">
+        <v>50</v>
+      </c>
+      <c r="D246" s="12" t="n">
+        <v>77</v>
+      </c>
+      <c r="E246" s="12" t="n">
+        <f aca="false">D246/10.36</f>
+        <v>7.43243243243243</v>
+      </c>
+      <c r="F246" s="12" t="n">
+        <v>15</v>
+      </c>
+      <c r="G246" s="13" t="n">
+        <v>43915</v>
+      </c>
+      <c r="H246" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$238,G246)</f>
+        <v>1</v>
+      </c>
+      <c r="I246" s="13" t="n">
+        <f aca="false">B$238+1</f>
+        <v>43917</v>
+      </c>
+      <c r="J246" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$238,I246)</f>
+        <v>-1</v>
+      </c>
+      <c r="K246" s="13" t="n">
+        <f aca="false">B$238+1</f>
+        <v>43917</v>
+      </c>
+      <c r="L246" s="0"/>
+      <c r="M246" s="0"/>
+      <c r="N246" s="0"/>
+      <c r="O246" s="0"/>
+      <c r="P246" s="0"/>
+      <c r="Q246" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/covid19 lockdown evaluation .xlsx
+++ b/covid19 lockdown evaluation .xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="55">
   <si>
     <t>Effects of the lockdown issued by governments</t>
   </si>
@@ -359,7 +359,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q246"/>
+  <dimension ref="A1:Q258"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F31" activeCellId="0" sqref="F31"/>
@@ -815,7 +815,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="7" t="n">
-        <v>43934</v>
+        <v>43935</v>
       </c>
       <c r="D22" s="0"/>
       <c r="E22" s="8" t="s">
@@ -892,36 +892,36 @@
         <v>300</v>
       </c>
       <c r="D24" s="1" t="n">
-        <v>20465</v>
+        <v>21067</v>
       </c>
       <c r="E24" s="12" t="n">
         <f aca="false">D24/60.48</f>
-        <v>338.376322751323</v>
+        <v>348.330026455026</v>
       </c>
       <c r="F24" s="12" t="n">
-        <v>566</v>
+        <v>602</v>
       </c>
       <c r="G24" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H24" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,G24)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I24" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J24" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,I24)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K24" s="13" t="n">
         <f aca="false">$B$22+1</f>
-        <v>43935</v>
+        <v>43936</v>
       </c>
       <c r="L24" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K24,G24)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M24" s="0"/>
       <c r="N24" s="0"/>
@@ -937,36 +937,36 @@
         <v>230</v>
       </c>
       <c r="D25" s="1" t="n">
-        <v>17756</v>
+        <v>18255</v>
       </c>
       <c r="E25" s="12" t="n">
         <f aca="false">D25/46.75</f>
-        <v>379.807486631016</v>
+        <v>390.48128342246</v>
       </c>
       <c r="F25" s="12" t="n">
-        <v>547</v>
+        <v>499</v>
       </c>
       <c r="G25" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H25" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,G25)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I25" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J25" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,I25)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K25" s="13" t="n">
         <f aca="false">$B$22+1</f>
-        <v>43935</v>
+        <v>43936</v>
       </c>
       <c r="L25" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K25,G25)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M25" s="0"/>
       <c r="N25" s="0"/>
@@ -982,36 +982,36 @@
         <v>330</v>
       </c>
       <c r="D26" s="1" t="n">
-        <v>14967</v>
+        <v>15729</v>
       </c>
       <c r="E26" s="12" t="n">
         <f aca="false">D26/65.27</f>
-        <v>229.30902405393</v>
+        <v>240.983606557377</v>
       </c>
       <c r="F26" s="12" t="n">
-        <v>574</v>
+        <v>762</v>
       </c>
       <c r="G26" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H26" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,G26)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I26" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J26" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,I26)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K26" s="13" t="n">
         <f aca="false">$B$22+1</f>
-        <v>43935</v>
+        <v>43936</v>
       </c>
       <c r="L26" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K26,G26)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M26" s="0"/>
       <c r="N26" s="0"/>
@@ -1027,36 +1027,36 @@
         <v>50</v>
       </c>
       <c r="D27" s="12" t="n">
-        <v>919</v>
+        <v>1033</v>
       </c>
       <c r="E27" s="12" t="n">
         <f aca="false">D27/10.36</f>
-        <v>88.7065637065637</v>
+        <v>99.7104247104247</v>
       </c>
       <c r="F27" s="12" t="n">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="G27" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H27" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,G27)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I27" s="13" t="n">
         <v>43928</v>
       </c>
       <c r="J27" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,I27)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K27" s="13" t="n">
         <f aca="false">$B$22+1</f>
-        <v>43935</v>
+        <v>43936</v>
       </c>
       <c r="L27" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K27,G27)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M27" s="0"/>
       <c r="N27" s="0"/>
@@ -1072,36 +1072,36 @@
         <v>330</v>
       </c>
       <c r="D28" s="1" t="n">
-        <v>11329</v>
+        <v>12107</v>
       </c>
       <c r="E28" s="12" t="n">
         <f aca="false">D28/67.79</f>
-        <v>167.1190441068</v>
+        <v>178.59566307715</v>
       </c>
       <c r="F28" s="12" t="n">
-        <v>717</v>
+        <v>778</v>
       </c>
       <c r="G28" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H28" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,G28)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I28" s="13" t="n">
         <v>43919</v>
       </c>
       <c r="J28" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,I28)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K28" s="13" t="n">
         <f aca="false">$B$22+1</f>
-        <v>43935</v>
+        <v>43936</v>
       </c>
       <c r="L28" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K28,G28)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M28" s="0"/>
       <c r="N28" s="0"/>
@@ -1117,36 +1117,36 @@
         <v>1660</v>
       </c>
       <c r="D29" s="1" t="n">
-        <v>23640</v>
+        <v>26047</v>
       </c>
       <c r="E29" s="12" t="n">
         <f aca="false">D29/331</f>
-        <v>71.4199395770393</v>
+        <v>78.6918429003021</v>
       </c>
       <c r="F29" s="12" t="n">
-        <v>1535</v>
+        <v>2407</v>
       </c>
       <c r="G29" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H29" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,G29)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I29" s="13" t="n">
         <v>43921</v>
       </c>
       <c r="J29" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,I29)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K29" s="13" t="n">
         <f aca="false">$B$22+1</f>
-        <v>43935</v>
+        <v>43936</v>
       </c>
       <c r="L29" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K29,G29)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M29" s="0"/>
       <c r="N29" s="0"/>
@@ -1162,36 +1162,36 @@
         <v>414</v>
       </c>
       <c r="D30" s="1" t="n">
-        <v>3194</v>
+        <v>3495</v>
       </c>
       <c r="E30" s="12" t="n">
         <f aca="false">D30/83.784</f>
-        <v>38.1218371049365</v>
+        <v>41.7144084789459</v>
       </c>
       <c r="F30" s="12" t="n">
-        <v>172</v>
+        <v>301</v>
       </c>
       <c r="G30" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H30" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,G30)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I30" s="13" t="n">
         <v>43920</v>
       </c>
       <c r="J30" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,I30)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K30" s="13" t="n">
         <f aca="false">$B$22+1</f>
-        <v>43935</v>
+        <v>43936</v>
       </c>
       <c r="L30" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K30,G30)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M30" s="0"/>
       <c r="N30" s="0"/>
@@ -1256,7 +1256,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="7" t="n">
-        <v>43933</v>
+        <v>43934</v>
       </c>
       <c r="D34" s="0"/>
       <c r="E34" s="8" t="s">
@@ -1333,36 +1333,36 @@
         <v>300</v>
       </c>
       <c r="D36" s="1" t="n">
-        <v>19899</v>
+        <v>20465</v>
       </c>
       <c r="E36" s="12" t="n">
         <f aca="false">D36/60.48</f>
-        <v>329.017857142857</v>
+        <v>338.376322751323</v>
       </c>
       <c r="F36" s="12" t="n">
-        <v>431</v>
+        <v>566</v>
       </c>
       <c r="G36" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H36" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,G36)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I36" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J36" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,I36)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K36" s="13" t="n">
         <f aca="false">$B$34+1</f>
-        <v>43934</v>
+        <v>43935</v>
       </c>
       <c r="L36" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K36,G36)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M36" s="0"/>
       <c r="N36" s="0"/>
@@ -1378,36 +1378,36 @@
         <v>230</v>
       </c>
       <c r="D37" s="1" t="n">
-        <v>17209</v>
+        <v>17756</v>
       </c>
       <c r="E37" s="12" t="n">
         <f aca="false">D37/46.75</f>
-        <v>368.106951871658</v>
+        <v>379.807486631016</v>
       </c>
       <c r="F37" s="12" t="n">
-        <v>603</v>
+        <v>547</v>
       </c>
       <c r="G37" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H37" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,G37)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I37" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J37" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,I37)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K37" s="13" t="n">
         <f aca="false">$B$34+1</f>
-        <v>43934</v>
+        <v>43935</v>
       </c>
       <c r="L37" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K37,G37)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M37" s="0"/>
       <c r="N37" s="0"/>
@@ -1423,36 +1423,36 @@
         <v>330</v>
       </c>
       <c r="D38" s="1" t="n">
-        <v>14393</v>
+        <v>14967</v>
       </c>
       <c r="E38" s="12" t="n">
         <f aca="false">D38/65.27</f>
-        <v>220.514784740309</v>
+        <v>229.30902405393</v>
       </c>
       <c r="F38" s="12" t="n">
-        <v>561</v>
+        <v>574</v>
       </c>
       <c r="G38" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H38" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,G38)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I38" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J38" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,I38)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K38" s="13" t="n">
         <f aca="false">$B$34+1</f>
-        <v>43934</v>
+        <v>43935</v>
       </c>
       <c r="L38" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K38,G38)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M38" s="0"/>
       <c r="N38" s="0"/>
@@ -1468,36 +1468,36 @@
         <v>50</v>
       </c>
       <c r="D39" s="12" t="n">
-        <v>899</v>
+        <v>919</v>
       </c>
       <c r="E39" s="12" t="n">
         <f aca="false">D39/10.36</f>
-        <v>86.7760617760618</v>
+        <v>88.7065637065637</v>
       </c>
       <c r="F39" s="12" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G39" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H39" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,G39)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I39" s="13" t="n">
         <v>43928</v>
       </c>
       <c r="J39" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,I39)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K39" s="13" t="n">
         <f aca="false">$B$34+1</f>
-        <v>43934</v>
+        <v>43935</v>
       </c>
       <c r="L39" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K39,G39)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M39" s="0"/>
       <c r="N39" s="0"/>
@@ -1513,36 +1513,36 @@
         <v>330</v>
       </c>
       <c r="D40" s="1" t="n">
-        <v>10612</v>
+        <v>11329</v>
       </c>
       <c r="E40" s="12" t="n">
         <f aca="false">D40/67.79</f>
-        <v>156.54226287063</v>
+        <v>167.1190441068</v>
       </c>
       <c r="F40" s="12" t="n">
-        <v>737</v>
+        <v>717</v>
       </c>
       <c r="G40" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H40" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,G40)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I40" s="13" t="n">
         <v>43919</v>
       </c>
       <c r="J40" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,I40)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K40" s="13" t="n">
         <f aca="false">$B$34+1</f>
-        <v>43934</v>
+        <v>43935</v>
       </c>
       <c r="L40" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K40,G40)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M40" s="0"/>
       <c r="N40" s="0"/>
@@ -1558,36 +1558,36 @@
         <v>1660</v>
       </c>
       <c r="D41" s="1" t="n">
-        <v>22105</v>
+        <v>23640</v>
       </c>
       <c r="E41" s="12" t="n">
         <f aca="false">D41/331</f>
-        <v>66.7824773413897</v>
+        <v>71.4199395770393</v>
       </c>
       <c r="F41" s="12" t="n">
-        <v>1528</v>
+        <v>1535</v>
       </c>
       <c r="G41" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H41" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,G41)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I41" s="13" t="n">
         <v>43921</v>
       </c>
       <c r="J41" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,I41)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K41" s="13" t="n">
         <f aca="false">$B$34+1</f>
-        <v>43934</v>
+        <v>43935</v>
       </c>
       <c r="L41" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K41,G41)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M41" s="0"/>
       <c r="N41" s="0"/>
@@ -1603,36 +1603,36 @@
         <v>414</v>
       </c>
       <c r="D42" s="1" t="n">
-        <v>3022</v>
+        <v>3194</v>
       </c>
       <c r="E42" s="12" t="n">
         <f aca="false">D42/83.784</f>
-        <v>36.0689391769312</v>
+        <v>38.1218371049365</v>
       </c>
       <c r="F42" s="12" t="n">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="G42" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H42" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,G42)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I42" s="13" t="n">
         <v>43920</v>
       </c>
       <c r="J42" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,I42)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K42" s="13" t="n">
         <f aca="false">$B$34+1</f>
-        <v>43934</v>
+        <v>43935</v>
       </c>
       <c r="L42" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K42,G42)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M42" s="0"/>
       <c r="N42" s="0"/>
@@ -1697,7 +1697,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="7" t="n">
-        <v>43932</v>
+        <v>43933</v>
       </c>
       <c r="D46" s="0"/>
       <c r="E46" s="8" t="s">
@@ -1774,36 +1774,36 @@
         <v>300</v>
       </c>
       <c r="D48" s="1" t="n">
-        <v>19468</v>
+        <v>19899</v>
       </c>
       <c r="E48" s="12" t="n">
         <f aca="false">D48/60.48</f>
-        <v>321.891534391534</v>
+        <v>329.017857142857</v>
       </c>
       <c r="F48" s="12" t="n">
-        <v>619</v>
+        <v>431</v>
       </c>
       <c r="G48" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H48" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,G48)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I48" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J48" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,I48)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K48" s="13" t="n">
         <f aca="false">$B$46+1</f>
-        <v>43933</v>
+        <v>43934</v>
       </c>
       <c r="L48" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K48,G48)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M48" s="0"/>
       <c r="N48" s="0"/>
@@ -1819,36 +1819,36 @@
         <v>230</v>
       </c>
       <c r="D49" s="1" t="n">
-        <v>16606</v>
+        <v>17209</v>
       </c>
       <c r="E49" s="12" t="n">
         <f aca="false">D49/46.75</f>
-        <v>355.208556149733</v>
+        <v>368.106951871658</v>
       </c>
       <c r="F49" s="12" t="n">
-        <v>525</v>
+        <v>603</v>
       </c>
       <c r="G49" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H49" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,G49)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I49" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J49" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,I49)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K49" s="13" t="n">
         <f aca="false">$B$46+1</f>
-        <v>43933</v>
+        <v>43934</v>
       </c>
       <c r="L49" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K49,G49)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M49" s="0"/>
       <c r="N49" s="0"/>
@@ -1864,36 +1864,36 @@
         <v>330</v>
       </c>
       <c r="D50" s="1" t="n">
-        <v>13832</v>
+        <v>14393</v>
       </c>
       <c r="E50" s="12" t="n">
         <f aca="false">D50/65.27</f>
-        <v>211.919718094071</v>
+        <v>220.514784740309</v>
       </c>
       <c r="F50" s="12" t="n">
-        <v>635</v>
+        <v>561</v>
       </c>
       <c r="G50" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H50" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,G50)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I50" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J50" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,I50)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K50" s="13" t="n">
         <f aca="false">$B$46+1</f>
-        <v>43933</v>
+        <v>43934</v>
       </c>
       <c r="L50" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K50,G50)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M50" s="0"/>
       <c r="N50" s="0"/>
@@ -1909,36 +1909,36 @@
         <v>50</v>
       </c>
       <c r="D51" s="12" t="n">
-        <v>887</v>
+        <v>899</v>
       </c>
       <c r="E51" s="12" t="n">
         <f aca="false">D51/10.36</f>
-        <v>85.6177606177606</v>
+        <v>86.7760617760618</v>
       </c>
       <c r="F51" s="12" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G51" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H51" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,G51)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I51" s="13" t="n">
         <v>43928</v>
       </c>
       <c r="J51" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,I51)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K51" s="13" t="n">
         <f aca="false">$B$46+1</f>
-        <v>43933</v>
+        <v>43934</v>
       </c>
       <c r="L51" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K51,G51)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M51" s="0"/>
       <c r="N51" s="0"/>
@@ -1954,36 +1954,36 @@
         <v>330</v>
       </c>
       <c r="D52" s="1" t="n">
-        <v>9875</v>
+        <v>10612</v>
       </c>
       <c r="E52" s="12" t="n">
         <f aca="false">D52/67.79</f>
-        <v>145.670452869155</v>
+        <v>156.54226287063</v>
       </c>
       <c r="F52" s="12" t="n">
-        <v>917</v>
+        <v>737</v>
       </c>
       <c r="G52" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H52" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,G52)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I52" s="13" t="n">
         <v>43919</v>
       </c>
       <c r="J52" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,I52)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K52" s="13" t="n">
         <f aca="false">$B$46+1</f>
-        <v>43933</v>
+        <v>43934</v>
       </c>
       <c r="L52" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K52,G52)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M52" s="0"/>
       <c r="N52" s="0"/>
@@ -1999,36 +1999,36 @@
         <v>1660</v>
       </c>
       <c r="D53" s="1" t="n">
-        <v>20577</v>
+        <v>22105</v>
       </c>
       <c r="E53" s="12" t="n">
         <f aca="false">D53/331</f>
-        <v>62.166163141994</v>
+        <v>66.7824773413897</v>
       </c>
       <c r="F53" s="12" t="n">
-        <v>1830</v>
+        <v>1528</v>
       </c>
       <c r="G53" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H53" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,G53)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I53" s="13" t="n">
         <v>43921</v>
       </c>
       <c r="J53" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,I53)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K53" s="13" t="n">
         <f aca="false">$B$46+1</f>
-        <v>43933</v>
+        <v>43934</v>
       </c>
       <c r="L53" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K53,G53)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M53" s="0"/>
       <c r="N53" s="0"/>
@@ -2044,36 +2044,36 @@
         <v>414</v>
       </c>
       <c r="D54" s="1" t="n">
-        <v>2871</v>
+        <v>3022</v>
       </c>
       <c r="E54" s="12" t="n">
         <f aca="false">D54/83.784</f>
-        <v>34.2666857633916</v>
+        <v>36.0689391769312</v>
       </c>
       <c r="F54" s="12" t="n">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="G54" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H54" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,G54)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I54" s="13" t="n">
         <v>43920</v>
       </c>
       <c r="J54" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$46,I54)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K54" s="13" t="n">
         <f aca="false">$B$46+1</f>
-        <v>43933</v>
+        <v>43934</v>
       </c>
       <c r="L54" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K54,G54)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M54" s="0"/>
       <c r="N54" s="0"/>
@@ -2138,7 +2138,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="7" t="n">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="D58" s="0"/>
       <c r="E58" s="8" t="s">
@@ -2215,36 +2215,36 @@
         <v>300</v>
       </c>
       <c r="D60" s="1" t="n">
-        <v>18849</v>
+        <v>19468</v>
       </c>
       <c r="E60" s="12" t="n">
         <f aca="false">D60/60.48</f>
-        <v>311.656746031746</v>
+        <v>321.891534391534</v>
       </c>
       <c r="F60" s="12" t="n">
-        <v>570</v>
+        <v>619</v>
       </c>
       <c r="G60" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H60" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,G60)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I60" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J60" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,I60)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K60" s="13" t="n">
         <f aca="false">$B$58+1</f>
-        <v>43932</v>
+        <v>43933</v>
       </c>
       <c r="L60" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K60,G60)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M60" s="0"/>
       <c r="N60" s="0"/>
@@ -2260,36 +2260,36 @@
         <v>230</v>
       </c>
       <c r="D61" s="1" t="n">
-        <v>16081</v>
+        <v>16606</v>
       </c>
       <c r="E61" s="12" t="n">
         <f aca="false">D61/46.75</f>
-        <v>343.978609625668</v>
+        <v>355.208556149733</v>
       </c>
       <c r="F61" s="12" t="n">
-        <v>634</v>
+        <v>525</v>
       </c>
       <c r="G61" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H61" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,G61)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I61" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J61" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,I61)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K61" s="13" t="n">
         <f aca="false">$B$58+1</f>
-        <v>43932</v>
+        <v>43933</v>
       </c>
       <c r="L61" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K61,G61)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M61" s="0"/>
       <c r="N61" s="0"/>
@@ -2305,36 +2305,36 @@
         <v>330</v>
       </c>
       <c r="D62" s="1" t="n">
-        <v>13197</v>
+        <v>13832</v>
       </c>
       <c r="E62" s="12" t="n">
         <f aca="false">D62/65.27</f>
-        <v>202.190899341198</v>
+        <v>211.919718094071</v>
       </c>
       <c r="F62" s="12" t="n">
-        <v>987</v>
+        <v>635</v>
       </c>
       <c r="G62" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H62" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,G62)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I62" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J62" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,I62)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K62" s="13" t="n">
         <f aca="false">$B$58+1</f>
-        <v>43932</v>
+        <v>43933</v>
       </c>
       <c r="L62" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K62,G62)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M62" s="0"/>
       <c r="N62" s="0"/>
@@ -2350,36 +2350,36 @@
         <v>50</v>
       </c>
       <c r="D63" s="12" t="n">
-        <v>870</v>
+        <v>887</v>
       </c>
       <c r="E63" s="12" t="n">
         <f aca="false">D63/10.36</f>
-        <v>83.976833976834</v>
+        <v>85.6177606177606</v>
       </c>
       <c r="F63" s="12" t="n">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="G63" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H63" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,G63)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I63" s="13" t="n">
         <v>43928</v>
       </c>
       <c r="J63" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,I63)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K63" s="13" t="n">
         <f aca="false">$B$58+1</f>
-        <v>43932</v>
+        <v>43933</v>
       </c>
       <c r="L63" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K63,G63)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M63" s="0"/>
       <c r="N63" s="0"/>
@@ -2395,36 +2395,36 @@
         <v>330</v>
       </c>
       <c r="D64" s="1" t="n">
-        <v>8958</v>
+        <v>9875</v>
       </c>
       <c r="E64" s="12" t="n">
         <f aca="false">D64/67.79</f>
-        <v>132.143383979938</v>
+        <v>145.670452869155</v>
       </c>
       <c r="F64" s="12" t="n">
-        <v>980</v>
+        <v>917</v>
       </c>
       <c r="G64" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H64" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,G64)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I64" s="13" t="n">
         <v>43919</v>
       </c>
       <c r="J64" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,I64)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K64" s="13" t="n">
         <f aca="false">$B$58+1</f>
-        <v>43932</v>
+        <v>43933</v>
       </c>
       <c r="L64" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K64,G64)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M64" s="0"/>
       <c r="N64" s="0"/>
@@ -2440,36 +2440,36 @@
         <v>1660</v>
       </c>
       <c r="D65" s="1" t="n">
-        <v>18747</v>
+        <v>20577</v>
       </c>
       <c r="E65" s="12" t="n">
         <f aca="false">D65/331</f>
-        <v>56.6374622356496</v>
+        <v>62.166163141994</v>
       </c>
       <c r="F65" s="12" t="n">
-        <v>2035</v>
+        <v>1830</v>
       </c>
       <c r="G65" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H65" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,G65)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I65" s="13" t="n">
         <v>43921</v>
       </c>
       <c r="J65" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,I65)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K65" s="13" t="n">
         <f aca="false">$B$58+1</f>
-        <v>43932</v>
+        <v>43933</v>
       </c>
       <c r="L65" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K65,G65)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M65" s="0"/>
       <c r="N65" s="0"/>
@@ -2485,36 +2485,36 @@
         <v>414</v>
       </c>
       <c r="D66" s="1" t="n">
-        <v>2736</v>
+        <v>2871</v>
       </c>
       <c r="E66" s="12" t="n">
         <f aca="false">D66/83.784</f>
-        <v>32.6553995989688</v>
+        <v>34.2666857633916</v>
       </c>
       <c r="F66" s="12" t="n">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="G66" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H66" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,G66)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I66" s="13" t="n">
         <v>43920</v>
       </c>
       <c r="J66" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$58,I66)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K66" s="13" t="n">
         <f aca="false">$B$58+1</f>
-        <v>43932</v>
+        <v>43933</v>
       </c>
       <c r="L66" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K66,G66)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M66" s="0"/>
       <c r="N66" s="0"/>
@@ -2579,7 +2579,7 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="7" t="n">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="D70" s="0"/>
       <c r="E70" s="8" t="s">
@@ -2656,36 +2656,36 @@
         <v>300</v>
       </c>
       <c r="D72" s="1" t="n">
-        <v>18279</v>
+        <v>18849</v>
       </c>
       <c r="E72" s="12" t="n">
         <f aca="false">D72/60.48</f>
-        <v>302.232142857143</v>
+        <v>311.656746031746</v>
       </c>
       <c r="F72" s="12" t="n">
-        <v>610</v>
+        <v>570</v>
       </c>
       <c r="G72" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H72" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,G72)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I72" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J72" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,I72)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K72" s="13" t="n">
         <f aca="false">$B$70+1</f>
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="L72" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K72,G72)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M72" s="0"/>
       <c r="N72" s="0"/>
@@ -2701,36 +2701,36 @@
         <v>230</v>
       </c>
       <c r="D73" s="1" t="n">
-        <v>15447</v>
+        <v>16081</v>
       </c>
       <c r="E73" s="12" t="n">
         <f aca="false">D73/46.75</f>
-        <v>330.417112299465</v>
+        <v>343.978609625668</v>
       </c>
       <c r="F73" s="12" t="n">
-        <v>655</v>
+        <v>634</v>
       </c>
       <c r="G73" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H73" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,G73)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I73" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J73" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,I73)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K73" s="13" t="n">
         <f aca="false">$B$70+1</f>
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="L73" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K73,G73)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M73" s="0"/>
       <c r="N73" s="0"/>
@@ -2746,36 +2746,36 @@
         <v>330</v>
       </c>
       <c r="D74" s="1" t="n">
-        <v>12210</v>
+        <v>13197</v>
       </c>
       <c r="E74" s="12" t="n">
         <f aca="false">D74/65.27</f>
-        <v>187.069097594607</v>
+        <v>202.190899341198</v>
       </c>
       <c r="F74" s="12" t="n">
-        <v>1341</v>
+        <v>987</v>
       </c>
       <c r="G74" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H74" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,G74)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I74" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J74" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,I74)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K74" s="13" t="n">
         <f aca="false">$B$70+1</f>
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="L74" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K74,G74)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M74" s="0"/>
       <c r="N74" s="0"/>
@@ -2791,36 +2791,36 @@
         <v>50</v>
       </c>
       <c r="D75" s="12" t="n">
-        <v>793</v>
+        <v>870</v>
       </c>
       <c r="E75" s="12" t="n">
         <f aca="false">D75/10.36</f>
-        <v>76.5444015444016</v>
+        <v>83.976833976834</v>
       </c>
       <c r="F75" s="12" t="n">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="G75" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H75" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,G75)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I75" s="13" t="n">
         <v>43928</v>
       </c>
       <c r="J75" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,I75)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K75" s="13" t="n">
         <f aca="false">$B$70+1</f>
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="L75" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K75,G75)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M75" s="0"/>
       <c r="N75" s="0"/>
@@ -2836,36 +2836,36 @@
         <v>330</v>
       </c>
       <c r="D76" s="1" t="n">
-        <v>7978</v>
+        <v>8958</v>
       </c>
       <c r="E76" s="12" t="n">
         <f aca="false">D76/67.79</f>
-        <v>117.686974480012</v>
+        <v>132.143383979938</v>
       </c>
       <c r="F76" s="12" t="n">
-        <v>881</v>
+        <v>980</v>
       </c>
       <c r="G76" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H76" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,G76)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I76" s="13" t="n">
         <v>43919</v>
       </c>
       <c r="J76" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,I76)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K76" s="13" t="n">
         <f aca="false">$B$70+1</f>
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="L76" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K76,G76)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M76" s="0"/>
       <c r="N76" s="0"/>
@@ -2881,36 +2881,36 @@
         <v>1660</v>
       </c>
       <c r="D77" s="1" t="n">
-        <v>16691</v>
+        <v>18747</v>
       </c>
       <c r="E77" s="12" t="n">
         <f aca="false">D77/331</f>
-        <v>50.4259818731118</v>
+        <v>56.6374622356496</v>
       </c>
       <c r="F77" s="12" t="n">
-        <v>1900</v>
+        <v>2035</v>
       </c>
       <c r="G77" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H77" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,G77)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I77" s="13" t="n">
         <v>43921</v>
       </c>
       <c r="J77" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,I77)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K77" s="13" t="n">
         <f aca="false">$B$70+1</f>
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="L77" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K77,G77)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M77" s="0"/>
       <c r="N77" s="0"/>
@@ -2926,36 +2926,36 @@
         <v>414</v>
       </c>
       <c r="D78" s="1" t="n">
-        <v>2607</v>
+        <v>2736</v>
       </c>
       <c r="E78" s="12" t="n">
         <f aca="false">D78/83.784</f>
-        <v>31.1157261529648</v>
+        <v>32.6553995989688</v>
       </c>
       <c r="F78" s="12" t="n">
-        <v>258</v>
+        <v>129</v>
       </c>
       <c r="G78" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H78" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,G78)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I78" s="13" t="n">
         <v>43920</v>
       </c>
       <c r="J78" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$70,I78)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K78" s="13" t="n">
         <f aca="false">$B$70+1</f>
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="L78" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K78,G78)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M78" s="0"/>
       <c r="N78" s="0"/>
@@ -3020,7 +3020,7 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="7" t="n">
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="D82" s="0"/>
       <c r="E82" s="8" t="s">
@@ -3097,36 +3097,36 @@
         <v>300</v>
       </c>
       <c r="D84" s="1" t="n">
-        <v>17669</v>
+        <v>18279</v>
       </c>
       <c r="E84" s="12" t="n">
         <f aca="false">D84/60.48</f>
-        <v>292.146164021164</v>
+        <v>302.232142857143</v>
       </c>
       <c r="F84" s="12" t="n">
-        <v>542</v>
+        <v>610</v>
       </c>
       <c r="G84" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H84" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,G84)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I84" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J84" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,I84)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K84" s="13" t="n">
         <f aca="false">$B$82+1</f>
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="L84" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K84,G84)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M84" s="0"/>
       <c r="N84" s="0"/>
@@ -3142,36 +3142,36 @@
         <v>230</v>
       </c>
       <c r="D85" s="1" t="n">
-        <v>14792</v>
+        <v>15447</v>
       </c>
       <c r="E85" s="12" t="n">
         <f aca="false">D85/46.75</f>
-        <v>316.406417112299</v>
+        <v>330.417112299465</v>
       </c>
       <c r="F85" s="12" t="n">
-        <v>747</v>
+        <v>655</v>
       </c>
       <c r="G85" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H85" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,G85)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I85" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J85" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,I85)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K85" s="13" t="n">
         <f aca="false">$B$82+1</f>
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="L85" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K85,G85)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M85" s="0"/>
       <c r="N85" s="0"/>
@@ -3187,36 +3187,36 @@
         <v>330</v>
       </c>
       <c r="D86" s="1" t="n">
-        <v>10869</v>
+        <v>12210</v>
       </c>
       <c r="E86" s="12" t="n">
         <f aca="false">D86/65.27</f>
-        <v>166.52367090547</v>
+        <v>187.069097594607</v>
       </c>
       <c r="F86" s="12" t="n">
-        <v>541</v>
+        <v>1341</v>
       </c>
       <c r="G86" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H86" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,G86)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I86" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J86" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,I86)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K86" s="13" t="n">
         <f aca="false">$B$82+1</f>
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="L86" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K86,G86)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M86" s="0"/>
       <c r="N86" s="0"/>
@@ -3232,36 +3232,36 @@
         <v>50</v>
       </c>
       <c r="D87" s="12" t="n">
-        <v>687</v>
+        <v>793</v>
       </c>
       <c r="E87" s="12" t="n">
         <f aca="false">D87/10.36</f>
-        <v>66.3127413127413</v>
+        <v>76.5444015444016</v>
       </c>
       <c r="F87" s="12" t="n">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="G87" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H87" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,G87)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I87" s="13" t="n">
         <v>43928</v>
       </c>
       <c r="J87" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,I87)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K87" s="13" t="n">
         <f aca="false">$B$82+1</f>
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="L87" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K87,G87)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M87" s="0"/>
       <c r="N87" s="0"/>
@@ -3277,36 +3277,36 @@
         <v>330</v>
       </c>
       <c r="D88" s="1" t="n">
-        <v>7097</v>
+        <v>7978</v>
       </c>
       <c r="E88" s="12" t="n">
         <f aca="false">D88/67.79</f>
-        <v>104.690957368343</v>
+        <v>117.686974480012</v>
       </c>
       <c r="F88" s="12" t="n">
-        <v>938</v>
+        <v>881</v>
       </c>
       <c r="G88" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H88" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,G88)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I88" s="13" t="n">
         <v>43919</v>
       </c>
       <c r="J88" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,I88)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K88" s="13" t="n">
         <f aca="false">$B$82+1</f>
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="L88" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K88,G88)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M88" s="0"/>
       <c r="N88" s="0"/>
@@ -3322,36 +3322,36 @@
         <v>1660</v>
       </c>
       <c r="D89" s="1" t="n">
-        <v>14788</v>
+        <v>16691</v>
       </c>
       <c r="E89" s="12" t="n">
         <f aca="false">D89/331</f>
-        <v>44.6767371601209</v>
+        <v>50.4259818731118</v>
       </c>
       <c r="F89" s="12" t="n">
-        <v>1940</v>
+        <v>1900</v>
       </c>
       <c r="G89" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H89" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,G89)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I89" s="13" t="n">
         <v>43921</v>
       </c>
       <c r="J89" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,I89)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K89" s="13" t="n">
         <f aca="false">$B$82+1</f>
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="L89" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K89,G89)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M89" s="0"/>
       <c r="N89" s="0"/>
@@ -3367,36 +3367,36 @@
         <v>414</v>
       </c>
       <c r="D90" s="1" t="n">
-        <v>2349</v>
+        <v>2607</v>
       </c>
       <c r="E90" s="12" t="n">
         <f aca="false">D90/83.784</f>
-        <v>28.0363792609567</v>
+        <v>31.1157261529648</v>
       </c>
       <c r="F90" s="12" t="n">
-        <v>333</v>
+        <v>258</v>
       </c>
       <c r="G90" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H90" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,G90)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I90" s="13" t="n">
         <v>43920</v>
       </c>
       <c r="J90" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$82,I90)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K90" s="13" t="n">
         <f aca="false">$B$82+1</f>
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="L90" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K90,G90)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M90" s="0"/>
       <c r="N90" s="0"/>
@@ -3461,7 +3461,7 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="7" t="n">
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="D94" s="0"/>
       <c r="E94" s="8" t="s">
@@ -3538,36 +3538,36 @@
         <v>300</v>
       </c>
       <c r="D96" s="1" t="n">
-        <v>17127</v>
+        <v>17669</v>
       </c>
       <c r="E96" s="12" t="n">
         <f aca="false">D96/60.48</f>
-        <v>283.184523809524</v>
+        <v>292.146164021164</v>
       </c>
       <c r="F96" s="12" t="n">
-        <v>604</v>
+        <v>542</v>
       </c>
       <c r="G96" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H96" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,G96)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I96" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J96" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,I96)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K96" s="13" t="n">
         <f aca="false">$B$94+1</f>
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="L96" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K96,G96)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M96" s="0"/>
       <c r="N96" s="0"/>
@@ -3583,36 +3583,36 @@
         <v>230</v>
       </c>
       <c r="D97" s="1" t="n">
-        <v>14045</v>
+        <v>14792</v>
       </c>
       <c r="E97" s="12" t="n">
         <f aca="false">D97/46.75</f>
-        <v>300.427807486631</v>
+        <v>316.406417112299</v>
       </c>
       <c r="F97" s="12" t="n">
-        <v>704</v>
+        <v>747</v>
       </c>
       <c r="G97" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H97" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,G97)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I97" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J97" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,I97)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K97" s="13" t="n">
         <f aca="false">$B$94+1</f>
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="L97" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K97,G97)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M97" s="0"/>
       <c r="N97" s="0"/>
@@ -3628,36 +3628,36 @@
         <v>330</v>
       </c>
       <c r="D98" s="1" t="n">
-        <v>10328</v>
+        <v>10869</v>
       </c>
       <c r="E98" s="12" t="n">
         <f aca="false">D98/65.27</f>
-        <v>158.23502374751</v>
+        <v>166.52367090547</v>
       </c>
       <c r="F98" s="12" t="n">
-        <v>1417</v>
+        <v>541</v>
       </c>
       <c r="G98" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H98" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,G98)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I98" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J98" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,I98)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K98" s="13" t="n">
         <f aca="false">$B$94+1</f>
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="L98" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K98,G98)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M98" s="0"/>
       <c r="N98" s="0"/>
@@ -3673,36 +3673,36 @@
         <v>50</v>
       </c>
       <c r="D99" s="12" t="n">
-        <v>591</v>
+        <v>687</v>
       </c>
       <c r="E99" s="12" t="n">
         <f aca="false">D99/10.36</f>
-        <v>57.0463320463321</v>
+        <v>66.3127413127413</v>
       </c>
       <c r="F99" s="12" t="n">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="G99" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H99" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,G99)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I99" s="13" t="n">
         <v>43928</v>
       </c>
       <c r="J99" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,I99)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K99" s="13" t="n">
         <f aca="false">$B$94+1</f>
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="L99" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K99,G99)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M99" s="0"/>
       <c r="N99" s="0"/>
@@ -3718,36 +3718,36 @@
         <v>330</v>
       </c>
       <c r="D100" s="1" t="n">
-        <v>6159</v>
+        <v>7097</v>
       </c>
       <c r="E100" s="12" t="n">
         <f aca="false">D100/67.79</f>
-        <v>90.8541082755569</v>
+        <v>104.690957368343</v>
       </c>
       <c r="F100" s="12" t="n">
-        <v>786</v>
+        <v>938</v>
       </c>
       <c r="G100" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H100" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,G100)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I100" s="13" t="n">
         <v>43919</v>
       </c>
       <c r="J100" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,I100)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K100" s="13" t="n">
         <f aca="false">$B$94+1</f>
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="L100" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K100,G100)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M100" s="0"/>
       <c r="N100" s="0"/>
@@ -3763,36 +3763,36 @@
         <v>1660</v>
       </c>
       <c r="D101" s="1" t="n">
-        <v>12848</v>
+        <v>14788</v>
       </c>
       <c r="E101" s="12" t="n">
         <f aca="false">D101/331</f>
-        <v>38.8157099697885</v>
+        <v>44.6767371601209</v>
       </c>
       <c r="F101" s="12" t="n">
-        <v>1970</v>
+        <v>1940</v>
       </c>
       <c r="G101" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H101" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,G101)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I101" s="13" t="n">
         <v>43921</v>
       </c>
       <c r="J101" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,I101)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K101" s="13" t="n">
         <f aca="false">$B$94+1</f>
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="L101" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K101,G101)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M101" s="0"/>
       <c r="N101" s="0"/>
@@ -3808,36 +3808,36 @@
         <v>414</v>
       </c>
       <c r="D102" s="1" t="n">
-        <v>2016</v>
+        <v>2349</v>
       </c>
       <c r="E102" s="12" t="n">
         <f aca="false">D102/83.784</f>
-        <v>24.0618733887138</v>
+        <v>28.0363792609567</v>
       </c>
       <c r="F102" s="12" t="n">
-        <v>206</v>
+        <v>333</v>
       </c>
       <c r="G102" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H102" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,G102)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I102" s="13" t="n">
         <v>43920</v>
       </c>
       <c r="J102" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$94,I102)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K102" s="13" t="n">
         <f aca="false">$B$94+1</f>
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="L102" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K102,G102)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M102" s="0"/>
       <c r="N102" s="0"/>
@@ -3902,7 +3902,7 @@
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="7" t="n">
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="D106" s="0"/>
       <c r="E106" s="8" t="s">
@@ -3979,36 +3979,36 @@
         <v>300</v>
       </c>
       <c r="D108" s="1" t="n">
-        <v>16523</v>
+        <v>17127</v>
       </c>
       <c r="E108" s="12" t="n">
         <f aca="false">D108/60.48</f>
-        <v>273.197751322751</v>
+        <v>283.184523809524</v>
       </c>
       <c r="F108" s="12" t="n">
-        <v>636</v>
+        <v>604</v>
       </c>
       <c r="G108" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H108" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,G108)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I108" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J108" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,I108)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K108" s="13" t="n">
         <f aca="false">$B$106+1</f>
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="L108" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K108,G108)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M108" s="0"/>
       <c r="N108" s="0"/>
@@ -4024,36 +4024,36 @@
         <v>230</v>
       </c>
       <c r="D109" s="1" t="n">
-        <v>13341</v>
+        <v>14045</v>
       </c>
       <c r="E109" s="12" t="n">
         <f aca="false">D109/46.75</f>
-        <v>285.368983957219</v>
+        <v>300.427807486631</v>
       </c>
       <c r="F109" s="12" t="n">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="G109" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H109" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,G109)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I109" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J109" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,I109)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K109" s="13" t="n">
         <f aca="false">$B$106+1</f>
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="L109" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K109,G109)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M109" s="0"/>
       <c r="N109" s="0"/>
@@ -4069,36 +4069,36 @@
         <v>330</v>
       </c>
       <c r="D110" s="1" t="n">
-        <v>8911</v>
+        <v>10328</v>
       </c>
       <c r="E110" s="12" t="n">
         <f aca="false">D110/65.27</f>
-        <v>136.525203002911</v>
+        <v>158.23502374751</v>
       </c>
       <c r="F110" s="12" t="n">
-        <v>833</v>
+        <v>1417</v>
       </c>
       <c r="G110" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H110" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,G110)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I110" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J110" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,I110)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K110" s="13" t="n">
         <f aca="false">$B$106+1</f>
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="L110" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K110,G110)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M110" s="0"/>
       <c r="N110" s="0"/>
@@ -4114,37 +4114,36 @@
         <v>50</v>
       </c>
       <c r="D111" s="12" t="n">
-        <v>477</v>
+        <v>591</v>
       </c>
       <c r="E111" s="12" t="n">
         <f aca="false">D111/10.36</f>
-        <v>46.042471042471</v>
+        <v>57.0463320463321</v>
       </c>
       <c r="F111" s="12" t="n">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="G111" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H111" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,G111)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I111" s="13" t="n">
-        <f aca="false">$B$106+1</f>
         <v>43928</v>
       </c>
       <c r="J111" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,I111)</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K111" s="13" t="n">
         <f aca="false">$B$106+1</f>
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="L111" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K111,G111)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M111" s="0"/>
       <c r="N111" s="0"/>
@@ -4160,37 +4159,36 @@
         <v>330</v>
       </c>
       <c r="D112" s="1" t="n">
-        <v>5373</v>
+        <v>6159</v>
       </c>
       <c r="E112" s="12" t="n">
         <f aca="false">D112/67.79</f>
-        <v>79.2594777990854</v>
+        <v>90.8541082755569</v>
       </c>
       <c r="F112" s="12" t="n">
-        <v>439</v>
+        <v>786</v>
       </c>
       <c r="G112" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H112" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,G112)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I112" s="13" t="n">
-        <f aca="false">$B$106+1</f>
-        <v>43928</v>
+        <v>43919</v>
       </c>
       <c r="J112" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,I112)</f>
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K112" s="13" t="n">
         <f aca="false">$B$106+1</f>
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="L112" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K112,G112)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M112" s="0"/>
       <c r="N112" s="0"/>
@@ -4206,37 +4204,36 @@
         <v>1660</v>
       </c>
       <c r="D113" s="1" t="n">
-        <v>10871</v>
+        <v>12848</v>
       </c>
       <c r="E113" s="12" t="n">
         <f aca="false">D113/331</f>
-        <v>32.8429003021148</v>
+        <v>38.8157099697885</v>
       </c>
       <c r="F113" s="12" t="n">
-        <v>1255</v>
+        <v>1970</v>
       </c>
       <c r="G113" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H113" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,G113)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I113" s="13" t="n">
-        <f aca="false">$B$106+1</f>
-        <v>43928</v>
+        <v>43921</v>
       </c>
       <c r="J113" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,I113)</f>
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K113" s="13" t="n">
         <f aca="false">$B$106+1</f>
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="L113" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K113,G113)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M113" s="0"/>
       <c r="N113" s="0"/>
@@ -4252,37 +4249,36 @@
         <v>414</v>
       </c>
       <c r="D114" s="1" t="n">
-        <v>1810</v>
+        <v>2016</v>
       </c>
       <c r="E114" s="12" t="n">
         <f aca="false">D114/83.784</f>
-        <v>21.6031700563353</v>
+        <v>24.0618733887138</v>
       </c>
       <c r="F114" s="12" t="n">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="G114" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H114" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,G114)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I114" s="13" t="n">
-        <f aca="false">$B$106+1</f>
-        <v>43928</v>
+        <v>43920</v>
       </c>
       <c r="J114" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$106,I114)</f>
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K114" s="13" t="n">
         <f aca="false">$B$106+1</f>
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="L114" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K114,G114)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M114" s="0"/>
       <c r="N114" s="0"/>
@@ -4347,7 +4343,7 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B118" s="7" t="n">
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="D118" s="0"/>
       <c r="E118" s="8" t="s">
@@ -4424,36 +4420,36 @@
         <v>300</v>
       </c>
       <c r="D120" s="1" t="n">
-        <v>15887</v>
+        <v>16523</v>
       </c>
       <c r="E120" s="12" t="n">
         <f aca="false">D120/60.48</f>
-        <v>262.681878306878</v>
+        <v>273.197751322751</v>
       </c>
       <c r="F120" s="12" t="n">
-        <v>525</v>
+        <v>636</v>
       </c>
       <c r="G120" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H120" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$118,G120)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I120" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J120" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$118,I120)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K120" s="13" t="n">
         <f aca="false">$B$118+1</f>
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="L120" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K120,G120)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M120" s="0"/>
       <c r="N120" s="0"/>
@@ -4469,36 +4465,36 @@
         <v>230</v>
       </c>
       <c r="D121" s="1" t="n">
-        <v>12641</v>
+        <v>13341</v>
       </c>
       <c r="E121" s="12" t="n">
         <f aca="false">D121/46.75</f>
-        <v>270.395721925134</v>
+        <v>285.368983957219</v>
       </c>
       <c r="F121" s="12" t="n">
-        <v>694</v>
+        <v>700</v>
       </c>
       <c r="G121" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H121" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$118,G121)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I121" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J121" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$118,I121)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K121" s="13" t="n">
         <f aca="false">$B$118+1</f>
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="L121" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K121,G121)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M121" s="0"/>
       <c r="N121" s="0"/>
@@ -4514,36 +4510,36 @@
         <v>330</v>
       </c>
       <c r="D122" s="1" t="n">
-        <v>8078</v>
+        <v>8911</v>
       </c>
       <c r="E122" s="12" t="n">
         <f aca="false">D122/65.27</f>
-        <v>123.762831316072</v>
+        <v>136.525203002911</v>
       </c>
       <c r="F122" s="12" t="n">
-        <v>518</v>
+        <v>833</v>
       </c>
       <c r="G122" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H122" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$118,G122)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I122" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J122" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$118,I122)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K122" s="13" t="n">
         <f aca="false">$B$118+1</f>
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="L122" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K122,G122)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M122" s="0"/>
       <c r="N122" s="0"/>
@@ -4559,25 +4555,25 @@
         <v>50</v>
       </c>
       <c r="D123" s="12" t="n">
-        <v>401</v>
+        <v>477</v>
       </c>
       <c r="E123" s="12" t="n">
         <f aca="false">D123/10.36</f>
-        <v>38.7065637065637</v>
+        <v>46.042471042471</v>
       </c>
       <c r="F123" s="12" t="n">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="G123" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H123" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$118,G123)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I123" s="13" t="n">
         <f aca="false">$B$118+1</f>
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="J123" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$118,I123)</f>
@@ -4585,11 +4581,11 @@
       </c>
       <c r="K123" s="13" t="n">
         <f aca="false">$B$118+1</f>
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="L123" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K123,G123)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M123" s="0"/>
       <c r="N123" s="0"/>
@@ -4605,25 +4601,25 @@
         <v>330</v>
       </c>
       <c r="D124" s="1" t="n">
-        <v>4934</v>
+        <v>5373</v>
       </c>
       <c r="E124" s="12" t="n">
         <f aca="false">D124/67.79</f>
-        <v>72.7835964006491</v>
+        <v>79.2594777990854</v>
       </c>
       <c r="F124" s="12" t="n">
-        <v>621</v>
+        <v>439</v>
       </c>
       <c r="G124" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H124" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$118,G124)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I124" s="13" t="n">
         <f aca="false">$B$118+1</f>
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="J124" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$118,I124)</f>
@@ -4631,11 +4627,11 @@
       </c>
       <c r="K124" s="13" t="n">
         <f aca="false">$B$118+1</f>
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="L124" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K124,G124)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M124" s="0"/>
       <c r="N124" s="0"/>
@@ -4651,25 +4647,25 @@
         <v>1660</v>
       </c>
       <c r="D125" s="1" t="n">
-        <v>9616</v>
+        <v>10871</v>
       </c>
       <c r="E125" s="12" t="n">
         <f aca="false">D125/331</f>
-        <v>29.0513595166163</v>
+        <v>32.8429003021148</v>
       </c>
       <c r="F125" s="12" t="n">
-        <v>1165</v>
+        <v>1255</v>
       </c>
       <c r="G125" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H125" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$118,G125)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I125" s="13" t="n">
         <f aca="false">$B$118+1</f>
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="J125" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$118,I125)</f>
@@ -4677,11 +4673,11 @@
       </c>
       <c r="K125" s="13" t="n">
         <f aca="false">$B$118+1</f>
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="L125" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K125,G125)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M125" s="0"/>
       <c r="N125" s="0"/>
@@ -4697,25 +4693,25 @@
         <v>414</v>
       </c>
       <c r="D126" s="1" t="n">
-        <v>1584</v>
+        <v>1810</v>
       </c>
       <c r="E126" s="12" t="n">
         <f aca="false">D126/83.784</f>
-        <v>18.9057576625609</v>
+        <v>21.6031700563353</v>
       </c>
       <c r="F126" s="12" t="n">
-        <v>140</v>
+        <v>226</v>
       </c>
       <c r="G126" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H126" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$118,G126)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I126" s="13" t="n">
         <f aca="false">$B$118+1</f>
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="J126" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$118,I126)</f>
@@ -4723,11 +4719,11 @@
       </c>
       <c r="K126" s="13" t="n">
         <f aca="false">$B$118+1</f>
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="L126" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K126,G126)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M126" s="0"/>
       <c r="N126" s="0"/>
@@ -4792,7 +4788,7 @@
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B130" s="7" t="n">
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="D130" s="0"/>
       <c r="E130" s="8" t="s">
@@ -4869,36 +4865,36 @@
         <v>300</v>
       </c>
       <c r="D132" s="1" t="n">
-        <v>15362</v>
+        <v>15887</v>
       </c>
       <c r="E132" s="12" t="n">
         <f aca="false">D132/60.48</f>
-        <v>254.001322751323</v>
+        <v>262.681878306878</v>
       </c>
       <c r="F132" s="12" t="n">
-        <v>681</v>
+        <v>525</v>
       </c>
       <c r="G132" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H132" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$130,G132)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I132" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J132" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$130,I132)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K132" s="13" t="n">
         <f aca="false">$B$130+1</f>
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="L132" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K132,G132)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M132" s="0"/>
       <c r="N132" s="0"/>
@@ -4914,36 +4910,36 @@
         <v>230</v>
       </c>
       <c r="D133" s="1" t="n">
-        <v>11947</v>
+        <v>12641</v>
       </c>
       <c r="E133" s="12" t="n">
         <f aca="false">D133/46.75</f>
-        <v>255.550802139037</v>
+        <v>270.395721925134</v>
       </c>
       <c r="F133" s="12" t="n">
-        <v>749</v>
+        <v>694</v>
       </c>
       <c r="G133" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H133" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$130,G133)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I133" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J133" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$130,I133)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K133" s="13" t="n">
         <f aca="false">$B$130+1</f>
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="L133" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K133,G133)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M133" s="0"/>
       <c r="N133" s="0"/>
@@ -4959,36 +4955,36 @@
         <v>330</v>
       </c>
       <c r="D134" s="1" t="n">
-        <v>7560</v>
+        <v>8078</v>
       </c>
       <c r="E134" s="12" t="n">
         <f aca="false">D134/65.27</f>
-        <v>115.826566569634</v>
+        <v>123.762831316072</v>
       </c>
       <c r="F134" s="12" t="n">
-        <v>1053</v>
+        <v>518</v>
       </c>
       <c r="G134" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H134" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$130,G134)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I134" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J134" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$130,I134)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K134" s="13" t="n">
         <f aca="false">$B$130+1</f>
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="L134" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K134,G134)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M134" s="0"/>
       <c r="N134" s="0"/>
@@ -5004,25 +5000,25 @@
         <v>50</v>
       </c>
       <c r="D135" s="12" t="n">
-        <v>373</v>
+        <v>401</v>
       </c>
       <c r="E135" s="12" t="n">
         <f aca="false">D135/10.36</f>
-        <v>36.003861003861</v>
+        <v>38.7065637065637</v>
       </c>
       <c r="F135" s="12" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="G135" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H135" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$130,G135)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I135" s="13" t="n">
         <f aca="false">$B$130+1</f>
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="J135" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$130,I135)</f>
@@ -5030,11 +5026,11 @@
       </c>
       <c r="K135" s="13" t="n">
         <f aca="false">$B$130+1</f>
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="L135" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K135,G135)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M135" s="0"/>
       <c r="N135" s="0"/>
@@ -5050,25 +5046,25 @@
         <v>330</v>
       </c>
       <c r="D136" s="1" t="n">
-        <v>4313</v>
+        <v>4934</v>
       </c>
       <c r="E136" s="12" t="n">
         <f aca="false">D136/67.79</f>
-        <v>63.6229532379407</v>
+        <v>72.7835964006491</v>
       </c>
       <c r="F136" s="12" t="n">
-        <v>708</v>
+        <v>621</v>
       </c>
       <c r="G136" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H136" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$130,G136)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I136" s="13" t="n">
         <f aca="false">$B$130+1</f>
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="J136" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$130,I136)</f>
@@ -5076,11 +5072,11 @@
       </c>
       <c r="K136" s="13" t="n">
         <f aca="false">$B$130+1</f>
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="L136" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K136,G136)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M136" s="0"/>
       <c r="N136" s="0"/>
@@ -5096,25 +5092,25 @@
         <v>1660</v>
       </c>
       <c r="D137" s="1" t="n">
-        <v>8451</v>
+        <v>9616</v>
       </c>
       <c r="E137" s="12" t="n">
         <f aca="false">D137/331</f>
-        <v>25.5317220543807</v>
+        <v>29.0513595166163</v>
       </c>
       <c r="F137" s="12" t="n">
-        <v>1330</v>
+        <v>1165</v>
       </c>
       <c r="G137" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H137" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$130,G137)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I137" s="13" t="n">
         <f aca="false">$B$130+1</f>
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="J137" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$130,I137)</f>
@@ -5122,11 +5118,11 @@
       </c>
       <c r="K137" s="13" t="n">
         <f aca="false">$B$130+1</f>
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="L137" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K137,G137)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M137" s="0"/>
       <c r="N137" s="0"/>
@@ -5142,25 +5138,25 @@
         <v>414</v>
       </c>
       <c r="D138" s="1" t="n">
-        <v>1444</v>
+        <v>1584</v>
       </c>
       <c r="E138" s="12" t="n">
         <f aca="false">D138/83.784</f>
-        <v>17.2347942327891</v>
+        <v>18.9057576625609</v>
       </c>
       <c r="F138" s="12" t="n">
-        <v>169</v>
+        <v>140</v>
       </c>
       <c r="G138" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H138" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$130,G138)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I138" s="13" t="n">
         <f aca="false">$B$130+1</f>
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="J138" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$130,I138)</f>
@@ -5168,11 +5164,11 @@
       </c>
       <c r="K138" s="13" t="n">
         <f aca="false">$B$130+1</f>
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="L138" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K138,G138)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M138" s="0"/>
       <c r="N138" s="0"/>
@@ -5237,7 +5233,7 @@
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B142" s="7" t="n">
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="D142" s="0"/>
       <c r="E142" s="8" t="s">
@@ -5314,36 +5310,36 @@
         <v>300</v>
       </c>
       <c r="D144" s="1" t="n">
-        <v>14681</v>
+        <v>15362</v>
       </c>
       <c r="E144" s="12" t="n">
         <f aca="false">D144/60.48</f>
-        <v>242.741402116402</v>
+        <v>254.001322751323</v>
       </c>
       <c r="F144" s="12" t="n">
-        <v>766</v>
+        <v>681</v>
       </c>
       <c r="G144" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H144" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$142,G144)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I144" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J144" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$142,I144)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K144" s="13" t="n">
         <f aca="false">$B$142+1</f>
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="L144" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K144,G144)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M144" s="0"/>
       <c r="N144" s="0"/>
@@ -5359,36 +5355,36 @@
         <v>230</v>
       </c>
       <c r="D145" s="1" t="n">
-        <v>11198</v>
+        <v>11947</v>
       </c>
       <c r="E145" s="12" t="n">
         <f aca="false">D145/46.75</f>
-        <v>239.529411764706</v>
+        <v>255.550802139037</v>
       </c>
       <c r="F145" s="12" t="n">
-        <v>850</v>
+        <v>749</v>
       </c>
       <c r="G145" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H145" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$154,G145)</f>
-        <v>16</v>
+        <f aca="false">_xlfn.DAYS($B$142,G145)</f>
+        <v>18</v>
       </c>
       <c r="I145" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J145" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$142,I145)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K145" s="13" t="n">
         <f aca="false">$B$142+1</f>
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="L145" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K145,G145)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M145" s="0"/>
       <c r="N145" s="0"/>
@@ -5404,36 +5400,36 @@
         <v>330</v>
       </c>
       <c r="D146" s="1" t="n">
-        <v>6507</v>
+        <v>7560</v>
       </c>
       <c r="E146" s="12" t="n">
         <f aca="false">D146/65.27</f>
-        <v>99.6935805117206</v>
+        <v>115.826566569634</v>
       </c>
       <c r="F146" s="12" t="n">
-        <v>1120</v>
+        <v>1053</v>
       </c>
       <c r="G146" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H146" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$154,G146)</f>
-        <v>11</v>
+        <f aca="false">_xlfn.DAYS($B$142,G146)</f>
+        <v>13</v>
       </c>
       <c r="I146" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J146" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$142,I146)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K146" s="13" t="n">
         <f aca="false">$B$142+1</f>
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="L146" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K146,G146)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M146" s="0"/>
       <c r="N146" s="0"/>
@@ -5449,25 +5445,25 @@
         <v>50</v>
       </c>
       <c r="D147" s="12" t="n">
-        <v>358</v>
+        <v>373</v>
       </c>
       <c r="E147" s="12" t="n">
         <f aca="false">D147/10.36</f>
-        <v>34.5559845559846</v>
+        <v>36.003861003861</v>
       </c>
       <c r="F147" s="12" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="G147" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H147" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$154,G147)</f>
-        <v>8</v>
+        <f aca="false">_xlfn.DAYS($B$142,G147)</f>
+        <v>10</v>
       </c>
       <c r="I147" s="13" t="n">
         <f aca="false">$B$142+1</f>
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="J147" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$142,I147)</f>
@@ -5475,11 +5471,11 @@
       </c>
       <c r="K147" s="13" t="n">
         <f aca="false">$B$142+1</f>
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="L147" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K147,G147)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M147" s="0"/>
       <c r="N147" s="0"/>
@@ -5495,25 +5491,25 @@
         <v>330</v>
       </c>
       <c r="D148" s="1" t="n">
-        <v>3605</v>
+        <v>4313</v>
       </c>
       <c r="E148" s="12" t="n">
         <f aca="false">D148/67.79</f>
-        <v>53.1789349461573</v>
+        <v>63.6229532379407</v>
       </c>
       <c r="F148" s="12" t="n">
-        <v>684</v>
+        <v>708</v>
       </c>
       <c r="G148" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H148" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$154,G148)</f>
-        <v>7</v>
+        <f aca="false">_xlfn.DAYS($B$142,G148)</f>
+        <v>9</v>
       </c>
       <c r="I148" s="13" t="n">
         <f aca="false">$B$142+1</f>
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="J148" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$142,I148)</f>
@@ -5521,11 +5517,11 @@
       </c>
       <c r="K148" s="13" t="n">
         <f aca="false">$B$142+1</f>
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="L148" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K148,G148)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M148" s="0"/>
       <c r="N148" s="0"/>
@@ -5541,25 +5537,25 @@
         <v>1660</v>
       </c>
       <c r="D149" s="1" t="n">
-        <v>7121</v>
+        <v>8451</v>
       </c>
       <c r="E149" s="12" t="n">
         <f aca="false">D149/331</f>
-        <v>21.5135951661631</v>
+        <v>25.5317220543807</v>
       </c>
       <c r="F149" s="12" t="n">
-        <v>1045</v>
+        <v>1330</v>
       </c>
       <c r="G149" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H149" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$154,G149)</f>
-        <v>6</v>
+        <f aca="false">_xlfn.DAYS($B$142,G149)</f>
+        <v>8</v>
       </c>
       <c r="I149" s="13" t="n">
         <f aca="false">$B$142+1</f>
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="J149" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$142,I149)</f>
@@ -5567,11 +5563,11 @@
       </c>
       <c r="K149" s="13" t="n">
         <f aca="false">$B$142+1</f>
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="L149" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K149,G149)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M149" s="0"/>
       <c r="N149" s="0"/>
@@ -5587,25 +5583,25 @@
         <v>414</v>
       </c>
       <c r="D150" s="1" t="n">
-        <v>1275</v>
+        <v>1444</v>
       </c>
       <c r="E150" s="12" t="n">
         <f aca="false">D150/83.784</f>
-        <v>15.2177026639931</v>
+        <v>17.2347942327891</v>
       </c>
       <c r="F150" s="12" t="n">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G150" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H150" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$154,G150)</f>
-        <v>5</v>
+        <f aca="false">_xlfn.DAYS($B$142,G150)</f>
+        <v>7</v>
       </c>
       <c r="I150" s="13" t="n">
         <f aca="false">$B$142+1</f>
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="J150" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$142,I150)</f>
@@ -5613,11 +5609,11 @@
       </c>
       <c r="K150" s="13" t="n">
         <f aca="false">$B$142+1</f>
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="L150" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K150,G150)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M150" s="0"/>
       <c r="N150" s="0"/>
@@ -5682,7 +5678,7 @@
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B154" s="7" t="n">
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="D154" s="0"/>
       <c r="E154" s="8" t="s">
@@ -5759,36 +5755,36 @@
         <v>300</v>
       </c>
       <c r="D156" s="1" t="n">
-        <v>13915</v>
+        <v>14681</v>
       </c>
       <c r="E156" s="12" t="n">
         <f aca="false">D156/60.48</f>
-        <v>230.076058201058</v>
+        <v>242.741402116402</v>
       </c>
       <c r="F156" s="12" t="n">
-        <v>760</v>
+        <v>766</v>
       </c>
       <c r="G156" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H156" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$154,G156)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I156" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J156" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$154,I156)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K156" s="13" t="n">
         <f aca="false">$B$154+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="L156" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K156,G156)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M156" s="0"/>
       <c r="N156" s="0"/>
@@ -5804,20 +5800,20 @@
         <v>230</v>
       </c>
       <c r="D157" s="1" t="n">
-        <v>10348</v>
+        <v>11198</v>
       </c>
       <c r="E157" s="12" t="n">
         <f aca="false">D157/46.75</f>
-        <v>221.347593582888</v>
+        <v>239.529411764706</v>
       </c>
       <c r="F157" s="12" t="n">
-        <v>961</v>
+        <v>850</v>
       </c>
       <c r="G157" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H157" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$154,G157)</f>
+        <f aca="false">_xlfn.DAYS($B$166,G157)</f>
         <v>16</v>
       </c>
       <c r="I157" s="13" t="n">
@@ -5825,15 +5821,15 @@
       </c>
       <c r="J157" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$154,I157)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K157" s="13" t="n">
         <f aca="false">$B$154+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="L157" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K157,G157)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M157" s="0"/>
       <c r="N157" s="0"/>
@@ -5849,20 +5845,20 @@
         <v>330</v>
       </c>
       <c r="D158" s="1" t="n">
-        <v>5387</v>
+        <v>6507</v>
       </c>
       <c r="E158" s="12" t="n">
         <f aca="false">D158/65.27</f>
-        <v>82.5340891680711</v>
+        <v>99.6935805117206</v>
       </c>
       <c r="F158" s="12" t="n">
-        <v>1355</v>
+        <v>1120</v>
       </c>
       <c r="G158" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H158" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$154,G158)</f>
+        <f aca="false">_xlfn.DAYS($B$166,G158)</f>
         <v>11</v>
       </c>
       <c r="I158" s="13" t="n">
@@ -5870,15 +5866,15 @@
       </c>
       <c r="J158" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$154,I158)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K158" s="13" t="n">
         <f aca="false">$B$154+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="L158" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K158,G158)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M158" s="0"/>
       <c r="N158" s="0"/>
@@ -5894,25 +5890,25 @@
         <v>50</v>
       </c>
       <c r="D159" s="12" t="n">
-        <v>308</v>
+        <v>358</v>
       </c>
       <c r="E159" s="12" t="n">
         <f aca="false">D159/10.36</f>
-        <v>29.7297297297297</v>
+        <v>34.5559845559846</v>
       </c>
       <c r="F159" s="12" t="n">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="G159" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H159" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$154,G159)</f>
+        <f aca="false">_xlfn.DAYS($B$166,G159)</f>
         <v>8</v>
       </c>
       <c r="I159" s="13" t="n">
         <f aca="false">$B$154+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="J159" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$154,I159)</f>
@@ -5920,11 +5916,11 @@
       </c>
       <c r="K159" s="13" t="n">
         <f aca="false">$B$154+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="L159" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K159,G159)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M159" s="0"/>
       <c r="N159" s="0"/>
@@ -5940,25 +5936,25 @@
         <v>330</v>
       </c>
       <c r="D160" s="1" t="n">
-        <v>2921</v>
+        <v>3605</v>
       </c>
       <c r="E160" s="12" t="n">
         <f aca="false">D160/67.79</f>
-        <v>43.0889511727393</v>
+        <v>53.1789349461573</v>
       </c>
       <c r="F160" s="12" t="n">
-        <v>569</v>
+        <v>684</v>
       </c>
       <c r="G160" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H160" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$154,G160)</f>
+        <f aca="false">_xlfn.DAYS($B$166,G160)</f>
         <v>7</v>
       </c>
       <c r="I160" s="13" t="n">
         <f aca="false">$B$154+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="J160" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$154,I160)</f>
@@ -5966,11 +5962,11 @@
       </c>
       <c r="K160" s="13" t="n">
         <f aca="false">$B$154+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="L160" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K160,G160)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M160" s="0"/>
       <c r="N160" s="0"/>
@@ -5986,25 +5982,25 @@
         <v>1660</v>
       </c>
       <c r="D161" s="1" t="n">
-        <v>6076</v>
+        <v>7121</v>
       </c>
       <c r="E161" s="12" t="n">
         <f aca="false">D161/331</f>
-        <v>18.3564954682779</v>
+        <v>21.5135951661631</v>
       </c>
       <c r="F161" s="12" t="n">
-        <v>969</v>
+        <v>1045</v>
       </c>
       <c r="G161" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H161" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$154,G161)</f>
+        <f aca="false">_xlfn.DAYS($B$166,G161)</f>
         <v>6</v>
       </c>
       <c r="I161" s="13" t="n">
         <f aca="false">$B$154+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="J161" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$154,I161)</f>
@@ -6012,11 +6008,11 @@
       </c>
       <c r="K161" s="13" t="n">
         <f aca="false">$B$154+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="L161" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K161,G161)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M161" s="0"/>
       <c r="N161" s="0"/>
@@ -6032,25 +6028,25 @@
         <v>414</v>
       </c>
       <c r="D162" s="1" t="n">
-        <v>1107</v>
+        <v>1275</v>
       </c>
       <c r="E162" s="12" t="n">
         <f aca="false">D162/83.784</f>
-        <v>13.212546548267</v>
+        <v>15.2177026639931</v>
       </c>
       <c r="F162" s="12" t="n">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="G162" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H162" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$154,G162)</f>
+        <f aca="false">_xlfn.DAYS($B$166,G162)</f>
         <v>5</v>
       </c>
       <c r="I162" s="13" t="n">
         <f aca="false">$B$154+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="J162" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$154,I162)</f>
@@ -6058,11 +6054,11 @@
       </c>
       <c r="K162" s="13" t="n">
         <f aca="false">$B$154+1</f>
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="L162" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K162,G162)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M162" s="0"/>
       <c r="N162" s="0"/>
@@ -6127,7 +6123,7 @@
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B166" s="7" t="n">
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="D166" s="0"/>
       <c r="E166" s="8" t="s">
@@ -6204,36 +6200,36 @@
         <v>300</v>
       </c>
       <c r="D168" s="1" t="n">
-        <v>13155</v>
+        <v>13915</v>
       </c>
       <c r="E168" s="12" t="n">
         <f aca="false">D168/60.48</f>
-        <v>217.509920634921</v>
+        <v>230.076058201058</v>
       </c>
       <c r="F168" s="12" t="n">
-        <v>727</v>
+        <v>760</v>
       </c>
       <c r="G168" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H168" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$166,G168)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I168" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J168" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$166,I168)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K168" s="13" t="n">
         <f aca="false">$B$166+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="L168" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K168,G168)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M168" s="0"/>
       <c r="N168" s="0"/>
@@ -6249,36 +6245,36 @@
         <v>230</v>
       </c>
       <c r="D169" s="1" t="n">
-        <v>9387</v>
+        <v>10348</v>
       </c>
       <c r="E169" s="12" t="n">
         <f aca="false">D169/46.75</f>
-        <v>200.791443850267</v>
+        <v>221.347593582888</v>
       </c>
       <c r="F169" s="12" t="n">
-        <v>923</v>
+        <v>961</v>
       </c>
       <c r="G169" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H169" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$166,G169)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I169" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J169" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$166,I169)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K169" s="13" t="n">
         <f aca="false">$B$166+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="L169" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K169,G169)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M169" s="0"/>
       <c r="N169" s="0"/>
@@ -6294,36 +6290,36 @@
         <v>330</v>
       </c>
       <c r="D170" s="1" t="n">
-        <v>4032</v>
+        <v>5387</v>
       </c>
       <c r="E170" s="12" t="n">
         <f aca="false">D170/65.27</f>
-        <v>61.7741688371381</v>
+        <v>82.5340891680711</v>
       </c>
       <c r="F170" s="12" t="n">
-        <v>509</v>
+        <v>1355</v>
       </c>
       <c r="G170" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H170" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$166,G170)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I170" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J170" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$166,I170)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K170" s="13" t="n">
         <f aca="false">$B$166+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="L170" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K170,G170)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M170" s="0"/>
       <c r="N170" s="0"/>
@@ -6339,25 +6335,25 @@
         <v>50</v>
       </c>
       <c r="D171" s="12" t="n">
-        <v>239</v>
+        <v>308</v>
       </c>
       <c r="E171" s="12" t="n">
         <f aca="false">D171/10.36</f>
-        <v>23.0694980694981</v>
+        <v>29.7297297297297</v>
       </c>
       <c r="F171" s="12" t="n">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="G171" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H171" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$166,G171)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I171" s="13" t="n">
         <f aca="false">$B$166+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="J171" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$166,I171)</f>
@@ -6365,11 +6361,11 @@
       </c>
       <c r="K171" s="13" t="n">
         <f aca="false">$B$166+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="L171" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K171,G171)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M171" s="0"/>
       <c r="N171" s="0"/>
@@ -6385,25 +6381,25 @@
         <v>330</v>
       </c>
       <c r="D172" s="1" t="n">
-        <v>2352</v>
+        <v>2921</v>
       </c>
       <c r="E172" s="12" t="n">
         <f aca="false">D172/67.79</f>
-        <v>34.695382799823</v>
+        <v>43.0889511727393</v>
       </c>
       <c r="F172" s="12" t="n">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="G172" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H172" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$166,G172)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I172" s="13" t="n">
         <f aca="false">$B$166+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="J172" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$166,I172)</f>
@@ -6411,11 +6407,11 @@
       </c>
       <c r="K172" s="13" t="n">
         <f aca="false">$B$166+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="L172" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K172,G172)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M172" s="0"/>
       <c r="N172" s="0"/>
@@ -6431,25 +6427,25 @@
         <v>1660</v>
       </c>
       <c r="D173" s="1" t="n">
-        <v>5102</v>
+        <v>6076</v>
       </c>
       <c r="E173" s="12" t="n">
         <f aca="false">D173/331</f>
-        <v>15.4138972809668</v>
+        <v>18.3564954682779</v>
       </c>
       <c r="F173" s="12" t="n">
-        <v>1049</v>
+        <v>969</v>
       </c>
       <c r="G173" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H173" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$166,G173)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I173" s="13" t="n">
         <f aca="false">$B$166+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="J173" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$166,I173)</f>
@@ -6457,11 +6453,11 @@
       </c>
       <c r="K173" s="13" t="n">
         <f aca="false">$B$166+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="L173" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K173,G173)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M173" s="0"/>
       <c r="N173" s="0"/>
@@ -6477,25 +6473,25 @@
         <v>414</v>
       </c>
       <c r="D174" s="1" t="n">
-        <v>931</v>
+        <v>1107</v>
       </c>
       <c r="E174" s="12" t="n">
         <f aca="false">D174/83.784</f>
-        <v>11.1119068079824</v>
+        <v>13.212546548267</v>
       </c>
       <c r="F174" s="12" t="n">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="G174" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H174" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$166,G174)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I174" s="13" t="n">
         <f aca="false">$B$166+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="J174" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$166,I174)</f>
@@ -6503,11 +6499,11 @@
       </c>
       <c r="K174" s="13" t="n">
         <f aca="false">$B$166+1</f>
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="L174" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K174,G174)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M174" s="0"/>
       <c r="N174" s="0"/>
@@ -6572,7 +6568,7 @@
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B178" s="7" t="n">
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="D178" s="0"/>
       <c r="E178" s="8" t="s">
@@ -6649,36 +6645,36 @@
         <v>300</v>
       </c>
       <c r="D180" s="1" t="n">
-        <v>12428</v>
+        <v>13155</v>
       </c>
       <c r="E180" s="12" t="n">
         <f aca="false">D180/60.48</f>
-        <v>205.489417989418</v>
+        <v>217.509920634921</v>
       </c>
       <c r="F180" s="12" t="n">
-        <v>837</v>
+        <v>727</v>
       </c>
       <c r="G180" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H180" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$178,G180)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I180" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J180" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$178,I180)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K180" s="13" t="n">
         <f aca="false">$B$178+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="L180" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K180,G180)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M180" s="0"/>
       <c r="N180" s="0"/>
@@ -6694,36 +6690,36 @@
         <v>230</v>
       </c>
       <c r="D181" s="1" t="n">
-        <v>8464</v>
+        <v>9387</v>
       </c>
       <c r="E181" s="12" t="n">
         <f aca="false">D181/46.75</f>
-        <v>181.048128342246</v>
+        <v>200.791443850267</v>
       </c>
       <c r="F181" s="12" t="n">
-        <v>748</v>
+        <v>923</v>
       </c>
       <c r="G181" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H181" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$178,G181)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I181" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J181" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$178,I181)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K181" s="13" t="n">
         <f aca="false">$B$178+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="L181" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K181,G181)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M181" s="0"/>
       <c r="N181" s="0"/>
@@ -6739,36 +6735,36 @@
         <v>330</v>
       </c>
       <c r="D182" s="1" t="n">
-        <v>3523</v>
+        <v>4032</v>
       </c>
       <c r="E182" s="12" t="n">
         <f aca="false">D182/65.27</f>
-        <v>53.9757928604259</v>
+        <v>61.7741688371381</v>
       </c>
       <c r="F182" s="12" t="n">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="G182" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H182" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$178,G182)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I182" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J182" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$178,I182)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K182" s="13" t="n">
         <f aca="false">$B$178+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="L182" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K182,G182)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M182" s="0"/>
       <c r="N182" s="0"/>
@@ -6784,25 +6780,25 @@
         <v>50</v>
       </c>
       <c r="D183" s="12" t="n">
-        <v>180</v>
+        <v>239</v>
       </c>
       <c r="E183" s="12" t="n">
         <f aca="false">D183/10.36</f>
-        <v>17.3745173745174</v>
+        <v>23.0694980694981</v>
       </c>
       <c r="F183" s="12" t="n">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="G183" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H183" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$178,G183)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I183" s="13" t="n">
         <f aca="false">$B$178+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="J183" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$178,I183)</f>
@@ -6810,11 +6806,11 @@
       </c>
       <c r="K183" s="13" t="n">
         <f aca="false">$B$178+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="L183" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K183,G183)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M183" s="0"/>
       <c r="N183" s="0"/>
@@ -6830,25 +6826,25 @@
         <v>330</v>
       </c>
       <c r="D184" s="1" t="n">
-        <v>1789</v>
+        <v>2352</v>
       </c>
       <c r="E184" s="12" t="n">
         <f aca="false">D184/67.79</f>
-        <v>26.390323056498</v>
+        <v>34.695382799823</v>
       </c>
       <c r="F184" s="12" t="n">
-        <v>381</v>
+        <v>563</v>
       </c>
       <c r="G184" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H184" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$178,G184)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I184" s="13" t="n">
         <f aca="false">$B$178+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="J184" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$178,I184)</f>
@@ -6856,11 +6852,11 @@
       </c>
       <c r="K184" s="13" t="n">
         <f aca="false">$B$178+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="L184" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K184,G184)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M184" s="0"/>
       <c r="N184" s="0"/>
@@ -6876,25 +6872,25 @@
         <v>1660</v>
       </c>
       <c r="D185" s="1" t="n">
-        <v>4053</v>
+        <v>5102</v>
       </c>
       <c r="E185" s="12" t="n">
         <f aca="false">D185/331</f>
-        <v>12.2447129909366</v>
+        <v>15.4138972809668</v>
       </c>
       <c r="F185" s="12" t="n">
-        <v>912</v>
+        <v>1049</v>
       </c>
       <c r="G185" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H185" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$178,G185)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I185" s="13" t="n">
         <f aca="false">$B$178+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="J185" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$178,I185)</f>
@@ -6902,11 +6898,11 @@
       </c>
       <c r="K185" s="13" t="n">
         <f aca="false">$B$178+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="L185" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K185,G185)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M185" s="0"/>
       <c r="N185" s="0"/>
@@ -6922,25 +6918,25 @@
         <v>414</v>
       </c>
       <c r="D186" s="1" t="n">
-        <v>775</v>
+        <v>931</v>
       </c>
       <c r="E186" s="12" t="n">
         <f aca="false">D186/83.784</f>
-        <v>9.24997612909386</v>
+        <v>11.1119068079824</v>
       </c>
       <c r="F186" s="12" t="n">
-        <v>130</v>
+        <v>156</v>
       </c>
       <c r="G186" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H186" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$178,G186)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I186" s="13" t="n">
         <f aca="false">$B$178+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="J186" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$178,I186)</f>
@@ -6948,11 +6944,11 @@
       </c>
       <c r="K186" s="13" t="n">
         <f aca="false">$B$178+1</f>
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="L186" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K186,G186)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M186" s="0"/>
       <c r="N186" s="0"/>
@@ -6961,15 +6957,16 @@
       <c r="Q186" s="0"/>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C187" s="12"/>
+      <c r="B187" s="4"/>
+      <c r="C187" s="5"/>
       <c r="D187" s="0"/>
-      <c r="E187" s="12"/>
-      <c r="F187" s="12"/>
-      <c r="G187" s="13"/>
+      <c r="E187" s="0"/>
+      <c r="F187" s="0"/>
+      <c r="G187" s="0"/>
       <c r="H187" s="0"/>
-      <c r="I187" s="13"/>
+      <c r="I187" s="0"/>
       <c r="J187" s="0"/>
-      <c r="K187" s="13"/>
+      <c r="K187" s="0"/>
       <c r="L187" s="0"/>
       <c r="M187" s="0"/>
       <c r="N187" s="0"/>
@@ -6978,15 +6975,16 @@
       <c r="Q187" s="0"/>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C188" s="12"/>
+      <c r="B188" s="4"/>
+      <c r="C188" s="5"/>
       <c r="D188" s="0"/>
-      <c r="E188" s="12"/>
-      <c r="F188" s="12"/>
-      <c r="G188" s="13"/>
+      <c r="E188" s="0"/>
+      <c r="F188" s="0"/>
+      <c r="G188" s="0"/>
       <c r="H188" s="0"/>
-      <c r="I188" s="13"/>
+      <c r="I188" s="0"/>
       <c r="J188" s="0"/>
-      <c r="K188" s="13"/>
+      <c r="K188" s="0"/>
       <c r="L188" s="0"/>
       <c r="M188" s="0"/>
       <c r="N188" s="0"/>
@@ -7015,7 +7013,7 @@
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B190" s="7" t="n">
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="D190" s="0"/>
       <c r="E190" s="8" t="s">
@@ -7037,7 +7035,9 @@
       <c r="K190" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="L190" s="0"/>
+      <c r="L190" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="M190" s="0"/>
       <c r="N190" s="0"/>
       <c r="O190" s="0"/>
@@ -7073,7 +7073,9 @@
       <c r="K191" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="L191" s="0"/>
+      <c r="L191" s="8" t="s">
+        <v>47</v>
+      </c>
       <c r="M191" s="0"/>
       <c r="N191" s="0"/>
       <c r="O191" s="0"/>
@@ -7088,34 +7090,37 @@
         <v>300</v>
       </c>
       <c r="D192" s="1" t="n">
-        <v>11591</v>
+        <v>12428</v>
       </c>
       <c r="E192" s="12" t="n">
         <f aca="false">D192/60.48</f>
-        <v>191.650132275132</v>
+        <v>205.489417989418</v>
       </c>
       <c r="F192" s="12" t="n">
-        <v>812</v>
+        <v>837</v>
       </c>
       <c r="G192" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H192" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$190,G192)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I192" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J192" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$190,I192)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K192" s="13" t="n">
-        <f aca="false">$B$202+1</f>
-        <v>43920</v>
-      </c>
-      <c r="L192" s="0"/>
+        <f aca="false">$B$190+1</f>
+        <v>43922</v>
+      </c>
+      <c r="L192" s="0" t="n">
+        <f aca="false">_xlfn.DAYS(K192,G192)</f>
+        <v>22</v>
+      </c>
       <c r="M192" s="0"/>
       <c r="N192" s="0"/>
       <c r="O192" s="0"/>
@@ -7130,34 +7135,37 @@
         <v>230</v>
       </c>
       <c r="D193" s="1" t="n">
-        <v>7716</v>
+        <v>8464</v>
       </c>
       <c r="E193" s="12" t="n">
         <f aca="false">D193/46.75</f>
-        <v>165.048128342246</v>
+        <v>181.048128342246</v>
       </c>
       <c r="F193" s="12" t="n">
-        <v>913</v>
+        <v>748</v>
       </c>
       <c r="G193" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H193" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$190,G193)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I193" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J193" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$190,I193)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K193" s="13" t="n">
-        <f aca="false">$B$202+1</f>
-        <v>43920</v>
-      </c>
-      <c r="L193" s="0"/>
+        <f aca="false">$B$190+1</f>
+        <v>43922</v>
+      </c>
+      <c r="L193" s="0" t="n">
+        <f aca="false">_xlfn.DAYS(K193,G193)</f>
+        <v>15</v>
+      </c>
       <c r="M193" s="0"/>
       <c r="N193" s="0"/>
       <c r="O193" s="0"/>
@@ -7172,34 +7180,37 @@
         <v>330</v>
       </c>
       <c r="D194" s="1" t="n">
-        <v>3024</v>
+        <v>3523</v>
       </c>
       <c r="E194" s="12" t="n">
         <f aca="false">D194/65.27</f>
-        <v>46.3306266278535</v>
+        <v>53.9757928604259</v>
       </c>
       <c r="F194" s="12" t="n">
-        <v>418</v>
+        <v>499</v>
       </c>
       <c r="G194" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H194" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$190,G194)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I194" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J194" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$190,I194)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K194" s="13" t="n">
-        <f aca="false">$B$202+1</f>
-        <v>43920</v>
-      </c>
-      <c r="L194" s="0"/>
+        <f aca="false">$B$190+1</f>
+        <v>43922</v>
+      </c>
+      <c r="L194" s="0" t="n">
+        <f aca="false">_xlfn.DAYS(K194,G194)</f>
+        <v>10</v>
+      </c>
       <c r="M194" s="0"/>
       <c r="N194" s="0"/>
       <c r="O194" s="0"/>
@@ -7214,35 +7225,38 @@
         <v>50</v>
       </c>
       <c r="D195" s="12" t="n">
-        <v>146</v>
+        <v>180</v>
       </c>
       <c r="E195" s="12" t="n">
         <f aca="false">D195/10.36</f>
-        <v>14.0926640926641</v>
+        <v>17.3745173745174</v>
       </c>
       <c r="F195" s="12" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G195" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H195" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$190,G195)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I195" s="13" t="n">
         <f aca="false">$B$190+1</f>
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="J195" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$190,I195)</f>
         <v>-1</v>
       </c>
       <c r="K195" s="13" t="n">
-        <f aca="false">$B$202+1</f>
-        <v>43920</v>
-      </c>
-      <c r="L195" s="0"/>
+        <f aca="false">$B$190+1</f>
+        <v>43922</v>
+      </c>
+      <c r="L195" s="0" t="n">
+        <f aca="false">_xlfn.DAYS(K195,G195)</f>
+        <v>7</v>
+      </c>
       <c r="M195" s="0"/>
       <c r="N195" s="0"/>
       <c r="O195" s="0"/>
@@ -7257,35 +7271,38 @@
         <v>330</v>
       </c>
       <c r="D196" s="1" t="n">
-        <v>1408</v>
+        <v>1789</v>
       </c>
       <c r="E196" s="12" t="n">
         <f aca="false">D196/67.79</f>
-        <v>20.770025077445</v>
+        <v>26.390323056498</v>
       </c>
       <c r="F196" s="12" t="n">
-        <v>180</v>
+        <v>381</v>
       </c>
       <c r="G196" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H196" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$190,G196)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I196" s="13" t="n">
         <f aca="false">$B$190+1</f>
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="J196" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$190,I196)</f>
         <v>-1</v>
       </c>
       <c r="K196" s="13" t="n">
-        <f aca="false">$B$202+1</f>
-        <v>43920</v>
-      </c>
-      <c r="L196" s="0"/>
+        <f aca="false">$B$190+1</f>
+        <v>43922</v>
+      </c>
+      <c r="L196" s="0" t="n">
+        <f aca="false">_xlfn.DAYS(K196,G196)</f>
+        <v>6</v>
+      </c>
       <c r="M196" s="0"/>
       <c r="N196" s="0"/>
       <c r="O196" s="0"/>
@@ -7300,34 +7317,38 @@
         <v>1660</v>
       </c>
       <c r="D197" s="1" t="n">
-        <v>3141</v>
+        <v>4053</v>
       </c>
       <c r="E197" s="12" t="n">
         <f aca="false">D197/331</f>
-        <v>9.48942598187311</v>
+        <v>12.2447129909366</v>
       </c>
       <c r="F197" s="12" t="n">
-        <v>573</v>
+        <v>912</v>
       </c>
       <c r="G197" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H197" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$190,G197)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I197" s="13" t="n">
-        <v>43920</v>
+        <f aca="false">$B$190+1</f>
+        <v>43922</v>
       </c>
       <c r="J197" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$190,I197)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K197" s="13" t="n">
-        <f aca="false">$B$202+1</f>
-        <v>43920</v>
-      </c>
-      <c r="L197" s="0"/>
+        <f aca="false">$B$190+1</f>
+        <v>43922</v>
+      </c>
+      <c r="L197" s="0" t="n">
+        <f aca="false">_xlfn.DAYS(K197,G197)</f>
+        <v>5</v>
+      </c>
       <c r="M197" s="0"/>
       <c r="N197" s="0"/>
       <c r="O197" s="0"/>
@@ -7342,35 +7363,38 @@
         <v>414</v>
       </c>
       <c r="D198" s="1" t="n">
-        <v>645</v>
+        <v>775</v>
       </c>
       <c r="E198" s="12" t="n">
         <f aca="false">D198/83.784</f>
-        <v>7.69836723002005</v>
+        <v>9.24997612909386</v>
       </c>
       <c r="F198" s="12" t="n">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="G198" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H198" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$190,G198)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I198" s="13" t="n">
         <f aca="false">$B$190+1</f>
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="J198" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$190,I198)</f>
         <v>-1</v>
       </c>
       <c r="K198" s="13" t="n">
-        <f aca="false">$B$202+1</f>
-        <v>43920</v>
-      </c>
-      <c r="L198" s="0"/>
+        <f aca="false">$B$190+1</f>
+        <v>43922</v>
+      </c>
+      <c r="L198" s="0" t="n">
+        <f aca="false">_xlfn.DAYS(K198,G198)</f>
+        <v>4</v>
+      </c>
       <c r="M198" s="0"/>
       <c r="N198" s="0"/>
       <c r="O198" s="0"/>
@@ -7378,16 +7402,15 @@
       <c r="Q198" s="0"/>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B199" s="4"/>
-      <c r="C199" s="5"/>
+      <c r="C199" s="12"/>
       <c r="D199" s="0"/>
-      <c r="E199" s="0"/>
-      <c r="F199" s="0"/>
-      <c r="G199" s="0"/>
+      <c r="E199" s="12"/>
+      <c r="F199" s="12"/>
+      <c r="G199" s="13"/>
       <c r="H199" s="0"/>
-      <c r="I199" s="0"/>
+      <c r="I199" s="13"/>
       <c r="J199" s="0"/>
-      <c r="K199" s="0"/>
+      <c r="K199" s="13"/>
       <c r="L199" s="0"/>
       <c r="M199" s="0"/>
       <c r="N199" s="0"/>
@@ -7396,16 +7419,15 @@
       <c r="Q199" s="0"/>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B200" s="4"/>
-      <c r="C200" s="5"/>
+      <c r="C200" s="12"/>
       <c r="D200" s="0"/>
-      <c r="E200" s="0"/>
-      <c r="F200" s="0"/>
-      <c r="G200" s="0"/>
+      <c r="E200" s="12"/>
+      <c r="F200" s="12"/>
+      <c r="G200" s="13"/>
       <c r="H200" s="0"/>
-      <c r="I200" s="0"/>
+      <c r="I200" s="13"/>
       <c r="J200" s="0"/>
-      <c r="K200" s="0"/>
+      <c r="K200" s="13"/>
       <c r="L200" s="0"/>
       <c r="M200" s="0"/>
       <c r="N200" s="0"/>
@@ -7434,7 +7456,7 @@
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B202" s="7" t="n">
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="D202" s="0"/>
       <c r="E202" s="8" t="s">
@@ -7507,31 +7529,31 @@
         <v>300</v>
       </c>
       <c r="D204" s="1" t="n">
-        <v>10779</v>
+        <v>11591</v>
       </c>
       <c r="E204" s="12" t="n">
         <f aca="false">D204/60.48</f>
-        <v>178.224206349206</v>
+        <v>191.650132275132</v>
       </c>
       <c r="F204" s="12" t="n">
-        <v>756</v>
+        <v>812</v>
       </c>
       <c r="G204" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H204" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$202,G204)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I204" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J204" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$202,I204)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K204" s="13" t="n">
-        <f aca="false">$B$202+1</f>
+        <f aca="false">$B$214+1</f>
         <v>43920</v>
       </c>
       <c r="L204" s="0"/>
@@ -7549,31 +7571,31 @@
         <v>230</v>
       </c>
       <c r="D205" s="1" t="n">
-        <v>6803</v>
+        <v>7716</v>
       </c>
       <c r="E205" s="12" t="n">
         <f aca="false">D205/46.75</f>
-        <v>145.51871657754</v>
+        <v>165.048128342246</v>
       </c>
       <c r="F205" s="12" t="n">
-        <v>821</v>
+        <v>913</v>
       </c>
       <c r="G205" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H205" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$202,G205)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I205" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J205" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$202,I205)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K205" s="13" t="n">
-        <f aca="false">$B$202+1</f>
+        <f aca="false">$B$214+1</f>
         <v>43920</v>
       </c>
       <c r="L205" s="0"/>
@@ -7591,31 +7613,31 @@
         <v>330</v>
       </c>
       <c r="D206" s="1" t="n">
-        <v>2606</v>
+        <v>3024</v>
       </c>
       <c r="E206" s="12" t="n">
         <f aca="false">D206/65.27</f>
-        <v>39.9264593228129</v>
+        <v>46.3306266278535</v>
       </c>
       <c r="F206" s="12" t="n">
-        <v>292</v>
+        <v>418</v>
       </c>
       <c r="G206" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H206" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$202,G206)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I206" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J206" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$202,I206)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K206" s="13" t="n">
-        <f aca="false">$B$202+1</f>
+        <f aca="false">$B$214+1</f>
         <v>43920</v>
       </c>
       <c r="L206" s="0"/>
@@ -7627,38 +7649,38 @@
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B207" s="0" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C207" s="12" t="n">
-        <v>1660</v>
-      </c>
-      <c r="D207" s="1" t="n">
-        <v>2583</v>
+        <v>50</v>
+      </c>
+      <c r="D207" s="12" t="n">
+        <v>146</v>
       </c>
       <c r="E207" s="12" t="n">
-        <f aca="false">D207/331</f>
-        <v>7.8036253776435</v>
+        <f aca="false">D207/10.36</f>
+        <v>14.0926640926641</v>
       </c>
       <c r="F207" s="12" t="n">
-        <v>363</v>
+        <v>36</v>
       </c>
       <c r="G207" s="13" t="n">
-        <v>43917</v>
+        <v>43915</v>
       </c>
       <c r="H207" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$202,G207)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I207" s="13" t="n">
         <f aca="false">$B$202+1</f>
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="J207" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$202,I207)</f>
         <v>-1</v>
       </c>
       <c r="K207" s="13" t="n">
-        <f aca="false">$B$202+1</f>
+        <f aca="false">$B$214+1</f>
         <v>43920</v>
       </c>
       <c r="L207" s="0"/>
@@ -7676,32 +7698,32 @@
         <v>330</v>
       </c>
       <c r="D208" s="1" t="n">
-        <v>1228</v>
+        <v>1408</v>
       </c>
       <c r="E208" s="12" t="n">
         <f aca="false">D208/67.79</f>
-        <v>18.1147661897035</v>
+        <v>20.770025077445</v>
       </c>
       <c r="F208" s="12" t="n">
-        <v>209</v>
+        <v>180</v>
       </c>
       <c r="G208" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H208" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$202,G208)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I208" s="13" t="n">
         <f aca="false">$B$202+1</f>
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="J208" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$202,I208)</f>
         <v>-1</v>
       </c>
       <c r="K208" s="13" t="n">
-        <f aca="false">$B$202+1</f>
+        <f aca="false">$B$214+1</f>
         <v>43920</v>
       </c>
       <c r="L208" s="0"/>
@@ -7713,38 +7735,37 @@
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B209" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C209" s="12" t="n">
-        <v>414</v>
+        <v>1660</v>
       </c>
       <c r="D209" s="1" t="n">
-        <v>541</v>
+        <v>3141</v>
       </c>
       <c r="E209" s="12" t="n">
-        <f aca="false">D209/83.784</f>
-        <v>6.457080110761</v>
+        <f aca="false">D209/331</f>
+        <v>9.48942598187311</v>
       </c>
       <c r="F209" s="12" t="n">
-        <v>108</v>
+        <v>573</v>
       </c>
       <c r="G209" s="13" t="n">
-        <v>43918</v>
+        <v>43917</v>
       </c>
       <c r="H209" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$202,G209)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I209" s="13" t="n">
-        <f aca="false">$B$202+1</f>
         <v>43920</v>
       </c>
       <c r="J209" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$202,I209)</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K209" s="13" t="n">
-        <f aca="false">$B$202+1</f>
+        <f aca="false">$B$214+1</f>
         <v>43920</v>
       </c>
       <c r="L209" s="0"/>
@@ -7756,38 +7777,38 @@
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B210" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C210" s="12" t="n">
-        <v>50</v>
-      </c>
-      <c r="D210" s="12" t="n">
-        <v>110</v>
+        <v>414</v>
+      </c>
+      <c r="D210" s="1" t="n">
+        <v>645</v>
       </c>
       <c r="E210" s="12" t="n">
-        <f aca="false">D210/10.36</f>
-        <v>10.6177606177606</v>
+        <f aca="false">D210/83.784</f>
+        <v>7.69836723002005</v>
       </c>
       <c r="F210" s="12" t="n">
-        <v>5</v>
+        <v>104</v>
       </c>
       <c r="G210" s="13" t="n">
-        <v>43915</v>
+        <v>43918</v>
       </c>
       <c r="H210" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$202,G210)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I210" s="13" t="n">
         <f aca="false">$B$202+1</f>
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="J210" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$202,I210)</f>
         <v>-1</v>
       </c>
       <c r="K210" s="13" t="n">
-        <f aca="false">$B$202+1</f>
+        <f aca="false">$B$214+1</f>
         <v>43920</v>
       </c>
       <c r="L210" s="0"/>
@@ -7854,15 +7875,13 @@
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B214" s="7" t="n">
-        <v>43918</v>
-      </c>
-      <c r="D214" s="8" t="s">
-        <v>12</v>
-      </c>
+        <v>43919</v>
+      </c>
+      <c r="D214" s="0"/>
       <c r="E214" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F214" s="8"/>
+      <c r="F214" s="0"/>
       <c r="G214" s="8" t="s">
         <v>35</v>
       </c>
@@ -7890,8 +7909,8 @@
       <c r="C215" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D215" s="10" t="s">
-        <v>6</v>
+      <c r="D215" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="E215" s="10" t="s">
         <v>41</v>
@@ -7929,32 +7948,32 @@
         <v>300</v>
       </c>
       <c r="D216" s="1" t="n">
-        <v>10023</v>
+        <v>10779</v>
       </c>
       <c r="E216" s="12" t="n">
         <f aca="false">D216/60.48</f>
-        <v>165.724206349206</v>
+        <v>178.224206349206</v>
       </c>
       <c r="F216" s="12" t="n">
-        <v>889</v>
+        <v>756</v>
       </c>
       <c r="G216" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H216" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$214,G216)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I216" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J216" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$226,I216)</f>
-        <v>15</v>
+        <f aca="false">_xlfn.DAYS($B$214,I216)</f>
+        <v>17</v>
       </c>
       <c r="K216" s="13" t="n">
         <f aca="false">$B$214+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="L216" s="0"/>
       <c r="M216" s="0"/>
@@ -7971,32 +7990,32 @@
         <v>230</v>
       </c>
       <c r="D217" s="1" t="n">
-        <v>5982</v>
+        <v>6803</v>
       </c>
       <c r="E217" s="12" t="n">
         <f aca="false">D217/46.75</f>
-        <v>127.957219251337</v>
+        <v>145.51871657754</v>
       </c>
       <c r="F217" s="12" t="n">
-        <v>844</v>
+        <v>821</v>
       </c>
       <c r="G217" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H217" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$214,G217)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I217" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J217" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$226,I217)</f>
-        <v>4</v>
+        <f aca="false">_xlfn.DAYS($B$214,I217)</f>
+        <v>6</v>
       </c>
       <c r="K217" s="13" t="n">
         <f aca="false">$B$214+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="L217" s="0"/>
       <c r="M217" s="0"/>
@@ -8013,32 +8032,32 @@
         <v>330</v>
       </c>
       <c r="D218" s="1" t="n">
-        <v>2314</v>
+        <v>2606</v>
       </c>
       <c r="E218" s="12" t="n">
         <f aca="false">D218/65.27</f>
-        <v>35.4527347939329</v>
+        <v>39.9264593228129</v>
       </c>
       <c r="F218" s="12" t="n">
-        <v>319</v>
+        <v>292</v>
       </c>
       <c r="G218" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H218" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$214,G218)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I218" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J218" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$226,I218)</f>
-        <v>3</v>
+        <f aca="false">_xlfn.DAYS($B$214,I218)</f>
+        <v>5</v>
       </c>
       <c r="K218" s="13" t="n">
         <f aca="false">$B$214+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="L218" s="0"/>
       <c r="M218" s="0"/>
@@ -8055,25 +8074,25 @@
         <v>1660</v>
       </c>
       <c r="D219" s="1" t="n">
-        <v>2221</v>
+        <v>2583</v>
       </c>
       <c r="E219" s="12" t="n">
         <f aca="false">D219/331</f>
-        <v>6.70996978851964</v>
+        <v>7.8036253776435</v>
       </c>
       <c r="F219" s="12" t="n">
-        <v>525</v>
+        <v>363</v>
       </c>
       <c r="G219" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H219" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$214,G219)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I219" s="13" t="n">
         <f aca="false">$B$214+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="J219" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$214,I219)</f>
@@ -8081,7 +8100,7 @@
       </c>
       <c r="K219" s="13" t="n">
         <f aca="false">$B$214+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="L219" s="0"/>
       <c r="M219" s="0"/>
@@ -8098,25 +8117,25 @@
         <v>330</v>
       </c>
       <c r="D220" s="1" t="n">
-        <v>1019</v>
+        <v>1228</v>
       </c>
       <c r="E220" s="12" t="n">
         <f aca="false">D220/67.79</f>
-        <v>15.0317155922702</v>
+        <v>18.1147661897035</v>
       </c>
       <c r="F220" s="12" t="n">
-        <v>260</v>
+        <v>209</v>
       </c>
       <c r="G220" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H220" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$214,G220)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I220" s="13" t="n">
         <f aca="false">$B$214+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="J220" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$214,I220)</f>
@@ -8124,7 +8143,7 @@
       </c>
       <c r="K220" s="13" t="n">
         <f aca="false">$B$214+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="L220" s="0"/>
       <c r="M220" s="0"/>
@@ -8141,25 +8160,25 @@
         <v>414</v>
       </c>
       <c r="D221" s="1" t="n">
-        <v>433</v>
+        <v>541</v>
       </c>
       <c r="E221" s="12" t="n">
         <f aca="false">D221/83.784</f>
-        <v>5.16805117922276</v>
+        <v>6.457080110761</v>
       </c>
       <c r="F221" s="12" t="n">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="G221" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H221" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$214,G221)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I221" s="13" t="n">
         <f aca="false">$B$214+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="J221" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$214,I221)</f>
@@ -8167,7 +8186,7 @@
       </c>
       <c r="K221" s="13" t="n">
         <f aca="false">$B$214+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="L221" s="0"/>
       <c r="M221" s="0"/>
@@ -8184,25 +8203,25 @@
         <v>50</v>
       </c>
       <c r="D222" s="12" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E222" s="12" t="n">
         <f aca="false">D222/10.36</f>
-        <v>10.1351351351351</v>
+        <v>10.6177606177606</v>
       </c>
       <c r="F222" s="12" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G222" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H222" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$214,G222)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I222" s="13" t="n">
         <f aca="false">$B$214+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="J222" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$214,I222)</f>
@@ -8210,7 +8229,7 @@
       </c>
       <c r="K222" s="13" t="n">
         <f aca="false">$B$214+1</f>
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="L222" s="0"/>
       <c r="M222" s="0"/>
@@ -8220,15 +8239,16 @@
       <c r="Q222" s="0"/>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C223" s="12"/>
-      <c r="D223" s="12"/>
-      <c r="E223" s="12"/>
-      <c r="F223" s="12"/>
-      <c r="G223" s="13"/>
+      <c r="B223" s="4"/>
+      <c r="C223" s="5"/>
+      <c r="D223" s="0"/>
+      <c r="E223" s="0"/>
+      <c r="F223" s="0"/>
+      <c r="G223" s="0"/>
       <c r="H223" s="0"/>
-      <c r="I223" s="13"/>
+      <c r="I223" s="0"/>
       <c r="J223" s="0"/>
-      <c r="K223" s="13"/>
+      <c r="K223" s="0"/>
       <c r="L223" s="0"/>
       <c r="M223" s="0"/>
       <c r="N223" s="0"/>
@@ -8273,11 +8293,10 @@
       <c r="P225" s="0"/>
       <c r="Q225" s="0"/>
     </row>
-    <row r="226" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B226" s="7" t="n">
-        <v>43917</v>
-      </c>
-      <c r="C226" s="0"/>
+        <v>43918</v>
+      </c>
       <c r="D226" s="8" t="s">
         <v>12</v>
       </c>
@@ -8300,10 +8319,14 @@
       <c r="K226" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="L226" s="8"/>
+      <c r="L226" s="0"/>
+      <c r="M226" s="0"/>
+      <c r="N226" s="0"/>
+      <c r="O226" s="0"/>
+      <c r="P226" s="0"/>
+      <c r="Q226" s="0"/>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="3"/>
       <c r="B227" s="9"/>
       <c r="C227" s="10" t="s">
         <v>40</v>
@@ -8332,7 +8355,7 @@
       <c r="K227" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="L227" s="8"/>
+      <c r="L227" s="0"/>
       <c r="M227" s="0"/>
       <c r="N227" s="0"/>
       <c r="O227" s="0"/>
@@ -8347,32 +8370,32 @@
         <v>300</v>
       </c>
       <c r="D228" s="1" t="n">
-        <v>9134</v>
+        <v>10023</v>
       </c>
       <c r="E228" s="12" t="n">
         <f aca="false">D228/60.48</f>
-        <v>151.025132275132</v>
+        <v>165.724206349206</v>
       </c>
       <c r="F228" s="12" t="n">
-        <v>919</v>
+        <v>889</v>
       </c>
       <c r="G228" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H228" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$226,G228)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I228" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J228" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$226,I228)</f>
+        <f aca="false">_xlfn.DAYS(B$238,I228)</f>
         <v>15</v>
       </c>
       <c r="K228" s="13" t="n">
         <f aca="false">$B$226+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="L228" s="0"/>
       <c r="M228" s="0"/>
@@ -8389,32 +8412,32 @@
         <v>230</v>
       </c>
       <c r="D229" s="1" t="n">
-        <v>5138</v>
+        <v>5982</v>
       </c>
       <c r="E229" s="12" t="n">
         <f aca="false">D229/46.75</f>
-        <v>109.903743315508</v>
+        <v>127.957219251337</v>
       </c>
       <c r="F229" s="12" t="n">
-        <v>773</v>
+        <v>844</v>
       </c>
       <c r="G229" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H229" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$226,G229)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I229" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J229" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$226,I229)</f>
+        <f aca="false">_xlfn.DAYS(B$238,I229)</f>
         <v>4</v>
       </c>
       <c r="K229" s="13" t="n">
         <f aca="false">$B$226+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="L229" s="0"/>
       <c r="M229" s="0"/>
@@ -8431,32 +8454,32 @@
         <v>330</v>
       </c>
       <c r="D230" s="1" t="n">
-        <v>1995</v>
+        <v>2314</v>
       </c>
       <c r="E230" s="12" t="n">
         <f aca="false">D230/65.27</f>
-        <v>30.5653439558756</v>
+        <v>35.4527347939329</v>
       </c>
       <c r="F230" s="12" t="n">
-        <v>299</v>
+        <v>319</v>
       </c>
       <c r="G230" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H230" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$226,G230)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I230" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J230" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$226,I230)</f>
+        <f aca="false">_xlfn.DAYS(B$238,I230)</f>
         <v>3</v>
       </c>
       <c r="K230" s="13" t="n">
         <f aca="false">$B$226+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="L230" s="0"/>
       <c r="M230" s="0"/>
@@ -8473,34 +8496,33 @@
         <v>1660</v>
       </c>
       <c r="D231" s="1" t="n">
-        <v>1696</v>
+        <v>2221</v>
       </c>
       <c r="E231" s="12" t="n">
         <f aca="false">D231/331</f>
-        <v>5.12386706948641</v>
+        <v>6.70996978851964</v>
       </c>
       <c r="F231" s="12" t="n">
-        <v>400</v>
+        <v>525</v>
       </c>
       <c r="G231" s="13" t="n">
-        <f aca="false">$B$226</f>
         <v>43917</v>
       </c>
       <c r="H231" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$226,G231)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I231" s="13" t="n">
         <f aca="false">$B$226+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="J231" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$226,I231)</f>
+        <f aca="false">_xlfn.DAYS($B$226,I231)</f>
         <v>-1</v>
       </c>
       <c r="K231" s="13" t="n">
         <f aca="false">$B$226+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="L231" s="0"/>
       <c r="M231" s="0"/>
@@ -8517,33 +8539,33 @@
         <v>330</v>
       </c>
       <c r="D232" s="1" t="n">
-        <v>759</v>
+        <v>1019</v>
       </c>
       <c r="E232" s="12" t="n">
         <f aca="false">D232/67.79</f>
-        <v>11.1963416433102</v>
+        <v>15.0317155922702</v>
       </c>
       <c r="F232" s="12" t="n">
-        <v>181</v>
+        <v>260</v>
       </c>
       <c r="G232" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H232" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$226,G232)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I232" s="13" t="n">
         <f aca="false">$B$226+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="J232" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$226,I232)</f>
+        <f aca="false">_xlfn.DAYS($B$226,I232)</f>
         <v>-1</v>
       </c>
       <c r="K232" s="13" t="n">
         <f aca="false">$B$226+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="L232" s="0"/>
       <c r="M232" s="0"/>
@@ -8560,34 +8582,33 @@
         <v>414</v>
       </c>
       <c r="D233" s="1" t="n">
-        <v>351</v>
+        <v>433</v>
       </c>
       <c r="E233" s="12" t="n">
         <f aca="false">D233/83.784</f>
-        <v>4.18934402749928</v>
+        <v>5.16805117922276</v>
       </c>
       <c r="F233" s="12" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G233" s="13" t="n">
-        <f aca="false">$B$226+1</f>
         <v>43918</v>
       </c>
       <c r="H233" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$226,G233)</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I233" s="13" t="n">
         <f aca="false">$B$226+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="J233" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$226,I233)</f>
+        <f aca="false">_xlfn.DAYS($B$226,I233)</f>
         <v>-1</v>
       </c>
       <c r="K233" s="13" t="n">
         <f aca="false">$B$226+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="L233" s="0"/>
       <c r="M233" s="0"/>
@@ -8611,26 +8632,26 @@
         <v>10.1351351351351</v>
       </c>
       <c r="F234" s="12" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="G234" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H234" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$226,G234)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I234" s="13" t="n">
         <f aca="false">$B$226+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="J234" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$226,I234)</f>
+        <f aca="false">_xlfn.DAYS($B$226,I234)</f>
         <v>-1</v>
       </c>
       <c r="K234" s="13" t="n">
         <f aca="false">$B$226+1</f>
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="L234" s="0"/>
       <c r="M234" s="0"/>
@@ -8640,14 +8661,15 @@
       <c r="Q234" s="0"/>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D235" s="0"/>
-      <c r="E235" s="0"/>
-      <c r="F235" s="0"/>
-      <c r="G235" s="0"/>
+      <c r="C235" s="12"/>
+      <c r="D235" s="12"/>
+      <c r="E235" s="12"/>
+      <c r="F235" s="12"/>
+      <c r="G235" s="13"/>
       <c r="H235" s="0"/>
-      <c r="I235" s="0"/>
+      <c r="I235" s="13"/>
       <c r="J235" s="0"/>
-      <c r="K235" s="0"/>
+      <c r="K235" s="13"/>
       <c r="L235" s="0"/>
       <c r="M235" s="0"/>
       <c r="N235" s="0"/>
@@ -8656,6 +8678,8 @@
       <c r="Q235" s="0"/>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B236" s="4"/>
+      <c r="C236" s="5"/>
       <c r="D236" s="0"/>
       <c r="E236" s="0"/>
       <c r="F236" s="0"/>
@@ -8690,10 +8714,11 @@
       <c r="P237" s="0"/>
       <c r="Q237" s="0"/>
     </row>
-    <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="238" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B238" s="7" t="n">
-        <v>43916</v>
-      </c>
+        <v>43917</v>
+      </c>
+      <c r="C238" s="0"/>
       <c r="D238" s="8" t="s">
         <v>12</v>
       </c>
@@ -8716,17 +8741,13 @@
       <c r="K238" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="L238" s="0"/>
-      <c r="M238" s="0"/>
-      <c r="N238" s="0"/>
-      <c r="O238" s="0"/>
-      <c r="P238" s="0"/>
-      <c r="Q238" s="0"/>
+      <c r="L238" s="8"/>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="3"/>
       <c r="B239" s="9"/>
       <c r="C239" s="10" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D239" s="10" t="s">
         <v>6</v>
@@ -8752,7 +8773,7 @@
       <c r="K239" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="L239" s="0"/>
+      <c r="L239" s="8"/>
       <c r="M239" s="0"/>
       <c r="N239" s="0"/>
       <c r="O239" s="0"/>
@@ -8767,32 +8788,32 @@
         <v>300</v>
       </c>
       <c r="D240" s="1" t="n">
-        <v>8215</v>
+        <v>9134</v>
       </c>
       <c r="E240" s="12" t="n">
         <f aca="false">D240/60.48</f>
-        <v>135.830026455026</v>
+        <v>151.025132275132</v>
       </c>
       <c r="F240" s="12" t="n">
-        <v>712</v>
+        <v>919</v>
       </c>
       <c r="G240" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H240" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$238,G240)</f>
-        <v>16</v>
+        <f aca="false">_xlfn.DAYS($B$238,G240)</f>
+        <v>17</v>
       </c>
       <c r="I240" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J240" s="1" t="n">
         <f aca="false">_xlfn.DAYS(B$238,I240)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K240" s="13" t="n">
-        <f aca="false">B$238+1</f>
-        <v>43917</v>
+        <f aca="false">$B$238+1</f>
+        <v>43918</v>
       </c>
       <c r="L240" s="0"/>
       <c r="M240" s="0"/>
@@ -8809,32 +8830,32 @@
         <v>230</v>
       </c>
       <c r="D241" s="1" t="n">
-        <v>4365</v>
+        <v>5138</v>
       </c>
       <c r="E241" s="12" t="n">
         <f aca="false">D241/46.75</f>
-        <v>93.3689839572193</v>
+        <v>109.903743315508</v>
       </c>
       <c r="F241" s="12" t="n">
-        <v>718</v>
+        <v>773</v>
       </c>
       <c r="G241" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H241" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$238,G241)</f>
-        <v>9</v>
+        <f aca="false">_xlfn.DAYS($B$238,G241)</f>
+        <v>10</v>
       </c>
       <c r="I241" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J241" s="1" t="n">
         <f aca="false">_xlfn.DAYS(B$238,I241)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K241" s="13" t="n">
-        <f aca="false">B$238+1</f>
-        <v>43917</v>
+        <f aca="false">$B$238+1</f>
+        <v>43918</v>
       </c>
       <c r="L241" s="0"/>
       <c r="M241" s="0"/>
@@ -8851,32 +8872,32 @@
         <v>330</v>
       </c>
       <c r="D242" s="1" t="n">
-        <v>1696</v>
+        <v>1995</v>
       </c>
       <c r="E242" s="12" t="n">
         <f aca="false">D242/65.27</f>
-        <v>25.9843726060978</v>
+        <v>30.5653439558756</v>
       </c>
       <c r="F242" s="12" t="n">
-        <v>365</v>
+        <v>299</v>
       </c>
       <c r="G242" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H242" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$238,G242)</f>
-        <v>4</v>
+        <f aca="false">_xlfn.DAYS($B$238,G242)</f>
+        <v>5</v>
       </c>
       <c r="I242" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J242" s="1" t="n">
         <f aca="false">_xlfn.DAYS(B$238,I242)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K242" s="13" t="n">
-        <f aca="false">B$238+1</f>
-        <v>43917</v>
+        <f aca="false">$B$238+1</f>
+        <v>43918</v>
       </c>
       <c r="L242" s="0"/>
       <c r="M242" s="0"/>
@@ -8893,33 +8914,34 @@
         <v>1660</v>
       </c>
       <c r="D243" s="1" t="n">
-        <v>1295</v>
+        <v>1696</v>
       </c>
       <c r="E243" s="12" t="n">
         <f aca="false">D243/331</f>
-        <v>3.91238670694864</v>
+        <v>5.12386706948641</v>
       </c>
       <c r="F243" s="12" t="n">
-        <v>268</v>
+        <v>400</v>
       </c>
       <c r="G243" s="13" t="n">
+        <f aca="false">$B$238</f>
         <v>43917</v>
       </c>
       <c r="H243" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$238,G243)</f>
+        <f aca="false">_xlfn.DAYS($B$238,G243)</f>
+        <v>0</v>
+      </c>
+      <c r="I243" s="13" t="n">
+        <f aca="false">$B$238+1</f>
+        <v>43918</v>
+      </c>
+      <c r="J243" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$238,I243)</f>
         <v>-1</v>
       </c>
-      <c r="I243" s="13" t="n">
-        <f aca="false">B$238+1</f>
-        <v>43917</v>
-      </c>
-      <c r="J243" s="1" t="n">
-        <f aca="false">_xlfn.DAYS($B$238,I243)</f>
-        <v>-1</v>
-      </c>
       <c r="K243" s="13" t="n">
-        <f aca="false">B$238+1</f>
-        <v>43917</v>
+        <f aca="false">$B$238+1</f>
+        <v>43918</v>
       </c>
       <c r="L243" s="0"/>
       <c r="M243" s="0"/>
@@ -8936,33 +8958,33 @@
         <v>330</v>
       </c>
       <c r="D244" s="1" t="n">
-        <v>578</v>
+        <v>759</v>
       </c>
       <c r="E244" s="12" t="n">
         <f aca="false">D244/67.79</f>
-        <v>8.52633131730344</v>
+        <v>11.1963416433102</v>
       </c>
       <c r="F244" s="12" t="n">
-        <v>115</v>
+        <v>181</v>
       </c>
       <c r="G244" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H244" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$238,G244)</f>
-        <v>0</v>
+        <f aca="false">_xlfn.DAYS($B$238,G244)</f>
+        <v>1</v>
       </c>
       <c r="I244" s="13" t="n">
-        <f aca="false">B$238+1</f>
-        <v>43917</v>
+        <f aca="false">$B$238+1</f>
+        <v>43918</v>
       </c>
       <c r="J244" s="1" t="n">
         <f aca="false">_xlfn.DAYS(B$238,I244)</f>
         <v>-1</v>
       </c>
       <c r="K244" s="13" t="n">
-        <f aca="false">B$238+1</f>
-        <v>43917</v>
+        <f aca="false">$B$238+1</f>
+        <v>43918</v>
       </c>
       <c r="L244" s="0"/>
       <c r="M244" s="0"/>
@@ -8979,33 +9001,34 @@
         <v>414</v>
       </c>
       <c r="D245" s="1" t="n">
-        <v>267</v>
+        <v>351</v>
       </c>
       <c r="E245" s="12" t="n">
         <f aca="false">D245/83.784</f>
-        <v>3.18676596963621</v>
+        <v>4.18934402749928</v>
       </c>
       <c r="F245" s="12" t="n">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="G245" s="13" t="n">
-        <v>43917</v>
+        <f aca="false">$B$238+1</f>
+        <v>43918</v>
       </c>
       <c r="H245" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$238,G245)</f>
+        <f aca="false">_xlfn.DAYS($B$238,G245)</f>
         <v>-1</v>
       </c>
       <c r="I245" s="13" t="n">
-        <f aca="false">B$238+1</f>
-        <v>43917</v>
+        <f aca="false">$B$238+1</f>
+        <v>43918</v>
       </c>
       <c r="J245" s="1" t="n">
         <f aca="false">_xlfn.DAYS(B$238,I245)</f>
         <v>-1</v>
       </c>
       <c r="K245" s="13" t="n">
-        <f aca="false">B$238+1</f>
-        <v>43917</v>
+        <f aca="false">$B$238+1</f>
+        <v>43918</v>
       </c>
       <c r="L245" s="0"/>
       <c r="M245" s="0"/>
@@ -9022,33 +9045,33 @@
         <v>50</v>
       </c>
       <c r="D246" s="12" t="n">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="E246" s="12" t="n">
         <f aca="false">D246/10.36</f>
-        <v>7.43243243243243</v>
+        <v>10.1351351351351</v>
       </c>
       <c r="F246" s="12" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="G246" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H246" s="1" t="n">
-        <f aca="false">_xlfn.DAYS(B$238,G246)</f>
-        <v>1</v>
+        <f aca="false">_xlfn.DAYS($B$238,G246)</f>
+        <v>2</v>
       </c>
       <c r="I246" s="13" t="n">
-        <f aca="false">B$238+1</f>
-        <v>43917</v>
+        <f aca="false">$B$238+1</f>
+        <v>43918</v>
       </c>
       <c r="J246" s="1" t="n">
         <f aca="false">_xlfn.DAYS(B$238,I246)</f>
         <v>-1</v>
       </c>
       <c r="K246" s="13" t="n">
-        <f aca="false">B$238+1</f>
-        <v>43917</v>
+        <f aca="false">$B$238+1</f>
+        <v>43918</v>
       </c>
       <c r="L246" s="0"/>
       <c r="M246" s="0"/>
@@ -9056,6 +9079,424 @@
       <c r="O246" s="0"/>
       <c r="P246" s="0"/>
       <c r="Q246" s="0"/>
+    </row>
+    <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D247" s="0"/>
+      <c r="E247" s="0"/>
+      <c r="F247" s="0"/>
+      <c r="G247" s="0"/>
+      <c r="H247" s="0"/>
+      <c r="I247" s="0"/>
+      <c r="J247" s="0"/>
+      <c r="K247" s="0"/>
+      <c r="L247" s="0"/>
+      <c r="M247" s="0"/>
+      <c r="N247" s="0"/>
+      <c r="O247" s="0"/>
+      <c r="P247" s="0"/>
+      <c r="Q247" s="0"/>
+    </row>
+    <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D248" s="0"/>
+      <c r="E248" s="0"/>
+      <c r="F248" s="0"/>
+      <c r="G248" s="0"/>
+      <c r="H248" s="0"/>
+      <c r="I248" s="0"/>
+      <c r="J248" s="0"/>
+      <c r="K248" s="0"/>
+      <c r="L248" s="0"/>
+      <c r="M248" s="0"/>
+      <c r="N248" s="0"/>
+      <c r="O248" s="0"/>
+      <c r="P248" s="0"/>
+      <c r="Q248" s="0"/>
+    </row>
+    <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B249" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D249" s="0"/>
+      <c r="E249" s="0"/>
+      <c r="F249" s="0"/>
+      <c r="G249" s="0"/>
+      <c r="H249" s="0"/>
+      <c r="I249" s="0"/>
+      <c r="J249" s="0"/>
+      <c r="K249" s="0"/>
+      <c r="L249" s="0"/>
+      <c r="M249" s="0"/>
+      <c r="N249" s="0"/>
+      <c r="O249" s="0"/>
+      <c r="P249" s="0"/>
+      <c r="Q249" s="0"/>
+    </row>
+    <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B250" s="7" t="n">
+        <v>43916</v>
+      </c>
+      <c r="D250" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E250" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F250" s="8"/>
+      <c r="G250" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H250" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I250" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J250" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K250" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="L250" s="0"/>
+      <c r="M250" s="0"/>
+      <c r="N250" s="0"/>
+      <c r="O250" s="0"/>
+      <c r="P250" s="0"/>
+      <c r="Q250" s="0"/>
+    </row>
+    <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B251" s="9"/>
+      <c r="C251" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D251" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E251" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F251" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G251" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="H251" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I251" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="J251" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K251" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="L251" s="0"/>
+      <c r="M251" s="0"/>
+      <c r="N251" s="0"/>
+      <c r="O251" s="0"/>
+      <c r="P251" s="0"/>
+      <c r="Q251" s="0"/>
+    </row>
+    <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B252" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C252" s="12" t="n">
+        <v>300</v>
+      </c>
+      <c r="D252" s="1" t="n">
+        <v>8215</v>
+      </c>
+      <c r="E252" s="12" t="n">
+        <f aca="false">D252/60.48</f>
+        <v>135.830026455026</v>
+      </c>
+      <c r="F252" s="12" t="n">
+        <v>712</v>
+      </c>
+      <c r="G252" s="13" t="n">
+        <v>43900</v>
+      </c>
+      <c r="H252" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$250,G252)</f>
+        <v>16</v>
+      </c>
+      <c r="I252" s="13" t="n">
+        <v>43902</v>
+      </c>
+      <c r="J252" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$250,I252)</f>
+        <v>14</v>
+      </c>
+      <c r="K252" s="13" t="n">
+        <f aca="false">B$250+1</f>
+        <v>43917</v>
+      </c>
+      <c r="L252" s="0"/>
+      <c r="M252" s="0"/>
+      <c r="N252" s="0"/>
+      <c r="O252" s="0"/>
+      <c r="P252" s="0"/>
+      <c r="Q252" s="0"/>
+    </row>
+    <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B253" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C253" s="12" t="n">
+        <v>230</v>
+      </c>
+      <c r="D253" s="1" t="n">
+        <v>4365</v>
+      </c>
+      <c r="E253" s="12" t="n">
+        <f aca="false">D253/46.75</f>
+        <v>93.3689839572193</v>
+      </c>
+      <c r="F253" s="12" t="n">
+        <v>718</v>
+      </c>
+      <c r="G253" s="13" t="n">
+        <v>43907</v>
+      </c>
+      <c r="H253" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$250,G253)</f>
+        <v>9</v>
+      </c>
+      <c r="I253" s="13" t="n">
+        <v>43913</v>
+      </c>
+      <c r="J253" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$250,I253)</f>
+        <v>3</v>
+      </c>
+      <c r="K253" s="13" t="n">
+        <f aca="false">B$250+1</f>
+        <v>43917</v>
+      </c>
+      <c r="L253" s="0"/>
+      <c r="M253" s="0"/>
+      <c r="N253" s="0"/>
+      <c r="O253" s="0"/>
+      <c r="P253" s="0"/>
+      <c r="Q253" s="0"/>
+    </row>
+    <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B254" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C254" s="12" t="n">
+        <v>330</v>
+      </c>
+      <c r="D254" s="1" t="n">
+        <v>1696</v>
+      </c>
+      <c r="E254" s="12" t="n">
+        <f aca="false">D254/65.27</f>
+        <v>25.9843726060978</v>
+      </c>
+      <c r="F254" s="12" t="n">
+        <v>365</v>
+      </c>
+      <c r="G254" s="13" t="n">
+        <v>43912</v>
+      </c>
+      <c r="H254" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$250,G254)</f>
+        <v>4</v>
+      </c>
+      <c r="I254" s="13" t="n">
+        <v>43914</v>
+      </c>
+      <c r="J254" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$250,I254)</f>
+        <v>2</v>
+      </c>
+      <c r="K254" s="13" t="n">
+        <f aca="false">B$250+1</f>
+        <v>43917</v>
+      </c>
+      <c r="L254" s="0"/>
+      <c r="M254" s="0"/>
+      <c r="N254" s="0"/>
+      <c r="O254" s="0"/>
+      <c r="P254" s="0"/>
+      <c r="Q254" s="0"/>
+    </row>
+    <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B255" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C255" s="12" t="n">
+        <v>1660</v>
+      </c>
+      <c r="D255" s="1" t="n">
+        <v>1295</v>
+      </c>
+      <c r="E255" s="12" t="n">
+        <f aca="false">D255/331</f>
+        <v>3.91238670694864</v>
+      </c>
+      <c r="F255" s="12" t="n">
+        <v>268</v>
+      </c>
+      <c r="G255" s="13" t="n">
+        <v>43917</v>
+      </c>
+      <c r="H255" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$250,G255)</f>
+        <v>-1</v>
+      </c>
+      <c r="I255" s="13" t="n">
+        <f aca="false">B$250+1</f>
+        <v>43917</v>
+      </c>
+      <c r="J255" s="1" t="n">
+        <f aca="false">_xlfn.DAYS($B$250,I255)</f>
+        <v>-1</v>
+      </c>
+      <c r="K255" s="13" t="n">
+        <f aca="false">B$250+1</f>
+        <v>43917</v>
+      </c>
+      <c r="L255" s="0"/>
+      <c r="M255" s="0"/>
+      <c r="N255" s="0"/>
+      <c r="O255" s="0"/>
+      <c r="P255" s="0"/>
+      <c r="Q255" s="0"/>
+    </row>
+    <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B256" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C256" s="12" t="n">
+        <v>330</v>
+      </c>
+      <c r="D256" s="1" t="n">
+        <v>578</v>
+      </c>
+      <c r="E256" s="12" t="n">
+        <f aca="false">D256/67.79</f>
+        <v>8.52633131730344</v>
+      </c>
+      <c r="F256" s="12" t="n">
+        <v>115</v>
+      </c>
+      <c r="G256" s="13" t="n">
+        <v>43916</v>
+      </c>
+      <c r="H256" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$250,G256)</f>
+        <v>0</v>
+      </c>
+      <c r="I256" s="13" t="n">
+        <f aca="false">B$250+1</f>
+        <v>43917</v>
+      </c>
+      <c r="J256" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$250,I256)</f>
+        <v>-1</v>
+      </c>
+      <c r="K256" s="13" t="n">
+        <f aca="false">B$250+1</f>
+        <v>43917</v>
+      </c>
+      <c r="L256" s="0"/>
+      <c r="M256" s="0"/>
+      <c r="N256" s="0"/>
+      <c r="O256" s="0"/>
+      <c r="P256" s="0"/>
+      <c r="Q256" s="0"/>
+    </row>
+    <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B257" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C257" s="12" t="n">
+        <v>414</v>
+      </c>
+      <c r="D257" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="E257" s="12" t="n">
+        <f aca="false">D257/83.784</f>
+        <v>3.18676596963621</v>
+      </c>
+      <c r="F257" s="12" t="n">
+        <v>61</v>
+      </c>
+      <c r="G257" s="13" t="n">
+        <v>43917</v>
+      </c>
+      <c r="H257" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$250,G257)</f>
+        <v>-1</v>
+      </c>
+      <c r="I257" s="13" t="n">
+        <f aca="false">B$250+1</f>
+        <v>43917</v>
+      </c>
+      <c r="J257" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$250,I257)</f>
+        <v>-1</v>
+      </c>
+      <c r="K257" s="13" t="n">
+        <f aca="false">B$250+1</f>
+        <v>43917</v>
+      </c>
+      <c r="L257" s="0"/>
+      <c r="M257" s="0"/>
+      <c r="N257" s="0"/>
+      <c r="O257" s="0"/>
+      <c r="P257" s="0"/>
+      <c r="Q257" s="0"/>
+    </row>
+    <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B258" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C258" s="12" t="n">
+        <v>50</v>
+      </c>
+      <c r="D258" s="12" t="n">
+        <v>77</v>
+      </c>
+      <c r="E258" s="12" t="n">
+        <f aca="false">D258/10.36</f>
+        <v>7.43243243243243</v>
+      </c>
+      <c r="F258" s="12" t="n">
+        <v>15</v>
+      </c>
+      <c r="G258" s="13" t="n">
+        <v>43915</v>
+      </c>
+      <c r="H258" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$250,G258)</f>
+        <v>1</v>
+      </c>
+      <c r="I258" s="13" t="n">
+        <f aca="false">B$250+1</f>
+        <v>43917</v>
+      </c>
+      <c r="J258" s="1" t="n">
+        <f aca="false">_xlfn.DAYS(B$250,I258)</f>
+        <v>-1</v>
+      </c>
+      <c r="K258" s="13" t="n">
+        <f aca="false">B$250+1</f>
+        <v>43917</v>
+      </c>
+      <c r="L258" s="0"/>
+      <c r="M258" s="0"/>
+      <c r="N258" s="0"/>
+      <c r="O258" s="0"/>
+      <c r="P258" s="0"/>
+      <c r="Q258" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/covid19 lockdown evaluation .xlsx
+++ b/covid19 lockdown evaluation .xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="55">
   <si>
     <t>Effects of the lockdown issued by governments</t>
   </si>
@@ -359,7 +359,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q258"/>
+  <dimension ref="A1:Q270"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F31" activeCellId="0" sqref="F31"/>
@@ -815,7 +815,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="7" t="n">
-        <v>43935</v>
+        <v>43936</v>
       </c>
       <c r="D22" s="0"/>
       <c r="E22" s="8" t="s">
@@ -892,36 +892,36 @@
         <v>300</v>
       </c>
       <c r="D24" s="1" t="n">
-        <v>21067</v>
+        <v>21645</v>
       </c>
       <c r="E24" s="12" t="n">
         <f aca="false">D24/60.48</f>
-        <v>348.330026455026</v>
+        <v>357.886904761905</v>
       </c>
       <c r="F24" s="12" t="n">
-        <v>602</v>
+        <v>578</v>
       </c>
       <c r="G24" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H24" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,G24)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I24" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J24" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,I24)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K24" s="13" t="n">
         <f aca="false">$B$22+1</f>
-        <v>43936</v>
+        <v>43937</v>
       </c>
       <c r="L24" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K24,G24)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M24" s="0"/>
       <c r="N24" s="0"/>
@@ -937,36 +937,36 @@
         <v>230</v>
       </c>
       <c r="D25" s="1" t="n">
-        <v>18255</v>
+        <v>18812</v>
       </c>
       <c r="E25" s="12" t="n">
         <f aca="false">D25/46.75</f>
-        <v>390.48128342246</v>
+        <v>402.395721925134</v>
       </c>
       <c r="F25" s="12" t="n">
-        <v>499</v>
+        <v>557</v>
       </c>
       <c r="G25" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H25" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,G25)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I25" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J25" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,I25)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K25" s="13" t="n">
         <f aca="false">$B$22+1</f>
-        <v>43936</v>
+        <v>43937</v>
       </c>
       <c r="L25" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K25,G25)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M25" s="0"/>
       <c r="N25" s="0"/>
@@ -982,36 +982,36 @@
         <v>330</v>
       </c>
       <c r="D26" s="1" t="n">
-        <v>15729</v>
+        <v>17167</v>
       </c>
       <c r="E26" s="12" t="n">
         <f aca="false">D26/65.27</f>
-        <v>240.983606557377</v>
+        <v>263.01516776467</v>
       </c>
       <c r="F26" s="12" t="n">
-        <v>762</v>
+        <v>1438</v>
       </c>
       <c r="G26" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H26" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,G26)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I26" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J26" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,I26)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K26" s="13" t="n">
         <f aca="false">$B$22+1</f>
-        <v>43936</v>
+        <v>43937</v>
       </c>
       <c r="L26" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K26,G26)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M26" s="0"/>
       <c r="N26" s="0"/>
@@ -1027,36 +1027,36 @@
         <v>50</v>
       </c>
       <c r="D27" s="12" t="n">
-        <v>1033</v>
+        <v>1203</v>
       </c>
       <c r="E27" s="12" t="n">
         <f aca="false">D27/10.36</f>
-        <v>99.7104247104247</v>
+        <v>116.119691119691</v>
       </c>
       <c r="F27" s="12" t="n">
-        <v>114</v>
+        <v>170</v>
       </c>
       <c r="G27" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H27" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,G27)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I27" s="13" t="n">
         <v>43928</v>
       </c>
       <c r="J27" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,I27)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K27" s="13" t="n">
         <f aca="false">$B$22+1</f>
-        <v>43936</v>
+        <v>43937</v>
       </c>
       <c r="L27" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K27,G27)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M27" s="0"/>
       <c r="N27" s="0"/>
@@ -1072,36 +1072,36 @@
         <v>330</v>
       </c>
       <c r="D28" s="1" t="n">
-        <v>12107</v>
+        <v>12868</v>
       </c>
       <c r="E28" s="12" t="n">
         <f aca="false">D28/67.79</f>
-        <v>178.59566307715</v>
+        <v>189.821507596991</v>
       </c>
       <c r="F28" s="12" t="n">
-        <v>778</v>
+        <v>761</v>
       </c>
       <c r="G28" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H28" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,G28)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I28" s="13" t="n">
         <v>43919</v>
       </c>
       <c r="J28" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,I28)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K28" s="13" t="n">
         <f aca="false">$B$22+1</f>
-        <v>43936</v>
+        <v>43937</v>
       </c>
       <c r="L28" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K28,G28)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M28" s="0"/>
       <c r="N28" s="0"/>
@@ -1117,36 +1117,36 @@
         <v>1660</v>
       </c>
       <c r="D29" s="1" t="n">
-        <v>26047</v>
+        <v>28529</v>
       </c>
       <c r="E29" s="12" t="n">
         <f aca="false">D29/331</f>
-        <v>78.6918429003021</v>
+        <v>86.190332326284</v>
       </c>
       <c r="F29" s="12" t="n">
-        <v>2407</v>
+        <v>2482</v>
       </c>
       <c r="G29" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H29" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,G29)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I29" s="13" t="n">
         <v>43921</v>
       </c>
       <c r="J29" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,I29)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K29" s="13" t="n">
         <f aca="false">$B$22+1</f>
-        <v>43936</v>
+        <v>43937</v>
       </c>
       <c r="L29" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K29,G29)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M29" s="0"/>
       <c r="N29" s="0"/>
@@ -1162,36 +1162,36 @@
         <v>414</v>
       </c>
       <c r="D30" s="1" t="n">
-        <v>3495</v>
+        <v>3804</v>
       </c>
       <c r="E30" s="12" t="n">
         <f aca="false">D30/83.784</f>
-        <v>41.7144084789459</v>
+        <v>45.4024634775136</v>
       </c>
       <c r="F30" s="12" t="n">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="G30" s="13" t="n">
         <v>43918</v>
       </c>
       <c r="H30" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,G30)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I30" s="13" t="n">
         <v>43920</v>
       </c>
       <c r="J30" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$22,I30)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K30" s="13" t="n">
         <f aca="false">$B$22+1</f>
-        <v>43936</v>
+        <v>43937</v>
       </c>
       <c r="L30" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K30,G30)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M30" s="0"/>
       <c r="N30" s="0"/>
@@ -1256,7 +1256,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="7" t="n">
-        <v>43934</v>
+        <v>43935</v>
       </c>
       <c r="D34" s="0"/>
       <c r="E34" s="8" t="s">
@@ -1333,36 +1333,36 @@
         <v>300</v>
       </c>
       <c r="D36" s="1" t="n">
-        <v>20465</v>
+        <v>21067</v>
       </c>
       <c r="E36" s="12" t="n">
         <f aca="false">D36/60.48</f>
-        <v>338.376322751323</v>
+        <v>348.330026455026</v>
       </c>
       <c r="F36" s="12" t="n">
-        <v>566</v>
+        <v>602</v>
       </c>
       <c r="G36" s="13" t="n">
         <v>43900</v>
       </c>
       <c r="H36" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,G36)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I36" s="13" t="n">
         <v>43902</v>
       </c>
       <c r="J36" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,I36)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K36" s="13" t="n">
         <f aca="false">$B$34+1</f>
-        <v>43935</v>
+        <v>43936</v>
       </c>
       <c r="L36" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K36,G36)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M36" s="0"/>
       <c r="N36" s="0"/>
@@ -1378,36 +1378,36 @@
         <v>230</v>
       </c>
       <c r="D37" s="1" t="n">
-        <v>17756</v>
+        <v>18255</v>
       </c>
       <c r="E37" s="12" t="n">
         <f aca="false">D37/46.75</f>
-        <v>379.807486631016</v>
+        <v>390.48128342246</v>
       </c>
       <c r="F37" s="12" t="n">
-        <v>547</v>
+        <v>499</v>
       </c>
       <c r="G37" s="13" t="n">
         <v>43907</v>
       </c>
       <c r="H37" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,G37)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I37" s="13" t="n">
         <v>43913</v>
       </c>
       <c r="J37" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,I37)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K37" s="13" t="n">
         <f aca="false">$B$34+1</f>
-        <v>43935</v>
+        <v>43936</v>
       </c>
       <c r="L37" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K37,G37)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M37" s="0"/>
       <c r="N37" s="0"/>
@@ -1423,36 +1423,36 @@
         <v>330</v>
       </c>
       <c r="D38" s="1" t="n">
-        <v>14967</v>
+        <v>15729</v>
       </c>
       <c r="E38" s="12" t="n">
         <f aca="false">D38/65.27</f>
-        <v>229.30902405393</v>
+        <v>240.983606557377</v>
       </c>
       <c r="F38" s="12" t="n">
-        <v>574</v>
+        <v>762</v>
       </c>
       <c r="G38" s="13" t="n">
         <v>43912</v>
       </c>
       <c r="H38" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,G38)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I38" s="13" t="n">
         <v>43914</v>
       </c>
       <c r="J38" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,I38)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K38" s="13" t="n">
         <f aca="false">$B$34+1</f>
-        <v>43935</v>
+        <v>43936</v>
       </c>
       <c r="L38" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K38,G38)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M38" s="0"/>
       <c r="N38" s="0"/>
@@ -1468,36 +1468,36 @@
         <v>50</v>
       </c>
       <c r="D39" s="12" t="n">
-        <v>919</v>
+        <v>1033</v>
       </c>
       <c r="E39" s="12" t="n">
         <f aca="false">D39/10.36</f>
-        <v>88.7065637065637</v>
+        <v>99.7104247104247</v>
       </c>
       <c r="F39" s="12" t="n">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="G39" s="13" t="n">
         <v>43915</v>
       </c>
       <c r="H39" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,G39)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I39" s="13" t="n">
         <v>43928</v>
       </c>
       <c r="J39" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,I39)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K39" s="13" t="n">
         <f aca="false">$B$34+1</f>
-        <v>43935</v>
+        <v>43936</v>
       </c>
       <c r="L39" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K39,G39)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M39" s="0"/>
       <c r="N39" s="0"/>
@@ -1513,36 +1513,36 @@
         <v>330</v>
       </c>
       <c r="D40" s="1" t="n">
-        <v>11329</v>
+        <v>12107</v>
       </c>
       <c r="E40" s="12" t="n">
         <f aca="false">D40/67.79</f>
-        <v>167.1190441068</v>
+        <v>178.59566307715</v>
       </c>
       <c r="F40" s="12" t="n">
-        <v>717</v>
+        <v>778</v>
       </c>
       <c r="G40" s="13" t="n">
         <v>43916</v>
       </c>
       <c r="H40" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,G40)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I40" s="13" t="n">
         <v>43919</v>
       </c>
       <c r="J40" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,I40)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K40" s="13" t="n">
         <f aca="false">$B$34+1</f>
-        <v>43935</v>
+        <v>43936</v>
       </c>
       <c r="L40" s="0" t="n">
         <f aca="false">_xlfn.DAYS(K40,G40)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M40" s="0"/>
       <c r="N40" s="0"/>
@@ -1558,36 +1558,36 @@
         <v>1660</v>
       </c>
       <c r="D41" s="1" t="n">
-        <v>23640</v>
+        <v>26047</v>
       </c>
       <c r="E41" s="12" t="n">
         <f aca="false">D41/331</f>
-        <v>71.4199395770393</v>
+        <v>78.6918429003021</v>
       </c>
       <c r="F41" s="12" t="n">
-        <v>1535</v>
+        <v>2407</v>
       </c>
       <c r="G41" s="13" t="n">
         <v>43917</v>
       </c>
       <c r="H41" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,G41)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I41" s="13" t="n">
         <v>43921</v>
       </c>
       <c r="J41" s="1" t="n">
         <f aca="false">_xlfn.DAYS($B$34,I41)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K41" s="13" t="n">
         <f aca="false">$B$34+1<